--- a/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
+++ b/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisondavis/Desktop/University/Research/Summer 2020/nmcuration-master/wishlist/Koerner_2005_Polymer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisondavis/Documents/GitHub/nmcuration/in-progress/Koerner_2005_Polymer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A877A97-779B-EA46-949B-AF0F73B50B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F98CEC9-B1BC-5D43-912D-7558BAA962A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28400" windowHeight="17480" activeTab="1" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25020" windowHeight="17480" activeTab="1" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Curation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="290">
   <si>
     <t>Notes:</t>
   </si>
@@ -884,7 +884,52 @@
     <t>S26 - Hard (135C)</t>
   </si>
   <si>
-    <t>Sample 27-29</t>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Outside File Name</t>
+  </si>
+  <si>
+    <t>Stress-Elongation_S12</t>
+  </si>
+  <si>
+    <t>Stress-Elongation_S13</t>
+  </si>
+  <si>
+    <t>Stress-Elongation_S14</t>
+  </si>
+  <si>
+    <t>Stress-Elongation_S15</t>
+  </si>
+  <si>
+    <t>Stress-Elongation_S16</t>
+  </si>
+  <si>
+    <t>Thermal_Conductivity_S27</t>
+  </si>
+  <si>
+    <t>Thermal_Conductivity_S29</t>
+  </si>
+  <si>
+    <t>Thermal_Conductivity_S28</t>
+  </si>
+  <si>
+    <t>S25_Soft(48C)</t>
+  </si>
+  <si>
+    <t>S26_Hard(135C)</t>
   </si>
 </sst>
 </file>
@@ -1415,30 +1460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1591,19 +1612,6 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1641,53 +1649,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1722,11 +1691,81 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1735,7 +1774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1812,33 +1851,78 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1848,19 +1932,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1959,35 +2037,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1995,21 +2061,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2402,7 +2473,7 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="17" thickBot="1">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="124" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2416,18 +2487,18 @@
       </c>
     </row>
     <row r="9" spans="2:26" ht="17" thickBot="1">
-      <c r="B9" s="94"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="114" t="s">
+      <c r="E9" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="115"/>
-      <c r="G9" s="116"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="141"/>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="94"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2440,41 +2511,41 @@
       <c r="G10" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="114" t="s">
+      <c r="J10" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="116"/>
-      <c r="L10" s="114" t="s">
+      <c r="K10" s="141"/>
+      <c r="L10" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="116"/>
-      <c r="N10" s="114" t="s">
+      <c r="M10" s="141"/>
+      <c r="N10" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="116"/>
-      <c r="P10" s="114" t="s">
+      <c r="O10" s="141"/>
+      <c r="P10" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="114" t="s">
+      <c r="Q10" s="141"/>
+      <c r="R10" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="S10" s="116"/>
-      <c r="U10" s="122" t="s">
+      <c r="S10" s="141"/>
+      <c r="U10" s="147" t="s">
         <v>253</v>
       </c>
-      <c r="V10" s="123"/>
-      <c r="W10" s="122" t="s">
+      <c r="V10" s="148"/>
+      <c r="W10" s="147" t="s">
         <v>255</v>
       </c>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="125" t="s">
+      <c r="X10" s="149"/>
+      <c r="Y10" s="150" t="s">
         <v>254</v>
       </c>
-      <c r="Z10" s="124"/>
+      <c r="Z10" s="149"/>
     </row>
     <row r="11" spans="2:26" ht="17" thickBot="1">
-      <c r="B11" s="94"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2531,7 +2602,7 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="B12" s="94"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2594,7 +2665,7 @@
       </c>
     </row>
     <row r="13" spans="2:26">
-      <c r="B13" s="94"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2657,10 +2728,10 @@
       </c>
     </row>
     <row r="14" spans="2:26" ht="16" customHeight="1">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="126" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2722,8 +2793,8 @@
       </c>
     </row>
     <row r="15" spans="2:26" ht="16" customHeight="1">
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
       <c r="E15" s="12" t="s">
         <v>170</v>
       </c>
@@ -2783,8 +2854,8 @@
       </c>
     </row>
     <row r="16" spans="2:26">
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
       <c r="E16" s="12" t="s">
         <v>171</v>
       </c>
@@ -2844,8 +2915,8 @@
       </c>
     </row>
     <row r="17" spans="2:26">
-      <c r="B17" s="100"/>
-      <c r="C17" s="101"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
       <c r="E17" s="12" t="s">
         <v>172</v>
       </c>
@@ -2905,10 +2976,10 @@
       </c>
     </row>
     <row r="18" spans="2:26">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="127" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -2970,8 +3041,8 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="B19" s="103"/>
-      <c r="C19" s="102"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="127"/>
       <c r="E19" s="12" t="s">
         <v>174</v>
       </c>
@@ -3031,8 +3102,8 @@
       </c>
     </row>
     <row r="20" spans="2:26" ht="17" thickBot="1">
-      <c r="B20" s="103"/>
-      <c r="C20" s="102"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="127"/>
       <c r="E20" s="12" t="s">
         <v>175</v>
       </c>
@@ -3157,10 +3228,10 @@
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="126" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="12">
@@ -3213,8 +3284,8 @@
       </c>
     </row>
     <row r="23" spans="2:26" ht="17" thickBot="1">
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="126"/>
       <c r="J23" s="12">
         <v>1.35455762059425</v>
       </c>
@@ -3265,14 +3336,14 @@
       </c>
     </row>
     <row r="24" spans="2:26" ht="16" customHeight="1" thickBot="1">
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="E24" s="96" t="s">
+      <c r="B24" s="125"/>
+      <c r="C24" s="126"/>
+      <c r="E24" s="121" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="123"/>
       <c r="J24" s="12">
         <v>1.39607392036569</v>
       </c>
@@ -3323,8 +3394,8 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="17" thickBot="1">
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="126"/>
       <c r="E25" s="41" t="s">
         <v>163</v>
       </c>
@@ -3387,10 +3458,10 @@
       </c>
     </row>
     <row r="26" spans="2:26">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="127" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="32" t="s">
@@ -3455,8 +3526,8 @@
       </c>
     </row>
     <row r="27" spans="2:26">
-      <c r="B27" s="94"/>
-      <c r="C27" s="102"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="127"/>
       <c r="E27" s="12" t="s">
         <v>189</v>
       </c>
@@ -3519,10 +3590,10 @@
       </c>
     </row>
     <row r="28" spans="2:26">
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="129" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -3587,8 +3658,8 @@
       </c>
     </row>
     <row r="29" spans="2:26">
-      <c r="B29" s="100"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="130"/>
       <c r="E29" s="12" t="s">
         <v>191</v>
       </c>
@@ -3651,8 +3722,8 @@
       </c>
     </row>
     <row r="30" spans="2:26">
-      <c r="B30" s="100"/>
-      <c r="C30" s="105"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="130"/>
       <c r="E30" s="12" t="s">
         <v>192</v>
       </c>
@@ -3715,8 +3786,8 @@
       </c>
     </row>
     <row r="31" spans="2:26">
-      <c r="B31" s="100"/>
-      <c r="C31" s="106"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="131"/>
       <c r="E31" s="12" t="s">
         <v>193</v>
       </c>
@@ -3779,10 +3850,10 @@
       </c>
     </row>
     <row r="32" spans="2:26" ht="17" thickBot="1">
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="102" t="s">
+      <c r="C32" s="127" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3847,8 +3918,8 @@
       </c>
     </row>
     <row r="33" spans="2:26" ht="17" thickBot="1">
-      <c r="B33" s="94"/>
-      <c r="C33" s="102"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="127"/>
       <c r="J33" s="12">
         <v>1.76972061830867</v>
       </c>
@@ -3899,14 +3970,14 @@
       </c>
     </row>
     <row r="34" spans="2:26" ht="17" thickBot="1">
-      <c r="B34" s="94"/>
-      <c r="C34" s="102"/>
-      <c r="E34" s="96" t="s">
+      <c r="B34" s="119"/>
+      <c r="C34" s="127"/>
+      <c r="E34" s="121" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="98"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="123"/>
       <c r="J34" s="12">
         <v>1.81123691808011</v>
       </c>
@@ -3939,10 +4010,10 @@
       </c>
     </row>
     <row r="35" spans="2:26" ht="17" thickBot="1">
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="126" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="41" t="s">
@@ -3989,8 +4060,8 @@
       </c>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="126"/>
       <c r="E36" s="32" t="s">
         <v>197</v>
       </c>
@@ -4035,8 +4106,8 @@
       </c>
     </row>
     <row r="37" spans="2:26">
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="126"/>
       <c r="E37" s="12" t="s">
         <v>198</v>
       </c>
@@ -4081,10 +4152,10 @@
       </c>
     </row>
     <row r="38" spans="2:26" ht="16" customHeight="1">
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="127" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -4131,8 +4202,8 @@
       </c>
     </row>
     <row r="39" spans="2:26">
-      <c r="B39" s="94"/>
-      <c r="C39" s="102"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="127"/>
       <c r="E39" s="12" t="s">
         <v>200</v>
       </c>
@@ -4177,8 +4248,8 @@
       </c>
     </row>
     <row r="40" spans="2:26">
-      <c r="B40" s="94"/>
-      <c r="C40" s="102"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="127"/>
       <c r="E40" s="12" t="s">
         <v>201</v>
       </c>
@@ -4227,8 +4298,8 @@
       <c r="X40" s="27"/>
     </row>
     <row r="41" spans="2:26">
-      <c r="B41" s="94"/>
-      <c r="C41" s="102"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="127"/>
       <c r="E41" s="12" t="s">
         <v>202</v>
       </c>
@@ -4277,8 +4348,8 @@
       <c r="X41" s="27"/>
     </row>
     <row r="42" spans="2:26" ht="17" thickBot="1">
-      <c r="B42" s="94"/>
-      <c r="C42" s="102"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="127"/>
       <c r="E42" s="13" t="s">
         <v>203</v>
       </c>
@@ -4327,8 +4398,8 @@
       <c r="X42" s="27"/>
     </row>
     <row r="43" spans="2:26" ht="17" thickBot="1">
-      <c r="B43" s="94"/>
-      <c r="C43" s="102"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="127"/>
       <c r="E43" s="41" t="s">
         <v>163</v>
       </c>
@@ -4377,10 +4448,10 @@
       <c r="X43" s="27"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="B44" s="100" t="s">
+      <c r="B44" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="126" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="36" t="s">
@@ -4431,8 +4502,8 @@
       <c r="X44" s="27"/>
     </row>
     <row r="45" spans="2:26" ht="16" customHeight="1">
-      <c r="B45" s="100"/>
-      <c r="C45" s="101"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="126"/>
       <c r="E45" s="38" t="s">
         <v>205</v>
       </c>
@@ -4481,8 +4552,8 @@
       <c r="X45" s="27"/>
     </row>
     <row r="46" spans="2:26">
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="126"/>
       <c r="E46" s="38" t="s">
         <v>206</v>
       </c>
@@ -4531,8 +4602,8 @@
       <c r="X46" s="27"/>
     </row>
     <row r="47" spans="2:26" ht="17" thickBot="1">
-      <c r="B47" s="100"/>
-      <c r="C47" s="101"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="126"/>
       <c r="E47" s="38" t="s">
         <v>207</v>
       </c>
@@ -4581,8 +4652,8 @@
       <c r="X47" s="27"/>
     </row>
     <row r="48" spans="2:26">
-      <c r="B48" s="100"/>
-      <c r="C48" s="101"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="126"/>
       <c r="E48" s="38" t="s">
         <v>208</v>
       </c>
@@ -4601,8 +4672,8 @@
       <c r="X48" s="27"/>
     </row>
     <row r="49" spans="2:24">
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="126"/>
       <c r="E49" s="38" t="s">
         <v>209</v>
       </c>
@@ -4621,8 +4692,8 @@
       <c r="X49" s="27"/>
     </row>
     <row r="50" spans="2:24" ht="17" thickBot="1">
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="126"/>
       <c r="E50" s="39" t="s">
         <v>210</v>
       </c>
@@ -4641,34 +4712,34 @@
       <c r="X50" s="27"/>
     </row>
     <row r="51" spans="2:24" ht="17" thickBot="1">
-      <c r="B51" s="100"/>
-      <c r="C51" s="101"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="126"/>
       <c r="U51" s="27"/>
       <c r="V51" s="27"/>
       <c r="W51" s="27"/>
       <c r="X51" s="27"/>
     </row>
     <row r="52" spans="2:24" ht="17" thickBot="1">
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="102" t="s">
+      <c r="C52" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="96" t="s">
+      <c r="E52" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="98"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="123"/>
       <c r="U52" s="27"/>
       <c r="V52" s="27"/>
       <c r="W52" s="27"/>
       <c r="X52" s="27"/>
     </row>
     <row r="53" spans="2:24" ht="17" thickBot="1">
-      <c r="B53" s="94"/>
-      <c r="C53" s="102"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="127"/>
       <c r="E53" s="41" t="s">
         <v>163</v>
       </c>
@@ -4687,8 +4758,8 @@
       <c r="X53" s="27"/>
     </row>
     <row r="54" spans="2:24">
-      <c r="B54" s="94"/>
-      <c r="C54" s="102"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="127"/>
       <c r="E54" s="32" t="s">
         <v>213</v>
       </c>
@@ -4707,8 +4778,8 @@
       <c r="X54" s="27"/>
     </row>
     <row r="55" spans="2:24">
-      <c r="B55" s="94"/>
-      <c r="C55" s="102"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="127"/>
       <c r="E55" s="12" t="s">
         <v>214</v>
       </c>
@@ -4727,8 +4798,8 @@
       <c r="X55" s="27"/>
     </row>
     <row r="56" spans="2:24">
-      <c r="B56" s="94"/>
-      <c r="C56" s="102"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="127"/>
       <c r="E56" s="12" t="s">
         <v>215</v>
       </c>
@@ -4747,8 +4818,8 @@
       <c r="X56" s="27"/>
     </row>
     <row r="57" spans="2:24">
-      <c r="B57" s="94"/>
-      <c r="C57" s="102"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="127"/>
       <c r="E57" s="12" t="s">
         <v>216</v>
       </c>
@@ -4767,8 +4838,8 @@
       <c r="X57" s="27"/>
     </row>
     <row r="58" spans="2:24">
-      <c r="B58" s="94"/>
-      <c r="C58" s="102"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="127"/>
       <c r="E58" s="12" t="s">
         <v>217</v>
       </c>
@@ -4787,10 +4858,10 @@
       <c r="X58" s="27"/>
     </row>
     <row r="59" spans="2:24" ht="16" customHeight="1" thickBot="1">
-      <c r="B59" s="100" t="s">
+      <c r="B59" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="101" t="s">
+      <c r="C59" s="126" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="34" t="s">
@@ -4811,8 +4882,8 @@
       <c r="X59" s="27"/>
     </row>
     <row r="60" spans="2:24" ht="17" thickBot="1">
-      <c r="B60" s="100"/>
-      <c r="C60" s="101"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="126"/>
       <c r="E60" s="41" t="s">
         <v>163</v>
       </c>
@@ -4831,8 +4902,8 @@
       <c r="X60" s="27"/>
     </row>
     <row r="61" spans="2:24">
-      <c r="B61" s="100"/>
-      <c r="C61" s="101"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="126"/>
       <c r="E61" s="44" t="s">
         <v>219</v>
       </c>
@@ -4851,8 +4922,8 @@
       <c r="X61" s="27"/>
     </row>
     <row r="62" spans="2:24">
-      <c r="B62" s="100"/>
-      <c r="C62" s="101"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="126"/>
       <c r="E62" s="38" t="s">
         <v>220</v>
       </c>
@@ -4871,8 +4942,8 @@
       <c r="X62" s="27"/>
     </row>
     <row r="63" spans="2:24">
-      <c r="B63" s="100"/>
-      <c r="C63" s="101"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="126"/>
       <c r="E63" s="38" t="s">
         <v>221</v>
       </c>
@@ -4915,10 +4986,10 @@
       <c r="X64" s="27"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="94" t="s">
+      <c r="B65" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="102" t="s">
+      <c r="C65" s="127" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="38" t="s">
@@ -4935,8 +5006,8 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="17" thickBot="1">
-      <c r="B66" s="94"/>
-      <c r="C66" s="102"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="127"/>
       <c r="E66" s="39" t="s">
         <v>224</v>
       </c>
@@ -4963,22 +5034,22 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="2:8" ht="17" thickBot="1">
-      <c r="B68" s="94" t="s">
+      <c r="B68" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="102" t="s">
+      <c r="C68" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="96" t="s">
+      <c r="E68" s="121" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="97"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="98"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="122"/>
+      <c r="H68" s="123"/>
     </row>
     <row r="69" spans="2:8" ht="17" thickBot="1">
-      <c r="B69" s="94"/>
-      <c r="C69" s="102"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="127"/>
       <c r="E69" s="41" t="s">
         <v>163</v>
       </c>
@@ -4993,8 +5064,8 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="94"/>
-      <c r="C70" s="102"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="127"/>
       <c r="E70" s="32" t="s">
         <v>228</v>
       </c>
@@ -5009,8 +5080,8 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="94"/>
-      <c r="C71" s="102"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="127"/>
       <c r="E71" s="12" t="s">
         <v>229</v>
       </c>
@@ -5025,8 +5096,8 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="94"/>
-      <c r="C72" s="102"/>
+      <c r="B72" s="119"/>
+      <c r="C72" s="127"/>
       <c r="E72" s="12" t="s">
         <v>230</v>
       </c>
@@ -5041,7 +5112,7 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="119" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -5061,7 +5132,7 @@
       </c>
     </row>
     <row r="74" spans="2:8" ht="17" thickBot="1">
-      <c r="B74" s="94"/>
+      <c r="B74" s="119"/>
       <c r="C74" s="11" t="s">
         <v>42</v>
       </c>
@@ -5079,8 +5150,8 @@
       </c>
     </row>
     <row r="75" spans="2:8" ht="17" thickBot="1">
-      <c r="B75" s="94"/>
-      <c r="C75" s="102" t="s">
+      <c r="B75" s="119"/>
+      <c r="C75" s="127" t="s">
         <v>44</v>
       </c>
       <c r="E75" s="41" t="s">
@@ -5097,8 +5168,8 @@
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="94"/>
-      <c r="C76" s="102"/>
+      <c r="B76" s="119"/>
+      <c r="C76" s="127"/>
       <c r="E76" s="44" t="s">
         <v>233</v>
       </c>
@@ -5113,8 +5184,8 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="94"/>
-      <c r="C77" s="102"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="127"/>
       <c r="E77" s="38" t="s">
         <v>234</v>
       </c>
@@ -5129,10 +5200,10 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="94" t="s">
+      <c r="B78" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="102" t="s">
+      <c r="C78" s="127" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="38" t="s">
@@ -5149,8 +5220,8 @@
       </c>
     </row>
     <row r="79" spans="2:8" ht="17" thickBot="1">
-      <c r="B79" s="94"/>
-      <c r="C79" s="102"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="127"/>
       <c r="E79" s="39" t="s">
         <v>236</v>
       </c>
@@ -5165,32 +5236,32 @@
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="94"/>
-      <c r="C80" s="102"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="127"/>
     </row>
     <row r="81" spans="2:8" ht="17" thickBot="1">
-      <c r="B81" s="94"/>
-      <c r="C81" s="102"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="127"/>
       <c r="E81" s="27"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
       <c r="H81" s="26"/>
     </row>
     <row r="82" spans="2:8" ht="17" thickBot="1">
-      <c r="B82" s="94"/>
-      <c r="C82" s="102"/>
-      <c r="E82" s="96" t="s">
+      <c r="B82" s="119"/>
+      <c r="C82" s="127"/>
+      <c r="E82" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="F82" s="97"/>
-      <c r="G82" s="97"/>
-      <c r="H82" s="98"/>
+      <c r="F82" s="122"/>
+      <c r="G82" s="122"/>
+      <c r="H82" s="123"/>
     </row>
     <row r="83" spans="2:8" ht="17" thickBot="1">
-      <c r="B83" s="94" t="s">
+      <c r="B83" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="102" t="s">
+      <c r="C83" s="127" t="s">
         <v>49</v>
       </c>
       <c r="E83" s="16" t="s">
@@ -5207,18 +5278,18 @@
       </c>
     </row>
     <row r="84" spans="2:8" ht="17" thickBot="1">
-      <c r="B84" s="94"/>
-      <c r="C84" s="102"/>
-      <c r="E84" s="117" t="s">
+      <c r="B84" s="119"/>
+      <c r="C84" s="127"/>
+      <c r="E84" s="142" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="118"/>
-      <c r="G84" s="118"/>
-      <c r="H84" s="119"/>
+      <c r="F84" s="143"/>
+      <c r="G84" s="143"/>
+      <c r="H84" s="144"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="94"/>
-      <c r="C85" s="102"/>
+      <c r="B85" s="119"/>
+      <c r="C85" s="127"/>
       <c r="E85" s="32" t="s">
         <v>240</v>
       </c>
@@ -5233,10 +5304,10 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="94" t="s">
+      <c r="B86" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="102" t="s">
+      <c r="C86" s="127" t="s">
         <v>52</v>
       </c>
       <c r="E86" s="12" t="s">
@@ -5253,8 +5324,8 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="94"/>
-      <c r="C87" s="102"/>
+      <c r="B87" s="119"/>
+      <c r="C87" s="127"/>
       <c r="E87" s="12" t="s">
         <v>242</v>
       </c>
@@ -5269,8 +5340,8 @@
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="94"/>
-      <c r="C88" s="102"/>
+      <c r="B88" s="119"/>
+      <c r="C88" s="127"/>
       <c r="E88" s="12" t="s">
         <v>244</v>
       </c>
@@ -5285,10 +5356,10 @@
       </c>
     </row>
     <row r="89" spans="2:8" ht="17" thickBot="1">
-      <c r="B89" s="94" t="s">
+      <c r="B89" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="102" t="s">
+      <c r="C89" s="127" t="s">
         <v>53</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -5305,18 +5376,18 @@
       </c>
     </row>
     <row r="90" spans="2:8" ht="17" thickBot="1">
-      <c r="B90" s="94"/>
-      <c r="C90" s="102"/>
-      <c r="E90" s="117" t="s">
+      <c r="B90" s="119"/>
+      <c r="C90" s="127"/>
+      <c r="E90" s="142" t="s">
         <v>252</v>
       </c>
-      <c r="F90" s="120"/>
-      <c r="G90" s="120"/>
-      <c r="H90" s="121"/>
+      <c r="F90" s="145"/>
+      <c r="G90" s="145"/>
+      <c r="H90" s="146"/>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="94"/>
-      <c r="C91" s="102"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="127"/>
       <c r="E91" s="44" t="s">
         <v>245</v>
       </c>
@@ -5331,10 +5402,10 @@
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="94" t="s">
+      <c r="B92" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="102" t="s">
+      <c r="C92" s="127" t="s">
         <v>55</v>
       </c>
       <c r="E92" s="38" t="s">
@@ -5351,8 +5422,8 @@
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="94"/>
-      <c r="C93" s="102"/>
+      <c r="B93" s="119"/>
+      <c r="C93" s="127"/>
       <c r="E93" s="38" t="s">
         <v>247</v>
       </c>
@@ -5367,8 +5438,8 @@
       </c>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="94"/>
-      <c r="C94" s="102"/>
+      <c r="B94" s="119"/>
+      <c r="C94" s="127"/>
       <c r="E94" s="38" t="s">
         <v>248</v>
       </c>
@@ -5383,7 +5454,7 @@
       </c>
     </row>
     <row r="95" spans="2:8" ht="17" thickBot="1">
-      <c r="B95" s="94" t="s">
+      <c r="B95" s="119" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -5403,14 +5474,14 @@
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="94"/>
-      <c r="C96" s="102" t="s">
+      <c r="B96" s="119"/>
+      <c r="C96" s="127" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="97" spans="2:27" ht="17" thickBot="1">
-      <c r="B97" s="95"/>
-      <c r="C97" s="108"/>
+      <c r="B97" s="120"/>
+      <c r="C97" s="133"/>
     </row>
     <row r="98" spans="2:27" ht="17" thickBot="1">
       <c r="B98" s="18" t="s">
@@ -5421,53 +5492,53 @@
       </c>
     </row>
     <row r="99" spans="2:27">
-      <c r="B99" s="99" t="s">
+      <c r="B99" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="107" t="s">
+      <c r="C99" s="132" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="100" spans="2:27" ht="17" thickBot="1">
-      <c r="B100" s="94"/>
-      <c r="C100" s="102"/>
+      <c r="B100" s="119"/>
+      <c r="C100" s="127"/>
     </row>
     <row r="101" spans="2:27" ht="17" thickBot="1">
-      <c r="B101" s="94" t="s">
+      <c r="B101" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C101" s="102" t="s">
+      <c r="C101" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="E101" s="96" t="s">
+      <c r="E101" s="121" t="s">
         <v>259</v>
       </c>
-      <c r="F101" s="97"/>
-      <c r="G101" s="97"/>
-      <c r="H101" s="97"/>
-      <c r="I101" s="97"/>
-      <c r="J101" s="97"/>
-      <c r="K101" s="97"/>
-      <c r="L101" s="97"/>
-      <c r="M101" s="97"/>
-      <c r="N101" s="97"/>
-      <c r="O101" s="97"/>
-      <c r="P101" s="97"/>
-      <c r="Q101" s="97"/>
-      <c r="R101" s="97"/>
-      <c r="S101" s="97"/>
-      <c r="T101" s="97"/>
-      <c r="U101" s="97"/>
-      <c r="V101" s="97"/>
-      <c r="W101" s="97"/>
-      <c r="X101" s="97"/>
-      <c r="Y101" s="97"/>
-      <c r="Z101" s="97"/>
-      <c r="AA101" s="98"/>
+      <c r="F101" s="122"/>
+      <c r="G101" s="122"/>
+      <c r="H101" s="122"/>
+      <c r="I101" s="122"/>
+      <c r="J101" s="122"/>
+      <c r="K101" s="122"/>
+      <c r="L101" s="122"/>
+      <c r="M101" s="122"/>
+      <c r="N101" s="122"/>
+      <c r="O101" s="122"/>
+      <c r="P101" s="122"/>
+      <c r="Q101" s="122"/>
+      <c r="R101" s="122"/>
+      <c r="S101" s="122"/>
+      <c r="T101" s="122"/>
+      <c r="U101" s="122"/>
+      <c r="V101" s="122"/>
+      <c r="W101" s="122"/>
+      <c r="X101" s="122"/>
+      <c r="Y101" s="122"/>
+      <c r="Z101" s="122"/>
+      <c r="AA101" s="123"/>
     </row>
     <row r="102" spans="2:27" ht="17" customHeight="1" thickBot="1">
-      <c r="B102" s="94"/>
-      <c r="C102" s="102"/>
+      <c r="B102" s="119"/>
+      <c r="C102" s="127"/>
       <c r="E102" s="41" t="s">
         <v>268</v>
       </c>
@@ -5545,7 +5616,7 @@
       <c r="C103" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E103" s="85" t="s">
+      <c r="E103" s="110" t="s">
         <v>162</v>
       </c>
       <c r="F103" s="63" t="s">
@@ -5578,13 +5649,13 @@
       <c r="AA103" s="52"/>
     </row>
     <row r="104" spans="2:27">
-      <c r="B104" s="94" t="s">
+      <c r="B104" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="102" t="s">
+      <c r="C104" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="E104" s="86"/>
+      <c r="E104" s="111"/>
       <c r="F104" s="60" t="s">
         <v>167</v>
       </c>
@@ -5615,9 +5686,9 @@
       <c r="AA104" s="53"/>
     </row>
     <row r="105" spans="2:27">
-      <c r="B105" s="94"/>
-      <c r="C105" s="102"/>
-      <c r="E105" s="86"/>
+      <c r="B105" s="119"/>
+      <c r="C105" s="127"/>
+      <c r="E105" s="111"/>
       <c r="F105" s="60" t="s">
         <v>168</v>
       </c>
@@ -5648,9 +5719,9 @@
       <c r="AA105" s="53"/>
     </row>
     <row r="106" spans="2:27">
-      <c r="B106" s="94"/>
-      <c r="C106" s="102"/>
-      <c r="E106" s="86"/>
+      <c r="B106" s="119"/>
+      <c r="C106" s="127"/>
+      <c r="E106" s="111"/>
       <c r="F106" s="60" t="s">
         <v>169</v>
       </c>
@@ -5681,13 +5752,13 @@
       <c r="AA106" s="53"/>
     </row>
     <row r="107" spans="2:27">
-      <c r="B107" s="94" t="s">
+      <c r="B107" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="C107" s="102" t="s">
+      <c r="C107" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="E107" s="86"/>
+      <c r="E107" s="111"/>
       <c r="F107" s="60" t="s">
         <v>170</v>
       </c>
@@ -5718,9 +5789,9 @@
       <c r="AA107" s="53"/>
     </row>
     <row r="108" spans="2:27">
-      <c r="B108" s="94"/>
-      <c r="C108" s="102"/>
-      <c r="E108" s="86"/>
+      <c r="B108" s="119"/>
+      <c r="C108" s="127"/>
+      <c r="E108" s="111"/>
       <c r="F108" s="60" t="s">
         <v>171</v>
       </c>
@@ -5751,9 +5822,9 @@
       <c r="AA108" s="53"/>
     </row>
     <row r="109" spans="2:27">
-      <c r="B109" s="94"/>
-      <c r="C109" s="102"/>
-      <c r="E109" s="86"/>
+      <c r="B109" s="119"/>
+      <c r="C109" s="127"/>
+      <c r="E109" s="111"/>
       <c r="F109" s="60" t="s">
         <v>172</v>
       </c>
@@ -5784,9 +5855,9 @@
       <c r="AA109" s="53"/>
     </row>
     <row r="110" spans="2:27">
-      <c r="B110" s="94"/>
-      <c r="C110" s="102"/>
-      <c r="E110" s="86"/>
+      <c r="B110" s="119"/>
+      <c r="C110" s="127"/>
+      <c r="E110" s="111"/>
       <c r="F110" s="60" t="s">
         <v>173</v>
       </c>
@@ -5817,9 +5888,9 @@
       <c r="AA110" s="53"/>
     </row>
     <row r="111" spans="2:27">
-      <c r="B111" s="94"/>
-      <c r="C111" s="102"/>
-      <c r="E111" s="86"/>
+      <c r="B111" s="119"/>
+      <c r="C111" s="127"/>
+      <c r="E111" s="111"/>
       <c r="F111" s="60" t="s">
         <v>174</v>
       </c>
@@ -5850,9 +5921,9 @@
       <c r="AA111" s="53"/>
     </row>
     <row r="112" spans="2:27">
-      <c r="B112" s="94"/>
-      <c r="C112" s="102"/>
-      <c r="E112" s="86"/>
+      <c r="B112" s="119"/>
+      <c r="C112" s="127"/>
+      <c r="E112" s="111"/>
       <c r="F112" s="60" t="s">
         <v>175</v>
       </c>
@@ -5883,9 +5954,9 @@
       <c r="AA112" s="53"/>
     </row>
     <row r="113" spans="2:27" ht="17" thickBot="1">
-      <c r="B113" s="94"/>
-      <c r="C113" s="102"/>
-      <c r="E113" s="87"/>
+      <c r="B113" s="119"/>
+      <c r="C113" s="127"/>
+      <c r="E113" s="112"/>
       <c r="F113" s="61" t="s">
         <v>176</v>
       </c>
@@ -5916,14 +5987,14 @@
       <c r="AA113" s="55"/>
     </row>
     <row r="114" spans="2:27" ht="16" customHeight="1">
-      <c r="B114" s="94" t="s">
+      <c r="B114" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="102"/>
-      <c r="E114" s="88" t="s">
+      <c r="C114" s="127"/>
+      <c r="E114" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="F114" s="90" t="s">
+      <c r="F114" s="115" t="s">
         <v>262</v>
       </c>
       <c r="G114" s="50"/>
@@ -5967,10 +6038,10 @@
       <c r="AA114" s="62"/>
     </row>
     <row r="115" spans="2:27">
-      <c r="B115" s="94"/>
-      <c r="C115" s="102"/>
-      <c r="E115" s="86"/>
-      <c r="F115" s="91"/>
+      <c r="B115" s="119"/>
+      <c r="C115" s="127"/>
+      <c r="E115" s="111"/>
+      <c r="F115" s="116"/>
       <c r="G115" s="48"/>
       <c r="H115" s="48"/>
       <c r="I115" s="48"/>
@@ -6012,12 +6083,12 @@
       <c r="AA115" s="53"/>
     </row>
     <row r="116" spans="2:27">
-      <c r="B116" s="94" t="s">
+      <c r="B116" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="102"/>
-      <c r="E116" s="86"/>
-      <c r="F116" s="91"/>
+      <c r="C116" s="127"/>
+      <c r="E116" s="111"/>
+      <c r="F116" s="116"/>
       <c r="G116" s="48"/>
       <c r="H116" s="48"/>
       <c r="I116" s="48"/>
@@ -6059,10 +6130,10 @@
       <c r="AA116" s="53"/>
     </row>
     <row r="117" spans="2:27">
-      <c r="B117" s="94"/>
-      <c r="C117" s="102"/>
-      <c r="E117" s="86"/>
-      <c r="F117" s="91"/>
+      <c r="B117" s="119"/>
+      <c r="C117" s="127"/>
+      <c r="E117" s="111"/>
+      <c r="F117" s="116"/>
       <c r="G117" s="48"/>
       <c r="H117" s="48"/>
       <c r="I117" s="48"/>
@@ -6104,10 +6175,10 @@
       <c r="AA117" s="53"/>
     </row>
     <row r="118" spans="2:27">
-      <c r="B118" s="94"/>
-      <c r="C118" s="102"/>
-      <c r="E118" s="86"/>
-      <c r="F118" s="91"/>
+      <c r="B118" s="119"/>
+      <c r="C118" s="127"/>
+      <c r="E118" s="111"/>
+      <c r="F118" s="116"/>
       <c r="G118" s="48"/>
       <c r="H118" s="48"/>
       <c r="I118" s="48"/>
@@ -6149,10 +6220,10 @@
       <c r="AA118" s="53"/>
     </row>
     <row r="119" spans="2:27">
-      <c r="B119" s="94"/>
-      <c r="C119" s="102"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="91"/>
+      <c r="B119" s="119"/>
+      <c r="C119" s="127"/>
+      <c r="E119" s="111"/>
+      <c r="F119" s="116"/>
       <c r="G119" s="48"/>
       <c r="H119" s="48"/>
       <c r="I119" s="48"/>
@@ -6194,14 +6265,14 @@
       <c r="AA119" s="53"/>
     </row>
     <row r="120" spans="2:27">
-      <c r="B120" s="103" t="s">
+      <c r="B120" s="128" t="s">
         <v>26</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E120" s="86"/>
-      <c r="F120" s="91"/>
+      <c r="E120" s="111"/>
+      <c r="F120" s="116"/>
       <c r="G120" s="48"/>
       <c r="H120" s="48"/>
       <c r="I120" s="48"/>
@@ -6243,12 +6314,12 @@
       <c r="AA120" s="53"/>
     </row>
     <row r="121" spans="2:27" ht="16" customHeight="1">
-      <c r="B121" s="103"/>
-      <c r="C121" s="102" t="s">
+      <c r="B121" s="128"/>
+      <c r="C121" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="E121" s="86"/>
-      <c r="F121" s="91"/>
+      <c r="E121" s="111"/>
+      <c r="F121" s="116"/>
       <c r="G121" s="48"/>
       <c r="H121" s="48"/>
       <c r="I121" s="48"/>
@@ -6290,10 +6361,10 @@
       <c r="AA121" s="53"/>
     </row>
     <row r="122" spans="2:27" ht="16" customHeight="1">
-      <c r="B122" s="103"/>
-      <c r="C122" s="102"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="91"/>
+      <c r="B122" s="128"/>
+      <c r="C122" s="127"/>
+      <c r="E122" s="111"/>
+      <c r="F122" s="116"/>
       <c r="G122" s="48"/>
       <c r="H122" s="48"/>
       <c r="I122" s="48"/>
@@ -6335,12 +6406,12 @@
       <c r="AA122" s="53"/>
     </row>
     <row r="123" spans="2:27" ht="17" customHeight="1">
-      <c r="B123" s="103"/>
+      <c r="B123" s="128"/>
       <c r="C123" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E123" s="86"/>
-      <c r="F123" s="91"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="116"/>
       <c r="G123" s="48"/>
       <c r="H123" s="48"/>
       <c r="I123" s="48"/>
@@ -6382,14 +6453,14 @@
       <c r="AA123" s="53"/>
     </row>
     <row r="124" spans="2:27" ht="16" customHeight="1">
-      <c r="B124" s="94" t="s">
+      <c r="B124" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="102" t="s">
+      <c r="C124" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="E124" s="86"/>
-      <c r="F124" s="91"/>
+      <c r="E124" s="111"/>
+      <c r="F124" s="116"/>
       <c r="G124" s="48"/>
       <c r="H124" s="48"/>
       <c r="I124" s="48"/>
@@ -6431,10 +6502,10 @@
       <c r="AA124" s="53"/>
     </row>
     <row r="125" spans="2:27">
-      <c r="B125" s="94"/>
-      <c r="C125" s="102"/>
-      <c r="E125" s="86"/>
-      <c r="F125" s="91"/>
+      <c r="B125" s="119"/>
+      <c r="C125" s="127"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="116"/>
       <c r="G125" s="48"/>
       <c r="H125" s="48"/>
       <c r="I125" s="48"/>
@@ -6476,12 +6547,12 @@
       <c r="AA125" s="53"/>
     </row>
     <row r="126" spans="2:27">
-      <c r="B126" s="94"/>
-      <c r="C126" s="102" t="s">
+      <c r="B126" s="119"/>
+      <c r="C126" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="86"/>
-      <c r="F126" s="91"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="116"/>
       <c r="G126" s="48"/>
       <c r="H126" s="48"/>
       <c r="I126" s="48"/>
@@ -6523,10 +6594,10 @@
       <c r="AA126" s="53"/>
     </row>
     <row r="127" spans="2:27">
-      <c r="B127" s="94"/>
-      <c r="C127" s="102"/>
-      <c r="E127" s="86"/>
-      <c r="F127" s="91"/>
+      <c r="B127" s="119"/>
+      <c r="C127" s="127"/>
+      <c r="E127" s="111"/>
+      <c r="F127" s="116"/>
       <c r="G127" s="48"/>
       <c r="H127" s="48"/>
       <c r="I127" s="48"/>
@@ -6568,10 +6639,10 @@
       <c r="AA127" s="53"/>
     </row>
     <row r="128" spans="2:27">
-      <c r="B128" s="94"/>
-      <c r="C128" s="102"/>
-      <c r="E128" s="86"/>
-      <c r="F128" s="91"/>
+      <c r="B128" s="119"/>
+      <c r="C128" s="127"/>
+      <c r="E128" s="111"/>
+      <c r="F128" s="116"/>
       <c r="G128" s="48"/>
       <c r="H128" s="48"/>
       <c r="I128" s="48"/>
@@ -6613,14 +6684,14 @@
       <c r="AA128" s="53"/>
     </row>
     <row r="129" spans="2:27" ht="16" customHeight="1">
-      <c r="B129" s="94" t="s">
+      <c r="B129" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="C129" s="102" t="s">
+      <c r="C129" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="E129" s="86"/>
-      <c r="F129" s="91"/>
+      <c r="E129" s="111"/>
+      <c r="F129" s="116"/>
       <c r="G129" s="48"/>
       <c r="H129" s="48"/>
       <c r="I129" s="48"/>
@@ -6662,10 +6733,10 @@
       <c r="AA129" s="53"/>
     </row>
     <row r="130" spans="2:27">
-      <c r="B130" s="94"/>
-      <c r="C130" s="102"/>
-      <c r="E130" s="86"/>
-      <c r="F130" s="91"/>
+      <c r="B130" s="119"/>
+      <c r="C130" s="127"/>
+      <c r="E130" s="111"/>
+      <c r="F130" s="116"/>
       <c r="G130" s="48"/>
       <c r="H130" s="48"/>
       <c r="I130" s="48"/>
@@ -6707,12 +6778,12 @@
       <c r="AA130" s="53"/>
     </row>
     <row r="131" spans="2:27">
-      <c r="B131" s="94" t="s">
+      <c r="B131" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="102"/>
-      <c r="E131" s="86"/>
-      <c r="F131" s="91"/>
+      <c r="C131" s="127"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="116"/>
       <c r="G131" s="48"/>
       <c r="H131" s="48"/>
       <c r="I131" s="48"/>
@@ -6754,10 +6825,10 @@
       <c r="AA131" s="53"/>
     </row>
     <row r="132" spans="2:27">
-      <c r="B132" s="94"/>
-      <c r="C132" s="102"/>
-      <c r="E132" s="86"/>
-      <c r="F132" s="91"/>
+      <c r="B132" s="119"/>
+      <c r="C132" s="127"/>
+      <c r="E132" s="111"/>
+      <c r="F132" s="116"/>
       <c r="G132" s="48"/>
       <c r="H132" s="48"/>
       <c r="I132" s="48"/>
@@ -6799,14 +6870,14 @@
       <c r="AA132" s="53"/>
     </row>
     <row r="133" spans="2:27">
-      <c r="B133" s="94" t="s">
+      <c r="B133" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C133" s="102" t="s">
+      <c r="C133" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="E133" s="86"/>
-      <c r="F133" s="91"/>
+      <c r="E133" s="111"/>
+      <c r="F133" s="116"/>
       <c r="G133" s="48"/>
       <c r="H133" s="48"/>
       <c r="I133" s="48"/>
@@ -6848,10 +6919,10 @@
       <c r="AA133" s="53"/>
     </row>
     <row r="134" spans="2:27">
-      <c r="B134" s="94"/>
-      <c r="C134" s="102"/>
-      <c r="E134" s="86"/>
-      <c r="F134" s="91"/>
+      <c r="B134" s="119"/>
+      <c r="C134" s="127"/>
+      <c r="E134" s="111"/>
+      <c r="F134" s="116"/>
       <c r="G134" s="48"/>
       <c r="H134" s="48"/>
       <c r="I134" s="48"/>
@@ -6893,10 +6964,10 @@
       <c r="AA134" s="53"/>
     </row>
     <row r="135" spans="2:27">
-      <c r="B135" s="94"/>
-      <c r="C135" s="102"/>
-      <c r="E135" s="86"/>
-      <c r="F135" s="91"/>
+      <c r="B135" s="119"/>
+      <c r="C135" s="127"/>
+      <c r="E135" s="111"/>
+      <c r="F135" s="116"/>
       <c r="G135" s="48"/>
       <c r="H135" s="48"/>
       <c r="I135" s="48"/>
@@ -6938,14 +7009,14 @@
       <c r="AA135" s="53"/>
     </row>
     <row r="136" spans="2:27">
-      <c r="B136" s="94" t="s">
+      <c r="B136" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="C136" s="110" t="s">
+      <c r="C136" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="E136" s="86"/>
-      <c r="F136" s="91"/>
+      <c r="E136" s="111"/>
+      <c r="F136" s="116"/>
       <c r="G136" s="48"/>
       <c r="H136" s="48"/>
       <c r="I136" s="48"/>
@@ -6987,10 +7058,10 @@
       <c r="AA136" s="53"/>
     </row>
     <row r="137" spans="2:27" ht="16" customHeight="1">
-      <c r="B137" s="94"/>
-      <c r="C137" s="111"/>
-      <c r="E137" s="86"/>
-      <c r="F137" s="91"/>
+      <c r="B137" s="119"/>
+      <c r="C137" s="136"/>
+      <c r="E137" s="111"/>
+      <c r="F137" s="116"/>
       <c r="G137" s="48"/>
       <c r="H137" s="48"/>
       <c r="I137" s="48"/>
@@ -7032,10 +7103,10 @@
       <c r="AA137" s="53"/>
     </row>
     <row r="138" spans="2:27">
-      <c r="B138" s="94"/>
-      <c r="C138" s="111"/>
-      <c r="E138" s="86"/>
-      <c r="F138" s="91"/>
+      <c r="B138" s="119"/>
+      <c r="C138" s="136"/>
+      <c r="E138" s="111"/>
+      <c r="F138" s="116"/>
       <c r="G138" s="48"/>
       <c r="H138" s="48"/>
       <c r="I138" s="48"/>
@@ -7077,10 +7148,10 @@
       <c r="AA138" s="53"/>
     </row>
     <row r="139" spans="2:27">
-      <c r="B139" s="94"/>
-      <c r="C139" s="111"/>
-      <c r="E139" s="86"/>
-      <c r="F139" s="91"/>
+      <c r="B139" s="119"/>
+      <c r="C139" s="136"/>
+      <c r="E139" s="111"/>
+      <c r="F139" s="116"/>
       <c r="G139" s="48"/>
       <c r="H139" s="48"/>
       <c r="I139" s="48"/>
@@ -7122,10 +7193,10 @@
       <c r="AA139" s="53"/>
     </row>
     <row r="140" spans="2:27">
-      <c r="B140" s="94"/>
-      <c r="C140" s="107"/>
-      <c r="E140" s="86"/>
-      <c r="F140" s="91"/>
+      <c r="B140" s="119"/>
+      <c r="C140" s="132"/>
+      <c r="E140" s="111"/>
+      <c r="F140" s="116"/>
       <c r="G140" s="48"/>
       <c r="H140" s="48"/>
       <c r="I140" s="48"/>
@@ -7167,14 +7238,14 @@
       <c r="AA140" s="53"/>
     </row>
     <row r="141" spans="2:27">
-      <c r="B141" s="94" t="s">
+      <c r="B141" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="C141" s="102" t="s">
+      <c r="C141" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="E141" s="86"/>
-      <c r="F141" s="91"/>
+      <c r="E141" s="111"/>
+      <c r="F141" s="116"/>
       <c r="G141" s="48"/>
       <c r="H141" s="48"/>
       <c r="I141" s="48"/>
@@ -7216,10 +7287,10 @@
       <c r="AA141" s="53"/>
     </row>
     <row r="142" spans="2:27" ht="17" customHeight="1">
-      <c r="B142" s="94"/>
-      <c r="C142" s="102"/>
-      <c r="E142" s="86"/>
-      <c r="F142" s="91"/>
+      <c r="B142" s="119"/>
+      <c r="C142" s="127"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="116"/>
       <c r="G142" s="48"/>
       <c r="H142" s="48"/>
       <c r="I142" s="48"/>
@@ -7261,10 +7332,10 @@
       <c r="AA142" s="53"/>
     </row>
     <row r="143" spans="2:27">
-      <c r="B143" s="94"/>
-      <c r="C143" s="102"/>
-      <c r="E143" s="86"/>
-      <c r="F143" s="91"/>
+      <c r="B143" s="119"/>
+      <c r="C143" s="127"/>
+      <c r="E143" s="111"/>
+      <c r="F143" s="116"/>
       <c r="G143" s="48"/>
       <c r="H143" s="48"/>
       <c r="I143" s="48"/>
@@ -7306,10 +7377,10 @@
       <c r="AA143" s="53"/>
     </row>
     <row r="144" spans="2:27">
-      <c r="B144" s="94"/>
-      <c r="C144" s="102"/>
-      <c r="E144" s="86"/>
-      <c r="F144" s="91"/>
+      <c r="B144" s="119"/>
+      <c r="C144" s="127"/>
+      <c r="E144" s="111"/>
+      <c r="F144" s="116"/>
       <c r="G144" s="48"/>
       <c r="H144" s="48"/>
       <c r="I144" s="48"/>
@@ -7351,10 +7422,10 @@
       <c r="AA144" s="53"/>
     </row>
     <row r="145" spans="2:27" ht="16" customHeight="1">
-      <c r="B145" s="94"/>
-      <c r="C145" s="102"/>
-      <c r="E145" s="86"/>
-      <c r="F145" s="91"/>
+      <c r="B145" s="119"/>
+      <c r="C145" s="127"/>
+      <c r="E145" s="111"/>
+      <c r="F145" s="116"/>
       <c r="G145" s="48"/>
       <c r="H145" s="48"/>
       <c r="I145" s="48"/>
@@ -7396,12 +7467,12 @@
       <c r="AA145" s="53"/>
     </row>
     <row r="146" spans="2:27">
-      <c r="B146" s="94" t="s">
+      <c r="B146" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="C146" s="102"/>
-      <c r="E146" s="86"/>
-      <c r="F146" s="91"/>
+      <c r="C146" s="127"/>
+      <c r="E146" s="111"/>
+      <c r="F146" s="116"/>
       <c r="G146" s="48"/>
       <c r="H146" s="48"/>
       <c r="I146" s="48"/>
@@ -7443,10 +7514,10 @@
       <c r="AA146" s="53"/>
     </row>
     <row r="147" spans="2:27">
-      <c r="B147" s="94"/>
-      <c r="C147" s="102"/>
-      <c r="E147" s="86"/>
-      <c r="F147" s="91"/>
+      <c r="B147" s="119"/>
+      <c r="C147" s="127"/>
+      <c r="E147" s="111"/>
+      <c r="F147" s="116"/>
       <c r="G147" s="48"/>
       <c r="H147" s="48"/>
       <c r="I147" s="48"/>
@@ -7488,10 +7559,10 @@
       <c r="AA147" s="53"/>
     </row>
     <row r="148" spans="2:27">
-      <c r="B148" s="94"/>
-      <c r="C148" s="102"/>
-      <c r="E148" s="86"/>
-      <c r="F148" s="91"/>
+      <c r="B148" s="119"/>
+      <c r="C148" s="127"/>
+      <c r="E148" s="111"/>
+      <c r="F148" s="116"/>
       <c r="G148" s="48"/>
       <c r="H148" s="48"/>
       <c r="I148" s="48"/>
@@ -7533,10 +7604,10 @@
       <c r="AA148" s="53"/>
     </row>
     <row r="149" spans="2:27" ht="16" customHeight="1" thickBot="1">
-      <c r="B149" s="94"/>
-      <c r="C149" s="102"/>
-      <c r="E149" s="89"/>
-      <c r="F149" s="92"/>
+      <c r="B149" s="119"/>
+      <c r="C149" s="127"/>
+      <c r="E149" s="114"/>
+      <c r="F149" s="117"/>
       <c r="G149" s="56"/>
       <c r="H149" s="56"/>
       <c r="I149" s="56"/>
@@ -7578,9 +7649,9 @@
       <c r="AA149" s="57"/>
     </row>
     <row r="150" spans="2:27">
-      <c r="B150" s="94"/>
-      <c r="C150" s="102"/>
-      <c r="E150" s="85" t="s">
+      <c r="B150" s="119"/>
+      <c r="C150" s="127"/>
+      <c r="E150" s="110" t="s">
         <v>260</v>
       </c>
       <c r="F150" s="63" t="s">
@@ -7628,9 +7699,9 @@
       <c r="AA150" s="52"/>
     </row>
     <row r="151" spans="2:27">
-      <c r="B151" s="94"/>
-      <c r="C151" s="102"/>
-      <c r="E151" s="86"/>
+      <c r="B151" s="119"/>
+      <c r="C151" s="127"/>
+      <c r="E151" s="111"/>
       <c r="F151" s="60" t="s">
         <v>189</v>
       </c>
@@ -7669,9 +7740,9 @@
       <c r="AA151" s="53"/>
     </row>
     <row r="152" spans="2:27">
-      <c r="B152" s="94"/>
-      <c r="C152" s="102"/>
-      <c r="E152" s="86"/>
+      <c r="B152" s="119"/>
+      <c r="C152" s="127"/>
+      <c r="E152" s="111"/>
       <c r="F152" s="60" t="s">
         <v>190</v>
       </c>
@@ -7715,9 +7786,9 @@
       <c r="AA152" s="53"/>
     </row>
     <row r="153" spans="2:27">
-      <c r="B153" s="94"/>
-      <c r="C153" s="102"/>
-      <c r="E153" s="86"/>
+      <c r="B153" s="119"/>
+      <c r="C153" s="127"/>
+      <c r="E153" s="111"/>
       <c r="F153" s="60" t="s">
         <v>191</v>
       </c>
@@ -7753,13 +7824,13 @@
       <c r="AA153" s="53"/>
     </row>
     <row r="154" spans="2:27">
-      <c r="B154" s="94" t="s">
+      <c r="B154" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="102" t="s">
+      <c r="C154" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="E154" s="86"/>
+      <c r="E154" s="111"/>
       <c r="F154" s="60" t="s">
         <v>192</v>
       </c>
@@ -7805,9 +7876,9 @@
       <c r="AA154" s="53"/>
     </row>
     <row r="155" spans="2:27">
-      <c r="B155" s="94"/>
-      <c r="C155" s="102"/>
-      <c r="E155" s="86"/>
+      <c r="B155" s="119"/>
+      <c r="C155" s="127"/>
+      <c r="E155" s="111"/>
       <c r="F155" s="60" t="s">
         <v>193</v>
       </c>
@@ -7853,9 +7924,9 @@
       <c r="AA155" s="53"/>
     </row>
     <row r="156" spans="2:27">
-      <c r="B156" s="94"/>
-      <c r="C156" s="102"/>
-      <c r="E156" s="86"/>
+      <c r="B156" s="119"/>
+      <c r="C156" s="127"/>
+      <c r="E156" s="111"/>
       <c r="F156" s="60" t="s">
         <v>194</v>
       </c>
@@ -7901,13 +7972,13 @@
       <c r="AA156" s="53"/>
     </row>
     <row r="157" spans="2:27" ht="17" thickBot="1">
-      <c r="B157" s="109" t="s">
+      <c r="B157" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="C157" s="102" t="s">
+      <c r="C157" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="E157" s="87"/>
+      <c r="E157" s="112"/>
       <c r="F157" s="61" t="s">
         <v>197</v>
       </c>
@@ -7945,12 +8016,12 @@
       <c r="AA157" s="55"/>
     </row>
     <row r="158" spans="2:27">
-      <c r="B158" s="109"/>
-      <c r="C158" s="102"/>
-      <c r="E158" s="88" t="s">
+      <c r="B158" s="134"/>
+      <c r="C158" s="127"/>
+      <c r="E158" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="F158" s="93" t="s">
+      <c r="F158" s="118" t="s">
         <v>272</v>
       </c>
       <c r="G158" s="37">
@@ -7982,10 +8053,10 @@
       <c r="AA158" s="52"/>
     </row>
     <row r="159" spans="2:27">
-      <c r="B159" s="109"/>
-      <c r="C159" s="102"/>
-      <c r="E159" s="86"/>
-      <c r="F159" s="94"/>
+      <c r="B159" s="134"/>
+      <c r="C159" s="127"/>
+      <c r="E159" s="111"/>
+      <c r="F159" s="119"/>
       <c r="G159" s="1">
         <v>1.01435445973261</v>
       </c>
@@ -8015,10 +8086,10 @@
       <c r="AA159" s="53"/>
     </row>
     <row r="160" spans="2:27">
-      <c r="B160" s="109"/>
-      <c r="C160" s="102"/>
-      <c r="E160" s="86"/>
-      <c r="F160" s="94"/>
+      <c r="B160" s="134"/>
+      <c r="C160" s="127"/>
+      <c r="E160" s="111"/>
+      <c r="F160" s="119"/>
       <c r="G160" s="1">
         <v>2.0570279393808799</v>
       </c>
@@ -8048,12 +8119,12 @@
       <c r="AA160" s="53"/>
     </row>
     <row r="161" spans="2:27" ht="16" customHeight="1">
-      <c r="B161" s="109" t="s">
+      <c r="B161" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="C161" s="102"/>
-      <c r="E161" s="86"/>
-      <c r="F161" s="94"/>
+      <c r="C161" s="127"/>
+      <c r="E161" s="111"/>
+      <c r="F161" s="119"/>
       <c r="G161" s="1">
         <v>5.0235478806907299</v>
       </c>
@@ -8083,10 +8154,10 @@
       <c r="AA161" s="53"/>
     </row>
     <row r="162" spans="2:27" ht="17" thickBot="1">
-      <c r="B162" s="109"/>
-      <c r="C162" s="102"/>
-      <c r="E162" s="86"/>
-      <c r="F162" s="95"/>
+      <c r="B162" s="134"/>
+      <c r="C162" s="127"/>
+      <c r="E162" s="111"/>
+      <c r="F162" s="120"/>
       <c r="G162" s="24">
         <v>16.7844573726926</v>
       </c>
@@ -8116,10 +8187,10 @@
       <c r="AA162" s="55"/>
     </row>
     <row r="163" spans="2:27">
-      <c r="B163" s="109"/>
-      <c r="C163" s="102"/>
-      <c r="E163" s="86"/>
-      <c r="F163" s="93" t="s">
+      <c r="B163" s="134"/>
+      <c r="C163" s="127"/>
+      <c r="E163" s="111"/>
+      <c r="F163" s="118" t="s">
         <v>273</v>
       </c>
       <c r="G163" s="37">
@@ -8151,10 +8222,10 @@
       <c r="AA163" s="52"/>
     </row>
     <row r="164" spans="2:27">
-      <c r="B164" s="109"/>
-      <c r="C164" s="102"/>
-      <c r="E164" s="86"/>
-      <c r="F164" s="94"/>
+      <c r="B164" s="134"/>
+      <c r="C164" s="127"/>
+      <c r="E164" s="111"/>
+      <c r="F164" s="119"/>
       <c r="G164" s="1">
         <v>1.0000384334524699</v>
       </c>
@@ -8184,10 +8255,10 @@
       <c r="AA164" s="53"/>
     </row>
     <row r="165" spans="2:27">
-      <c r="B165" s="109"/>
-      <c r="C165" s="102"/>
-      <c r="E165" s="86"/>
-      <c r="F165" s="94"/>
+      <c r="B165" s="134"/>
+      <c r="C165" s="127"/>
+      <c r="E165" s="111"/>
+      <c r="F165" s="119"/>
       <c r="G165" s="1">
         <v>1.9953111187978001</v>
       </c>
@@ -8217,10 +8288,10 @@
       <c r="AA165" s="53"/>
     </row>
     <row r="166" spans="2:27">
-      <c r="B166" s="109"/>
-      <c r="C166" s="102"/>
-      <c r="E166" s="86"/>
-      <c r="F166" s="94"/>
+      <c r="B166" s="134"/>
+      <c r="C166" s="127"/>
+      <c r="E166" s="111"/>
+      <c r="F166" s="119"/>
       <c r="G166" s="1">
         <v>4.9786694338752397</v>
       </c>
@@ -8250,10 +8321,10 @@
       <c r="AA166" s="53"/>
     </row>
     <row r="167" spans="2:27" ht="17" thickBot="1">
-      <c r="B167" s="109"/>
-      <c r="C167" s="102"/>
-      <c r="E167" s="89"/>
-      <c r="F167" s="95"/>
+      <c r="B167" s="134"/>
+      <c r="C167" s="127"/>
+      <c r="E167" s="114"/>
+      <c r="F167" s="120"/>
       <c r="G167" s="24">
         <v>16.686933907272799</v>
       </c>
@@ -8283,9 +8354,9 @@
       <c r="AA167" s="55"/>
     </row>
     <row r="168" spans="2:27">
-      <c r="B168" s="109"/>
-      <c r="C168" s="102"/>
-      <c r="E168" s="85" t="s">
+      <c r="B168" s="134"/>
+      <c r="C168" s="127"/>
+      <c r="E168" s="110" t="s">
         <v>105</v>
       </c>
       <c r="F168" s="64"/>
@@ -8321,13 +8392,13 @@
       </c>
     </row>
     <row r="169" spans="2:27">
-      <c r="B169" s="94" t="s">
+      <c r="B169" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="C169" s="102" t="s">
+      <c r="C169" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="E169" s="86"/>
+      <c r="E169" s="111"/>
       <c r="F169" s="65"/>
       <c r="G169" s="48"/>
       <c r="H169" s="48"/>
@@ -8361,9 +8432,9 @@
       </c>
     </row>
     <row r="170" spans="2:27">
-      <c r="B170" s="94"/>
-      <c r="C170" s="102"/>
-      <c r="E170" s="86"/>
+      <c r="B170" s="119"/>
+      <c r="C170" s="127"/>
+      <c r="E170" s="111"/>
       <c r="F170" s="65"/>
       <c r="G170" s="48"/>
       <c r="H170" s="48"/>
@@ -8397,9 +8468,9 @@
       </c>
     </row>
     <row r="171" spans="2:27">
-      <c r="B171" s="94"/>
-      <c r="C171" s="102"/>
-      <c r="E171" s="86"/>
+      <c r="B171" s="119"/>
+      <c r="C171" s="127"/>
+      <c r="E171" s="111"/>
       <c r="F171" s="65"/>
       <c r="G171" s="48"/>
       <c r="H171" s="48"/>
@@ -8433,9 +8504,9 @@
       </c>
     </row>
     <row r="172" spans="2:27" ht="16" customHeight="1">
-      <c r="B172" s="94"/>
-      <c r="C172" s="102"/>
-      <c r="E172" s="86"/>
+      <c r="B172" s="119"/>
+      <c r="C172" s="127"/>
+      <c r="E172" s="111"/>
       <c r="F172" s="65"/>
       <c r="G172" s="48"/>
       <c r="H172" s="48"/>
@@ -8469,13 +8540,13 @@
       </c>
     </row>
     <row r="173" spans="2:27">
-      <c r="B173" s="94" t="s">
+      <c r="B173" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="C173" s="102" t="s">
+      <c r="C173" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="E173" s="86"/>
+      <c r="E173" s="111"/>
       <c r="F173" s="65"/>
       <c r="G173" s="48"/>
       <c r="H173" s="48"/>
@@ -8509,9 +8580,9 @@
       </c>
     </row>
     <row r="174" spans="2:27">
-      <c r="B174" s="94"/>
-      <c r="C174" s="102"/>
-      <c r="E174" s="86"/>
+      <c r="B174" s="119"/>
+      <c r="C174" s="127"/>
+      <c r="E174" s="111"/>
       <c r="F174" s="65"/>
       <c r="G174" s="48"/>
       <c r="H174" s="48"/>
@@ -8545,9 +8616,9 @@
       </c>
     </row>
     <row r="175" spans="2:27">
-      <c r="B175" s="94"/>
-      <c r="C175" s="102"/>
-      <c r="E175" s="86"/>
+      <c r="B175" s="119"/>
+      <c r="C175" s="127"/>
+      <c r="E175" s="111"/>
       <c r="F175" s="65"/>
       <c r="G175" s="48"/>
       <c r="H175" s="48"/>
@@ -8581,9 +8652,9 @@
       </c>
     </row>
     <row r="176" spans="2:27">
-      <c r="B176" s="94"/>
-      <c r="C176" s="102"/>
-      <c r="E176" s="86"/>
+      <c r="B176" s="119"/>
+      <c r="C176" s="127"/>
+      <c r="E176" s="111"/>
       <c r="F176" s="65"/>
       <c r="G176" s="48"/>
       <c r="H176" s="48"/>
@@ -8617,11 +8688,11 @@
       </c>
     </row>
     <row r="177" spans="2:27">
-      <c r="B177" s="94" t="s">
+      <c r="B177" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="C177" s="102"/>
-      <c r="E177" s="86"/>
+      <c r="C177" s="127"/>
+      <c r="E177" s="111"/>
       <c r="F177" s="65"/>
       <c r="G177" s="48"/>
       <c r="H177" s="48"/>
@@ -8655,9 +8726,9 @@
       </c>
     </row>
     <row r="178" spans="2:27">
-      <c r="B178" s="94"/>
-      <c r="C178" s="102"/>
-      <c r="E178" s="86"/>
+      <c r="B178" s="119"/>
+      <c r="C178" s="127"/>
+      <c r="E178" s="111"/>
       <c r="F178" s="65"/>
       <c r="G178" s="48"/>
       <c r="H178" s="48"/>
@@ -8691,9 +8762,9 @@
       </c>
     </row>
     <row r="179" spans="2:27">
-      <c r="B179" s="94"/>
-      <c r="C179" s="102"/>
-      <c r="E179" s="86"/>
+      <c r="B179" s="119"/>
+      <c r="C179" s="127"/>
+      <c r="E179" s="111"/>
       <c r="F179" s="65"/>
       <c r="G179" s="48"/>
       <c r="H179" s="48"/>
@@ -8727,9 +8798,9 @@
       </c>
     </row>
     <row r="180" spans="2:27" ht="16" customHeight="1">
-      <c r="B180" s="94"/>
-      <c r="C180" s="102"/>
-      <c r="E180" s="86"/>
+      <c r="B180" s="119"/>
+      <c r="C180" s="127"/>
+      <c r="E180" s="111"/>
       <c r="F180" s="65"/>
       <c r="G180" s="48"/>
       <c r="H180" s="48"/>
@@ -8763,13 +8834,13 @@
       </c>
     </row>
     <row r="181" spans="2:27">
-      <c r="B181" s="94" t="s">
+      <c r="B181" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="C181" s="102" t="s">
+      <c r="C181" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="E181" s="86"/>
+      <c r="E181" s="111"/>
       <c r="F181" s="65"/>
       <c r="G181" s="48"/>
       <c r="H181" s="48"/>
@@ -8803,9 +8874,9 @@
       </c>
     </row>
     <row r="182" spans="2:27">
-      <c r="B182" s="94"/>
-      <c r="C182" s="102"/>
-      <c r="E182" s="86"/>
+      <c r="B182" s="119"/>
+      <c r="C182" s="127"/>
+      <c r="E182" s="111"/>
       <c r="F182" s="65"/>
       <c r="G182" s="48"/>
       <c r="H182" s="48"/>
@@ -8845,7 +8916,7 @@
       <c r="C183" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E183" s="86"/>
+      <c r="E183" s="111"/>
       <c r="F183" s="65"/>
       <c r="G183" s="48"/>
       <c r="H183" s="48"/>
@@ -8879,13 +8950,13 @@
       </c>
     </row>
     <row r="184" spans="2:27">
-      <c r="B184" s="94" t="s">
+      <c r="B184" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="C184" s="102" t="s">
+      <c r="C184" s="127" t="s">
         <v>102</v>
       </c>
-      <c r="E184" s="86"/>
+      <c r="E184" s="111"/>
       <c r="F184" s="65"/>
       <c r="G184" s="48"/>
       <c r="H184" s="48"/>
@@ -8919,9 +8990,9 @@
       </c>
     </row>
     <row r="185" spans="2:27">
-      <c r="B185" s="94"/>
-      <c r="C185" s="102"/>
-      <c r="E185" s="86"/>
+      <c r="B185" s="119"/>
+      <c r="C185" s="127"/>
+      <c r="E185" s="111"/>
       <c r="F185" s="65"/>
       <c r="G185" s="48"/>
       <c r="H185" s="48"/>
@@ -8955,9 +9026,9 @@
       </c>
     </row>
     <row r="186" spans="2:27" ht="16" customHeight="1">
-      <c r="B186" s="94"/>
-      <c r="C186" s="102"/>
-      <c r="E186" s="86"/>
+      <c r="B186" s="119"/>
+      <c r="C186" s="127"/>
+      <c r="E186" s="111"/>
       <c r="F186" s="65"/>
       <c r="G186" s="48"/>
       <c r="H186" s="48"/>
@@ -8991,9 +9062,9 @@
       </c>
     </row>
     <row r="187" spans="2:27">
-      <c r="B187" s="94"/>
-      <c r="C187" s="102"/>
-      <c r="E187" s="86"/>
+      <c r="B187" s="119"/>
+      <c r="C187" s="127"/>
+      <c r="E187" s="111"/>
       <c r="F187" s="65"/>
       <c r="G187" s="48"/>
       <c r="H187" s="48"/>
@@ -9027,9 +9098,9 @@
       </c>
     </row>
     <row r="188" spans="2:27">
-      <c r="B188" s="94"/>
-      <c r="C188" s="102"/>
-      <c r="E188" s="86"/>
+      <c r="B188" s="119"/>
+      <c r="C188" s="127"/>
+      <c r="E188" s="111"/>
       <c r="F188" s="65"/>
       <c r="G188" s="48"/>
       <c r="H188" s="48"/>
@@ -9063,9 +9134,9 @@
       </c>
     </row>
     <row r="189" spans="2:27" ht="17" thickBot="1">
-      <c r="B189" s="94"/>
-      <c r="C189" s="102"/>
-      <c r="E189" s="87"/>
+      <c r="B189" s="119"/>
+      <c r="C189" s="127"/>
+      <c r="E189" s="112"/>
       <c r="F189" s="66"/>
       <c r="G189" s="54"/>
       <c r="H189" s="54"/>
@@ -9099,52 +9170,52 @@
       </c>
     </row>
     <row r="190" spans="2:27" ht="16" customHeight="1">
-      <c r="B190" s="94" t="s">
+      <c r="B190" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="C190" s="102"/>
+      <c r="C190" s="127"/>
     </row>
     <row r="191" spans="2:27">
-      <c r="B191" s="94"/>
-      <c r="C191" s="102"/>
+      <c r="B191" s="119"/>
+      <c r="C191" s="127"/>
     </row>
     <row r="192" spans="2:27">
-      <c r="B192" s="94"/>
-      <c r="C192" s="102"/>
+      <c r="B192" s="119"/>
+      <c r="C192" s="127"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="94"/>
-      <c r="C193" s="102"/>
+      <c r="B193" s="119"/>
+      <c r="C193" s="127"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="94" t="s">
+      <c r="B194" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="C194" s="102" t="s">
+      <c r="C194" s="127" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="94"/>
-      <c r="C195" s="102"/>
+      <c r="B195" s="119"/>
+      <c r="C195" s="127"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="113" t="s">
+      <c r="B196" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C196" s="102" t="s">
+      <c r="C196" s="127" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="113"/>
-      <c r="C197" s="102"/>
+      <c r="B197" s="138"/>
+      <c r="C197" s="127"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="94" t="s">
+      <c r="B198" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="C198" s="102" t="s">
+      <c r="C198" s="127" t="s">
         <v>110</v>
       </c>
       <c r="E198" s="47" t="s">
@@ -9152,107 +9223,107 @@
       </c>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="94"/>
-      <c r="C199" s="102"/>
+      <c r="B199" s="119"/>
+      <c r="C199" s="127"/>
       <c r="E199" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="94"/>
-      <c r="C200" s="102"/>
+      <c r="B200" s="119"/>
+      <c r="C200" s="127"/>
     </row>
     <row r="201" spans="2:5" ht="16" customHeight="1">
-      <c r="B201" s="94"/>
-      <c r="C201" s="102"/>
+      <c r="B201" s="119"/>
+      <c r="C201" s="127"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="94"/>
-      <c r="C202" s="102"/>
+      <c r="B202" s="119"/>
+      <c r="C202" s="127"/>
     </row>
     <row r="203" spans="2:5" ht="16" customHeight="1">
-      <c r="B203" s="94"/>
-      <c r="C203" s="102"/>
+      <c r="B203" s="119"/>
+      <c r="C203" s="127"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="94"/>
-      <c r="C204" s="102"/>
+      <c r="B204" s="119"/>
+      <c r="C204" s="127"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="94" t="s">
+      <c r="B205" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="C205" s="102" t="s">
+      <c r="C205" s="127" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="94"/>
-      <c r="C206" s="102"/>
+      <c r="B206" s="119"/>
+      <c r="C206" s="127"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="94"/>
-      <c r="C207" s="102"/>
+      <c r="B207" s="119"/>
+      <c r="C207" s="127"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="94" t="s">
+      <c r="B208" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="C208" s="102" t="s">
+      <c r="C208" s="127" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="94"/>
-      <c r="C209" s="102"/>
+      <c r="B209" s="119"/>
+      <c r="C209" s="127"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="94" t="s">
+      <c r="B210" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="C210" s="102" t="s">
+      <c r="C210" s="127" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="94"/>
-      <c r="C211" s="102"/>
+      <c r="B211" s="119"/>
+      <c r="C211" s="127"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="94"/>
-      <c r="C212" s="102"/>
+      <c r="B212" s="119"/>
+      <c r="C212" s="127"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="94" t="s">
+      <c r="B213" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C213" s="102"/>
+      <c r="C213" s="127"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="94"/>
-      <c r="C214" s="102"/>
+      <c r="B214" s="119"/>
+      <c r="C214" s="127"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="94" t="s">
+      <c r="B215" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="C215" s="102"/>
+      <c r="C215" s="127"/>
     </row>
     <row r="216" spans="2:3" ht="16" customHeight="1">
-      <c r="B216" s="94"/>
-      <c r="C216" s="102"/>
+      <c r="B216" s="119"/>
+      <c r="C216" s="127"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="94" t="s">
+      <c r="B217" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="C217" s="102" t="s">
+      <c r="C217" s="127" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="218" spans="2:3" ht="17" thickBot="1">
-      <c r="B218" s="94"/>
-      <c r="C218" s="102"/>
+      <c r="B218" s="119"/>
+      <c r="C218" s="127"/>
     </row>
     <row r="219" spans="2:3" ht="17" thickBot="1">
       <c r="B219" s="18" t="s">
@@ -9263,334 +9334,334 @@
       </c>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="99" t="s">
+      <c r="B220" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="C220" s="107" t="s">
+      <c r="C220" s="132" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="94"/>
-      <c r="C221" s="102"/>
+      <c r="B221" s="119"/>
+      <c r="C221" s="127"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="94"/>
-      <c r="C222" s="102"/>
+      <c r="B222" s="119"/>
+      <c r="C222" s="127"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="94"/>
-      <c r="C223" s="102"/>
+      <c r="B223" s="119"/>
+      <c r="C223" s="127"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="94"/>
-      <c r="C224" s="102"/>
+      <c r="B224" s="119"/>
+      <c r="C224" s="127"/>
     </row>
     <row r="225" spans="2:3" ht="16" customHeight="1">
-      <c r="B225" s="94"/>
-      <c r="C225" s="102"/>
+      <c r="B225" s="119"/>
+      <c r="C225" s="127"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="94"/>
-      <c r="C226" s="102"/>
+      <c r="B226" s="119"/>
+      <c r="C226" s="127"/>
     </row>
     <row r="227" spans="2:3" ht="16" customHeight="1">
-      <c r="B227" s="94" t="s">
+      <c r="B227" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="C227" s="102"/>
+      <c r="C227" s="127"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="112"/>
-      <c r="C228" s="110"/>
+      <c r="B228" s="137"/>
+      <c r="C228" s="135"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="94" t="s">
+      <c r="B229" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="C229" s="102" t="s">
+      <c r="C229" s="127" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="94"/>
-      <c r="C230" s="102"/>
+      <c r="B230" s="119"/>
+      <c r="C230" s="127"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="94" t="s">
+      <c r="B231" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="C231" s="102"/>
+      <c r="C231" s="127"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="94"/>
-      <c r="C232" s="102"/>
+      <c r="B232" s="119"/>
+      <c r="C232" s="127"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="94"/>
-      <c r="C233" s="102"/>
+      <c r="B233" s="119"/>
+      <c r="C233" s="127"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="94"/>
-      <c r="C234" s="102"/>
+      <c r="B234" s="119"/>
+      <c r="C234" s="127"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="94"/>
-      <c r="C235" s="102"/>
+      <c r="B235" s="119"/>
+      <c r="C235" s="127"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="94"/>
-      <c r="C236" s="102"/>
+      <c r="B236" s="119"/>
+      <c r="C236" s="127"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="94"/>
-      <c r="C237" s="102"/>
+      <c r="B237" s="119"/>
+      <c r="C237" s="127"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="94"/>
-      <c r="C238" s="102"/>
+      <c r="B238" s="119"/>
+      <c r="C238" s="127"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="94"/>
-      <c r="C239" s="102"/>
+      <c r="B239" s="119"/>
+      <c r="C239" s="127"/>
     </row>
     <row r="240" spans="2:3" ht="16" customHeight="1">
-      <c r="B240" s="94" t="s">
+      <c r="B240" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C240" s="102" t="s">
+      <c r="C240" s="127" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="94"/>
-      <c r="C241" s="102"/>
+      <c r="B241" s="119"/>
+      <c r="C241" s="127"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="94" t="s">
+      <c r="B242" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="C242" s="102" t="s">
+      <c r="C242" s="127" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="94"/>
-      <c r="C243" s="102"/>
+      <c r="B243" s="119"/>
+      <c r="C243" s="127"/>
     </row>
     <row r="244" spans="2:3" ht="16" customHeight="1">
-      <c r="B244" s="94" t="s">
+      <c r="B244" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="C244" s="102" t="s">
+      <c r="C244" s="127" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="94"/>
-      <c r="C245" s="102"/>
+      <c r="B245" s="119"/>
+      <c r="C245" s="127"/>
     </row>
     <row r="246" spans="2:3" ht="16" customHeight="1">
-      <c r="B246" s="94"/>
-      <c r="C246" s="102"/>
+      <c r="B246" s="119"/>
+      <c r="C246" s="127"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="94"/>
-      <c r="C247" s="102"/>
+      <c r="B247" s="119"/>
+      <c r="C247" s="127"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="94" t="s">
+      <c r="B248" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="C248" s="102" t="s">
+      <c r="C248" s="127" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="94"/>
-      <c r="C249" s="102"/>
+      <c r="B249" s="119"/>
+      <c r="C249" s="127"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="94" t="s">
+      <c r="B250" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="C250" s="102"/>
+      <c r="C250" s="127"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="94"/>
-      <c r="C251" s="102"/>
+      <c r="B251" s="119"/>
+      <c r="C251" s="127"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="94"/>
-      <c r="C252" s="102"/>
+      <c r="B252" s="119"/>
+      <c r="C252" s="127"/>
     </row>
     <row r="253" spans="2:3" ht="16" customHeight="1">
-      <c r="B253" s="94"/>
-      <c r="C253" s="102"/>
+      <c r="B253" s="119"/>
+      <c r="C253" s="127"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="94"/>
-      <c r="C254" s="102"/>
+      <c r="B254" s="119"/>
+      <c r="C254" s="127"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="94"/>
-      <c r="C255" s="102"/>
+      <c r="B255" s="119"/>
+      <c r="C255" s="127"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="94"/>
-      <c r="C256" s="102"/>
+      <c r="B256" s="119"/>
+      <c r="C256" s="127"/>
     </row>
     <row r="257" spans="2:3" ht="16" customHeight="1">
-      <c r="B257" s="94" t="s">
+      <c r="B257" s="119" t="s">
         <v>139</v>
       </c>
-      <c r="C257" s="102"/>
+      <c r="C257" s="127"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="94"/>
-      <c r="C258" s="102"/>
+      <c r="B258" s="119"/>
+      <c r="C258" s="127"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="94"/>
-      <c r="C259" s="102"/>
+      <c r="B259" s="119"/>
+      <c r="C259" s="127"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="94"/>
-      <c r="C260" s="102"/>
+      <c r="B260" s="119"/>
+      <c r="C260" s="127"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="94" t="s">
+      <c r="B261" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="C261" s="102"/>
+      <c r="C261" s="127"/>
     </row>
     <row r="262" spans="2:3" ht="16" customHeight="1">
-      <c r="B262" s="94"/>
-      <c r="C262" s="102"/>
+      <c r="B262" s="119"/>
+      <c r="C262" s="127"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="94" t="s">
+      <c r="B263" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C263" s="102" t="s">
+      <c r="C263" s="127" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="94"/>
-      <c r="C264" s="102"/>
+      <c r="B264" s="119"/>
+      <c r="C264" s="127"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="94"/>
-      <c r="C265" s="102"/>
+      <c r="B265" s="119"/>
+      <c r="C265" s="127"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="94" t="s">
+      <c r="B266" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="C266" s="102" t="s">
+      <c r="C266" s="127" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="94"/>
-      <c r="C267" s="102"/>
+      <c r="B267" s="119"/>
+      <c r="C267" s="127"/>
     </row>
     <row r="268" spans="2:3" ht="16" customHeight="1">
-      <c r="B268" s="94"/>
-      <c r="C268" s="102"/>
+      <c r="B268" s="119"/>
+      <c r="C268" s="127"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="94"/>
-      <c r="C269" s="102"/>
+      <c r="B269" s="119"/>
+      <c r="C269" s="127"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="94" t="s">
+      <c r="B270" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="C270" s="102" t="s">
+      <c r="C270" s="127" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="18" customHeight="1">
-      <c r="B271" s="94"/>
-      <c r="C271" s="102"/>
+      <c r="B271" s="119"/>
+      <c r="C271" s="127"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="94" t="s">
+      <c r="B272" s="119" t="s">
         <v>146</v>
       </c>
-      <c r="C272" s="102" t="s">
+      <c r="C272" s="127" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="94"/>
-      <c r="C273" s="102"/>
+      <c r="B273" s="119"/>
+      <c r="C273" s="127"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="94"/>
-      <c r="C274" s="102"/>
+      <c r="B274" s="119"/>
+      <c r="C274" s="127"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="94" t="s">
+      <c r="B275" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="C275" s="102" t="s">
+      <c r="C275" s="127" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="276" spans="2:3" ht="16" customHeight="1">
-      <c r="B276" s="94"/>
-      <c r="C276" s="102"/>
+      <c r="B276" s="119"/>
+      <c r="C276" s="127"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="94"/>
-      <c r="C277" s="102"/>
+      <c r="B277" s="119"/>
+      <c r="C277" s="127"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="94" t="s">
+      <c r="B278" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="C278" s="102" t="s">
+      <c r="C278" s="127" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="94"/>
-      <c r="C279" s="102"/>
+      <c r="B279" s="119"/>
+      <c r="C279" s="127"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="94" t="s">
+      <c r="B280" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="C280" s="102" t="s">
+      <c r="C280" s="127" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="94"/>
-      <c r="C281" s="102"/>
+      <c r="B281" s="119"/>
+      <c r="C281" s="127"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="94"/>
-      <c r="C282" s="102"/>
+      <c r="B282" s="119"/>
+      <c r="C282" s="127"/>
     </row>
     <row r="283" spans="2:3" ht="16" customHeight="1">
-      <c r="B283" s="94"/>
-      <c r="C283" s="102"/>
+      <c r="B283" s="119"/>
+      <c r="C283" s="127"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="94" t="s">
+      <c r="B284" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="C284" s="102" t="s">
+      <c r="C284" s="127" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="285" spans="2:3" ht="17" thickBot="1">
-      <c r="B285" s="94"/>
-      <c r="C285" s="102"/>
+      <c r="B285" s="119"/>
+      <c r="C285" s="127"/>
     </row>
     <row r="286" spans="2:3" ht="17" thickBot="1">
       <c r="B286" s="18" t="s">
@@ -9601,30 +9672,30 @@
       </c>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="99" t="s">
+      <c r="B287" s="124" t="s">
         <v>157</v>
       </c>
-      <c r="C287" s="107" t="s">
+      <c r="C287" s="132" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="94"/>
-      <c r="C288" s="102"/>
+      <c r="B288" s="119"/>
+      <c r="C288" s="127"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="94"/>
-      <c r="C289" s="102" t="s">
+      <c r="B289" s="119"/>
+      <c r="C289" s="127" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="94"/>
-      <c r="C290" s="102"/>
+      <c r="B290" s="119"/>
+      <c r="C290" s="127"/>
     </row>
     <row r="291" spans="2:3" ht="17" thickBot="1">
-      <c r="B291" s="95"/>
-      <c r="C291" s="108"/>
+      <c r="B291" s="120"/>
+      <c r="C291" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="158">
@@ -9793,10 +9864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF64D2DB-3FF9-0A4F-837E-81FE8C182B15}">
-  <dimension ref="B2:X91"/>
+  <dimension ref="B2:AE105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9814,8 +9885,7 @@
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
     <col min="13" max="13" width="16.1640625" customWidth="1"/>
     <col min="14" max="14" width="16.83203125" customWidth="1"/>
-    <col min="15" max="15" width="19.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" customWidth="1"/>
+    <col min="15" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="21.1640625" customWidth="1"/>
     <col min="18" max="18" width="18.83203125" customWidth="1"/>
     <col min="19" max="19" width="17.1640625" customWidth="1"/>
@@ -9826,35 +9896,41 @@
     <col min="24" max="24" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="17" thickBot="1"/>
-    <row r="3" spans="2:24" ht="17" thickBot="1">
-      <c r="B3" s="132" t="s">
+    <row r="2" spans="2:31" ht="17" thickBot="1"/>
+    <row r="3" spans="2:31" ht="17" thickBot="1">
+      <c r="B3" s="162" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="134"/>
-    </row>
-    <row r="4" spans="2:24" ht="17" thickBot="1">
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="164"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+    </row>
+    <row r="4" spans="2:31" ht="17" thickBot="1">
       <c r="B4" s="67" t="s">
         <v>268</v>
       </c>
@@ -9889,47 +9965,35 @@
         <v>238</v>
       </c>
       <c r="M4" s="68" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="N4" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="O4" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q4" s="68" t="s">
-        <v>263</v>
-      </c>
-      <c r="R4" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="S4" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="T4" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="U4" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="V4" s="68" t="s">
-        <v>271</v>
-      </c>
-      <c r="W4" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="X4" s="69" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24">
-      <c r="B5" s="126" t="s">
+      <c r="O4" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+    </row>
+    <row r="5" spans="2:31">
+      <c r="B5" s="151" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="100" t="s">
         <v>166</v>
       </c>
       <c r="D5" s="71"/>
@@ -9941,26 +10005,32 @@
       <c r="J5" s="71"/>
       <c r="K5" s="71"/>
       <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="70">
+      <c r="M5" s="70">
         <v>8.4251099999999995E-3</v>
       </c>
-      <c r="O5" s="72">
+      <c r="N5" s="72">
         <v>2.6004100000000001E-5</v>
       </c>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="73"/>
-    </row>
-    <row r="6" spans="2:24">
-      <c r="B6" s="127"/>
-      <c r="C6" s="70" t="s">
+      <c r="O5" s="73"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+    </row>
+    <row r="6" spans="2:31">
+      <c r="B6" s="152"/>
+      <c r="C6" s="101" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="71"/>
@@ -9972,26 +10042,32 @@
       <c r="J6" s="71"/>
       <c r="K6" s="71"/>
       <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="70">
+      <c r="M6" s="70">
         <v>1.0352422999999999E-2</v>
       </c>
-      <c r="O6" s="72">
+      <c r="N6" s="72">
         <v>6.3014800000000005E-5</v>
       </c>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="73"/>
-    </row>
-    <row r="7" spans="2:24">
-      <c r="B7" s="127"/>
-      <c r="C7" s="70" t="s">
+      <c r="O6" s="73"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+    </row>
+    <row r="7" spans="2:31">
+      <c r="B7" s="152"/>
+      <c r="C7" s="101" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="71"/>
@@ -10003,26 +10079,32 @@
       <c r="J7" s="71"/>
       <c r="K7" s="71"/>
       <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
+      <c r="M7" s="70">
+        <v>1.0352422999999999E-2</v>
+      </c>
       <c r="N7" s="70">
-        <v>1.0352422999999999E-2</v>
-      </c>
-      <c r="O7" s="70">
         <v>3.870292E-3</v>
       </c>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="73"/>
-    </row>
-    <row r="8" spans="2:24">
-      <c r="B8" s="127"/>
-      <c r="C8" s="70" t="s">
+      <c r="O7" s="73"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+    </row>
+    <row r="8" spans="2:31">
+      <c r="B8" s="152"/>
+      <c r="C8" s="101" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="71"/>
@@ -10034,26 +10116,32 @@
       <c r="J8" s="71"/>
       <c r="K8" s="71"/>
       <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
+      <c r="M8" s="70">
+        <v>2.2687224999999998E-2</v>
+      </c>
       <c r="N8" s="70">
-        <v>2.2687224999999998E-2</v>
-      </c>
-      <c r="O8" s="70">
         <v>0.101942797</v>
       </c>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="73"/>
-    </row>
-    <row r="9" spans="2:24">
-      <c r="B9" s="127"/>
-      <c r="C9" s="70" t="s">
+      <c r="O8" s="73"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+    </row>
+    <row r="9" spans="2:31">
+      <c r="B9" s="152"/>
+      <c r="C9" s="101" t="s">
         <v>170</v>
       </c>
       <c r="D9" s="71"/>
@@ -10065,26 +10153,32 @@
       <c r="J9" s="71"/>
       <c r="K9" s="71"/>
       <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
+      <c r="M9" s="70">
+        <v>4.5429514999999997E-2</v>
+      </c>
       <c r="N9" s="70">
-        <v>4.5429514999999997E-2</v>
-      </c>
-      <c r="O9" s="70">
         <v>0.53335884099999997</v>
       </c>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="73"/>
-    </row>
-    <row r="10" spans="2:24">
-      <c r="B10" s="127"/>
-      <c r="C10" s="70" t="s">
+      <c r="O9" s="73"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+    </row>
+    <row r="10" spans="2:31">
+      <c r="B10" s="152"/>
+      <c r="C10" s="101" t="s">
         <v>171</v>
       </c>
       <c r="D10" s="71"/>
@@ -10096,26 +10190,32 @@
       <c r="J10" s="71"/>
       <c r="K10" s="71"/>
       <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
+      <c r="M10" s="70">
+        <v>6.6244493000000002E-2</v>
+      </c>
       <c r="N10" s="70">
-        <v>6.6244493000000002E-2</v>
-      </c>
-      <c r="O10" s="70">
         <v>1.108072674</v>
       </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="73"/>
-    </row>
-    <row r="11" spans="2:24">
-      <c r="B11" s="127"/>
-      <c r="C11" s="70" t="s">
+      <c r="O10" s="73"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+    </row>
+    <row r="11" spans="2:31">
+      <c r="B11" s="152"/>
+      <c r="C11" s="101" t="s">
         <v>172</v>
       </c>
       <c r="D11" s="71"/>
@@ -10127,26 +10227,32 @@
       <c r="J11" s="71"/>
       <c r="K11" s="71"/>
       <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
+      <c r="M11" s="70">
+        <v>8.7059470999999999E-2</v>
+      </c>
       <c r="N11" s="70">
-        <v>8.7059470999999999E-2</v>
-      </c>
-      <c r="O11" s="70">
         <v>3.9454839270000002</v>
       </c>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="73"/>
-    </row>
-    <row r="12" spans="2:24">
-      <c r="B12" s="127"/>
-      <c r="C12" s="70" t="s">
+      <c r="O11" s="73"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+    </row>
+    <row r="12" spans="2:31">
+      <c r="B12" s="152"/>
+      <c r="C12" s="101" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="71"/>
@@ -10158,26 +10264,32 @@
       <c r="J12" s="71"/>
       <c r="K12" s="71"/>
       <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
+      <c r="M12" s="70">
+        <v>0.105947137</v>
+      </c>
       <c r="N12" s="70">
-        <v>0.105947137</v>
-      </c>
-      <c r="O12" s="70">
         <v>4.7826184859999996</v>
       </c>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="73"/>
-    </row>
-    <row r="13" spans="2:24">
-      <c r="B13" s="127"/>
-      <c r="C13" s="70" t="s">
+      <c r="O12" s="73"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+    </row>
+    <row r="13" spans="2:31">
+      <c r="B13" s="152"/>
+      <c r="C13" s="101" t="s">
         <v>174</v>
       </c>
       <c r="D13" s="71"/>
@@ -10189,26 +10301,32 @@
       <c r="J13" s="71"/>
       <c r="K13" s="71"/>
       <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="M13" s="70">
+        <v>0.125220264</v>
+      </c>
       <c r="N13" s="70">
-        <v>0.125220264</v>
-      </c>
-      <c r="O13" s="70">
         <v>8.8526890290000004</v>
       </c>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="73"/>
-    </row>
-    <row r="14" spans="2:24">
-      <c r="B14" s="127"/>
-      <c r="C14" s="70" t="s">
+      <c r="O13" s="73"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+    </row>
+    <row r="14" spans="2:31">
+      <c r="B14" s="152"/>
+      <c r="C14" s="101" t="s">
         <v>175</v>
       </c>
       <c r="D14" s="71"/>
@@ -10220,26 +10338,32 @@
       <c r="J14" s="71"/>
       <c r="K14" s="71"/>
       <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
+      <c r="M14" s="70">
+        <v>0.14295154199999999</v>
+      </c>
       <c r="N14" s="70">
-        <v>0.14295154199999999</v>
-      </c>
-      <c r="O14" s="70">
         <v>16.386442550000002</v>
       </c>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="73"/>
-    </row>
-    <row r="15" spans="2:24" ht="17" thickBot="1">
-      <c r="B15" s="128"/>
-      <c r="C15" s="74" t="s">
+      <c r="O14" s="73"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+    </row>
+    <row r="15" spans="2:31" ht="17" thickBot="1">
+      <c r="B15" s="152"/>
+      <c r="C15" s="106" t="s">
         <v>176</v>
       </c>
       <c r="D15" s="75"/>
@@ -10251,29 +10375,35 @@
       <c r="J15" s="75"/>
       <c r="K15" s="75"/>
       <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
+      <c r="M15" s="74">
+        <v>0.159911894</v>
+      </c>
       <c r="N15" s="74">
-        <v>0.159911894</v>
-      </c>
-      <c r="O15" s="74">
         <v>20.642544579999999</v>
       </c>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="76"/>
-    </row>
-    <row r="16" spans="2:24">
-      <c r="B16" s="135" t="s">
+      <c r="O15" s="76"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+    </row>
+    <row r="16" spans="2:31" ht="16" customHeight="1">
+      <c r="B16" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="137" t="s">
-        <v>262</v>
+      <c r="C16" s="107" t="s">
+        <v>274</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
@@ -10286,32 +10416,30 @@
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
       <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="70">
-        <v>1.0134303629999999</v>
-      </c>
-      <c r="Q16" s="70">
-        <v>0.67653212699999998</v>
-      </c>
-      <c r="R16" s="70">
-        <v>0.426650478</v>
-      </c>
-      <c r="S16" s="70">
-        <v>0.43566656199999998</v>
-      </c>
-      <c r="T16" s="70">
-        <v>0.41929238000000002</v>
-      </c>
-      <c r="U16" s="70">
-        <v>0.13014811000000001</v>
-      </c>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="73"/>
-    </row>
-    <row r="17" spans="2:24">
-      <c r="B17" s="127"/>
-      <c r="C17" s="138"/>
+      <c r="O16" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+    </row>
+    <row r="17" spans="2:31" ht="17">
+      <c r="B17" s="152"/>
+      <c r="C17" s="108" t="s">
+        <v>275</v>
+      </c>
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
@@ -10323,32 +10451,30 @@
       <c r="L17" s="71"/>
       <c r="M17" s="71"/>
       <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="70">
-        <v>1.0289853040000001</v>
-      </c>
-      <c r="Q17" s="70">
-        <v>1.918402648</v>
-      </c>
-      <c r="R17" s="70">
-        <v>1.2496435210000001</v>
-      </c>
-      <c r="S17" s="70">
-        <v>0.93139819000000001</v>
-      </c>
-      <c r="T17" s="70">
-        <v>0.67339095000000004</v>
-      </c>
-      <c r="U17" s="70">
-        <v>0.40175217000000002</v>
-      </c>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="73"/>
-    </row>
-    <row r="18" spans="2:24">
-      <c r="B18" s="127"/>
-      <c r="C18" s="138"/>
+      <c r="O17" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+    </row>
+    <row r="18" spans="2:31" ht="17">
+      <c r="B18" s="152"/>
+      <c r="C18" s="108" t="s">
+        <v>276</v>
+      </c>
       <c r="D18" s="71"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
@@ -10360,404 +10486,486 @@
       <c r="L18" s="71"/>
       <c r="M18" s="71"/>
       <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="70">
-        <v>1.04715406</v>
-      </c>
-      <c r="Q18" s="70">
-        <v>2.9681457039999999</v>
-      </c>
-      <c r="R18" s="70">
-        <v>1.9182078869999999</v>
-      </c>
-      <c r="S18" s="70">
-        <v>1.26998408</v>
-      </c>
-      <c r="T18" s="70">
-        <v>0.89674213000000003</v>
-      </c>
-      <c r="U18" s="70">
-        <v>0.65870267000000005</v>
-      </c>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="73"/>
-    </row>
-    <row r="19" spans="2:24">
-      <c r="B19" s="127"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="70">
-        <v>1.0675409149999999</v>
-      </c>
-      <c r="Q19" s="70">
-        <v>3.5466365620000002</v>
-      </c>
-      <c r="R19" s="70">
-        <v>2.503861933</v>
-      </c>
-      <c r="S19" s="70">
-        <v>1.7564172179999999</v>
-      </c>
-      <c r="T19" s="70">
-        <v>1.12219052</v>
-      </c>
-      <c r="U19" s="70">
-        <v>0.87841475000000002</v>
-      </c>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="73"/>
-    </row>
-    <row r="20" spans="2:24">
-      <c r="B20" s="127"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="70">
-        <v>1.0899855650000001</v>
-      </c>
-      <c r="Q20" s="70">
-        <v>4.0979973550000004</v>
-      </c>
-      <c r="R20" s="70">
-        <v>2.7892067190000001</v>
-      </c>
-      <c r="S20" s="70">
-        <v>2.0147357000000001</v>
-      </c>
-      <c r="T20" s="70">
-        <v>1.37990955</v>
-      </c>
-      <c r="U20" s="70">
-        <v>1.10785998</v>
-      </c>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="73"/>
-    </row>
-    <row r="21" spans="2:24">
-      <c r="B21" s="127"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="70">
-        <v>1.127350235</v>
-      </c>
-      <c r="Q21" s="70">
-        <v>4.6257672679999997</v>
-      </c>
-      <c r="R21" s="70">
-        <v>3.2893314880000002</v>
-      </c>
-      <c r="S21" s="70">
-        <v>2.5151695159999998</v>
-      </c>
-      <c r="T21" s="70">
-        <v>1.6152258500000001</v>
-      </c>
-      <c r="U21" s="70">
-        <v>1.3573188</v>
-      </c>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="73"/>
-    </row>
-    <row r="22" spans="2:24">
-      <c r="B22" s="127"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="O18" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+    </row>
+    <row r="19" spans="2:31" ht="17">
+      <c r="B19" s="152"/>
+      <c r="C19" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+    </row>
+    <row r="20" spans="2:31" ht="18" thickBot="1">
+      <c r="B20" s="152"/>
+      <c r="C20" s="109" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="97"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="88" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+    </row>
+    <row r="21" spans="2:31">
+      <c r="B21" s="151" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="78">
+        <v>0</v>
+      </c>
+      <c r="E21" s="78">
+        <v>0.140073262</v>
+      </c>
+      <c r="F21" s="78">
+        <v>14.03061224</v>
+      </c>
+      <c r="G21" s="78">
+        <v>2.1289593930000001</v>
+      </c>
+      <c r="H21" s="78">
+        <v>1.199602649</v>
+      </c>
+      <c r="I21" s="78">
+        <v>3.2589531680000001</v>
+      </c>
+      <c r="J21" s="78">
+        <v>2.3471358969999998</v>
+      </c>
+      <c r="K21" s="78">
+        <v>31.455026459999999</v>
+      </c>
+      <c r="L21" s="78">
+        <v>13.807471899999999</v>
+      </c>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="80"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+    </row>
+    <row r="22" spans="2:31">
+      <c r="B22" s="152"/>
+      <c r="C22" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="70">
+        <v>0.28199807500000001</v>
+      </c>
+      <c r="E22" s="70">
+        <v>0.296569468</v>
+      </c>
+      <c r="F22" s="70">
+        <v>14.017273579999999</v>
+      </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
+      <c r="I22" s="70">
+        <v>3.548209366</v>
+      </c>
+      <c r="J22" s="70">
+        <v>2.5574350790000002</v>
+      </c>
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
       <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="70">
-        <v>1.159808433</v>
-      </c>
-      <c r="Q22" s="70">
-        <v>4.8665783960000004</v>
-      </c>
-      <c r="R22" s="70">
-        <v>3.5227492749999998</v>
-      </c>
-      <c r="S22" s="70">
-        <v>2.7426516890000001</v>
-      </c>
-      <c r="T22" s="70">
-        <v>1.8434298899999999</v>
-      </c>
-      <c r="U22" s="70">
-        <v>1.5964812399999999</v>
-      </c>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="73"/>
-    </row>
-    <row r="23" spans="2:24">
-      <c r="B23" s="127"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
+      <c r="O22" s="73"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+    </row>
+    <row r="23" spans="2:31">
+      <c r="B23" s="152"/>
+      <c r="C23" s="101" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="70">
+        <v>1</v>
+      </c>
+      <c r="E23" s="70">
+        <v>0.75470732100000004</v>
+      </c>
+      <c r="F23" s="70">
+        <v>16.038081900000002</v>
+      </c>
+      <c r="G23" s="70">
+        <v>2.2755246919999998</v>
+      </c>
+      <c r="H23" s="70">
+        <v>1.1980132450000001</v>
+      </c>
+      <c r="I23" s="70">
+        <v>3.699724518</v>
+      </c>
+      <c r="J23" s="70">
+        <v>2.532393866</v>
+      </c>
+      <c r="K23" s="70">
+        <v>22.195767199999999</v>
+      </c>
       <c r="L23" s="71"/>
       <c r="M23" s="71"/>
       <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="70">
-        <v>1.1990602079999999</v>
-      </c>
-      <c r="Q23" s="70">
-        <v>5.0949053510000004</v>
-      </c>
-      <c r="R23" s="70">
-        <v>3.732815795</v>
-      </c>
-      <c r="S23" s="70">
-        <v>2.962912335</v>
-      </c>
-      <c r="T23" s="70">
-        <v>2.0484593100000001</v>
-      </c>
-      <c r="U23" s="70">
-        <v>1.8054439799999999</v>
-      </c>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="73"/>
-    </row>
-    <row r="24" spans="2:24">
-      <c r="B24" s="127"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
+      <c r="O23" s="73"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+    </row>
+    <row r="24" spans="2:31">
+      <c r="B24" s="152"/>
+      <c r="C24" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="70">
+        <v>2</v>
+      </c>
+      <c r="E24" s="70">
+        <v>1.3588184590000001</v>
+      </c>
       <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
+      <c r="G24" s="70">
+        <v>2.4751077779999999</v>
+      </c>
+      <c r="H24" s="70">
+        <v>1.1908609269999999</v>
+      </c>
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
       <c r="K24" s="71"/>
       <c r="L24" s="71"/>
       <c r="M24" s="71"/>
       <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="70">
-        <v>1.2405765070000001</v>
-      </c>
-      <c r="Q24" s="70">
-        <v>5.2950181140000003</v>
-      </c>
-      <c r="R24" s="70">
-        <v>3.902445315</v>
-      </c>
-      <c r="S24" s="70">
-        <v>3.1463084810000002</v>
-      </c>
-      <c r="T24" s="70">
-        <v>2.21218885</v>
-      </c>
-      <c r="U24" s="70">
-        <v>1.9672068599999999</v>
-      </c>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="73"/>
-    </row>
-    <row r="25" spans="2:24">
-      <c r="B25" s="127"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
+      <c r="O24" s="73"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+    </row>
+    <row r="25" spans="2:31">
+      <c r="B25" s="152"/>
+      <c r="C25" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="70">
+        <v>5</v>
+      </c>
+      <c r="E25" s="70">
+        <v>3.2458354150000002</v>
+      </c>
+      <c r="F25" s="70">
+        <v>42.770441509999998</v>
+      </c>
+      <c r="G25" s="70">
+        <v>3.2198092260000002</v>
+      </c>
+      <c r="H25" s="70">
+        <v>1.122119205</v>
+      </c>
+      <c r="I25" s="70">
+        <v>4.8774104679999999</v>
+      </c>
+      <c r="J25" s="70">
+        <v>2.3801830509999999</v>
+      </c>
+      <c r="K25" s="70">
+        <v>21.005291010000001</v>
+      </c>
+      <c r="L25" s="70">
+        <v>10.98839512</v>
+      </c>
       <c r="M25" s="71"/>
       <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="70">
-        <v>1.2820928069999999</v>
-      </c>
-      <c r="Q25" s="70">
-        <v>5.4262977489999997</v>
-      </c>
-      <c r="R25" s="70">
-        <v>4.0317582889999999</v>
-      </c>
-      <c r="S25" s="70">
-        <v>3.2854547589999998</v>
-      </c>
-      <c r="T25" s="70">
-        <v>2.3424851499999999</v>
-      </c>
-      <c r="U25" s="70">
-        <v>2.0965198300000001</v>
-      </c>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="73"/>
-    </row>
-    <row r="26" spans="2:24">
-      <c r="B26" s="127"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
+      <c r="O25" s="73"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+    </row>
+    <row r="26" spans="2:31">
+      <c r="B26" s="152"/>
+      <c r="C26" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="70">
+        <v>10</v>
+      </c>
+      <c r="E26" s="70">
+        <v>6.3347647809999996</v>
+      </c>
+      <c r="F26" s="70">
+        <v>64.709217019999997</v>
+      </c>
+      <c r="G26" s="70">
+        <v>3.7138136670000002</v>
+      </c>
+      <c r="H26" s="70">
+        <v>1.0827814570000001</v>
+      </c>
+      <c r="I26" s="70">
+        <v>5.6143250690000004</v>
+      </c>
+      <c r="J26" s="70">
+        <v>2.231877275</v>
+      </c>
+      <c r="K26" s="70">
+        <v>31.190476189999998</v>
+      </c>
+      <c r="L26" s="70">
+        <v>13.194259750000001</v>
+      </c>
       <c r="M26" s="71"/>
       <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="70">
-        <v>1.323609107</v>
-      </c>
-      <c r="Q26" s="70">
-        <v>5.5339774540000004</v>
-      </c>
-      <c r="R26" s="70">
-        <v>4.1345213430000003</v>
-      </c>
-      <c r="S26" s="70">
-        <v>3.4039510989999999</v>
-      </c>
-      <c r="T26" s="70">
-        <v>2.44426487</v>
-      </c>
-      <c r="U26" s="70">
-        <v>2.1992828900000001</v>
-      </c>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="73"/>
-    </row>
-    <row r="27" spans="2:24">
-      <c r="B27" s="127"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
+      <c r="O26" s="73"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+    </row>
+    <row r="27" spans="2:31">
+      <c r="B27" s="152"/>
+      <c r="C27" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="70">
+        <v>16.69099757</v>
+      </c>
+      <c r="E27" s="70">
+        <v>10.487439</v>
+      </c>
+      <c r="F27" s="70">
+        <v>96.793717490000006</v>
+      </c>
+      <c r="G27" s="70">
+        <v>5.3097684379999999</v>
+      </c>
+      <c r="H27" s="70">
+        <v>1.078807947</v>
+      </c>
+      <c r="I27" s="70">
+        <v>6.8953168040000001</v>
+      </c>
+      <c r="J27" s="70">
+        <v>2.2206346809999999</v>
+      </c>
+      <c r="K27" s="70">
+        <v>28.214285709999999</v>
+      </c>
+      <c r="L27" s="70">
+        <v>12.886314280000001</v>
+      </c>
       <c r="M27" s="71"/>
       <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="70">
-        <v>1.3651254070000001</v>
-      </c>
-      <c r="Q27" s="70">
-        <v>5.6308405260000001</v>
-      </c>
-      <c r="R27" s="70">
-        <v>4.2294177529999999</v>
-      </c>
-      <c r="S27" s="70">
-        <v>3.49983084</v>
-      </c>
-      <c r="T27" s="70">
-        <v>2.5253946599999999</v>
-      </c>
-      <c r="U27" s="70">
-        <v>2.28926264</v>
-      </c>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="73"/>
-    </row>
-    <row r="28" spans="2:24">
-      <c r="B28" s="127"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="70">
-        <v>1.4066417069999999</v>
-      </c>
-      <c r="Q28" s="70">
-        <v>5.7070536580000004</v>
-      </c>
-      <c r="R28" s="70">
-        <v>4.3075975470000003</v>
-      </c>
-      <c r="S28" s="70">
-        <v>3.576043973</v>
-      </c>
-      <c r="T28" s="70">
-        <v>2.5878411699999999</v>
-      </c>
-      <c r="U28" s="70">
-        <v>2.3625257899999998</v>
-      </c>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="73"/>
-    </row>
-    <row r="29" spans="2:24">
-      <c r="B29" s="127"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
+      <c r="O27" s="73"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+    </row>
+    <row r="28" spans="2:31" ht="17" thickBot="1">
+      <c r="B28" s="153"/>
+      <c r="C28" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="74">
+        <v>19.951338199999999</v>
+      </c>
+      <c r="E28" s="74">
+        <v>12.533108439999999</v>
+      </c>
+      <c r="F28" s="74">
+        <v>164.36741359999999</v>
+      </c>
+      <c r="G28" s="74">
+        <v>5.3251929679999996</v>
+      </c>
+      <c r="H28" s="74">
+        <v>1.0760264900000001</v>
+      </c>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="76"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+    </row>
+    <row r="29" spans="2:31" ht="16" customHeight="1" thickBot="1">
+      <c r="B29" s="160" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="159" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
       <c r="H29" s="71"/>
@@ -10767,34 +10975,32 @@
       <c r="L29" s="71"/>
       <c r="M29" s="71"/>
       <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="70">
-        <v>1.448158007</v>
-      </c>
-      <c r="Q29" s="70">
-        <v>5.7773668090000001</v>
-      </c>
-      <c r="R29" s="70">
-        <v>4.3798773579999999</v>
-      </c>
-      <c r="S29" s="70">
-        <v>3.646357123</v>
-      </c>
-      <c r="T29" s="70">
-        <v>2.6355377199999999</v>
-      </c>
-      <c r="U29" s="70">
-        <v>2.4279222800000002</v>
-      </c>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="73"/>
-    </row>
-    <row r="30" spans="2:24">
-      <c r="B30" s="127"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
+      <c r="O29" s="161" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+    </row>
+    <row r="30" spans="2:31" ht="18" thickBot="1">
+      <c r="B30" s="154"/>
+      <c r="C30" s="158" t="s">
+        <v>273</v>
+      </c>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
       <c r="H30" s="71"/>
@@ -10804,2198 +11010,1604 @@
       <c r="L30" s="71"/>
       <c r="M30" s="71"/>
       <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="70">
-        <v>1.489674307</v>
-      </c>
-      <c r="Q30" s="70">
-        <v>5.8506299510000002</v>
-      </c>
-      <c r="R30" s="70">
-        <v>4.4570738219999999</v>
-      </c>
-      <c r="S30" s="70">
-        <v>3.7107702910000002</v>
-      </c>
-      <c r="T30" s="70">
-        <v>2.6842176000000002</v>
-      </c>
-      <c r="U30" s="70">
-        <v>2.4844688100000001</v>
-      </c>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="73"/>
-    </row>
-    <row r="31" spans="2:24">
-      <c r="B31" s="127"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70">
-        <v>1.5311906070000001</v>
-      </c>
-      <c r="Q31" s="70">
-        <v>5.9140597880000003</v>
-      </c>
-      <c r="R31" s="70">
-        <v>4.5332869540000003</v>
-      </c>
-      <c r="S31" s="70">
-        <v>3.772233468</v>
-      </c>
-      <c r="T31" s="70">
-        <v>2.72601417</v>
-      </c>
-      <c r="U31" s="70">
-        <v>2.53314869</v>
-      </c>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="73"/>
-    </row>
-    <row r="32" spans="2:24">
-      <c r="B32" s="127"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="70">
-        <v>1.5727069039999999</v>
-      </c>
-      <c r="Q32" s="70">
-        <v>5.9873229300000004</v>
-      </c>
-      <c r="R32" s="70">
-        <v>4.5967167919999996</v>
-      </c>
-      <c r="S32" s="70">
-        <v>3.8248466720000001</v>
-      </c>
-      <c r="T32" s="70">
-        <v>2.76387742</v>
-      </c>
-      <c r="U32" s="70">
-        <v>2.5759285900000002</v>
-      </c>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="73"/>
-    </row>
-    <row r="33" spans="2:24">
-      <c r="B33" s="127"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="70">
-        <v>1.614223204</v>
-      </c>
-      <c r="Q33" s="70">
-        <v>6.0537027590000001</v>
-      </c>
-      <c r="R33" s="70">
-        <v>4.6640799509999997</v>
-      </c>
-      <c r="S33" s="70">
-        <v>3.878443206</v>
-      </c>
-      <c r="T33" s="70">
-        <v>2.79584068</v>
-      </c>
-      <c r="U33" s="70">
-        <v>2.6196918199999999</v>
-      </c>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="73"/>
-    </row>
-    <row r="34" spans="2:24">
-      <c r="B34" s="127"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="70">
-        <v>1.655739504</v>
-      </c>
-      <c r="Q34" s="70">
-        <v>6.1151659360000004</v>
-      </c>
-      <c r="R34" s="70">
-        <v>4.725543128</v>
-      </c>
-      <c r="S34" s="70">
-        <v>3.9261397570000001</v>
-      </c>
-      <c r="T34" s="70">
-        <v>2.8287872799999998</v>
-      </c>
-      <c r="U34" s="70">
-        <v>2.65558841</v>
-      </c>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="73"/>
-    </row>
-    <row r="35" spans="2:24">
-      <c r="B35" s="127"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="70">
-        <v>1.6972558040000001</v>
-      </c>
-      <c r="Q35" s="70">
-        <v>6.1697458000000003</v>
-      </c>
-      <c r="R35" s="70">
-        <v>4.7938896179999997</v>
-      </c>
-      <c r="S35" s="70">
-        <v>3.979736291</v>
-      </c>
-      <c r="T35" s="70">
-        <v>2.86468386</v>
-      </c>
-      <c r="U35" s="70">
-        <v>2.6885349999999999</v>
-      </c>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="73"/>
-    </row>
-    <row r="36" spans="2:24">
-      <c r="B36" s="127"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="70">
-        <v>1.7387721039999999</v>
-      </c>
-      <c r="Q36" s="70">
-        <v>6.2262923250000002</v>
-      </c>
-      <c r="R36" s="70">
-        <v>4.8622361080000003</v>
-      </c>
-      <c r="S36" s="70">
-        <v>4.032349494</v>
-      </c>
-      <c r="T36" s="70">
-        <v>2.9035304399999999</v>
-      </c>
-      <c r="U36" s="70">
-        <v>2.7195149399999998</v>
-      </c>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="73"/>
-    </row>
-    <row r="37" spans="2:24">
-      <c r="B37" s="127"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="70">
-        <v>1.780288404</v>
-      </c>
-      <c r="Q37" s="70">
-        <v>6.3015221280000002</v>
-      </c>
-      <c r="R37" s="70">
-        <v>4.928615937</v>
-      </c>
-      <c r="S37" s="70">
-        <v>4.0839793670000004</v>
-      </c>
-      <c r="T37" s="70">
-        <v>2.9463103400000001</v>
-      </c>
-      <c r="U37" s="70">
-        <v>2.7495115399999999</v>
-      </c>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="73"/>
-    </row>
-    <row r="38" spans="2:24">
-      <c r="B38" s="127"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="70">
-        <v>1.8218047040000001</v>
-      </c>
-      <c r="Q38" s="70">
-        <v>6.363968635</v>
-      </c>
-      <c r="R38" s="70">
-        <v>4.9861457920000003</v>
-      </c>
-      <c r="S38" s="70">
-        <v>4.1287259269999996</v>
-      </c>
-      <c r="T38" s="70">
-        <v>2.98712358</v>
-      </c>
-      <c r="U38" s="70">
-        <v>2.7804914799999998</v>
-      </c>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="73"/>
-    </row>
-    <row r="39" spans="2:24">
-      <c r="B39" s="127"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="70">
-        <v>1.863321003</v>
-      </c>
-      <c r="Q39" s="70">
-        <v>6.4205151599999999</v>
-      </c>
-      <c r="R39" s="70">
-        <v>5.0643255859999998</v>
-      </c>
-      <c r="S39" s="70">
-        <v>4.1892057740000004</v>
-      </c>
-      <c r="T39" s="70">
-        <v>3.0289201499999998</v>
-      </c>
-      <c r="U39" s="70">
-        <v>2.8095047499999999</v>
-      </c>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="73"/>
-    </row>
-    <row r="40" spans="2:24">
-      <c r="B40" s="127"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="70">
-        <v>1.9048373030000001</v>
-      </c>
-      <c r="Q40" s="70">
-        <v>6.4731283629999998</v>
-      </c>
-      <c r="R40" s="70">
-        <v>5.1257887630000001</v>
-      </c>
-      <c r="S40" s="70">
-        <v>4.2487022899999998</v>
-      </c>
-      <c r="T40" s="70">
-        <v>3.0746500399999999</v>
-      </c>
-      <c r="U40" s="70">
-        <v>2.8404846799999999</v>
-      </c>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="73"/>
-    </row>
-    <row r="41" spans="2:24">
-      <c r="B41" s="127"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="70">
-        <v>1.9463536029999999</v>
-      </c>
-      <c r="Q41" s="70">
-        <v>6.5296748879999997</v>
-      </c>
-      <c r="R41" s="70">
-        <v>5.1862686089999999</v>
-      </c>
-      <c r="S41" s="70">
-        <v>4.3131154580000004</v>
-      </c>
-      <c r="T41" s="70">
-        <v>3.1262799100000001</v>
-      </c>
-      <c r="U41" s="70">
-        <v>2.8744146100000001</v>
-      </c>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="73"/>
-    </row>
-    <row r="42" spans="2:24">
-      <c r="B42" s="127"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="70">
-        <v>1.987869903</v>
-      </c>
-      <c r="Q42" s="70">
-        <v>6.5990047079999998</v>
-      </c>
-      <c r="R42" s="70">
-        <v>5.2624817420000003</v>
-      </c>
-      <c r="S42" s="70">
-        <v>4.3765452959999998</v>
-      </c>
-      <c r="T42" s="70">
-        <v>3.1838097699999999</v>
-      </c>
-      <c r="U42" s="70">
-        <v>2.9103112000000002</v>
-      </c>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="73"/>
-    </row>
-    <row r="43" spans="2:24">
-      <c r="B43" s="127"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="70">
-        <v>2.0293862030000001</v>
-      </c>
-      <c r="Q43" s="70">
-        <v>6.6762011719999999</v>
-      </c>
-      <c r="R43" s="70">
-        <v>5.3426281969999998</v>
-      </c>
-      <c r="S43" s="70">
-        <v>4.436041812</v>
-      </c>
-      <c r="T43" s="70">
-        <v>3.2472395999999999</v>
-      </c>
-      <c r="U43" s="70">
-        <v>2.9432577900000001</v>
-      </c>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="73"/>
-    </row>
-    <row r="44" spans="2:24">
-      <c r="B44" s="127"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="70">
-        <v>2.070902501</v>
-      </c>
-      <c r="Q44" s="70">
-        <v>6.7386476789999996</v>
-      </c>
-      <c r="R44" s="70">
-        <v>5.4208079900000001</v>
-      </c>
-      <c r="S44" s="70">
-        <v>4.4975049890000003</v>
-      </c>
-      <c r="T44" s="70">
-        <v>3.31656942</v>
-      </c>
-      <c r="U44" s="70">
-        <v>2.9850543599999999</v>
-      </c>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="73"/>
-    </row>
-    <row r="45" spans="2:24">
-      <c r="B45" s="127"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="70">
-        <v>2.112418801</v>
-      </c>
-      <c r="Q45" s="70">
-        <v>6.8010941860000003</v>
-      </c>
-      <c r="R45" s="70">
-        <v>5.4980044540000002</v>
-      </c>
-      <c r="S45" s="70">
-        <v>4.5648681480000004</v>
-      </c>
-      <c r="T45" s="70">
-        <v>3.3829492499999998</v>
-      </c>
-      <c r="U45" s="70">
-        <v>3.0327509099999999</v>
-      </c>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="73"/>
-    </row>
-    <row r="46" spans="2:24">
-      <c r="B46" s="127"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="70">
-        <v>2.1539351</v>
-      </c>
-      <c r="Q46" s="70">
-        <v>6.8773073189999998</v>
-      </c>
-      <c r="R46" s="70">
-        <v>5.5840508900000003</v>
-      </c>
-      <c r="S46" s="70">
-        <v>4.6322313079999997</v>
-      </c>
-      <c r="T46" s="70">
-        <v>3.4542457299999998</v>
-      </c>
-      <c r="U46" s="70">
-        <v>3.0804474599999998</v>
-      </c>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="73"/>
-    </row>
-    <row r="47" spans="2:24">
-      <c r="B47" s="127"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="70">
-        <v>2.1954514000000001</v>
-      </c>
-      <c r="Q47" s="70">
-        <v>6.9141872360000001</v>
-      </c>
-      <c r="R47" s="70">
-        <v>5.6681306659999997</v>
-      </c>
-      <c r="S47" s="70">
-        <v>4.6995944669999998</v>
-      </c>
-      <c r="T47" s="70">
-        <v>3.5275088800000001</v>
-      </c>
-      <c r="U47" s="70">
-        <v>3.1320773399999999</v>
-      </c>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="73"/>
-    </row>
-    <row r="48" spans="2:24">
-      <c r="B48" s="127"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="70">
-        <v>2.2369677000000001</v>
-      </c>
-      <c r="Q48" s="70">
-        <v>6.970733761</v>
-      </c>
-      <c r="R48" s="70">
-        <v>5.7384438170000003</v>
-      </c>
-      <c r="S48" s="70">
-        <v>4.7826909129999997</v>
-      </c>
-      <c r="T48" s="70">
-        <v>3.6106053199999999</v>
-      </c>
-      <c r="U48" s="70">
-        <v>3.1935405100000001</v>
-      </c>
-      <c r="V48" s="71"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="73"/>
-    </row>
-    <row r="49" spans="2:24">
-      <c r="B49" s="127"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="70">
-        <v>2.2784840000000002</v>
-      </c>
-      <c r="Q49" s="70">
-        <v>7.068580163</v>
-      </c>
-      <c r="R49" s="70">
-        <v>5.8166236109999998</v>
-      </c>
-      <c r="S49" s="70">
-        <v>4.8697206800000004</v>
-      </c>
-      <c r="T49" s="70">
-        <v>3.69566843</v>
-      </c>
-      <c r="U49" s="70">
-        <v>3.2559870200000001</v>
-      </c>
-      <c r="V49" s="71"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="73"/>
-    </row>
-    <row r="50" spans="2:24">
-      <c r="B50" s="127"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="70">
-        <v>2.3200002999999998</v>
-      </c>
-      <c r="Q50" s="70">
-        <v>7.1565932600000002</v>
-      </c>
-      <c r="R50" s="70">
-        <v>5.9115200210000003</v>
-      </c>
-      <c r="S50" s="70">
-        <v>4.9479004739999999</v>
-      </c>
-      <c r="T50" s="70">
-        <v>3.7885981800000001</v>
-      </c>
-      <c r="U50" s="70">
-        <v>3.3272835000000001</v>
-      </c>
-      <c r="V50" s="71"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="73"/>
-    </row>
-    <row r="51" spans="2:24" ht="17" thickBot="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="78">
-        <v>2.3487786449999999</v>
-      </c>
-      <c r="Q51" s="78">
-        <v>7.2038700359999996</v>
-      </c>
-      <c r="R51" s="78">
-        <v>5.9625782950000001</v>
-      </c>
-      <c r="S51" s="78">
-        <v>4.9972710999999999</v>
-      </c>
-      <c r="T51" s="78">
-        <v>3.8614876300000001</v>
-      </c>
-      <c r="U51" s="78">
-        <v>3.3584551399999998</v>
-      </c>
-      <c r="V51" s="77"/>
-      <c r="W51" s="77"/>
-      <c r="X51" s="79"/>
-    </row>
-    <row r="52" spans="2:24">
-      <c r="B52" s="126" t="s">
-        <v>260</v>
-      </c>
-      <c r="C52" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="80">
-        <v>0</v>
-      </c>
-      <c r="E52" s="80">
-        <v>0.140073262</v>
-      </c>
-      <c r="F52" s="80">
-        <v>14.03061224</v>
-      </c>
-      <c r="G52" s="80">
-        <v>2.1289593930000001</v>
-      </c>
-      <c r="H52" s="80">
-        <v>1.199602649</v>
-      </c>
-      <c r="I52" s="80">
-        <v>3.2589531680000001</v>
-      </c>
-      <c r="J52" s="80">
-        <v>2.3471358969999998</v>
-      </c>
-      <c r="K52" s="80">
-        <v>31.455026459999999</v>
-      </c>
-      <c r="L52" s="80">
-        <v>13.807471899999999</v>
-      </c>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="81"/>
-      <c r="V52" s="81"/>
-      <c r="W52" s="81"/>
-      <c r="X52" s="82"/>
-    </row>
-    <row r="53" spans="2:24">
-      <c r="B53" s="127"/>
-      <c r="C53" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="D53" s="70">
-        <v>0.28199807500000001</v>
-      </c>
-      <c r="E53" s="70">
-        <v>0.296569468</v>
-      </c>
-      <c r="F53" s="70">
-        <v>14.017273579999999</v>
-      </c>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="70">
-        <v>3.548209366</v>
-      </c>
-      <c r="J53" s="70">
-        <v>2.5574350790000002</v>
-      </c>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="73"/>
-    </row>
-    <row r="54" spans="2:24">
-      <c r="B54" s="127"/>
-      <c r="C54" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="D54" s="70">
-        <v>1</v>
-      </c>
-      <c r="E54" s="70">
-        <v>0.75470732100000004</v>
-      </c>
-      <c r="F54" s="70">
-        <v>16.038081900000002</v>
-      </c>
-      <c r="G54" s="70">
-        <v>2.2755246919999998</v>
-      </c>
-      <c r="H54" s="70">
-        <v>1.1980132450000001</v>
-      </c>
-      <c r="I54" s="70">
-        <v>3.699724518</v>
-      </c>
-      <c r="J54" s="70">
-        <v>2.532393866</v>
-      </c>
-      <c r="K54" s="70">
-        <v>22.195767199999999</v>
-      </c>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="71"/>
-      <c r="T54" s="71"/>
-      <c r="U54" s="71"/>
-      <c r="V54" s="71"/>
-      <c r="W54" s="71"/>
-      <c r="X54" s="73"/>
-    </row>
-    <row r="55" spans="2:24">
-      <c r="B55" s="127"/>
-      <c r="C55" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="D55" s="70">
-        <v>2</v>
-      </c>
-      <c r="E55" s="70">
-        <v>1.3588184590000001</v>
-      </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="70">
-        <v>2.4751077779999999</v>
-      </c>
-      <c r="H55" s="70">
-        <v>1.1908609269999999</v>
-      </c>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="71"/>
-      <c r="T55" s="71"/>
-      <c r="U55" s="71"/>
-      <c r="V55" s="71"/>
-      <c r="W55" s="71"/>
-      <c r="X55" s="73"/>
-    </row>
-    <row r="56" spans="2:24">
-      <c r="B56" s="127"/>
-      <c r="C56" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="D56" s="70">
-        <v>5</v>
-      </c>
-      <c r="E56" s="70">
-        <v>3.2458354150000002</v>
-      </c>
-      <c r="F56" s="70">
-        <v>42.770441509999998</v>
-      </c>
-      <c r="G56" s="70">
-        <v>3.2198092260000002</v>
-      </c>
-      <c r="H56" s="70">
-        <v>1.122119205</v>
-      </c>
-      <c r="I56" s="70">
-        <v>4.8774104679999999</v>
-      </c>
-      <c r="J56" s="70">
-        <v>2.3801830509999999</v>
-      </c>
-      <c r="K56" s="70">
-        <v>21.005291010000001</v>
-      </c>
-      <c r="L56" s="70">
-        <v>10.98839512</v>
-      </c>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="73"/>
-    </row>
-    <row r="57" spans="2:24">
-      <c r="B57" s="127"/>
-      <c r="C57" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="70">
-        <v>10</v>
-      </c>
-      <c r="E57" s="70">
-        <v>6.3347647809999996</v>
-      </c>
-      <c r="F57" s="70">
-        <v>64.709217019999997</v>
-      </c>
-      <c r="G57" s="70">
-        <v>3.7138136670000002</v>
-      </c>
-      <c r="H57" s="70">
-        <v>1.0827814570000001</v>
-      </c>
-      <c r="I57" s="70">
-        <v>5.6143250690000004</v>
-      </c>
-      <c r="J57" s="70">
-        <v>2.231877275</v>
-      </c>
-      <c r="K57" s="70">
-        <v>31.190476189999998</v>
-      </c>
-      <c r="L57" s="70">
-        <v>13.194259750000001</v>
-      </c>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="71"/>
-      <c r="W57" s="71"/>
-      <c r="X57" s="73"/>
-    </row>
-    <row r="58" spans="2:24">
-      <c r="B58" s="127"/>
-      <c r="C58" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" s="70">
-        <v>16.69099757</v>
-      </c>
-      <c r="E58" s="70">
-        <v>10.487439</v>
-      </c>
-      <c r="F58" s="70">
-        <v>96.793717490000006</v>
-      </c>
-      <c r="G58" s="70">
-        <v>5.3097684379999999</v>
-      </c>
-      <c r="H58" s="70">
-        <v>1.078807947</v>
-      </c>
-      <c r="I58" s="70">
-        <v>6.8953168040000001</v>
-      </c>
-      <c r="J58" s="70">
-        <v>2.2206346809999999</v>
-      </c>
-      <c r="K58" s="70">
-        <v>28.214285709999999</v>
-      </c>
-      <c r="L58" s="70">
-        <v>12.886314280000001</v>
-      </c>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71"/>
-      <c r="W58" s="71"/>
-      <c r="X58" s="73"/>
-    </row>
-    <row r="59" spans="2:24" ht="17" thickBot="1">
-      <c r="B59" s="128"/>
-      <c r="C59" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="D59" s="74">
-        <v>19.951338199999999</v>
-      </c>
-      <c r="E59" s="74">
-        <v>12.533108439999999</v>
-      </c>
-      <c r="F59" s="74">
-        <v>164.36741359999999</v>
-      </c>
-      <c r="G59" s="74">
-        <v>5.3251929679999996</v>
-      </c>
-      <c r="H59" s="74">
-        <v>1.0760264900000001</v>
-      </c>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="75"/>
-      <c r="P59" s="75"/>
-      <c r="Q59" s="75"/>
-      <c r="R59" s="75"/>
-      <c r="S59" s="75"/>
-      <c r="T59" s="75"/>
-      <c r="U59" s="75"/>
-      <c r="V59" s="75"/>
-      <c r="W59" s="75"/>
-      <c r="X59" s="76"/>
-    </row>
-    <row r="60" spans="2:24">
-      <c r="B60" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="137" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="70">
-        <v>-3.6322221000000002E-2</v>
-      </c>
-      <c r="E60" s="70">
-        <v>-0.76278823200000001</v>
-      </c>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="70">
-        <v>5.3605442180000002</v>
-      </c>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-      <c r="W60" s="71"/>
-      <c r="X60" s="73"/>
-    </row>
-    <row r="61" spans="2:24">
-      <c r="B61" s="127"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="70">
-        <v>1.0143544600000001</v>
-      </c>
-      <c r="E61" s="70">
-        <v>-3.9049385999999998E-2</v>
-      </c>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="70">
-        <v>8</v>
-      </c>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="73"/>
-    </row>
-    <row r="62" spans="2:24">
-      <c r="B62" s="127"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="70">
-        <v>2.0570279390000001</v>
-      </c>
-      <c r="E62" s="70">
-        <v>0.67917660599999996</v>
-      </c>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="70">
-        <v>8.5170068029999992</v>
-      </c>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="73"/>
-    </row>
-    <row r="63" spans="2:24">
-      <c r="B63" s="127"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="70">
-        <v>5.0235478809999998</v>
-      </c>
-      <c r="E63" s="70">
-        <v>2.722608004</v>
-      </c>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="70">
-        <v>15.23809524</v>
-      </c>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71"/>
-      <c r="T63" s="71"/>
-      <c r="U63" s="71"/>
-      <c r="V63" s="71"/>
-      <c r="W63" s="71"/>
-      <c r="X63" s="73"/>
-    </row>
-    <row r="64" spans="2:24" ht="17" thickBot="1">
-      <c r="B64" s="127"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="74">
-        <v>16.784457369999998</v>
-      </c>
-      <c r="E64" s="74">
-        <v>10.823889039999999</v>
-      </c>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="74">
-        <v>14.23129252</v>
-      </c>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="75"/>
-      <c r="U64" s="75"/>
-      <c r="V64" s="75"/>
-      <c r="W64" s="75"/>
-      <c r="X64" s="76"/>
-    </row>
-    <row r="65" spans="2:24">
-      <c r="B65" s="127"/>
-      <c r="C65" s="141" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="70">
-        <v>-3.8074740000000003E-2</v>
-      </c>
-      <c r="E65" s="70">
-        <v>-0.76398975199999997</v>
-      </c>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="70">
-        <v>4.8979591840000003</v>
-      </c>
-      <c r="N65" s="71"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="71"/>
-      <c r="R65" s="71"/>
-      <c r="S65" s="71"/>
-      <c r="T65" s="71"/>
-      <c r="U65" s="71"/>
-      <c r="V65" s="71"/>
-      <c r="W65" s="71"/>
-      <c r="X65" s="73"/>
-    </row>
-    <row r="66" spans="2:24">
-      <c r="B66" s="127"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="70">
-        <v>1.0000384330000001</v>
-      </c>
-      <c r="E66" s="70">
-        <v>-4.8096121999999998E-2</v>
-      </c>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="70">
-        <v>4.5170068030000001</v>
-      </c>
-      <c r="N66" s="71"/>
-      <c r="O66" s="71"/>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="71"/>
-      <c r="R66" s="71"/>
-      <c r="S66" s="71"/>
-      <c r="T66" s="71"/>
-      <c r="U66" s="71"/>
-      <c r="V66" s="71"/>
-      <c r="W66" s="71"/>
-      <c r="X66" s="73"/>
-    </row>
-    <row r="67" spans="2:24">
-      <c r="B67" s="127"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="70">
-        <v>1.9953111189999999</v>
-      </c>
-      <c r="E67" s="70">
-        <v>0.63825426299999999</v>
-      </c>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="70">
-        <v>4.7619047620000003</v>
-      </c>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="71"/>
-      <c r="R67" s="71"/>
-      <c r="S67" s="71"/>
-      <c r="T67" s="71"/>
-      <c r="U67" s="71"/>
-      <c r="V67" s="71"/>
-      <c r="W67" s="71"/>
-      <c r="X67" s="73"/>
-    </row>
-    <row r="68" spans="2:24">
-      <c r="B68" s="127"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="70">
-        <v>4.9786694340000004</v>
-      </c>
-      <c r="E68" s="70">
-        <v>2.6956091529999999</v>
-      </c>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="70">
-        <v>4.8435374150000001</v>
-      </c>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
-      <c r="P68" s="71"/>
-      <c r="Q68" s="71"/>
-      <c r="R68" s="71"/>
-      <c r="S68" s="71"/>
-      <c r="T68" s="71"/>
-      <c r="U68" s="71"/>
-      <c r="V68" s="71"/>
-      <c r="W68" s="71"/>
-      <c r="X68" s="73"/>
-    </row>
-    <row r="69" spans="2:24" ht="17" thickBot="1">
-      <c r="B69" s="136"/>
-      <c r="C69" s="140"/>
-      <c r="D69" s="74">
-        <v>16.68693391</v>
-      </c>
-      <c r="E69" s="74">
-        <v>10.76974998</v>
-      </c>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="74">
-        <v>5.3877551019999999</v>
-      </c>
-      <c r="N69" s="75"/>
-      <c r="O69" s="75"/>
-      <c r="P69" s="75"/>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="75"/>
-      <c r="S69" s="75"/>
-      <c r="T69" s="75"/>
-      <c r="U69" s="75"/>
-      <c r="V69" s="75"/>
-      <c r="W69" s="75"/>
-      <c r="X69" s="76"/>
-    </row>
-    <row r="70" spans="2:24">
-      <c r="B70" s="126" t="s">
+      <c r="O30" s="161" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+    </row>
+    <row r="31" spans="2:31" ht="17">
+      <c r="B31" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="129" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="70">
-        <v>1.2371603929999999</v>
-      </c>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71"/>
-      <c r="P70" s="71"/>
-      <c r="Q70" s="71"/>
-      <c r="R70" s="71"/>
-      <c r="S70" s="71"/>
-      <c r="T70" s="71"/>
-      <c r="U70" s="71"/>
-      <c r="V70" s="70">
-        <v>7.8250132099999998</v>
-      </c>
-      <c r="W70" s="70">
-        <v>14.2519782</v>
-      </c>
-      <c r="X70" s="83">
-        <v>15.597094200000001</v>
-      </c>
-    </row>
-    <row r="71" spans="2:24">
-      <c r="B71" s="127"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="70">
-        <v>1.497635657</v>
-      </c>
-      <c r="K71" s="71"/>
-      <c r="L71" s="71"/>
-      <c r="M71" s="71"/>
-      <c r="N71" s="71"/>
-      <c r="O71" s="71"/>
-      <c r="P71" s="71"/>
-      <c r="Q71" s="71"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="71"/>
-      <c r="T71" s="71"/>
-      <c r="U71" s="71"/>
-      <c r="V71" s="70">
-        <v>7.8220180700000004</v>
-      </c>
-      <c r="W71" s="70">
-        <v>14.5478977</v>
-      </c>
-      <c r="X71" s="83">
-        <v>15.594099</v>
-      </c>
-    </row>
-    <row r="72" spans="2:24">
-      <c r="B72" s="127"/>
-      <c r="C72" s="130"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="70">
-        <v>1.7404123869999999</v>
-      </c>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="71"/>
-      <c r="R72" s="71"/>
-      <c r="S72" s="71"/>
-      <c r="T72" s="71"/>
-      <c r="U72" s="71"/>
-      <c r="V72" s="70">
-        <v>7.8196219600000001</v>
-      </c>
-      <c r="W72" s="70">
-        <v>15.292189199999999</v>
-      </c>
-      <c r="X72" s="83">
-        <v>17.235134599999999</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24">
-      <c r="B73" s="127"/>
-      <c r="C73" s="130"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="70">
-        <v>1.991566417</v>
-      </c>
-      <c r="K73" s="71"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71"/>
-      <c r="O73" s="71"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="71"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="71"/>
-      <c r="T73" s="71"/>
-      <c r="U73" s="71"/>
-      <c r="V73" s="70">
-        <v>8.4144561600000003</v>
-      </c>
-      <c r="W73" s="70">
-        <v>16.335695000000001</v>
-      </c>
-      <c r="X73" s="83">
-        <v>19.922371500000001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:24">
-      <c r="B74" s="127"/>
-      <c r="C74" s="130"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="70">
-        <v>2.24250807</v>
-      </c>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
-      <c r="O74" s="71"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="71"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="71"/>
-      <c r="T74" s="71"/>
-      <c r="U74" s="71"/>
-      <c r="V74" s="70">
-        <v>9.9060343799999995</v>
-      </c>
-      <c r="W74" s="70">
-        <v>17.8272732</v>
-      </c>
-      <c r="X74" s="83">
-        <v>22.6099079</v>
-      </c>
-    </row>
-    <row r="75" spans="2:24">
-      <c r="B75" s="127"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="70">
-        <v>2.4849308300000001</v>
-      </c>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71"/>
-      <c r="O75" s="71"/>
-      <c r="P75" s="71"/>
-      <c r="Q75" s="71"/>
-      <c r="R75" s="71"/>
-      <c r="S75" s="71"/>
-      <c r="T75" s="71"/>
-      <c r="U75" s="71"/>
-      <c r="V75" s="70">
-        <v>11.098697899999999</v>
-      </c>
-      <c r="W75" s="70">
-        <v>19.020236199999999</v>
-      </c>
-      <c r="X75" s="83">
-        <v>24.8490723</v>
-      </c>
-    </row>
-    <row r="76" spans="2:24">
-      <c r="B76" s="127"/>
-      <c r="C76" s="130"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="70">
-        <v>2.73601407</v>
-      </c>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71"/>
-      <c r="O76" s="71"/>
-      <c r="P76" s="71"/>
-      <c r="Q76" s="71"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="71"/>
-      <c r="T76" s="71"/>
-      <c r="U76" s="71"/>
-      <c r="V76" s="70">
-        <v>12.5905757</v>
-      </c>
-      <c r="W76" s="70">
-        <v>19.913985100000001</v>
-      </c>
-      <c r="X76" s="83">
-        <v>27.237394599999998</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24">
-      <c r="B77" s="127"/>
-      <c r="C77" s="130"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="70">
-        <v>2.9875692730000001</v>
-      </c>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
-      <c r="O77" s="71"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="71"/>
-      <c r="R77" s="71"/>
-      <c r="S77" s="71"/>
-      <c r="T77" s="71"/>
-      <c r="U77" s="71"/>
-      <c r="V77" s="70">
-        <v>13.9326965</v>
-      </c>
-      <c r="W77" s="70">
-        <v>20.359661500000001</v>
-      </c>
-      <c r="X77" s="83">
-        <v>27.234399400000001</v>
-      </c>
-    </row>
-    <row r="78" spans="2:24">
-      <c r="B78" s="127"/>
-      <c r="C78" s="130"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="70">
-        <v>3.2389592899999999</v>
-      </c>
-      <c r="K78" s="71"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71"/>
-      <c r="O78" s="71"/>
-      <c r="P78" s="71"/>
-      <c r="Q78" s="71"/>
-      <c r="R78" s="71"/>
-      <c r="S78" s="71"/>
-      <c r="T78" s="71"/>
-      <c r="U78" s="71"/>
-      <c r="V78" s="70">
-        <v>15.424274799999999</v>
-      </c>
-      <c r="W78" s="70">
-        <v>20.655581000000002</v>
-      </c>
-      <c r="X78" s="83">
-        <v>28.277905100000002</v>
-      </c>
-    </row>
-    <row r="79" spans="2:24">
-      <c r="B79" s="127"/>
-      <c r="C79" s="130"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="70">
-        <v>3.4819012030000001</v>
-      </c>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
-      <c r="Q79" s="71"/>
-      <c r="R79" s="71"/>
-      <c r="S79" s="71"/>
-      <c r="T79" s="71"/>
-      <c r="U79" s="71"/>
-      <c r="V79" s="70">
-        <v>15.7204938</v>
-      </c>
-      <c r="W79" s="70">
-        <v>20.9518001</v>
-      </c>
-      <c r="X79" s="83">
-        <v>29.022196699999999</v>
-      </c>
-    </row>
-    <row r="80" spans="2:24">
-      <c r="B80" s="127"/>
-      <c r="C80" s="130"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="70">
-        <v>3.7506357870000002</v>
-      </c>
-      <c r="K80" s="71"/>
-      <c r="L80" s="71"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="71"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="71"/>
-      <c r="Q80" s="71"/>
-      <c r="R80" s="71"/>
-      <c r="S80" s="71"/>
-      <c r="T80" s="71"/>
-      <c r="U80" s="71"/>
-      <c r="V80" s="70">
-        <v>17.361529399999998</v>
-      </c>
-      <c r="W80" s="70">
-        <v>21.396877400000001</v>
-      </c>
-      <c r="X80" s="83">
-        <v>29.915945600000001</v>
-      </c>
-    </row>
-    <row r="81" spans="2:24">
-      <c r="B81" s="127"/>
-      <c r="C81" s="130"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="70">
-        <v>3.9849880099999999</v>
-      </c>
-      <c r="K81" s="71"/>
-      <c r="L81" s="71"/>
-      <c r="M81" s="71"/>
-      <c r="N81" s="71"/>
-      <c r="O81" s="71"/>
-      <c r="P81" s="71"/>
-      <c r="Q81" s="71"/>
-      <c r="R81" s="71"/>
-      <c r="S81" s="71"/>
-      <c r="T81" s="71"/>
-      <c r="U81" s="71"/>
-      <c r="V81" s="70">
-        <v>17.9566631</v>
-      </c>
-      <c r="W81" s="70">
-        <v>21.394181799999998</v>
-      </c>
-      <c r="X81" s="83">
-        <v>30.0627073</v>
-      </c>
-    </row>
-    <row r="82" spans="2:24">
-      <c r="B82" s="127"/>
-      <c r="C82" s="130"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="70">
-        <v>4.479249147</v>
-      </c>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71"/>
-      <c r="O82" s="71"/>
-      <c r="P82" s="71"/>
-      <c r="Q82" s="71"/>
-      <c r="R82" s="71"/>
-      <c r="S82" s="71"/>
-      <c r="T82" s="71"/>
-      <c r="U82" s="71"/>
-      <c r="V82" s="70">
-        <v>21.089576399999999</v>
-      </c>
-      <c r="W82" s="70">
-        <v>21.537948400000001</v>
-      </c>
-      <c r="X82" s="83">
-        <v>31.4021325</v>
-      </c>
-    </row>
-    <row r="83" spans="2:24">
-      <c r="B83" s="127"/>
-      <c r="C83" s="130"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="70">
-        <v>4.9822887570000001</v>
-      </c>
-      <c r="K83" s="71"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="71"/>
-      <c r="N83" s="71"/>
-      <c r="O83" s="71"/>
-      <c r="P83" s="71"/>
-      <c r="Q83" s="71"/>
-      <c r="R83" s="71"/>
-      <c r="S83" s="71"/>
-      <c r="T83" s="71"/>
-      <c r="U83" s="71"/>
-      <c r="V83" s="70">
-        <v>23.7738181</v>
-      </c>
-      <c r="W83" s="70">
-        <v>21.532257600000001</v>
-      </c>
-      <c r="X83" s="83">
-        <v>32.741557800000002</v>
-      </c>
-    </row>
-    <row r="84" spans="2:24">
-      <c r="B84" s="127"/>
-      <c r="C84" s="130"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="70">
-        <v>5.9885331600000002</v>
-      </c>
-      <c r="K84" s="71"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="71"/>
-      <c r="N84" s="71"/>
-      <c r="O84" s="71"/>
-      <c r="P84" s="71"/>
-      <c r="Q84" s="71"/>
-      <c r="R84" s="71"/>
-      <c r="S84" s="71"/>
-      <c r="T84" s="71"/>
-      <c r="U84" s="71"/>
-      <c r="V84" s="70">
-        <v>29.142900699999998</v>
-      </c>
-      <c r="W84" s="70">
-        <v>21.968948600000001</v>
-      </c>
-      <c r="X84" s="83">
-        <v>33.925535400000001</v>
-      </c>
-    </row>
-    <row r="85" spans="2:24">
-      <c r="B85" s="127"/>
-      <c r="C85" s="130"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="70">
-        <v>6.9855271370000001</v>
-      </c>
-      <c r="K85" s="71"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="71"/>
-      <c r="N85" s="71"/>
-      <c r="O85" s="71"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="71"/>
-      <c r="R85" s="71"/>
-      <c r="S85" s="71"/>
-      <c r="T85" s="71"/>
-      <c r="U85" s="71"/>
-      <c r="V85" s="70">
-        <v>35.857099300000002</v>
-      </c>
-      <c r="W85" s="70">
-        <v>22.8543111</v>
-      </c>
-      <c r="X85" s="83">
-        <v>36.903001099999997</v>
-      </c>
-    </row>
-    <row r="86" spans="2:24">
-      <c r="B86" s="127"/>
-      <c r="C86" s="130"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="70">
-        <v>7.9658136900000001</v>
-      </c>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71"/>
-      <c r="O86" s="71"/>
-      <c r="P86" s="71"/>
-      <c r="Q86" s="71"/>
-      <c r="R86" s="71"/>
-      <c r="S86" s="71"/>
-      <c r="T86" s="71"/>
-      <c r="U86" s="71"/>
-      <c r="V86" s="70">
-        <v>39.133779199999999</v>
-      </c>
-      <c r="W86" s="70">
-        <v>24.3375029</v>
-      </c>
-      <c r="X86" s="83">
-        <v>38.535949799999997</v>
-      </c>
-    </row>
-    <row r="87" spans="2:24">
-      <c r="B87" s="127"/>
-      <c r="C87" s="130"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
-      <c r="I87" s="71"/>
-      <c r="J87" s="70">
-        <v>8.98074218</v>
-      </c>
-      <c r="K87" s="71"/>
-      <c r="L87" s="71"/>
-      <c r="M87" s="71"/>
-      <c r="N87" s="71"/>
-      <c r="O87" s="71"/>
-      <c r="P87" s="71"/>
-      <c r="Q87" s="71"/>
-      <c r="R87" s="71"/>
-      <c r="S87" s="71"/>
-      <c r="T87" s="71"/>
-      <c r="U87" s="71"/>
-      <c r="V87" s="70">
-        <v>43.4563609</v>
-      </c>
-      <c r="W87" s="70">
-        <v>25.073108600000001</v>
-      </c>
-      <c r="X87" s="83">
-        <v>40.4672141</v>
-      </c>
-    </row>
-    <row r="88" spans="2:24">
-      <c r="B88" s="127"/>
-      <c r="C88" s="130"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="70">
-        <v>9.9695004300000001</v>
-      </c>
-      <c r="K88" s="71"/>
-      <c r="L88" s="71"/>
-      <c r="M88" s="71"/>
-      <c r="N88" s="71"/>
-      <c r="O88" s="71"/>
-      <c r="P88" s="71"/>
-      <c r="Q88" s="71"/>
-      <c r="R88" s="71"/>
-      <c r="S88" s="71"/>
-      <c r="T88" s="71"/>
-      <c r="U88" s="71"/>
-      <c r="V88" s="70">
-        <v>49.722187400000003</v>
-      </c>
-      <c r="W88" s="70">
-        <v>25.061727099999999</v>
-      </c>
-      <c r="X88" s="83">
-        <v>41.950406000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="2:24">
-      <c r="B89" s="127"/>
-      <c r="C89" s="130"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="71"/>
-      <c r="J89" s="70">
-        <v>10.97600443</v>
-      </c>
-      <c r="K89" s="71"/>
-      <c r="L89" s="71"/>
-      <c r="M89" s="71"/>
-      <c r="N89" s="71"/>
-      <c r="O89" s="71"/>
-      <c r="P89" s="71"/>
-      <c r="Q89" s="71"/>
-      <c r="R89" s="71"/>
-      <c r="S89" s="71"/>
-      <c r="T89" s="71"/>
-      <c r="U89" s="71"/>
-      <c r="V89" s="70">
-        <v>54.0450686</v>
-      </c>
-      <c r="W89" s="70">
-        <v>25.498418000000001</v>
-      </c>
-      <c r="X89" s="83">
-        <v>42.536554299999999</v>
-      </c>
-    </row>
-    <row r="90" spans="2:24">
-      <c r="B90" s="127"/>
-      <c r="C90" s="130"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="70">
-        <v>11.973706330000001</v>
-      </c>
-      <c r="K90" s="71"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71"/>
-      <c r="O90" s="71"/>
-      <c r="P90" s="71"/>
-      <c r="Q90" s="71"/>
-      <c r="R90" s="71"/>
-      <c r="S90" s="71"/>
-      <c r="T90" s="71"/>
-      <c r="U90" s="71"/>
-      <c r="V90" s="70">
-        <v>58.8160223</v>
-      </c>
-      <c r="W90" s="70">
-        <v>25.3375792</v>
-      </c>
-      <c r="X90" s="83">
-        <v>44.019746099999999</v>
-      </c>
-    </row>
-    <row r="91" spans="2:24" ht="17" thickBot="1">
-      <c r="B91" s="128"/>
-      <c r="C91" s="131"/>
-      <c r="D91" s="75"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="75"/>
-      <c r="G91" s="75"/>
-      <c r="H91" s="75"/>
-      <c r="I91" s="75"/>
-      <c r="J91" s="74">
-        <v>12.9634321</v>
-      </c>
-      <c r="K91" s="75"/>
-      <c r="L91" s="75"/>
-      <c r="M91" s="75"/>
-      <c r="N91" s="75"/>
-      <c r="O91" s="75"/>
-      <c r="P91" s="75"/>
-      <c r="Q91" s="75"/>
-      <c r="R91" s="75"/>
-      <c r="S91" s="75"/>
-      <c r="T91" s="75"/>
-      <c r="U91" s="75"/>
-      <c r="V91" s="74">
-        <v>60.598128899999999</v>
-      </c>
-      <c r="W91" s="74">
-        <v>25.475655</v>
-      </c>
-      <c r="X91" s="84">
-        <v>43.709449900000003</v>
-      </c>
+      <c r="C31" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="79"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="83"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+    </row>
+    <row r="32" spans="2:31" ht="17">
+      <c r="B32" s="156"/>
+      <c r="C32" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="98"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="83"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+    </row>
+    <row r="33" spans="2:31" ht="18" thickBot="1">
+      <c r="B33" s="157"/>
+      <c r="C33" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="99"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="83"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="83"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+    </row>
+    <row r="34" spans="2:31" ht="16" customHeight="1">
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+    </row>
+    <row r="35" spans="2:31">
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="83"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+    </row>
+    <row r="36" spans="2:31">
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="83"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="83"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+    </row>
+    <row r="37" spans="2:31">
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+    </row>
+    <row r="38" spans="2:31">
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="83"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
+    </row>
+    <row r="39" spans="2:31" ht="16" customHeight="1">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
+      <c r="T39" s="83"/>
+      <c r="U39" s="83"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="27"/>
+    </row>
+    <row r="40" spans="2:31">
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
+      <c r="T40" s="83"/>
+      <c r="U40" s="83"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+    </row>
+    <row r="41" spans="2:31">
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="83"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="83"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+    </row>
+    <row r="42" spans="2:31">
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="83"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="83"/>
+      <c r="T42" s="83"/>
+      <c r="U42" s="83"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+    </row>
+    <row r="43" spans="2:31">
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="83"/>
+      <c r="T43" s="83"/>
+      <c r="U43" s="83"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+    </row>
+    <row r="44" spans="2:31">
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="83"/>
+      <c r="Q44" s="83"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="83"/>
+      <c r="T44" s="83"/>
+      <c r="U44" s="83"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+    </row>
+    <row r="45" spans="2:31">
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="83"/>
+      <c r="T45" s="83"/>
+      <c r="U45" s="83"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
+    </row>
+    <row r="46" spans="2:31">
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="83"/>
+      <c r="T46" s="83"/>
+      <c r="U46" s="83"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+    </row>
+    <row r="47" spans="2:31">
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="83"/>
+      <c r="T47" s="83"/>
+      <c r="U47" s="83"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+    </row>
+    <row r="48" spans="2:31">
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
+      <c r="P48" s="83"/>
+      <c r="Q48" s="83"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="83"/>
+      <c r="T48" s="83"/>
+      <c r="U48" s="83"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+    </row>
+    <row r="49" spans="2:31">
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="83"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="83"/>
+      <c r="T49" s="83"/>
+      <c r="U49" s="83"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+    </row>
+    <row r="50" spans="2:31">
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="83"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="83"/>
+      <c r="T50" s="83"/>
+      <c r="U50" s="83"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="27"/>
+    </row>
+    <row r="51" spans="2:31">
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+    </row>
+    <row r="52" spans="2:31">
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="27"/>
+      <c r="AD52" s="27"/>
+      <c r="AE52" s="27"/>
+    </row>
+    <row r="53" spans="2:31">
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="83"/>
+      <c r="T53" s="83"/>
+      <c r="U53" s="83"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27"/>
+    </row>
+    <row r="54" spans="2:31">
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="83"/>
+      <c r="R54" s="83"/>
+      <c r="S54" s="83"/>
+      <c r="T54" s="83"/>
+      <c r="U54" s="83"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="27"/>
+    </row>
+    <row r="55" spans="2:31">
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
+      <c r="T55" s="83"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="27"/>
+      <c r="AE55" s="27"/>
+    </row>
+    <row r="56" spans="2:31">
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
+      <c r="T56" s="83"/>
+      <c r="U56" s="83"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="27"/>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="27"/>
+      <c r="AE56" s="27"/>
+    </row>
+    <row r="57" spans="2:31">
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="83"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="83"/>
+      <c r="T57" s="83"/>
+      <c r="U57" s="83"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="27"/>
+    </row>
+    <row r="58" spans="2:31">
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="83"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="83"/>
+      <c r="R58" s="83"/>
+      <c r="S58" s="83"/>
+      <c r="T58" s="83"/>
+      <c r="U58" s="83"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="27"/>
+    </row>
+    <row r="59" spans="2:31">
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="83"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="83"/>
+      <c r="T59" s="83"/>
+      <c r="U59" s="83"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+    </row>
+    <row r="60" spans="2:31">
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="83"/>
+      <c r="P60" s="83"/>
+      <c r="Q60" s="83"/>
+      <c r="R60" s="83"/>
+      <c r="S60" s="83"/>
+      <c r="T60" s="83"/>
+      <c r="U60" s="83"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27"/>
+      <c r="AE60" s="27"/>
+    </row>
+    <row r="61" spans="2:31">
+      <c r="T61" s="83"/>
+      <c r="U61" s="83"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="27"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="27"/>
+      <c r="AD61" s="27"/>
+      <c r="AE61" s="27"/>
+    </row>
+    <row r="62" spans="2:31">
+      <c r="T62" s="83"/>
+      <c r="U62" s="83"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="27"/>
+    </row>
+    <row r="63" spans="2:31">
+      <c r="T63" s="83"/>
+      <c r="U63" s="83"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="27"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="27"/>
+      <c r="AE63" s="27"/>
+    </row>
+    <row r="64" spans="2:31">
+      <c r="T64" s="83"/>
+      <c r="U64" s="83"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="27"/>
+      <c r="AA64" s="27"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="27"/>
+      <c r="AD64" s="27"/>
+      <c r="AE64" s="27"/>
+    </row>
+    <row r="65" spans="20:31">
+      <c r="T65" s="83"/>
+      <c r="U65" s="83"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="27"/>
+      <c r="AD65" s="27"/>
+      <c r="AE65" s="27"/>
+    </row>
+    <row r="66" spans="20:31">
+      <c r="T66" s="83"/>
+      <c r="U66" s="83"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="27"/>
+      <c r="AE66" s="27"/>
+    </row>
+    <row r="67" spans="20:31">
+      <c r="T67" s="83"/>
+      <c r="U67" s="83"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="27"/>
+      <c r="AE67" s="27"/>
+    </row>
+    <row r="68" spans="20:31">
+      <c r="T68" s="83"/>
+      <c r="U68" s="83"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="27"/>
+      <c r="AD68" s="27"/>
+      <c r="AE68" s="27"/>
+    </row>
+    <row r="69" spans="20:31">
+      <c r="T69" s="83"/>
+      <c r="U69" s="83"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="27"/>
+      <c r="AD69" s="27"/>
+      <c r="AE69" s="27"/>
+    </row>
+    <row r="70" spans="20:31">
+      <c r="T70" s="83"/>
+      <c r="U70" s="83"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27"/>
+      <c r="AC70" s="27"/>
+      <c r="AD70" s="27"/>
+      <c r="AE70" s="27"/>
+    </row>
+    <row r="71" spans="20:31">
+      <c r="T71" s="83"/>
+      <c r="U71" s="83"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="27"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="27"/>
+      <c r="AE71" s="27"/>
+    </row>
+    <row r="72" spans="20:31">
+      <c r="T72" s="83"/>
+      <c r="U72" s="83"/>
+      <c r="V72" s="27"/>
+      <c r="W72" s="27"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="27"/>
+      <c r="AA72" s="27"/>
+      <c r="AB72" s="27"/>
+      <c r="AC72" s="27"/>
+      <c r="AD72" s="27"/>
+      <c r="AE72" s="27"/>
+    </row>
+    <row r="73" spans="20:31">
+      <c r="T73" s="83"/>
+      <c r="U73" s="83"/>
+      <c r="V73" s="27"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="27"/>
+      <c r="AC73" s="27"/>
+      <c r="AD73" s="27"/>
+      <c r="AE73" s="27"/>
+    </row>
+    <row r="74" spans="20:31">
+      <c r="T74" s="83"/>
+      <c r="U74" s="83"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="27"/>
+    </row>
+    <row r="75" spans="20:31">
+      <c r="T75" s="83"/>
+      <c r="U75" s="83"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="27"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="27"/>
+    </row>
+    <row r="76" spans="20:31">
+      <c r="T76" s="83"/>
+      <c r="U76" s="83"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="27"/>
+      <c r="AE76" s="27"/>
+    </row>
+    <row r="77" spans="20:31">
+      <c r="T77" s="83"/>
+      <c r="U77" s="83"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="27"/>
+      <c r="AC77" s="27"/>
+      <c r="AD77" s="27"/>
+      <c r="AE77" s="27"/>
+    </row>
+    <row r="78" spans="20:31">
+      <c r="T78" s="83"/>
+      <c r="U78" s="83"/>
+      <c r="V78" s="27"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="27"/>
+      <c r="AA78" s="27"/>
+      <c r="AB78" s="27"/>
+      <c r="AC78" s="27"/>
+      <c r="AD78" s="27"/>
+      <c r="AE78" s="27"/>
+    </row>
+    <row r="79" spans="20:31">
+      <c r="T79" s="83"/>
+      <c r="U79" s="83"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="27"/>
+      <c r="AB79" s="27"/>
+      <c r="AC79" s="27"/>
+      <c r="AD79" s="27"/>
+      <c r="AE79" s="27"/>
+    </row>
+    <row r="80" spans="20:31">
+      <c r="T80" s="83"/>
+      <c r="U80" s="83"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="27"/>
+      <c r="AC80" s="27"/>
+      <c r="AD80" s="27"/>
+      <c r="AE80" s="27"/>
+    </row>
+    <row r="81" spans="20:31">
+      <c r="T81" s="83"/>
+      <c r="U81" s="83"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="27"/>
+      <c r="AB81" s="27"/>
+      <c r="AC81" s="27"/>
+      <c r="AD81" s="27"/>
+      <c r="AE81" s="27"/>
+    </row>
+    <row r="82" spans="20:31">
+      <c r="T82" s="83"/>
+      <c r="U82" s="83"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="27"/>
+      <c r="AE82" s="27"/>
+    </row>
+    <row r="83" spans="20:31">
+      <c r="T83" s="83"/>
+      <c r="U83" s="83"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
+    </row>
+    <row r="84" spans="20:31">
+      <c r="T84" s="83"/>
+      <c r="U84" s="83"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27"/>
+    </row>
+    <row r="85" spans="20:31">
+      <c r="T85" s="83"/>
+      <c r="U85" s="83"/>
+      <c r="V85" s="27"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27"/>
+      <c r="AE85" s="27"/>
+    </row>
+    <row r="86" spans="20:31">
+      <c r="T86" s="83"/>
+      <c r="U86" s="83"/>
+      <c r="V86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="27"/>
+    </row>
+    <row r="87" spans="20:31">
+      <c r="T87" s="83"/>
+      <c r="U87" s="83"/>
+      <c r="V87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="27"/>
+    </row>
+    <row r="88" spans="20:31">
+      <c r="T88" s="83"/>
+      <c r="U88" s="83"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="27"/>
+    </row>
+    <row r="89" spans="20:31">
+      <c r="T89" s="83"/>
+      <c r="U89" s="83"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+    </row>
+    <row r="90" spans="20:31">
+      <c r="T90" s="83"/>
+      <c r="U90" s="83"/>
+      <c r="V90" s="27"/>
+      <c r="W90" s="27"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="27"/>
+      <c r="AE90" s="27"/>
+    </row>
+    <row r="91" spans="20:31">
+      <c r="T91" s="83"/>
+      <c r="U91" s="83"/>
+      <c r="V91" s="27"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="27"/>
+    </row>
+    <row r="92" spans="20:31">
+      <c r="T92" s="27"/>
+      <c r="U92" s="27"/>
+      <c r="V92" s="27"/>
+      <c r="W92" s="27"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="27"/>
+      <c r="AC92" s="27"/>
+      <c r="AD92" s="27"/>
+      <c r="AE92" s="27"/>
+    </row>
+    <row r="93" spans="20:31">
+      <c r="T93" s="27"/>
+      <c r="U93" s="27"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="27"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="27"/>
+      <c r="AC93" s="27"/>
+      <c r="AD93" s="27"/>
+      <c r="AE93" s="27"/>
+    </row>
+    <row r="94" spans="20:31">
+      <c r="T94" s="27"/>
+      <c r="U94" s="27"/>
+      <c r="V94" s="27"/>
+      <c r="W94" s="27"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="27"/>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="27"/>
+      <c r="AE94" s="27"/>
+    </row>
+    <row r="95" spans="20:31">
+      <c r="T95" s="27"/>
+      <c r="U95" s="27"/>
+      <c r="V95" s="27"/>
+      <c r="W95" s="27"/>
+      <c r="X95" s="27"/>
+      <c r="Y95" s="27"/>
+      <c r="Z95" s="27"/>
+      <c r="AA95" s="27"/>
+      <c r="AB95" s="27"/>
+      <c r="AC95" s="27"/>
+      <c r="AD95" s="27"/>
+      <c r="AE95" s="27"/>
+    </row>
+    <row r="96" spans="20:31">
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
+      <c r="V96" s="27"/>
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="27"/>
+      <c r="AE96" s="27"/>
+    </row>
+    <row r="97" spans="20:31">
+      <c r="T97" s="27"/>
+      <c r="U97" s="27"/>
+      <c r="V97" s="27"/>
+      <c r="W97" s="27"/>
+      <c r="X97" s="27"/>
+      <c r="Y97" s="27"/>
+      <c r="Z97" s="27"/>
+      <c r="AA97" s="27"/>
+      <c r="AB97" s="27"/>
+      <c r="AC97" s="27"/>
+      <c r="AD97" s="27"/>
+      <c r="AE97" s="27"/>
+    </row>
+    <row r="98" spans="20:31">
+      <c r="T98" s="27"/>
+      <c r="U98" s="27"/>
+      <c r="V98" s="27"/>
+      <c r="W98" s="27"/>
+      <c r="X98" s="27"/>
+      <c r="Y98" s="27"/>
+      <c r="Z98" s="27"/>
+      <c r="AA98" s="27"/>
+      <c r="AB98" s="27"/>
+      <c r="AC98" s="27"/>
+      <c r="AD98" s="27"/>
+      <c r="AE98" s="27"/>
+    </row>
+    <row r="99" spans="20:31">
+      <c r="T99" s="27"/>
+      <c r="U99" s="27"/>
+      <c r="V99" s="27"/>
+      <c r="W99" s="27"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
+      <c r="AA99" s="27"/>
+      <c r="AB99" s="27"/>
+      <c r="AC99" s="27"/>
+      <c r="AD99" s="27"/>
+      <c r="AE99" s="27"/>
+    </row>
+    <row r="100" spans="20:31">
+      <c r="T100" s="27"/>
+      <c r="U100" s="27"/>
+      <c r="V100" s="27"/>
+      <c r="W100" s="27"/>
+      <c r="X100" s="27"/>
+      <c r="Y100" s="27"/>
+      <c r="Z100" s="27"/>
+      <c r="AA100" s="27"/>
+      <c r="AB100" s="27"/>
+      <c r="AC100" s="27"/>
+      <c r="AD100" s="27"/>
+      <c r="AE100" s="27"/>
+    </row>
+    <row r="101" spans="20:31">
+      <c r="T101" s="27"/>
+      <c r="U101" s="27"/>
+      <c r="V101" s="27"/>
+      <c r="W101" s="27"/>
+      <c r="X101" s="27"/>
+      <c r="Y101" s="27"/>
+      <c r="Z101" s="27"/>
+      <c r="AA101" s="27"/>
+      <c r="AB101" s="27"/>
+      <c r="AC101" s="27"/>
+      <c r="AD101" s="27"/>
+      <c r="AE101" s="27"/>
+    </row>
+    <row r="102" spans="20:31">
+      <c r="T102" s="27"/>
+      <c r="U102" s="27"/>
+      <c r="V102" s="27"/>
+      <c r="W102" s="27"/>
+      <c r="X102" s="27"/>
+      <c r="Y102" s="27"/>
+      <c r="Z102" s="27"/>
+      <c r="AA102" s="27"/>
+      <c r="AB102" s="27"/>
+      <c r="AC102" s="27"/>
+      <c r="AD102" s="27"/>
+      <c r="AE102" s="27"/>
+    </row>
+    <row r="103" spans="20:31">
+      <c r="T103" s="27"/>
+      <c r="U103" s="27"/>
+      <c r="V103" s="27"/>
+      <c r="W103" s="27"/>
+      <c r="X103" s="27"/>
+      <c r="Y103" s="27"/>
+      <c r="Z103" s="27"/>
+      <c r="AA103" s="27"/>
+      <c r="AB103" s="27"/>
+      <c r="AC103" s="27"/>
+      <c r="AD103" s="27"/>
+      <c r="AE103" s="27"/>
+    </row>
+    <row r="104" spans="20:31">
+      <c r="T104" s="27"/>
+      <c r="U104" s="27"/>
+      <c r="V104" s="27"/>
+      <c r="W104" s="27"/>
+      <c r="X104" s="27"/>
+      <c r="Y104" s="27"/>
+      <c r="Z104" s="27"/>
+      <c r="AA104" s="27"/>
+      <c r="AB104" s="27"/>
+      <c r="AC104" s="27"/>
+      <c r="AD104" s="27"/>
+      <c r="AE104" s="27"/>
+    </row>
+    <row r="105" spans="20:31">
+      <c r="T105" s="27"/>
+      <c r="U105" s="27"/>
+      <c r="V105" s="27"/>
+      <c r="W105" s="27"/>
+      <c r="X105" s="27"/>
+      <c r="Y105" s="27"/>
+      <c r="Z105" s="27"/>
+      <c r="AA105" s="27"/>
+      <c r="AB105" s="27"/>
+      <c r="AC105" s="27"/>
+      <c r="AD105" s="27"/>
+      <c r="AE105" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B70:B91"/>
-    <mergeCell ref="C70:C91"/>
-    <mergeCell ref="B3:X3"/>
+  <mergeCells count="6">
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B3:O3"/>
     <mergeCell ref="B5:B15"/>
-    <mergeCell ref="B16:B51"/>
-    <mergeCell ref="C16:C51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="B16:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
+++ b/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisondavis/Documents/GitHub/nmcuration/in-progress/Koerner_2005_Polymer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Documents\GitHub\nmcuration\in-progress\Koerner_2005_Polymer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F98CEC9-B1BC-5D43-912D-7558BAA962A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B4717-19AB-4CEF-A92F-582BC81E9146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25020" windowHeight="17480" activeTab="1" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Curation" sheetId="1" r:id="rId1"/>
     <sheet name="Tidy Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="290">
   <si>
     <t>Notes:</t>
   </si>
@@ -899,9 +897,6 @@
     <t>S16</t>
   </si>
   <si>
-    <t>Outside File Name</t>
-  </si>
-  <si>
     <t>Stress-Elongation_S12</t>
   </si>
   <si>
@@ -926,10 +921,13 @@
     <t>Thermal_Conductivity_S28</t>
   </si>
   <si>
-    <t>S25_Soft(48C)</t>
-  </si>
-  <si>
-    <t>S26_Hard(135C)</t>
+    <t>Stress-Elongation Filename</t>
+  </si>
+  <si>
+    <t>Melting Enthalpy</t>
+  </si>
+  <si>
+    <t>Crystallinity vs. Elongation Filename</t>
   </si>
 </sst>
 </file>
@@ -988,7 +986,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,6 +1035,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="57">
     <border>
@@ -1774,7 +1784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1887,11 +1897,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1917,39 +1924,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1957,60 +1938,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2040,16 +1967,91 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2061,16 +2063,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2080,7 +2078,21 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2401,36 +2413,36 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="65" customWidth="1"/>
-    <col min="3" max="3" width="121.83203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="121.796875" customWidth="1"/>
+    <col min="5" max="5" width="29.69921875" customWidth="1"/>
+    <col min="6" max="6" width="25.296875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
-    <col min="9" max="9" width="28.1640625" customWidth="1"/>
-    <col min="10" max="10" width="27.1640625" customWidth="1"/>
+    <col min="8" max="8" width="29.796875" customWidth="1"/>
+    <col min="9" max="9" width="28.19921875" customWidth="1"/>
+    <col min="10" max="10" width="27.19921875" customWidth="1"/>
     <col min="11" max="11" width="28.5" customWidth="1"/>
     <col min="12" max="12" width="27.5" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" customWidth="1"/>
-    <col min="15" max="15" width="29.83203125" customWidth="1"/>
-    <col min="16" max="16" width="27.83203125" customWidth="1"/>
-    <col min="17" max="17" width="27.1640625" customWidth="1"/>
+    <col min="14" max="14" width="28.296875" customWidth="1"/>
+    <col min="15" max="15" width="29.796875" customWidth="1"/>
+    <col min="16" max="16" width="27.796875" customWidth="1"/>
+    <col min="17" max="17" width="27.19921875" customWidth="1"/>
     <col min="18" max="18" width="28.5" customWidth="1"/>
     <col min="19" max="19" width="27.5" customWidth="1"/>
-    <col min="20" max="20" width="29.83203125" customWidth="1"/>
+    <col min="20" max="20" width="29.796875" customWidth="1"/>
     <col min="21" max="21" width="28" customWidth="1"/>
-    <col min="22" max="22" width="26.83203125" customWidth="1"/>
-    <col min="23" max="23" width="28.1640625" customWidth="1"/>
-    <col min="24" max="24" width="25.6640625" customWidth="1"/>
-    <col min="25" max="25" width="24.6640625" customWidth="1"/>
+    <col min="22" max="22" width="26.796875" customWidth="1"/>
+    <col min="23" max="23" width="28.19921875" customWidth="1"/>
+    <col min="24" max="24" width="25.69921875" customWidth="1"/>
+    <col min="25" max="25" width="24.69921875" customWidth="1"/>
     <col min="26" max="26" width="21" customWidth="1"/>
-    <col min="27" max="27" width="26.1640625" customWidth="1"/>
+    <col min="27" max="27" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="17" thickBot="1"/>
+    <row r="1" spans="2:26" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:26">
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -2447,7 +2459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="17" thickBot="1">
+    <row r="4" spans="2:26" ht="16.2" thickBot="1">
       <c r="B4" s="13" t="s">
         <v>47</v>
       </c>
@@ -2455,8 +2467,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="17" thickBot="1"/>
-    <row r="6" spans="2:26" ht="17" thickBot="1">
+    <row r="5" spans="2:26" ht="16.2" thickBot="1"/>
+    <row r="6" spans="2:26" ht="16.2" thickBot="1">
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
@@ -2464,7 +2476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="17" thickBot="1">
+    <row r="7" spans="2:26" ht="16.2" thickBot="1">
       <c r="B7" s="20" t="s">
         <v>60</v>
       </c>
@@ -2472,8 +2484,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="17" thickBot="1">
-      <c r="B8" s="124" t="s">
+    <row r="8" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B8" s="127" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2486,19 +2498,19 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="17" thickBot="1">
-      <c r="B9" s="119"/>
+    <row r="9" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B9" s="128"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="E9" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="123"/>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="119"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2511,41 +2523,41 @@
       <c r="G10" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="139" t="s">
+      <c r="J10" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="141"/>
-      <c r="L10" s="139" t="s">
+      <c r="K10" s="123"/>
+      <c r="L10" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="141"/>
-      <c r="N10" s="139" t="s">
+      <c r="M10" s="123"/>
+      <c r="N10" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="141"/>
-      <c r="P10" s="139" t="s">
+      <c r="O10" s="123"/>
+      <c r="P10" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="139" t="s">
+      <c r="Q10" s="123"/>
+      <c r="R10" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="S10" s="141"/>
-      <c r="U10" s="147" t="s">
+      <c r="S10" s="123"/>
+      <c r="U10" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="V10" s="148"/>
-      <c r="W10" s="147" t="s">
+      <c r="V10" s="119"/>
+      <c r="W10" s="118" t="s">
         <v>255</v>
       </c>
-      <c r="X10" s="149"/>
-      <c r="Y10" s="150" t="s">
+      <c r="X10" s="120"/>
+      <c r="Y10" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="Z10" s="149"/>
-    </row>
-    <row r="11" spans="2:26" ht="17" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="Z10" s="120"/>
+    </row>
+    <row r="11" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B11" s="128"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2602,7 +2614,7 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="B12" s="119"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +2677,7 @@
       </c>
     </row>
     <row r="13" spans="2:26">
-      <c r="B13" s="119"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2727,11 +2739,11 @@
         <v>15.594099</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="16" customHeight="1">
-      <c r="B14" s="125" t="s">
+    <row r="14" spans="2:26" ht="16.05" customHeight="1">
+      <c r="B14" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="138" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2792,9 +2804,9 @@
         <v>17.235134599999999</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="16" customHeight="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
+    <row r="15" spans="2:26" ht="16.05" customHeight="1">
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
       <c r="E15" s="12" t="s">
         <v>170</v>
       </c>
@@ -2854,8 +2866,8 @@
       </c>
     </row>
     <row r="16" spans="2:26">
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
       <c r="E16" s="12" t="s">
         <v>171</v>
       </c>
@@ -2915,8 +2927,8 @@
       </c>
     </row>
     <row r="17" spans="2:26">
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
       <c r="E17" s="12" t="s">
         <v>172</v>
       </c>
@@ -2976,10 +2988,10 @@
       </c>
     </row>
     <row r="18" spans="2:26">
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="125" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -3041,8 +3053,8 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="B19" s="128"/>
-      <c r="C19" s="127"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="125"/>
       <c r="E19" s="12" t="s">
         <v>174</v>
       </c>
@@ -3101,9 +3113,9 @@
         <v>27.234399400000001</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="17" thickBot="1">
-      <c r="B20" s="128"/>
-      <c r="C20" s="127"/>
+    <row r="20" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B20" s="136"/>
+      <c r="C20" s="125"/>
       <c r="E20" s="12" t="s">
         <v>175</v>
       </c>
@@ -3162,7 +3174,7 @@
         <v>28.277905100000002</v>
       </c>
     </row>
-    <row r="21" spans="2:26" ht="17" thickBot="1">
+    <row r="21" spans="2:26" ht="16.2" thickBot="1">
       <c r="B21" s="20" t="s">
         <v>62</v>
       </c>
@@ -3228,10 +3240,10 @@
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="138" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="12">
@@ -3283,9 +3295,9 @@
         <v>29.915945600000001</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="17" thickBot="1">
-      <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
+    <row r="23" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
       <c r="J23" s="12">
         <v>1.35455762059425</v>
       </c>
@@ -3335,15 +3347,15 @@
         <v>30.0627073</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="16" customHeight="1" thickBot="1">
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="E24" s="121" t="s">
+    <row r="24" spans="2:26" ht="16.05" customHeight="1" thickBot="1">
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="E24" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="123"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="112"/>
       <c r="J24" s="12">
         <v>1.39607392036569</v>
       </c>
@@ -3393,9 +3405,9 @@
         <v>31.4021325</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="17" thickBot="1">
-      <c r="B25" s="125"/>
-      <c r="C25" s="126"/>
+    <row r="25" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
       <c r="E25" s="41" t="s">
         <v>163</v>
       </c>
@@ -3458,10 +3470,10 @@
       </c>
     </row>
     <row r="26" spans="2:26">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="125" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="32" t="s">
@@ -3526,8 +3538,8 @@
       </c>
     </row>
     <row r="27" spans="2:26">
-      <c r="B27" s="119"/>
-      <c r="C27" s="127"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="125"/>
       <c r="E27" s="12" t="s">
         <v>189</v>
       </c>
@@ -3590,10 +3602,10 @@
       </c>
     </row>
     <row r="28" spans="2:26">
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="129" t="s">
+      <c r="C28" s="139" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -3658,8 +3670,8 @@
       </c>
     </row>
     <row r="29" spans="2:26">
-      <c r="B29" s="125"/>
-      <c r="C29" s="130"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="140"/>
       <c r="E29" s="12" t="s">
         <v>191</v>
       </c>
@@ -3722,8 +3734,8 @@
       </c>
     </row>
     <row r="30" spans="2:26">
-      <c r="B30" s="125"/>
-      <c r="C30" s="130"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="140"/>
       <c r="E30" s="12" t="s">
         <v>192</v>
       </c>
@@ -3786,8 +3798,8 @@
       </c>
     </row>
     <row r="31" spans="2:26">
-      <c r="B31" s="125"/>
-      <c r="C31" s="131"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="141"/>
       <c r="E31" s="12" t="s">
         <v>193</v>
       </c>
@@ -3849,11 +3861,11 @@
         <v>42.536554299999999</v>
       </c>
     </row>
-    <row r="32" spans="2:26" ht="17" thickBot="1">
-      <c r="B32" s="119" t="s">
+    <row r="32" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B32" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3917,9 +3929,9 @@
         <v>44.019746099999999</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="17" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="127"/>
+    <row r="33" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B33" s="128"/>
+      <c r="C33" s="125"/>
       <c r="J33" s="12">
         <v>1.76972061830867</v>
       </c>
@@ -3969,15 +3981,15 @@
         <v>43.709449900000003</v>
       </c>
     </row>
-    <row r="34" spans="2:26" ht="17" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="127"/>
-      <c r="E34" s="121" t="s">
+    <row r="34" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B34" s="128"/>
+      <c r="C34" s="125"/>
+      <c r="E34" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="123"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
       <c r="J34" s="12">
         <v>1.81123691808011</v>
       </c>
@@ -4009,11 +4021,11 @@
         <v>2.7804914799999998</v>
       </c>
     </row>
-    <row r="35" spans="2:26" ht="17" thickBot="1">
-      <c r="B35" s="125" t="s">
+    <row r="35" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B35" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="126" t="s">
+      <c r="C35" s="138" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="41" t="s">
@@ -4060,8 +4072,8 @@
       </c>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="125"/>
-      <c r="C36" s="126"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="138"/>
       <c r="E36" s="32" t="s">
         <v>197</v>
       </c>
@@ -4106,8 +4118,8 @@
       </c>
     </row>
     <row r="37" spans="2:26">
-      <c r="B37" s="125"/>
-      <c r="C37" s="126"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
       <c r="E37" s="12" t="s">
         <v>198</v>
       </c>
@@ -4151,11 +4163,11 @@
         <v>2.8744146100000001</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="16" customHeight="1">
-      <c r="B38" s="119" t="s">
+    <row r="38" spans="2:26" ht="16.05" customHeight="1">
+      <c r="B38" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="127" t="s">
+      <c r="C38" s="125" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -4202,8 +4214,8 @@
       </c>
     </row>
     <row r="39" spans="2:26">
-      <c r="B39" s="119"/>
-      <c r="C39" s="127"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="125"/>
       <c r="E39" s="12" t="s">
         <v>200</v>
       </c>
@@ -4248,8 +4260,8 @@
       </c>
     </row>
     <row r="40" spans="2:26">
-      <c r="B40" s="119"/>
-      <c r="C40" s="127"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="125"/>
       <c r="E40" s="12" t="s">
         <v>201</v>
       </c>
@@ -4298,8 +4310,8 @@
       <c r="X40" s="27"/>
     </row>
     <row r="41" spans="2:26">
-      <c r="B41" s="119"/>
-      <c r="C41" s="127"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="125"/>
       <c r="E41" s="12" t="s">
         <v>202</v>
       </c>
@@ -4347,9 +4359,9 @@
       <c r="W41" s="27"/>
       <c r="X41" s="27"/>
     </row>
-    <row r="42" spans="2:26" ht="17" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="127"/>
+    <row r="42" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B42" s="128"/>
+      <c r="C42" s="125"/>
       <c r="E42" s="13" t="s">
         <v>203</v>
       </c>
@@ -4397,9 +4409,9 @@
       <c r="W42" s="27"/>
       <c r="X42" s="27"/>
     </row>
-    <row r="43" spans="2:26" ht="17" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="127"/>
+    <row r="43" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B43" s="128"/>
+      <c r="C43" s="125"/>
       <c r="E43" s="41" t="s">
         <v>163</v>
       </c>
@@ -4448,10 +4460,10 @@
       <c r="X43" s="27"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="B44" s="125" t="s">
+      <c r="B44" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="126" t="s">
+      <c r="C44" s="138" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="36" t="s">
@@ -4501,9 +4513,9 @@
       <c r="W44" s="27"/>
       <c r="X44" s="27"/>
     </row>
-    <row r="45" spans="2:26" ht="16" customHeight="1">
-      <c r="B45" s="125"/>
-      <c r="C45" s="126"/>
+    <row r="45" spans="2:26" ht="16.05" customHeight="1">
+      <c r="B45" s="137"/>
+      <c r="C45" s="138"/>
       <c r="E45" s="38" t="s">
         <v>205</v>
       </c>
@@ -4552,8 +4564,8 @@
       <c r="X45" s="27"/>
     </row>
     <row r="46" spans="2:26">
-      <c r="B46" s="125"/>
-      <c r="C46" s="126"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="138"/>
       <c r="E46" s="38" t="s">
         <v>206</v>
       </c>
@@ -4601,9 +4613,9 @@
       <c r="W46" s="27"/>
       <c r="X46" s="27"/>
     </row>
-    <row r="47" spans="2:26" ht="17" thickBot="1">
-      <c r="B47" s="125"/>
-      <c r="C47" s="126"/>
+    <row r="47" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B47" s="137"/>
+      <c r="C47" s="138"/>
       <c r="E47" s="38" t="s">
         <v>207</v>
       </c>
@@ -4652,8 +4664,8 @@
       <c r="X47" s="27"/>
     </row>
     <row r="48" spans="2:26">
-      <c r="B48" s="125"/>
-      <c r="C48" s="126"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="138"/>
       <c r="E48" s="38" t="s">
         <v>208</v>
       </c>
@@ -4672,8 +4684,8 @@
       <c r="X48" s="27"/>
     </row>
     <row r="49" spans="2:24">
-      <c r="B49" s="125"/>
-      <c r="C49" s="126"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="138"/>
       <c r="E49" s="38" t="s">
         <v>209</v>
       </c>
@@ -4691,9 +4703,9 @@
       <c r="W49" s="27"/>
       <c r="X49" s="27"/>
     </row>
-    <row r="50" spans="2:24" ht="17" thickBot="1">
-      <c r="B50" s="125"/>
-      <c r="C50" s="126"/>
+    <row r="50" spans="2:24" ht="16.2" thickBot="1">
+      <c r="B50" s="137"/>
+      <c r="C50" s="138"/>
       <c r="E50" s="39" t="s">
         <v>210</v>
       </c>
@@ -4711,35 +4723,35 @@
       <c r="W50" s="27"/>
       <c r="X50" s="27"/>
     </row>
-    <row r="51" spans="2:24" ht="17" thickBot="1">
-      <c r="B51" s="125"/>
-      <c r="C51" s="126"/>
+    <row r="51" spans="2:24" ht="16.2" thickBot="1">
+      <c r="B51" s="137"/>
+      <c r="C51" s="138"/>
       <c r="U51" s="27"/>
       <c r="V51" s="27"/>
       <c r="W51" s="27"/>
       <c r="X51" s="27"/>
     </row>
-    <row r="52" spans="2:24" ht="17" thickBot="1">
-      <c r="B52" s="119" t="s">
+    <row r="52" spans="2:24" ht="16.2" thickBot="1">
+      <c r="B52" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="121" t="s">
+      <c r="E52" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="123"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="112"/>
       <c r="U52" s="27"/>
       <c r="V52" s="27"/>
       <c r="W52" s="27"/>
       <c r="X52" s="27"/>
     </row>
-    <row r="53" spans="2:24" ht="17" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="127"/>
+    <row r="53" spans="2:24" ht="16.2" thickBot="1">
+      <c r="B53" s="128"/>
+      <c r="C53" s="125"/>
       <c r="E53" s="41" t="s">
         <v>163</v>
       </c>
@@ -4758,8 +4770,8 @@
       <c r="X53" s="27"/>
     </row>
     <row r="54" spans="2:24">
-      <c r="B54" s="119"/>
-      <c r="C54" s="127"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="125"/>
       <c r="E54" s="32" t="s">
         <v>213</v>
       </c>
@@ -4778,8 +4790,8 @@
       <c r="X54" s="27"/>
     </row>
     <row r="55" spans="2:24">
-      <c r="B55" s="119"/>
-      <c r="C55" s="127"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="125"/>
       <c r="E55" s="12" t="s">
         <v>214</v>
       </c>
@@ -4798,8 +4810,8 @@
       <c r="X55" s="27"/>
     </row>
     <row r="56" spans="2:24">
-      <c r="B56" s="119"/>
-      <c r="C56" s="127"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="125"/>
       <c r="E56" s="12" t="s">
         <v>215</v>
       </c>
@@ -4818,8 +4830,8 @@
       <c r="X56" s="27"/>
     </row>
     <row r="57" spans="2:24">
-      <c r="B57" s="119"/>
-      <c r="C57" s="127"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="125"/>
       <c r="E57" s="12" t="s">
         <v>216</v>
       </c>
@@ -4838,8 +4850,8 @@
       <c r="X57" s="27"/>
     </row>
     <row r="58" spans="2:24">
-      <c r="B58" s="119"/>
-      <c r="C58" s="127"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="125"/>
       <c r="E58" s="12" t="s">
         <v>217</v>
       </c>
@@ -4857,11 +4869,11 @@
       <c r="W58" s="27"/>
       <c r="X58" s="27"/>
     </row>
-    <row r="59" spans="2:24" ht="16" customHeight="1" thickBot="1">
-      <c r="B59" s="125" t="s">
+    <row r="59" spans="2:24" ht="16.05" customHeight="1" thickBot="1">
+      <c r="B59" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="126" t="s">
+      <c r="C59" s="138" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="34" t="s">
@@ -4881,9 +4893,9 @@
       <c r="W59" s="27"/>
       <c r="X59" s="27"/>
     </row>
-    <row r="60" spans="2:24" ht="17" thickBot="1">
-      <c r="B60" s="125"/>
-      <c r="C60" s="126"/>
+    <row r="60" spans="2:24" ht="16.2" thickBot="1">
+      <c r="B60" s="137"/>
+      <c r="C60" s="138"/>
       <c r="E60" s="41" t="s">
         <v>163</v>
       </c>
@@ -4902,8 +4914,8 @@
       <c r="X60" s="27"/>
     </row>
     <row r="61" spans="2:24">
-      <c r="B61" s="125"/>
-      <c r="C61" s="126"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="138"/>
       <c r="E61" s="44" t="s">
         <v>219</v>
       </c>
@@ -4922,8 +4934,8 @@
       <c r="X61" s="27"/>
     </row>
     <row r="62" spans="2:24">
-      <c r="B62" s="125"/>
-      <c r="C62" s="126"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
       <c r="E62" s="38" t="s">
         <v>220</v>
       </c>
@@ -4942,8 +4954,8 @@
       <c r="X62" s="27"/>
     </row>
     <row r="63" spans="2:24">
-      <c r="B63" s="125"/>
-      <c r="C63" s="126"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="138"/>
       <c r="E63" s="38" t="s">
         <v>221</v>
       </c>
@@ -4961,7 +4973,7 @@
       <c r="W63" s="27"/>
       <c r="X63" s="27"/>
     </row>
-    <row r="64" spans="2:24" ht="17">
+    <row r="64" spans="2:24">
       <c r="B64" s="7" t="s">
         <v>36</v>
       </c>
@@ -4986,10 +4998,10 @@
       <c r="X64" s="27"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="119" t="s">
+      <c r="B65" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="127" t="s">
+      <c r="C65" s="125" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="38" t="s">
@@ -5005,9 +5017,9 @@
         <v>2.2318772748788098</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="17" thickBot="1">
-      <c r="B66" s="119"/>
-      <c r="C66" s="127"/>
+    <row r="66" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B66" s="128"/>
+      <c r="C66" s="125"/>
       <c r="E66" s="39" t="s">
         <v>224</v>
       </c>
@@ -5021,7 +5033,7 @@
         <v>2.2206346809865001</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="17" thickBot="1">
+    <row r="67" spans="2:8" ht="16.2" thickBot="1">
       <c r="B67" s="9" t="s">
         <v>26</v>
       </c>
@@ -5033,23 +5045,23 @@
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
     </row>
-    <row r="68" spans="2:8" ht="17" thickBot="1">
-      <c r="B68" s="119" t="s">
+    <row r="68" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B68" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="127" t="s">
+      <c r="C68" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="121" t="s">
+      <c r="E68" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="122"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="123"/>
-    </row>
-    <row r="69" spans="2:8" ht="17" thickBot="1">
-      <c r="B69" s="119"/>
-      <c r="C69" s="127"/>
+      <c r="F68" s="111"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="112"/>
+    </row>
+    <row r="69" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B69" s="128"/>
+      <c r="C69" s="125"/>
       <c r="E69" s="41" t="s">
         <v>163</v>
       </c>
@@ -5064,8 +5076,8 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="119"/>
-      <c r="C70" s="127"/>
+      <c r="B70" s="128"/>
+      <c r="C70" s="125"/>
       <c r="E70" s="32" t="s">
         <v>228</v>
       </c>
@@ -5080,8 +5092,8 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="119"/>
-      <c r="C71" s="127"/>
+      <c r="B71" s="128"/>
+      <c r="C71" s="125"/>
       <c r="E71" s="12" t="s">
         <v>229</v>
       </c>
@@ -5096,8 +5108,8 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="119"/>
-      <c r="C72" s="127"/>
+      <c r="B72" s="128"/>
+      <c r="C72" s="125"/>
       <c r="E72" s="12" t="s">
         <v>230</v>
       </c>
@@ -5112,7 +5124,7 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="119" t="s">
+      <c r="B73" s="128" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -5131,8 +5143,8 @@
         <v>31.190476190476101</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="17" thickBot="1">
-      <c r="B74" s="119"/>
+    <row r="74" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B74" s="128"/>
       <c r="C74" s="11" t="s">
         <v>42</v>
       </c>
@@ -5149,9 +5161,9 @@
         <v>28.214285714285701</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="17" thickBot="1">
-      <c r="B75" s="119"/>
-      <c r="C75" s="127" t="s">
+    <row r="75" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B75" s="128"/>
+      <c r="C75" s="125" t="s">
         <v>44</v>
       </c>
       <c r="E75" s="41" t="s">
@@ -5168,8 +5180,8 @@
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="119"/>
-      <c r="C76" s="127"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="125"/>
       <c r="E76" s="44" t="s">
         <v>233</v>
       </c>
@@ -5184,8 +5196,8 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="119"/>
-      <c r="C77" s="127"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="125"/>
       <c r="E77" s="38" t="s">
         <v>234</v>
       </c>
@@ -5200,10 +5212,10 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="119" t="s">
+      <c r="B78" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="127" t="s">
+      <c r="C78" s="125" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="38" t="s">
@@ -5219,9 +5231,9 @@
         <v>13.194259746472101</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="17" thickBot="1">
-      <c r="B79" s="119"/>
-      <c r="C79" s="127"/>
+    <row r="79" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B79" s="128"/>
+      <c r="C79" s="125"/>
       <c r="E79" s="39" t="s">
         <v>236</v>
       </c>
@@ -5236,32 +5248,32 @@
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="119"/>
-      <c r="C80" s="127"/>
-    </row>
-    <row r="81" spans="2:8" ht="17" thickBot="1">
-      <c r="B81" s="119"/>
-      <c r="C81" s="127"/>
+      <c r="B80" s="128"/>
+      <c r="C80" s="125"/>
+    </row>
+    <row r="81" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B81" s="128"/>
+      <c r="C81" s="125"/>
       <c r="E81" s="27"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
       <c r="H81" s="26"/>
     </row>
-    <row r="82" spans="2:8" ht="17" thickBot="1">
-      <c r="B82" s="119"/>
-      <c r="C82" s="127"/>
-      <c r="E82" s="121" t="s">
+    <row r="82" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B82" s="128"/>
+      <c r="C82" s="125"/>
+      <c r="E82" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="F82" s="122"/>
-      <c r="G82" s="122"/>
-      <c r="H82" s="123"/>
-    </row>
-    <row r="83" spans="2:8" ht="17" thickBot="1">
-      <c r="B83" s="119" t="s">
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="112"/>
+    </row>
+    <row r="83" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B83" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="127" t="s">
+      <c r="C83" s="125" t="s">
         <v>49</v>
       </c>
       <c r="E83" s="16" t="s">
@@ -5277,19 +5289,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="17" thickBot="1">
-      <c r="B84" s="119"/>
-      <c r="C84" s="127"/>
-      <c r="E84" s="142" t="s">
+    <row r="84" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B84" s="128"/>
+      <c r="C84" s="125"/>
+      <c r="E84" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="143"/>
-      <c r="G84" s="143"/>
-      <c r="H84" s="144"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="115"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="119"/>
-      <c r="C85" s="127"/>
+      <c r="B85" s="128"/>
+      <c r="C85" s="125"/>
       <c r="E85" s="32" t="s">
         <v>240</v>
       </c>
@@ -5304,10 +5316,10 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="119" t="s">
+      <c r="B86" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="127" t="s">
+      <c r="C86" s="125" t="s">
         <v>52</v>
       </c>
       <c r="E86" s="12" t="s">
@@ -5324,8 +5336,8 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="119"/>
-      <c r="C87" s="127"/>
+      <c r="B87" s="128"/>
+      <c r="C87" s="125"/>
       <c r="E87" s="12" t="s">
         <v>242</v>
       </c>
@@ -5340,8 +5352,8 @@
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="119"/>
-      <c r="C88" s="127"/>
+      <c r="B88" s="128"/>
+      <c r="C88" s="125"/>
       <c r="E88" s="12" t="s">
         <v>244</v>
       </c>
@@ -5355,11 +5367,11 @@
         <v>15.2380952380952</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="17" thickBot="1">
-      <c r="B89" s="119" t="s">
+    <row r="89" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B89" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="127" t="s">
+      <c r="C89" s="125" t="s">
         <v>53</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -5375,19 +5387,19 @@
         <v>14.2312925170068</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="17" thickBot="1">
-      <c r="B90" s="119"/>
-      <c r="C90" s="127"/>
-      <c r="E90" s="142" t="s">
+    <row r="90" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B90" s="128"/>
+      <c r="C90" s="125"/>
+      <c r="E90" s="113" t="s">
         <v>252</v>
       </c>
-      <c r="F90" s="145"/>
-      <c r="G90" s="145"/>
-      <c r="H90" s="146"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="116"/>
+      <c r="H90" s="117"/>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="119"/>
-      <c r="C91" s="127"/>
+      <c r="B91" s="128"/>
+      <c r="C91" s="125"/>
       <c r="E91" s="44" t="s">
         <v>245</v>
       </c>
@@ -5402,10 +5414,10 @@
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="119" t="s">
+      <c r="B92" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="127" t="s">
+      <c r="C92" s="125" t="s">
         <v>55</v>
       </c>
       <c r="E92" s="38" t="s">
@@ -5422,8 +5434,8 @@
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="119"/>
-      <c r="C93" s="127"/>
+      <c r="B93" s="128"/>
+      <c r="C93" s="125"/>
       <c r="E93" s="38" t="s">
         <v>247</v>
       </c>
@@ -5438,8 +5450,8 @@
       </c>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="119"/>
-      <c r="C94" s="127"/>
+      <c r="B94" s="128"/>
+      <c r="C94" s="125"/>
       <c r="E94" s="38" t="s">
         <v>248</v>
       </c>
@@ -5453,8 +5465,8 @@
         <v>4.8435374149659802</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="17" thickBot="1">
-      <c r="B95" s="119" t="s">
+    <row r="95" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B95" s="128" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -5474,16 +5486,16 @@
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="119"/>
-      <c r="C96" s="127" t="s">
+      <c r="B96" s="128"/>
+      <c r="C96" s="125" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="2:27" ht="17" thickBot="1">
-      <c r="B97" s="120"/>
-      <c r="C97" s="133"/>
-    </row>
-    <row r="98" spans="2:27" ht="17" thickBot="1">
+    <row r="97" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B97" s="129"/>
+      <c r="C97" s="126"/>
+    </row>
+    <row r="98" spans="2:27" ht="16.2" thickBot="1">
       <c r="B98" s="18" t="s">
         <v>59</v>
       </c>
@@ -5492,53 +5504,53 @@
       </c>
     </row>
     <row r="99" spans="2:27">
-      <c r="B99" s="124" t="s">
+      <c r="B99" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="132" t="s">
+      <c r="C99" s="124" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="2:27" ht="17" thickBot="1">
-      <c r="B100" s="119"/>
-      <c r="C100" s="127"/>
-    </row>
-    <row r="101" spans="2:27" ht="17" thickBot="1">
-      <c r="B101" s="119" t="s">
+    <row r="100" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B100" s="128"/>
+      <c r="C100" s="125"/>
+    </row>
+    <row r="101" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B101" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="C101" s="127" t="s">
+      <c r="C101" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="E101" s="121" t="s">
+      <c r="E101" s="110" t="s">
         <v>259</v>
       </c>
-      <c r="F101" s="122"/>
-      <c r="G101" s="122"/>
-      <c r="H101" s="122"/>
-      <c r="I101" s="122"/>
-      <c r="J101" s="122"/>
-      <c r="K101" s="122"/>
-      <c r="L101" s="122"/>
-      <c r="M101" s="122"/>
-      <c r="N101" s="122"/>
-      <c r="O101" s="122"/>
-      <c r="P101" s="122"/>
-      <c r="Q101" s="122"/>
-      <c r="R101" s="122"/>
-      <c r="S101" s="122"/>
-      <c r="T101" s="122"/>
-      <c r="U101" s="122"/>
-      <c r="V101" s="122"/>
-      <c r="W101" s="122"/>
-      <c r="X101" s="122"/>
-      <c r="Y101" s="122"/>
-      <c r="Z101" s="122"/>
-      <c r="AA101" s="123"/>
-    </row>
-    <row r="102" spans="2:27" ht="17" customHeight="1" thickBot="1">
-      <c r="B102" s="119"/>
-      <c r="C102" s="127"/>
+      <c r="F101" s="111"/>
+      <c r="G101" s="111"/>
+      <c r="H101" s="111"/>
+      <c r="I101" s="111"/>
+      <c r="J101" s="111"/>
+      <c r="K101" s="111"/>
+      <c r="L101" s="111"/>
+      <c r="M101" s="111"/>
+      <c r="N101" s="111"/>
+      <c r="O101" s="111"/>
+      <c r="P101" s="111"/>
+      <c r="Q101" s="111"/>
+      <c r="R101" s="111"/>
+      <c r="S101" s="111"/>
+      <c r="T101" s="111"/>
+      <c r="U101" s="111"/>
+      <c r="V101" s="111"/>
+      <c r="W101" s="111"/>
+      <c r="X101" s="111"/>
+      <c r="Y101" s="111"/>
+      <c r="Z101" s="111"/>
+      <c r="AA101" s="112"/>
+    </row>
+    <row r="102" spans="2:27" ht="16.95" customHeight="1" thickBot="1">
+      <c r="B102" s="128"/>
+      <c r="C102" s="125"/>
       <c r="E102" s="41" t="s">
         <v>268</v>
       </c>
@@ -5609,14 +5621,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="2:27" ht="16" customHeight="1">
+    <row r="103" spans="2:27" ht="16.05" customHeight="1">
       <c r="B103" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E103" s="110" t="s">
+      <c r="E103" s="142" t="s">
         <v>162</v>
       </c>
       <c r="F103" s="63" t="s">
@@ -5649,13 +5661,13 @@
       <c r="AA103" s="52"/>
     </row>
     <row r="104" spans="2:27">
-      <c r="B104" s="119" t="s">
+      <c r="B104" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="127" t="s">
+      <c r="C104" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="E104" s="111"/>
+      <c r="E104" s="143"/>
       <c r="F104" s="60" t="s">
         <v>167</v>
       </c>
@@ -5686,9 +5698,9 @@
       <c r="AA104" s="53"/>
     </row>
     <row r="105" spans="2:27">
-      <c r="B105" s="119"/>
-      <c r="C105" s="127"/>
-      <c r="E105" s="111"/>
+      <c r="B105" s="128"/>
+      <c r="C105" s="125"/>
+      <c r="E105" s="143"/>
       <c r="F105" s="60" t="s">
         <v>168</v>
       </c>
@@ -5719,9 +5731,9 @@
       <c r="AA105" s="53"/>
     </row>
     <row r="106" spans="2:27">
-      <c r="B106" s="119"/>
-      <c r="C106" s="127"/>
-      <c r="E106" s="111"/>
+      <c r="B106" s="128"/>
+      <c r="C106" s="125"/>
+      <c r="E106" s="143"/>
       <c r="F106" s="60" t="s">
         <v>169</v>
       </c>
@@ -5752,13 +5764,13 @@
       <c r="AA106" s="53"/>
     </row>
     <row r="107" spans="2:27">
-      <c r="B107" s="119" t="s">
+      <c r="B107" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="C107" s="127" t="s">
+      <c r="C107" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="E107" s="111"/>
+      <c r="E107" s="143"/>
       <c r="F107" s="60" t="s">
         <v>170</v>
       </c>
@@ -5789,9 +5801,9 @@
       <c r="AA107" s="53"/>
     </row>
     <row r="108" spans="2:27">
-      <c r="B108" s="119"/>
-      <c r="C108" s="127"/>
-      <c r="E108" s="111"/>
+      <c r="B108" s="128"/>
+      <c r="C108" s="125"/>
+      <c r="E108" s="143"/>
       <c r="F108" s="60" t="s">
         <v>171</v>
       </c>
@@ -5822,9 +5834,9 @@
       <c r="AA108" s="53"/>
     </row>
     <row r="109" spans="2:27">
-      <c r="B109" s="119"/>
-      <c r="C109" s="127"/>
-      <c r="E109" s="111"/>
+      <c r="B109" s="128"/>
+      <c r="C109" s="125"/>
+      <c r="E109" s="143"/>
       <c r="F109" s="60" t="s">
         <v>172</v>
       </c>
@@ -5855,9 +5867,9 @@
       <c r="AA109" s="53"/>
     </row>
     <row r="110" spans="2:27">
-      <c r="B110" s="119"/>
-      <c r="C110" s="127"/>
-      <c r="E110" s="111"/>
+      <c r="B110" s="128"/>
+      <c r="C110" s="125"/>
+      <c r="E110" s="143"/>
       <c r="F110" s="60" t="s">
         <v>173</v>
       </c>
@@ -5888,9 +5900,9 @@
       <c r="AA110" s="53"/>
     </row>
     <row r="111" spans="2:27">
-      <c r="B111" s="119"/>
-      <c r="C111" s="127"/>
-      <c r="E111" s="111"/>
+      <c r="B111" s="128"/>
+      <c r="C111" s="125"/>
+      <c r="E111" s="143"/>
       <c r="F111" s="60" t="s">
         <v>174</v>
       </c>
@@ -5921,9 +5933,9 @@
       <c r="AA111" s="53"/>
     </row>
     <row r="112" spans="2:27">
-      <c r="B112" s="119"/>
-      <c r="C112" s="127"/>
-      <c r="E112" s="111"/>
+      <c r="B112" s="128"/>
+      <c r="C112" s="125"/>
+      <c r="E112" s="143"/>
       <c r="F112" s="60" t="s">
         <v>175</v>
       </c>
@@ -5953,10 +5965,10 @@
       <c r="Z112" s="48"/>
       <c r="AA112" s="53"/>
     </row>
-    <row r="113" spans="2:27" ht="17" thickBot="1">
-      <c r="B113" s="119"/>
-      <c r="C113" s="127"/>
-      <c r="E113" s="112"/>
+    <row r="113" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B113" s="128"/>
+      <c r="C113" s="125"/>
+      <c r="E113" s="144"/>
       <c r="F113" s="61" t="s">
         <v>176</v>
       </c>
@@ -5986,15 +5998,15 @@
       <c r="Z113" s="54"/>
       <c r="AA113" s="55"/>
     </row>
-    <row r="114" spans="2:27" ht="16" customHeight="1">
-      <c r="B114" s="119" t="s">
+    <row r="114" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B114" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="127"/>
-      <c r="E114" s="113" t="s">
+      <c r="C114" s="125"/>
+      <c r="E114" s="145" t="s">
         <v>261</v>
       </c>
-      <c r="F114" s="115" t="s">
+      <c r="F114" s="147" t="s">
         <v>262</v>
       </c>
       <c r="G114" s="50"/>
@@ -6038,10 +6050,10 @@
       <c r="AA114" s="62"/>
     </row>
     <row r="115" spans="2:27">
-      <c r="B115" s="119"/>
-      <c r="C115" s="127"/>
-      <c r="E115" s="111"/>
-      <c r="F115" s="116"/>
+      <c r="B115" s="128"/>
+      <c r="C115" s="125"/>
+      <c r="E115" s="143"/>
+      <c r="F115" s="148"/>
       <c r="G115" s="48"/>
       <c r="H115" s="48"/>
       <c r="I115" s="48"/>
@@ -6083,12 +6095,12 @@
       <c r="AA115" s="53"/>
     </row>
     <row r="116" spans="2:27">
-      <c r="B116" s="119" t="s">
+      <c r="B116" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="127"/>
-      <c r="E116" s="111"/>
-      <c r="F116" s="116"/>
+      <c r="C116" s="125"/>
+      <c r="E116" s="143"/>
+      <c r="F116" s="148"/>
       <c r="G116" s="48"/>
       <c r="H116" s="48"/>
       <c r="I116" s="48"/>
@@ -6130,10 +6142,10 @@
       <c r="AA116" s="53"/>
     </row>
     <row r="117" spans="2:27">
-      <c r="B117" s="119"/>
-      <c r="C117" s="127"/>
-      <c r="E117" s="111"/>
-      <c r="F117" s="116"/>
+      <c r="B117" s="128"/>
+      <c r="C117" s="125"/>
+      <c r="E117" s="143"/>
+      <c r="F117" s="148"/>
       <c r="G117" s="48"/>
       <c r="H117" s="48"/>
       <c r="I117" s="48"/>
@@ -6175,10 +6187,10 @@
       <c r="AA117" s="53"/>
     </row>
     <row r="118" spans="2:27">
-      <c r="B118" s="119"/>
-      <c r="C118" s="127"/>
-      <c r="E118" s="111"/>
-      <c r="F118" s="116"/>
+      <c r="B118" s="128"/>
+      <c r="C118" s="125"/>
+      <c r="E118" s="143"/>
+      <c r="F118" s="148"/>
       <c r="G118" s="48"/>
       <c r="H118" s="48"/>
       <c r="I118" s="48"/>
@@ -6220,10 +6232,10 @@
       <c r="AA118" s="53"/>
     </row>
     <row r="119" spans="2:27">
-      <c r="B119" s="119"/>
-      <c r="C119" s="127"/>
-      <c r="E119" s="111"/>
-      <c r="F119" s="116"/>
+      <c r="B119" s="128"/>
+      <c r="C119" s="125"/>
+      <c r="E119" s="143"/>
+      <c r="F119" s="148"/>
       <c r="G119" s="48"/>
       <c r="H119" s="48"/>
       <c r="I119" s="48"/>
@@ -6265,14 +6277,14 @@
       <c r="AA119" s="53"/>
     </row>
     <row r="120" spans="2:27">
-      <c r="B120" s="128" t="s">
+      <c r="B120" s="136" t="s">
         <v>26</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E120" s="111"/>
-      <c r="F120" s="116"/>
+      <c r="E120" s="143"/>
+      <c r="F120" s="148"/>
       <c r="G120" s="48"/>
       <c r="H120" s="48"/>
       <c r="I120" s="48"/>
@@ -6313,13 +6325,13 @@
       <c r="Z120" s="48"/>
       <c r="AA120" s="53"/>
     </row>
-    <row r="121" spans="2:27" ht="16" customHeight="1">
-      <c r="B121" s="128"/>
-      <c r="C121" s="127" t="s">
+    <row r="121" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B121" s="136"/>
+      <c r="C121" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="E121" s="111"/>
-      <c r="F121" s="116"/>
+      <c r="E121" s="143"/>
+      <c r="F121" s="148"/>
       <c r="G121" s="48"/>
       <c r="H121" s="48"/>
       <c r="I121" s="48"/>
@@ -6360,11 +6372,11 @@
       <c r="Z121" s="48"/>
       <c r="AA121" s="53"/>
     </row>
-    <row r="122" spans="2:27" ht="16" customHeight="1">
-      <c r="B122" s="128"/>
-      <c r="C122" s="127"/>
-      <c r="E122" s="111"/>
-      <c r="F122" s="116"/>
+    <row r="122" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B122" s="136"/>
+      <c r="C122" s="125"/>
+      <c r="E122" s="143"/>
+      <c r="F122" s="148"/>
       <c r="G122" s="48"/>
       <c r="H122" s="48"/>
       <c r="I122" s="48"/>
@@ -6405,13 +6417,13 @@
       <c r="Z122" s="48"/>
       <c r="AA122" s="53"/>
     </row>
-    <row r="123" spans="2:27" ht="17" customHeight="1">
-      <c r="B123" s="128"/>
+    <row r="123" spans="2:27" ht="16.95" customHeight="1">
+      <c r="B123" s="136"/>
       <c r="C123" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E123" s="111"/>
-      <c r="F123" s="116"/>
+      <c r="E123" s="143"/>
+      <c r="F123" s="148"/>
       <c r="G123" s="48"/>
       <c r="H123" s="48"/>
       <c r="I123" s="48"/>
@@ -6452,15 +6464,15 @@
       <c r="Z123" s="48"/>
       <c r="AA123" s="53"/>
     </row>
-    <row r="124" spans="2:27" ht="16" customHeight="1">
-      <c r="B124" s="119" t="s">
+    <row r="124" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B124" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="127" t="s">
+      <c r="C124" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="E124" s="111"/>
-      <c r="F124" s="116"/>
+      <c r="E124" s="143"/>
+      <c r="F124" s="148"/>
       <c r="G124" s="48"/>
       <c r="H124" s="48"/>
       <c r="I124" s="48"/>
@@ -6502,10 +6514,10 @@
       <c r="AA124" s="53"/>
     </row>
     <row r="125" spans="2:27">
-      <c r="B125" s="119"/>
-      <c r="C125" s="127"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="116"/>
+      <c r="B125" s="128"/>
+      <c r="C125" s="125"/>
+      <c r="E125" s="143"/>
+      <c r="F125" s="148"/>
       <c r="G125" s="48"/>
       <c r="H125" s="48"/>
       <c r="I125" s="48"/>
@@ -6547,12 +6559,12 @@
       <c r="AA125" s="53"/>
     </row>
     <row r="126" spans="2:27">
-      <c r="B126" s="119"/>
-      <c r="C126" s="127" t="s">
+      <c r="B126" s="128"/>
+      <c r="C126" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="111"/>
-      <c r="F126" s="116"/>
+      <c r="E126" s="143"/>
+      <c r="F126" s="148"/>
       <c r="G126" s="48"/>
       <c r="H126" s="48"/>
       <c r="I126" s="48"/>
@@ -6594,10 +6606,10 @@
       <c r="AA126" s="53"/>
     </row>
     <row r="127" spans="2:27">
-      <c r="B127" s="119"/>
-      <c r="C127" s="127"/>
-      <c r="E127" s="111"/>
-      <c r="F127" s="116"/>
+      <c r="B127" s="128"/>
+      <c r="C127" s="125"/>
+      <c r="E127" s="143"/>
+      <c r="F127" s="148"/>
       <c r="G127" s="48"/>
       <c r="H127" s="48"/>
       <c r="I127" s="48"/>
@@ -6639,10 +6651,10 @@
       <c r="AA127" s="53"/>
     </row>
     <row r="128" spans="2:27">
-      <c r="B128" s="119"/>
-      <c r="C128" s="127"/>
-      <c r="E128" s="111"/>
-      <c r="F128" s="116"/>
+      <c r="B128" s="128"/>
+      <c r="C128" s="125"/>
+      <c r="E128" s="143"/>
+      <c r="F128" s="148"/>
       <c r="G128" s="48"/>
       <c r="H128" s="48"/>
       <c r="I128" s="48"/>
@@ -6683,15 +6695,15 @@
       <c r="Z128" s="48"/>
       <c r="AA128" s="53"/>
     </row>
-    <row r="129" spans="2:27" ht="16" customHeight="1">
-      <c r="B129" s="119" t="s">
+    <row r="129" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B129" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="C129" s="127" t="s">
+      <c r="C129" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="E129" s="111"/>
-      <c r="F129" s="116"/>
+      <c r="E129" s="143"/>
+      <c r="F129" s="148"/>
       <c r="G129" s="48"/>
       <c r="H129" s="48"/>
       <c r="I129" s="48"/>
@@ -6733,10 +6745,10 @@
       <c r="AA129" s="53"/>
     </row>
     <row r="130" spans="2:27">
-      <c r="B130" s="119"/>
-      <c r="C130" s="127"/>
-      <c r="E130" s="111"/>
-      <c r="F130" s="116"/>
+      <c r="B130" s="128"/>
+      <c r="C130" s="125"/>
+      <c r="E130" s="143"/>
+      <c r="F130" s="148"/>
       <c r="G130" s="48"/>
       <c r="H130" s="48"/>
       <c r="I130" s="48"/>
@@ -6778,12 +6790,12 @@
       <c r="AA130" s="53"/>
     </row>
     <row r="131" spans="2:27">
-      <c r="B131" s="119" t="s">
+      <c r="B131" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="127"/>
-      <c r="E131" s="111"/>
-      <c r="F131" s="116"/>
+      <c r="C131" s="125"/>
+      <c r="E131" s="143"/>
+      <c r="F131" s="148"/>
       <c r="G131" s="48"/>
       <c r="H131" s="48"/>
       <c r="I131" s="48"/>
@@ -6825,10 +6837,10 @@
       <c r="AA131" s="53"/>
     </row>
     <row r="132" spans="2:27">
-      <c r="B132" s="119"/>
-      <c r="C132" s="127"/>
-      <c r="E132" s="111"/>
-      <c r="F132" s="116"/>
+      <c r="B132" s="128"/>
+      <c r="C132" s="125"/>
+      <c r="E132" s="143"/>
+      <c r="F132" s="148"/>
       <c r="G132" s="48"/>
       <c r="H132" s="48"/>
       <c r="I132" s="48"/>
@@ -6870,14 +6882,14 @@
       <c r="AA132" s="53"/>
     </row>
     <row r="133" spans="2:27">
-      <c r="B133" s="119" t="s">
+      <c r="B133" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C133" s="127" t="s">
+      <c r="C133" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="E133" s="111"/>
-      <c r="F133" s="116"/>
+      <c r="E133" s="143"/>
+      <c r="F133" s="148"/>
       <c r="G133" s="48"/>
       <c r="H133" s="48"/>
       <c r="I133" s="48"/>
@@ -6919,10 +6931,10 @@
       <c r="AA133" s="53"/>
     </row>
     <row r="134" spans="2:27">
-      <c r="B134" s="119"/>
-      <c r="C134" s="127"/>
-      <c r="E134" s="111"/>
-      <c r="F134" s="116"/>
+      <c r="B134" s="128"/>
+      <c r="C134" s="125"/>
+      <c r="E134" s="143"/>
+      <c r="F134" s="148"/>
       <c r="G134" s="48"/>
       <c r="H134" s="48"/>
       <c r="I134" s="48"/>
@@ -6964,10 +6976,10 @@
       <c r="AA134" s="53"/>
     </row>
     <row r="135" spans="2:27">
-      <c r="B135" s="119"/>
-      <c r="C135" s="127"/>
-      <c r="E135" s="111"/>
-      <c r="F135" s="116"/>
+      <c r="B135" s="128"/>
+      <c r="C135" s="125"/>
+      <c r="E135" s="143"/>
+      <c r="F135" s="148"/>
       <c r="G135" s="48"/>
       <c r="H135" s="48"/>
       <c r="I135" s="48"/>
@@ -7009,14 +7021,14 @@
       <c r="AA135" s="53"/>
     </row>
     <row r="136" spans="2:27">
-      <c r="B136" s="119" t="s">
+      <c r="B136" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="C136" s="135" t="s">
+      <c r="C136" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="E136" s="111"/>
-      <c r="F136" s="116"/>
+      <c r="E136" s="143"/>
+      <c r="F136" s="148"/>
       <c r="G136" s="48"/>
       <c r="H136" s="48"/>
       <c r="I136" s="48"/>
@@ -7057,11 +7069,11 @@
       <c r="Z136" s="48"/>
       <c r="AA136" s="53"/>
     </row>
-    <row r="137" spans="2:27" ht="16" customHeight="1">
-      <c r="B137" s="119"/>
-      <c r="C137" s="136"/>
-      <c r="E137" s="111"/>
-      <c r="F137" s="116"/>
+    <row r="137" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B137" s="128"/>
+      <c r="C137" s="135"/>
+      <c r="E137" s="143"/>
+      <c r="F137" s="148"/>
       <c r="G137" s="48"/>
       <c r="H137" s="48"/>
       <c r="I137" s="48"/>
@@ -7103,10 +7115,10 @@
       <c r="AA137" s="53"/>
     </row>
     <row r="138" spans="2:27">
-      <c r="B138" s="119"/>
-      <c r="C138" s="136"/>
-      <c r="E138" s="111"/>
-      <c r="F138" s="116"/>
+      <c r="B138" s="128"/>
+      <c r="C138" s="135"/>
+      <c r="E138" s="143"/>
+      <c r="F138" s="148"/>
       <c r="G138" s="48"/>
       <c r="H138" s="48"/>
       <c r="I138" s="48"/>
@@ -7148,10 +7160,10 @@
       <c r="AA138" s="53"/>
     </row>
     <row r="139" spans="2:27">
-      <c r="B139" s="119"/>
-      <c r="C139" s="136"/>
-      <c r="E139" s="111"/>
-      <c r="F139" s="116"/>
+      <c r="B139" s="128"/>
+      <c r="C139" s="135"/>
+      <c r="E139" s="143"/>
+      <c r="F139" s="148"/>
       <c r="G139" s="48"/>
       <c r="H139" s="48"/>
       <c r="I139" s="48"/>
@@ -7193,10 +7205,10 @@
       <c r="AA139" s="53"/>
     </row>
     <row r="140" spans="2:27">
-      <c r="B140" s="119"/>
-      <c r="C140" s="132"/>
-      <c r="E140" s="111"/>
-      <c r="F140" s="116"/>
+      <c r="B140" s="128"/>
+      <c r="C140" s="124"/>
+      <c r="E140" s="143"/>
+      <c r="F140" s="148"/>
       <c r="G140" s="48"/>
       <c r="H140" s="48"/>
       <c r="I140" s="48"/>
@@ -7238,14 +7250,14 @@
       <c r="AA140" s="53"/>
     </row>
     <row r="141" spans="2:27">
-      <c r="B141" s="119" t="s">
+      <c r="B141" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="C141" s="127" t="s">
+      <c r="C141" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="E141" s="111"/>
-      <c r="F141" s="116"/>
+      <c r="E141" s="143"/>
+      <c r="F141" s="148"/>
       <c r="G141" s="48"/>
       <c r="H141" s="48"/>
       <c r="I141" s="48"/>
@@ -7286,11 +7298,11 @@
       <c r="Z141" s="48"/>
       <c r="AA141" s="53"/>
     </row>
-    <row r="142" spans="2:27" ht="17" customHeight="1">
-      <c r="B142" s="119"/>
-      <c r="C142" s="127"/>
-      <c r="E142" s="111"/>
-      <c r="F142" s="116"/>
+    <row r="142" spans="2:27" ht="16.95" customHeight="1">
+      <c r="B142" s="128"/>
+      <c r="C142" s="125"/>
+      <c r="E142" s="143"/>
+      <c r="F142" s="148"/>
       <c r="G142" s="48"/>
       <c r="H142" s="48"/>
       <c r="I142" s="48"/>
@@ -7332,10 +7344,10 @@
       <c r="AA142" s="53"/>
     </row>
     <row r="143" spans="2:27">
-      <c r="B143" s="119"/>
-      <c r="C143" s="127"/>
-      <c r="E143" s="111"/>
-      <c r="F143" s="116"/>
+      <c r="B143" s="128"/>
+      <c r="C143" s="125"/>
+      <c r="E143" s="143"/>
+      <c r="F143" s="148"/>
       <c r="G143" s="48"/>
       <c r="H143" s="48"/>
       <c r="I143" s="48"/>
@@ -7377,10 +7389,10 @@
       <c r="AA143" s="53"/>
     </row>
     <row r="144" spans="2:27">
-      <c r="B144" s="119"/>
-      <c r="C144" s="127"/>
-      <c r="E144" s="111"/>
-      <c r="F144" s="116"/>
+      <c r="B144" s="128"/>
+      <c r="C144" s="125"/>
+      <c r="E144" s="143"/>
+      <c r="F144" s="148"/>
       <c r="G144" s="48"/>
       <c r="H144" s="48"/>
       <c r="I144" s="48"/>
@@ -7421,11 +7433,11 @@
       <c r="Z144" s="48"/>
       <c r="AA144" s="53"/>
     </row>
-    <row r="145" spans="2:27" ht="16" customHeight="1">
-      <c r="B145" s="119"/>
-      <c r="C145" s="127"/>
-      <c r="E145" s="111"/>
-      <c r="F145" s="116"/>
+    <row r="145" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B145" s="128"/>
+      <c r="C145" s="125"/>
+      <c r="E145" s="143"/>
+      <c r="F145" s="148"/>
       <c r="G145" s="48"/>
       <c r="H145" s="48"/>
       <c r="I145" s="48"/>
@@ -7467,12 +7479,12 @@
       <c r="AA145" s="53"/>
     </row>
     <row r="146" spans="2:27">
-      <c r="B146" s="119" t="s">
+      <c r="B146" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="C146" s="127"/>
-      <c r="E146" s="111"/>
-      <c r="F146" s="116"/>
+      <c r="C146" s="125"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="148"/>
       <c r="G146" s="48"/>
       <c r="H146" s="48"/>
       <c r="I146" s="48"/>
@@ -7514,10 +7526,10 @@
       <c r="AA146" s="53"/>
     </row>
     <row r="147" spans="2:27">
-      <c r="B147" s="119"/>
-      <c r="C147" s="127"/>
-      <c r="E147" s="111"/>
-      <c r="F147" s="116"/>
+      <c r="B147" s="128"/>
+      <c r="C147" s="125"/>
+      <c r="E147" s="143"/>
+      <c r="F147" s="148"/>
       <c r="G147" s="48"/>
       <c r="H147" s="48"/>
       <c r="I147" s="48"/>
@@ -7559,10 +7571,10 @@
       <c r="AA147" s="53"/>
     </row>
     <row r="148" spans="2:27">
-      <c r="B148" s="119"/>
-      <c r="C148" s="127"/>
-      <c r="E148" s="111"/>
-      <c r="F148" s="116"/>
+      <c r="B148" s="128"/>
+      <c r="C148" s="125"/>
+      <c r="E148" s="143"/>
+      <c r="F148" s="148"/>
       <c r="G148" s="48"/>
       <c r="H148" s="48"/>
       <c r="I148" s="48"/>
@@ -7603,11 +7615,11 @@
       <c r="Z148" s="48"/>
       <c r="AA148" s="53"/>
     </row>
-    <row r="149" spans="2:27" ht="16" customHeight="1" thickBot="1">
-      <c r="B149" s="119"/>
-      <c r="C149" s="127"/>
-      <c r="E149" s="114"/>
-      <c r="F149" s="117"/>
+    <row r="149" spans="2:27" ht="16.05" customHeight="1" thickBot="1">
+      <c r="B149" s="128"/>
+      <c r="C149" s="125"/>
+      <c r="E149" s="146"/>
+      <c r="F149" s="149"/>
       <c r="G149" s="56"/>
       <c r="H149" s="56"/>
       <c r="I149" s="56"/>
@@ -7649,9 +7661,9 @@
       <c r="AA149" s="57"/>
     </row>
     <row r="150" spans="2:27">
-      <c r="B150" s="119"/>
-      <c r="C150" s="127"/>
-      <c r="E150" s="110" t="s">
+      <c r="B150" s="128"/>
+      <c r="C150" s="125"/>
+      <c r="E150" s="142" t="s">
         <v>260</v>
       </c>
       <c r="F150" s="63" t="s">
@@ -7699,9 +7711,9 @@
       <c r="AA150" s="52"/>
     </row>
     <row r="151" spans="2:27">
-      <c r="B151" s="119"/>
-      <c r="C151" s="127"/>
-      <c r="E151" s="111"/>
+      <c r="B151" s="128"/>
+      <c r="C151" s="125"/>
+      <c r="E151" s="143"/>
       <c r="F151" s="60" t="s">
         <v>189</v>
       </c>
@@ -7740,9 +7752,9 @@
       <c r="AA151" s="53"/>
     </row>
     <row r="152" spans="2:27">
-      <c r="B152" s="119"/>
-      <c r="C152" s="127"/>
-      <c r="E152" s="111"/>
+      <c r="B152" s="128"/>
+      <c r="C152" s="125"/>
+      <c r="E152" s="143"/>
       <c r="F152" s="60" t="s">
         <v>190</v>
       </c>
@@ -7786,9 +7798,9 @@
       <c r="AA152" s="53"/>
     </row>
     <row r="153" spans="2:27">
-      <c r="B153" s="119"/>
-      <c r="C153" s="127"/>
-      <c r="E153" s="111"/>
+      <c r="B153" s="128"/>
+      <c r="C153" s="125"/>
+      <c r="E153" s="143"/>
       <c r="F153" s="60" t="s">
         <v>191</v>
       </c>
@@ -7824,13 +7836,13 @@
       <c r="AA153" s="53"/>
     </row>
     <row r="154" spans="2:27">
-      <c r="B154" s="119" t="s">
+      <c r="B154" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="127" t="s">
+      <c r="C154" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="E154" s="111"/>
+      <c r="E154" s="143"/>
       <c r="F154" s="60" t="s">
         <v>192</v>
       </c>
@@ -7876,9 +7888,9 @@
       <c r="AA154" s="53"/>
     </row>
     <row r="155" spans="2:27">
-      <c r="B155" s="119"/>
-      <c r="C155" s="127"/>
-      <c r="E155" s="111"/>
+      <c r="B155" s="128"/>
+      <c r="C155" s="125"/>
+      <c r="E155" s="143"/>
       <c r="F155" s="60" t="s">
         <v>193</v>
       </c>
@@ -7924,9 +7936,9 @@
       <c r="AA155" s="53"/>
     </row>
     <row r="156" spans="2:27">
-      <c r="B156" s="119"/>
-      <c r="C156" s="127"/>
-      <c r="E156" s="111"/>
+      <c r="B156" s="128"/>
+      <c r="C156" s="125"/>
+      <c r="E156" s="143"/>
       <c r="F156" s="60" t="s">
         <v>194</v>
       </c>
@@ -7971,14 +7983,14 @@
       <c r="Z156" s="48"/>
       <c r="AA156" s="53"/>
     </row>
-    <row r="157" spans="2:27" ht="17" thickBot="1">
+    <row r="157" spans="2:27" ht="16.2" thickBot="1">
       <c r="B157" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="C157" s="127" t="s">
+      <c r="C157" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="E157" s="112"/>
+      <c r="E157" s="144"/>
       <c r="F157" s="61" t="s">
         <v>197</v>
       </c>
@@ -8017,11 +8029,11 @@
     </row>
     <row r="158" spans="2:27">
       <c r="B158" s="134"/>
-      <c r="C158" s="127"/>
-      <c r="E158" s="113" t="s">
+      <c r="C158" s="125"/>
+      <c r="E158" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="F158" s="118" t="s">
+      <c r="F158" s="150" t="s">
         <v>272</v>
       </c>
       <c r="G158" s="37">
@@ -8054,9 +8066,9 @@
     </row>
     <row r="159" spans="2:27">
       <c r="B159" s="134"/>
-      <c r="C159" s="127"/>
-      <c r="E159" s="111"/>
-      <c r="F159" s="119"/>
+      <c r="C159" s="125"/>
+      <c r="E159" s="143"/>
+      <c r="F159" s="128"/>
       <c r="G159" s="1">
         <v>1.01435445973261</v>
       </c>
@@ -8087,9 +8099,9 @@
     </row>
     <row r="160" spans="2:27">
       <c r="B160" s="134"/>
-      <c r="C160" s="127"/>
-      <c r="E160" s="111"/>
-      <c r="F160" s="119"/>
+      <c r="C160" s="125"/>
+      <c r="E160" s="143"/>
+      <c r="F160" s="128"/>
       <c r="G160" s="1">
         <v>2.0570279393808799</v>
       </c>
@@ -8118,13 +8130,13 @@
       <c r="Z160" s="48"/>
       <c r="AA160" s="53"/>
     </row>
-    <row r="161" spans="2:27" ht="16" customHeight="1">
+    <row r="161" spans="2:27" ht="16.05" customHeight="1">
       <c r="B161" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="C161" s="127"/>
-      <c r="E161" s="111"/>
-      <c r="F161" s="119"/>
+      <c r="C161" s="125"/>
+      <c r="E161" s="143"/>
+      <c r="F161" s="128"/>
       <c r="G161" s="1">
         <v>5.0235478806907299</v>
       </c>
@@ -8153,11 +8165,11 @@
       <c r="Z161" s="48"/>
       <c r="AA161" s="53"/>
     </row>
-    <row r="162" spans="2:27" ht="17" thickBot="1">
+    <row r="162" spans="2:27" ht="16.2" thickBot="1">
       <c r="B162" s="134"/>
-      <c r="C162" s="127"/>
-      <c r="E162" s="111"/>
-      <c r="F162" s="120"/>
+      <c r="C162" s="125"/>
+      <c r="E162" s="143"/>
+      <c r="F162" s="129"/>
       <c r="G162" s="24">
         <v>16.7844573726926</v>
       </c>
@@ -8188,9 +8200,9 @@
     </row>
     <row r="163" spans="2:27">
       <c r="B163" s="134"/>
-      <c r="C163" s="127"/>
-      <c r="E163" s="111"/>
-      <c r="F163" s="118" t="s">
+      <c r="C163" s="125"/>
+      <c r="E163" s="143"/>
+      <c r="F163" s="150" t="s">
         <v>273</v>
       </c>
       <c r="G163" s="37">
@@ -8223,9 +8235,9 @@
     </row>
     <row r="164" spans="2:27">
       <c r="B164" s="134"/>
-      <c r="C164" s="127"/>
-      <c r="E164" s="111"/>
-      <c r="F164" s="119"/>
+      <c r="C164" s="125"/>
+      <c r="E164" s="143"/>
+      <c r="F164" s="128"/>
       <c r="G164" s="1">
         <v>1.0000384334524699</v>
       </c>
@@ -8256,9 +8268,9 @@
     </row>
     <row r="165" spans="2:27">
       <c r="B165" s="134"/>
-      <c r="C165" s="127"/>
-      <c r="E165" s="111"/>
-      <c r="F165" s="119"/>
+      <c r="C165" s="125"/>
+      <c r="E165" s="143"/>
+      <c r="F165" s="128"/>
       <c r="G165" s="1">
         <v>1.9953111187978001</v>
       </c>
@@ -8289,9 +8301,9 @@
     </row>
     <row r="166" spans="2:27">
       <c r="B166" s="134"/>
-      <c r="C166" s="127"/>
-      <c r="E166" s="111"/>
-      <c r="F166" s="119"/>
+      <c r="C166" s="125"/>
+      <c r="E166" s="143"/>
+      <c r="F166" s="128"/>
       <c r="G166" s="1">
         <v>4.9786694338752397</v>
       </c>
@@ -8320,11 +8332,11 @@
       <c r="Z166" s="48"/>
       <c r="AA166" s="53"/>
     </row>
-    <row r="167" spans="2:27" ht="17" thickBot="1">
+    <row r="167" spans="2:27" ht="16.2" thickBot="1">
       <c r="B167" s="134"/>
-      <c r="C167" s="127"/>
-      <c r="E167" s="114"/>
-      <c r="F167" s="120"/>
+      <c r="C167" s="125"/>
+      <c r="E167" s="146"/>
+      <c r="F167" s="129"/>
       <c r="G167" s="24">
         <v>16.686933907272799</v>
       </c>
@@ -8355,8 +8367,8 @@
     </row>
     <row r="168" spans="2:27">
       <c r="B168" s="134"/>
-      <c r="C168" s="127"/>
-      <c r="E168" s="110" t="s">
+      <c r="C168" s="125"/>
+      <c r="E168" s="142" t="s">
         <v>105</v>
       </c>
       <c r="F168" s="64"/>
@@ -8392,13 +8404,13 @@
       </c>
     </row>
     <row r="169" spans="2:27">
-      <c r="B169" s="119" t="s">
+      <c r="B169" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="C169" s="127" t="s">
+      <c r="C169" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="E169" s="111"/>
+      <c r="E169" s="143"/>
       <c r="F169" s="65"/>
       <c r="G169" s="48"/>
       <c r="H169" s="48"/>
@@ -8432,9 +8444,9 @@
       </c>
     </row>
     <row r="170" spans="2:27">
-      <c r="B170" s="119"/>
-      <c r="C170" s="127"/>
-      <c r="E170" s="111"/>
+      <c r="B170" s="128"/>
+      <c r="C170" s="125"/>
+      <c r="E170" s="143"/>
       <c r="F170" s="65"/>
       <c r="G170" s="48"/>
       <c r="H170" s="48"/>
@@ -8468,9 +8480,9 @@
       </c>
     </row>
     <row r="171" spans="2:27">
-      <c r="B171" s="119"/>
-      <c r="C171" s="127"/>
-      <c r="E171" s="111"/>
+      <c r="B171" s="128"/>
+      <c r="C171" s="125"/>
+      <c r="E171" s="143"/>
       <c r="F171" s="65"/>
       <c r="G171" s="48"/>
       <c r="H171" s="48"/>
@@ -8503,10 +8515,10 @@
         <v>19.922371500000001</v>
       </c>
     </row>
-    <row r="172" spans="2:27" ht="16" customHeight="1">
-      <c r="B172" s="119"/>
-      <c r="C172" s="127"/>
-      <c r="E172" s="111"/>
+    <row r="172" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B172" s="128"/>
+      <c r="C172" s="125"/>
+      <c r="E172" s="143"/>
       <c r="F172" s="65"/>
       <c r="G172" s="48"/>
       <c r="H172" s="48"/>
@@ -8540,13 +8552,13 @@
       </c>
     </row>
     <row r="173" spans="2:27">
-      <c r="B173" s="119" t="s">
+      <c r="B173" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="C173" s="127" t="s">
+      <c r="C173" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="E173" s="111"/>
+      <c r="E173" s="143"/>
       <c r="F173" s="65"/>
       <c r="G173" s="48"/>
       <c r="H173" s="48"/>
@@ -8580,9 +8592,9 @@
       </c>
     </row>
     <row r="174" spans="2:27">
-      <c r="B174" s="119"/>
-      <c r="C174" s="127"/>
-      <c r="E174" s="111"/>
+      <c r="B174" s="128"/>
+      <c r="C174" s="125"/>
+      <c r="E174" s="143"/>
       <c r="F174" s="65"/>
       <c r="G174" s="48"/>
       <c r="H174" s="48"/>
@@ -8616,9 +8628,9 @@
       </c>
     </row>
     <row r="175" spans="2:27">
-      <c r="B175" s="119"/>
-      <c r="C175" s="127"/>
-      <c r="E175" s="111"/>
+      <c r="B175" s="128"/>
+      <c r="C175" s="125"/>
+      <c r="E175" s="143"/>
       <c r="F175" s="65"/>
       <c r="G175" s="48"/>
       <c r="H175" s="48"/>
@@ -8652,9 +8664,9 @@
       </c>
     </row>
     <row r="176" spans="2:27">
-      <c r="B176" s="119"/>
-      <c r="C176" s="127"/>
-      <c r="E176" s="111"/>
+      <c r="B176" s="128"/>
+      <c r="C176" s="125"/>
+      <c r="E176" s="143"/>
       <c r="F176" s="65"/>
       <c r="G176" s="48"/>
       <c r="H176" s="48"/>
@@ -8688,11 +8700,11 @@
       </c>
     </row>
     <row r="177" spans="2:27">
-      <c r="B177" s="119" t="s">
+      <c r="B177" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="C177" s="127"/>
-      <c r="E177" s="111"/>
+      <c r="C177" s="125"/>
+      <c r="E177" s="143"/>
       <c r="F177" s="65"/>
       <c r="G177" s="48"/>
       <c r="H177" s="48"/>
@@ -8726,9 +8738,9 @@
       </c>
     </row>
     <row r="178" spans="2:27">
-      <c r="B178" s="119"/>
-      <c r="C178" s="127"/>
-      <c r="E178" s="111"/>
+      <c r="B178" s="128"/>
+      <c r="C178" s="125"/>
+      <c r="E178" s="143"/>
       <c r="F178" s="65"/>
       <c r="G178" s="48"/>
       <c r="H178" s="48"/>
@@ -8762,9 +8774,9 @@
       </c>
     </row>
     <row r="179" spans="2:27">
-      <c r="B179" s="119"/>
-      <c r="C179" s="127"/>
-      <c r="E179" s="111"/>
+      <c r="B179" s="128"/>
+      <c r="C179" s="125"/>
+      <c r="E179" s="143"/>
       <c r="F179" s="65"/>
       <c r="G179" s="48"/>
       <c r="H179" s="48"/>
@@ -8797,10 +8809,10 @@
         <v>30.0627073</v>
       </c>
     </row>
-    <row r="180" spans="2:27" ht="16" customHeight="1">
-      <c r="B180" s="119"/>
-      <c r="C180" s="127"/>
-      <c r="E180" s="111"/>
+    <row r="180" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B180" s="128"/>
+      <c r="C180" s="125"/>
+      <c r="E180" s="143"/>
       <c r="F180" s="65"/>
       <c r="G180" s="48"/>
       <c r="H180" s="48"/>
@@ -8834,13 +8846,13 @@
       </c>
     </row>
     <row r="181" spans="2:27">
-      <c r="B181" s="119" t="s">
+      <c r="B181" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="C181" s="127" t="s">
+      <c r="C181" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="E181" s="111"/>
+      <c r="E181" s="143"/>
       <c r="F181" s="65"/>
       <c r="G181" s="48"/>
       <c r="H181" s="48"/>
@@ -8874,9 +8886,9 @@
       </c>
     </row>
     <row r="182" spans="2:27">
-      <c r="B182" s="119"/>
-      <c r="C182" s="127"/>
-      <c r="E182" s="111"/>
+      <c r="B182" s="128"/>
+      <c r="C182" s="125"/>
+      <c r="E182" s="143"/>
       <c r="F182" s="65"/>
       <c r="G182" s="48"/>
       <c r="H182" s="48"/>
@@ -8916,7 +8928,7 @@
       <c r="C183" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E183" s="111"/>
+      <c r="E183" s="143"/>
       <c r="F183" s="65"/>
       <c r="G183" s="48"/>
       <c r="H183" s="48"/>
@@ -8950,13 +8962,13 @@
       </c>
     </row>
     <row r="184" spans="2:27">
-      <c r="B184" s="119" t="s">
+      <c r="B184" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="C184" s="127" t="s">
+      <c r="C184" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="E184" s="111"/>
+      <c r="E184" s="143"/>
       <c r="F184" s="65"/>
       <c r="G184" s="48"/>
       <c r="H184" s="48"/>
@@ -8990,9 +9002,9 @@
       </c>
     </row>
     <row r="185" spans="2:27">
-      <c r="B185" s="119"/>
-      <c r="C185" s="127"/>
-      <c r="E185" s="111"/>
+      <c r="B185" s="128"/>
+      <c r="C185" s="125"/>
+      <c r="E185" s="143"/>
       <c r="F185" s="65"/>
       <c r="G185" s="48"/>
       <c r="H185" s="48"/>
@@ -9025,10 +9037,10 @@
         <v>40.4672141</v>
       </c>
     </row>
-    <row r="186" spans="2:27" ht="16" customHeight="1">
-      <c r="B186" s="119"/>
-      <c r="C186" s="127"/>
-      <c r="E186" s="111"/>
+    <row r="186" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B186" s="128"/>
+      <c r="C186" s="125"/>
+      <c r="E186" s="143"/>
       <c r="F186" s="65"/>
       <c r="G186" s="48"/>
       <c r="H186" s="48"/>
@@ -9062,9 +9074,9 @@
       </c>
     </row>
     <row r="187" spans="2:27">
-      <c r="B187" s="119"/>
-      <c r="C187" s="127"/>
-      <c r="E187" s="111"/>
+      <c r="B187" s="128"/>
+      <c r="C187" s="125"/>
+      <c r="E187" s="143"/>
       <c r="F187" s="65"/>
       <c r="G187" s="48"/>
       <c r="H187" s="48"/>
@@ -9098,9 +9110,9 @@
       </c>
     </row>
     <row r="188" spans="2:27">
-      <c r="B188" s="119"/>
-      <c r="C188" s="127"/>
-      <c r="E188" s="111"/>
+      <c r="B188" s="128"/>
+      <c r="C188" s="125"/>
+      <c r="E188" s="143"/>
       <c r="F188" s="65"/>
       <c r="G188" s="48"/>
       <c r="H188" s="48"/>
@@ -9133,10 +9145,10 @@
         <v>44.019746099999999</v>
       </c>
     </row>
-    <row r="189" spans="2:27" ht="17" thickBot="1">
-      <c r="B189" s="119"/>
-      <c r="C189" s="127"/>
-      <c r="E189" s="112"/>
+    <row r="189" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B189" s="128"/>
+      <c r="C189" s="125"/>
+      <c r="E189" s="144"/>
       <c r="F189" s="66"/>
       <c r="G189" s="54"/>
       <c r="H189" s="54"/>
@@ -9169,53 +9181,53 @@
         <v>43.709449900000003</v>
       </c>
     </row>
-    <row r="190" spans="2:27" ht="16" customHeight="1">
-      <c r="B190" s="119" t="s">
+    <row r="190" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B190" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="C190" s="127"/>
+      <c r="C190" s="125"/>
     </row>
     <row r="191" spans="2:27">
-      <c r="B191" s="119"/>
-      <c r="C191" s="127"/>
+      <c r="B191" s="128"/>
+      <c r="C191" s="125"/>
     </row>
     <row r="192" spans="2:27">
-      <c r="B192" s="119"/>
-      <c r="C192" s="127"/>
+      <c r="B192" s="128"/>
+      <c r="C192" s="125"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="119"/>
-      <c r="C193" s="127"/>
+      <c r="B193" s="128"/>
+      <c r="C193" s="125"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="119" t="s">
+      <c r="B194" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="C194" s="127" t="s">
+      <c r="C194" s="125" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="119"/>
-      <c r="C195" s="127"/>
+      <c r="B195" s="128"/>
+      <c r="C195" s="125"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="138" t="s">
+      <c r="B196" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C196" s="127" t="s">
+      <c r="C196" s="125" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="138"/>
-      <c r="C197" s="127"/>
+      <c r="B197" s="133"/>
+      <c r="C197" s="125"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="119" t="s">
+      <c r="B198" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="C198" s="127" t="s">
+      <c r="C198" s="125" t="s">
         <v>110</v>
       </c>
       <c r="E198" s="47" t="s">
@@ -9223,109 +9235,109 @@
       </c>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="119"/>
-      <c r="C199" s="127"/>
+      <c r="B199" s="128"/>
+      <c r="C199" s="125"/>
       <c r="E199" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="119"/>
-      <c r="C200" s="127"/>
-    </row>
-    <row r="201" spans="2:5" ht="16" customHeight="1">
-      <c r="B201" s="119"/>
-      <c r="C201" s="127"/>
+      <c r="B200" s="128"/>
+      <c r="C200" s="125"/>
+    </row>
+    <row r="201" spans="2:5" ht="16.05" customHeight="1">
+      <c r="B201" s="128"/>
+      <c r="C201" s="125"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="119"/>
-      <c r="C202" s="127"/>
-    </row>
-    <row r="203" spans="2:5" ht="16" customHeight="1">
-      <c r="B203" s="119"/>
-      <c r="C203" s="127"/>
+      <c r="B202" s="128"/>
+      <c r="C202" s="125"/>
+    </row>
+    <row r="203" spans="2:5" ht="16.05" customHeight="1">
+      <c r="B203" s="128"/>
+      <c r="C203" s="125"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="119"/>
-      <c r="C204" s="127"/>
+      <c r="B204" s="128"/>
+      <c r="C204" s="125"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="119" t="s">
+      <c r="B205" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="C205" s="127" t="s">
+      <c r="C205" s="125" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="119"/>
-      <c r="C206" s="127"/>
+      <c r="B206" s="128"/>
+      <c r="C206" s="125"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="119"/>
-      <c r="C207" s="127"/>
+      <c r="B207" s="128"/>
+      <c r="C207" s="125"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="119" t="s">
+      <c r="B208" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="C208" s="127" t="s">
+      <c r="C208" s="125" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="119"/>
-      <c r="C209" s="127"/>
+      <c r="B209" s="128"/>
+      <c r="C209" s="125"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="119" t="s">
+      <c r="B210" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="C210" s="127" t="s">
+      <c r="C210" s="125" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="119"/>
-      <c r="C211" s="127"/>
+      <c r="B211" s="128"/>
+      <c r="C211" s="125"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="119"/>
-      <c r="C212" s="127"/>
+      <c r="B212" s="128"/>
+      <c r="C212" s="125"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="119" t="s">
+      <c r="B213" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="C213" s="127"/>
+      <c r="C213" s="125"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="119"/>
-      <c r="C214" s="127"/>
+      <c r="B214" s="128"/>
+      <c r="C214" s="125"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="119" t="s">
+      <c r="B215" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="C215" s="127"/>
-    </row>
-    <row r="216" spans="2:3" ht="16" customHeight="1">
-      <c r="B216" s="119"/>
-      <c r="C216" s="127"/>
+      <c r="C215" s="125"/>
+    </row>
+    <row r="216" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B216" s="128"/>
+      <c r="C216" s="125"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="119" t="s">
+      <c r="B217" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="C217" s="127" t="s">
+      <c r="C217" s="125" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="17" thickBot="1">
-      <c r="B218" s="119"/>
-      <c r="C218" s="127"/>
-    </row>
-    <row r="219" spans="2:3" ht="17" thickBot="1">
+    <row r="218" spans="2:3" ht="16.2" thickBot="1">
+      <c r="B218" s="128"/>
+      <c r="C218" s="125"/>
+    </row>
+    <row r="219" spans="2:3" ht="16.2" thickBot="1">
       <c r="B219" s="18" t="s">
         <v>123</v>
       </c>
@@ -9334,336 +9346,336 @@
       </c>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="124" t="s">
+      <c r="B220" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="C220" s="132" t="s">
+      <c r="C220" s="124" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="119"/>
-      <c r="C221" s="127"/>
+      <c r="B221" s="128"/>
+      <c r="C221" s="125"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="119"/>
-      <c r="C222" s="127"/>
+      <c r="B222" s="128"/>
+      <c r="C222" s="125"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="119"/>
-      <c r="C223" s="127"/>
+      <c r="B223" s="128"/>
+      <c r="C223" s="125"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="119"/>
-      <c r="C224" s="127"/>
-    </row>
-    <row r="225" spans="2:3" ht="16" customHeight="1">
-      <c r="B225" s="119"/>
-      <c r="C225" s="127"/>
+      <c r="B224" s="128"/>
+      <c r="C224" s="125"/>
+    </row>
+    <row r="225" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B225" s="128"/>
+      <c r="C225" s="125"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="119"/>
-      <c r="C226" s="127"/>
-    </row>
-    <row r="227" spans="2:3" ht="16" customHeight="1">
-      <c r="B227" s="119" t="s">
+      <c r="B226" s="128"/>
+      <c r="C226" s="125"/>
+    </row>
+    <row r="227" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B227" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="C227" s="127"/>
+      <c r="C227" s="125"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="137"/>
-      <c r="C228" s="135"/>
+      <c r="B228" s="131"/>
+      <c r="C228" s="132"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="119" t="s">
+      <c r="B229" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="C229" s="127" t="s">
+      <c r="C229" s="125" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="119"/>
-      <c r="C230" s="127"/>
+      <c r="B230" s="128"/>
+      <c r="C230" s="125"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="119" t="s">
+      <c r="B231" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="C231" s="127"/>
+      <c r="C231" s="125"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="119"/>
-      <c r="C232" s="127"/>
+      <c r="B232" s="128"/>
+      <c r="C232" s="125"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="119"/>
-      <c r="C233" s="127"/>
+      <c r="B233" s="128"/>
+      <c r="C233" s="125"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="119"/>
-      <c r="C234" s="127"/>
+      <c r="B234" s="128"/>
+      <c r="C234" s="125"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="119"/>
-      <c r="C235" s="127"/>
+      <c r="B235" s="128"/>
+      <c r="C235" s="125"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="119"/>
-      <c r="C236" s="127"/>
+      <c r="B236" s="128"/>
+      <c r="C236" s="125"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="119"/>
-      <c r="C237" s="127"/>
+      <c r="B237" s="128"/>
+      <c r="C237" s="125"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="119"/>
-      <c r="C238" s="127"/>
+      <c r="B238" s="128"/>
+      <c r="C238" s="125"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="119"/>
-      <c r="C239" s="127"/>
-    </row>
-    <row r="240" spans="2:3" ht="16" customHeight="1">
-      <c r="B240" s="119" t="s">
+      <c r="B239" s="128"/>
+      <c r="C239" s="125"/>
+    </row>
+    <row r="240" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B240" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="C240" s="127" t="s">
+      <c r="C240" s="125" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="119"/>
-      <c r="C241" s="127"/>
+      <c r="B241" s="128"/>
+      <c r="C241" s="125"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="119" t="s">
+      <c r="B242" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="C242" s="127" t="s">
+      <c r="C242" s="125" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="119"/>
-      <c r="C243" s="127"/>
-    </row>
-    <row r="244" spans="2:3" ht="16" customHeight="1">
-      <c r="B244" s="119" t="s">
+      <c r="B243" s="128"/>
+      <c r="C243" s="125"/>
+    </row>
+    <row r="244" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B244" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="C244" s="127" t="s">
+      <c r="C244" s="125" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="119"/>
-      <c r="C245" s="127"/>
-    </row>
-    <row r="246" spans="2:3" ht="16" customHeight="1">
-      <c r="B246" s="119"/>
-      <c r="C246" s="127"/>
+      <c r="B245" s="128"/>
+      <c r="C245" s="125"/>
+    </row>
+    <row r="246" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B246" s="128"/>
+      <c r="C246" s="125"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="119"/>
-      <c r="C247" s="127"/>
+      <c r="B247" s="128"/>
+      <c r="C247" s="125"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="119" t="s">
+      <c r="B248" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="C248" s="127" t="s">
+      <c r="C248" s="125" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="119"/>
-      <c r="C249" s="127"/>
+      <c r="B249" s="128"/>
+      <c r="C249" s="125"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="119" t="s">
+      <c r="B250" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="C250" s="127"/>
+      <c r="C250" s="125"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="119"/>
-      <c r="C251" s="127"/>
+      <c r="B251" s="128"/>
+      <c r="C251" s="125"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="119"/>
-      <c r="C252" s="127"/>
-    </row>
-    <row r="253" spans="2:3" ht="16" customHeight="1">
-      <c r="B253" s="119"/>
-      <c r="C253" s="127"/>
+      <c r="B252" s="128"/>
+      <c r="C252" s="125"/>
+    </row>
+    <row r="253" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B253" s="128"/>
+      <c r="C253" s="125"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="119"/>
-      <c r="C254" s="127"/>
+      <c r="B254" s="128"/>
+      <c r="C254" s="125"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="119"/>
-      <c r="C255" s="127"/>
+      <c r="B255" s="128"/>
+      <c r="C255" s="125"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="119"/>
-      <c r="C256" s="127"/>
-    </row>
-    <row r="257" spans="2:3" ht="16" customHeight="1">
-      <c r="B257" s="119" t="s">
+      <c r="B256" s="128"/>
+      <c r="C256" s="125"/>
+    </row>
+    <row r="257" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B257" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="C257" s="127"/>
+      <c r="C257" s="125"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="119"/>
-      <c r="C258" s="127"/>
+      <c r="B258" s="128"/>
+      <c r="C258" s="125"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="119"/>
-      <c r="C259" s="127"/>
+      <c r="B259" s="128"/>
+      <c r="C259" s="125"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="119"/>
-      <c r="C260" s="127"/>
+      <c r="B260" s="128"/>
+      <c r="C260" s="125"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="119" t="s">
+      <c r="B261" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="C261" s="127"/>
-    </row>
-    <row r="262" spans="2:3" ht="16" customHeight="1">
-      <c r="B262" s="119"/>
-      <c r="C262" s="127"/>
+      <c r="C261" s="125"/>
+    </row>
+    <row r="262" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B262" s="128"/>
+      <c r="C262" s="125"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="119" t="s">
+      <c r="B263" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="C263" s="127" t="s">
+      <c r="C263" s="125" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="119"/>
-      <c r="C264" s="127"/>
+      <c r="B264" s="128"/>
+      <c r="C264" s="125"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="119"/>
-      <c r="C265" s="127"/>
+      <c r="B265" s="128"/>
+      <c r="C265" s="125"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="119" t="s">
+      <c r="B266" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="C266" s="127" t="s">
+      <c r="C266" s="125" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="119"/>
-      <c r="C267" s="127"/>
-    </row>
-    <row r="268" spans="2:3" ht="16" customHeight="1">
-      <c r="B268" s="119"/>
-      <c r="C268" s="127"/>
+      <c r="B267" s="128"/>
+      <c r="C267" s="125"/>
+    </row>
+    <row r="268" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B268" s="128"/>
+      <c r="C268" s="125"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="119"/>
-      <c r="C269" s="127"/>
+      <c r="B269" s="128"/>
+      <c r="C269" s="125"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="119" t="s">
+      <c r="B270" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="C270" s="127" t="s">
+      <c r="C270" s="125" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="18" customHeight="1">
-      <c r="B271" s="119"/>
-      <c r="C271" s="127"/>
+      <c r="B271" s="128"/>
+      <c r="C271" s="125"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="119" t="s">
+      <c r="B272" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="C272" s="127" t="s">
+      <c r="C272" s="125" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="119"/>
-      <c r="C273" s="127"/>
+      <c r="B273" s="128"/>
+      <c r="C273" s="125"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="119"/>
-      <c r="C274" s="127"/>
+      <c r="B274" s="128"/>
+      <c r="C274" s="125"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="119" t="s">
+      <c r="B275" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="C275" s="127" t="s">
+      <c r="C275" s="125" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="276" spans="2:3" ht="16" customHeight="1">
-      <c r="B276" s="119"/>
-      <c r="C276" s="127"/>
+    <row r="276" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B276" s="128"/>
+      <c r="C276" s="125"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="119"/>
-      <c r="C277" s="127"/>
+      <c r="B277" s="128"/>
+      <c r="C277" s="125"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="119" t="s">
+      <c r="B278" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="C278" s="127" t="s">
+      <c r="C278" s="125" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="119"/>
-      <c r="C279" s="127"/>
+      <c r="B279" s="128"/>
+      <c r="C279" s="125"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="119" t="s">
+      <c r="B280" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="C280" s="127" t="s">
+      <c r="C280" s="125" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="119"/>
-      <c r="C281" s="127"/>
+      <c r="B281" s="128"/>
+      <c r="C281" s="125"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="119"/>
-      <c r="C282" s="127"/>
-    </row>
-    <row r="283" spans="2:3" ht="16" customHeight="1">
-      <c r="B283" s="119"/>
-      <c r="C283" s="127"/>
+      <c r="B282" s="128"/>
+      <c r="C282" s="125"/>
+    </row>
+    <row r="283" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B283" s="128"/>
+      <c r="C283" s="125"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="119" t="s">
+      <c r="B284" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="C284" s="127" t="s">
+      <c r="C284" s="125" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="285" spans="2:3" ht="17" thickBot="1">
-      <c r="B285" s="119"/>
-      <c r="C285" s="127"/>
-    </row>
-    <row r="286" spans="2:3" ht="17" thickBot="1">
+    <row r="285" spans="2:3" ht="16.2" thickBot="1">
+      <c r="B285" s="128"/>
+      <c r="C285" s="125"/>
+    </row>
+    <row r="286" spans="2:3" ht="16.2" thickBot="1">
       <c r="B286" s="18" t="s">
         <v>158</v>
       </c>
@@ -9672,48 +9684,152 @@
       </c>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="124" t="s">
+      <c r="B287" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="C287" s="132" t="s">
+      <c r="C287" s="124" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="119"/>
-      <c r="C288" s="127"/>
+      <c r="B288" s="128"/>
+      <c r="C288" s="125"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="119"/>
-      <c r="C289" s="127" t="s">
+      <c r="B289" s="128"/>
+      <c r="C289" s="125" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="119"/>
-      <c r="C290" s="127"/>
-    </row>
-    <row r="291" spans="2:3" ht="17" thickBot="1">
-      <c r="B291" s="120"/>
-      <c r="C291" s="133"/>
+      <c r="B290" s="128"/>
+      <c r="C290" s="125"/>
+    </row>
+    <row r="291" spans="2:3" ht="16.2" thickBot="1">
+      <c r="B291" s="129"/>
+      <c r="C291" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E168:E189"/>
+    <mergeCell ref="E103:E113"/>
+    <mergeCell ref="E150:E157"/>
+    <mergeCell ref="E114:E149"/>
+    <mergeCell ref="F114:F149"/>
+    <mergeCell ref="F158:F162"/>
+    <mergeCell ref="F163:F167"/>
+    <mergeCell ref="E158:E167"/>
+    <mergeCell ref="E101:AA101"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="C107:C119"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="C173:C180"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="B161:B168"/>
+    <mergeCell ref="C157:C168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B146:B153"/>
+    <mergeCell ref="C141:C153"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="B141:B145"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C220:C228"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C184:C193"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="B198:B204"/>
+    <mergeCell ref="C198:C204"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="B244:B247"/>
+    <mergeCell ref="C244:C247"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B231:B239"/>
+    <mergeCell ref="C229:C239"/>
     <mergeCell ref="C287:C288"/>
     <mergeCell ref="C289:C291"/>
     <mergeCell ref="B287:B291"/>
@@ -9738,125 +9854,21 @@
     <mergeCell ref="B270:B271"/>
     <mergeCell ref="B250:B256"/>
     <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="B244:B247"/>
-    <mergeCell ref="C244:C247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="B231:B239"/>
-    <mergeCell ref="C229:C239"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C220:C228"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C184:C193"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B204"/>
-    <mergeCell ref="C198:C204"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="B184:B189"/>
-    <mergeCell ref="B146:B153"/>
-    <mergeCell ref="C141:C153"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="B141:B145"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="C173:C180"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="B161:B168"/>
-    <mergeCell ref="C157:C168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="C107:C119"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="E168:E189"/>
-    <mergeCell ref="E103:E113"/>
-    <mergeCell ref="E150:E157"/>
-    <mergeCell ref="E114:E149"/>
-    <mergeCell ref="F114:F149"/>
-    <mergeCell ref="F158:F162"/>
-    <mergeCell ref="F163:F167"/>
-    <mergeCell ref="E158:E167"/>
-    <mergeCell ref="E101:AA101"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9864,56 +9876,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF64D2DB-3FF9-0A4F-837E-81FE8C182B15}">
-  <dimension ref="B2:AE105"/>
+  <dimension ref="B2:AE113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.796875" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" customWidth="1"/>
+    <col min="12" max="12" width="17.796875" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" customWidth="1"/>
+    <col min="14" max="14" width="16.796875" customWidth="1"/>
     <col min="15" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" customWidth="1"/>
-    <col min="20" max="20" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="21.19921875" customWidth="1"/>
+    <col min="18" max="18" width="18.796875" customWidth="1"/>
+    <col min="19" max="19" width="17.19921875" customWidth="1"/>
+    <col min="20" max="20" width="17.796875" customWidth="1"/>
     <col min="21" max="21" width="20.5" customWidth="1"/>
     <col min="22" max="22" width="18.5" customWidth="1"/>
     <col min="23" max="23" width="17.5" customWidth="1"/>
     <col min="24" max="24" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" ht="17" thickBot="1"/>
-    <row r="3" spans="2:31" ht="17" thickBot="1">
-      <c r="B3" s="162" t="s">
+    <row r="2" spans="2:31" ht="16.2" thickBot="1"/>
+    <row r="3" spans="2:31" ht="16.2" thickBot="1">
+      <c r="B3" s="156" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="164"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="158"/>
       <c r="Q3" s="82"/>
       <c r="R3" s="82"/>
       <c r="S3" s="82"/>
@@ -9930,7 +9942,7 @@
       <c r="AD3" s="27"/>
       <c r="AE3" s="27"/>
     </row>
-    <row r="4" spans="2:31" ht="17" thickBot="1">
+    <row r="4" spans="2:31" ht="16.2" thickBot="1">
       <c r="B4" s="67" t="s">
         <v>268</v>
       </c>
@@ -9971,9 +9983,14 @@
         <v>165</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q4" s="83"/>
+        <v>287</v>
+      </c>
+      <c r="P4" s="162" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q4" s="83" t="s">
+        <v>289</v>
+      </c>
       <c r="R4" s="83"/>
       <c r="S4" s="83"/>
       <c r="T4" s="83"/>
@@ -9990,10 +10007,10 @@
       <c r="AE4" s="27"/>
     </row>
     <row r="5" spans="2:31">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="159" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="97" t="s">
         <v>166</v>
       </c>
       <c r="D5" s="71"/>
@@ -10029,8 +10046,8 @@
       <c r="AE5" s="27"/>
     </row>
     <row r="6" spans="2:31">
-      <c r="B6" s="152"/>
-      <c r="C6" s="101" t="s">
+      <c r="B6" s="160"/>
+      <c r="C6" s="98" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="71"/>
@@ -10066,8 +10083,8 @@
       <c r="AE6" s="27"/>
     </row>
     <row r="7" spans="2:31">
-      <c r="B7" s="152"/>
-      <c r="C7" s="101" t="s">
+      <c r="B7" s="160"/>
+      <c r="C7" s="98" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="71"/>
@@ -10103,8 +10120,8 @@
       <c r="AE7" s="27"/>
     </row>
     <row r="8" spans="2:31">
-      <c r="B8" s="152"/>
-      <c r="C8" s="101" t="s">
+      <c r="B8" s="160"/>
+      <c r="C8" s="98" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="71"/>
@@ -10140,8 +10157,8 @@
       <c r="AE8" s="27"/>
     </row>
     <row r="9" spans="2:31">
-      <c r="B9" s="152"/>
-      <c r="C9" s="101" t="s">
+      <c r="B9" s="160"/>
+      <c r="C9" s="98" t="s">
         <v>170</v>
       </c>
       <c r="D9" s="71"/>
@@ -10177,8 +10194,8 @@
       <c r="AE9" s="27"/>
     </row>
     <row r="10" spans="2:31">
-      <c r="B10" s="152"/>
-      <c r="C10" s="101" t="s">
+      <c r="B10" s="160"/>
+      <c r="C10" s="98" t="s">
         <v>171</v>
       </c>
       <c r="D10" s="71"/>
@@ -10214,8 +10231,8 @@
       <c r="AE10" s="27"/>
     </row>
     <row r="11" spans="2:31">
-      <c r="B11" s="152"/>
-      <c r="C11" s="101" t="s">
+      <c r="B11" s="160"/>
+      <c r="C11" s="98" t="s">
         <v>172</v>
       </c>
       <c r="D11" s="71"/>
@@ -10251,8 +10268,8 @@
       <c r="AE11" s="27"/>
     </row>
     <row r="12" spans="2:31">
-      <c r="B12" s="152"/>
-      <c r="C12" s="101" t="s">
+      <c r="B12" s="160"/>
+      <c r="C12" s="98" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="71"/>
@@ -10288,8 +10305,8 @@
       <c r="AE12" s="27"/>
     </row>
     <row r="13" spans="2:31">
-      <c r="B13" s="152"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="160"/>
+      <c r="C13" s="98" t="s">
         <v>174</v>
       </c>
       <c r="D13" s="71"/>
@@ -10325,8 +10342,8 @@
       <c r="AE13" s="27"/>
     </row>
     <row r="14" spans="2:31">
-      <c r="B14" s="152"/>
-      <c r="C14" s="101" t="s">
+      <c r="B14" s="160"/>
+      <c r="C14" s="98" t="s">
         <v>175</v>
       </c>
       <c r="D14" s="71"/>
@@ -10361,9 +10378,9 @@
       <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
     </row>
-    <row r="15" spans="2:31" ht="17" thickBot="1">
-      <c r="B15" s="152"/>
-      <c r="C15" s="106" t="s">
+    <row r="15" spans="2:31" ht="16.2" thickBot="1">
+      <c r="B15" s="160"/>
+      <c r="C15" s="103" t="s">
         <v>176</v>
       </c>
       <c r="D15" s="75"/>
@@ -10398,11 +10415,11 @@
       <c r="AD15" s="27"/>
       <c r="AE15" s="27"/>
     </row>
-    <row r="16" spans="2:31" ht="16" customHeight="1">
-      <c r="B16" s="151" t="s">
+    <row r="16" spans="2:31" ht="16.05" customHeight="1">
+      <c r="B16" s="159" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="104" t="s">
         <v>274</v>
       </c>
       <c r="D16" s="71"/>
@@ -10417,7 +10434,7 @@
       <c r="M16" s="71"/>
       <c r="N16" s="71"/>
       <c r="O16" s="81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="83"/>
       <c r="R16" s="83"/>
@@ -10435,9 +10452,9 @@
       <c r="AD16" s="27"/>
       <c r="AE16" s="27"/>
     </row>
-    <row r="17" spans="2:31" ht="17">
-      <c r="B17" s="152"/>
-      <c r="C17" s="108" t="s">
+    <row r="17" spans="2:31">
+      <c r="B17" s="160"/>
+      <c r="C17" s="105" t="s">
         <v>275</v>
       </c>
       <c r="D17" s="71"/>
@@ -10452,7 +10469,7 @@
       <c r="M17" s="71"/>
       <c r="N17" s="71"/>
       <c r="O17" s="81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="83"/>
       <c r="R17" s="83"/>
@@ -10470,9 +10487,9 @@
       <c r="AD17" s="27"/>
       <c r="AE17" s="27"/>
     </row>
-    <row r="18" spans="2:31" ht="17">
-      <c r="B18" s="152"/>
-      <c r="C18" s="108" t="s">
+    <row r="18" spans="2:31">
+      <c r="B18" s="160"/>
+      <c r="C18" s="105" t="s">
         <v>276</v>
       </c>
       <c r="D18" s="71"/>
@@ -10487,7 +10504,7 @@
       <c r="M18" s="71"/>
       <c r="N18" s="71"/>
       <c r="O18" s="81" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="83"/>
       <c r="R18" s="83"/>
@@ -10505,9 +10522,9 @@
       <c r="AD18" s="27"/>
       <c r="AE18" s="27"/>
     </row>
-    <row r="19" spans="2:31" ht="17">
-      <c r="B19" s="152"/>
-      <c r="C19" s="108" t="s">
+    <row r="19" spans="2:31">
+      <c r="B19" s="160"/>
+      <c r="C19" s="105" t="s">
         <v>277</v>
       </c>
       <c r="D19" s="77"/>
@@ -10522,7 +10539,7 @@
       <c r="M19" s="77"/>
       <c r="N19" s="77"/>
       <c r="O19" s="87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
@@ -10540,12 +10557,12 @@
       <c r="AD19" s="27"/>
       <c r="AE19" s="27"/>
     </row>
-    <row r="20" spans="2:31" ht="18" thickBot="1">
-      <c r="B20" s="152"/>
-      <c r="C20" s="109" t="s">
+    <row r="20" spans="2:31" ht="16.2" thickBot="1">
+      <c r="B20" s="160"/>
+      <c r="C20" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="D20" s="97"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="86"/>
       <c r="F20" s="86"/>
       <c r="G20" s="86"/>
@@ -10557,7 +10574,7 @@
       <c r="M20" s="86"/>
       <c r="N20" s="86"/>
       <c r="O20" s="88" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="83"/>
       <c r="R20" s="83"/>
@@ -10576,10 +10593,10 @@
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="2:31">
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="159" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="98" t="s">
         <v>188</v>
       </c>
       <c r="D21" s="78">
@@ -10629,8 +10646,8 @@
       <c r="AE21" s="27"/>
     </row>
     <row r="22" spans="2:31">
-      <c r="B22" s="152"/>
-      <c r="C22" s="101" t="s">
+      <c r="B22" s="160"/>
+      <c r="C22" s="98" t="s">
         <v>189</v>
       </c>
       <c r="D22" s="70">
@@ -10672,8 +10689,8 @@
       <c r="AE22" s="27"/>
     </row>
     <row r="23" spans="2:31">
-      <c r="B23" s="152"/>
-      <c r="C23" s="101" t="s">
+      <c r="B23" s="160"/>
+      <c r="C23" s="98" t="s">
         <v>190</v>
       </c>
       <c r="D23" s="70">
@@ -10721,8 +10738,8 @@
       <c r="AE23" s="27"/>
     </row>
     <row r="24" spans="2:31">
-      <c r="B24" s="152"/>
-      <c r="C24" s="101" t="s">
+      <c r="B24" s="160"/>
+      <c r="C24" s="98" t="s">
         <v>191</v>
       </c>
       <c r="D24" s="70">
@@ -10762,8 +10779,8 @@
       <c r="AE24" s="27"/>
     </row>
     <row r="25" spans="2:31">
-      <c r="B25" s="152"/>
-      <c r="C25" s="101" t="s">
+      <c r="B25" s="160"/>
+      <c r="C25" s="98" t="s">
         <v>192</v>
       </c>
       <c r="D25" s="70">
@@ -10813,8 +10830,8 @@
       <c r="AE25" s="27"/>
     </row>
     <row r="26" spans="2:31">
-      <c r="B26" s="152"/>
-      <c r="C26" s="101" t="s">
+      <c r="B26" s="160"/>
+      <c r="C26" s="98" t="s">
         <v>193</v>
       </c>
       <c r="D26" s="70">
@@ -10864,8 +10881,8 @@
       <c r="AE26" s="27"/>
     </row>
     <row r="27" spans="2:31">
-      <c r="B27" s="152"/>
-      <c r="C27" s="101" t="s">
+      <c r="B27" s="160"/>
+      <c r="C27" s="98" t="s">
         <v>194</v>
       </c>
       <c r="D27" s="70">
@@ -10914,9 +10931,9 @@
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
     </row>
-    <row r="28" spans="2:31" ht="17" thickBot="1">
-      <c r="B28" s="153"/>
-      <c r="C28" s="102" t="s">
+    <row r="28" spans="2:31" ht="16.2" thickBot="1">
+      <c r="B28" s="161"/>
+      <c r="C28" s="99" t="s">
         <v>197</v>
       </c>
       <c r="D28" s="74">
@@ -10957,15 +10974,13 @@
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
     </row>
-    <row r="29" spans="2:31" ht="16" customHeight="1" thickBot="1">
-      <c r="B29" s="160" t="s">
+    <row r="29" spans="2:31" ht="15.6" customHeight="1">
+      <c r="B29" s="154" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="159" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
       <c r="H29" s="71"/>
@@ -10975,9 +10990,7 @@
       <c r="L29" s="71"/>
       <c r="M29" s="71"/>
       <c r="N29" s="71"/>
-      <c r="O29" s="161" t="s">
-        <v>288</v>
-      </c>
+      <c r="P29" s="164"/>
       <c r="Q29" s="83"/>
       <c r="R29" s="83"/>
       <c r="S29" s="83"/>
@@ -10994,13 +11007,11 @@
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
     </row>
-    <row r="30" spans="2:31" ht="18" thickBot="1">
-      <c r="B30" s="154"/>
-      <c r="C30" s="158" t="s">
-        <v>273</v>
-      </c>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
+    <row r="30" spans="2:31" ht="15.6" customHeight="1">
+      <c r="B30" s="155"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="109"/>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
       <c r="H30" s="71"/>
@@ -11010,9 +11021,7 @@
       <c r="L30" s="71"/>
       <c r="M30" s="71"/>
       <c r="N30" s="71"/>
-      <c r="O30" s="161" t="s">
-        <v>289</v>
-      </c>
+      <c r="P30" s="164"/>
       <c r="Q30" s="83"/>
       <c r="R30" s="83"/>
       <c r="S30" s="83"/>
@@ -11029,27 +11038,21 @@
       <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
     </row>
-    <row r="31" spans="2:31" ht="17">
-      <c r="B31" s="155" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="103" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="92" t="s">
-        <v>285</v>
-      </c>
+    <row r="31" spans="2:31" ht="15.6" customHeight="1">
+      <c r="B31" s="155"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="P31" s="164"/>
       <c r="Q31" s="83"/>
       <c r="R31" s="83"/>
       <c r="S31" s="83"/>
@@ -11066,25 +11069,21 @@
       <c r="AD31" s="27"/>
       <c r="AE31" s="27"/>
     </row>
-    <row r="32" spans="2:31" ht="17">
-      <c r="B32" s="156"/>
-      <c r="C32" s="104" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="98"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="93" t="s">
-        <v>287</v>
-      </c>
+    <row r="32" spans="2:31" ht="15.6" customHeight="1">
+      <c r="B32" s="155"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="P32" s="164"/>
       <c r="Q32" s="83"/>
       <c r="R32" s="83"/>
       <c r="S32" s="83"/>
@@ -11101,25 +11100,21 @@
       <c r="AD32" s="27"/>
       <c r="AE32" s="27"/>
     </row>
-    <row r="33" spans="2:31" ht="18" thickBot="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="105" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="96" t="s">
-        <v>286</v>
-      </c>
+    <row r="33" spans="2:31" ht="15.6" customHeight="1">
+      <c r="B33" s="155"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="P33" s="164"/>
       <c r="Q33" s="83"/>
       <c r="R33" s="83"/>
       <c r="S33" s="83"/>
@@ -11136,22 +11131,21 @@
       <c r="AD33" s="27"/>
       <c r="AE33" s="27"/>
     </row>
-    <row r="34" spans="2:31" ht="16" customHeight="1">
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
+    <row r="34" spans="2:31" ht="15.6" customHeight="1">
+      <c r="B34" s="155"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="P34" s="164"/>
       <c r="Q34" s="83"/>
       <c r="R34" s="83"/>
       <c r="S34" s="83"/>
@@ -11168,22 +11162,21 @@
       <c r="AD34" s="27"/>
       <c r="AE34" s="27"/>
     </row>
-    <row r="35" spans="2:31">
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
+    <row r="35" spans="2:31" ht="15.6" customHeight="1">
+      <c r="B35" s="155"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="P35" s="164"/>
       <c r="Q35" s="83"/>
       <c r="R35" s="83"/>
       <c r="S35" s="83"/>
@@ -11200,22 +11193,21 @@
       <c r="AD35" s="27"/>
       <c r="AE35" s="27"/>
     </row>
-    <row r="36" spans="2:31">
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
+    <row r="36" spans="2:31" ht="15.6" customHeight="1">
+      <c r="B36" s="155"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="P36" s="164"/>
       <c r="Q36" s="83"/>
       <c r="R36" s="83"/>
       <c r="S36" s="83"/>
@@ -11232,22 +11224,21 @@
       <c r="AD36" s="27"/>
       <c r="AE36" s="27"/>
     </row>
-    <row r="37" spans="2:31">
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
+    <row r="37" spans="2:31" ht="16.05" customHeight="1" thickBot="1">
+      <c r="B37" s="155"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="P37" s="164"/>
       <c r="Q37" s="83"/>
       <c r="R37" s="83"/>
       <c r="S37" s="83"/>
@@ -11264,22 +11255,21 @@
       <c r="AD37" s="27"/>
       <c r="AE37" s="27"/>
     </row>
-    <row r="38" spans="2:31">
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
+    <row r="38" spans="2:31" ht="16.2" thickBot="1">
+      <c r="B38" s="155"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="P38" s="164"/>
       <c r="Q38" s="83"/>
       <c r="R38" s="83"/>
       <c r="S38" s="83"/>
@@ -11296,23 +11286,27 @@
       <c r="AD38" s="27"/>
       <c r="AE38" s="27"/>
     </row>
-    <row r="39" spans="2:31" ht="16" customHeight="1">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="83"/>
+    <row r="39" spans="2:31">
+      <c r="B39" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="79"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="Q39" s="165" t="s">
+        <v>284</v>
+      </c>
       <c r="R39" s="83"/>
       <c r="S39" s="83"/>
       <c r="T39" s="83"/>
@@ -11329,7 +11323,24 @@
       <c r="AE39" s="27"/>
     </row>
     <row r="40" spans="2:31">
-      <c r="Q40" s="83"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="95"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="Q40" s="166" t="s">
+        <v>286</v>
+      </c>
       <c r="R40" s="83"/>
       <c r="S40" s="83"/>
       <c r="T40" s="83"/>
@@ -11345,8 +11356,25 @@
       <c r="AD40" s="27"/>
       <c r="AE40" s="27"/>
     </row>
-    <row r="41" spans="2:31">
-      <c r="Q41" s="83"/>
+    <row r="41" spans="2:31" ht="16.2" thickBot="1">
+      <c r="B41" s="153"/>
+      <c r="C41" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="96"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
+      <c r="Q41" s="167" t="s">
+        <v>285</v>
+      </c>
       <c r="R41" s="83"/>
       <c r="S41" s="83"/>
       <c r="T41" s="83"/>
@@ -11362,7 +11390,7 @@
       <c r="AD41" s="27"/>
       <c r="AE41" s="27"/>
     </row>
-    <row r="42" spans="2:31">
+    <row r="42" spans="2:31" ht="16.05" customHeight="1">
       <c r="B42" s="84"/>
       <c r="C42" s="84"/>
       <c r="D42" s="83"/>
@@ -11522,22 +11550,22 @@
       <c r="AD46" s="27"/>
       <c r="AE46" s="27"/>
     </row>
-    <row r="47" spans="2:31">
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
+    <row r="47" spans="2:31" ht="16.05" customHeight="1">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
       <c r="Q47" s="83"/>
       <c r="R47" s="83"/>
       <c r="S47" s="83"/>
@@ -11555,21 +11583,6 @@
       <c r="AE47" s="27"/>
     </row>
     <row r="48" spans="2:31">
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
       <c r="Q48" s="83"/>
       <c r="R48" s="83"/>
       <c r="S48" s="83"/>
@@ -11587,21 +11600,6 @@
       <c r="AE48" s="27"/>
     </row>
     <row r="49" spans="2:31">
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
       <c r="Q49" s="83"/>
       <c r="R49" s="83"/>
       <c r="S49" s="83"/>
@@ -11971,6 +11969,24 @@
       <c r="AE60" s="27"/>
     </row>
     <row r="61" spans="2:31">
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
       <c r="T61" s="83"/>
       <c r="U61" s="83"/>
       <c r="V61" s="27"/>
@@ -11985,6 +12001,24 @@
       <c r="AE61" s="27"/>
     </row>
     <row r="62" spans="2:31">
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="83"/>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="83"/>
+      <c r="R62" s="83"/>
+      <c r="S62" s="83"/>
       <c r="T62" s="83"/>
       <c r="U62" s="83"/>
       <c r="V62" s="27"/>
@@ -11999,6 +12033,24 @@
       <c r="AE62" s="27"/>
     </row>
     <row r="63" spans="2:31">
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="83"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="83"/>
+      <c r="N63" s="83"/>
+      <c r="O63" s="83"/>
+      <c r="P63" s="83"/>
+      <c r="Q63" s="83"/>
+      <c r="R63" s="83"/>
+      <c r="S63" s="83"/>
       <c r="T63" s="83"/>
       <c r="U63" s="83"/>
       <c r="V63" s="27"/>
@@ -12013,6 +12065,24 @@
       <c r="AE63" s="27"/>
     </row>
     <row r="64" spans="2:31">
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="83"/>
+      <c r="O64" s="83"/>
+      <c r="P64" s="83"/>
+      <c r="Q64" s="83"/>
+      <c r="R64" s="83"/>
+      <c r="S64" s="83"/>
       <c r="T64" s="83"/>
       <c r="U64" s="83"/>
       <c r="V64" s="27"/>
@@ -12026,7 +12096,25 @@
       <c r="AD64" s="27"/>
       <c r="AE64" s="27"/>
     </row>
-    <row r="65" spans="20:31">
+    <row r="65" spans="2:31">
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="83"/>
+      <c r="N65" s="83"/>
+      <c r="O65" s="83"/>
+      <c r="P65" s="83"/>
+      <c r="Q65" s="83"/>
+      <c r="R65" s="83"/>
+      <c r="S65" s="83"/>
       <c r="T65" s="83"/>
       <c r="U65" s="83"/>
       <c r="V65" s="27"/>
@@ -12040,7 +12128,25 @@
       <c r="AD65" s="27"/>
       <c r="AE65" s="27"/>
     </row>
-    <row r="66" spans="20:31">
+    <row r="66" spans="2:31">
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="83"/>
+      <c r="O66" s="83"/>
+      <c r="P66" s="83"/>
+      <c r="Q66" s="83"/>
+      <c r="R66" s="83"/>
+      <c r="S66" s="83"/>
       <c r="T66" s="83"/>
       <c r="U66" s="83"/>
       <c r="V66" s="27"/>
@@ -12054,7 +12160,25 @@
       <c r="AD66" s="27"/>
       <c r="AE66" s="27"/>
     </row>
-    <row r="67" spans="20:31">
+    <row r="67" spans="2:31">
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
+      <c r="P67" s="83"/>
+      <c r="Q67" s="83"/>
+      <c r="R67" s="83"/>
+      <c r="S67" s="83"/>
       <c r="T67" s="83"/>
       <c r="U67" s="83"/>
       <c r="V67" s="27"/>
@@ -12068,7 +12192,25 @@
       <c r="AD67" s="27"/>
       <c r="AE67" s="27"/>
     </row>
-    <row r="68" spans="20:31">
+    <row r="68" spans="2:31">
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="83"/>
+      <c r="Q68" s="83"/>
+      <c r="R68" s="83"/>
+      <c r="S68" s="83"/>
       <c r="T68" s="83"/>
       <c r="U68" s="83"/>
       <c r="V68" s="27"/>
@@ -12082,7 +12224,7 @@
       <c r="AD68" s="27"/>
       <c r="AE68" s="27"/>
     </row>
-    <row r="69" spans="20:31">
+    <row r="69" spans="2:31">
       <c r="T69" s="83"/>
       <c r="U69" s="83"/>
       <c r="V69" s="27"/>
@@ -12096,7 +12238,7 @@
       <c r="AD69" s="27"/>
       <c r="AE69" s="27"/>
     </row>
-    <row r="70" spans="20:31">
+    <row r="70" spans="2:31">
       <c r="T70" s="83"/>
       <c r="U70" s="83"/>
       <c r="V70" s="27"/>
@@ -12110,7 +12252,7 @@
       <c r="AD70" s="27"/>
       <c r="AE70" s="27"/>
     </row>
-    <row r="71" spans="20:31">
+    <row r="71" spans="2:31">
       <c r="T71" s="83"/>
       <c r="U71" s="83"/>
       <c r="V71" s="27"/>
@@ -12124,7 +12266,7 @@
       <c r="AD71" s="27"/>
       <c r="AE71" s="27"/>
     </row>
-    <row r="72" spans="20:31">
+    <row r="72" spans="2:31">
       <c r="T72" s="83"/>
       <c r="U72" s="83"/>
       <c r="V72" s="27"/>
@@ -12138,7 +12280,7 @@
       <c r="AD72" s="27"/>
       <c r="AE72" s="27"/>
     </row>
-    <row r="73" spans="20:31">
+    <row r="73" spans="2:31">
       <c r="T73" s="83"/>
       <c r="U73" s="83"/>
       <c r="V73" s="27"/>
@@ -12152,7 +12294,7 @@
       <c r="AD73" s="27"/>
       <c r="AE73" s="27"/>
     </row>
-    <row r="74" spans="20:31">
+    <row r="74" spans="2:31">
       <c r="T74" s="83"/>
       <c r="U74" s="83"/>
       <c r="V74" s="27"/>
@@ -12166,7 +12308,7 @@
       <c r="AD74" s="27"/>
       <c r="AE74" s="27"/>
     </row>
-    <row r="75" spans="20:31">
+    <row r="75" spans="2:31">
       <c r="T75" s="83"/>
       <c r="U75" s="83"/>
       <c r="V75" s="27"/>
@@ -12180,7 +12322,7 @@
       <c r="AD75" s="27"/>
       <c r="AE75" s="27"/>
     </row>
-    <row r="76" spans="20:31">
+    <row r="76" spans="2:31">
       <c r="T76" s="83"/>
       <c r="U76" s="83"/>
       <c r="V76" s="27"/>
@@ -12194,7 +12336,7 @@
       <c r="AD76" s="27"/>
       <c r="AE76" s="27"/>
     </row>
-    <row r="77" spans="20:31">
+    <row r="77" spans="2:31">
       <c r="T77" s="83"/>
       <c r="U77" s="83"/>
       <c r="V77" s="27"/>
@@ -12208,7 +12350,7 @@
       <c r="AD77" s="27"/>
       <c r="AE77" s="27"/>
     </row>
-    <row r="78" spans="20:31">
+    <row r="78" spans="2:31">
       <c r="T78" s="83"/>
       <c r="U78" s="83"/>
       <c r="V78" s="27"/>
@@ -12222,7 +12364,7 @@
       <c r="AD78" s="27"/>
       <c r="AE78" s="27"/>
     </row>
-    <row r="79" spans="20:31">
+    <row r="79" spans="2:31">
       <c r="T79" s="83"/>
       <c r="U79" s="83"/>
       <c r="V79" s="27"/>
@@ -12236,7 +12378,7 @@
       <c r="AD79" s="27"/>
       <c r="AE79" s="27"/>
     </row>
-    <row r="80" spans="20:31">
+    <row r="80" spans="2:31">
       <c r="T80" s="83"/>
       <c r="U80" s="83"/>
       <c r="V80" s="27"/>
@@ -12405,8 +12547,8 @@
       <c r="AE91" s="27"/>
     </row>
     <row r="92" spans="20:31">
-      <c r="T92" s="27"/>
-      <c r="U92" s="27"/>
+      <c r="T92" s="83"/>
+      <c r="U92" s="83"/>
       <c r="V92" s="27"/>
       <c r="W92" s="27"/>
       <c r="X92" s="27"/>
@@ -12419,8 +12561,8 @@
       <c r="AE92" s="27"/>
     </row>
     <row r="93" spans="20:31">
-      <c r="T93" s="27"/>
-      <c r="U93" s="27"/>
+      <c r="T93" s="83"/>
+      <c r="U93" s="83"/>
       <c r="V93" s="27"/>
       <c r="W93" s="27"/>
       <c r="X93" s="27"/>
@@ -12433,8 +12575,8 @@
       <c r="AE93" s="27"/>
     </row>
     <row r="94" spans="20:31">
-      <c r="T94" s="27"/>
-      <c r="U94" s="27"/>
+      <c r="T94" s="83"/>
+      <c r="U94" s="83"/>
       <c r="V94" s="27"/>
       <c r="W94" s="27"/>
       <c r="X94" s="27"/>
@@ -12447,8 +12589,8 @@
       <c r="AE94" s="27"/>
     </row>
     <row r="95" spans="20:31">
-      <c r="T95" s="27"/>
-      <c r="U95" s="27"/>
+      <c r="T95" s="83"/>
+      <c r="U95" s="83"/>
       <c r="V95" s="27"/>
       <c r="W95" s="27"/>
       <c r="X95" s="27"/>
@@ -12461,8 +12603,8 @@
       <c r="AE95" s="27"/>
     </row>
     <row r="96" spans="20:31">
-      <c r="T96" s="27"/>
-      <c r="U96" s="27"/>
+      <c r="T96" s="83"/>
+      <c r="U96" s="83"/>
       <c r="V96" s="27"/>
       <c r="W96" s="27"/>
       <c r="X96" s="27"/>
@@ -12475,8 +12617,8 @@
       <c r="AE96" s="27"/>
     </row>
     <row r="97" spans="20:31">
-      <c r="T97" s="27"/>
-      <c r="U97" s="27"/>
+      <c r="T97" s="83"/>
+      <c r="U97" s="83"/>
       <c r="V97" s="27"/>
       <c r="W97" s="27"/>
       <c r="X97" s="27"/>
@@ -12489,8 +12631,8 @@
       <c r="AE97" s="27"/>
     </row>
     <row r="98" spans="20:31">
-      <c r="T98" s="27"/>
-      <c r="U98" s="27"/>
+      <c r="T98" s="83"/>
+      <c r="U98" s="83"/>
       <c r="V98" s="27"/>
       <c r="W98" s="27"/>
       <c r="X98" s="27"/>
@@ -12503,8 +12645,8 @@
       <c r="AE98" s="27"/>
     </row>
     <row r="99" spans="20:31">
-      <c r="T99" s="27"/>
-      <c r="U99" s="27"/>
+      <c r="T99" s="83"/>
+      <c r="U99" s="83"/>
       <c r="V99" s="27"/>
       <c r="W99" s="27"/>
       <c r="X99" s="27"/>
@@ -12600,10 +12742,122 @@
       <c r="AD105" s="27"/>
       <c r="AE105" s="27"/>
     </row>
+    <row r="106" spans="20:31">
+      <c r="T106" s="27"/>
+      <c r="U106" s="27"/>
+      <c r="V106" s="27"/>
+      <c r="W106" s="27"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="27"/>
+      <c r="AC106" s="27"/>
+      <c r="AD106" s="27"/>
+      <c r="AE106" s="27"/>
+    </row>
+    <row r="107" spans="20:31">
+      <c r="T107" s="27"/>
+      <c r="U107" s="27"/>
+      <c r="V107" s="27"/>
+      <c r="W107" s="27"/>
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="27"/>
+      <c r="AD107" s="27"/>
+      <c r="AE107" s="27"/>
+    </row>
+    <row r="108" spans="20:31">
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="27"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="27"/>
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="27"/>
+      <c r="AE108" s="27"/>
+    </row>
+    <row r="109" spans="20:31">
+      <c r="T109" s="27"/>
+      <c r="U109" s="27"/>
+      <c r="V109" s="27"/>
+      <c r="W109" s="27"/>
+      <c r="X109" s="27"/>
+      <c r="Y109" s="27"/>
+      <c r="Z109" s="27"/>
+      <c r="AA109" s="27"/>
+      <c r="AB109" s="27"/>
+      <c r="AC109" s="27"/>
+      <c r="AD109" s="27"/>
+      <c r="AE109" s="27"/>
+    </row>
+    <row r="110" spans="20:31">
+      <c r="T110" s="27"/>
+      <c r="U110" s="27"/>
+      <c r="V110" s="27"/>
+      <c r="W110" s="27"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="27"/>
+      <c r="AA110" s="27"/>
+      <c r="AB110" s="27"/>
+      <c r="AC110" s="27"/>
+      <c r="AD110" s="27"/>
+      <c r="AE110" s="27"/>
+    </row>
+    <row r="111" spans="20:31">
+      <c r="T111" s="27"/>
+      <c r="U111" s="27"/>
+      <c r="V111" s="27"/>
+      <c r="W111" s="27"/>
+      <c r="X111" s="27"/>
+      <c r="Y111" s="27"/>
+      <c r="Z111" s="27"/>
+      <c r="AA111" s="27"/>
+      <c r="AB111" s="27"/>
+      <c r="AC111" s="27"/>
+      <c r="AD111" s="27"/>
+      <c r="AE111" s="27"/>
+    </row>
+    <row r="112" spans="20:31">
+      <c r="T112" s="27"/>
+      <c r="U112" s="27"/>
+      <c r="V112" s="27"/>
+      <c r="W112" s="27"/>
+      <c r="X112" s="27"/>
+      <c r="Y112" s="27"/>
+      <c r="Z112" s="27"/>
+      <c r="AA112" s="27"/>
+      <c r="AB112" s="27"/>
+      <c r="AC112" s="27"/>
+      <c r="AD112" s="27"/>
+      <c r="AE112" s="27"/>
+    </row>
+    <row r="113" spans="20:31">
+      <c r="T113" s="27"/>
+      <c r="U113" s="27"/>
+      <c r="V113" s="27"/>
+      <c r="W113" s="27"/>
+      <c r="X113" s="27"/>
+      <c r="Y113" s="27"/>
+      <c r="Z113" s="27"/>
+      <c r="AA113" s="27"/>
+      <c r="AB113" s="27"/>
+      <c r="AC113" s="27"/>
+      <c r="AD113" s="27"/>
+      <c r="AE113" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B29:B38"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="B21:B28"/>

--- a/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
+++ b/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Documents\GitHub\nmcuration\in-progress\Koerner_2005_Polymer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisondavis/Documents/GitHub/nmcuration/in-progress/Koerner_2005_Polymer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B4717-19AB-4CEF-A92F-582BC81E9146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5B7AFB-FBE7-AB42-9587-A4F692DB76ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Curation" sheetId="1" r:id="rId1"/>
     <sheet name="Tidy Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1931,6 +1933,45 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1938,6 +1979,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1966,93 +2061,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2087,12 +2095,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2413,36 +2415,36 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="65" customWidth="1"/>
-    <col min="3" max="3" width="121.796875" customWidth="1"/>
-    <col min="5" max="5" width="29.69921875" customWidth="1"/>
-    <col min="6" max="6" width="25.296875" customWidth="1"/>
+    <col min="3" max="3" width="121.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="29.796875" customWidth="1"/>
-    <col min="9" max="9" width="28.19921875" customWidth="1"/>
-    <col min="10" max="10" width="27.19921875" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" customWidth="1"/>
     <col min="11" max="11" width="28.5" customWidth="1"/>
     <col min="12" max="12" width="27.5" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="28.296875" customWidth="1"/>
-    <col min="15" max="15" width="29.796875" customWidth="1"/>
-    <col min="16" max="16" width="27.796875" customWidth="1"/>
-    <col min="17" max="17" width="27.19921875" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1"/>
+    <col min="15" max="15" width="29.83203125" customWidth="1"/>
+    <col min="16" max="16" width="27.83203125" customWidth="1"/>
+    <col min="17" max="17" width="27.1640625" customWidth="1"/>
     <col min="18" max="18" width="28.5" customWidth="1"/>
     <col min="19" max="19" width="27.5" customWidth="1"/>
-    <col min="20" max="20" width="29.796875" customWidth="1"/>
+    <col min="20" max="20" width="29.83203125" customWidth="1"/>
     <col min="21" max="21" width="28" customWidth="1"/>
-    <col min="22" max="22" width="26.796875" customWidth="1"/>
-    <col min="23" max="23" width="28.19921875" customWidth="1"/>
-    <col min="24" max="24" width="25.69921875" customWidth="1"/>
-    <col min="25" max="25" width="24.69921875" customWidth="1"/>
+    <col min="22" max="22" width="26.83203125" customWidth="1"/>
+    <col min="23" max="23" width="28.1640625" customWidth="1"/>
+    <col min="24" max="24" width="25.6640625" customWidth="1"/>
+    <col min="25" max="25" width="24.6640625" customWidth="1"/>
     <col min="26" max="26" width="21" customWidth="1"/>
-    <col min="27" max="27" width="26.19921875" customWidth="1"/>
+    <col min="27" max="27" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="16.2" thickBot="1"/>
+    <row r="1" spans="2:26" ht="17" thickBot="1"/>
     <row r="2" spans="2:26">
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -2459,7 +2461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="16.2" thickBot="1">
+    <row r="4" spans="2:26" ht="17" thickBot="1">
       <c r="B4" s="13" t="s">
         <v>47</v>
       </c>
@@ -2467,8 +2469,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="16.2" thickBot="1"/>
-    <row r="6" spans="2:26" ht="16.2" thickBot="1">
+    <row r="5" spans="2:26" ht="17" thickBot="1"/>
+    <row r="6" spans="2:26" ht="17" thickBot="1">
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
@@ -2476,7 +2478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="16.2" thickBot="1">
+    <row r="7" spans="2:26" ht="17" thickBot="1">
       <c r="B7" s="20" t="s">
         <v>60</v>
       </c>
@@ -2484,8 +2486,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B8" s="127" t="s">
+    <row r="8" spans="2:26" ht="17" thickBot="1">
+      <c r="B8" s="130" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2498,19 +2500,19 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B9" s="128"/>
+    <row r="9" spans="2:26" ht="17" thickBot="1">
+      <c r="B9" s="125"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="130"/>
-      <c r="G9" s="123"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="147"/>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="128"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2523,41 +2525,41 @@
       <c r="G10" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="122" t="s">
+      <c r="J10" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="123"/>
-      <c r="L10" s="122" t="s">
+      <c r="K10" s="147"/>
+      <c r="L10" s="145" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="123"/>
-      <c r="N10" s="122" t="s">
+      <c r="M10" s="147"/>
+      <c r="N10" s="145" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="123"/>
-      <c r="P10" s="122" t="s">
+      <c r="O10" s="147"/>
+      <c r="P10" s="145" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="122" t="s">
+      <c r="Q10" s="147"/>
+      <c r="R10" s="145" t="s">
         <v>183</v>
       </c>
-      <c r="S10" s="123"/>
-      <c r="U10" s="118" t="s">
+      <c r="S10" s="147"/>
+      <c r="U10" s="153" t="s">
         <v>253</v>
       </c>
-      <c r="V10" s="119"/>
-      <c r="W10" s="118" t="s">
+      <c r="V10" s="154"/>
+      <c r="W10" s="153" t="s">
         <v>255</v>
       </c>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="121" t="s">
+      <c r="X10" s="155"/>
+      <c r="Y10" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="Z10" s="120"/>
-    </row>
-    <row r="11" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B11" s="128"/>
+      <c r="Z10" s="155"/>
+    </row>
+    <row r="11" spans="2:26" ht="17" thickBot="1">
+      <c r="B11" s="125"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2614,7 +2616,7 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="B12" s="128"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2677,7 +2679,7 @@
       </c>
     </row>
     <row r="13" spans="2:26">
-      <c r="B13" s="128"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2739,11 +2741,11 @@
         <v>15.594099</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B14" s="137" t="s">
+    <row r="14" spans="2:26" ht="16" customHeight="1">
+      <c r="B14" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="132" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2804,9 +2806,9 @@
         <v>17.235134599999999</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
+    <row r="15" spans="2:26" ht="16" customHeight="1">
+      <c r="B15" s="131"/>
+      <c r="C15" s="132"/>
       <c r="E15" s="12" t="s">
         <v>170</v>
       </c>
@@ -2866,8 +2868,8 @@
       </c>
     </row>
     <row r="16" spans="2:26">
-      <c r="B16" s="137"/>
-      <c r="C16" s="138"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
       <c r="E16" s="12" t="s">
         <v>171</v>
       </c>
@@ -2927,8 +2929,8 @@
       </c>
     </row>
     <row r="17" spans="2:26">
-      <c r="B17" s="137"/>
-      <c r="C17" s="138"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="132"/>
       <c r="E17" s="12" t="s">
         <v>172</v>
       </c>
@@ -2988,10 +2990,10 @@
       </c>
     </row>
     <row r="18" spans="2:26">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="133" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -3053,8 +3055,8 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="B19" s="136"/>
-      <c r="C19" s="125"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="133"/>
       <c r="E19" s="12" t="s">
         <v>174</v>
       </c>
@@ -3113,9 +3115,9 @@
         <v>27.234399400000001</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B20" s="136"/>
-      <c r="C20" s="125"/>
+    <row r="20" spans="2:26" ht="17" thickBot="1">
+      <c r="B20" s="134"/>
+      <c r="C20" s="133"/>
       <c r="E20" s="12" t="s">
         <v>175</v>
       </c>
@@ -3174,7 +3176,7 @@
         <v>28.277905100000002</v>
       </c>
     </row>
-    <row r="21" spans="2:26" ht="16.2" thickBot="1">
+    <row r="21" spans="2:26" ht="17" thickBot="1">
       <c r="B21" s="20" t="s">
         <v>62</v>
       </c>
@@ -3240,10 +3242,10 @@
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="132" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="12">
@@ -3295,9 +3297,9 @@
         <v>29.915945600000001</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B23" s="137"/>
-      <c r="C23" s="138"/>
+    <row r="23" spans="2:26" ht="17" thickBot="1">
+      <c r="B23" s="131"/>
+      <c r="C23" s="132"/>
       <c r="J23" s="12">
         <v>1.35455762059425</v>
       </c>
@@ -3347,15 +3349,15 @@
         <v>30.0627073</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B24" s="137"/>
-      <c r="C24" s="138"/>
-      <c r="E24" s="110" t="s">
+    <row r="24" spans="2:26" ht="16" customHeight="1" thickBot="1">
+      <c r="B24" s="131"/>
+      <c r="C24" s="132"/>
+      <c r="E24" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="129"/>
       <c r="J24" s="12">
         <v>1.39607392036569</v>
       </c>
@@ -3405,9 +3407,9 @@
         <v>31.4021325</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B25" s="137"/>
-      <c r="C25" s="138"/>
+    <row r="25" spans="2:26" ht="17" thickBot="1">
+      <c r="B25" s="131"/>
+      <c r="C25" s="132"/>
       <c r="E25" s="41" t="s">
         <v>163</v>
       </c>
@@ -3470,10 +3472,10 @@
       </c>
     </row>
     <row r="26" spans="2:26">
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="133" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="32" t="s">
@@ -3538,8 +3540,8 @@
       </c>
     </row>
     <row r="27" spans="2:26">
-      <c r="B27" s="128"/>
-      <c r="C27" s="125"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="133"/>
       <c r="E27" s="12" t="s">
         <v>189</v>
       </c>
@@ -3602,10 +3604,10 @@
       </c>
     </row>
     <row r="28" spans="2:26">
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="135" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -3670,8 +3672,8 @@
       </c>
     </row>
     <row r="29" spans="2:26">
-      <c r="B29" s="137"/>
-      <c r="C29" s="140"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="136"/>
       <c r="E29" s="12" t="s">
         <v>191</v>
       </c>
@@ -3734,8 +3736,8 @@
       </c>
     </row>
     <row r="30" spans="2:26">
-      <c r="B30" s="137"/>
-      <c r="C30" s="140"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="136"/>
       <c r="E30" s="12" t="s">
         <v>192</v>
       </c>
@@ -3798,8 +3800,8 @@
       </c>
     </row>
     <row r="31" spans="2:26">
-      <c r="B31" s="137"/>
-      <c r="C31" s="141"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="137"/>
       <c r="E31" s="12" t="s">
         <v>193</v>
       </c>
@@ -3861,11 +3863,11 @@
         <v>42.536554299999999</v>
       </c>
     </row>
-    <row r="32" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B32" s="128" t="s">
+    <row r="32" spans="2:26" ht="17" thickBot="1">
+      <c r="B32" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3929,9 +3931,9 @@
         <v>44.019746099999999</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B33" s="128"/>
-      <c r="C33" s="125"/>
+    <row r="33" spans="2:26" ht="17" thickBot="1">
+      <c r="B33" s="125"/>
+      <c r="C33" s="133"/>
       <c r="J33" s="12">
         <v>1.76972061830867</v>
       </c>
@@ -3981,15 +3983,15 @@
         <v>43.709449900000003</v>
       </c>
     </row>
-    <row r="34" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B34" s="128"/>
-      <c r="C34" s="125"/>
-      <c r="E34" s="110" t="s">
+    <row r="34" spans="2:26" ht="17" thickBot="1">
+      <c r="B34" s="125"/>
+      <c r="C34" s="133"/>
+      <c r="E34" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="112"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="129"/>
       <c r="J34" s="12">
         <v>1.81123691808011</v>
       </c>
@@ -4021,11 +4023,11 @@
         <v>2.7804914799999998</v>
       </c>
     </row>
-    <row r="35" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B35" s="137" t="s">
+    <row r="35" spans="2:26" ht="17" thickBot="1">
+      <c r="B35" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="138" t="s">
+      <c r="C35" s="132" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="41" t="s">
@@ -4072,8 +4074,8 @@
       </c>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="137"/>
-      <c r="C36" s="138"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="132"/>
       <c r="E36" s="32" t="s">
         <v>197</v>
       </c>
@@ -4118,8 +4120,8 @@
       </c>
     </row>
     <row r="37" spans="2:26">
-      <c r="B37" s="137"/>
-      <c r="C37" s="138"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="132"/>
       <c r="E37" s="12" t="s">
         <v>198</v>
       </c>
@@ -4163,11 +4165,11 @@
         <v>2.8744146100000001</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B38" s="128" t="s">
+    <row r="38" spans="2:26" ht="16" customHeight="1">
+      <c r="B38" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="133" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -4214,8 +4216,8 @@
       </c>
     </row>
     <row r="39" spans="2:26">
-      <c r="B39" s="128"/>
-      <c r="C39" s="125"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="133"/>
       <c r="E39" s="12" t="s">
         <v>200</v>
       </c>
@@ -4260,8 +4262,8 @@
       </c>
     </row>
     <row r="40" spans="2:26">
-      <c r="B40" s="128"/>
-      <c r="C40" s="125"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="133"/>
       <c r="E40" s="12" t="s">
         <v>201</v>
       </c>
@@ -4310,8 +4312,8 @@
       <c r="X40" s="27"/>
     </row>
     <row r="41" spans="2:26">
-      <c r="B41" s="128"/>
-      <c r="C41" s="125"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="133"/>
       <c r="E41" s="12" t="s">
         <v>202</v>
       </c>
@@ -4359,9 +4361,9 @@
       <c r="W41" s="27"/>
       <c r="X41" s="27"/>
     </row>
-    <row r="42" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B42" s="128"/>
-      <c r="C42" s="125"/>
+    <row r="42" spans="2:26" ht="17" thickBot="1">
+      <c r="B42" s="125"/>
+      <c r="C42" s="133"/>
       <c r="E42" s="13" t="s">
         <v>203</v>
       </c>
@@ -4409,9 +4411,9 @@
       <c r="W42" s="27"/>
       <c r="X42" s="27"/>
     </row>
-    <row r="43" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B43" s="128"/>
-      <c r="C43" s="125"/>
+    <row r="43" spans="2:26" ht="17" thickBot="1">
+      <c r="B43" s="125"/>
+      <c r="C43" s="133"/>
       <c r="E43" s="41" t="s">
         <v>163</v>
       </c>
@@ -4460,10 +4462,10 @@
       <c r="X43" s="27"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="B44" s="137" t="s">
+      <c r="B44" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="138" t="s">
+      <c r="C44" s="132" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="36" t="s">
@@ -4513,9 +4515,9 @@
       <c r="W44" s="27"/>
       <c r="X44" s="27"/>
     </row>
-    <row r="45" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B45" s="137"/>
-      <c r="C45" s="138"/>
+    <row r="45" spans="2:26" ht="16" customHeight="1">
+      <c r="B45" s="131"/>
+      <c r="C45" s="132"/>
       <c r="E45" s="38" t="s">
         <v>205</v>
       </c>
@@ -4564,8 +4566,8 @@
       <c r="X45" s="27"/>
     </row>
     <row r="46" spans="2:26">
-      <c r="B46" s="137"/>
-      <c r="C46" s="138"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="132"/>
       <c r="E46" s="38" t="s">
         <v>206</v>
       </c>
@@ -4613,9 +4615,9 @@
       <c r="W46" s="27"/>
       <c r="X46" s="27"/>
     </row>
-    <row r="47" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B47" s="137"/>
-      <c r="C47" s="138"/>
+    <row r="47" spans="2:26" ht="17" thickBot="1">
+      <c r="B47" s="131"/>
+      <c r="C47" s="132"/>
       <c r="E47" s="38" t="s">
         <v>207</v>
       </c>
@@ -4664,8 +4666,8 @@
       <c r="X47" s="27"/>
     </row>
     <row r="48" spans="2:26">
-      <c r="B48" s="137"/>
-      <c r="C48" s="138"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="132"/>
       <c r="E48" s="38" t="s">
         <v>208</v>
       </c>
@@ -4684,8 +4686,8 @@
       <c r="X48" s="27"/>
     </row>
     <row r="49" spans="2:24">
-      <c r="B49" s="137"/>
-      <c r="C49" s="138"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="132"/>
       <c r="E49" s="38" t="s">
         <v>209</v>
       </c>
@@ -4703,9 +4705,9 @@
       <c r="W49" s="27"/>
       <c r="X49" s="27"/>
     </row>
-    <row r="50" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B50" s="137"/>
-      <c r="C50" s="138"/>
+    <row r="50" spans="2:24" ht="17" thickBot="1">
+      <c r="B50" s="131"/>
+      <c r="C50" s="132"/>
       <c r="E50" s="39" t="s">
         <v>210</v>
       </c>
@@ -4723,35 +4725,35 @@
       <c r="W50" s="27"/>
       <c r="X50" s="27"/>
     </row>
-    <row r="51" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B51" s="137"/>
-      <c r="C51" s="138"/>
+    <row r="51" spans="2:24" ht="17" thickBot="1">
+      <c r="B51" s="131"/>
+      <c r="C51" s="132"/>
       <c r="U51" s="27"/>
       <c r="V51" s="27"/>
       <c r="W51" s="27"/>
       <c r="X51" s="27"/>
     </row>
-    <row r="52" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B52" s="128" t="s">
+    <row r="52" spans="2:24" ht="17" thickBot="1">
+      <c r="B52" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="125" t="s">
+      <c r="C52" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="110" t="s">
+      <c r="E52" s="127" t="s">
         <v>212</v>
       </c>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="112"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="129"/>
       <c r="U52" s="27"/>
       <c r="V52" s="27"/>
       <c r="W52" s="27"/>
       <c r="X52" s="27"/>
     </row>
-    <row r="53" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B53" s="128"/>
-      <c r="C53" s="125"/>
+    <row r="53" spans="2:24" ht="17" thickBot="1">
+      <c r="B53" s="125"/>
+      <c r="C53" s="133"/>
       <c r="E53" s="41" t="s">
         <v>163</v>
       </c>
@@ -4770,8 +4772,8 @@
       <c r="X53" s="27"/>
     </row>
     <row r="54" spans="2:24">
-      <c r="B54" s="128"/>
-      <c r="C54" s="125"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="133"/>
       <c r="E54" s="32" t="s">
         <v>213</v>
       </c>
@@ -4790,8 +4792,8 @@
       <c r="X54" s="27"/>
     </row>
     <row r="55" spans="2:24">
-      <c r="B55" s="128"/>
-      <c r="C55" s="125"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="133"/>
       <c r="E55" s="12" t="s">
         <v>214</v>
       </c>
@@ -4810,8 +4812,8 @@
       <c r="X55" s="27"/>
     </row>
     <row r="56" spans="2:24">
-      <c r="B56" s="128"/>
-      <c r="C56" s="125"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="133"/>
       <c r="E56" s="12" t="s">
         <v>215</v>
       </c>
@@ -4830,8 +4832,8 @@
       <c r="X56" s="27"/>
     </row>
     <row r="57" spans="2:24">
-      <c r="B57" s="128"/>
-      <c r="C57" s="125"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="133"/>
       <c r="E57" s="12" t="s">
         <v>216</v>
       </c>
@@ -4850,8 +4852,8 @@
       <c r="X57" s="27"/>
     </row>
     <row r="58" spans="2:24">
-      <c r="B58" s="128"/>
-      <c r="C58" s="125"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="133"/>
       <c r="E58" s="12" t="s">
         <v>217</v>
       </c>
@@ -4869,11 +4871,11 @@
       <c r="W58" s="27"/>
       <c r="X58" s="27"/>
     </row>
-    <row r="59" spans="2:24" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B59" s="137" t="s">
+    <row r="59" spans="2:24" ht="16" customHeight="1" thickBot="1">
+      <c r="B59" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="138" t="s">
+      <c r="C59" s="132" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="34" t="s">
@@ -4893,9 +4895,9 @@
       <c r="W59" s="27"/>
       <c r="X59" s="27"/>
     </row>
-    <row r="60" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B60" s="137"/>
-      <c r="C60" s="138"/>
+    <row r="60" spans="2:24" ht="17" thickBot="1">
+      <c r="B60" s="131"/>
+      <c r="C60" s="132"/>
       <c r="E60" s="41" t="s">
         <v>163</v>
       </c>
@@ -4914,8 +4916,8 @@
       <c r="X60" s="27"/>
     </row>
     <row r="61" spans="2:24">
-      <c r="B61" s="137"/>
-      <c r="C61" s="138"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="132"/>
       <c r="E61" s="44" t="s">
         <v>219</v>
       </c>
@@ -4934,8 +4936,8 @@
       <c r="X61" s="27"/>
     </row>
     <row r="62" spans="2:24">
-      <c r="B62" s="137"/>
-      <c r="C62" s="138"/>
+      <c r="B62" s="131"/>
+      <c r="C62" s="132"/>
       <c r="E62" s="38" t="s">
         <v>220</v>
       </c>
@@ -4954,8 +4956,8 @@
       <c r="X62" s="27"/>
     </row>
     <row r="63" spans="2:24">
-      <c r="B63" s="137"/>
-      <c r="C63" s="138"/>
+      <c r="B63" s="131"/>
+      <c r="C63" s="132"/>
       <c r="E63" s="38" t="s">
         <v>221</v>
       </c>
@@ -4973,7 +4975,7 @@
       <c r="W63" s="27"/>
       <c r="X63" s="27"/>
     </row>
-    <row r="64" spans="2:24">
+    <row r="64" spans="2:24" ht="17">
       <c r="B64" s="7" t="s">
         <v>36</v>
       </c>
@@ -4998,10 +5000,10 @@
       <c r="X64" s="27"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="128" t="s">
+      <c r="B65" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="125" t="s">
+      <c r="C65" s="133" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="38" t="s">
@@ -5017,9 +5019,9 @@
         <v>2.2318772748788098</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B66" s="128"/>
-      <c r="C66" s="125"/>
+    <row r="66" spans="2:8" ht="17" thickBot="1">
+      <c r="B66" s="125"/>
+      <c r="C66" s="133"/>
       <c r="E66" s="39" t="s">
         <v>224</v>
       </c>
@@ -5033,7 +5035,7 @@
         <v>2.2206346809865001</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="16.2" thickBot="1">
+    <row r="67" spans="2:8" ht="17" thickBot="1">
       <c r="B67" s="9" t="s">
         <v>26</v>
       </c>
@@ -5045,23 +5047,23 @@
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
     </row>
-    <row r="68" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B68" s="128" t="s">
+    <row r="68" spans="2:8" ht="17" thickBot="1">
+      <c r="B68" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="125" t="s">
+      <c r="C68" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="110" t="s">
+      <c r="E68" s="127" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="111"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="112"/>
-    </row>
-    <row r="69" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B69" s="128"/>
-      <c r="C69" s="125"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
+      <c r="H68" s="129"/>
+    </row>
+    <row r="69" spans="2:8" ht="17" thickBot="1">
+      <c r="B69" s="125"/>
+      <c r="C69" s="133"/>
       <c r="E69" s="41" t="s">
         <v>163</v>
       </c>
@@ -5076,8 +5078,8 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="128"/>
-      <c r="C70" s="125"/>
+      <c r="B70" s="125"/>
+      <c r="C70" s="133"/>
       <c r="E70" s="32" t="s">
         <v>228</v>
       </c>
@@ -5092,8 +5094,8 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="128"/>
-      <c r="C71" s="125"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="133"/>
       <c r="E71" s="12" t="s">
         <v>229</v>
       </c>
@@ -5108,8 +5110,8 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="128"/>
-      <c r="C72" s="125"/>
+      <c r="B72" s="125"/>
+      <c r="C72" s="133"/>
       <c r="E72" s="12" t="s">
         <v>230</v>
       </c>
@@ -5124,7 +5126,7 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="128" t="s">
+      <c r="B73" s="125" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -5143,8 +5145,8 @@
         <v>31.190476190476101</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B74" s="128"/>
+    <row r="74" spans="2:8" ht="17" thickBot="1">
+      <c r="B74" s="125"/>
       <c r="C74" s="11" t="s">
         <v>42</v>
       </c>
@@ -5161,9 +5163,9 @@
         <v>28.214285714285701</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B75" s="128"/>
-      <c r="C75" s="125" t="s">
+    <row r="75" spans="2:8" ht="17" thickBot="1">
+      <c r="B75" s="125"/>
+      <c r="C75" s="133" t="s">
         <v>44</v>
       </c>
       <c r="E75" s="41" t="s">
@@ -5180,8 +5182,8 @@
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="128"/>
-      <c r="C76" s="125"/>
+      <c r="B76" s="125"/>
+      <c r="C76" s="133"/>
       <c r="E76" s="44" t="s">
         <v>233</v>
       </c>
@@ -5196,8 +5198,8 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="128"/>
-      <c r="C77" s="125"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="133"/>
       <c r="E77" s="38" t="s">
         <v>234</v>
       </c>
@@ -5212,10 +5214,10 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="128" t="s">
+      <c r="B78" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="125" t="s">
+      <c r="C78" s="133" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="38" t="s">
@@ -5231,9 +5233,9 @@
         <v>13.194259746472101</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B79" s="128"/>
-      <c r="C79" s="125"/>
+    <row r="79" spans="2:8" ht="17" thickBot="1">
+      <c r="B79" s="125"/>
+      <c r="C79" s="133"/>
       <c r="E79" s="39" t="s">
         <v>236</v>
       </c>
@@ -5248,32 +5250,32 @@
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="128"/>
-      <c r="C80" s="125"/>
-    </row>
-    <row r="81" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B81" s="128"/>
-      <c r="C81" s="125"/>
+      <c r="B80" s="125"/>
+      <c r="C80" s="133"/>
+    </row>
+    <row r="81" spans="2:8" ht="17" thickBot="1">
+      <c r="B81" s="125"/>
+      <c r="C81" s="133"/>
       <c r="E81" s="27"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
       <c r="H81" s="26"/>
     </row>
-    <row r="82" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B82" s="128"/>
-      <c r="C82" s="125"/>
-      <c r="E82" s="110" t="s">
+    <row r="82" spans="2:8" ht="17" thickBot="1">
+      <c r="B82" s="125"/>
+      <c r="C82" s="133"/>
+      <c r="E82" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="F82" s="111"/>
-      <c r="G82" s="111"/>
-      <c r="H82" s="112"/>
-    </row>
-    <row r="83" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B83" s="128" t="s">
+      <c r="F82" s="128"/>
+      <c r="G82" s="128"/>
+      <c r="H82" s="129"/>
+    </row>
+    <row r="83" spans="2:8" ht="17" thickBot="1">
+      <c r="B83" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="125" t="s">
+      <c r="C83" s="133" t="s">
         <v>49</v>
       </c>
       <c r="E83" s="16" t="s">
@@ -5289,19 +5291,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B84" s="128"/>
-      <c r="C84" s="125"/>
-      <c r="E84" s="113" t="s">
+    <row r="84" spans="2:8" ht="17" thickBot="1">
+      <c r="B84" s="125"/>
+      <c r="C84" s="133"/>
+      <c r="E84" s="148" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="114"/>
-      <c r="G84" s="114"/>
-      <c r="H84" s="115"/>
+      <c r="F84" s="149"/>
+      <c r="G84" s="149"/>
+      <c r="H84" s="150"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="128"/>
-      <c r="C85" s="125"/>
+      <c r="B85" s="125"/>
+      <c r="C85" s="133"/>
       <c r="E85" s="32" t="s">
         <v>240</v>
       </c>
@@ -5316,10 +5318,10 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="128" t="s">
+      <c r="B86" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="125" t="s">
+      <c r="C86" s="133" t="s">
         <v>52</v>
       </c>
       <c r="E86" s="12" t="s">
@@ -5336,8 +5338,8 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="128"/>
-      <c r="C87" s="125"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="133"/>
       <c r="E87" s="12" t="s">
         <v>242</v>
       </c>
@@ -5352,8 +5354,8 @@
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="128"/>
-      <c r="C88" s="125"/>
+      <c r="B88" s="125"/>
+      <c r="C88" s="133"/>
       <c r="E88" s="12" t="s">
         <v>244</v>
       </c>
@@ -5367,11 +5369,11 @@
         <v>15.2380952380952</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B89" s="128" t="s">
+    <row r="89" spans="2:8" ht="17" thickBot="1">
+      <c r="B89" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="125" t="s">
+      <c r="C89" s="133" t="s">
         <v>53</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -5387,19 +5389,19 @@
         <v>14.2312925170068</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B90" s="128"/>
-      <c r="C90" s="125"/>
-      <c r="E90" s="113" t="s">
+    <row r="90" spans="2:8" ht="17" thickBot="1">
+      <c r="B90" s="125"/>
+      <c r="C90" s="133"/>
+      <c r="E90" s="148" t="s">
         <v>252</v>
       </c>
-      <c r="F90" s="116"/>
-      <c r="G90" s="116"/>
-      <c r="H90" s="117"/>
+      <c r="F90" s="151"/>
+      <c r="G90" s="151"/>
+      <c r="H90" s="152"/>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="128"/>
-      <c r="C91" s="125"/>
+      <c r="B91" s="125"/>
+      <c r="C91" s="133"/>
       <c r="E91" s="44" t="s">
         <v>245</v>
       </c>
@@ -5414,10 +5416,10 @@
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="128" t="s">
+      <c r="B92" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="125" t="s">
+      <c r="C92" s="133" t="s">
         <v>55</v>
       </c>
       <c r="E92" s="38" t="s">
@@ -5434,8 +5436,8 @@
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="128"/>
-      <c r="C93" s="125"/>
+      <c r="B93" s="125"/>
+      <c r="C93" s="133"/>
       <c r="E93" s="38" t="s">
         <v>247</v>
       </c>
@@ -5450,8 +5452,8 @@
       </c>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="128"/>
-      <c r="C94" s="125"/>
+      <c r="B94" s="125"/>
+      <c r="C94" s="133"/>
       <c r="E94" s="38" t="s">
         <v>248</v>
       </c>
@@ -5465,8 +5467,8 @@
         <v>4.8435374149659802</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B95" s="128" t="s">
+    <row r="95" spans="2:8" ht="17" thickBot="1">
+      <c r="B95" s="125" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -5486,16 +5488,16 @@
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="128"/>
-      <c r="C96" s="125" t="s">
+      <c r="B96" s="125"/>
+      <c r="C96" s="133" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B97" s="129"/>
-      <c r="C97" s="126"/>
-    </row>
-    <row r="98" spans="2:27" ht="16.2" thickBot="1">
+    <row r="97" spans="2:27" ht="17" thickBot="1">
+      <c r="B97" s="126"/>
+      <c r="C97" s="139"/>
+    </row>
+    <row r="98" spans="2:27" ht="17" thickBot="1">
       <c r="B98" s="18" t="s">
         <v>59</v>
       </c>
@@ -5504,53 +5506,53 @@
       </c>
     </row>
     <row r="99" spans="2:27">
-      <c r="B99" s="127" t="s">
+      <c r="B99" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="124" t="s">
+      <c r="C99" s="138" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B100" s="128"/>
-      <c r="C100" s="125"/>
-    </row>
-    <row r="101" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B101" s="128" t="s">
+    <row r="100" spans="2:27" ht="17" thickBot="1">
+      <c r="B100" s="125"/>
+      <c r="C100" s="133"/>
+    </row>
+    <row r="101" spans="2:27" ht="17" thickBot="1">
+      <c r="B101" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C101" s="125" t="s">
+      <c r="C101" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="E101" s="110" t="s">
+      <c r="E101" s="127" t="s">
         <v>259</v>
       </c>
-      <c r="F101" s="111"/>
-      <c r="G101" s="111"/>
-      <c r="H101" s="111"/>
-      <c r="I101" s="111"/>
-      <c r="J101" s="111"/>
-      <c r="K101" s="111"/>
-      <c r="L101" s="111"/>
-      <c r="M101" s="111"/>
-      <c r="N101" s="111"/>
-      <c r="O101" s="111"/>
-      <c r="P101" s="111"/>
-      <c r="Q101" s="111"/>
-      <c r="R101" s="111"/>
-      <c r="S101" s="111"/>
-      <c r="T101" s="111"/>
-      <c r="U101" s="111"/>
-      <c r="V101" s="111"/>
-      <c r="W101" s="111"/>
-      <c r="X101" s="111"/>
-      <c r="Y101" s="111"/>
-      <c r="Z101" s="111"/>
-      <c r="AA101" s="112"/>
-    </row>
-    <row r="102" spans="2:27" ht="16.95" customHeight="1" thickBot="1">
-      <c r="B102" s="128"/>
-      <c r="C102" s="125"/>
+      <c r="F101" s="128"/>
+      <c r="G101" s="128"/>
+      <c r="H101" s="128"/>
+      <c r="I101" s="128"/>
+      <c r="J101" s="128"/>
+      <c r="K101" s="128"/>
+      <c r="L101" s="128"/>
+      <c r="M101" s="128"/>
+      <c r="N101" s="128"/>
+      <c r="O101" s="128"/>
+      <c r="P101" s="128"/>
+      <c r="Q101" s="128"/>
+      <c r="R101" s="128"/>
+      <c r="S101" s="128"/>
+      <c r="T101" s="128"/>
+      <c r="U101" s="128"/>
+      <c r="V101" s="128"/>
+      <c r="W101" s="128"/>
+      <c r="X101" s="128"/>
+      <c r="Y101" s="128"/>
+      <c r="Z101" s="128"/>
+      <c r="AA101" s="129"/>
+    </row>
+    <row r="102" spans="2:27" ht="17" customHeight="1" thickBot="1">
+      <c r="B102" s="125"/>
+      <c r="C102" s="133"/>
       <c r="E102" s="41" t="s">
         <v>268</v>
       </c>
@@ -5621,14 +5623,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="2:27" ht="16.05" customHeight="1">
+    <row r="103" spans="2:27" ht="16" customHeight="1">
       <c r="B103" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E103" s="142" t="s">
+      <c r="E103" s="116" t="s">
         <v>162</v>
       </c>
       <c r="F103" s="63" t="s">
@@ -5661,13 +5663,13 @@
       <c r="AA103" s="52"/>
     </row>
     <row r="104" spans="2:27">
-      <c r="B104" s="128" t="s">
+      <c r="B104" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="125" t="s">
+      <c r="C104" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="E104" s="143"/>
+      <c r="E104" s="117"/>
       <c r="F104" s="60" t="s">
         <v>167</v>
       </c>
@@ -5698,9 +5700,9 @@
       <c r="AA104" s="53"/>
     </row>
     <row r="105" spans="2:27">
-      <c r="B105" s="128"/>
-      <c r="C105" s="125"/>
-      <c r="E105" s="143"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="133"/>
+      <c r="E105" s="117"/>
       <c r="F105" s="60" t="s">
         <v>168</v>
       </c>
@@ -5731,9 +5733,9 @@
       <c r="AA105" s="53"/>
     </row>
     <row r="106" spans="2:27">
-      <c r="B106" s="128"/>
-      <c r="C106" s="125"/>
-      <c r="E106" s="143"/>
+      <c r="B106" s="125"/>
+      <c r="C106" s="133"/>
+      <c r="E106" s="117"/>
       <c r="F106" s="60" t="s">
         <v>169</v>
       </c>
@@ -5764,13 +5766,13 @@
       <c r="AA106" s="53"/>
     </row>
     <row r="107" spans="2:27">
-      <c r="B107" s="128" t="s">
+      <c r="B107" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="C107" s="125" t="s">
+      <c r="C107" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="E107" s="143"/>
+      <c r="E107" s="117"/>
       <c r="F107" s="60" t="s">
         <v>170</v>
       </c>
@@ -5801,9 +5803,9 @@
       <c r="AA107" s="53"/>
     </row>
     <row r="108" spans="2:27">
-      <c r="B108" s="128"/>
-      <c r="C108" s="125"/>
-      <c r="E108" s="143"/>
+      <c r="B108" s="125"/>
+      <c r="C108" s="133"/>
+      <c r="E108" s="117"/>
       <c r="F108" s="60" t="s">
         <v>171</v>
       </c>
@@ -5834,9 +5836,9 @@
       <c r="AA108" s="53"/>
     </row>
     <row r="109" spans="2:27">
-      <c r="B109" s="128"/>
-      <c r="C109" s="125"/>
-      <c r="E109" s="143"/>
+      <c r="B109" s="125"/>
+      <c r="C109" s="133"/>
+      <c r="E109" s="117"/>
       <c r="F109" s="60" t="s">
         <v>172</v>
       </c>
@@ -5867,9 +5869,9 @@
       <c r="AA109" s="53"/>
     </row>
     <row r="110" spans="2:27">
-      <c r="B110" s="128"/>
-      <c r="C110" s="125"/>
-      <c r="E110" s="143"/>
+      <c r="B110" s="125"/>
+      <c r="C110" s="133"/>
+      <c r="E110" s="117"/>
       <c r="F110" s="60" t="s">
         <v>173</v>
       </c>
@@ -5900,9 +5902,9 @@
       <c r="AA110" s="53"/>
     </row>
     <row r="111" spans="2:27">
-      <c r="B111" s="128"/>
-      <c r="C111" s="125"/>
-      <c r="E111" s="143"/>
+      <c r="B111" s="125"/>
+      <c r="C111" s="133"/>
+      <c r="E111" s="117"/>
       <c r="F111" s="60" t="s">
         <v>174</v>
       </c>
@@ -5933,9 +5935,9 @@
       <c r="AA111" s="53"/>
     </row>
     <row r="112" spans="2:27">
-      <c r="B112" s="128"/>
-      <c r="C112" s="125"/>
-      <c r="E112" s="143"/>
+      <c r="B112" s="125"/>
+      <c r="C112" s="133"/>
+      <c r="E112" s="117"/>
       <c r="F112" s="60" t="s">
         <v>175</v>
       </c>
@@ -5965,10 +5967,10 @@
       <c r="Z112" s="48"/>
       <c r="AA112" s="53"/>
     </row>
-    <row r="113" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B113" s="128"/>
-      <c r="C113" s="125"/>
-      <c r="E113" s="144"/>
+    <row r="113" spans="2:27" ht="17" thickBot="1">
+      <c r="B113" s="125"/>
+      <c r="C113" s="133"/>
+      <c r="E113" s="118"/>
       <c r="F113" s="61" t="s">
         <v>176</v>
       </c>
@@ -5998,15 +6000,15 @@
       <c r="Z113" s="54"/>
       <c r="AA113" s="55"/>
     </row>
-    <row r="114" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B114" s="128" t="s">
+    <row r="114" spans="2:27" ht="16" customHeight="1">
+      <c r="B114" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="125"/>
-      <c r="E114" s="145" t="s">
+      <c r="C114" s="133"/>
+      <c r="E114" s="119" t="s">
         <v>261</v>
       </c>
-      <c r="F114" s="147" t="s">
+      <c r="F114" s="121" t="s">
         <v>262</v>
       </c>
       <c r="G114" s="50"/>
@@ -6050,10 +6052,10 @@
       <c r="AA114" s="62"/>
     </row>
     <row r="115" spans="2:27">
-      <c r="B115" s="128"/>
-      <c r="C115" s="125"/>
-      <c r="E115" s="143"/>
-      <c r="F115" s="148"/>
+      <c r="B115" s="125"/>
+      <c r="C115" s="133"/>
+      <c r="E115" s="117"/>
+      <c r="F115" s="122"/>
       <c r="G115" s="48"/>
       <c r="H115" s="48"/>
       <c r="I115" s="48"/>
@@ -6095,12 +6097,12 @@
       <c r="AA115" s="53"/>
     </row>
     <row r="116" spans="2:27">
-      <c r="B116" s="128" t="s">
+      <c r="B116" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="125"/>
-      <c r="E116" s="143"/>
-      <c r="F116" s="148"/>
+      <c r="C116" s="133"/>
+      <c r="E116" s="117"/>
+      <c r="F116" s="122"/>
       <c r="G116" s="48"/>
       <c r="H116" s="48"/>
       <c r="I116" s="48"/>
@@ -6142,10 +6144,10 @@
       <c r="AA116" s="53"/>
     </row>
     <row r="117" spans="2:27">
-      <c r="B117" s="128"/>
-      <c r="C117" s="125"/>
-      <c r="E117" s="143"/>
-      <c r="F117" s="148"/>
+      <c r="B117" s="125"/>
+      <c r="C117" s="133"/>
+      <c r="E117" s="117"/>
+      <c r="F117" s="122"/>
       <c r="G117" s="48"/>
       <c r="H117" s="48"/>
       <c r="I117" s="48"/>
@@ -6187,10 +6189,10 @@
       <c r="AA117" s="53"/>
     </row>
     <row r="118" spans="2:27">
-      <c r="B118" s="128"/>
-      <c r="C118" s="125"/>
-      <c r="E118" s="143"/>
-      <c r="F118" s="148"/>
+      <c r="B118" s="125"/>
+      <c r="C118" s="133"/>
+      <c r="E118" s="117"/>
+      <c r="F118" s="122"/>
       <c r="G118" s="48"/>
       <c r="H118" s="48"/>
       <c r="I118" s="48"/>
@@ -6232,10 +6234,10 @@
       <c r="AA118" s="53"/>
     </row>
     <row r="119" spans="2:27">
-      <c r="B119" s="128"/>
-      <c r="C119" s="125"/>
-      <c r="E119" s="143"/>
-      <c r="F119" s="148"/>
+      <c r="B119" s="125"/>
+      <c r="C119" s="133"/>
+      <c r="E119" s="117"/>
+      <c r="F119" s="122"/>
       <c r="G119" s="48"/>
       <c r="H119" s="48"/>
       <c r="I119" s="48"/>
@@ -6277,14 +6279,14 @@
       <c r="AA119" s="53"/>
     </row>
     <row r="120" spans="2:27">
-      <c r="B120" s="136" t="s">
+      <c r="B120" s="134" t="s">
         <v>26</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E120" s="143"/>
-      <c r="F120" s="148"/>
+      <c r="E120" s="117"/>
+      <c r="F120" s="122"/>
       <c r="G120" s="48"/>
       <c r="H120" s="48"/>
       <c r="I120" s="48"/>
@@ -6325,13 +6327,13 @@
       <c r="Z120" s="48"/>
       <c r="AA120" s="53"/>
     </row>
-    <row r="121" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B121" s="136"/>
-      <c r="C121" s="125" t="s">
+    <row r="121" spans="2:27" ht="16" customHeight="1">
+      <c r="B121" s="134"/>
+      <c r="C121" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="E121" s="143"/>
-      <c r="F121" s="148"/>
+      <c r="E121" s="117"/>
+      <c r="F121" s="122"/>
       <c r="G121" s="48"/>
       <c r="H121" s="48"/>
       <c r="I121" s="48"/>
@@ -6372,11 +6374,11 @@
       <c r="Z121" s="48"/>
       <c r="AA121" s="53"/>
     </row>
-    <row r="122" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B122" s="136"/>
-      <c r="C122" s="125"/>
-      <c r="E122" s="143"/>
-      <c r="F122" s="148"/>
+    <row r="122" spans="2:27" ht="16" customHeight="1">
+      <c r="B122" s="134"/>
+      <c r="C122" s="133"/>
+      <c r="E122" s="117"/>
+      <c r="F122" s="122"/>
       <c r="G122" s="48"/>
       <c r="H122" s="48"/>
       <c r="I122" s="48"/>
@@ -6417,13 +6419,13 @@
       <c r="Z122" s="48"/>
       <c r="AA122" s="53"/>
     </row>
-    <row r="123" spans="2:27" ht="16.95" customHeight="1">
-      <c r="B123" s="136"/>
+    <row r="123" spans="2:27" ht="17" customHeight="1">
+      <c r="B123" s="134"/>
       <c r="C123" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E123" s="143"/>
-      <c r="F123" s="148"/>
+      <c r="E123" s="117"/>
+      <c r="F123" s="122"/>
       <c r="G123" s="48"/>
       <c r="H123" s="48"/>
       <c r="I123" s="48"/>
@@ -6464,15 +6466,15 @@
       <c r="Z123" s="48"/>
       <c r="AA123" s="53"/>
     </row>
-    <row r="124" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B124" s="128" t="s">
+    <row r="124" spans="2:27" ht="16" customHeight="1">
+      <c r="B124" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="125" t="s">
+      <c r="C124" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="E124" s="143"/>
-      <c r="F124" s="148"/>
+      <c r="E124" s="117"/>
+      <c r="F124" s="122"/>
       <c r="G124" s="48"/>
       <c r="H124" s="48"/>
       <c r="I124" s="48"/>
@@ -6514,10 +6516,10 @@
       <c r="AA124" s="53"/>
     </row>
     <row r="125" spans="2:27">
-      <c r="B125" s="128"/>
-      <c r="C125" s="125"/>
-      <c r="E125" s="143"/>
-      <c r="F125" s="148"/>
+      <c r="B125" s="125"/>
+      <c r="C125" s="133"/>
+      <c r="E125" s="117"/>
+      <c r="F125" s="122"/>
       <c r="G125" s="48"/>
       <c r="H125" s="48"/>
       <c r="I125" s="48"/>
@@ -6559,12 +6561,12 @@
       <c r="AA125" s="53"/>
     </row>
     <row r="126" spans="2:27">
-      <c r="B126" s="128"/>
-      <c r="C126" s="125" t="s">
+      <c r="B126" s="125"/>
+      <c r="C126" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="143"/>
-      <c r="F126" s="148"/>
+      <c r="E126" s="117"/>
+      <c r="F126" s="122"/>
       <c r="G126" s="48"/>
       <c r="H126" s="48"/>
       <c r="I126" s="48"/>
@@ -6606,10 +6608,10 @@
       <c r="AA126" s="53"/>
     </row>
     <row r="127" spans="2:27">
-      <c r="B127" s="128"/>
-      <c r="C127" s="125"/>
-      <c r="E127" s="143"/>
-      <c r="F127" s="148"/>
+      <c r="B127" s="125"/>
+      <c r="C127" s="133"/>
+      <c r="E127" s="117"/>
+      <c r="F127" s="122"/>
       <c r="G127" s="48"/>
       <c r="H127" s="48"/>
       <c r="I127" s="48"/>
@@ -6651,10 +6653,10 @@
       <c r="AA127" s="53"/>
     </row>
     <row r="128" spans="2:27">
-      <c r="B128" s="128"/>
-      <c r="C128" s="125"/>
-      <c r="E128" s="143"/>
-      <c r="F128" s="148"/>
+      <c r="B128" s="125"/>
+      <c r="C128" s="133"/>
+      <c r="E128" s="117"/>
+      <c r="F128" s="122"/>
       <c r="G128" s="48"/>
       <c r="H128" s="48"/>
       <c r="I128" s="48"/>
@@ -6695,15 +6697,15 @@
       <c r="Z128" s="48"/>
       <c r="AA128" s="53"/>
     </row>
-    <row r="129" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B129" s="128" t="s">
+    <row r="129" spans="2:27" ht="16" customHeight="1">
+      <c r="B129" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="C129" s="125" t="s">
+      <c r="C129" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="E129" s="143"/>
-      <c r="F129" s="148"/>
+      <c r="E129" s="117"/>
+      <c r="F129" s="122"/>
       <c r="G129" s="48"/>
       <c r="H129" s="48"/>
       <c r="I129" s="48"/>
@@ -6745,10 +6747,10 @@
       <c r="AA129" s="53"/>
     </row>
     <row r="130" spans="2:27">
-      <c r="B130" s="128"/>
-      <c r="C130" s="125"/>
-      <c r="E130" s="143"/>
-      <c r="F130" s="148"/>
+      <c r="B130" s="125"/>
+      <c r="C130" s="133"/>
+      <c r="E130" s="117"/>
+      <c r="F130" s="122"/>
       <c r="G130" s="48"/>
       <c r="H130" s="48"/>
       <c r="I130" s="48"/>
@@ -6790,12 +6792,12 @@
       <c r="AA130" s="53"/>
     </row>
     <row r="131" spans="2:27">
-      <c r="B131" s="128" t="s">
+      <c r="B131" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="125"/>
-      <c r="E131" s="143"/>
-      <c r="F131" s="148"/>
+      <c r="C131" s="133"/>
+      <c r="E131" s="117"/>
+      <c r="F131" s="122"/>
       <c r="G131" s="48"/>
       <c r="H131" s="48"/>
       <c r="I131" s="48"/>
@@ -6837,10 +6839,10 @@
       <c r="AA131" s="53"/>
     </row>
     <row r="132" spans="2:27">
-      <c r="B132" s="128"/>
-      <c r="C132" s="125"/>
-      <c r="E132" s="143"/>
-      <c r="F132" s="148"/>
+      <c r="B132" s="125"/>
+      <c r="C132" s="133"/>
+      <c r="E132" s="117"/>
+      <c r="F132" s="122"/>
       <c r="G132" s="48"/>
       <c r="H132" s="48"/>
       <c r="I132" s="48"/>
@@ -6882,14 +6884,14 @@
       <c r="AA132" s="53"/>
     </row>
     <row r="133" spans="2:27">
-      <c r="B133" s="128" t="s">
+      <c r="B133" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="C133" s="125" t="s">
+      <c r="C133" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="E133" s="143"/>
-      <c r="F133" s="148"/>
+      <c r="E133" s="117"/>
+      <c r="F133" s="122"/>
       <c r="G133" s="48"/>
       <c r="H133" s="48"/>
       <c r="I133" s="48"/>
@@ -6931,10 +6933,10 @@
       <c r="AA133" s="53"/>
     </row>
     <row r="134" spans="2:27">
-      <c r="B134" s="128"/>
-      <c r="C134" s="125"/>
-      <c r="E134" s="143"/>
-      <c r="F134" s="148"/>
+      <c r="B134" s="125"/>
+      <c r="C134" s="133"/>
+      <c r="E134" s="117"/>
+      <c r="F134" s="122"/>
       <c r="G134" s="48"/>
       <c r="H134" s="48"/>
       <c r="I134" s="48"/>
@@ -6976,10 +6978,10 @@
       <c r="AA134" s="53"/>
     </row>
     <row r="135" spans="2:27">
-      <c r="B135" s="128"/>
-      <c r="C135" s="125"/>
-      <c r="E135" s="143"/>
-      <c r="F135" s="148"/>
+      <c r="B135" s="125"/>
+      <c r="C135" s="133"/>
+      <c r="E135" s="117"/>
+      <c r="F135" s="122"/>
       <c r="G135" s="48"/>
       <c r="H135" s="48"/>
       <c r="I135" s="48"/>
@@ -7021,14 +7023,14 @@
       <c r="AA135" s="53"/>
     </row>
     <row r="136" spans="2:27">
-      <c r="B136" s="128" t="s">
+      <c r="B136" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="C136" s="132" t="s">
+      <c r="C136" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="E136" s="143"/>
-      <c r="F136" s="148"/>
+      <c r="E136" s="117"/>
+      <c r="F136" s="122"/>
       <c r="G136" s="48"/>
       <c r="H136" s="48"/>
       <c r="I136" s="48"/>
@@ -7069,11 +7071,11 @@
       <c r="Z136" s="48"/>
       <c r="AA136" s="53"/>
     </row>
-    <row r="137" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B137" s="128"/>
-      <c r="C137" s="135"/>
-      <c r="E137" s="143"/>
-      <c r="F137" s="148"/>
+    <row r="137" spans="2:27" ht="16" customHeight="1">
+      <c r="B137" s="125"/>
+      <c r="C137" s="142"/>
+      <c r="E137" s="117"/>
+      <c r="F137" s="122"/>
       <c r="G137" s="48"/>
       <c r="H137" s="48"/>
       <c r="I137" s="48"/>
@@ -7115,10 +7117,10 @@
       <c r="AA137" s="53"/>
     </row>
     <row r="138" spans="2:27">
-      <c r="B138" s="128"/>
-      <c r="C138" s="135"/>
-      <c r="E138" s="143"/>
-      <c r="F138" s="148"/>
+      <c r="B138" s="125"/>
+      <c r="C138" s="142"/>
+      <c r="E138" s="117"/>
+      <c r="F138" s="122"/>
       <c r="G138" s="48"/>
       <c r="H138" s="48"/>
       <c r="I138" s="48"/>
@@ -7160,10 +7162,10 @@
       <c r="AA138" s="53"/>
     </row>
     <row r="139" spans="2:27">
-      <c r="B139" s="128"/>
-      <c r="C139" s="135"/>
-      <c r="E139" s="143"/>
-      <c r="F139" s="148"/>
+      <c r="B139" s="125"/>
+      <c r="C139" s="142"/>
+      <c r="E139" s="117"/>
+      <c r="F139" s="122"/>
       <c r="G139" s="48"/>
       <c r="H139" s="48"/>
       <c r="I139" s="48"/>
@@ -7205,10 +7207,10 @@
       <c r="AA139" s="53"/>
     </row>
     <row r="140" spans="2:27">
-      <c r="B140" s="128"/>
-      <c r="C140" s="124"/>
-      <c r="E140" s="143"/>
-      <c r="F140" s="148"/>
+      <c r="B140" s="125"/>
+      <c r="C140" s="138"/>
+      <c r="E140" s="117"/>
+      <c r="F140" s="122"/>
       <c r="G140" s="48"/>
       <c r="H140" s="48"/>
       <c r="I140" s="48"/>
@@ -7250,14 +7252,14 @@
       <c r="AA140" s="53"/>
     </row>
     <row r="141" spans="2:27">
-      <c r="B141" s="128" t="s">
+      <c r="B141" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="C141" s="125" t="s">
+      <c r="C141" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="E141" s="143"/>
-      <c r="F141" s="148"/>
+      <c r="E141" s="117"/>
+      <c r="F141" s="122"/>
       <c r="G141" s="48"/>
       <c r="H141" s="48"/>
       <c r="I141" s="48"/>
@@ -7298,11 +7300,11 @@
       <c r="Z141" s="48"/>
       <c r="AA141" s="53"/>
     </row>
-    <row r="142" spans="2:27" ht="16.95" customHeight="1">
-      <c r="B142" s="128"/>
-      <c r="C142" s="125"/>
-      <c r="E142" s="143"/>
-      <c r="F142" s="148"/>
+    <row r="142" spans="2:27" ht="17" customHeight="1">
+      <c r="B142" s="125"/>
+      <c r="C142" s="133"/>
+      <c r="E142" s="117"/>
+      <c r="F142" s="122"/>
       <c r="G142" s="48"/>
       <c r="H142" s="48"/>
       <c r="I142" s="48"/>
@@ -7344,10 +7346,10 @@
       <c r="AA142" s="53"/>
     </row>
     <row r="143" spans="2:27">
-      <c r="B143" s="128"/>
-      <c r="C143" s="125"/>
-      <c r="E143" s="143"/>
-      <c r="F143" s="148"/>
+      <c r="B143" s="125"/>
+      <c r="C143" s="133"/>
+      <c r="E143" s="117"/>
+      <c r="F143" s="122"/>
       <c r="G143" s="48"/>
       <c r="H143" s="48"/>
       <c r="I143" s="48"/>
@@ -7389,10 +7391,10 @@
       <c r="AA143" s="53"/>
     </row>
     <row r="144" spans="2:27">
-      <c r="B144" s="128"/>
-      <c r="C144" s="125"/>
-      <c r="E144" s="143"/>
-      <c r="F144" s="148"/>
+      <c r="B144" s="125"/>
+      <c r="C144" s="133"/>
+      <c r="E144" s="117"/>
+      <c r="F144" s="122"/>
       <c r="G144" s="48"/>
       <c r="H144" s="48"/>
       <c r="I144" s="48"/>
@@ -7433,11 +7435,11 @@
       <c r="Z144" s="48"/>
       <c r="AA144" s="53"/>
     </row>
-    <row r="145" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B145" s="128"/>
-      <c r="C145" s="125"/>
-      <c r="E145" s="143"/>
-      <c r="F145" s="148"/>
+    <row r="145" spans="2:27" ht="16" customHeight="1">
+      <c r="B145" s="125"/>
+      <c r="C145" s="133"/>
+      <c r="E145" s="117"/>
+      <c r="F145" s="122"/>
       <c r="G145" s="48"/>
       <c r="H145" s="48"/>
       <c r="I145" s="48"/>
@@ -7479,12 +7481,12 @@
       <c r="AA145" s="53"/>
     </row>
     <row r="146" spans="2:27">
-      <c r="B146" s="128" t="s">
+      <c r="B146" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="C146" s="125"/>
-      <c r="E146" s="143"/>
-      <c r="F146" s="148"/>
+      <c r="C146" s="133"/>
+      <c r="E146" s="117"/>
+      <c r="F146" s="122"/>
       <c r="G146" s="48"/>
       <c r="H146" s="48"/>
       <c r="I146" s="48"/>
@@ -7526,10 +7528,10 @@
       <c r="AA146" s="53"/>
     </row>
     <row r="147" spans="2:27">
-      <c r="B147" s="128"/>
-      <c r="C147" s="125"/>
-      <c r="E147" s="143"/>
-      <c r="F147" s="148"/>
+      <c r="B147" s="125"/>
+      <c r="C147" s="133"/>
+      <c r="E147" s="117"/>
+      <c r="F147" s="122"/>
       <c r="G147" s="48"/>
       <c r="H147" s="48"/>
       <c r="I147" s="48"/>
@@ -7571,10 +7573,10 @@
       <c r="AA147" s="53"/>
     </row>
     <row r="148" spans="2:27">
-      <c r="B148" s="128"/>
-      <c r="C148" s="125"/>
-      <c r="E148" s="143"/>
-      <c r="F148" s="148"/>
+      <c r="B148" s="125"/>
+      <c r="C148" s="133"/>
+      <c r="E148" s="117"/>
+      <c r="F148" s="122"/>
       <c r="G148" s="48"/>
       <c r="H148" s="48"/>
       <c r="I148" s="48"/>
@@ -7615,11 +7617,11 @@
       <c r="Z148" s="48"/>
       <c r="AA148" s="53"/>
     </row>
-    <row r="149" spans="2:27" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B149" s="128"/>
-      <c r="C149" s="125"/>
-      <c r="E149" s="146"/>
-      <c r="F149" s="149"/>
+    <row r="149" spans="2:27" ht="16" customHeight="1" thickBot="1">
+      <c r="B149" s="125"/>
+      <c r="C149" s="133"/>
+      <c r="E149" s="120"/>
+      <c r="F149" s="123"/>
       <c r="G149" s="56"/>
       <c r="H149" s="56"/>
       <c r="I149" s="56"/>
@@ -7661,9 +7663,9 @@
       <c r="AA149" s="57"/>
     </row>
     <row r="150" spans="2:27">
-      <c r="B150" s="128"/>
-      <c r="C150" s="125"/>
-      <c r="E150" s="142" t="s">
+      <c r="B150" s="125"/>
+      <c r="C150" s="133"/>
+      <c r="E150" s="116" t="s">
         <v>260</v>
       </c>
       <c r="F150" s="63" t="s">
@@ -7711,9 +7713,9 @@
       <c r="AA150" s="52"/>
     </row>
     <row r="151" spans="2:27">
-      <c r="B151" s="128"/>
-      <c r="C151" s="125"/>
-      <c r="E151" s="143"/>
+      <c r="B151" s="125"/>
+      <c r="C151" s="133"/>
+      <c r="E151" s="117"/>
       <c r="F151" s="60" t="s">
         <v>189</v>
       </c>
@@ -7752,9 +7754,9 @@
       <c r="AA151" s="53"/>
     </row>
     <row r="152" spans="2:27">
-      <c r="B152" s="128"/>
-      <c r="C152" s="125"/>
-      <c r="E152" s="143"/>
+      <c r="B152" s="125"/>
+      <c r="C152" s="133"/>
+      <c r="E152" s="117"/>
       <c r="F152" s="60" t="s">
         <v>190</v>
       </c>
@@ -7798,9 +7800,9 @@
       <c r="AA152" s="53"/>
     </row>
     <row r="153" spans="2:27">
-      <c r="B153" s="128"/>
-      <c r="C153" s="125"/>
-      <c r="E153" s="143"/>
+      <c r="B153" s="125"/>
+      <c r="C153" s="133"/>
+      <c r="E153" s="117"/>
       <c r="F153" s="60" t="s">
         <v>191</v>
       </c>
@@ -7836,13 +7838,13 @@
       <c r="AA153" s="53"/>
     </row>
     <row r="154" spans="2:27">
-      <c r="B154" s="128" t="s">
+      <c r="B154" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="125" t="s">
+      <c r="C154" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="E154" s="143"/>
+      <c r="E154" s="117"/>
       <c r="F154" s="60" t="s">
         <v>192</v>
       </c>
@@ -7888,9 +7890,9 @@
       <c r="AA154" s="53"/>
     </row>
     <row r="155" spans="2:27">
-      <c r="B155" s="128"/>
-      <c r="C155" s="125"/>
-      <c r="E155" s="143"/>
+      <c r="B155" s="125"/>
+      <c r="C155" s="133"/>
+      <c r="E155" s="117"/>
       <c r="F155" s="60" t="s">
         <v>193</v>
       </c>
@@ -7936,9 +7938,9 @@
       <c r="AA155" s="53"/>
     </row>
     <row r="156" spans="2:27">
-      <c r="B156" s="128"/>
-      <c r="C156" s="125"/>
-      <c r="E156" s="143"/>
+      <c r="B156" s="125"/>
+      <c r="C156" s="133"/>
+      <c r="E156" s="117"/>
       <c r="F156" s="60" t="s">
         <v>194</v>
       </c>
@@ -7983,14 +7985,14 @@
       <c r="Z156" s="48"/>
       <c r="AA156" s="53"/>
     </row>
-    <row r="157" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B157" s="134" t="s">
+    <row r="157" spans="2:27" ht="17" thickBot="1">
+      <c r="B157" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="C157" s="125" t="s">
+      <c r="C157" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="E157" s="144"/>
+      <c r="E157" s="118"/>
       <c r="F157" s="61" t="s">
         <v>197</v>
       </c>
@@ -8028,12 +8030,12 @@
       <c r="AA157" s="55"/>
     </row>
     <row r="158" spans="2:27">
-      <c r="B158" s="134"/>
-      <c r="C158" s="125"/>
-      <c r="E158" s="145" t="s">
+      <c r="B158" s="140"/>
+      <c r="C158" s="133"/>
+      <c r="E158" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="F158" s="150" t="s">
+      <c r="F158" s="124" t="s">
         <v>272</v>
       </c>
       <c r="G158" s="37">
@@ -8065,10 +8067,10 @@
       <c r="AA158" s="52"/>
     </row>
     <row r="159" spans="2:27">
-      <c r="B159" s="134"/>
-      <c r="C159" s="125"/>
-      <c r="E159" s="143"/>
-      <c r="F159" s="128"/>
+      <c r="B159" s="140"/>
+      <c r="C159" s="133"/>
+      <c r="E159" s="117"/>
+      <c r="F159" s="125"/>
       <c r="G159" s="1">
         <v>1.01435445973261</v>
       </c>
@@ -8098,10 +8100,10 @@
       <c r="AA159" s="53"/>
     </row>
     <row r="160" spans="2:27">
-      <c r="B160" s="134"/>
-      <c r="C160" s="125"/>
-      <c r="E160" s="143"/>
-      <c r="F160" s="128"/>
+      <c r="B160" s="140"/>
+      <c r="C160" s="133"/>
+      <c r="E160" s="117"/>
+      <c r="F160" s="125"/>
       <c r="G160" s="1">
         <v>2.0570279393808799</v>
       </c>
@@ -8130,13 +8132,13 @@
       <c r="Z160" s="48"/>
       <c r="AA160" s="53"/>
     </row>
-    <row r="161" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B161" s="134" t="s">
+    <row r="161" spans="2:27" ht="16" customHeight="1">
+      <c r="B161" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="C161" s="125"/>
-      <c r="E161" s="143"/>
-      <c r="F161" s="128"/>
+      <c r="C161" s="133"/>
+      <c r="E161" s="117"/>
+      <c r="F161" s="125"/>
       <c r="G161" s="1">
         <v>5.0235478806907299</v>
       </c>
@@ -8165,11 +8167,11 @@
       <c r="Z161" s="48"/>
       <c r="AA161" s="53"/>
     </row>
-    <row r="162" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B162" s="134"/>
-      <c r="C162" s="125"/>
-      <c r="E162" s="143"/>
-      <c r="F162" s="129"/>
+    <row r="162" spans="2:27" ht="17" thickBot="1">
+      <c r="B162" s="140"/>
+      <c r="C162" s="133"/>
+      <c r="E162" s="117"/>
+      <c r="F162" s="126"/>
       <c r="G162" s="24">
         <v>16.7844573726926</v>
       </c>
@@ -8199,10 +8201,10 @@
       <c r="AA162" s="55"/>
     </row>
     <row r="163" spans="2:27">
-      <c r="B163" s="134"/>
-      <c r="C163" s="125"/>
-      <c r="E163" s="143"/>
-      <c r="F163" s="150" t="s">
+      <c r="B163" s="140"/>
+      <c r="C163" s="133"/>
+      <c r="E163" s="117"/>
+      <c r="F163" s="124" t="s">
         <v>273</v>
       </c>
       <c r="G163" s="37">
@@ -8234,10 +8236,10 @@
       <c r="AA163" s="52"/>
     </row>
     <row r="164" spans="2:27">
-      <c r="B164" s="134"/>
-      <c r="C164" s="125"/>
-      <c r="E164" s="143"/>
-      <c r="F164" s="128"/>
+      <c r="B164" s="140"/>
+      <c r="C164" s="133"/>
+      <c r="E164" s="117"/>
+      <c r="F164" s="125"/>
       <c r="G164" s="1">
         <v>1.0000384334524699</v>
       </c>
@@ -8267,10 +8269,10 @@
       <c r="AA164" s="53"/>
     </row>
     <row r="165" spans="2:27">
-      <c r="B165" s="134"/>
-      <c r="C165" s="125"/>
-      <c r="E165" s="143"/>
-      <c r="F165" s="128"/>
+      <c r="B165" s="140"/>
+      <c r="C165" s="133"/>
+      <c r="E165" s="117"/>
+      <c r="F165" s="125"/>
       <c r="G165" s="1">
         <v>1.9953111187978001</v>
       </c>
@@ -8300,10 +8302,10 @@
       <c r="AA165" s="53"/>
     </row>
     <row r="166" spans="2:27">
-      <c r="B166" s="134"/>
-      <c r="C166" s="125"/>
-      <c r="E166" s="143"/>
-      <c r="F166" s="128"/>
+      <c r="B166" s="140"/>
+      <c r="C166" s="133"/>
+      <c r="E166" s="117"/>
+      <c r="F166" s="125"/>
       <c r="G166" s="1">
         <v>4.9786694338752397</v>
       </c>
@@ -8332,11 +8334,11 @@
       <c r="Z166" s="48"/>
       <c r="AA166" s="53"/>
     </row>
-    <row r="167" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B167" s="134"/>
-      <c r="C167" s="125"/>
-      <c r="E167" s="146"/>
-      <c r="F167" s="129"/>
+    <row r="167" spans="2:27" ht="17" thickBot="1">
+      <c r="B167" s="140"/>
+      <c r="C167" s="133"/>
+      <c r="E167" s="120"/>
+      <c r="F167" s="126"/>
       <c r="G167" s="24">
         <v>16.686933907272799</v>
       </c>
@@ -8366,9 +8368,9 @@
       <c r="AA167" s="55"/>
     </row>
     <row r="168" spans="2:27">
-      <c r="B168" s="134"/>
-      <c r="C168" s="125"/>
-      <c r="E168" s="142" t="s">
+      <c r="B168" s="140"/>
+      <c r="C168" s="133"/>
+      <c r="E168" s="116" t="s">
         <v>105</v>
       </c>
       <c r="F168" s="64"/>
@@ -8404,13 +8406,13 @@
       </c>
     </row>
     <row r="169" spans="2:27">
-      <c r="B169" s="128" t="s">
+      <c r="B169" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="C169" s="125" t="s">
+      <c r="C169" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="E169" s="143"/>
+      <c r="E169" s="117"/>
       <c r="F169" s="65"/>
       <c r="G169" s="48"/>
       <c r="H169" s="48"/>
@@ -8444,9 +8446,9 @@
       </c>
     </row>
     <row r="170" spans="2:27">
-      <c r="B170" s="128"/>
-      <c r="C170" s="125"/>
-      <c r="E170" s="143"/>
+      <c r="B170" s="125"/>
+      <c r="C170" s="133"/>
+      <c r="E170" s="117"/>
       <c r="F170" s="65"/>
       <c r="G170" s="48"/>
       <c r="H170" s="48"/>
@@ -8480,9 +8482,9 @@
       </c>
     </row>
     <row r="171" spans="2:27">
-      <c r="B171" s="128"/>
-      <c r="C171" s="125"/>
-      <c r="E171" s="143"/>
+      <c r="B171" s="125"/>
+      <c r="C171" s="133"/>
+      <c r="E171" s="117"/>
       <c r="F171" s="65"/>
       <c r="G171" s="48"/>
       <c r="H171" s="48"/>
@@ -8515,10 +8517,10 @@
         <v>19.922371500000001</v>
       </c>
     </row>
-    <row r="172" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B172" s="128"/>
-      <c r="C172" s="125"/>
-      <c r="E172" s="143"/>
+    <row r="172" spans="2:27" ht="16" customHeight="1">
+      <c r="B172" s="125"/>
+      <c r="C172" s="133"/>
+      <c r="E172" s="117"/>
       <c r="F172" s="65"/>
       <c r="G172" s="48"/>
       <c r="H172" s="48"/>
@@ -8552,13 +8554,13 @@
       </c>
     </row>
     <row r="173" spans="2:27">
-      <c r="B173" s="128" t="s">
+      <c r="B173" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="C173" s="125" t="s">
+      <c r="C173" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="E173" s="143"/>
+      <c r="E173" s="117"/>
       <c r="F173" s="65"/>
       <c r="G173" s="48"/>
       <c r="H173" s="48"/>
@@ -8592,9 +8594,9 @@
       </c>
     </row>
     <row r="174" spans="2:27">
-      <c r="B174" s="128"/>
-      <c r="C174" s="125"/>
-      <c r="E174" s="143"/>
+      <c r="B174" s="125"/>
+      <c r="C174" s="133"/>
+      <c r="E174" s="117"/>
       <c r="F174" s="65"/>
       <c r="G174" s="48"/>
       <c r="H174" s="48"/>
@@ -8628,9 +8630,9 @@
       </c>
     </row>
     <row r="175" spans="2:27">
-      <c r="B175" s="128"/>
-      <c r="C175" s="125"/>
-      <c r="E175" s="143"/>
+      <c r="B175" s="125"/>
+      <c r="C175" s="133"/>
+      <c r="E175" s="117"/>
       <c r="F175" s="65"/>
       <c r="G175" s="48"/>
       <c r="H175" s="48"/>
@@ -8664,9 +8666,9 @@
       </c>
     </row>
     <row r="176" spans="2:27">
-      <c r="B176" s="128"/>
-      <c r="C176" s="125"/>
-      <c r="E176" s="143"/>
+      <c r="B176" s="125"/>
+      <c r="C176" s="133"/>
+      <c r="E176" s="117"/>
       <c r="F176" s="65"/>
       <c r="G176" s="48"/>
       <c r="H176" s="48"/>
@@ -8700,11 +8702,11 @@
       </c>
     </row>
     <row r="177" spans="2:27">
-      <c r="B177" s="128" t="s">
+      <c r="B177" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="C177" s="125"/>
-      <c r="E177" s="143"/>
+      <c r="C177" s="133"/>
+      <c r="E177" s="117"/>
       <c r="F177" s="65"/>
       <c r="G177" s="48"/>
       <c r="H177" s="48"/>
@@ -8738,9 +8740,9 @@
       </c>
     </row>
     <row r="178" spans="2:27">
-      <c r="B178" s="128"/>
-      <c r="C178" s="125"/>
-      <c r="E178" s="143"/>
+      <c r="B178" s="125"/>
+      <c r="C178" s="133"/>
+      <c r="E178" s="117"/>
       <c r="F178" s="65"/>
       <c r="G178" s="48"/>
       <c r="H178" s="48"/>
@@ -8774,9 +8776,9 @@
       </c>
     </row>
     <row r="179" spans="2:27">
-      <c r="B179" s="128"/>
-      <c r="C179" s="125"/>
-      <c r="E179" s="143"/>
+      <c r="B179" s="125"/>
+      <c r="C179" s="133"/>
+      <c r="E179" s="117"/>
       <c r="F179" s="65"/>
       <c r="G179" s="48"/>
       <c r="H179" s="48"/>
@@ -8809,10 +8811,10 @@
         <v>30.0627073</v>
       </c>
     </row>
-    <row r="180" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B180" s="128"/>
-      <c r="C180" s="125"/>
-      <c r="E180" s="143"/>
+    <row r="180" spans="2:27" ht="16" customHeight="1">
+      <c r="B180" s="125"/>
+      <c r="C180" s="133"/>
+      <c r="E180" s="117"/>
       <c r="F180" s="65"/>
       <c r="G180" s="48"/>
       <c r="H180" s="48"/>
@@ -8846,13 +8848,13 @@
       </c>
     </row>
     <row r="181" spans="2:27">
-      <c r="B181" s="128" t="s">
+      <c r="B181" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C181" s="125" t="s">
+      <c r="C181" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="E181" s="143"/>
+      <c r="E181" s="117"/>
       <c r="F181" s="65"/>
       <c r="G181" s="48"/>
       <c r="H181" s="48"/>
@@ -8886,9 +8888,9 @@
       </c>
     </row>
     <row r="182" spans="2:27">
-      <c r="B182" s="128"/>
-      <c r="C182" s="125"/>
-      <c r="E182" s="143"/>
+      <c r="B182" s="125"/>
+      <c r="C182" s="133"/>
+      <c r="E182" s="117"/>
       <c r="F182" s="65"/>
       <c r="G182" s="48"/>
       <c r="H182" s="48"/>
@@ -8928,7 +8930,7 @@
       <c r="C183" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E183" s="143"/>
+      <c r="E183" s="117"/>
       <c r="F183" s="65"/>
       <c r="G183" s="48"/>
       <c r="H183" s="48"/>
@@ -8962,13 +8964,13 @@
       </c>
     </row>
     <row r="184" spans="2:27">
-      <c r="B184" s="128" t="s">
+      <c r="B184" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="C184" s="125" t="s">
+      <c r="C184" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="E184" s="143"/>
+      <c r="E184" s="117"/>
       <c r="F184" s="65"/>
       <c r="G184" s="48"/>
       <c r="H184" s="48"/>
@@ -9002,9 +9004,9 @@
       </c>
     </row>
     <row r="185" spans="2:27">
-      <c r="B185" s="128"/>
-      <c r="C185" s="125"/>
-      <c r="E185" s="143"/>
+      <c r="B185" s="125"/>
+      <c r="C185" s="133"/>
+      <c r="E185" s="117"/>
       <c r="F185" s="65"/>
       <c r="G185" s="48"/>
       <c r="H185" s="48"/>
@@ -9037,10 +9039,10 @@
         <v>40.4672141</v>
       </c>
     </row>
-    <row r="186" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B186" s="128"/>
-      <c r="C186" s="125"/>
-      <c r="E186" s="143"/>
+    <row r="186" spans="2:27" ht="16" customHeight="1">
+      <c r="B186" s="125"/>
+      <c r="C186" s="133"/>
+      <c r="E186" s="117"/>
       <c r="F186" s="65"/>
       <c r="G186" s="48"/>
       <c r="H186" s="48"/>
@@ -9074,9 +9076,9 @@
       </c>
     </row>
     <row r="187" spans="2:27">
-      <c r="B187" s="128"/>
-      <c r="C187" s="125"/>
-      <c r="E187" s="143"/>
+      <c r="B187" s="125"/>
+      <c r="C187" s="133"/>
+      <c r="E187" s="117"/>
       <c r="F187" s="65"/>
       <c r="G187" s="48"/>
       <c r="H187" s="48"/>
@@ -9110,9 +9112,9 @@
       </c>
     </row>
     <row r="188" spans="2:27">
-      <c r="B188" s="128"/>
-      <c r="C188" s="125"/>
-      <c r="E188" s="143"/>
+      <c r="B188" s="125"/>
+      <c r="C188" s="133"/>
+      <c r="E188" s="117"/>
       <c r="F188" s="65"/>
       <c r="G188" s="48"/>
       <c r="H188" s="48"/>
@@ -9145,10 +9147,10 @@
         <v>44.019746099999999</v>
       </c>
     </row>
-    <row r="189" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B189" s="128"/>
-      <c r="C189" s="125"/>
-      <c r="E189" s="144"/>
+    <row r="189" spans="2:27" ht="17" thickBot="1">
+      <c r="B189" s="125"/>
+      <c r="C189" s="133"/>
+      <c r="E189" s="118"/>
       <c r="F189" s="66"/>
       <c r="G189" s="54"/>
       <c r="H189" s="54"/>
@@ -9181,53 +9183,53 @@
         <v>43.709449900000003</v>
       </c>
     </row>
-    <row r="190" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B190" s="128" t="s">
+    <row r="190" spans="2:27" ht="16" customHeight="1">
+      <c r="B190" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="C190" s="125"/>
+      <c r="C190" s="133"/>
     </row>
     <row r="191" spans="2:27">
-      <c r="B191" s="128"/>
-      <c r="C191" s="125"/>
+      <c r="B191" s="125"/>
+      <c r="C191" s="133"/>
     </row>
     <row r="192" spans="2:27">
-      <c r="B192" s="128"/>
-      <c r="C192" s="125"/>
+      <c r="B192" s="125"/>
+      <c r="C192" s="133"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="128"/>
-      <c r="C193" s="125"/>
+      <c r="B193" s="125"/>
+      <c r="C193" s="133"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="128" t="s">
+      <c r="B194" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="C194" s="125" t="s">
+      <c r="C194" s="133" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="128"/>
-      <c r="C195" s="125"/>
+      <c r="B195" s="125"/>
+      <c r="C195" s="133"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="133" t="s">
+      <c r="B196" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C196" s="125" t="s">
+      <c r="C196" s="133" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="133"/>
-      <c r="C197" s="125"/>
+      <c r="B197" s="144"/>
+      <c r="C197" s="133"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="128" t="s">
+      <c r="B198" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="C198" s="125" t="s">
+      <c r="C198" s="133" t="s">
         <v>110</v>
       </c>
       <c r="E198" s="47" t="s">
@@ -9235,109 +9237,109 @@
       </c>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="128"/>
-      <c r="C199" s="125"/>
+      <c r="B199" s="125"/>
+      <c r="C199" s="133"/>
       <c r="E199" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="128"/>
-      <c r="C200" s="125"/>
-    </row>
-    <row r="201" spans="2:5" ht="16.05" customHeight="1">
-      <c r="B201" s="128"/>
-      <c r="C201" s="125"/>
+      <c r="B200" s="125"/>
+      <c r="C200" s="133"/>
+    </row>
+    <row r="201" spans="2:5" ht="16" customHeight="1">
+      <c r="B201" s="125"/>
+      <c r="C201" s="133"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="128"/>
-      <c r="C202" s="125"/>
-    </row>
-    <row r="203" spans="2:5" ht="16.05" customHeight="1">
-      <c r="B203" s="128"/>
-      <c r="C203" s="125"/>
+      <c r="B202" s="125"/>
+      <c r="C202" s="133"/>
+    </row>
+    <row r="203" spans="2:5" ht="16" customHeight="1">
+      <c r="B203" s="125"/>
+      <c r="C203" s="133"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="128"/>
-      <c r="C204" s="125"/>
+      <c r="B204" s="125"/>
+      <c r="C204" s="133"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="128" t="s">
+      <c r="B205" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="C205" s="125" t="s">
+      <c r="C205" s="133" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="128"/>
-      <c r="C206" s="125"/>
+      <c r="B206" s="125"/>
+      <c r="C206" s="133"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="128"/>
-      <c r="C207" s="125"/>
+      <c r="B207" s="125"/>
+      <c r="C207" s="133"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="128" t="s">
+      <c r="B208" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="C208" s="125" t="s">
+      <c r="C208" s="133" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="128"/>
-      <c r="C209" s="125"/>
+      <c r="B209" s="125"/>
+      <c r="C209" s="133"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="128" t="s">
+      <c r="B210" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="C210" s="125" t="s">
+      <c r="C210" s="133" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="128"/>
-      <c r="C211" s="125"/>
+      <c r="B211" s="125"/>
+      <c r="C211" s="133"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="128"/>
-      <c r="C212" s="125"/>
+      <c r="B212" s="125"/>
+      <c r="C212" s="133"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="128" t="s">
+      <c r="B213" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="C213" s="125"/>
+      <c r="C213" s="133"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="128"/>
-      <c r="C214" s="125"/>
+      <c r="B214" s="125"/>
+      <c r="C214" s="133"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="128" t="s">
+      <c r="B215" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="C215" s="125"/>
-    </row>
-    <row r="216" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B216" s="128"/>
-      <c r="C216" s="125"/>
+      <c r="C215" s="133"/>
+    </row>
+    <row r="216" spans="2:3" ht="16" customHeight="1">
+      <c r="B216" s="125"/>
+      <c r="C216" s="133"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="128" t="s">
+      <c r="B217" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="C217" s="125" t="s">
+      <c r="C217" s="133" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="16.2" thickBot="1">
-      <c r="B218" s="128"/>
-      <c r="C218" s="125"/>
-    </row>
-    <row r="219" spans="2:3" ht="16.2" thickBot="1">
+    <row r="218" spans="2:3" ht="17" thickBot="1">
+      <c r="B218" s="125"/>
+      <c r="C218" s="133"/>
+    </row>
+    <row r="219" spans="2:3" ht="17" thickBot="1">
       <c r="B219" s="18" t="s">
         <v>123</v>
       </c>
@@ -9346,336 +9348,336 @@
       </c>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="127" t="s">
+      <c r="B220" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="C220" s="124" t="s">
+      <c r="C220" s="138" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="128"/>
-      <c r="C221" s="125"/>
+      <c r="B221" s="125"/>
+      <c r="C221" s="133"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="128"/>
-      <c r="C222" s="125"/>
+      <c r="B222" s="125"/>
+      <c r="C222" s="133"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="128"/>
-      <c r="C223" s="125"/>
+      <c r="B223" s="125"/>
+      <c r="C223" s="133"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="128"/>
-      <c r="C224" s="125"/>
-    </row>
-    <row r="225" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B225" s="128"/>
-      <c r="C225" s="125"/>
+      <c r="B224" s="125"/>
+      <c r="C224" s="133"/>
+    </row>
+    <row r="225" spans="2:3" ht="16" customHeight="1">
+      <c r="B225" s="125"/>
+      <c r="C225" s="133"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="128"/>
-      <c r="C226" s="125"/>
-    </row>
-    <row r="227" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B227" s="128" t="s">
+      <c r="B226" s="125"/>
+      <c r="C226" s="133"/>
+    </row>
+    <row r="227" spans="2:3" ht="16" customHeight="1">
+      <c r="B227" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="C227" s="125"/>
+      <c r="C227" s="133"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="131"/>
-      <c r="C228" s="132"/>
+      <c r="B228" s="143"/>
+      <c r="C228" s="141"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="128" t="s">
+      <c r="B229" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="C229" s="125" t="s">
+      <c r="C229" s="133" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="128"/>
-      <c r="C230" s="125"/>
+      <c r="B230" s="125"/>
+      <c r="C230" s="133"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="128" t="s">
+      <c r="B231" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="C231" s="125"/>
+      <c r="C231" s="133"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="128"/>
-      <c r="C232" s="125"/>
+      <c r="B232" s="125"/>
+      <c r="C232" s="133"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="128"/>
-      <c r="C233" s="125"/>
+      <c r="B233" s="125"/>
+      <c r="C233" s="133"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="128"/>
-      <c r="C234" s="125"/>
+      <c r="B234" s="125"/>
+      <c r="C234" s="133"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="128"/>
-      <c r="C235" s="125"/>
+      <c r="B235" s="125"/>
+      <c r="C235" s="133"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="128"/>
-      <c r="C236" s="125"/>
+      <c r="B236" s="125"/>
+      <c r="C236" s="133"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="128"/>
-      <c r="C237" s="125"/>
+      <c r="B237" s="125"/>
+      <c r="C237" s="133"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="128"/>
-      <c r="C238" s="125"/>
+      <c r="B238" s="125"/>
+      <c r="C238" s="133"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="128"/>
-      <c r="C239" s="125"/>
-    </row>
-    <row r="240" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B240" s="128" t="s">
+      <c r="B239" s="125"/>
+      <c r="C239" s="133"/>
+    </row>
+    <row r="240" spans="2:3" ht="16" customHeight="1">
+      <c r="B240" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C240" s="125" t="s">
+      <c r="C240" s="133" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="128"/>
-      <c r="C241" s="125"/>
+      <c r="B241" s="125"/>
+      <c r="C241" s="133"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="128" t="s">
+      <c r="B242" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="C242" s="125" t="s">
+      <c r="C242" s="133" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="128"/>
-      <c r="C243" s="125"/>
-    </row>
-    <row r="244" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B244" s="128" t="s">
+      <c r="B243" s="125"/>
+      <c r="C243" s="133"/>
+    </row>
+    <row r="244" spans="2:3" ht="16" customHeight="1">
+      <c r="B244" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="C244" s="125" t="s">
+      <c r="C244" s="133" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="128"/>
-      <c r="C245" s="125"/>
-    </row>
-    <row r="246" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B246" s="128"/>
-      <c r="C246" s="125"/>
+      <c r="B245" s="125"/>
+      <c r="C245" s="133"/>
+    </row>
+    <row r="246" spans="2:3" ht="16" customHeight="1">
+      <c r="B246" s="125"/>
+      <c r="C246" s="133"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="128"/>
-      <c r="C247" s="125"/>
+      <c r="B247" s="125"/>
+      <c r="C247" s="133"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="128" t="s">
+      <c r="B248" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="C248" s="125" t="s">
+      <c r="C248" s="133" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="128"/>
-      <c r="C249" s="125"/>
+      <c r="B249" s="125"/>
+      <c r="C249" s="133"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="128" t="s">
+      <c r="B250" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="C250" s="125"/>
+      <c r="C250" s="133"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="128"/>
-      <c r="C251" s="125"/>
+      <c r="B251" s="125"/>
+      <c r="C251" s="133"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="128"/>
-      <c r="C252" s="125"/>
-    </row>
-    <row r="253" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B253" s="128"/>
-      <c r="C253" s="125"/>
+      <c r="B252" s="125"/>
+      <c r="C252" s="133"/>
+    </row>
+    <row r="253" spans="2:3" ht="16" customHeight="1">
+      <c r="B253" s="125"/>
+      <c r="C253" s="133"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="128"/>
-      <c r="C254" s="125"/>
+      <c r="B254" s="125"/>
+      <c r="C254" s="133"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="128"/>
-      <c r="C255" s="125"/>
+      <c r="B255" s="125"/>
+      <c r="C255" s="133"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="128"/>
-      <c r="C256" s="125"/>
-    </row>
-    <row r="257" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B257" s="128" t="s">
+      <c r="B256" s="125"/>
+      <c r="C256" s="133"/>
+    </row>
+    <row r="257" spans="2:3" ht="16" customHeight="1">
+      <c r="B257" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="C257" s="125"/>
+      <c r="C257" s="133"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="128"/>
-      <c r="C258" s="125"/>
+      <c r="B258" s="125"/>
+      <c r="C258" s="133"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="128"/>
-      <c r="C259" s="125"/>
+      <c r="B259" s="125"/>
+      <c r="C259" s="133"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="128"/>
-      <c r="C260" s="125"/>
+      <c r="B260" s="125"/>
+      <c r="C260" s="133"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="128" t="s">
+      <c r="B261" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="C261" s="125"/>
-    </row>
-    <row r="262" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B262" s="128"/>
-      <c r="C262" s="125"/>
+      <c r="C261" s="133"/>
+    </row>
+    <row r="262" spans="2:3" ht="16" customHeight="1">
+      <c r="B262" s="125"/>
+      <c r="C262" s="133"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="128" t="s">
+      <c r="B263" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C263" s="125" t="s">
+      <c r="C263" s="133" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="128"/>
-      <c r="C264" s="125"/>
+      <c r="B264" s="125"/>
+      <c r="C264" s="133"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="128"/>
-      <c r="C265" s="125"/>
+      <c r="B265" s="125"/>
+      <c r="C265" s="133"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="128" t="s">
+      <c r="B266" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="C266" s="125" t="s">
+      <c r="C266" s="133" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="128"/>
-      <c r="C267" s="125"/>
-    </row>
-    <row r="268" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B268" s="128"/>
-      <c r="C268" s="125"/>
+      <c r="B267" s="125"/>
+      <c r="C267" s="133"/>
+    </row>
+    <row r="268" spans="2:3" ht="16" customHeight="1">
+      <c r="B268" s="125"/>
+      <c r="C268" s="133"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="128"/>
-      <c r="C269" s="125"/>
+      <c r="B269" s="125"/>
+      <c r="C269" s="133"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="128" t="s">
+      <c r="B270" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="C270" s="125" t="s">
+      <c r="C270" s="133" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="18" customHeight="1">
-      <c r="B271" s="128"/>
-      <c r="C271" s="125"/>
+      <c r="B271" s="125"/>
+      <c r="C271" s="133"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="128" t="s">
+      <c r="B272" s="125" t="s">
         <v>146</v>
       </c>
-      <c r="C272" s="125" t="s">
+      <c r="C272" s="133" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="128"/>
-      <c r="C273" s="125"/>
+      <c r="B273" s="125"/>
+      <c r="C273" s="133"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="128"/>
-      <c r="C274" s="125"/>
+      <c r="B274" s="125"/>
+      <c r="C274" s="133"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="128" t="s">
+      <c r="B275" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="C275" s="125" t="s">
+      <c r="C275" s="133" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="276" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B276" s="128"/>
-      <c r="C276" s="125"/>
+    <row r="276" spans="2:3" ht="16" customHeight="1">
+      <c r="B276" s="125"/>
+      <c r="C276" s="133"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="128"/>
-      <c r="C277" s="125"/>
+      <c r="B277" s="125"/>
+      <c r="C277" s="133"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="128" t="s">
+      <c r="B278" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="C278" s="125" t="s">
+      <c r="C278" s="133" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="128"/>
-      <c r="C279" s="125"/>
+      <c r="B279" s="125"/>
+      <c r="C279" s="133"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="128" t="s">
+      <c r="B280" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="C280" s="125" t="s">
+      <c r="C280" s="133" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="128"/>
-      <c r="C281" s="125"/>
+      <c r="B281" s="125"/>
+      <c r="C281" s="133"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="128"/>
-      <c r="C282" s="125"/>
-    </row>
-    <row r="283" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B283" s="128"/>
-      <c r="C283" s="125"/>
+      <c r="B282" s="125"/>
+      <c r="C282" s="133"/>
+    </row>
+    <row r="283" spans="2:3" ht="16" customHeight="1">
+      <c r="B283" s="125"/>
+      <c r="C283" s="133"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="128" t="s">
+      <c r="B284" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="C284" s="125" t="s">
+      <c r="C284" s="133" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="285" spans="2:3" ht="16.2" thickBot="1">
-      <c r="B285" s="128"/>
-      <c r="C285" s="125"/>
-    </row>
-    <row r="286" spans="2:3" ht="16.2" thickBot="1">
+    <row r="285" spans="2:3" ht="17" thickBot="1">
+      <c r="B285" s="125"/>
+      <c r="C285" s="133"/>
+    </row>
+    <row r="286" spans="2:3" ht="17" thickBot="1">
       <c r="B286" s="18" t="s">
         <v>158</v>
       </c>
@@ -9684,152 +9686,48 @@
       </c>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="127" t="s">
+      <c r="B287" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="C287" s="124" t="s">
+      <c r="C287" s="138" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="128"/>
-      <c r="C288" s="125"/>
+      <c r="B288" s="125"/>
+      <c r="C288" s="133"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="128"/>
-      <c r="C289" s="125" t="s">
+      <c r="B289" s="125"/>
+      <c r="C289" s="133" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="128"/>
-      <c r="C290" s="125"/>
-    </row>
-    <row r="291" spans="2:3" ht="16.2" thickBot="1">
-      <c r="B291" s="129"/>
-      <c r="C291" s="126"/>
+      <c r="B290" s="125"/>
+      <c r="C290" s="133"/>
+    </row>
+    <row r="291" spans="2:3" ht="17" thickBot="1">
+      <c r="B291" s="126"/>
+      <c r="C291" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="E168:E189"/>
-    <mergeCell ref="E103:E113"/>
-    <mergeCell ref="E150:E157"/>
-    <mergeCell ref="E114:E149"/>
-    <mergeCell ref="F114:F149"/>
-    <mergeCell ref="F158:F162"/>
-    <mergeCell ref="F163:F167"/>
-    <mergeCell ref="E158:E167"/>
-    <mergeCell ref="E101:AA101"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="C107:C119"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="C173:C180"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="B161:B168"/>
-    <mergeCell ref="C157:C168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B146:B153"/>
-    <mergeCell ref="C141:C153"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="B141:B145"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C220:C228"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C184:C193"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B204"/>
-    <mergeCell ref="C198:C204"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="B184:B189"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="B244:B247"/>
-    <mergeCell ref="C244:C247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="B231:B239"/>
-    <mergeCell ref="C229:C239"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E34:H34"/>
     <mergeCell ref="C287:C288"/>
     <mergeCell ref="C289:C291"/>
     <mergeCell ref="B287:B291"/>
@@ -9854,21 +9752,125 @@
     <mergeCell ref="B270:B271"/>
     <mergeCell ref="B250:B256"/>
     <mergeCell ref="B257:B260"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="B244:B247"/>
+    <mergeCell ref="C244:C247"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B231:B239"/>
+    <mergeCell ref="C229:C239"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C220:C228"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C184:C193"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="B198:B204"/>
+    <mergeCell ref="C198:C204"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="B146:B153"/>
+    <mergeCell ref="C141:C153"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="B141:B145"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="C173:C180"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="B161:B168"/>
+    <mergeCell ref="C157:C168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="C107:C119"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="E168:E189"/>
+    <mergeCell ref="E103:E113"/>
+    <mergeCell ref="E150:E157"/>
+    <mergeCell ref="E114:E149"/>
+    <mergeCell ref="F114:F149"/>
+    <mergeCell ref="F158:F162"/>
+    <mergeCell ref="F163:F167"/>
+    <mergeCell ref="E158:E167"/>
+    <mergeCell ref="E101:AA101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9879,53 +9881,53 @@
   <dimension ref="B2:AE113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="17.19921875" customWidth="1"/>
-    <col min="12" max="12" width="17.796875" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" customWidth="1"/>
-    <col min="14" max="14" width="16.796875" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
     <col min="15" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="21.19921875" customWidth="1"/>
-    <col min="18" max="18" width="18.796875" customWidth="1"/>
-    <col min="19" max="19" width="17.19921875" customWidth="1"/>
-    <col min="20" max="20" width="17.796875" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" customWidth="1"/>
+    <col min="20" max="20" width="17.83203125" customWidth="1"/>
     <col min="21" max="21" width="20.5" customWidth="1"/>
     <col min="22" max="22" width="18.5" customWidth="1"/>
     <col min="23" max="23" width="17.5" customWidth="1"/>
     <col min="24" max="24" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" ht="16.2" thickBot="1"/>
-    <row r="3" spans="2:31" ht="16.2" thickBot="1">
-      <c r="B3" s="156" t="s">
+    <row r="2" spans="2:31" ht="17" thickBot="1"/>
+    <row r="3" spans="2:31" ht="17" thickBot="1">
+      <c r="B3" s="162" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="158"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="164"/>
       <c r="Q3" s="82"/>
       <c r="R3" s="82"/>
       <c r="S3" s="82"/>
@@ -9942,7 +9944,7 @@
       <c r="AD3" s="27"/>
       <c r="AE3" s="27"/>
     </row>
-    <row r="4" spans="2:31" ht="16.2" thickBot="1">
+    <row r="4" spans="2:31" ht="17" thickBot="1">
       <c r="B4" s="67" t="s">
         <v>268</v>
       </c>
@@ -9985,7 +9987,7 @@
       <c r="O4" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="P4" s="162" t="s">
+      <c r="P4" s="110" t="s">
         <v>288</v>
       </c>
       <c r="Q4" s="83" t="s">
@@ -10007,7 +10009,7 @@
       <c r="AE4" s="27"/>
     </row>
     <row r="5" spans="2:31">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="165" t="s">
         <v>162</v>
       </c>
       <c r="C5" s="97" t="s">
@@ -10046,7 +10048,7 @@
       <c r="AE5" s="27"/>
     </row>
     <row r="6" spans="2:31">
-      <c r="B6" s="160"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="98" t="s">
         <v>167</v>
       </c>
@@ -10083,7 +10085,7 @@
       <c r="AE6" s="27"/>
     </row>
     <row r="7" spans="2:31">
-      <c r="B7" s="160"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="98" t="s">
         <v>168</v>
       </c>
@@ -10120,7 +10122,7 @@
       <c r="AE7" s="27"/>
     </row>
     <row r="8" spans="2:31">
-      <c r="B8" s="160"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="98" t="s">
         <v>169</v>
       </c>
@@ -10157,7 +10159,7 @@
       <c r="AE8" s="27"/>
     </row>
     <row r="9" spans="2:31">
-      <c r="B9" s="160"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="98" t="s">
         <v>170</v>
       </c>
@@ -10194,7 +10196,7 @@
       <c r="AE9" s="27"/>
     </row>
     <row r="10" spans="2:31">
-      <c r="B10" s="160"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="98" t="s">
         <v>171</v>
       </c>
@@ -10231,7 +10233,7 @@
       <c r="AE10" s="27"/>
     </row>
     <row r="11" spans="2:31">
-      <c r="B11" s="160"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="98" t="s">
         <v>172</v>
       </c>
@@ -10268,7 +10270,7 @@
       <c r="AE11" s="27"/>
     </row>
     <row r="12" spans="2:31">
-      <c r="B12" s="160"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="98" t="s">
         <v>173</v>
       </c>
@@ -10305,7 +10307,7 @@
       <c r="AE12" s="27"/>
     </row>
     <row r="13" spans="2:31">
-      <c r="B13" s="160"/>
+      <c r="B13" s="166"/>
       <c r="C13" s="98" t="s">
         <v>174</v>
       </c>
@@ -10342,7 +10344,7 @@
       <c r="AE13" s="27"/>
     </row>
     <row r="14" spans="2:31">
-      <c r="B14" s="160"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="98" t="s">
         <v>175</v>
       </c>
@@ -10378,8 +10380,8 @@
       <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
     </row>
-    <row r="15" spans="2:31" ht="16.2" thickBot="1">
-      <c r="B15" s="160"/>
+    <row r="15" spans="2:31" ht="17" thickBot="1">
+      <c r="B15" s="166"/>
       <c r="C15" s="103" t="s">
         <v>176</v>
       </c>
@@ -10415,8 +10417,8 @@
       <c r="AD15" s="27"/>
       <c r="AE15" s="27"/>
     </row>
-    <row r="16" spans="2:31" ht="16.05" customHeight="1">
-      <c r="B16" s="159" t="s">
+    <row r="16" spans="2:31" ht="16" customHeight="1">
+      <c r="B16" s="165" t="s">
         <v>261</v>
       </c>
       <c r="C16" s="104" t="s">
@@ -10452,8 +10454,8 @@
       <c r="AD16" s="27"/>
       <c r="AE16" s="27"/>
     </row>
-    <row r="17" spans="2:31">
-      <c r="B17" s="160"/>
+    <row r="17" spans="2:31" ht="17">
+      <c r="B17" s="166"/>
       <c r="C17" s="105" t="s">
         <v>275</v>
       </c>
@@ -10487,8 +10489,8 @@
       <c r="AD17" s="27"/>
       <c r="AE17" s="27"/>
     </row>
-    <row r="18" spans="2:31">
-      <c r="B18" s="160"/>
+    <row r="18" spans="2:31" ht="17">
+      <c r="B18" s="166"/>
       <c r="C18" s="105" t="s">
         <v>276</v>
       </c>
@@ -10522,8 +10524,8 @@
       <c r="AD18" s="27"/>
       <c r="AE18" s="27"/>
     </row>
-    <row r="19" spans="2:31">
-      <c r="B19" s="160"/>
+    <row r="19" spans="2:31" ht="17">
+      <c r="B19" s="166"/>
       <c r="C19" s="105" t="s">
         <v>277</v>
       </c>
@@ -10557,8 +10559,8 @@
       <c r="AD19" s="27"/>
       <c r="AE19" s="27"/>
     </row>
-    <row r="20" spans="2:31" ht="16.2" thickBot="1">
-      <c r="B20" s="160"/>
+    <row r="20" spans="2:31" ht="18" thickBot="1">
+      <c r="B20" s="166"/>
       <c r="C20" s="106" t="s">
         <v>278</v>
       </c>
@@ -10593,7 +10595,7 @@
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="2:31">
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="165" t="s">
         <v>260</v>
       </c>
       <c r="C21" s="98" t="s">
@@ -10646,7 +10648,7 @@
       <c r="AE21" s="27"/>
     </row>
     <row r="22" spans="2:31">
-      <c r="B22" s="160"/>
+      <c r="B22" s="166"/>
       <c r="C22" s="98" t="s">
         <v>189</v>
       </c>
@@ -10689,7 +10691,7 @@
       <c r="AE22" s="27"/>
     </row>
     <row r="23" spans="2:31">
-      <c r="B23" s="160"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="98" t="s">
         <v>190</v>
       </c>
@@ -10738,7 +10740,7 @@
       <c r="AE23" s="27"/>
     </row>
     <row r="24" spans="2:31">
-      <c r="B24" s="160"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="98" t="s">
         <v>191</v>
       </c>
@@ -10779,7 +10781,7 @@
       <c r="AE24" s="27"/>
     </row>
     <row r="25" spans="2:31">
-      <c r="B25" s="160"/>
+      <c r="B25" s="166"/>
       <c r="C25" s="98" t="s">
         <v>192</v>
       </c>
@@ -10830,7 +10832,7 @@
       <c r="AE25" s="27"/>
     </row>
     <row r="26" spans="2:31">
-      <c r="B26" s="160"/>
+      <c r="B26" s="166"/>
       <c r="C26" s="98" t="s">
         <v>193</v>
       </c>
@@ -10881,7 +10883,7 @@
       <c r="AE26" s="27"/>
     </row>
     <row r="27" spans="2:31">
-      <c r="B27" s="160"/>
+      <c r="B27" s="166"/>
       <c r="C27" s="98" t="s">
         <v>194</v>
       </c>
@@ -10931,8 +10933,8 @@
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
     </row>
-    <row r="28" spans="2:31" ht="16.2" thickBot="1">
-      <c r="B28" s="161"/>
+    <row r="28" spans="2:31" ht="17" thickBot="1">
+      <c r="B28" s="167"/>
       <c r="C28" s="99" t="s">
         <v>197</v>
       </c>
@@ -10974,12 +10976,12 @@
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
     </row>
-    <row r="29" spans="2:31" ht="15.6" customHeight="1">
-      <c r="B29" s="154" t="s">
+    <row r="29" spans="2:31" ht="15.5" customHeight="1">
+      <c r="B29" s="160" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="108"/>
-      <c r="D29" s="163"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="109"/>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
@@ -10990,7 +10992,7 @@
       <c r="L29" s="71"/>
       <c r="M29" s="71"/>
       <c r="N29" s="71"/>
-      <c r="P29" s="164"/>
+      <c r="P29" s="112"/>
       <c r="Q29" s="83"/>
       <c r="R29" s="83"/>
       <c r="S29" s="83"/>
@@ -11007,10 +11009,10 @@
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
     </row>
-    <row r="30" spans="2:31" ht="15.6" customHeight="1">
-      <c r="B30" s="155"/>
+    <row r="30" spans="2:31" ht="15.5" customHeight="1">
+      <c r="B30" s="161"/>
       <c r="C30" s="108"/>
-      <c r="D30" s="163"/>
+      <c r="D30" s="111"/>
       <c r="E30" s="109"/>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
@@ -11021,7 +11023,7 @@
       <c r="L30" s="71"/>
       <c r="M30" s="71"/>
       <c r="N30" s="71"/>
-      <c r="P30" s="164"/>
+      <c r="P30" s="112"/>
       <c r="Q30" s="83"/>
       <c r="R30" s="83"/>
       <c r="S30" s="83"/>
@@ -11038,10 +11040,10 @@
       <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
     </row>
-    <row r="31" spans="2:31" ht="15.6" customHeight="1">
-      <c r="B31" s="155"/>
+    <row r="31" spans="2:31" ht="15.5" customHeight="1">
+      <c r="B31" s="161"/>
       <c r="C31" s="108"/>
-      <c r="D31" s="163"/>
+      <c r="D31" s="111"/>
       <c r="E31" s="109"/>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
@@ -11052,7 +11054,7 @@
       <c r="L31" s="71"/>
       <c r="M31" s="71"/>
       <c r="N31" s="71"/>
-      <c r="P31" s="164"/>
+      <c r="P31" s="112"/>
       <c r="Q31" s="83"/>
       <c r="R31" s="83"/>
       <c r="S31" s="83"/>
@@ -11069,10 +11071,10 @@
       <c r="AD31" s="27"/>
       <c r="AE31" s="27"/>
     </row>
-    <row r="32" spans="2:31" ht="15.6" customHeight="1">
-      <c r="B32" s="155"/>
+    <row r="32" spans="2:31" ht="15.5" customHeight="1">
+      <c r="B32" s="161"/>
       <c r="C32" s="108"/>
-      <c r="D32" s="163"/>
+      <c r="D32" s="111"/>
       <c r="E32" s="109"/>
       <c r="F32" s="71"/>
       <c r="G32" s="71"/>
@@ -11083,7 +11085,7 @@
       <c r="L32" s="71"/>
       <c r="M32" s="71"/>
       <c r="N32" s="71"/>
-      <c r="P32" s="164"/>
+      <c r="P32" s="112"/>
       <c r="Q32" s="83"/>
       <c r="R32" s="83"/>
       <c r="S32" s="83"/>
@@ -11100,10 +11102,10 @@
       <c r="AD32" s="27"/>
       <c r="AE32" s="27"/>
     </row>
-    <row r="33" spans="2:31" ht="15.6" customHeight="1">
-      <c r="B33" s="155"/>
+    <row r="33" spans="2:31" ht="15.5" customHeight="1">
+      <c r="B33" s="161"/>
       <c r="C33" s="108"/>
-      <c r="D33" s="163"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="109"/>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
@@ -11114,7 +11116,7 @@
       <c r="L33" s="71"/>
       <c r="M33" s="71"/>
       <c r="N33" s="71"/>
-      <c r="P33" s="164"/>
+      <c r="P33" s="112"/>
       <c r="Q33" s="83"/>
       <c r="R33" s="83"/>
       <c r="S33" s="83"/>
@@ -11131,10 +11133,10 @@
       <c r="AD33" s="27"/>
       <c r="AE33" s="27"/>
     </row>
-    <row r="34" spans="2:31" ht="15.6" customHeight="1">
-      <c r="B34" s="155"/>
+    <row r="34" spans="2:31" ht="15.5" customHeight="1">
+      <c r="B34" s="161"/>
       <c r="C34" s="108"/>
-      <c r="D34" s="163"/>
+      <c r="D34" s="111"/>
       <c r="E34" s="109"/>
       <c r="F34" s="71"/>
       <c r="G34" s="71"/>
@@ -11145,7 +11147,7 @@
       <c r="L34" s="71"/>
       <c r="M34" s="71"/>
       <c r="N34" s="71"/>
-      <c r="P34" s="164"/>
+      <c r="P34" s="112"/>
       <c r="Q34" s="83"/>
       <c r="R34" s="83"/>
       <c r="S34" s="83"/>
@@ -11162,10 +11164,10 @@
       <c r="AD34" s="27"/>
       <c r="AE34" s="27"/>
     </row>
-    <row r="35" spans="2:31" ht="15.6" customHeight="1">
-      <c r="B35" s="155"/>
+    <row r="35" spans="2:31" ht="15.5" customHeight="1">
+      <c r="B35" s="161"/>
       <c r="C35" s="108"/>
-      <c r="D35" s="163"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="109"/>
       <c r="F35" s="71"/>
       <c r="G35" s="71"/>
@@ -11176,7 +11178,7 @@
       <c r="L35" s="71"/>
       <c r="M35" s="71"/>
       <c r="N35" s="71"/>
-      <c r="P35" s="164"/>
+      <c r="P35" s="112"/>
       <c r="Q35" s="83"/>
       <c r="R35" s="83"/>
       <c r="S35" s="83"/>
@@ -11193,10 +11195,10 @@
       <c r="AD35" s="27"/>
       <c r="AE35" s="27"/>
     </row>
-    <row r="36" spans="2:31" ht="15.6" customHeight="1">
-      <c r="B36" s="155"/>
+    <row r="36" spans="2:31" ht="15.5" customHeight="1">
+      <c r="B36" s="161"/>
       <c r="C36" s="108"/>
-      <c r="D36" s="163"/>
+      <c r="D36" s="111"/>
       <c r="E36" s="109"/>
       <c r="F36" s="71"/>
       <c r="G36" s="71"/>
@@ -11207,7 +11209,7 @@
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
       <c r="N36" s="71"/>
-      <c r="P36" s="164"/>
+      <c r="P36" s="112"/>
       <c r="Q36" s="83"/>
       <c r="R36" s="83"/>
       <c r="S36" s="83"/>
@@ -11224,10 +11226,10 @@
       <c r="AD36" s="27"/>
       <c r="AE36" s="27"/>
     </row>
-    <row r="37" spans="2:31" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B37" s="155"/>
+    <row r="37" spans="2:31" ht="16" customHeight="1" thickBot="1">
+      <c r="B37" s="161"/>
       <c r="C37" s="108"/>
-      <c r="D37" s="163"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="109"/>
       <c r="F37" s="71"/>
       <c r="G37" s="71"/>
@@ -11238,7 +11240,7 @@
       <c r="L37" s="71"/>
       <c r="M37" s="71"/>
       <c r="N37" s="71"/>
-      <c r="P37" s="164"/>
+      <c r="P37" s="112"/>
       <c r="Q37" s="83"/>
       <c r="R37" s="83"/>
       <c r="S37" s="83"/>
@@ -11255,10 +11257,10 @@
       <c r="AD37" s="27"/>
       <c r="AE37" s="27"/>
     </row>
-    <row r="38" spans="2:31" ht="16.2" thickBot="1">
-      <c r="B38" s="155"/>
+    <row r="38" spans="2:31" ht="17" thickBot="1">
+      <c r="B38" s="161"/>
       <c r="C38" s="107"/>
-      <c r="D38" s="163"/>
+      <c r="D38" s="111"/>
       <c r="E38" s="109"/>
       <c r="F38" s="71"/>
       <c r="G38" s="71"/>
@@ -11269,7 +11271,7 @@
       <c r="L38" s="71"/>
       <c r="M38" s="71"/>
       <c r="N38" s="71"/>
-      <c r="P38" s="164"/>
+      <c r="P38" s="112"/>
       <c r="Q38" s="83"/>
       <c r="R38" s="83"/>
       <c r="S38" s="83"/>
@@ -11286,8 +11288,8 @@
       <c r="AD38" s="27"/>
       <c r="AE38" s="27"/>
     </row>
-    <row r="39" spans="2:31">
-      <c r="B39" s="151" t="s">
+    <row r="39" spans="2:31" ht="17">
+      <c r="B39" s="157" t="s">
         <v>105</v>
       </c>
       <c r="C39" s="100" t="s">
@@ -11304,7 +11306,7 @@
       <c r="L39" s="90"/>
       <c r="M39" s="90"/>
       <c r="N39" s="90"/>
-      <c r="Q39" s="165" t="s">
+      <c r="Q39" s="113" t="s">
         <v>284</v>
       </c>
       <c r="R39" s="83"/>
@@ -11322,8 +11324,8 @@
       <c r="AD39" s="27"/>
       <c r="AE39" s="27"/>
     </row>
-    <row r="40" spans="2:31">
-      <c r="B40" s="152"/>
+    <row r="40" spans="2:31" ht="17">
+      <c r="B40" s="158"/>
       <c r="C40" s="101" t="s">
         <v>201</v>
       </c>
@@ -11338,7 +11340,7 @@
       <c r="L40" s="85"/>
       <c r="M40" s="85"/>
       <c r="N40" s="85"/>
-      <c r="Q40" s="166" t="s">
+      <c r="Q40" s="114" t="s">
         <v>286</v>
       </c>
       <c r="R40" s="83"/>
@@ -11356,8 +11358,8 @@
       <c r="AD40" s="27"/>
       <c r="AE40" s="27"/>
     </row>
-    <row r="41" spans="2:31" ht="16.2" thickBot="1">
-      <c r="B41" s="153"/>
+    <row r="41" spans="2:31" ht="18" thickBot="1">
+      <c r="B41" s="159"/>
       <c r="C41" s="102" t="s">
         <v>202</v>
       </c>
@@ -11372,7 +11374,7 @@
       <c r="L41" s="92"/>
       <c r="M41" s="92"/>
       <c r="N41" s="92"/>
-      <c r="Q41" s="167" t="s">
+      <c r="Q41" s="115" t="s">
         <v>285</v>
       </c>
       <c r="R41" s="83"/>
@@ -11390,7 +11392,7 @@
       <c r="AD41" s="27"/>
       <c r="AE41" s="27"/>
     </row>
-    <row r="42" spans="2:31" ht="16.05" customHeight="1">
+    <row r="42" spans="2:31" ht="16" customHeight="1">
       <c r="B42" s="84"/>
       <c r="C42" s="84"/>
       <c r="D42" s="83"/>
@@ -11550,7 +11552,7 @@
       <c r="AD46" s="27"/>
       <c r="AE46" s="27"/>
     </row>
-    <row r="47" spans="2:31" ht="16.05" customHeight="1">
+    <row r="47" spans="2:31" ht="16" customHeight="1">
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>

--- a/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
+++ b/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisondavis/Documents/GitHub/nmcuration/in-progress/Koerner_2005_Polymer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Documents\GitHub\nmcuration\in-progress\Koerner_2005_Polymer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5B7AFB-FBE7-AB42-9587-A4F692DB76ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45499419-E543-4AF9-A2E2-46CF82FFF4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Curation" sheetId="1" r:id="rId1"/>
     <sheet name="Tidy Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1050,7 +1048,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1680,19 +1678,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1786,7 +1771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1906,7 +1891,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1926,9 +1911,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1939,39 +1921,6 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1979,60 +1928,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,6 +1957,96 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2069,9 +2054,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2086,13 +2068,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2415,36 +2397,36 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="65" customWidth="1"/>
-    <col min="3" max="3" width="121.83203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="121.796875" customWidth="1"/>
+    <col min="5" max="5" width="29.69921875" customWidth="1"/>
+    <col min="6" max="6" width="25.296875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
-    <col min="9" max="9" width="28.1640625" customWidth="1"/>
-    <col min="10" max="10" width="27.1640625" customWidth="1"/>
+    <col min="8" max="8" width="29.796875" customWidth="1"/>
+    <col min="9" max="9" width="28.19921875" customWidth="1"/>
+    <col min="10" max="10" width="27.19921875" customWidth="1"/>
     <col min="11" max="11" width="28.5" customWidth="1"/>
     <col min="12" max="12" width="27.5" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" customWidth="1"/>
-    <col min="15" max="15" width="29.83203125" customWidth="1"/>
-    <col min="16" max="16" width="27.83203125" customWidth="1"/>
-    <col min="17" max="17" width="27.1640625" customWidth="1"/>
+    <col min="14" max="14" width="28.296875" customWidth="1"/>
+    <col min="15" max="15" width="29.796875" customWidth="1"/>
+    <col min="16" max="16" width="27.796875" customWidth="1"/>
+    <col min="17" max="17" width="27.19921875" customWidth="1"/>
     <col min="18" max="18" width="28.5" customWidth="1"/>
     <col min="19" max="19" width="27.5" customWidth="1"/>
-    <col min="20" max="20" width="29.83203125" customWidth="1"/>
+    <col min="20" max="20" width="29.796875" customWidth="1"/>
     <col min="21" max="21" width="28" customWidth="1"/>
-    <col min="22" max="22" width="26.83203125" customWidth="1"/>
-    <col min="23" max="23" width="28.1640625" customWidth="1"/>
-    <col min="24" max="24" width="25.6640625" customWidth="1"/>
-    <col min="25" max="25" width="24.6640625" customWidth="1"/>
+    <col min="22" max="22" width="26.796875" customWidth="1"/>
+    <col min="23" max="23" width="28.19921875" customWidth="1"/>
+    <col min="24" max="24" width="25.69921875" customWidth="1"/>
+    <col min="25" max="25" width="24.69921875" customWidth="1"/>
     <col min="26" max="26" width="21" customWidth="1"/>
-    <col min="27" max="27" width="26.1640625" customWidth="1"/>
+    <col min="27" max="27" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="17" thickBot="1"/>
+    <row r="1" spans="2:26" ht="16.2" thickBot="1"/>
     <row r="2" spans="2:26">
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -2461,7 +2443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="17" thickBot="1">
+    <row r="4" spans="2:26" ht="16.2" thickBot="1">
       <c r="B4" s="13" t="s">
         <v>47</v>
       </c>
@@ -2469,8 +2451,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="17" thickBot="1"/>
-    <row r="6" spans="2:26" ht="17" thickBot="1">
+    <row r="5" spans="2:26" ht="16.2" thickBot="1"/>
+    <row r="6" spans="2:26" ht="16.2" thickBot="1">
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
@@ -2478,7 +2460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="17" thickBot="1">
+    <row r="7" spans="2:26" ht="16.2" thickBot="1">
       <c r="B7" s="20" t="s">
         <v>60</v>
       </c>
@@ -2486,8 +2468,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="17" thickBot="1">
-      <c r="B8" s="130" t="s">
+    <row r="8" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B8" s="132" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2500,19 +2482,19 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="17" thickBot="1">
-      <c r="B9" s="125"/>
+    <row r="9" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B9" s="133"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="145" t="s">
+      <c r="E9" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="146"/>
-      <c r="G9" s="147"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="128"/>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="125"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2525,41 +2507,41 @@
       <c r="G10" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="145" t="s">
+      <c r="J10" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="147"/>
-      <c r="L10" s="145" t="s">
+      <c r="K10" s="128"/>
+      <c r="L10" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="147"/>
-      <c r="N10" s="145" t="s">
+      <c r="M10" s="128"/>
+      <c r="N10" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="147"/>
-      <c r="P10" s="145" t="s">
+      <c r="O10" s="128"/>
+      <c r="P10" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="145" t="s">
+      <c r="Q10" s="128"/>
+      <c r="R10" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="S10" s="147"/>
-      <c r="U10" s="153" t="s">
+      <c r="S10" s="128"/>
+      <c r="U10" s="123" t="s">
         <v>253</v>
       </c>
-      <c r="V10" s="154"/>
-      <c r="W10" s="153" t="s">
+      <c r="V10" s="124"/>
+      <c r="W10" s="123" t="s">
         <v>255</v>
       </c>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="156" t="s">
+      <c r="X10" s="125"/>
+      <c r="Y10" s="126" t="s">
         <v>254</v>
       </c>
-      <c r="Z10" s="155"/>
-    </row>
-    <row r="11" spans="2:26" ht="17" thickBot="1">
-      <c r="B11" s="125"/>
+      <c r="Z10" s="125"/>
+    </row>
+    <row r="11" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B11" s="133"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2598,7 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="B12" s="125"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2679,7 +2661,7 @@
       </c>
     </row>
     <row r="13" spans="2:26">
-      <c r="B13" s="125"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2741,11 +2723,11 @@
         <v>15.594099</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="16" customHeight="1">
-      <c r="B14" s="131" t="s">
+    <row r="14" spans="2:26" ht="16.05" customHeight="1">
+      <c r="B14" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="143" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2806,9 +2788,9 @@
         <v>17.235134599999999</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="16" customHeight="1">
-      <c r="B15" s="131"/>
-      <c r="C15" s="132"/>
+    <row r="15" spans="2:26" ht="16.05" customHeight="1">
+      <c r="B15" s="142"/>
+      <c r="C15" s="143"/>
       <c r="E15" s="12" t="s">
         <v>170</v>
       </c>
@@ -2868,8 +2850,8 @@
       </c>
     </row>
     <row r="16" spans="2:26">
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
       <c r="E16" s="12" t="s">
         <v>171</v>
       </c>
@@ -2929,8 +2911,8 @@
       </c>
     </row>
     <row r="17" spans="2:26">
-      <c r="B17" s="131"/>
-      <c r="C17" s="132"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="143"/>
       <c r="E17" s="12" t="s">
         <v>172</v>
       </c>
@@ -2990,10 +2972,10 @@
       </c>
     </row>
     <row r="18" spans="2:26">
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="130" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -3055,8 +3037,8 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="B19" s="134"/>
-      <c r="C19" s="133"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="130"/>
       <c r="E19" s="12" t="s">
         <v>174</v>
       </c>
@@ -3115,9 +3097,9 @@
         <v>27.234399400000001</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="17" thickBot="1">
-      <c r="B20" s="134"/>
-      <c r="C20" s="133"/>
+    <row r="20" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B20" s="141"/>
+      <c r="C20" s="130"/>
       <c r="E20" s="12" t="s">
         <v>175</v>
       </c>
@@ -3176,7 +3158,7 @@
         <v>28.277905100000002</v>
       </c>
     </row>
-    <row r="21" spans="2:26" ht="17" thickBot="1">
+    <row r="21" spans="2:26" ht="16.2" thickBot="1">
       <c r="B21" s="20" t="s">
         <v>62</v>
       </c>
@@ -3242,10 +3224,10 @@
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="143" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="12">
@@ -3297,9 +3279,9 @@
         <v>29.915945600000001</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="17" thickBot="1">
-      <c r="B23" s="131"/>
-      <c r="C23" s="132"/>
+    <row r="23" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
       <c r="J23" s="12">
         <v>1.35455762059425</v>
       </c>
@@ -3349,15 +3331,15 @@
         <v>30.0627073</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="16" customHeight="1" thickBot="1">
-      <c r="B24" s="131"/>
-      <c r="C24" s="132"/>
-      <c r="E24" s="127" t="s">
+    <row r="24" spans="2:26" ht="16.05" customHeight="1" thickBot="1">
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="E24" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="129"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="117"/>
       <c r="J24" s="12">
         <v>1.39607392036569</v>
       </c>
@@ -3407,9 +3389,9 @@
         <v>31.4021325</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="17" thickBot="1">
-      <c r="B25" s="131"/>
-      <c r="C25" s="132"/>
+    <row r="25" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B25" s="142"/>
+      <c r="C25" s="143"/>
       <c r="E25" s="41" t="s">
         <v>163</v>
       </c>
@@ -3472,10 +3454,10 @@
       </c>
     </row>
     <row r="26" spans="2:26">
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="130" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="32" t="s">
@@ -3540,8 +3522,8 @@
       </c>
     </row>
     <row r="27" spans="2:26">
-      <c r="B27" s="125"/>
-      <c r="C27" s="133"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="130"/>
       <c r="E27" s="12" t="s">
         <v>189</v>
       </c>
@@ -3604,10 +3586,10 @@
       </c>
     </row>
     <row r="28" spans="2:26">
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="144" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -3672,8 +3654,8 @@
       </c>
     </row>
     <row r="29" spans="2:26">
-      <c r="B29" s="131"/>
-      <c r="C29" s="136"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="145"/>
       <c r="E29" s="12" t="s">
         <v>191</v>
       </c>
@@ -3736,8 +3718,8 @@
       </c>
     </row>
     <row r="30" spans="2:26">
-      <c r="B30" s="131"/>
-      <c r="C30" s="136"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="145"/>
       <c r="E30" s="12" t="s">
         <v>192</v>
       </c>
@@ -3800,8 +3782,8 @@
       </c>
     </row>
     <row r="31" spans="2:26">
-      <c r="B31" s="131"/>
-      <c r="C31" s="137"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="146"/>
       <c r="E31" s="12" t="s">
         <v>193</v>
       </c>
@@ -3863,11 +3845,11 @@
         <v>42.536554299999999</v>
       </c>
     </row>
-    <row r="32" spans="2:26" ht="17" thickBot="1">
-      <c r="B32" s="125" t="s">
+    <row r="32" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B32" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="133" t="s">
+      <c r="C32" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3931,9 +3913,9 @@
         <v>44.019746099999999</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="17" thickBot="1">
-      <c r="B33" s="125"/>
-      <c r="C33" s="133"/>
+    <row r="33" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B33" s="133"/>
+      <c r="C33" s="130"/>
       <c r="J33" s="12">
         <v>1.76972061830867</v>
       </c>
@@ -3983,15 +3965,15 @@
         <v>43.709449900000003</v>
       </c>
     </row>
-    <row r="34" spans="2:26" ht="17" thickBot="1">
-      <c r="B34" s="125"/>
-      <c r="C34" s="133"/>
-      <c r="E34" s="127" t="s">
+    <row r="34" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B34" s="133"/>
+      <c r="C34" s="130"/>
+      <c r="E34" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="129"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="117"/>
       <c r="J34" s="12">
         <v>1.81123691808011</v>
       </c>
@@ -4023,11 +4005,11 @@
         <v>2.7804914799999998</v>
       </c>
     </row>
-    <row r="35" spans="2:26" ht="17" thickBot="1">
-      <c r="B35" s="131" t="s">
+    <row r="35" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B35" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="132" t="s">
+      <c r="C35" s="143" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="41" t="s">
@@ -4074,8 +4056,8 @@
       </c>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="131"/>
-      <c r="C36" s="132"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="143"/>
       <c r="E36" s="32" t="s">
         <v>197</v>
       </c>
@@ -4120,8 +4102,8 @@
       </c>
     </row>
     <row r="37" spans="2:26">
-      <c r="B37" s="131"/>
-      <c r="C37" s="132"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="143"/>
       <c r="E37" s="12" t="s">
         <v>198</v>
       </c>
@@ -4165,11 +4147,11 @@
         <v>2.8744146100000001</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="16" customHeight="1">
-      <c r="B38" s="125" t="s">
+    <row r="38" spans="2:26" ht="16.05" customHeight="1">
+      <c r="B38" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="133" t="s">
+      <c r="C38" s="130" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -4216,8 +4198,8 @@
       </c>
     </row>
     <row r="39" spans="2:26">
-      <c r="B39" s="125"/>
-      <c r="C39" s="133"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="130"/>
       <c r="E39" s="12" t="s">
         <v>200</v>
       </c>
@@ -4262,8 +4244,8 @@
       </c>
     </row>
     <row r="40" spans="2:26">
-      <c r="B40" s="125"/>
-      <c r="C40" s="133"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="130"/>
       <c r="E40" s="12" t="s">
         <v>201</v>
       </c>
@@ -4312,8 +4294,8 @@
       <c r="X40" s="27"/>
     </row>
     <row r="41" spans="2:26">
-      <c r="B41" s="125"/>
-      <c r="C41" s="133"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="130"/>
       <c r="E41" s="12" t="s">
         <v>202</v>
       </c>
@@ -4361,9 +4343,9 @@
       <c r="W41" s="27"/>
       <c r="X41" s="27"/>
     </row>
-    <row r="42" spans="2:26" ht="17" thickBot="1">
-      <c r="B42" s="125"/>
-      <c r="C42" s="133"/>
+    <row r="42" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B42" s="133"/>
+      <c r="C42" s="130"/>
       <c r="E42" s="13" t="s">
         <v>203</v>
       </c>
@@ -4411,9 +4393,9 @@
       <c r="W42" s="27"/>
       <c r="X42" s="27"/>
     </row>
-    <row r="43" spans="2:26" ht="17" thickBot="1">
-      <c r="B43" s="125"/>
-      <c r="C43" s="133"/>
+    <row r="43" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B43" s="133"/>
+      <c r="C43" s="130"/>
       <c r="E43" s="41" t="s">
         <v>163</v>
       </c>
@@ -4462,10 +4444,10 @@
       <c r="X43" s="27"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="B44" s="131" t="s">
+      <c r="B44" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="132" t="s">
+      <c r="C44" s="143" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="36" t="s">
@@ -4515,9 +4497,9 @@
       <c r="W44" s="27"/>
       <c r="X44" s="27"/>
     </row>
-    <row r="45" spans="2:26" ht="16" customHeight="1">
-      <c r="B45" s="131"/>
-      <c r="C45" s="132"/>
+    <row r="45" spans="2:26" ht="16.05" customHeight="1">
+      <c r="B45" s="142"/>
+      <c r="C45" s="143"/>
       <c r="E45" s="38" t="s">
         <v>205</v>
       </c>
@@ -4566,8 +4548,8 @@
       <c r="X45" s="27"/>
     </row>
     <row r="46" spans="2:26">
-      <c r="B46" s="131"/>
-      <c r="C46" s="132"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="143"/>
       <c r="E46" s="38" t="s">
         <v>206</v>
       </c>
@@ -4615,9 +4597,9 @@
       <c r="W46" s="27"/>
       <c r="X46" s="27"/>
     </row>
-    <row r="47" spans="2:26" ht="17" thickBot="1">
-      <c r="B47" s="131"/>
-      <c r="C47" s="132"/>
+    <row r="47" spans="2:26" ht="16.2" thickBot="1">
+      <c r="B47" s="142"/>
+      <c r="C47" s="143"/>
       <c r="E47" s="38" t="s">
         <v>207</v>
       </c>
@@ -4666,8 +4648,8 @@
       <c r="X47" s="27"/>
     </row>
     <row r="48" spans="2:26">
-      <c r="B48" s="131"/>
-      <c r="C48" s="132"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="143"/>
       <c r="E48" s="38" t="s">
         <v>208</v>
       </c>
@@ -4686,8 +4668,8 @@
       <c r="X48" s="27"/>
     </row>
     <row r="49" spans="2:24">
-      <c r="B49" s="131"/>
-      <c r="C49" s="132"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="143"/>
       <c r="E49" s="38" t="s">
         <v>209</v>
       </c>
@@ -4705,9 +4687,9 @@
       <c r="W49" s="27"/>
       <c r="X49" s="27"/>
     </row>
-    <row r="50" spans="2:24" ht="17" thickBot="1">
-      <c r="B50" s="131"/>
-      <c r="C50" s="132"/>
+    <row r="50" spans="2:24" ht="16.2" thickBot="1">
+      <c r="B50" s="142"/>
+      <c r="C50" s="143"/>
       <c r="E50" s="39" t="s">
         <v>210</v>
       </c>
@@ -4725,35 +4707,35 @@
       <c r="W50" s="27"/>
       <c r="X50" s="27"/>
     </row>
-    <row r="51" spans="2:24" ht="17" thickBot="1">
-      <c r="B51" s="131"/>
-      <c r="C51" s="132"/>
+    <row r="51" spans="2:24" ht="16.2" thickBot="1">
+      <c r="B51" s="142"/>
+      <c r="C51" s="143"/>
       <c r="U51" s="27"/>
       <c r="V51" s="27"/>
       <c r="W51" s="27"/>
       <c r="X51" s="27"/>
     </row>
-    <row r="52" spans="2:24" ht="17" thickBot="1">
-      <c r="B52" s="125" t="s">
+    <row r="52" spans="2:24" ht="16.2" thickBot="1">
+      <c r="B52" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="133" t="s">
+      <c r="C52" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="127" t="s">
+      <c r="E52" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="129"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="117"/>
       <c r="U52" s="27"/>
       <c r="V52" s="27"/>
       <c r="W52" s="27"/>
       <c r="X52" s="27"/>
     </row>
-    <row r="53" spans="2:24" ht="17" thickBot="1">
-      <c r="B53" s="125"/>
-      <c r="C53" s="133"/>
+    <row r="53" spans="2:24" ht="16.2" thickBot="1">
+      <c r="B53" s="133"/>
+      <c r="C53" s="130"/>
       <c r="E53" s="41" t="s">
         <v>163</v>
       </c>
@@ -4772,8 +4754,8 @@
       <c r="X53" s="27"/>
     </row>
     <row r="54" spans="2:24">
-      <c r="B54" s="125"/>
-      <c r="C54" s="133"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="130"/>
       <c r="E54" s="32" t="s">
         <v>213</v>
       </c>
@@ -4792,8 +4774,8 @@
       <c r="X54" s="27"/>
     </row>
     <row r="55" spans="2:24">
-      <c r="B55" s="125"/>
-      <c r="C55" s="133"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="130"/>
       <c r="E55" s="12" t="s">
         <v>214</v>
       </c>
@@ -4812,8 +4794,8 @@
       <c r="X55" s="27"/>
     </row>
     <row r="56" spans="2:24">
-      <c r="B56" s="125"/>
-      <c r="C56" s="133"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="130"/>
       <c r="E56" s="12" t="s">
         <v>215</v>
       </c>
@@ -4832,8 +4814,8 @@
       <c r="X56" s="27"/>
     </row>
     <row r="57" spans="2:24">
-      <c r="B57" s="125"/>
-      <c r="C57" s="133"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="130"/>
       <c r="E57" s="12" t="s">
         <v>216</v>
       </c>
@@ -4852,8 +4834,8 @@
       <c r="X57" s="27"/>
     </row>
     <row r="58" spans="2:24">
-      <c r="B58" s="125"/>
-      <c r="C58" s="133"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="130"/>
       <c r="E58" s="12" t="s">
         <v>217</v>
       </c>
@@ -4871,11 +4853,11 @@
       <c r="W58" s="27"/>
       <c r="X58" s="27"/>
     </row>
-    <row r="59" spans="2:24" ht="16" customHeight="1" thickBot="1">
-      <c r="B59" s="131" t="s">
+    <row r="59" spans="2:24" ht="16.05" customHeight="1" thickBot="1">
+      <c r="B59" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="132" t="s">
+      <c r="C59" s="143" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="34" t="s">
@@ -4895,9 +4877,9 @@
       <c r="W59" s="27"/>
       <c r="X59" s="27"/>
     </row>
-    <row r="60" spans="2:24" ht="17" thickBot="1">
-      <c r="B60" s="131"/>
-      <c r="C60" s="132"/>
+    <row r="60" spans="2:24" ht="16.2" thickBot="1">
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
       <c r="E60" s="41" t="s">
         <v>163</v>
       </c>
@@ -4916,8 +4898,8 @@
       <c r="X60" s="27"/>
     </row>
     <row r="61" spans="2:24">
-      <c r="B61" s="131"/>
-      <c r="C61" s="132"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="143"/>
       <c r="E61" s="44" t="s">
         <v>219</v>
       </c>
@@ -4936,8 +4918,8 @@
       <c r="X61" s="27"/>
     </row>
     <row r="62" spans="2:24">
-      <c r="B62" s="131"/>
-      <c r="C62" s="132"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
       <c r="E62" s="38" t="s">
         <v>220</v>
       </c>
@@ -4956,8 +4938,8 @@
       <c r="X62" s="27"/>
     </row>
     <row r="63" spans="2:24">
-      <c r="B63" s="131"/>
-      <c r="C63" s="132"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="143"/>
       <c r="E63" s="38" t="s">
         <v>221</v>
       </c>
@@ -4975,7 +4957,7 @@
       <c r="W63" s="27"/>
       <c r="X63" s="27"/>
     </row>
-    <row r="64" spans="2:24" ht="17">
+    <row r="64" spans="2:24">
       <c r="B64" s="7" t="s">
         <v>36</v>
       </c>
@@ -5000,10 +4982,10 @@
       <c r="X64" s="27"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="125" t="s">
+      <c r="B65" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="133" t="s">
+      <c r="C65" s="130" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="38" t="s">
@@ -5019,9 +5001,9 @@
         <v>2.2318772748788098</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="17" thickBot="1">
-      <c r="B66" s="125"/>
-      <c r="C66" s="133"/>
+    <row r="66" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B66" s="133"/>
+      <c r="C66" s="130"/>
       <c r="E66" s="39" t="s">
         <v>224</v>
       </c>
@@ -5035,7 +5017,7 @@
         <v>2.2206346809865001</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="17" thickBot="1">
+    <row r="67" spans="2:8" ht="16.2" thickBot="1">
       <c r="B67" s="9" t="s">
         <v>26</v>
       </c>
@@ -5047,23 +5029,23 @@
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
     </row>
-    <row r="68" spans="2:8" ht="17" thickBot="1">
-      <c r="B68" s="125" t="s">
+    <row r="68" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B68" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="133" t="s">
+      <c r="C68" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="127" t="s">
+      <c r="E68" s="115" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="128"/>
-      <c r="G68" s="128"/>
-      <c r="H68" s="129"/>
-    </row>
-    <row r="69" spans="2:8" ht="17" thickBot="1">
-      <c r="B69" s="125"/>
-      <c r="C69" s="133"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="117"/>
+    </row>
+    <row r="69" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B69" s="133"/>
+      <c r="C69" s="130"/>
       <c r="E69" s="41" t="s">
         <v>163</v>
       </c>
@@ -5078,8 +5060,8 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="125"/>
-      <c r="C70" s="133"/>
+      <c r="B70" s="133"/>
+      <c r="C70" s="130"/>
       <c r="E70" s="32" t="s">
         <v>228</v>
       </c>
@@ -5094,8 +5076,8 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="125"/>
-      <c r="C71" s="133"/>
+      <c r="B71" s="133"/>
+      <c r="C71" s="130"/>
       <c r="E71" s="12" t="s">
         <v>229</v>
       </c>
@@ -5110,8 +5092,8 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="125"/>
-      <c r="C72" s="133"/>
+      <c r="B72" s="133"/>
+      <c r="C72" s="130"/>
       <c r="E72" s="12" t="s">
         <v>230</v>
       </c>
@@ -5126,7 +5108,7 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="125" t="s">
+      <c r="B73" s="133" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -5145,8 +5127,8 @@
         <v>31.190476190476101</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="17" thickBot="1">
-      <c r="B74" s="125"/>
+    <row r="74" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B74" s="133"/>
       <c r="C74" s="11" t="s">
         <v>42</v>
       </c>
@@ -5163,9 +5145,9 @@
         <v>28.214285714285701</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="17" thickBot="1">
-      <c r="B75" s="125"/>
-      <c r="C75" s="133" t="s">
+    <row r="75" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B75" s="133"/>
+      <c r="C75" s="130" t="s">
         <v>44</v>
       </c>
       <c r="E75" s="41" t="s">
@@ -5182,8 +5164,8 @@
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="125"/>
-      <c r="C76" s="133"/>
+      <c r="B76" s="133"/>
+      <c r="C76" s="130"/>
       <c r="E76" s="44" t="s">
         <v>233</v>
       </c>
@@ -5198,8 +5180,8 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="125"/>
-      <c r="C77" s="133"/>
+      <c r="B77" s="133"/>
+      <c r="C77" s="130"/>
       <c r="E77" s="38" t="s">
         <v>234</v>
       </c>
@@ -5214,10 +5196,10 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="125" t="s">
+      <c r="B78" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="133" t="s">
+      <c r="C78" s="130" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="38" t="s">
@@ -5233,9 +5215,9 @@
         <v>13.194259746472101</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="17" thickBot="1">
-      <c r="B79" s="125"/>
-      <c r="C79" s="133"/>
+    <row r="79" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B79" s="133"/>
+      <c r="C79" s="130"/>
       <c r="E79" s="39" t="s">
         <v>236</v>
       </c>
@@ -5250,32 +5232,32 @@
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="125"/>
-      <c r="C80" s="133"/>
-    </row>
-    <row r="81" spans="2:8" ht="17" thickBot="1">
-      <c r="B81" s="125"/>
-      <c r="C81" s="133"/>
+      <c r="B80" s="133"/>
+      <c r="C80" s="130"/>
+    </row>
+    <row r="81" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B81" s="133"/>
+      <c r="C81" s="130"/>
       <c r="E81" s="27"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
       <c r="H81" s="26"/>
     </row>
-    <row r="82" spans="2:8" ht="17" thickBot="1">
-      <c r="B82" s="125"/>
-      <c r="C82" s="133"/>
-      <c r="E82" s="127" t="s">
+    <row r="82" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B82" s="133"/>
+      <c r="C82" s="130"/>
+      <c r="E82" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="F82" s="128"/>
-      <c r="G82" s="128"/>
-      <c r="H82" s="129"/>
-    </row>
-    <row r="83" spans="2:8" ht="17" thickBot="1">
-      <c r="B83" s="125" t="s">
+      <c r="F82" s="116"/>
+      <c r="G82" s="116"/>
+      <c r="H82" s="117"/>
+    </row>
+    <row r="83" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B83" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="133" t="s">
+      <c r="C83" s="130" t="s">
         <v>49</v>
       </c>
       <c r="E83" s="16" t="s">
@@ -5291,19 +5273,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="17" thickBot="1">
-      <c r="B84" s="125"/>
-      <c r="C84" s="133"/>
-      <c r="E84" s="148" t="s">
+    <row r="84" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B84" s="133"/>
+      <c r="C84" s="130"/>
+      <c r="E84" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="149"/>
-      <c r="G84" s="149"/>
-      <c r="H84" s="150"/>
+      <c r="F84" s="119"/>
+      <c r="G84" s="119"/>
+      <c r="H84" s="120"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="125"/>
-      <c r="C85" s="133"/>
+      <c r="B85" s="133"/>
+      <c r="C85" s="130"/>
       <c r="E85" s="32" t="s">
         <v>240</v>
       </c>
@@ -5318,10 +5300,10 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="125" t="s">
+      <c r="B86" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="133" t="s">
+      <c r="C86" s="130" t="s">
         <v>52</v>
       </c>
       <c r="E86" s="12" t="s">
@@ -5338,8 +5320,8 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="125"/>
-      <c r="C87" s="133"/>
+      <c r="B87" s="133"/>
+      <c r="C87" s="130"/>
       <c r="E87" s="12" t="s">
         <v>242</v>
       </c>
@@ -5354,8 +5336,8 @@
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="125"/>
-      <c r="C88" s="133"/>
+      <c r="B88" s="133"/>
+      <c r="C88" s="130"/>
       <c r="E88" s="12" t="s">
         <v>244</v>
       </c>
@@ -5369,11 +5351,11 @@
         <v>15.2380952380952</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="17" thickBot="1">
-      <c r="B89" s="125" t="s">
+    <row r="89" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B89" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="133" t="s">
+      <c r="C89" s="130" t="s">
         <v>53</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -5389,19 +5371,19 @@
         <v>14.2312925170068</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="17" thickBot="1">
-      <c r="B90" s="125"/>
-      <c r="C90" s="133"/>
-      <c r="E90" s="148" t="s">
+    <row r="90" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B90" s="133"/>
+      <c r="C90" s="130"/>
+      <c r="E90" s="118" t="s">
         <v>252</v>
       </c>
-      <c r="F90" s="151"/>
-      <c r="G90" s="151"/>
-      <c r="H90" s="152"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="122"/>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="125"/>
-      <c r="C91" s="133"/>
+      <c r="B91" s="133"/>
+      <c r="C91" s="130"/>
       <c r="E91" s="44" t="s">
         <v>245</v>
       </c>
@@ -5416,10 +5398,10 @@
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="125" t="s">
+      <c r="B92" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="133" t="s">
+      <c r="C92" s="130" t="s">
         <v>55</v>
       </c>
       <c r="E92" s="38" t="s">
@@ -5436,8 +5418,8 @@
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="125"/>
-      <c r="C93" s="133"/>
+      <c r="B93" s="133"/>
+      <c r="C93" s="130"/>
       <c r="E93" s="38" t="s">
         <v>247</v>
       </c>
@@ -5452,8 +5434,8 @@
       </c>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="125"/>
-      <c r="C94" s="133"/>
+      <c r="B94" s="133"/>
+      <c r="C94" s="130"/>
       <c r="E94" s="38" t="s">
         <v>248</v>
       </c>
@@ -5467,8 +5449,8 @@
         <v>4.8435374149659802</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="17" thickBot="1">
-      <c r="B95" s="125" t="s">
+    <row r="95" spans="2:8" ht="16.2" thickBot="1">
+      <c r="B95" s="133" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -5488,16 +5470,16 @@
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="125"/>
-      <c r="C96" s="133" t="s">
+      <c r="B96" s="133"/>
+      <c r="C96" s="130" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="2:27" ht="17" thickBot="1">
-      <c r="B97" s="126"/>
-      <c r="C97" s="139"/>
-    </row>
-    <row r="98" spans="2:27" ht="17" thickBot="1">
+    <row r="97" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B97" s="134"/>
+      <c r="C97" s="131"/>
+    </row>
+    <row r="98" spans="2:27" ht="16.2" thickBot="1">
       <c r="B98" s="18" t="s">
         <v>59</v>
       </c>
@@ -5506,53 +5488,53 @@
       </c>
     </row>
     <row r="99" spans="2:27">
-      <c r="B99" s="130" t="s">
+      <c r="B99" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="138" t="s">
+      <c r="C99" s="129" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="2:27" ht="17" thickBot="1">
-      <c r="B100" s="125"/>
-      <c r="C100" s="133"/>
-    </row>
-    <row r="101" spans="2:27" ht="17" thickBot="1">
-      <c r="B101" s="125" t="s">
+    <row r="100" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B100" s="133"/>
+      <c r="C100" s="130"/>
+    </row>
+    <row r="101" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B101" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="C101" s="133" t="s">
+      <c r="C101" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="E101" s="127" t="s">
+      <c r="E101" s="115" t="s">
         <v>259</v>
       </c>
-      <c r="F101" s="128"/>
-      <c r="G101" s="128"/>
-      <c r="H101" s="128"/>
-      <c r="I101" s="128"/>
-      <c r="J101" s="128"/>
-      <c r="K101" s="128"/>
-      <c r="L101" s="128"/>
-      <c r="M101" s="128"/>
-      <c r="N101" s="128"/>
-      <c r="O101" s="128"/>
-      <c r="P101" s="128"/>
-      <c r="Q101" s="128"/>
-      <c r="R101" s="128"/>
-      <c r="S101" s="128"/>
-      <c r="T101" s="128"/>
-      <c r="U101" s="128"/>
-      <c r="V101" s="128"/>
-      <c r="W101" s="128"/>
-      <c r="X101" s="128"/>
-      <c r="Y101" s="128"/>
-      <c r="Z101" s="128"/>
-      <c r="AA101" s="129"/>
-    </row>
-    <row r="102" spans="2:27" ht="17" customHeight="1" thickBot="1">
-      <c r="B102" s="125"/>
-      <c r="C102" s="133"/>
+      <c r="F101" s="116"/>
+      <c r="G101" s="116"/>
+      <c r="H101" s="116"/>
+      <c r="I101" s="116"/>
+      <c r="J101" s="116"/>
+      <c r="K101" s="116"/>
+      <c r="L101" s="116"/>
+      <c r="M101" s="116"/>
+      <c r="N101" s="116"/>
+      <c r="O101" s="116"/>
+      <c r="P101" s="116"/>
+      <c r="Q101" s="116"/>
+      <c r="R101" s="116"/>
+      <c r="S101" s="116"/>
+      <c r="T101" s="116"/>
+      <c r="U101" s="116"/>
+      <c r="V101" s="116"/>
+      <c r="W101" s="116"/>
+      <c r="X101" s="116"/>
+      <c r="Y101" s="116"/>
+      <c r="Z101" s="116"/>
+      <c r="AA101" s="117"/>
+    </row>
+    <row r="102" spans="2:27" ht="16.95" customHeight="1" thickBot="1">
+      <c r="B102" s="133"/>
+      <c r="C102" s="130"/>
       <c r="E102" s="41" t="s">
         <v>268</v>
       </c>
@@ -5623,14 +5605,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="2:27" ht="16" customHeight="1">
+    <row r="103" spans="2:27" ht="16.05" customHeight="1">
       <c r="B103" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E103" s="116" t="s">
+      <c r="E103" s="147" t="s">
         <v>162</v>
       </c>
       <c r="F103" s="63" t="s">
@@ -5663,13 +5645,13 @@
       <c r="AA103" s="52"/>
     </row>
     <row r="104" spans="2:27">
-      <c r="B104" s="125" t="s">
+      <c r="B104" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="133" t="s">
+      <c r="C104" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="E104" s="117"/>
+      <c r="E104" s="148"/>
       <c r="F104" s="60" t="s">
         <v>167</v>
       </c>
@@ -5700,9 +5682,9 @@
       <c r="AA104" s="53"/>
     </row>
     <row r="105" spans="2:27">
-      <c r="B105" s="125"/>
-      <c r="C105" s="133"/>
-      <c r="E105" s="117"/>
+      <c r="B105" s="133"/>
+      <c r="C105" s="130"/>
+      <c r="E105" s="148"/>
       <c r="F105" s="60" t="s">
         <v>168</v>
       </c>
@@ -5733,9 +5715,9 @@
       <c r="AA105" s="53"/>
     </row>
     <row r="106" spans="2:27">
-      <c r="B106" s="125"/>
-      <c r="C106" s="133"/>
-      <c r="E106" s="117"/>
+      <c r="B106" s="133"/>
+      <c r="C106" s="130"/>
+      <c r="E106" s="148"/>
       <c r="F106" s="60" t="s">
         <v>169</v>
       </c>
@@ -5766,13 +5748,13 @@
       <c r="AA106" s="53"/>
     </row>
     <row r="107" spans="2:27">
-      <c r="B107" s="125" t="s">
+      <c r="B107" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="C107" s="133" t="s">
+      <c r="C107" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="E107" s="117"/>
+      <c r="E107" s="148"/>
       <c r="F107" s="60" t="s">
         <v>170</v>
       </c>
@@ -5803,9 +5785,9 @@
       <c r="AA107" s="53"/>
     </row>
     <row r="108" spans="2:27">
-      <c r="B108" s="125"/>
-      <c r="C108" s="133"/>
-      <c r="E108" s="117"/>
+      <c r="B108" s="133"/>
+      <c r="C108" s="130"/>
+      <c r="E108" s="148"/>
       <c r="F108" s="60" t="s">
         <v>171</v>
       </c>
@@ -5836,9 +5818,9 @@
       <c r="AA108" s="53"/>
     </row>
     <row r="109" spans="2:27">
-      <c r="B109" s="125"/>
-      <c r="C109" s="133"/>
-      <c r="E109" s="117"/>
+      <c r="B109" s="133"/>
+      <c r="C109" s="130"/>
+      <c r="E109" s="148"/>
       <c r="F109" s="60" t="s">
         <v>172</v>
       </c>
@@ -5869,9 +5851,9 @@
       <c r="AA109" s="53"/>
     </row>
     <row r="110" spans="2:27">
-      <c r="B110" s="125"/>
-      <c r="C110" s="133"/>
-      <c r="E110" s="117"/>
+      <c r="B110" s="133"/>
+      <c r="C110" s="130"/>
+      <c r="E110" s="148"/>
       <c r="F110" s="60" t="s">
         <v>173</v>
       </c>
@@ -5902,9 +5884,9 @@
       <c r="AA110" s="53"/>
     </row>
     <row r="111" spans="2:27">
-      <c r="B111" s="125"/>
-      <c r="C111" s="133"/>
-      <c r="E111" s="117"/>
+      <c r="B111" s="133"/>
+      <c r="C111" s="130"/>
+      <c r="E111" s="148"/>
       <c r="F111" s="60" t="s">
         <v>174</v>
       </c>
@@ -5935,9 +5917,9 @@
       <c r="AA111" s="53"/>
     </row>
     <row r="112" spans="2:27">
-      <c r="B112" s="125"/>
-      <c r="C112" s="133"/>
-      <c r="E112" s="117"/>
+      <c r="B112" s="133"/>
+      <c r="C112" s="130"/>
+      <c r="E112" s="148"/>
       <c r="F112" s="60" t="s">
         <v>175</v>
       </c>
@@ -5967,10 +5949,10 @@
       <c r="Z112" s="48"/>
       <c r="AA112" s="53"/>
     </row>
-    <row r="113" spans="2:27" ht="17" thickBot="1">
-      <c r="B113" s="125"/>
-      <c r="C113" s="133"/>
-      <c r="E113" s="118"/>
+    <row r="113" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B113" s="133"/>
+      <c r="C113" s="130"/>
+      <c r="E113" s="149"/>
       <c r="F113" s="61" t="s">
         <v>176</v>
       </c>
@@ -6000,15 +5982,15 @@
       <c r="Z113" s="54"/>
       <c r="AA113" s="55"/>
     </row>
-    <row r="114" spans="2:27" ht="16" customHeight="1">
-      <c r="B114" s="125" t="s">
+    <row r="114" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B114" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="133"/>
-      <c r="E114" s="119" t="s">
+      <c r="C114" s="130"/>
+      <c r="E114" s="150" t="s">
         <v>261</v>
       </c>
-      <c r="F114" s="121" t="s">
+      <c r="F114" s="152" t="s">
         <v>262</v>
       </c>
       <c r="G114" s="50"/>
@@ -6052,10 +6034,10 @@
       <c r="AA114" s="62"/>
     </row>
     <row r="115" spans="2:27">
-      <c r="B115" s="125"/>
-      <c r="C115" s="133"/>
-      <c r="E115" s="117"/>
-      <c r="F115" s="122"/>
+      <c r="B115" s="133"/>
+      <c r="C115" s="130"/>
+      <c r="E115" s="148"/>
+      <c r="F115" s="153"/>
       <c r="G115" s="48"/>
       <c r="H115" s="48"/>
       <c r="I115" s="48"/>
@@ -6097,12 +6079,12 @@
       <c r="AA115" s="53"/>
     </row>
     <row r="116" spans="2:27">
-      <c r="B116" s="125" t="s">
+      <c r="B116" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="133"/>
-      <c r="E116" s="117"/>
-      <c r="F116" s="122"/>
+      <c r="C116" s="130"/>
+      <c r="E116" s="148"/>
+      <c r="F116" s="153"/>
       <c r="G116" s="48"/>
       <c r="H116" s="48"/>
       <c r="I116" s="48"/>
@@ -6144,10 +6126,10 @@
       <c r="AA116" s="53"/>
     </row>
     <row r="117" spans="2:27">
-      <c r="B117" s="125"/>
-      <c r="C117" s="133"/>
-      <c r="E117" s="117"/>
-      <c r="F117" s="122"/>
+      <c r="B117" s="133"/>
+      <c r="C117" s="130"/>
+      <c r="E117" s="148"/>
+      <c r="F117" s="153"/>
       <c r="G117" s="48"/>
       <c r="H117" s="48"/>
       <c r="I117" s="48"/>
@@ -6189,10 +6171,10 @@
       <c r="AA117" s="53"/>
     </row>
     <row r="118" spans="2:27">
-      <c r="B118" s="125"/>
-      <c r="C118" s="133"/>
-      <c r="E118" s="117"/>
-      <c r="F118" s="122"/>
+      <c r="B118" s="133"/>
+      <c r="C118" s="130"/>
+      <c r="E118" s="148"/>
+      <c r="F118" s="153"/>
       <c r="G118" s="48"/>
       <c r="H118" s="48"/>
       <c r="I118" s="48"/>
@@ -6234,10 +6216,10 @@
       <c r="AA118" s="53"/>
     </row>
     <row r="119" spans="2:27">
-      <c r="B119" s="125"/>
-      <c r="C119" s="133"/>
-      <c r="E119" s="117"/>
-      <c r="F119" s="122"/>
+      <c r="B119" s="133"/>
+      <c r="C119" s="130"/>
+      <c r="E119" s="148"/>
+      <c r="F119" s="153"/>
       <c r="G119" s="48"/>
       <c r="H119" s="48"/>
       <c r="I119" s="48"/>
@@ -6279,14 +6261,14 @@
       <c r="AA119" s="53"/>
     </row>
     <row r="120" spans="2:27">
-      <c r="B120" s="134" t="s">
+      <c r="B120" s="141" t="s">
         <v>26</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E120" s="117"/>
-      <c r="F120" s="122"/>
+      <c r="E120" s="148"/>
+      <c r="F120" s="153"/>
       <c r="G120" s="48"/>
       <c r="H120" s="48"/>
       <c r="I120" s="48"/>
@@ -6327,13 +6309,13 @@
       <c r="Z120" s="48"/>
       <c r="AA120" s="53"/>
     </row>
-    <row r="121" spans="2:27" ht="16" customHeight="1">
-      <c r="B121" s="134"/>
-      <c r="C121" s="133" t="s">
+    <row r="121" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B121" s="141"/>
+      <c r="C121" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="E121" s="117"/>
-      <c r="F121" s="122"/>
+      <c r="E121" s="148"/>
+      <c r="F121" s="153"/>
       <c r="G121" s="48"/>
       <c r="H121" s="48"/>
       <c r="I121" s="48"/>
@@ -6374,11 +6356,11 @@
       <c r="Z121" s="48"/>
       <c r="AA121" s="53"/>
     </row>
-    <row r="122" spans="2:27" ht="16" customHeight="1">
-      <c r="B122" s="134"/>
-      <c r="C122" s="133"/>
-      <c r="E122" s="117"/>
-      <c r="F122" s="122"/>
+    <row r="122" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B122" s="141"/>
+      <c r="C122" s="130"/>
+      <c r="E122" s="148"/>
+      <c r="F122" s="153"/>
       <c r="G122" s="48"/>
       <c r="H122" s="48"/>
       <c r="I122" s="48"/>
@@ -6419,13 +6401,13 @@
       <c r="Z122" s="48"/>
       <c r="AA122" s="53"/>
     </row>
-    <row r="123" spans="2:27" ht="17" customHeight="1">
-      <c r="B123" s="134"/>
+    <row r="123" spans="2:27" ht="16.95" customHeight="1">
+      <c r="B123" s="141"/>
       <c r="C123" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E123" s="117"/>
-      <c r="F123" s="122"/>
+      <c r="E123" s="148"/>
+      <c r="F123" s="153"/>
       <c r="G123" s="48"/>
       <c r="H123" s="48"/>
       <c r="I123" s="48"/>
@@ -6466,15 +6448,15 @@
       <c r="Z123" s="48"/>
       <c r="AA123" s="53"/>
     </row>
-    <row r="124" spans="2:27" ht="16" customHeight="1">
-      <c r="B124" s="125" t="s">
+    <row r="124" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B124" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="133" t="s">
+      <c r="C124" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="E124" s="117"/>
-      <c r="F124" s="122"/>
+      <c r="E124" s="148"/>
+      <c r="F124" s="153"/>
       <c r="G124" s="48"/>
       <c r="H124" s="48"/>
       <c r="I124" s="48"/>
@@ -6516,10 +6498,10 @@
       <c r="AA124" s="53"/>
     </row>
     <row r="125" spans="2:27">
-      <c r="B125" s="125"/>
-      <c r="C125" s="133"/>
-      <c r="E125" s="117"/>
-      <c r="F125" s="122"/>
+      <c r="B125" s="133"/>
+      <c r="C125" s="130"/>
+      <c r="E125" s="148"/>
+      <c r="F125" s="153"/>
       <c r="G125" s="48"/>
       <c r="H125" s="48"/>
       <c r="I125" s="48"/>
@@ -6561,12 +6543,12 @@
       <c r="AA125" s="53"/>
     </row>
     <row r="126" spans="2:27">
-      <c r="B126" s="125"/>
-      <c r="C126" s="133" t="s">
+      <c r="B126" s="133"/>
+      <c r="C126" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="117"/>
-      <c r="F126" s="122"/>
+      <c r="E126" s="148"/>
+      <c r="F126" s="153"/>
       <c r="G126" s="48"/>
       <c r="H126" s="48"/>
       <c r="I126" s="48"/>
@@ -6608,10 +6590,10 @@
       <c r="AA126" s="53"/>
     </row>
     <row r="127" spans="2:27">
-      <c r="B127" s="125"/>
-      <c r="C127" s="133"/>
-      <c r="E127" s="117"/>
-      <c r="F127" s="122"/>
+      <c r="B127" s="133"/>
+      <c r="C127" s="130"/>
+      <c r="E127" s="148"/>
+      <c r="F127" s="153"/>
       <c r="G127" s="48"/>
       <c r="H127" s="48"/>
       <c r="I127" s="48"/>
@@ -6653,10 +6635,10 @@
       <c r="AA127" s="53"/>
     </row>
     <row r="128" spans="2:27">
-      <c r="B128" s="125"/>
-      <c r="C128" s="133"/>
-      <c r="E128" s="117"/>
-      <c r="F128" s="122"/>
+      <c r="B128" s="133"/>
+      <c r="C128" s="130"/>
+      <c r="E128" s="148"/>
+      <c r="F128" s="153"/>
       <c r="G128" s="48"/>
       <c r="H128" s="48"/>
       <c r="I128" s="48"/>
@@ -6697,15 +6679,15 @@
       <c r="Z128" s="48"/>
       <c r="AA128" s="53"/>
     </row>
-    <row r="129" spans="2:27" ht="16" customHeight="1">
-      <c r="B129" s="125" t="s">
+    <row r="129" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B129" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="C129" s="133" t="s">
+      <c r="C129" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="E129" s="117"/>
-      <c r="F129" s="122"/>
+      <c r="E129" s="148"/>
+      <c r="F129" s="153"/>
       <c r="G129" s="48"/>
       <c r="H129" s="48"/>
       <c r="I129" s="48"/>
@@ -6747,10 +6729,10 @@
       <c r="AA129" s="53"/>
     </row>
     <row r="130" spans="2:27">
-      <c r="B130" s="125"/>
-      <c r="C130" s="133"/>
-      <c r="E130" s="117"/>
-      <c r="F130" s="122"/>
+      <c r="B130" s="133"/>
+      <c r="C130" s="130"/>
+      <c r="E130" s="148"/>
+      <c r="F130" s="153"/>
       <c r="G130" s="48"/>
       <c r="H130" s="48"/>
       <c r="I130" s="48"/>
@@ -6792,12 +6774,12 @@
       <c r="AA130" s="53"/>
     </row>
     <row r="131" spans="2:27">
-      <c r="B131" s="125" t="s">
+      <c r="B131" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="133"/>
-      <c r="E131" s="117"/>
-      <c r="F131" s="122"/>
+      <c r="C131" s="130"/>
+      <c r="E131" s="148"/>
+      <c r="F131" s="153"/>
       <c r="G131" s="48"/>
       <c r="H131" s="48"/>
       <c r="I131" s="48"/>
@@ -6839,10 +6821,10 @@
       <c r="AA131" s="53"/>
     </row>
     <row r="132" spans="2:27">
-      <c r="B132" s="125"/>
-      <c r="C132" s="133"/>
-      <c r="E132" s="117"/>
-      <c r="F132" s="122"/>
+      <c r="B132" s="133"/>
+      <c r="C132" s="130"/>
+      <c r="E132" s="148"/>
+      <c r="F132" s="153"/>
       <c r="G132" s="48"/>
       <c r="H132" s="48"/>
       <c r="I132" s="48"/>
@@ -6884,14 +6866,14 @@
       <c r="AA132" s="53"/>
     </row>
     <row r="133" spans="2:27">
-      <c r="B133" s="125" t="s">
+      <c r="B133" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="C133" s="133" t="s">
+      <c r="C133" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="E133" s="117"/>
-      <c r="F133" s="122"/>
+      <c r="E133" s="148"/>
+      <c r="F133" s="153"/>
       <c r="G133" s="48"/>
       <c r="H133" s="48"/>
       <c r="I133" s="48"/>
@@ -6933,10 +6915,10 @@
       <c r="AA133" s="53"/>
     </row>
     <row r="134" spans="2:27">
-      <c r="B134" s="125"/>
-      <c r="C134" s="133"/>
-      <c r="E134" s="117"/>
-      <c r="F134" s="122"/>
+      <c r="B134" s="133"/>
+      <c r="C134" s="130"/>
+      <c r="E134" s="148"/>
+      <c r="F134" s="153"/>
       <c r="G134" s="48"/>
       <c r="H134" s="48"/>
       <c r="I134" s="48"/>
@@ -6978,10 +6960,10 @@
       <c r="AA134" s="53"/>
     </row>
     <row r="135" spans="2:27">
-      <c r="B135" s="125"/>
-      <c r="C135" s="133"/>
-      <c r="E135" s="117"/>
-      <c r="F135" s="122"/>
+      <c r="B135" s="133"/>
+      <c r="C135" s="130"/>
+      <c r="E135" s="148"/>
+      <c r="F135" s="153"/>
       <c r="G135" s="48"/>
       <c r="H135" s="48"/>
       <c r="I135" s="48"/>
@@ -7023,14 +7005,14 @@
       <c r="AA135" s="53"/>
     </row>
     <row r="136" spans="2:27">
-      <c r="B136" s="125" t="s">
+      <c r="B136" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="C136" s="141" t="s">
+      <c r="C136" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="E136" s="117"/>
-      <c r="F136" s="122"/>
+      <c r="E136" s="148"/>
+      <c r="F136" s="153"/>
       <c r="G136" s="48"/>
       <c r="H136" s="48"/>
       <c r="I136" s="48"/>
@@ -7071,11 +7053,11 @@
       <c r="Z136" s="48"/>
       <c r="AA136" s="53"/>
     </row>
-    <row r="137" spans="2:27" ht="16" customHeight="1">
-      <c r="B137" s="125"/>
-      <c r="C137" s="142"/>
-      <c r="E137" s="117"/>
-      <c r="F137" s="122"/>
+    <row r="137" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B137" s="133"/>
+      <c r="C137" s="140"/>
+      <c r="E137" s="148"/>
+      <c r="F137" s="153"/>
       <c r="G137" s="48"/>
       <c r="H137" s="48"/>
       <c r="I137" s="48"/>
@@ -7117,10 +7099,10 @@
       <c r="AA137" s="53"/>
     </row>
     <row r="138" spans="2:27">
-      <c r="B138" s="125"/>
-      <c r="C138" s="142"/>
-      <c r="E138" s="117"/>
-      <c r="F138" s="122"/>
+      <c r="B138" s="133"/>
+      <c r="C138" s="140"/>
+      <c r="E138" s="148"/>
+      <c r="F138" s="153"/>
       <c r="G138" s="48"/>
       <c r="H138" s="48"/>
       <c r="I138" s="48"/>
@@ -7162,10 +7144,10 @@
       <c r="AA138" s="53"/>
     </row>
     <row r="139" spans="2:27">
-      <c r="B139" s="125"/>
-      <c r="C139" s="142"/>
-      <c r="E139" s="117"/>
-      <c r="F139" s="122"/>
+      <c r="B139" s="133"/>
+      <c r="C139" s="140"/>
+      <c r="E139" s="148"/>
+      <c r="F139" s="153"/>
       <c r="G139" s="48"/>
       <c r="H139" s="48"/>
       <c r="I139" s="48"/>
@@ -7207,10 +7189,10 @@
       <c r="AA139" s="53"/>
     </row>
     <row r="140" spans="2:27">
-      <c r="B140" s="125"/>
-      <c r="C140" s="138"/>
-      <c r="E140" s="117"/>
-      <c r="F140" s="122"/>
+      <c r="B140" s="133"/>
+      <c r="C140" s="129"/>
+      <c r="E140" s="148"/>
+      <c r="F140" s="153"/>
       <c r="G140" s="48"/>
       <c r="H140" s="48"/>
       <c r="I140" s="48"/>
@@ -7252,14 +7234,14 @@
       <c r="AA140" s="53"/>
     </row>
     <row r="141" spans="2:27">
-      <c r="B141" s="125" t="s">
+      <c r="B141" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="C141" s="133" t="s">
+      <c r="C141" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="E141" s="117"/>
-      <c r="F141" s="122"/>
+      <c r="E141" s="148"/>
+      <c r="F141" s="153"/>
       <c r="G141" s="48"/>
       <c r="H141" s="48"/>
       <c r="I141" s="48"/>
@@ -7300,11 +7282,11 @@
       <c r="Z141" s="48"/>
       <c r="AA141" s="53"/>
     </row>
-    <row r="142" spans="2:27" ht="17" customHeight="1">
-      <c r="B142" s="125"/>
-      <c r="C142" s="133"/>
-      <c r="E142" s="117"/>
-      <c r="F142" s="122"/>
+    <row r="142" spans="2:27" ht="16.95" customHeight="1">
+      <c r="B142" s="133"/>
+      <c r="C142" s="130"/>
+      <c r="E142" s="148"/>
+      <c r="F142" s="153"/>
       <c r="G142" s="48"/>
       <c r="H142" s="48"/>
       <c r="I142" s="48"/>
@@ -7346,10 +7328,10 @@
       <c r="AA142" s="53"/>
     </row>
     <row r="143" spans="2:27">
-      <c r="B143" s="125"/>
-      <c r="C143" s="133"/>
-      <c r="E143" s="117"/>
-      <c r="F143" s="122"/>
+      <c r="B143" s="133"/>
+      <c r="C143" s="130"/>
+      <c r="E143" s="148"/>
+      <c r="F143" s="153"/>
       <c r="G143" s="48"/>
       <c r="H143" s="48"/>
       <c r="I143" s="48"/>
@@ -7391,10 +7373,10 @@
       <c r="AA143" s="53"/>
     </row>
     <row r="144" spans="2:27">
-      <c r="B144" s="125"/>
-      <c r="C144" s="133"/>
-      <c r="E144" s="117"/>
-      <c r="F144" s="122"/>
+      <c r="B144" s="133"/>
+      <c r="C144" s="130"/>
+      <c r="E144" s="148"/>
+      <c r="F144" s="153"/>
       <c r="G144" s="48"/>
       <c r="H144" s="48"/>
       <c r="I144" s="48"/>
@@ -7435,11 +7417,11 @@
       <c r="Z144" s="48"/>
       <c r="AA144" s="53"/>
     </row>
-    <row r="145" spans="2:27" ht="16" customHeight="1">
-      <c r="B145" s="125"/>
-      <c r="C145" s="133"/>
-      <c r="E145" s="117"/>
-      <c r="F145" s="122"/>
+    <row r="145" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B145" s="133"/>
+      <c r="C145" s="130"/>
+      <c r="E145" s="148"/>
+      <c r="F145" s="153"/>
       <c r="G145" s="48"/>
       <c r="H145" s="48"/>
       <c r="I145" s="48"/>
@@ -7481,12 +7463,12 @@
       <c r="AA145" s="53"/>
     </row>
     <row r="146" spans="2:27">
-      <c r="B146" s="125" t="s">
+      <c r="B146" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="C146" s="133"/>
-      <c r="E146" s="117"/>
-      <c r="F146" s="122"/>
+      <c r="C146" s="130"/>
+      <c r="E146" s="148"/>
+      <c r="F146" s="153"/>
       <c r="G146" s="48"/>
       <c r="H146" s="48"/>
       <c r="I146" s="48"/>
@@ -7528,10 +7510,10 @@
       <c r="AA146" s="53"/>
     </row>
     <row r="147" spans="2:27">
-      <c r="B147" s="125"/>
-      <c r="C147" s="133"/>
-      <c r="E147" s="117"/>
-      <c r="F147" s="122"/>
+      <c r="B147" s="133"/>
+      <c r="C147" s="130"/>
+      <c r="E147" s="148"/>
+      <c r="F147" s="153"/>
       <c r="G147" s="48"/>
       <c r="H147" s="48"/>
       <c r="I147" s="48"/>
@@ -7573,10 +7555,10 @@
       <c r="AA147" s="53"/>
     </row>
     <row r="148" spans="2:27">
-      <c r="B148" s="125"/>
-      <c r="C148" s="133"/>
-      <c r="E148" s="117"/>
-      <c r="F148" s="122"/>
+      <c r="B148" s="133"/>
+      <c r="C148" s="130"/>
+      <c r="E148" s="148"/>
+      <c r="F148" s="153"/>
       <c r="G148" s="48"/>
       <c r="H148" s="48"/>
       <c r="I148" s="48"/>
@@ -7617,11 +7599,11 @@
       <c r="Z148" s="48"/>
       <c r="AA148" s="53"/>
     </row>
-    <row r="149" spans="2:27" ht="16" customHeight="1" thickBot="1">
-      <c r="B149" s="125"/>
-      <c r="C149" s="133"/>
-      <c r="E149" s="120"/>
-      <c r="F149" s="123"/>
+    <row r="149" spans="2:27" ht="16.05" customHeight="1" thickBot="1">
+      <c r="B149" s="133"/>
+      <c r="C149" s="130"/>
+      <c r="E149" s="151"/>
+      <c r="F149" s="154"/>
       <c r="G149" s="56"/>
       <c r="H149" s="56"/>
       <c r="I149" s="56"/>
@@ -7663,9 +7645,9 @@
       <c r="AA149" s="57"/>
     </row>
     <row r="150" spans="2:27">
-      <c r="B150" s="125"/>
-      <c r="C150" s="133"/>
-      <c r="E150" s="116" t="s">
+      <c r="B150" s="133"/>
+      <c r="C150" s="130"/>
+      <c r="E150" s="147" t="s">
         <v>260</v>
       </c>
       <c r="F150" s="63" t="s">
@@ -7713,9 +7695,9 @@
       <c r="AA150" s="52"/>
     </row>
     <row r="151" spans="2:27">
-      <c r="B151" s="125"/>
-      <c r="C151" s="133"/>
-      <c r="E151" s="117"/>
+      <c r="B151" s="133"/>
+      <c r="C151" s="130"/>
+      <c r="E151" s="148"/>
       <c r="F151" s="60" t="s">
         <v>189</v>
       </c>
@@ -7754,9 +7736,9 @@
       <c r="AA151" s="53"/>
     </row>
     <row r="152" spans="2:27">
-      <c r="B152" s="125"/>
-      <c r="C152" s="133"/>
-      <c r="E152" s="117"/>
+      <c r="B152" s="133"/>
+      <c r="C152" s="130"/>
+      <c r="E152" s="148"/>
       <c r="F152" s="60" t="s">
         <v>190</v>
       </c>
@@ -7800,9 +7782,9 @@
       <c r="AA152" s="53"/>
     </row>
     <row r="153" spans="2:27">
-      <c r="B153" s="125"/>
-      <c r="C153" s="133"/>
-      <c r="E153" s="117"/>
+      <c r="B153" s="133"/>
+      <c r="C153" s="130"/>
+      <c r="E153" s="148"/>
       <c r="F153" s="60" t="s">
         <v>191</v>
       </c>
@@ -7838,13 +7820,13 @@
       <c r="AA153" s="53"/>
     </row>
     <row r="154" spans="2:27">
-      <c r="B154" s="125" t="s">
+      <c r="B154" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="133" t="s">
+      <c r="C154" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="E154" s="117"/>
+      <c r="E154" s="148"/>
       <c r="F154" s="60" t="s">
         <v>192</v>
       </c>
@@ -7890,9 +7872,9 @@
       <c r="AA154" s="53"/>
     </row>
     <row r="155" spans="2:27">
-      <c r="B155" s="125"/>
-      <c r="C155" s="133"/>
-      <c r="E155" s="117"/>
+      <c r="B155" s="133"/>
+      <c r="C155" s="130"/>
+      <c r="E155" s="148"/>
       <c r="F155" s="60" t="s">
         <v>193</v>
       </c>
@@ -7938,9 +7920,9 @@
       <c r="AA155" s="53"/>
     </row>
     <row r="156" spans="2:27">
-      <c r="B156" s="125"/>
-      <c r="C156" s="133"/>
-      <c r="E156" s="117"/>
+      <c r="B156" s="133"/>
+      <c r="C156" s="130"/>
+      <c r="E156" s="148"/>
       <c r="F156" s="60" t="s">
         <v>194</v>
       </c>
@@ -7985,14 +7967,14 @@
       <c r="Z156" s="48"/>
       <c r="AA156" s="53"/>
     </row>
-    <row r="157" spans="2:27" ht="17" thickBot="1">
-      <c r="B157" s="140" t="s">
+    <row r="157" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B157" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="C157" s="133" t="s">
+      <c r="C157" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="E157" s="118"/>
+      <c r="E157" s="149"/>
       <c r="F157" s="61" t="s">
         <v>197</v>
       </c>
@@ -8030,12 +8012,12 @@
       <c r="AA157" s="55"/>
     </row>
     <row r="158" spans="2:27">
-      <c r="B158" s="140"/>
-      <c r="C158" s="133"/>
-      <c r="E158" s="119" t="s">
+      <c r="B158" s="139"/>
+      <c r="C158" s="130"/>
+      <c r="E158" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="F158" s="124" t="s">
+      <c r="F158" s="155" t="s">
         <v>272</v>
       </c>
       <c r="G158" s="37">
@@ -8067,10 +8049,10 @@
       <c r="AA158" s="52"/>
     </row>
     <row r="159" spans="2:27">
-      <c r="B159" s="140"/>
-      <c r="C159" s="133"/>
-      <c r="E159" s="117"/>
-      <c r="F159" s="125"/>
+      <c r="B159" s="139"/>
+      <c r="C159" s="130"/>
+      <c r="E159" s="148"/>
+      <c r="F159" s="133"/>
       <c r="G159" s="1">
         <v>1.01435445973261</v>
       </c>
@@ -8100,10 +8082,10 @@
       <c r="AA159" s="53"/>
     </row>
     <row r="160" spans="2:27">
-      <c r="B160" s="140"/>
-      <c r="C160" s="133"/>
-      <c r="E160" s="117"/>
-      <c r="F160" s="125"/>
+      <c r="B160" s="139"/>
+      <c r="C160" s="130"/>
+      <c r="E160" s="148"/>
+      <c r="F160" s="133"/>
       <c r="G160" s="1">
         <v>2.0570279393808799</v>
       </c>
@@ -8132,13 +8114,13 @@
       <c r="Z160" s="48"/>
       <c r="AA160" s="53"/>
     </row>
-    <row r="161" spans="2:27" ht="16" customHeight="1">
-      <c r="B161" s="140" t="s">
+    <row r="161" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B161" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="C161" s="133"/>
-      <c r="E161" s="117"/>
-      <c r="F161" s="125"/>
+      <c r="C161" s="130"/>
+      <c r="E161" s="148"/>
+      <c r="F161" s="133"/>
       <c r="G161" s="1">
         <v>5.0235478806907299</v>
       </c>
@@ -8167,11 +8149,11 @@
       <c r="Z161" s="48"/>
       <c r="AA161" s="53"/>
     </row>
-    <row r="162" spans="2:27" ht="17" thickBot="1">
-      <c r="B162" s="140"/>
-      <c r="C162" s="133"/>
-      <c r="E162" s="117"/>
-      <c r="F162" s="126"/>
+    <row r="162" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B162" s="139"/>
+      <c r="C162" s="130"/>
+      <c r="E162" s="148"/>
+      <c r="F162" s="134"/>
       <c r="G162" s="24">
         <v>16.7844573726926</v>
       </c>
@@ -8201,10 +8183,10 @@
       <c r="AA162" s="55"/>
     </row>
     <row r="163" spans="2:27">
-      <c r="B163" s="140"/>
-      <c r="C163" s="133"/>
-      <c r="E163" s="117"/>
-      <c r="F163" s="124" t="s">
+      <c r="B163" s="139"/>
+      <c r="C163" s="130"/>
+      <c r="E163" s="148"/>
+      <c r="F163" s="155" t="s">
         <v>273</v>
       </c>
       <c r="G163" s="37">
@@ -8236,10 +8218,10 @@
       <c r="AA163" s="52"/>
     </row>
     <row r="164" spans="2:27">
-      <c r="B164" s="140"/>
-      <c r="C164" s="133"/>
-      <c r="E164" s="117"/>
-      <c r="F164" s="125"/>
+      <c r="B164" s="139"/>
+      <c r="C164" s="130"/>
+      <c r="E164" s="148"/>
+      <c r="F164" s="133"/>
       <c r="G164" s="1">
         <v>1.0000384334524699</v>
       </c>
@@ -8269,10 +8251,10 @@
       <c r="AA164" s="53"/>
     </row>
     <row r="165" spans="2:27">
-      <c r="B165" s="140"/>
-      <c r="C165" s="133"/>
-      <c r="E165" s="117"/>
-      <c r="F165" s="125"/>
+      <c r="B165" s="139"/>
+      <c r="C165" s="130"/>
+      <c r="E165" s="148"/>
+      <c r="F165" s="133"/>
       <c r="G165" s="1">
         <v>1.9953111187978001</v>
       </c>
@@ -8302,10 +8284,10 @@
       <c r="AA165" s="53"/>
     </row>
     <row r="166" spans="2:27">
-      <c r="B166" s="140"/>
-      <c r="C166" s="133"/>
-      <c r="E166" s="117"/>
-      <c r="F166" s="125"/>
+      <c r="B166" s="139"/>
+      <c r="C166" s="130"/>
+      <c r="E166" s="148"/>
+      <c r="F166" s="133"/>
       <c r="G166" s="1">
         <v>4.9786694338752397</v>
       </c>
@@ -8334,11 +8316,11 @@
       <c r="Z166" s="48"/>
       <c r="AA166" s="53"/>
     </row>
-    <row r="167" spans="2:27" ht="17" thickBot="1">
-      <c r="B167" s="140"/>
-      <c r="C167" s="133"/>
-      <c r="E167" s="120"/>
-      <c r="F167" s="126"/>
+    <row r="167" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B167" s="139"/>
+      <c r="C167" s="130"/>
+      <c r="E167" s="151"/>
+      <c r="F167" s="134"/>
       <c r="G167" s="24">
         <v>16.686933907272799</v>
       </c>
@@ -8368,9 +8350,9 @@
       <c r="AA167" s="55"/>
     </row>
     <row r="168" spans="2:27">
-      <c r="B168" s="140"/>
-      <c r="C168" s="133"/>
-      <c r="E168" s="116" t="s">
+      <c r="B168" s="139"/>
+      <c r="C168" s="130"/>
+      <c r="E168" s="147" t="s">
         <v>105</v>
       </c>
       <c r="F168" s="64"/>
@@ -8406,13 +8388,13 @@
       </c>
     </row>
     <row r="169" spans="2:27">
-      <c r="B169" s="125" t="s">
+      <c r="B169" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="C169" s="133" t="s">
+      <c r="C169" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="E169" s="117"/>
+      <c r="E169" s="148"/>
       <c r="F169" s="65"/>
       <c r="G169" s="48"/>
       <c r="H169" s="48"/>
@@ -8446,9 +8428,9 @@
       </c>
     </row>
     <row r="170" spans="2:27">
-      <c r="B170" s="125"/>
-      <c r="C170" s="133"/>
-      <c r="E170" s="117"/>
+      <c r="B170" s="133"/>
+      <c r="C170" s="130"/>
+      <c r="E170" s="148"/>
       <c r="F170" s="65"/>
       <c r="G170" s="48"/>
       <c r="H170" s="48"/>
@@ -8482,9 +8464,9 @@
       </c>
     </row>
     <row r="171" spans="2:27">
-      <c r="B171" s="125"/>
-      <c r="C171" s="133"/>
-      <c r="E171" s="117"/>
+      <c r="B171" s="133"/>
+      <c r="C171" s="130"/>
+      <c r="E171" s="148"/>
       <c r="F171" s="65"/>
       <c r="G171" s="48"/>
       <c r="H171" s="48"/>
@@ -8517,10 +8499,10 @@
         <v>19.922371500000001</v>
       </c>
     </row>
-    <row r="172" spans="2:27" ht="16" customHeight="1">
-      <c r="B172" s="125"/>
-      <c r="C172" s="133"/>
-      <c r="E172" s="117"/>
+    <row r="172" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B172" s="133"/>
+      <c r="C172" s="130"/>
+      <c r="E172" s="148"/>
       <c r="F172" s="65"/>
       <c r="G172" s="48"/>
       <c r="H172" s="48"/>
@@ -8554,13 +8536,13 @@
       </c>
     </row>
     <row r="173" spans="2:27">
-      <c r="B173" s="125" t="s">
+      <c r="B173" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="C173" s="133" t="s">
+      <c r="C173" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="E173" s="117"/>
+      <c r="E173" s="148"/>
       <c r="F173" s="65"/>
       <c r="G173" s="48"/>
       <c r="H173" s="48"/>
@@ -8594,9 +8576,9 @@
       </c>
     </row>
     <row r="174" spans="2:27">
-      <c r="B174" s="125"/>
-      <c r="C174" s="133"/>
-      <c r="E174" s="117"/>
+      <c r="B174" s="133"/>
+      <c r="C174" s="130"/>
+      <c r="E174" s="148"/>
       <c r="F174" s="65"/>
       <c r="G174" s="48"/>
       <c r="H174" s="48"/>
@@ -8630,9 +8612,9 @@
       </c>
     </row>
     <row r="175" spans="2:27">
-      <c r="B175" s="125"/>
-      <c r="C175" s="133"/>
-      <c r="E175" s="117"/>
+      <c r="B175" s="133"/>
+      <c r="C175" s="130"/>
+      <c r="E175" s="148"/>
       <c r="F175" s="65"/>
       <c r="G175" s="48"/>
       <c r="H175" s="48"/>
@@ -8666,9 +8648,9 @@
       </c>
     </row>
     <row r="176" spans="2:27">
-      <c r="B176" s="125"/>
-      <c r="C176" s="133"/>
-      <c r="E176" s="117"/>
+      <c r="B176" s="133"/>
+      <c r="C176" s="130"/>
+      <c r="E176" s="148"/>
       <c r="F176" s="65"/>
       <c r="G176" s="48"/>
       <c r="H176" s="48"/>
@@ -8702,11 +8684,11 @@
       </c>
     </row>
     <row r="177" spans="2:27">
-      <c r="B177" s="125" t="s">
+      <c r="B177" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="C177" s="133"/>
-      <c r="E177" s="117"/>
+      <c r="C177" s="130"/>
+      <c r="E177" s="148"/>
       <c r="F177" s="65"/>
       <c r="G177" s="48"/>
       <c r="H177" s="48"/>
@@ -8740,9 +8722,9 @@
       </c>
     </row>
     <row r="178" spans="2:27">
-      <c r="B178" s="125"/>
-      <c r="C178" s="133"/>
-      <c r="E178" s="117"/>
+      <c r="B178" s="133"/>
+      <c r="C178" s="130"/>
+      <c r="E178" s="148"/>
       <c r="F178" s="65"/>
       <c r="G178" s="48"/>
       <c r="H178" s="48"/>
@@ -8776,9 +8758,9 @@
       </c>
     </row>
     <row r="179" spans="2:27">
-      <c r="B179" s="125"/>
-      <c r="C179" s="133"/>
-      <c r="E179" s="117"/>
+      <c r="B179" s="133"/>
+      <c r="C179" s="130"/>
+      <c r="E179" s="148"/>
       <c r="F179" s="65"/>
       <c r="G179" s="48"/>
       <c r="H179" s="48"/>
@@ -8811,10 +8793,10 @@
         <v>30.0627073</v>
       </c>
     </row>
-    <row r="180" spans="2:27" ht="16" customHeight="1">
-      <c r="B180" s="125"/>
-      <c r="C180" s="133"/>
-      <c r="E180" s="117"/>
+    <row r="180" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B180" s="133"/>
+      <c r="C180" s="130"/>
+      <c r="E180" s="148"/>
       <c r="F180" s="65"/>
       <c r="G180" s="48"/>
       <c r="H180" s="48"/>
@@ -8848,13 +8830,13 @@
       </c>
     </row>
     <row r="181" spans="2:27">
-      <c r="B181" s="125" t="s">
+      <c r="B181" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="C181" s="133" t="s">
+      <c r="C181" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="E181" s="117"/>
+      <c r="E181" s="148"/>
       <c r="F181" s="65"/>
       <c r="G181" s="48"/>
       <c r="H181" s="48"/>
@@ -8888,9 +8870,9 @@
       </c>
     </row>
     <row r="182" spans="2:27">
-      <c r="B182" s="125"/>
-      <c r="C182" s="133"/>
-      <c r="E182" s="117"/>
+      <c r="B182" s="133"/>
+      <c r="C182" s="130"/>
+      <c r="E182" s="148"/>
       <c r="F182" s="65"/>
       <c r="G182" s="48"/>
       <c r="H182" s="48"/>
@@ -8930,7 +8912,7 @@
       <c r="C183" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E183" s="117"/>
+      <c r="E183" s="148"/>
       <c r="F183" s="65"/>
       <c r="G183" s="48"/>
       <c r="H183" s="48"/>
@@ -8964,13 +8946,13 @@
       </c>
     </row>
     <row r="184" spans="2:27">
-      <c r="B184" s="125" t="s">
+      <c r="B184" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="C184" s="133" t="s">
+      <c r="C184" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="E184" s="117"/>
+      <c r="E184" s="148"/>
       <c r="F184" s="65"/>
       <c r="G184" s="48"/>
       <c r="H184" s="48"/>
@@ -9004,9 +8986,9 @@
       </c>
     </row>
     <row r="185" spans="2:27">
-      <c r="B185" s="125"/>
-      <c r="C185" s="133"/>
-      <c r="E185" s="117"/>
+      <c r="B185" s="133"/>
+      <c r="C185" s="130"/>
+      <c r="E185" s="148"/>
       <c r="F185" s="65"/>
       <c r="G185" s="48"/>
       <c r="H185" s="48"/>
@@ -9039,10 +9021,10 @@
         <v>40.4672141</v>
       </c>
     </row>
-    <row r="186" spans="2:27" ht="16" customHeight="1">
-      <c r="B186" s="125"/>
-      <c r="C186" s="133"/>
-      <c r="E186" s="117"/>
+    <row r="186" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B186" s="133"/>
+      <c r="C186" s="130"/>
+      <c r="E186" s="148"/>
       <c r="F186" s="65"/>
       <c r="G186" s="48"/>
       <c r="H186" s="48"/>
@@ -9076,9 +9058,9 @@
       </c>
     </row>
     <row r="187" spans="2:27">
-      <c r="B187" s="125"/>
-      <c r="C187" s="133"/>
-      <c r="E187" s="117"/>
+      <c r="B187" s="133"/>
+      <c r="C187" s="130"/>
+      <c r="E187" s="148"/>
       <c r="F187" s="65"/>
       <c r="G187" s="48"/>
       <c r="H187" s="48"/>
@@ -9112,9 +9094,9 @@
       </c>
     </row>
     <row r="188" spans="2:27">
-      <c r="B188" s="125"/>
-      <c r="C188" s="133"/>
-      <c r="E188" s="117"/>
+      <c r="B188" s="133"/>
+      <c r="C188" s="130"/>
+      <c r="E188" s="148"/>
       <c r="F188" s="65"/>
       <c r="G188" s="48"/>
       <c r="H188" s="48"/>
@@ -9147,10 +9129,10 @@
         <v>44.019746099999999</v>
       </c>
     </row>
-    <row r="189" spans="2:27" ht="17" thickBot="1">
-      <c r="B189" s="125"/>
-      <c r="C189" s="133"/>
-      <c r="E189" s="118"/>
+    <row r="189" spans="2:27" ht="16.2" thickBot="1">
+      <c r="B189" s="133"/>
+      <c r="C189" s="130"/>
+      <c r="E189" s="149"/>
       <c r="F189" s="66"/>
       <c r="G189" s="54"/>
       <c r="H189" s="54"/>
@@ -9183,53 +9165,53 @@
         <v>43.709449900000003</v>
       </c>
     </row>
-    <row r="190" spans="2:27" ht="16" customHeight="1">
-      <c r="B190" s="125" t="s">
+    <row r="190" spans="2:27" ht="16.05" customHeight="1">
+      <c r="B190" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="C190" s="133"/>
+      <c r="C190" s="130"/>
     </row>
     <row r="191" spans="2:27">
-      <c r="B191" s="125"/>
-      <c r="C191" s="133"/>
+      <c r="B191" s="133"/>
+      <c r="C191" s="130"/>
     </row>
     <row r="192" spans="2:27">
-      <c r="B192" s="125"/>
-      <c r="C192" s="133"/>
+      <c r="B192" s="133"/>
+      <c r="C192" s="130"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="125"/>
-      <c r="C193" s="133"/>
+      <c r="B193" s="133"/>
+      <c r="C193" s="130"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="125" t="s">
+      <c r="B194" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="C194" s="133" t="s">
+      <c r="C194" s="130" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="125"/>
-      <c r="C195" s="133"/>
+      <c r="B195" s="133"/>
+      <c r="C195" s="130"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="144" t="s">
+      <c r="B196" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C196" s="133" t="s">
+      <c r="C196" s="130" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="144"/>
-      <c r="C197" s="133"/>
+      <c r="B197" s="138"/>
+      <c r="C197" s="130"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="125" t="s">
+      <c r="B198" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="C198" s="133" t="s">
+      <c r="C198" s="130" t="s">
         <v>110</v>
       </c>
       <c r="E198" s="47" t="s">
@@ -9237,109 +9219,109 @@
       </c>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="125"/>
-      <c r="C199" s="133"/>
+      <c r="B199" s="133"/>
+      <c r="C199" s="130"/>
       <c r="E199" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="125"/>
-      <c r="C200" s="133"/>
-    </row>
-    <row r="201" spans="2:5" ht="16" customHeight="1">
-      <c r="B201" s="125"/>
-      <c r="C201" s="133"/>
+      <c r="B200" s="133"/>
+      <c r="C200" s="130"/>
+    </row>
+    <row r="201" spans="2:5" ht="16.05" customHeight="1">
+      <c r="B201" s="133"/>
+      <c r="C201" s="130"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="125"/>
-      <c r="C202" s="133"/>
-    </row>
-    <row r="203" spans="2:5" ht="16" customHeight="1">
-      <c r="B203" s="125"/>
-      <c r="C203" s="133"/>
+      <c r="B202" s="133"/>
+      <c r="C202" s="130"/>
+    </row>
+    <row r="203" spans="2:5" ht="16.05" customHeight="1">
+      <c r="B203" s="133"/>
+      <c r="C203" s="130"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="125"/>
-      <c r="C204" s="133"/>
+      <c r="B204" s="133"/>
+      <c r="C204" s="130"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="125" t="s">
+      <c r="B205" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="C205" s="133" t="s">
+      <c r="C205" s="130" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="125"/>
-      <c r="C206" s="133"/>
+      <c r="B206" s="133"/>
+      <c r="C206" s="130"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="125"/>
-      <c r="C207" s="133"/>
+      <c r="B207" s="133"/>
+      <c r="C207" s="130"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="125" t="s">
+      <c r="B208" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="C208" s="133" t="s">
+      <c r="C208" s="130" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="125"/>
-      <c r="C209" s="133"/>
+      <c r="B209" s="133"/>
+      <c r="C209" s="130"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="125" t="s">
+      <c r="B210" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="C210" s="133" t="s">
+      <c r="C210" s="130" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="125"/>
-      <c r="C211" s="133"/>
+      <c r="B211" s="133"/>
+      <c r="C211" s="130"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="125"/>
-      <c r="C212" s="133"/>
+      <c r="B212" s="133"/>
+      <c r="C212" s="130"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="125" t="s">
+      <c r="B213" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="C213" s="133"/>
+      <c r="C213" s="130"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="125"/>
-      <c r="C214" s="133"/>
+      <c r="B214" s="133"/>
+      <c r="C214" s="130"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="125" t="s">
+      <c r="B215" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="C215" s="133"/>
-    </row>
-    <row r="216" spans="2:3" ht="16" customHeight="1">
-      <c r="B216" s="125"/>
-      <c r="C216" s="133"/>
+      <c r="C215" s="130"/>
+    </row>
+    <row r="216" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B216" s="133"/>
+      <c r="C216" s="130"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="125" t="s">
+      <c r="B217" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="C217" s="133" t="s">
+      <c r="C217" s="130" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="17" thickBot="1">
-      <c r="B218" s="125"/>
-      <c r="C218" s="133"/>
-    </row>
-    <row r="219" spans="2:3" ht="17" thickBot="1">
+    <row r="218" spans="2:3" ht="16.2" thickBot="1">
+      <c r="B218" s="133"/>
+      <c r="C218" s="130"/>
+    </row>
+    <row r="219" spans="2:3" ht="16.2" thickBot="1">
       <c r="B219" s="18" t="s">
         <v>123</v>
       </c>
@@ -9348,336 +9330,336 @@
       </c>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="130" t="s">
+      <c r="B220" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="C220" s="138" t="s">
+      <c r="C220" s="129" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="125"/>
-      <c r="C221" s="133"/>
+      <c r="B221" s="133"/>
+      <c r="C221" s="130"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="125"/>
-      <c r="C222" s="133"/>
+      <c r="B222" s="133"/>
+      <c r="C222" s="130"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="125"/>
-      <c r="C223" s="133"/>
+      <c r="B223" s="133"/>
+      <c r="C223" s="130"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="125"/>
-      <c r="C224" s="133"/>
-    </row>
-    <row r="225" spans="2:3" ht="16" customHeight="1">
-      <c r="B225" s="125"/>
-      <c r="C225" s="133"/>
+      <c r="B224" s="133"/>
+      <c r="C224" s="130"/>
+    </row>
+    <row r="225" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B225" s="133"/>
+      <c r="C225" s="130"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="125"/>
-      <c r="C226" s="133"/>
-    </row>
-    <row r="227" spans="2:3" ht="16" customHeight="1">
-      <c r="B227" s="125" t="s">
+      <c r="B226" s="133"/>
+      <c r="C226" s="130"/>
+    </row>
+    <row r="227" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B227" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="C227" s="133"/>
+      <c r="C227" s="130"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="143"/>
-      <c r="C228" s="141"/>
+      <c r="B228" s="136"/>
+      <c r="C228" s="137"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="125" t="s">
+      <c r="B229" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="C229" s="133" t="s">
+      <c r="C229" s="130" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="125"/>
-      <c r="C230" s="133"/>
+      <c r="B230" s="133"/>
+      <c r="C230" s="130"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="125" t="s">
+      <c r="B231" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="C231" s="133"/>
+      <c r="C231" s="130"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="125"/>
-      <c r="C232" s="133"/>
+      <c r="B232" s="133"/>
+      <c r="C232" s="130"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="125"/>
-      <c r="C233" s="133"/>
+      <c r="B233" s="133"/>
+      <c r="C233" s="130"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="125"/>
-      <c r="C234" s="133"/>
+      <c r="B234" s="133"/>
+      <c r="C234" s="130"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="125"/>
-      <c r="C235" s="133"/>
+      <c r="B235" s="133"/>
+      <c r="C235" s="130"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="125"/>
-      <c r="C236" s="133"/>
+      <c r="B236" s="133"/>
+      <c r="C236" s="130"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="125"/>
-      <c r="C237" s="133"/>
+      <c r="B237" s="133"/>
+      <c r="C237" s="130"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="125"/>
-      <c r="C238" s="133"/>
+      <c r="B238" s="133"/>
+      <c r="C238" s="130"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="125"/>
-      <c r="C239" s="133"/>
-    </row>
-    <row r="240" spans="2:3" ht="16" customHeight="1">
-      <c r="B240" s="125" t="s">
+      <c r="B239" s="133"/>
+      <c r="C239" s="130"/>
+    </row>
+    <row r="240" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B240" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="C240" s="133" t="s">
+      <c r="C240" s="130" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="125"/>
-      <c r="C241" s="133"/>
+      <c r="B241" s="133"/>
+      <c r="C241" s="130"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="125" t="s">
+      <c r="B242" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="C242" s="133" t="s">
+      <c r="C242" s="130" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="125"/>
-      <c r="C243" s="133"/>
-    </row>
-    <row r="244" spans="2:3" ht="16" customHeight="1">
-      <c r="B244" s="125" t="s">
+      <c r="B243" s="133"/>
+      <c r="C243" s="130"/>
+    </row>
+    <row r="244" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B244" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="C244" s="133" t="s">
+      <c r="C244" s="130" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="125"/>
-      <c r="C245" s="133"/>
-    </row>
-    <row r="246" spans="2:3" ht="16" customHeight="1">
-      <c r="B246" s="125"/>
-      <c r="C246" s="133"/>
+      <c r="B245" s="133"/>
+      <c r="C245" s="130"/>
+    </row>
+    <row r="246" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B246" s="133"/>
+      <c r="C246" s="130"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="125"/>
-      <c r="C247" s="133"/>
+      <c r="B247" s="133"/>
+      <c r="C247" s="130"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="125" t="s">
+      <c r="B248" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="C248" s="133" t="s">
+      <c r="C248" s="130" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="125"/>
-      <c r="C249" s="133"/>
+      <c r="B249" s="133"/>
+      <c r="C249" s="130"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="125" t="s">
+      <c r="B250" s="133" t="s">
         <v>138</v>
       </c>
-      <c r="C250" s="133"/>
+      <c r="C250" s="130"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="125"/>
-      <c r="C251" s="133"/>
+      <c r="B251" s="133"/>
+      <c r="C251" s="130"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="125"/>
-      <c r="C252" s="133"/>
-    </row>
-    <row r="253" spans="2:3" ht="16" customHeight="1">
-      <c r="B253" s="125"/>
-      <c r="C253" s="133"/>
+      <c r="B252" s="133"/>
+      <c r="C252" s="130"/>
+    </row>
+    <row r="253" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B253" s="133"/>
+      <c r="C253" s="130"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="125"/>
-      <c r="C254" s="133"/>
+      <c r="B254" s="133"/>
+      <c r="C254" s="130"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="125"/>
-      <c r="C255" s="133"/>
+      <c r="B255" s="133"/>
+      <c r="C255" s="130"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="125"/>
-      <c r="C256" s="133"/>
-    </row>
-    <row r="257" spans="2:3" ht="16" customHeight="1">
-      <c r="B257" s="125" t="s">
+      <c r="B256" s="133"/>
+      <c r="C256" s="130"/>
+    </row>
+    <row r="257" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B257" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="C257" s="133"/>
+      <c r="C257" s="130"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="125"/>
-      <c r="C258" s="133"/>
+      <c r="B258" s="133"/>
+      <c r="C258" s="130"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="125"/>
-      <c r="C259" s="133"/>
+      <c r="B259" s="133"/>
+      <c r="C259" s="130"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="125"/>
-      <c r="C260" s="133"/>
+      <c r="B260" s="133"/>
+      <c r="C260" s="130"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="125" t="s">
+      <c r="B261" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="C261" s="133"/>
-    </row>
-    <row r="262" spans="2:3" ht="16" customHeight="1">
-      <c r="B262" s="125"/>
-      <c r="C262" s="133"/>
+      <c r="C261" s="130"/>
+    </row>
+    <row r="262" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B262" s="133"/>
+      <c r="C262" s="130"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="125" t="s">
+      <c r="B263" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C263" s="133" t="s">
+      <c r="C263" s="130" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="125"/>
-      <c r="C264" s="133"/>
+      <c r="B264" s="133"/>
+      <c r="C264" s="130"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="125"/>
-      <c r="C265" s="133"/>
+      <c r="B265" s="133"/>
+      <c r="C265" s="130"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="125" t="s">
+      <c r="B266" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="C266" s="133" t="s">
+      <c r="C266" s="130" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="125"/>
-      <c r="C267" s="133"/>
-    </row>
-    <row r="268" spans="2:3" ht="16" customHeight="1">
-      <c r="B268" s="125"/>
-      <c r="C268" s="133"/>
+      <c r="B267" s="133"/>
+      <c r="C267" s="130"/>
+    </row>
+    <row r="268" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B268" s="133"/>
+      <c r="C268" s="130"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="125"/>
-      <c r="C269" s="133"/>
+      <c r="B269" s="133"/>
+      <c r="C269" s="130"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="125" t="s">
+      <c r="B270" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C270" s="133" t="s">
+      <c r="C270" s="130" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="18" customHeight="1">
-      <c r="B271" s="125"/>
-      <c r="C271" s="133"/>
+      <c r="B271" s="133"/>
+      <c r="C271" s="130"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="125" t="s">
+      <c r="B272" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="C272" s="133" t="s">
+      <c r="C272" s="130" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="125"/>
-      <c r="C273" s="133"/>
+      <c r="B273" s="133"/>
+      <c r="C273" s="130"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="125"/>
-      <c r="C274" s="133"/>
+      <c r="B274" s="133"/>
+      <c r="C274" s="130"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="125" t="s">
+      <c r="B275" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="C275" s="133" t="s">
+      <c r="C275" s="130" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="276" spans="2:3" ht="16" customHeight="1">
-      <c r="B276" s="125"/>
-      <c r="C276" s="133"/>
+    <row r="276" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B276" s="133"/>
+      <c r="C276" s="130"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="125"/>
-      <c r="C277" s="133"/>
+      <c r="B277" s="133"/>
+      <c r="C277" s="130"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="125" t="s">
+      <c r="B278" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="C278" s="133" t="s">
+      <c r="C278" s="130" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="125"/>
-      <c r="C279" s="133"/>
+      <c r="B279" s="133"/>
+      <c r="C279" s="130"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="125" t="s">
+      <c r="B280" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="C280" s="133" t="s">
+      <c r="C280" s="130" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="125"/>
-      <c r="C281" s="133"/>
+      <c r="B281" s="133"/>
+      <c r="C281" s="130"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="125"/>
-      <c r="C282" s="133"/>
-    </row>
-    <row r="283" spans="2:3" ht="16" customHeight="1">
-      <c r="B283" s="125"/>
-      <c r="C283" s="133"/>
+      <c r="B282" s="133"/>
+      <c r="C282" s="130"/>
+    </row>
+    <row r="283" spans="2:3" ht="16.05" customHeight="1">
+      <c r="B283" s="133"/>
+      <c r="C283" s="130"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="125" t="s">
+      <c r="B284" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="C284" s="133" t="s">
+      <c r="C284" s="130" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="285" spans="2:3" ht="17" thickBot="1">
-      <c r="B285" s="125"/>
-      <c r="C285" s="133"/>
-    </row>
-    <row r="286" spans="2:3" ht="17" thickBot="1">
+    <row r="285" spans="2:3" ht="16.2" thickBot="1">
+      <c r="B285" s="133"/>
+      <c r="C285" s="130"/>
+    </row>
+    <row r="286" spans="2:3" ht="16.2" thickBot="1">
       <c r="B286" s="18" t="s">
         <v>158</v>
       </c>
@@ -9686,48 +9668,152 @@
       </c>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="130" t="s">
+      <c r="B287" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="C287" s="138" t="s">
+      <c r="C287" s="129" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="125"/>
-      <c r="C288" s="133"/>
+      <c r="B288" s="133"/>
+      <c r="C288" s="130"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="125"/>
-      <c r="C289" s="133" t="s">
+      <c r="B289" s="133"/>
+      <c r="C289" s="130" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="125"/>
-      <c r="C290" s="133"/>
-    </row>
-    <row r="291" spans="2:3" ht="17" thickBot="1">
-      <c r="B291" s="126"/>
-      <c r="C291" s="139"/>
+      <c r="B290" s="133"/>
+      <c r="C290" s="130"/>
+    </row>
+    <row r="291" spans="2:3" ht="16.2" thickBot="1">
+      <c r="B291" s="134"/>
+      <c r="C291" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E168:E189"/>
+    <mergeCell ref="E103:E113"/>
+    <mergeCell ref="E150:E157"/>
+    <mergeCell ref="E114:E149"/>
+    <mergeCell ref="F114:F149"/>
+    <mergeCell ref="F158:F162"/>
+    <mergeCell ref="F163:F167"/>
+    <mergeCell ref="E158:E167"/>
+    <mergeCell ref="E101:AA101"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="C107:C119"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="C173:C180"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="B161:B168"/>
+    <mergeCell ref="C157:C168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B146:B153"/>
+    <mergeCell ref="C141:C153"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="B141:B145"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C220:C228"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C184:C193"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="B198:B204"/>
+    <mergeCell ref="C198:C204"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="B244:B247"/>
+    <mergeCell ref="C244:C247"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B231:B239"/>
+    <mergeCell ref="C229:C239"/>
     <mergeCell ref="C287:C288"/>
     <mergeCell ref="C289:C291"/>
     <mergeCell ref="B287:B291"/>
@@ -9752,125 +9838,21 @@
     <mergeCell ref="B270:B271"/>
     <mergeCell ref="B250:B256"/>
     <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="B244:B247"/>
-    <mergeCell ref="C244:C247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="B231:B239"/>
-    <mergeCell ref="C229:C239"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C220:C228"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C184:C193"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B204"/>
-    <mergeCell ref="C198:C204"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="B184:B189"/>
-    <mergeCell ref="B146:B153"/>
-    <mergeCell ref="C141:C153"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="B141:B145"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="C173:C180"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="B161:B168"/>
-    <mergeCell ref="C157:C168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="C107:C119"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="E168:E189"/>
-    <mergeCell ref="E103:E113"/>
-    <mergeCell ref="E150:E157"/>
-    <mergeCell ref="E114:E149"/>
-    <mergeCell ref="F114:F149"/>
-    <mergeCell ref="F158:F162"/>
-    <mergeCell ref="F163:F167"/>
-    <mergeCell ref="E158:E167"/>
-    <mergeCell ref="E101:AA101"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9878,56 +9860,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF64D2DB-3FF9-0A4F-837E-81FE8C182B15}">
-  <dimension ref="B2:AE113"/>
+  <dimension ref="B2:AE108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.796875" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" customWidth="1"/>
+    <col min="12" max="12" width="17.796875" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" customWidth="1"/>
+    <col min="14" max="14" width="16.796875" customWidth="1"/>
     <col min="15" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" customWidth="1"/>
-    <col min="20" max="20" width="17.83203125" customWidth="1"/>
+    <col min="18" max="18" width="18.796875" customWidth="1"/>
+    <col min="19" max="19" width="17.19921875" customWidth="1"/>
+    <col min="20" max="20" width="17.796875" customWidth="1"/>
     <col min="21" max="21" width="20.5" customWidth="1"/>
     <col min="22" max="22" width="18.5" customWidth="1"/>
     <col min="23" max="23" width="17.5" customWidth="1"/>
     <col min="24" max="24" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" ht="17" thickBot="1"/>
-    <row r="3" spans="2:31" ht="17" thickBot="1">
-      <c r="B3" s="162" t="s">
+    <row r="2" spans="2:31" ht="16.2" thickBot="1"/>
+    <row r="3" spans="2:31" ht="16.2" thickBot="1">
+      <c r="B3" s="161" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="164"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="163"/>
       <c r="Q3" s="82"/>
       <c r="R3" s="82"/>
       <c r="S3" s="82"/>
@@ -9944,7 +9926,7 @@
       <c r="AD3" s="27"/>
       <c r="AE3" s="27"/>
     </row>
-    <row r="4" spans="2:31" ht="17" thickBot="1">
+    <row r="4" spans="2:31" ht="16.2" thickBot="1">
       <c r="B4" s="67" t="s">
         <v>268</v>
       </c>
@@ -9987,7 +9969,7 @@
       <c r="O4" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="109" t="s">
         <v>288</v>
       </c>
       <c r="Q4" s="83" t="s">
@@ -10009,7 +9991,7 @@
       <c r="AE4" s="27"/>
     </row>
     <row r="5" spans="2:31">
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="164" t="s">
         <v>162</v>
       </c>
       <c r="C5" s="97" t="s">
@@ -10048,7 +10030,7 @@
       <c r="AE5" s="27"/>
     </row>
     <row r="6" spans="2:31">
-      <c r="B6" s="166"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="98" t="s">
         <v>167</v>
       </c>
@@ -10085,7 +10067,7 @@
       <c r="AE6" s="27"/>
     </row>
     <row r="7" spans="2:31">
-      <c r="B7" s="166"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="98" t="s">
         <v>168</v>
       </c>
@@ -10122,7 +10104,7 @@
       <c r="AE7" s="27"/>
     </row>
     <row r="8" spans="2:31">
-      <c r="B8" s="166"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="98" t="s">
         <v>169</v>
       </c>
@@ -10159,7 +10141,7 @@
       <c r="AE8" s="27"/>
     </row>
     <row r="9" spans="2:31">
-      <c r="B9" s="166"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="98" t="s">
         <v>170</v>
       </c>
@@ -10196,7 +10178,7 @@
       <c r="AE9" s="27"/>
     </row>
     <row r="10" spans="2:31">
-      <c r="B10" s="166"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="98" t="s">
         <v>171</v>
       </c>
@@ -10233,7 +10215,7 @@
       <c r="AE10" s="27"/>
     </row>
     <row r="11" spans="2:31">
-      <c r="B11" s="166"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="98" t="s">
         <v>172</v>
       </c>
@@ -10270,7 +10252,7 @@
       <c r="AE11" s="27"/>
     </row>
     <row r="12" spans="2:31">
-      <c r="B12" s="166"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="98" t="s">
         <v>173</v>
       </c>
@@ -10307,7 +10289,7 @@
       <c r="AE12" s="27"/>
     </row>
     <row r="13" spans="2:31">
-      <c r="B13" s="166"/>
+      <c r="B13" s="165"/>
       <c r="C13" s="98" t="s">
         <v>174</v>
       </c>
@@ -10344,7 +10326,7 @@
       <c r="AE13" s="27"/>
     </row>
     <row r="14" spans="2:31">
-      <c r="B14" s="166"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="98" t="s">
         <v>175</v>
       </c>
@@ -10380,8 +10362,8 @@
       <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
     </row>
-    <row r="15" spans="2:31" ht="17" thickBot="1">
-      <c r="B15" s="166"/>
+    <row r="15" spans="2:31" ht="16.2" thickBot="1">
+      <c r="B15" s="165"/>
       <c r="C15" s="103" t="s">
         <v>176</v>
       </c>
@@ -10417,8 +10399,8 @@
       <c r="AD15" s="27"/>
       <c r="AE15" s="27"/>
     </row>
-    <row r="16" spans="2:31" ht="16" customHeight="1">
-      <c r="B16" s="165" t="s">
+    <row r="16" spans="2:31" ht="16.05" customHeight="1">
+      <c r="B16" s="164" t="s">
         <v>261</v>
       </c>
       <c r="C16" s="104" t="s">
@@ -10454,8 +10436,8 @@
       <c r="AD16" s="27"/>
       <c r="AE16" s="27"/>
     </row>
-    <row r="17" spans="2:31" ht="17">
-      <c r="B17" s="166"/>
+    <row r="17" spans="2:31">
+      <c r="B17" s="165"/>
       <c r="C17" s="105" t="s">
         <v>275</v>
       </c>
@@ -10489,8 +10471,8 @@
       <c r="AD17" s="27"/>
       <c r="AE17" s="27"/>
     </row>
-    <row r="18" spans="2:31" ht="17">
-      <c r="B18" s="166"/>
+    <row r="18" spans="2:31">
+      <c r="B18" s="165"/>
       <c r="C18" s="105" t="s">
         <v>276</v>
       </c>
@@ -10524,8 +10506,8 @@
       <c r="AD18" s="27"/>
       <c r="AE18" s="27"/>
     </row>
-    <row r="19" spans="2:31" ht="17">
-      <c r="B19" s="166"/>
+    <row r="19" spans="2:31">
+      <c r="B19" s="165"/>
       <c r="C19" s="105" t="s">
         <v>277</v>
       </c>
@@ -10559,8 +10541,8 @@
       <c r="AD19" s="27"/>
       <c r="AE19" s="27"/>
     </row>
-    <row r="20" spans="2:31" ht="18" thickBot="1">
-      <c r="B20" s="166"/>
+    <row r="20" spans="2:31" ht="16.2" thickBot="1">
+      <c r="B20" s="165"/>
       <c r="C20" s="106" t="s">
         <v>278</v>
       </c>
@@ -10595,7 +10577,7 @@
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="2:31">
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="164" t="s">
         <v>260</v>
       </c>
       <c r="C21" s="98" t="s">
@@ -10648,7 +10630,7 @@
       <c r="AE21" s="27"/>
     </row>
     <row r="22" spans="2:31">
-      <c r="B22" s="166"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="98" t="s">
         <v>189</v>
       </c>
@@ -10691,7 +10673,7 @@
       <c r="AE22" s="27"/>
     </row>
     <row r="23" spans="2:31">
-      <c r="B23" s="166"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="98" t="s">
         <v>190</v>
       </c>
@@ -10740,7 +10722,7 @@
       <c r="AE23" s="27"/>
     </row>
     <row r="24" spans="2:31">
-      <c r="B24" s="166"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="98" t="s">
         <v>191</v>
       </c>
@@ -10781,7 +10763,7 @@
       <c r="AE24" s="27"/>
     </row>
     <row r="25" spans="2:31">
-      <c r="B25" s="166"/>
+      <c r="B25" s="165"/>
       <c r="C25" s="98" t="s">
         <v>192</v>
       </c>
@@ -10832,7 +10814,7 @@
       <c r="AE25" s="27"/>
     </row>
     <row r="26" spans="2:31">
-      <c r="B26" s="166"/>
+      <c r="B26" s="165"/>
       <c r="C26" s="98" t="s">
         <v>193</v>
       </c>
@@ -10883,7 +10865,7 @@
       <c r="AE26" s="27"/>
     </row>
     <row r="27" spans="2:31">
-      <c r="B27" s="166"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="98" t="s">
         <v>194</v>
       </c>
@@ -10933,8 +10915,8 @@
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
     </row>
-    <row r="28" spans="2:31" ht="17" thickBot="1">
-      <c r="B28" s="167"/>
+    <row r="28" spans="2:31" ht="16.2" thickBot="1">
+      <c r="B28" s="166"/>
       <c r="C28" s="99" t="s">
         <v>197</v>
       </c>
@@ -10976,13 +10958,13 @@
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
     </row>
-    <row r="29" spans="2:31" ht="15.5" customHeight="1">
-      <c r="B29" s="160" t="s">
+    <row r="29" spans="2:31" ht="15.45" customHeight="1">
+      <c r="B29" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="109"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
       <c r="H29" s="71"/>
@@ -10992,7 +10974,7 @@
       <c r="L29" s="71"/>
       <c r="M29" s="71"/>
       <c r="N29" s="71"/>
-      <c r="P29" s="112"/>
+      <c r="P29" s="111"/>
       <c r="Q29" s="83"/>
       <c r="R29" s="83"/>
       <c r="S29" s="83"/>
@@ -11009,11 +10991,11 @@
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
     </row>
-    <row r="30" spans="2:31" ht="15.5" customHeight="1">
-      <c r="B30" s="161"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="109"/>
+    <row r="30" spans="2:31" ht="15.45" customHeight="1">
+      <c r="B30" s="160"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="108"/>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
       <c r="H30" s="71"/>
@@ -11023,7 +11005,7 @@
       <c r="L30" s="71"/>
       <c r="M30" s="71"/>
       <c r="N30" s="71"/>
-      <c r="P30" s="112"/>
+      <c r="P30" s="111"/>
       <c r="Q30" s="83"/>
       <c r="R30" s="83"/>
       <c r="S30" s="83"/>
@@ -11040,11 +11022,11 @@
       <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
     </row>
-    <row r="31" spans="2:31" ht="15.5" customHeight="1">
-      <c r="B31" s="161"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="109"/>
+    <row r="31" spans="2:31" ht="15.45" customHeight="1">
+      <c r="B31" s="160"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
       <c r="H31" s="71"/>
@@ -11054,7 +11036,7 @@
       <c r="L31" s="71"/>
       <c r="M31" s="71"/>
       <c r="N31" s="71"/>
-      <c r="P31" s="112"/>
+      <c r="P31" s="111"/>
       <c r="Q31" s="83"/>
       <c r="R31" s="83"/>
       <c r="S31" s="83"/>
@@ -11071,11 +11053,11 @@
       <c r="AD31" s="27"/>
       <c r="AE31" s="27"/>
     </row>
-    <row r="32" spans="2:31" ht="15.5" customHeight="1">
-      <c r="B32" s="161"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+    <row r="32" spans="2:31" ht="15.45" customHeight="1">
+      <c r="B32" s="160"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="108"/>
       <c r="F32" s="71"/>
       <c r="G32" s="71"/>
       <c r="H32" s="71"/>
@@ -11085,7 +11067,7 @@
       <c r="L32" s="71"/>
       <c r="M32" s="71"/>
       <c r="N32" s="71"/>
-      <c r="P32" s="112"/>
+      <c r="P32" s="111"/>
       <c r="Q32" s="83"/>
       <c r="R32" s="83"/>
       <c r="S32" s="83"/>
@@ -11102,11 +11084,11 @@
       <c r="AD32" s="27"/>
       <c r="AE32" s="27"/>
     </row>
-    <row r="33" spans="2:31" ht="15.5" customHeight="1">
-      <c r="B33" s="161"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+    <row r="33" spans="2:31" ht="15.45" customHeight="1" thickBot="1">
+      <c r="B33" s="160"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="108"/>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
       <c r="H33" s="71"/>
@@ -11116,7 +11098,7 @@
       <c r="L33" s="71"/>
       <c r="M33" s="71"/>
       <c r="N33" s="71"/>
-      <c r="P33" s="112"/>
+      <c r="P33" s="111"/>
       <c r="Q33" s="83"/>
       <c r="R33" s="83"/>
       <c r="S33" s="83"/>
@@ -11133,22 +11115,27 @@
       <c r="AD33" s="27"/>
       <c r="AE33" s="27"/>
     </row>
-    <row r="34" spans="2:31" ht="15.5" customHeight="1">
-      <c r="B34" s="161"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="83"/>
+    <row r="34" spans="2:31">
+      <c r="B34" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="79"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="Q34" s="112" t="s">
+        <v>284</v>
+      </c>
       <c r="R34" s="83"/>
       <c r="S34" s="83"/>
       <c r="T34" s="83"/>
@@ -11164,22 +11151,25 @@
       <c r="AD34" s="27"/>
       <c r="AE34" s="27"/>
     </row>
-    <row r="35" spans="2:31" ht="15.5" customHeight="1">
-      <c r="B35" s="161"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="83"/>
+    <row r="35" spans="2:31">
+      <c r="B35" s="157"/>
+      <c r="C35" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="95"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="Q35" s="113" t="s">
+        <v>286</v>
+      </c>
       <c r="R35" s="83"/>
       <c r="S35" s="83"/>
       <c r="T35" s="83"/>
@@ -11195,22 +11185,25 @@
       <c r="AD35" s="27"/>
       <c r="AE35" s="27"/>
     </row>
-    <row r="36" spans="2:31" ht="15.5" customHeight="1">
-      <c r="B36" s="161"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="83"/>
+    <row r="36" spans="2:31" ht="16.2" thickBot="1">
+      <c r="B36" s="158"/>
+      <c r="C36" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="96"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="Q36" s="114" t="s">
+        <v>285</v>
+      </c>
       <c r="R36" s="83"/>
       <c r="S36" s="83"/>
       <c r="T36" s="83"/>
@@ -11226,21 +11219,22 @@
       <c r="AD36" s="27"/>
       <c r="AE36" s="27"/>
     </row>
-    <row r="37" spans="2:31" ht="16" customHeight="1" thickBot="1">
-      <c r="B37" s="161"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="P37" s="112"/>
+    <row r="37" spans="2:31" ht="16.05" customHeight="1">
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="83"/>
       <c r="Q37" s="83"/>
       <c r="R37" s="83"/>
       <c r="S37" s="83"/>
@@ -11257,21 +11251,22 @@
       <c r="AD37" s="27"/>
       <c r="AE37" s="27"/>
     </row>
-    <row r="38" spans="2:31" ht="17" thickBot="1">
-      <c r="B38" s="161"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="P38" s="112"/>
+    <row r="38" spans="2:31">
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="83"/>
       <c r="Q38" s="83"/>
       <c r="R38" s="83"/>
       <c r="S38" s="83"/>
@@ -11288,27 +11283,23 @@
       <c r="AD38" s="27"/>
       <c r="AE38" s="27"/>
     </row>
-    <row r="39" spans="2:31" ht="17">
-      <c r="B39" s="157" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="Q39" s="113" t="s">
-        <v>284</v>
-      </c>
+    <row r="39" spans="2:31">
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
       <c r="R39" s="83"/>
       <c r="S39" s="83"/>
       <c r="T39" s="83"/>
@@ -11324,25 +11315,23 @@
       <c r="AD39" s="27"/>
       <c r="AE39" s="27"/>
     </row>
-    <row r="40" spans="2:31" ht="17">
-      <c r="B40" s="158"/>
-      <c r="C40" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="95"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="Q40" s="114" t="s">
-        <v>286</v>
-      </c>
+    <row r="40" spans="2:31">
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="83"/>
       <c r="R40" s="83"/>
       <c r="S40" s="83"/>
       <c r="T40" s="83"/>
@@ -11358,25 +11347,23 @@
       <c r="AD40" s="27"/>
       <c r="AE40" s="27"/>
     </row>
-    <row r="41" spans="2:31" ht="18" thickBot="1">
-      <c r="B41" s="159"/>
-      <c r="C41" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="Q41" s="115" t="s">
-        <v>285</v>
-      </c>
+    <row r="41" spans="2:31">
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
       <c r="R41" s="83"/>
       <c r="S41" s="83"/>
       <c r="T41" s="83"/>
@@ -11392,22 +11379,22 @@
       <c r="AD41" s="27"/>
       <c r="AE41" s="27"/>
     </row>
-    <row r="42" spans="2:31" ht="16" customHeight="1">
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
+    <row r="42" spans="2:31" ht="16.05" customHeight="1">
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
       <c r="Q42" s="83"/>
       <c r="R42" s="83"/>
       <c r="S42" s="83"/>
@@ -11425,21 +11412,6 @@
       <c r="AE42" s="27"/>
     </row>
     <row r="43" spans="2:31">
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
       <c r="Q43" s="83"/>
       <c r="R43" s="83"/>
       <c r="S43" s="83"/>
@@ -11457,21 +11429,6 @@
       <c r="AE43" s="27"/>
     </row>
     <row r="44" spans="2:31">
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
       <c r="Q44" s="83"/>
       <c r="R44" s="83"/>
       <c r="S44" s="83"/>
@@ -11552,22 +11509,22 @@
       <c r="AD46" s="27"/>
       <c r="AE46" s="27"/>
     </row>
-    <row r="47" spans="2:31" ht="16" customHeight="1">
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
+    <row r="47" spans="2:31">
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
       <c r="Q47" s="83"/>
       <c r="R47" s="83"/>
       <c r="S47" s="83"/>
@@ -11585,6 +11542,21 @@
       <c r="AE47" s="27"/>
     </row>
     <row r="48" spans="2:31">
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
+      <c r="P48" s="83"/>
       <c r="Q48" s="83"/>
       <c r="R48" s="83"/>
       <c r="S48" s="83"/>
@@ -11602,6 +11574,21 @@
       <c r="AE48" s="27"/>
     </row>
     <row r="49" spans="2:31">
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
       <c r="Q49" s="83"/>
       <c r="R49" s="83"/>
       <c r="S49" s="83"/>
@@ -12067,24 +12054,6 @@
       <c r="AE63" s="27"/>
     </row>
     <row r="64" spans="2:31">
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="83"/>
-      <c r="O64" s="83"/>
-      <c r="P64" s="83"/>
-      <c r="Q64" s="83"/>
-      <c r="R64" s="83"/>
-      <c r="S64" s="83"/>
       <c r="T64" s="83"/>
       <c r="U64" s="83"/>
       <c r="V64" s="27"/>
@@ -12098,25 +12067,7 @@
       <c r="AD64" s="27"/>
       <c r="AE64" s="27"/>
     </row>
-    <row r="65" spans="2:31">
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="83"/>
-      <c r="N65" s="83"/>
-      <c r="O65" s="83"/>
-      <c r="P65" s="83"/>
-      <c r="Q65" s="83"/>
-      <c r="R65" s="83"/>
-      <c r="S65" s="83"/>
+    <row r="65" spans="20:31">
       <c r="T65" s="83"/>
       <c r="U65" s="83"/>
       <c r="V65" s="27"/>
@@ -12130,25 +12081,7 @@
       <c r="AD65" s="27"/>
       <c r="AE65" s="27"/>
     </row>
-    <row r="66" spans="2:31">
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="83"/>
-      <c r="R66" s="83"/>
-      <c r="S66" s="83"/>
+    <row r="66" spans="20:31">
       <c r="T66" s="83"/>
       <c r="U66" s="83"/>
       <c r="V66" s="27"/>
@@ -12162,25 +12095,7 @@
       <c r="AD66" s="27"/>
       <c r="AE66" s="27"/>
     </row>
-    <row r="67" spans="2:31">
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="83"/>
-      <c r="N67" s="83"/>
-      <c r="O67" s="83"/>
-      <c r="P67" s="83"/>
-      <c r="Q67" s="83"/>
-      <c r="R67" s="83"/>
-      <c r="S67" s="83"/>
+    <row r="67" spans="20:31">
       <c r="T67" s="83"/>
       <c r="U67" s="83"/>
       <c r="V67" s="27"/>
@@ -12194,25 +12109,7 @@
       <c r="AD67" s="27"/>
       <c r="AE67" s="27"/>
     </row>
-    <row r="68" spans="2:31">
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="83"/>
-      <c r="J68" s="83"/>
-      <c r="K68" s="83"/>
-      <c r="L68" s="83"/>
-      <c r="M68" s="83"/>
-      <c r="N68" s="83"/>
-      <c r="O68" s="83"/>
-      <c r="P68" s="83"/>
-      <c r="Q68" s="83"/>
-      <c r="R68" s="83"/>
-      <c r="S68" s="83"/>
+    <row r="68" spans="20:31">
       <c r="T68" s="83"/>
       <c r="U68" s="83"/>
       <c r="V68" s="27"/>
@@ -12226,7 +12123,7 @@
       <c r="AD68" s="27"/>
       <c r="AE68" s="27"/>
     </row>
-    <row r="69" spans="2:31">
+    <row r="69" spans="20:31">
       <c r="T69" s="83"/>
       <c r="U69" s="83"/>
       <c r="V69" s="27"/>
@@ -12240,7 +12137,7 @@
       <c r="AD69" s="27"/>
       <c r="AE69" s="27"/>
     </row>
-    <row r="70" spans="2:31">
+    <row r="70" spans="20:31">
       <c r="T70" s="83"/>
       <c r="U70" s="83"/>
       <c r="V70" s="27"/>
@@ -12254,7 +12151,7 @@
       <c r="AD70" s="27"/>
       <c r="AE70" s="27"/>
     </row>
-    <row r="71" spans="2:31">
+    <row r="71" spans="20:31">
       <c r="T71" s="83"/>
       <c r="U71" s="83"/>
       <c r="V71" s="27"/>
@@ -12268,7 +12165,7 @@
       <c r="AD71" s="27"/>
       <c r="AE71" s="27"/>
     </row>
-    <row r="72" spans="2:31">
+    <row r="72" spans="20:31">
       <c r="T72" s="83"/>
       <c r="U72" s="83"/>
       <c r="V72" s="27"/>
@@ -12282,7 +12179,7 @@
       <c r="AD72" s="27"/>
       <c r="AE72" s="27"/>
     </row>
-    <row r="73" spans="2:31">
+    <row r="73" spans="20:31">
       <c r="T73" s="83"/>
       <c r="U73" s="83"/>
       <c r="V73" s="27"/>
@@ -12296,7 +12193,7 @@
       <c r="AD73" s="27"/>
       <c r="AE73" s="27"/>
     </row>
-    <row r="74" spans="2:31">
+    <row r="74" spans="20:31">
       <c r="T74" s="83"/>
       <c r="U74" s="83"/>
       <c r="V74" s="27"/>
@@ -12310,7 +12207,7 @@
       <c r="AD74" s="27"/>
       <c r="AE74" s="27"/>
     </row>
-    <row r="75" spans="2:31">
+    <row r="75" spans="20:31">
       <c r="T75" s="83"/>
       <c r="U75" s="83"/>
       <c r="V75" s="27"/>
@@ -12324,7 +12221,7 @@
       <c r="AD75" s="27"/>
       <c r="AE75" s="27"/>
     </row>
-    <row r="76" spans="2:31">
+    <row r="76" spans="20:31">
       <c r="T76" s="83"/>
       <c r="U76" s="83"/>
       <c r="V76" s="27"/>
@@ -12338,7 +12235,7 @@
       <c r="AD76" s="27"/>
       <c r="AE76" s="27"/>
     </row>
-    <row r="77" spans="2:31">
+    <row r="77" spans="20:31">
       <c r="T77" s="83"/>
       <c r="U77" s="83"/>
       <c r="V77" s="27"/>
@@ -12352,7 +12249,7 @@
       <c r="AD77" s="27"/>
       <c r="AE77" s="27"/>
     </row>
-    <row r="78" spans="2:31">
+    <row r="78" spans="20:31">
       <c r="T78" s="83"/>
       <c r="U78" s="83"/>
       <c r="V78" s="27"/>
@@ -12366,7 +12263,7 @@
       <c r="AD78" s="27"/>
       <c r="AE78" s="27"/>
     </row>
-    <row r="79" spans="2:31">
+    <row r="79" spans="20:31">
       <c r="T79" s="83"/>
       <c r="U79" s="83"/>
       <c r="V79" s="27"/>
@@ -12380,7 +12277,7 @@
       <c r="AD79" s="27"/>
       <c r="AE79" s="27"/>
     </row>
-    <row r="80" spans="2:31">
+    <row r="80" spans="20:31">
       <c r="T80" s="83"/>
       <c r="U80" s="83"/>
       <c r="V80" s="27"/>
@@ -12591,8 +12488,8 @@
       <c r="AE94" s="27"/>
     </row>
     <row r="95" spans="20:31">
-      <c r="T95" s="83"/>
-      <c r="U95" s="83"/>
+      <c r="T95" s="27"/>
+      <c r="U95" s="27"/>
       <c r="V95" s="27"/>
       <c r="W95" s="27"/>
       <c r="X95" s="27"/>
@@ -12605,8 +12502,8 @@
       <c r="AE95" s="27"/>
     </row>
     <row r="96" spans="20:31">
-      <c r="T96" s="83"/>
-      <c r="U96" s="83"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
       <c r="V96" s="27"/>
       <c r="W96" s="27"/>
       <c r="X96" s="27"/>
@@ -12619,8 +12516,8 @@
       <c r="AE96" s="27"/>
     </row>
     <row r="97" spans="20:31">
-      <c r="T97" s="83"/>
-      <c r="U97" s="83"/>
+      <c r="T97" s="27"/>
+      <c r="U97" s="27"/>
       <c r="V97" s="27"/>
       <c r="W97" s="27"/>
       <c r="X97" s="27"/>
@@ -12633,8 +12530,8 @@
       <c r="AE97" s="27"/>
     </row>
     <row r="98" spans="20:31">
-      <c r="T98" s="83"/>
-      <c r="U98" s="83"/>
+      <c r="T98" s="27"/>
+      <c r="U98" s="27"/>
       <c r="V98" s="27"/>
       <c r="W98" s="27"/>
       <c r="X98" s="27"/>
@@ -12647,8 +12544,8 @@
       <c r="AE98" s="27"/>
     </row>
     <row r="99" spans="20:31">
-      <c r="T99" s="83"/>
-      <c r="U99" s="83"/>
+      <c r="T99" s="27"/>
+      <c r="U99" s="27"/>
       <c r="V99" s="27"/>
       <c r="W99" s="27"/>
       <c r="X99" s="27"/>
@@ -12786,80 +12683,10 @@
       <c r="AD108" s="27"/>
       <c r="AE108" s="27"/>
     </row>
-    <row r="109" spans="20:31">
-      <c r="T109" s="27"/>
-      <c r="U109" s="27"/>
-      <c r="V109" s="27"/>
-      <c r="W109" s="27"/>
-      <c r="X109" s="27"/>
-      <c r="Y109" s="27"/>
-      <c r="Z109" s="27"/>
-      <c r="AA109" s="27"/>
-      <c r="AB109" s="27"/>
-      <c r="AC109" s="27"/>
-      <c r="AD109" s="27"/>
-      <c r="AE109" s="27"/>
-    </row>
-    <row r="110" spans="20:31">
-      <c r="T110" s="27"/>
-      <c r="U110" s="27"/>
-      <c r="V110" s="27"/>
-      <c r="W110" s="27"/>
-      <c r="X110" s="27"/>
-      <c r="Y110" s="27"/>
-      <c r="Z110" s="27"/>
-      <c r="AA110" s="27"/>
-      <c r="AB110" s="27"/>
-      <c r="AC110" s="27"/>
-      <c r="AD110" s="27"/>
-      <c r="AE110" s="27"/>
-    </row>
-    <row r="111" spans="20:31">
-      <c r="T111" s="27"/>
-      <c r="U111" s="27"/>
-      <c r="V111" s="27"/>
-      <c r="W111" s="27"/>
-      <c r="X111" s="27"/>
-      <c r="Y111" s="27"/>
-      <c r="Z111" s="27"/>
-      <c r="AA111" s="27"/>
-      <c r="AB111" s="27"/>
-      <c r="AC111" s="27"/>
-      <c r="AD111" s="27"/>
-      <c r="AE111" s="27"/>
-    </row>
-    <row r="112" spans="20:31">
-      <c r="T112" s="27"/>
-      <c r="U112" s="27"/>
-      <c r="V112" s="27"/>
-      <c r="W112" s="27"/>
-      <c r="X112" s="27"/>
-      <c r="Y112" s="27"/>
-      <c r="Z112" s="27"/>
-      <c r="AA112" s="27"/>
-      <c r="AB112" s="27"/>
-      <c r="AC112" s="27"/>
-      <c r="AD112" s="27"/>
-      <c r="AE112" s="27"/>
-    </row>
-    <row r="113" spans="20:31">
-      <c r="T113" s="27"/>
-      <c r="U113" s="27"/>
-      <c r="V113" s="27"/>
-      <c r="W113" s="27"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="27"/>
-      <c r="Z113" s="27"/>
-      <c r="AA113" s="27"/>
-      <c r="AB113" s="27"/>
-      <c r="AC113" s="27"/>
-      <c r="AD113" s="27"/>
-      <c r="AE113" s="27"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="B21:B28"/>

--- a/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
+++ b/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Documents\GitHub\nmcuration\in-progress\Koerner_2005_Polymer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45499419-E543-4AF9-A2E2-46CF82FFF4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2230ECF3-76C3-42E0-8012-F5677A3AC92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="286">
   <si>
     <t>Notes:</t>
   </si>
@@ -897,37 +897,25 @@
     <t>S16</t>
   </si>
   <si>
-    <t>Stress-Elongation_S12</t>
-  </si>
-  <si>
-    <t>Stress-Elongation_S13</t>
-  </si>
-  <si>
-    <t>Stress-Elongation_S14</t>
-  </si>
-  <si>
-    <t>Stress-Elongation_S15</t>
-  </si>
-  <si>
-    <t>Stress-Elongation_S16</t>
-  </si>
-  <si>
-    <t>Thermal_Conductivity_S27</t>
-  </si>
-  <si>
-    <t>Thermal_Conductivity_S29</t>
-  </si>
-  <si>
-    <t>Thermal_Conductivity_S28</t>
-  </si>
-  <si>
     <t>Stress-Elongation Filename</t>
   </si>
   <si>
     <t>Melting Enthalpy</t>
   </si>
   <si>
-    <t>Crystallinity vs. Elongation Filename</t>
+    <t>S13_Stress-Elongation</t>
+  </si>
+  <si>
+    <t>S14_Stress-Elongation</t>
+  </si>
+  <si>
+    <t>S15_Stress-Elongation</t>
+  </si>
+  <si>
+    <t>S16_Stress-Elongation</t>
+  </si>
+  <si>
+    <t>S12_Stress-Elongation.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1043,12 +1031,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1442,7 +1430,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1455,15 +1443,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1719,45 +1698,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1771,7 +1711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1848,79 +1788,56 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1954,7 +1871,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2017,6 +1934,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2029,34 +1949,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2068,15 +1976,18 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2469,7 +2380,7 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="115" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2483,18 +2394,18 @@
       </c>
     </row>
     <row r="9" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B9" s="133"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="127" t="s">
+      <c r="E9" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="135"/>
-      <c r="G9" s="128"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="111"/>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="133"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2507,41 +2418,41 @@
       <c r="G10" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="127" t="s">
+      <c r="J10" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="128"/>
-      <c r="L10" s="127" t="s">
+      <c r="K10" s="111"/>
+      <c r="L10" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="128"/>
-      <c r="N10" s="127" t="s">
+      <c r="M10" s="111"/>
+      <c r="N10" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="128"/>
-      <c r="P10" s="127" t="s">
+      <c r="O10" s="111"/>
+      <c r="P10" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="127" t="s">
+      <c r="Q10" s="111"/>
+      <c r="R10" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="S10" s="128"/>
-      <c r="U10" s="123" t="s">
+      <c r="S10" s="111"/>
+      <c r="U10" s="106" t="s">
         <v>253</v>
       </c>
-      <c r="V10" s="124"/>
-      <c r="W10" s="123" t="s">
+      <c r="V10" s="107"/>
+      <c r="W10" s="106" t="s">
         <v>255</v>
       </c>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="126" t="s">
+      <c r="X10" s="108"/>
+      <c r="Y10" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="Z10" s="125"/>
+      <c r="Z10" s="108"/>
     </row>
     <row r="11" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B11" s="133"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2509,7 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="B12" s="133"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2661,7 +2572,7 @@
       </c>
     </row>
     <row r="13" spans="2:26">
-      <c r="B13" s="133"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2724,10 +2635,10 @@
       </c>
     </row>
     <row r="14" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="126" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2789,8 +2700,8 @@
       </c>
     </row>
     <row r="15" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B15" s="142"/>
-      <c r="C15" s="143"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
       <c r="E15" s="12" t="s">
         <v>170</v>
       </c>
@@ -2850,8 +2761,8 @@
       </c>
     </row>
     <row r="16" spans="2:26">
-      <c r="B16" s="142"/>
-      <c r="C16" s="143"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
       <c r="E16" s="12" t="s">
         <v>171</v>
       </c>
@@ -2911,8 +2822,8 @@
       </c>
     </row>
     <row r="17" spans="2:26">
-      <c r="B17" s="142"/>
-      <c r="C17" s="143"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
       <c r="E17" s="12" t="s">
         <v>172</v>
       </c>
@@ -2972,10 +2883,10 @@
       </c>
     </row>
     <row r="18" spans="2:26">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="113" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -3037,8 +2948,8 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="B19" s="141"/>
-      <c r="C19" s="130"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="113"/>
       <c r="E19" s="12" t="s">
         <v>174</v>
       </c>
@@ -3098,8 +3009,8 @@
       </c>
     </row>
     <row r="20" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B20" s="141"/>
-      <c r="C20" s="130"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="113"/>
       <c r="E20" s="12" t="s">
         <v>175</v>
       </c>
@@ -3224,10 +3135,10 @@
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="126" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="12">
@@ -3280,8 +3191,8 @@
       </c>
     </row>
     <row r="23" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B23" s="142"/>
-      <c r="C23" s="143"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="126"/>
       <c r="J23" s="12">
         <v>1.35455762059425</v>
       </c>
@@ -3332,14 +3243,14 @@
       </c>
     </row>
     <row r="24" spans="2:26" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="E24" s="115" t="s">
+      <c r="B24" s="125"/>
+      <c r="C24" s="126"/>
+      <c r="E24" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="117"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
       <c r="J24" s="12">
         <v>1.39607392036569</v>
       </c>
@@ -3390,8 +3301,8 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="126"/>
       <c r="E25" s="41" t="s">
         <v>163</v>
       </c>
@@ -3454,10 +3365,10 @@
       </c>
     </row>
     <row r="26" spans="2:26">
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="113" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="32" t="s">
@@ -3522,8 +3433,8 @@
       </c>
     </row>
     <row r="27" spans="2:26">
-      <c r="B27" s="133"/>
-      <c r="C27" s="130"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="113"/>
       <c r="E27" s="12" t="s">
         <v>189</v>
       </c>
@@ -3586,10 +3497,10 @@
       </c>
     </row>
     <row r="28" spans="2:26">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="144" t="s">
+      <c r="C28" s="127" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -3654,8 +3565,8 @@
       </c>
     </row>
     <row r="29" spans="2:26">
-      <c r="B29" s="142"/>
-      <c r="C29" s="145"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="128"/>
       <c r="E29" s="12" t="s">
         <v>191</v>
       </c>
@@ -3718,8 +3629,8 @@
       </c>
     </row>
     <row r="30" spans="2:26">
-      <c r="B30" s="142"/>
-      <c r="C30" s="145"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="128"/>
       <c r="E30" s="12" t="s">
         <v>192</v>
       </c>
@@ -3782,8 +3693,8 @@
       </c>
     </row>
     <row r="31" spans="2:26">
-      <c r="B31" s="142"/>
-      <c r="C31" s="146"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="129"/>
       <c r="E31" s="12" t="s">
         <v>193</v>
       </c>
@@ -3846,10 +3757,10 @@
       </c>
     </row>
     <row r="32" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="113" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3914,8 +3825,8 @@
       </c>
     </row>
     <row r="33" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B33" s="133"/>
-      <c r="C33" s="130"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="113"/>
       <c r="J33" s="12">
         <v>1.76972061830867</v>
       </c>
@@ -3966,14 +3877,14 @@
       </c>
     </row>
     <row r="34" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B34" s="133"/>
-      <c r="C34" s="130"/>
-      <c r="E34" s="115" t="s">
+      <c r="B34" s="116"/>
+      <c r="C34" s="113"/>
+      <c r="E34" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="117"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="100"/>
       <c r="J34" s="12">
         <v>1.81123691808011</v>
       </c>
@@ -4006,10 +3917,10 @@
       </c>
     </row>
     <row r="35" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B35" s="142" t="s">
+      <c r="B35" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="143" t="s">
+      <c r="C35" s="126" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="41" t="s">
@@ -4056,8 +3967,8 @@
       </c>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="142"/>
-      <c r="C36" s="143"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="126"/>
       <c r="E36" s="32" t="s">
         <v>197</v>
       </c>
@@ -4102,8 +4013,8 @@
       </c>
     </row>
     <row r="37" spans="2:26">
-      <c r="B37" s="142"/>
-      <c r="C37" s="143"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="126"/>
       <c r="E37" s="12" t="s">
         <v>198</v>
       </c>
@@ -4148,10 +4059,10 @@
       </c>
     </row>
     <row r="38" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="130" t="s">
+      <c r="C38" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -4198,8 +4109,8 @@
       </c>
     </row>
     <row r="39" spans="2:26">
-      <c r="B39" s="133"/>
-      <c r="C39" s="130"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
       <c r="E39" s="12" t="s">
         <v>200</v>
       </c>
@@ -4244,8 +4155,8 @@
       </c>
     </row>
     <row r="40" spans="2:26">
-      <c r="B40" s="133"/>
-      <c r="C40" s="130"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
       <c r="E40" s="12" t="s">
         <v>201</v>
       </c>
@@ -4294,8 +4205,8 @@
       <c r="X40" s="27"/>
     </row>
     <row r="41" spans="2:26">
-      <c r="B41" s="133"/>
-      <c r="C41" s="130"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
       <c r="E41" s="12" t="s">
         <v>202</v>
       </c>
@@ -4344,8 +4255,8 @@
       <c r="X41" s="27"/>
     </row>
     <row r="42" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B42" s="133"/>
-      <c r="C42" s="130"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
       <c r="E42" s="13" t="s">
         <v>203</v>
       </c>
@@ -4394,8 +4305,8 @@
       <c r="X42" s="27"/>
     </row>
     <row r="43" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="130"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
       <c r="E43" s="41" t="s">
         <v>163</v>
       </c>
@@ -4444,10 +4355,10 @@
       <c r="X43" s="27"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="B44" s="142" t="s">
+      <c r="B44" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="143" t="s">
+      <c r="C44" s="126" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="36" t="s">
@@ -4498,8 +4409,8 @@
       <c r="X44" s="27"/>
     </row>
     <row r="45" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B45" s="142"/>
-      <c r="C45" s="143"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="126"/>
       <c r="E45" s="38" t="s">
         <v>205</v>
       </c>
@@ -4548,8 +4459,8 @@
       <c r="X45" s="27"/>
     </row>
     <row r="46" spans="2:26">
-      <c r="B46" s="142"/>
-      <c r="C46" s="143"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="126"/>
       <c r="E46" s="38" t="s">
         <v>206</v>
       </c>
@@ -4598,8 +4509,8 @@
       <c r="X46" s="27"/>
     </row>
     <row r="47" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B47" s="142"/>
-      <c r="C47" s="143"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="126"/>
       <c r="E47" s="38" t="s">
         <v>207</v>
       </c>
@@ -4648,8 +4559,8 @@
       <c r="X47" s="27"/>
     </row>
     <row r="48" spans="2:26">
-      <c r="B48" s="142"/>
-      <c r="C48" s="143"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="126"/>
       <c r="E48" s="38" t="s">
         <v>208</v>
       </c>
@@ -4668,8 +4579,8 @@
       <c r="X48" s="27"/>
     </row>
     <row r="49" spans="2:24">
-      <c r="B49" s="142"/>
-      <c r="C49" s="143"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="126"/>
       <c r="E49" s="38" t="s">
         <v>209</v>
       </c>
@@ -4688,8 +4599,8 @@
       <c r="X49" s="27"/>
     </row>
     <row r="50" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B50" s="142"/>
-      <c r="C50" s="143"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="126"/>
       <c r="E50" s="39" t="s">
         <v>210</v>
       </c>
@@ -4708,34 +4619,34 @@
       <c r="X50" s="27"/>
     </row>
     <row r="51" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B51" s="142"/>
-      <c r="C51" s="143"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="126"/>
       <c r="U51" s="27"/>
       <c r="V51" s="27"/>
       <c r="W51" s="27"/>
       <c r="X51" s="27"/>
     </row>
     <row r="52" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="130" t="s">
+      <c r="C52" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="115" t="s">
+      <c r="E52" s="98" t="s">
         <v>212</v>
       </c>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="117"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="100"/>
       <c r="U52" s="27"/>
       <c r="V52" s="27"/>
       <c r="W52" s="27"/>
       <c r="X52" s="27"/>
     </row>
     <row r="53" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B53" s="133"/>
-      <c r="C53" s="130"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
       <c r="E53" s="41" t="s">
         <v>163</v>
       </c>
@@ -4754,8 +4665,8 @@
       <c r="X53" s="27"/>
     </row>
     <row r="54" spans="2:24">
-      <c r="B54" s="133"/>
-      <c r="C54" s="130"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
       <c r="E54" s="32" t="s">
         <v>213</v>
       </c>
@@ -4774,8 +4685,8 @@
       <c r="X54" s="27"/>
     </row>
     <row r="55" spans="2:24">
-      <c r="B55" s="133"/>
-      <c r="C55" s="130"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
       <c r="E55" s="12" t="s">
         <v>214</v>
       </c>
@@ -4794,8 +4705,8 @@
       <c r="X55" s="27"/>
     </row>
     <row r="56" spans="2:24">
-      <c r="B56" s="133"/>
-      <c r="C56" s="130"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
       <c r="E56" s="12" t="s">
         <v>215</v>
       </c>
@@ -4814,8 +4725,8 @@
       <c r="X56" s="27"/>
     </row>
     <row r="57" spans="2:24">
-      <c r="B57" s="133"/>
-      <c r="C57" s="130"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="113"/>
       <c r="E57" s="12" t="s">
         <v>216</v>
       </c>
@@ -4834,8 +4745,8 @@
       <c r="X57" s="27"/>
     </row>
     <row r="58" spans="2:24">
-      <c r="B58" s="133"/>
-      <c r="C58" s="130"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="113"/>
       <c r="E58" s="12" t="s">
         <v>217</v>
       </c>
@@ -4854,10 +4765,10 @@
       <c r="X58" s="27"/>
     </row>
     <row r="59" spans="2:24" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B59" s="142" t="s">
+      <c r="B59" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="143" t="s">
+      <c r="C59" s="126" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="34" t="s">
@@ -4878,8 +4789,8 @@
       <c r="X59" s="27"/>
     </row>
     <row r="60" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B60" s="142"/>
-      <c r="C60" s="143"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="126"/>
       <c r="E60" s="41" t="s">
         <v>163</v>
       </c>
@@ -4898,8 +4809,8 @@
       <c r="X60" s="27"/>
     </row>
     <row r="61" spans="2:24">
-      <c r="B61" s="142"/>
-      <c r="C61" s="143"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="126"/>
       <c r="E61" s="44" t="s">
         <v>219</v>
       </c>
@@ -4918,8 +4829,8 @@
       <c r="X61" s="27"/>
     </row>
     <row r="62" spans="2:24">
-      <c r="B62" s="142"/>
-      <c r="C62" s="143"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="126"/>
       <c r="E62" s="38" t="s">
         <v>220</v>
       </c>
@@ -4938,8 +4849,8 @@
       <c r="X62" s="27"/>
     </row>
     <row r="63" spans="2:24">
-      <c r="B63" s="142"/>
-      <c r="C63" s="143"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="126"/>
       <c r="E63" s="38" t="s">
         <v>221</v>
       </c>
@@ -4982,10 +4893,10 @@
       <c r="X64" s="27"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="133" t="s">
+      <c r="B65" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="130" t="s">
+      <c r="C65" s="113" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="38" t="s">
@@ -5002,8 +4913,8 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B66" s="133"/>
-      <c r="C66" s="130"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="113"/>
       <c r="E66" s="39" t="s">
         <v>224</v>
       </c>
@@ -5030,22 +4941,22 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B68" s="133" t="s">
+      <c r="B68" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="130" t="s">
+      <c r="C68" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="115" t="s">
+      <c r="E68" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="116"/>
-      <c r="G68" s="116"/>
-      <c r="H68" s="117"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="100"/>
     </row>
     <row r="69" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B69" s="133"/>
-      <c r="C69" s="130"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="113"/>
       <c r="E69" s="41" t="s">
         <v>163</v>
       </c>
@@ -5060,8 +4971,8 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="133"/>
-      <c r="C70" s="130"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="113"/>
       <c r="E70" s="32" t="s">
         <v>228</v>
       </c>
@@ -5076,8 +4987,8 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="133"/>
-      <c r="C71" s="130"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="113"/>
       <c r="E71" s="12" t="s">
         <v>229</v>
       </c>
@@ -5092,8 +5003,8 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="133"/>
-      <c r="C72" s="130"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="113"/>
       <c r="E72" s="12" t="s">
         <v>230</v>
       </c>
@@ -5108,7 +5019,7 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="133" t="s">
+      <c r="B73" s="116" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -5128,7 +5039,7 @@
       </c>
     </row>
     <row r="74" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B74" s="133"/>
+      <c r="B74" s="116"/>
       <c r="C74" s="11" t="s">
         <v>42</v>
       </c>
@@ -5146,8 +5057,8 @@
       </c>
     </row>
     <row r="75" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B75" s="133"/>
-      <c r="C75" s="130" t="s">
+      <c r="B75" s="116"/>
+      <c r="C75" s="113" t="s">
         <v>44</v>
       </c>
       <c r="E75" s="41" t="s">
@@ -5164,8 +5075,8 @@
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="133"/>
-      <c r="C76" s="130"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="113"/>
       <c r="E76" s="44" t="s">
         <v>233</v>
       </c>
@@ -5180,8 +5091,8 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="133"/>
-      <c r="C77" s="130"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="113"/>
       <c r="E77" s="38" t="s">
         <v>234</v>
       </c>
@@ -5196,10 +5107,10 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="133" t="s">
+      <c r="B78" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="130" t="s">
+      <c r="C78" s="113" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="38" t="s">
@@ -5216,8 +5127,8 @@
       </c>
     </row>
     <row r="79" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B79" s="133"/>
-      <c r="C79" s="130"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="113"/>
       <c r="E79" s="39" t="s">
         <v>236</v>
       </c>
@@ -5232,32 +5143,32 @@
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="133"/>
-      <c r="C80" s="130"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="113"/>
     </row>
     <row r="81" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B81" s="133"/>
-      <c r="C81" s="130"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="113"/>
       <c r="E81" s="27"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
       <c r="H81" s="26"/>
     </row>
     <row r="82" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B82" s="133"/>
-      <c r="C82" s="130"/>
-      <c r="E82" s="115" t="s">
+      <c r="B82" s="116"/>
+      <c r="C82" s="113"/>
+      <c r="E82" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="F82" s="116"/>
-      <c r="G82" s="116"/>
-      <c r="H82" s="117"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="99"/>
+      <c r="H82" s="100"/>
     </row>
     <row r="83" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B83" s="133" t="s">
+      <c r="B83" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="130" t="s">
+      <c r="C83" s="113" t="s">
         <v>49</v>
       </c>
       <c r="E83" s="16" t="s">
@@ -5274,18 +5185,18 @@
       </c>
     </row>
     <row r="84" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B84" s="133"/>
-      <c r="C84" s="130"/>
-      <c r="E84" s="118" t="s">
+      <c r="B84" s="116"/>
+      <c r="C84" s="113"/>
+      <c r="E84" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="119"/>
-      <c r="G84" s="119"/>
-      <c r="H84" s="120"/>
+      <c r="F84" s="102"/>
+      <c r="G84" s="102"/>
+      <c r="H84" s="103"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="133"/>
-      <c r="C85" s="130"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="113"/>
       <c r="E85" s="32" t="s">
         <v>240</v>
       </c>
@@ -5300,10 +5211,10 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="133" t="s">
+      <c r="B86" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="130" t="s">
+      <c r="C86" s="113" t="s">
         <v>52</v>
       </c>
       <c r="E86" s="12" t="s">
@@ -5320,8 +5231,8 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="133"/>
-      <c r="C87" s="130"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="113"/>
       <c r="E87" s="12" t="s">
         <v>242</v>
       </c>
@@ -5336,8 +5247,8 @@
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="133"/>
-      <c r="C88" s="130"/>
+      <c r="B88" s="116"/>
+      <c r="C88" s="113"/>
       <c r="E88" s="12" t="s">
         <v>244</v>
       </c>
@@ -5352,10 +5263,10 @@
       </c>
     </row>
     <row r="89" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B89" s="133" t="s">
+      <c r="B89" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="130" t="s">
+      <c r="C89" s="113" t="s">
         <v>53</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -5372,18 +5283,18 @@
       </c>
     </row>
     <row r="90" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B90" s="133"/>
-      <c r="C90" s="130"/>
-      <c r="E90" s="118" t="s">
+      <c r="B90" s="116"/>
+      <c r="C90" s="113"/>
+      <c r="E90" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="F90" s="121"/>
-      <c r="G90" s="121"/>
-      <c r="H90" s="122"/>
+      <c r="F90" s="104"/>
+      <c r="G90" s="104"/>
+      <c r="H90" s="105"/>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="133"/>
-      <c r="C91" s="130"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="113"/>
       <c r="E91" s="44" t="s">
         <v>245</v>
       </c>
@@ -5398,10 +5309,10 @@
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="133" t="s">
+      <c r="B92" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="130" t="s">
+      <c r="C92" s="113" t="s">
         <v>55</v>
       </c>
       <c r="E92" s="38" t="s">
@@ -5418,8 +5329,8 @@
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="133"/>
-      <c r="C93" s="130"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="113"/>
       <c r="E93" s="38" t="s">
         <v>247</v>
       </c>
@@ -5434,8 +5345,8 @@
       </c>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="133"/>
-      <c r="C94" s="130"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="113"/>
       <c r="E94" s="38" t="s">
         <v>248</v>
       </c>
@@ -5450,7 +5361,7 @@
       </c>
     </row>
     <row r="95" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B95" s="133" t="s">
+      <c r="B95" s="116" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -5470,14 +5381,14 @@
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="133"/>
-      <c r="C96" s="130" t="s">
+      <c r="B96" s="116"/>
+      <c r="C96" s="113" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="97" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B97" s="134"/>
-      <c r="C97" s="131"/>
+      <c r="B97" s="117"/>
+      <c r="C97" s="114"/>
     </row>
     <row r="98" spans="2:27" ht="16.2" thickBot="1">
       <c r="B98" s="18" t="s">
@@ -5488,53 +5399,53 @@
       </c>
     </row>
     <row r="99" spans="2:27">
-      <c r="B99" s="132" t="s">
+      <c r="B99" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="129" t="s">
+      <c r="C99" s="112" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="100" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B100" s="133"/>
-      <c r="C100" s="130"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="113"/>
     </row>
     <row r="101" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B101" s="133" t="s">
+      <c r="B101" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="C101" s="130" t="s">
+      <c r="C101" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E101" s="115" t="s">
+      <c r="E101" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="F101" s="116"/>
-      <c r="G101" s="116"/>
-      <c r="H101" s="116"/>
-      <c r="I101" s="116"/>
-      <c r="J101" s="116"/>
-      <c r="K101" s="116"/>
-      <c r="L101" s="116"/>
-      <c r="M101" s="116"/>
-      <c r="N101" s="116"/>
-      <c r="O101" s="116"/>
-      <c r="P101" s="116"/>
-      <c r="Q101" s="116"/>
-      <c r="R101" s="116"/>
-      <c r="S101" s="116"/>
-      <c r="T101" s="116"/>
-      <c r="U101" s="116"/>
-      <c r="V101" s="116"/>
-      <c r="W101" s="116"/>
-      <c r="X101" s="116"/>
-      <c r="Y101" s="116"/>
-      <c r="Z101" s="116"/>
-      <c r="AA101" s="117"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="99"/>
+      <c r="K101" s="99"/>
+      <c r="L101" s="99"/>
+      <c r="M101" s="99"/>
+      <c r="N101" s="99"/>
+      <c r="O101" s="99"/>
+      <c r="P101" s="99"/>
+      <c r="Q101" s="99"/>
+      <c r="R101" s="99"/>
+      <c r="S101" s="99"/>
+      <c r="T101" s="99"/>
+      <c r="U101" s="99"/>
+      <c r="V101" s="99"/>
+      <c r="W101" s="99"/>
+      <c r="X101" s="99"/>
+      <c r="Y101" s="99"/>
+      <c r="Z101" s="99"/>
+      <c r="AA101" s="100"/>
     </row>
     <row r="102" spans="2:27" ht="16.95" customHeight="1" thickBot="1">
-      <c r="B102" s="133"/>
-      <c r="C102" s="130"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="113"/>
       <c r="E102" s="41" t="s">
         <v>268</v>
       </c>
@@ -5612,7 +5523,7 @@
       <c r="C103" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E103" s="147" t="s">
+      <c r="E103" s="130" t="s">
         <v>162</v>
       </c>
       <c r="F103" s="63" t="s">
@@ -5645,13 +5556,13 @@
       <c r="AA103" s="52"/>
     </row>
     <row r="104" spans="2:27">
-      <c r="B104" s="133" t="s">
+      <c r="B104" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="130" t="s">
+      <c r="C104" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="E104" s="148"/>
+      <c r="E104" s="131"/>
       <c r="F104" s="60" t="s">
         <v>167</v>
       </c>
@@ -5682,9 +5593,9 @@
       <c r="AA104" s="53"/>
     </row>
     <row r="105" spans="2:27">
-      <c r="B105" s="133"/>
-      <c r="C105" s="130"/>
-      <c r="E105" s="148"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="113"/>
+      <c r="E105" s="131"/>
       <c r="F105" s="60" t="s">
         <v>168</v>
       </c>
@@ -5715,9 +5626,9 @@
       <c r="AA105" s="53"/>
     </row>
     <row r="106" spans="2:27">
-      <c r="B106" s="133"/>
-      <c r="C106" s="130"/>
-      <c r="E106" s="148"/>
+      <c r="B106" s="116"/>
+      <c r="C106" s="113"/>
+      <c r="E106" s="131"/>
       <c r="F106" s="60" t="s">
         <v>169</v>
       </c>
@@ -5748,13 +5659,13 @@
       <c r="AA106" s="53"/>
     </row>
     <row r="107" spans="2:27">
-      <c r="B107" s="133" t="s">
+      <c r="B107" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="C107" s="130" t="s">
+      <c r="C107" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="E107" s="148"/>
+      <c r="E107" s="131"/>
       <c r="F107" s="60" t="s">
         <v>170</v>
       </c>
@@ -5785,9 +5696,9 @@
       <c r="AA107" s="53"/>
     </row>
     <row r="108" spans="2:27">
-      <c r="B108" s="133"/>
-      <c r="C108" s="130"/>
-      <c r="E108" s="148"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="113"/>
+      <c r="E108" s="131"/>
       <c r="F108" s="60" t="s">
         <v>171</v>
       </c>
@@ -5818,9 +5729,9 @@
       <c r="AA108" s="53"/>
     </row>
     <row r="109" spans="2:27">
-      <c r="B109" s="133"/>
-      <c r="C109" s="130"/>
-      <c r="E109" s="148"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="113"/>
+      <c r="E109" s="131"/>
       <c r="F109" s="60" t="s">
         <v>172</v>
       </c>
@@ -5851,9 +5762,9 @@
       <c r="AA109" s="53"/>
     </row>
     <row r="110" spans="2:27">
-      <c r="B110" s="133"/>
-      <c r="C110" s="130"/>
-      <c r="E110" s="148"/>
+      <c r="B110" s="116"/>
+      <c r="C110" s="113"/>
+      <c r="E110" s="131"/>
       <c r="F110" s="60" t="s">
         <v>173</v>
       </c>
@@ -5884,9 +5795,9 @@
       <c r="AA110" s="53"/>
     </row>
     <row r="111" spans="2:27">
-      <c r="B111" s="133"/>
-      <c r="C111" s="130"/>
-      <c r="E111" s="148"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="113"/>
+      <c r="E111" s="131"/>
       <c r="F111" s="60" t="s">
         <v>174</v>
       </c>
@@ -5917,9 +5828,9 @@
       <c r="AA111" s="53"/>
     </row>
     <row r="112" spans="2:27">
-      <c r="B112" s="133"/>
-      <c r="C112" s="130"/>
-      <c r="E112" s="148"/>
+      <c r="B112" s="116"/>
+      <c r="C112" s="113"/>
+      <c r="E112" s="131"/>
       <c r="F112" s="60" t="s">
         <v>175</v>
       </c>
@@ -5950,9 +5861,9 @@
       <c r="AA112" s="53"/>
     </row>
     <row r="113" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B113" s="133"/>
-      <c r="C113" s="130"/>
-      <c r="E113" s="149"/>
+      <c r="B113" s="116"/>
+      <c r="C113" s="113"/>
+      <c r="E113" s="132"/>
       <c r="F113" s="61" t="s">
         <v>176</v>
       </c>
@@ -5983,14 +5894,14 @@
       <c r="AA113" s="55"/>
     </row>
     <row r="114" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B114" s="133" t="s">
+      <c r="B114" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="130"/>
-      <c r="E114" s="150" t="s">
+      <c r="C114" s="113"/>
+      <c r="E114" s="133" t="s">
         <v>261</v>
       </c>
-      <c r="F114" s="152" t="s">
+      <c r="F114" s="135" t="s">
         <v>262</v>
       </c>
       <c r="G114" s="50"/>
@@ -6034,10 +5945,10 @@
       <c r="AA114" s="62"/>
     </row>
     <row r="115" spans="2:27">
-      <c r="B115" s="133"/>
-      <c r="C115" s="130"/>
-      <c r="E115" s="148"/>
-      <c r="F115" s="153"/>
+      <c r="B115" s="116"/>
+      <c r="C115" s="113"/>
+      <c r="E115" s="131"/>
+      <c r="F115" s="136"/>
       <c r="G115" s="48"/>
       <c r="H115" s="48"/>
       <c r="I115" s="48"/>
@@ -6079,12 +5990,12 @@
       <c r="AA115" s="53"/>
     </row>
     <row r="116" spans="2:27">
-      <c r="B116" s="133" t="s">
+      <c r="B116" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="130"/>
-      <c r="E116" s="148"/>
-      <c r="F116" s="153"/>
+      <c r="C116" s="113"/>
+      <c r="E116" s="131"/>
+      <c r="F116" s="136"/>
       <c r="G116" s="48"/>
       <c r="H116" s="48"/>
       <c r="I116" s="48"/>
@@ -6126,10 +6037,10 @@
       <c r="AA116" s="53"/>
     </row>
     <row r="117" spans="2:27">
-      <c r="B117" s="133"/>
-      <c r="C117" s="130"/>
-      <c r="E117" s="148"/>
-      <c r="F117" s="153"/>
+      <c r="B117" s="116"/>
+      <c r="C117" s="113"/>
+      <c r="E117" s="131"/>
+      <c r="F117" s="136"/>
       <c r="G117" s="48"/>
       <c r="H117" s="48"/>
       <c r="I117" s="48"/>
@@ -6171,10 +6082,10 @@
       <c r="AA117" s="53"/>
     </row>
     <row r="118" spans="2:27">
-      <c r="B118" s="133"/>
-      <c r="C118" s="130"/>
-      <c r="E118" s="148"/>
-      <c r="F118" s="153"/>
+      <c r="B118" s="116"/>
+      <c r="C118" s="113"/>
+      <c r="E118" s="131"/>
+      <c r="F118" s="136"/>
       <c r="G118" s="48"/>
       <c r="H118" s="48"/>
       <c r="I118" s="48"/>
@@ -6216,10 +6127,10 @@
       <c r="AA118" s="53"/>
     </row>
     <row r="119" spans="2:27">
-      <c r="B119" s="133"/>
-      <c r="C119" s="130"/>
-      <c r="E119" s="148"/>
-      <c r="F119" s="153"/>
+      <c r="B119" s="116"/>
+      <c r="C119" s="113"/>
+      <c r="E119" s="131"/>
+      <c r="F119" s="136"/>
       <c r="G119" s="48"/>
       <c r="H119" s="48"/>
       <c r="I119" s="48"/>
@@ -6261,14 +6172,14 @@
       <c r="AA119" s="53"/>
     </row>
     <row r="120" spans="2:27">
-      <c r="B120" s="141" t="s">
+      <c r="B120" s="124" t="s">
         <v>26</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E120" s="148"/>
-      <c r="F120" s="153"/>
+      <c r="E120" s="131"/>
+      <c r="F120" s="136"/>
       <c r="G120" s="48"/>
       <c r="H120" s="48"/>
       <c r="I120" s="48"/>
@@ -6310,12 +6221,12 @@
       <c r="AA120" s="53"/>
     </row>
     <row r="121" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B121" s="141"/>
-      <c r="C121" s="130" t="s">
+      <c r="B121" s="124"/>
+      <c r="C121" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="E121" s="148"/>
-      <c r="F121" s="153"/>
+      <c r="E121" s="131"/>
+      <c r="F121" s="136"/>
       <c r="G121" s="48"/>
       <c r="H121" s="48"/>
       <c r="I121" s="48"/>
@@ -6357,10 +6268,10 @@
       <c r="AA121" s="53"/>
     </row>
     <row r="122" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B122" s="141"/>
-      <c r="C122" s="130"/>
-      <c r="E122" s="148"/>
-      <c r="F122" s="153"/>
+      <c r="B122" s="124"/>
+      <c r="C122" s="113"/>
+      <c r="E122" s="131"/>
+      <c r="F122" s="136"/>
       <c r="G122" s="48"/>
       <c r="H122" s="48"/>
       <c r="I122" s="48"/>
@@ -6402,12 +6313,12 @@
       <c r="AA122" s="53"/>
     </row>
     <row r="123" spans="2:27" ht="16.95" customHeight="1">
-      <c r="B123" s="141"/>
+      <c r="B123" s="124"/>
       <c r="C123" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E123" s="148"/>
-      <c r="F123" s="153"/>
+      <c r="E123" s="131"/>
+      <c r="F123" s="136"/>
       <c r="G123" s="48"/>
       <c r="H123" s="48"/>
       <c r="I123" s="48"/>
@@ -6449,14 +6360,14 @@
       <c r="AA123" s="53"/>
     </row>
     <row r="124" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B124" s="133" t="s">
+      <c r="B124" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="130" t="s">
+      <c r="C124" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="E124" s="148"/>
-      <c r="F124" s="153"/>
+      <c r="E124" s="131"/>
+      <c r="F124" s="136"/>
       <c r="G124" s="48"/>
       <c r="H124" s="48"/>
       <c r="I124" s="48"/>
@@ -6498,10 +6409,10 @@
       <c r="AA124" s="53"/>
     </row>
     <row r="125" spans="2:27">
-      <c r="B125" s="133"/>
-      <c r="C125" s="130"/>
-      <c r="E125" s="148"/>
-      <c r="F125" s="153"/>
+      <c r="B125" s="116"/>
+      <c r="C125" s="113"/>
+      <c r="E125" s="131"/>
+      <c r="F125" s="136"/>
       <c r="G125" s="48"/>
       <c r="H125" s="48"/>
       <c r="I125" s="48"/>
@@ -6543,12 +6454,12 @@
       <c r="AA125" s="53"/>
     </row>
     <row r="126" spans="2:27">
-      <c r="B126" s="133"/>
-      <c r="C126" s="130" t="s">
+      <c r="B126" s="116"/>
+      <c r="C126" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="148"/>
-      <c r="F126" s="153"/>
+      <c r="E126" s="131"/>
+      <c r="F126" s="136"/>
       <c r="G126" s="48"/>
       <c r="H126" s="48"/>
       <c r="I126" s="48"/>
@@ -6590,10 +6501,10 @@
       <c r="AA126" s="53"/>
     </row>
     <row r="127" spans="2:27">
-      <c r="B127" s="133"/>
-      <c r="C127" s="130"/>
-      <c r="E127" s="148"/>
-      <c r="F127" s="153"/>
+      <c r="B127" s="116"/>
+      <c r="C127" s="113"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="136"/>
       <c r="G127" s="48"/>
       <c r="H127" s="48"/>
       <c r="I127" s="48"/>
@@ -6635,10 +6546,10 @@
       <c r="AA127" s="53"/>
     </row>
     <row r="128" spans="2:27">
-      <c r="B128" s="133"/>
-      <c r="C128" s="130"/>
-      <c r="E128" s="148"/>
-      <c r="F128" s="153"/>
+      <c r="B128" s="116"/>
+      <c r="C128" s="113"/>
+      <c r="E128" s="131"/>
+      <c r="F128" s="136"/>
       <c r="G128" s="48"/>
       <c r="H128" s="48"/>
       <c r="I128" s="48"/>
@@ -6680,14 +6591,14 @@
       <c r="AA128" s="53"/>
     </row>
     <row r="129" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B129" s="133" t="s">
+      <c r="B129" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C129" s="130" t="s">
+      <c r="C129" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="E129" s="148"/>
-      <c r="F129" s="153"/>
+      <c r="E129" s="131"/>
+      <c r="F129" s="136"/>
       <c r="G129" s="48"/>
       <c r="H129" s="48"/>
       <c r="I129" s="48"/>
@@ -6729,10 +6640,10 @@
       <c r="AA129" s="53"/>
     </row>
     <row r="130" spans="2:27">
-      <c r="B130" s="133"/>
-      <c r="C130" s="130"/>
-      <c r="E130" s="148"/>
-      <c r="F130" s="153"/>
+      <c r="B130" s="116"/>
+      <c r="C130" s="113"/>
+      <c r="E130" s="131"/>
+      <c r="F130" s="136"/>
       <c r="G130" s="48"/>
       <c r="H130" s="48"/>
       <c r="I130" s="48"/>
@@ -6774,12 +6685,12 @@
       <c r="AA130" s="53"/>
     </row>
     <row r="131" spans="2:27">
-      <c r="B131" s="133" t="s">
+      <c r="B131" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="130"/>
-      <c r="E131" s="148"/>
-      <c r="F131" s="153"/>
+      <c r="C131" s="113"/>
+      <c r="E131" s="131"/>
+      <c r="F131" s="136"/>
       <c r="G131" s="48"/>
       <c r="H131" s="48"/>
       <c r="I131" s="48"/>
@@ -6821,10 +6732,10 @@
       <c r="AA131" s="53"/>
     </row>
     <row r="132" spans="2:27">
-      <c r="B132" s="133"/>
-      <c r="C132" s="130"/>
-      <c r="E132" s="148"/>
-      <c r="F132" s="153"/>
+      <c r="B132" s="116"/>
+      <c r="C132" s="113"/>
+      <c r="E132" s="131"/>
+      <c r="F132" s="136"/>
       <c r="G132" s="48"/>
       <c r="H132" s="48"/>
       <c r="I132" s="48"/>
@@ -6866,14 +6777,14 @@
       <c r="AA132" s="53"/>
     </row>
     <row r="133" spans="2:27">
-      <c r="B133" s="133" t="s">
+      <c r="B133" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C133" s="130" t="s">
+      <c r="C133" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="E133" s="148"/>
-      <c r="F133" s="153"/>
+      <c r="E133" s="131"/>
+      <c r="F133" s="136"/>
       <c r="G133" s="48"/>
       <c r="H133" s="48"/>
       <c r="I133" s="48"/>
@@ -6915,10 +6826,10 @@
       <c r="AA133" s="53"/>
     </row>
     <row r="134" spans="2:27">
-      <c r="B134" s="133"/>
-      <c r="C134" s="130"/>
-      <c r="E134" s="148"/>
-      <c r="F134" s="153"/>
+      <c r="B134" s="116"/>
+      <c r="C134" s="113"/>
+      <c r="E134" s="131"/>
+      <c r="F134" s="136"/>
       <c r="G134" s="48"/>
       <c r="H134" s="48"/>
       <c r="I134" s="48"/>
@@ -6960,10 +6871,10 @@
       <c r="AA134" s="53"/>
     </row>
     <row r="135" spans="2:27">
-      <c r="B135" s="133"/>
-      <c r="C135" s="130"/>
-      <c r="E135" s="148"/>
-      <c r="F135" s="153"/>
+      <c r="B135" s="116"/>
+      <c r="C135" s="113"/>
+      <c r="E135" s="131"/>
+      <c r="F135" s="136"/>
       <c r="G135" s="48"/>
       <c r="H135" s="48"/>
       <c r="I135" s="48"/>
@@ -7005,14 +6916,14 @@
       <c r="AA135" s="53"/>
     </row>
     <row r="136" spans="2:27">
-      <c r="B136" s="133" t="s">
+      <c r="B136" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="C136" s="137" t="s">
+      <c r="C136" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="E136" s="148"/>
-      <c r="F136" s="153"/>
+      <c r="E136" s="131"/>
+      <c r="F136" s="136"/>
       <c r="G136" s="48"/>
       <c r="H136" s="48"/>
       <c r="I136" s="48"/>
@@ -7054,10 +6965,10 @@
       <c r="AA136" s="53"/>
     </row>
     <row r="137" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B137" s="133"/>
-      <c r="C137" s="140"/>
-      <c r="E137" s="148"/>
-      <c r="F137" s="153"/>
+      <c r="B137" s="116"/>
+      <c r="C137" s="123"/>
+      <c r="E137" s="131"/>
+      <c r="F137" s="136"/>
       <c r="G137" s="48"/>
       <c r="H137" s="48"/>
       <c r="I137" s="48"/>
@@ -7099,10 +7010,10 @@
       <c r="AA137" s="53"/>
     </row>
     <row r="138" spans="2:27">
-      <c r="B138" s="133"/>
-      <c r="C138" s="140"/>
-      <c r="E138" s="148"/>
-      <c r="F138" s="153"/>
+      <c r="B138" s="116"/>
+      <c r="C138" s="123"/>
+      <c r="E138" s="131"/>
+      <c r="F138" s="136"/>
       <c r="G138" s="48"/>
       <c r="H138" s="48"/>
       <c r="I138" s="48"/>
@@ -7144,10 +7055,10 @@
       <c r="AA138" s="53"/>
     </row>
     <row r="139" spans="2:27">
-      <c r="B139" s="133"/>
-      <c r="C139" s="140"/>
-      <c r="E139" s="148"/>
-      <c r="F139" s="153"/>
+      <c r="B139" s="116"/>
+      <c r="C139" s="123"/>
+      <c r="E139" s="131"/>
+      <c r="F139" s="136"/>
       <c r="G139" s="48"/>
       <c r="H139" s="48"/>
       <c r="I139" s="48"/>
@@ -7189,10 +7100,10 @@
       <c r="AA139" s="53"/>
     </row>
     <row r="140" spans="2:27">
-      <c r="B140" s="133"/>
-      <c r="C140" s="129"/>
-      <c r="E140" s="148"/>
-      <c r="F140" s="153"/>
+      <c r="B140" s="116"/>
+      <c r="C140" s="112"/>
+      <c r="E140" s="131"/>
+      <c r="F140" s="136"/>
       <c r="G140" s="48"/>
       <c r="H140" s="48"/>
       <c r="I140" s="48"/>
@@ -7234,14 +7145,14 @@
       <c r="AA140" s="53"/>
     </row>
     <row r="141" spans="2:27">
-      <c r="B141" s="133" t="s">
+      <c r="B141" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="C141" s="130" t="s">
+      <c r="C141" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="E141" s="148"/>
-      <c r="F141" s="153"/>
+      <c r="E141" s="131"/>
+      <c r="F141" s="136"/>
       <c r="G141" s="48"/>
       <c r="H141" s="48"/>
       <c r="I141" s="48"/>
@@ -7283,10 +7194,10 @@
       <c r="AA141" s="53"/>
     </row>
     <row r="142" spans="2:27" ht="16.95" customHeight="1">
-      <c r="B142" s="133"/>
-      <c r="C142" s="130"/>
-      <c r="E142" s="148"/>
-      <c r="F142" s="153"/>
+      <c r="B142" s="116"/>
+      <c r="C142" s="113"/>
+      <c r="E142" s="131"/>
+      <c r="F142" s="136"/>
       <c r="G142" s="48"/>
       <c r="H142" s="48"/>
       <c r="I142" s="48"/>
@@ -7328,10 +7239,10 @@
       <c r="AA142" s="53"/>
     </row>
     <row r="143" spans="2:27">
-      <c r="B143" s="133"/>
-      <c r="C143" s="130"/>
-      <c r="E143" s="148"/>
-      <c r="F143" s="153"/>
+      <c r="B143" s="116"/>
+      <c r="C143" s="113"/>
+      <c r="E143" s="131"/>
+      <c r="F143" s="136"/>
       <c r="G143" s="48"/>
       <c r="H143" s="48"/>
       <c r="I143" s="48"/>
@@ -7373,10 +7284,10 @@
       <c r="AA143" s="53"/>
     </row>
     <row r="144" spans="2:27">
-      <c r="B144" s="133"/>
-      <c r="C144" s="130"/>
-      <c r="E144" s="148"/>
-      <c r="F144" s="153"/>
+      <c r="B144" s="116"/>
+      <c r="C144" s="113"/>
+      <c r="E144" s="131"/>
+      <c r="F144" s="136"/>
       <c r="G144" s="48"/>
       <c r="H144" s="48"/>
       <c r="I144" s="48"/>
@@ -7418,10 +7329,10 @@
       <c r="AA144" s="53"/>
     </row>
     <row r="145" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B145" s="133"/>
-      <c r="C145" s="130"/>
-      <c r="E145" s="148"/>
-      <c r="F145" s="153"/>
+      <c r="B145" s="116"/>
+      <c r="C145" s="113"/>
+      <c r="E145" s="131"/>
+      <c r="F145" s="136"/>
       <c r="G145" s="48"/>
       <c r="H145" s="48"/>
       <c r="I145" s="48"/>
@@ -7463,12 +7374,12 @@
       <c r="AA145" s="53"/>
     </row>
     <row r="146" spans="2:27">
-      <c r="B146" s="133" t="s">
+      <c r="B146" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="C146" s="130"/>
-      <c r="E146" s="148"/>
-      <c r="F146" s="153"/>
+      <c r="C146" s="113"/>
+      <c r="E146" s="131"/>
+      <c r="F146" s="136"/>
       <c r="G146" s="48"/>
       <c r="H146" s="48"/>
       <c r="I146" s="48"/>
@@ -7510,10 +7421,10 @@
       <c r="AA146" s="53"/>
     </row>
     <row r="147" spans="2:27">
-      <c r="B147" s="133"/>
-      <c r="C147" s="130"/>
-      <c r="E147" s="148"/>
-      <c r="F147" s="153"/>
+      <c r="B147" s="116"/>
+      <c r="C147" s="113"/>
+      <c r="E147" s="131"/>
+      <c r="F147" s="136"/>
       <c r="G147" s="48"/>
       <c r="H147" s="48"/>
       <c r="I147" s="48"/>
@@ -7555,10 +7466,10 @@
       <c r="AA147" s="53"/>
     </row>
     <row r="148" spans="2:27">
-      <c r="B148" s="133"/>
-      <c r="C148" s="130"/>
-      <c r="E148" s="148"/>
-      <c r="F148" s="153"/>
+      <c r="B148" s="116"/>
+      <c r="C148" s="113"/>
+      <c r="E148" s="131"/>
+      <c r="F148" s="136"/>
       <c r="G148" s="48"/>
       <c r="H148" s="48"/>
       <c r="I148" s="48"/>
@@ -7600,10 +7511,10 @@
       <c r="AA148" s="53"/>
     </row>
     <row r="149" spans="2:27" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B149" s="133"/>
-      <c r="C149" s="130"/>
-      <c r="E149" s="151"/>
-      <c r="F149" s="154"/>
+      <c r="B149" s="116"/>
+      <c r="C149" s="113"/>
+      <c r="E149" s="134"/>
+      <c r="F149" s="137"/>
       <c r="G149" s="56"/>
       <c r="H149" s="56"/>
       <c r="I149" s="56"/>
@@ -7645,9 +7556,9 @@
       <c r="AA149" s="57"/>
     </row>
     <row r="150" spans="2:27">
-      <c r="B150" s="133"/>
-      <c r="C150" s="130"/>
-      <c r="E150" s="147" t="s">
+      <c r="B150" s="116"/>
+      <c r="C150" s="113"/>
+      <c r="E150" s="130" t="s">
         <v>260</v>
       </c>
       <c r="F150" s="63" t="s">
@@ -7695,9 +7606,9 @@
       <c r="AA150" s="52"/>
     </row>
     <row r="151" spans="2:27">
-      <c r="B151" s="133"/>
-      <c r="C151" s="130"/>
-      <c r="E151" s="148"/>
+      <c r="B151" s="116"/>
+      <c r="C151" s="113"/>
+      <c r="E151" s="131"/>
       <c r="F151" s="60" t="s">
         <v>189</v>
       </c>
@@ -7736,9 +7647,9 @@
       <c r="AA151" s="53"/>
     </row>
     <row r="152" spans="2:27">
-      <c r="B152" s="133"/>
-      <c r="C152" s="130"/>
-      <c r="E152" s="148"/>
+      <c r="B152" s="116"/>
+      <c r="C152" s="113"/>
+      <c r="E152" s="131"/>
       <c r="F152" s="60" t="s">
         <v>190</v>
       </c>
@@ -7782,9 +7693,9 @@
       <c r="AA152" s="53"/>
     </row>
     <row r="153" spans="2:27">
-      <c r="B153" s="133"/>
-      <c r="C153" s="130"/>
-      <c r="E153" s="148"/>
+      <c r="B153" s="116"/>
+      <c r="C153" s="113"/>
+      <c r="E153" s="131"/>
       <c r="F153" s="60" t="s">
         <v>191</v>
       </c>
@@ -7820,13 +7731,13 @@
       <c r="AA153" s="53"/>
     </row>
     <row r="154" spans="2:27">
-      <c r="B154" s="133" t="s">
+      <c r="B154" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="130" t="s">
+      <c r="C154" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="E154" s="148"/>
+      <c r="E154" s="131"/>
       <c r="F154" s="60" t="s">
         <v>192</v>
       </c>
@@ -7872,9 +7783,9 @@
       <c r="AA154" s="53"/>
     </row>
     <row r="155" spans="2:27">
-      <c r="B155" s="133"/>
-      <c r="C155" s="130"/>
-      <c r="E155" s="148"/>
+      <c r="B155" s="116"/>
+      <c r="C155" s="113"/>
+      <c r="E155" s="131"/>
       <c r="F155" s="60" t="s">
         <v>193</v>
       </c>
@@ -7920,9 +7831,9 @@
       <c r="AA155" s="53"/>
     </row>
     <row r="156" spans="2:27">
-      <c r="B156" s="133"/>
-      <c r="C156" s="130"/>
-      <c r="E156" s="148"/>
+      <c r="B156" s="116"/>
+      <c r="C156" s="113"/>
+      <c r="E156" s="131"/>
       <c r="F156" s="60" t="s">
         <v>194</v>
       </c>
@@ -7968,13 +7879,13 @@
       <c r="AA156" s="53"/>
     </row>
     <row r="157" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B157" s="139" t="s">
+      <c r="B157" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="C157" s="130" t="s">
+      <c r="C157" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="E157" s="149"/>
+      <c r="E157" s="132"/>
       <c r="F157" s="61" t="s">
         <v>197</v>
       </c>
@@ -8012,12 +7923,12 @@
       <c r="AA157" s="55"/>
     </row>
     <row r="158" spans="2:27">
-      <c r="B158" s="139"/>
-      <c r="C158" s="130"/>
-      <c r="E158" s="150" t="s">
+      <c r="B158" s="122"/>
+      <c r="C158" s="113"/>
+      <c r="E158" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="F158" s="155" t="s">
+      <c r="F158" s="138" t="s">
         <v>272</v>
       </c>
       <c r="G158" s="37">
@@ -8049,10 +7960,10 @@
       <c r="AA158" s="52"/>
     </row>
     <row r="159" spans="2:27">
-      <c r="B159" s="139"/>
-      <c r="C159" s="130"/>
-      <c r="E159" s="148"/>
-      <c r="F159" s="133"/>
+      <c r="B159" s="122"/>
+      <c r="C159" s="113"/>
+      <c r="E159" s="131"/>
+      <c r="F159" s="116"/>
       <c r="G159" s="1">
         <v>1.01435445973261</v>
       </c>
@@ -8082,10 +7993,10 @@
       <c r="AA159" s="53"/>
     </row>
     <row r="160" spans="2:27">
-      <c r="B160" s="139"/>
-      <c r="C160" s="130"/>
-      <c r="E160" s="148"/>
-      <c r="F160" s="133"/>
+      <c r="B160" s="122"/>
+      <c r="C160" s="113"/>
+      <c r="E160" s="131"/>
+      <c r="F160" s="116"/>
       <c r="G160" s="1">
         <v>2.0570279393808799</v>
       </c>
@@ -8115,12 +8026,12 @@
       <c r="AA160" s="53"/>
     </row>
     <row r="161" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B161" s="139" t="s">
+      <c r="B161" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="C161" s="130"/>
-      <c r="E161" s="148"/>
-      <c r="F161" s="133"/>
+      <c r="C161" s="113"/>
+      <c r="E161" s="131"/>
+      <c r="F161" s="116"/>
       <c r="G161" s="1">
         <v>5.0235478806907299</v>
       </c>
@@ -8150,10 +8061,10 @@
       <c r="AA161" s="53"/>
     </row>
     <row r="162" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B162" s="139"/>
-      <c r="C162" s="130"/>
-      <c r="E162" s="148"/>
-      <c r="F162" s="134"/>
+      <c r="B162" s="122"/>
+      <c r="C162" s="113"/>
+      <c r="E162" s="131"/>
+      <c r="F162" s="117"/>
       <c r="G162" s="24">
         <v>16.7844573726926</v>
       </c>
@@ -8183,10 +8094,10 @@
       <c r="AA162" s="55"/>
     </row>
     <row r="163" spans="2:27">
-      <c r="B163" s="139"/>
-      <c r="C163" s="130"/>
-      <c r="E163" s="148"/>
-      <c r="F163" s="155" t="s">
+      <c r="B163" s="122"/>
+      <c r="C163" s="113"/>
+      <c r="E163" s="131"/>
+      <c r="F163" s="138" t="s">
         <v>273</v>
       </c>
       <c r="G163" s="37">
@@ -8218,10 +8129,10 @@
       <c r="AA163" s="52"/>
     </row>
     <row r="164" spans="2:27">
-      <c r="B164" s="139"/>
-      <c r="C164" s="130"/>
-      <c r="E164" s="148"/>
-      <c r="F164" s="133"/>
+      <c r="B164" s="122"/>
+      <c r="C164" s="113"/>
+      <c r="E164" s="131"/>
+      <c r="F164" s="116"/>
       <c r="G164" s="1">
         <v>1.0000384334524699</v>
       </c>
@@ -8251,10 +8162,10 @@
       <c r="AA164" s="53"/>
     </row>
     <row r="165" spans="2:27">
-      <c r="B165" s="139"/>
-      <c r="C165" s="130"/>
-      <c r="E165" s="148"/>
-      <c r="F165" s="133"/>
+      <c r="B165" s="122"/>
+      <c r="C165" s="113"/>
+      <c r="E165" s="131"/>
+      <c r="F165" s="116"/>
       <c r="G165" s="1">
         <v>1.9953111187978001</v>
       </c>
@@ -8284,10 +8195,10 @@
       <c r="AA165" s="53"/>
     </row>
     <row r="166" spans="2:27">
-      <c r="B166" s="139"/>
-      <c r="C166" s="130"/>
-      <c r="E166" s="148"/>
-      <c r="F166" s="133"/>
+      <c r="B166" s="122"/>
+      <c r="C166" s="113"/>
+      <c r="E166" s="131"/>
+      <c r="F166" s="116"/>
       <c r="G166" s="1">
         <v>4.9786694338752397</v>
       </c>
@@ -8317,10 +8228,10 @@
       <c r="AA166" s="53"/>
     </row>
     <row r="167" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B167" s="139"/>
-      <c r="C167" s="130"/>
-      <c r="E167" s="151"/>
-      <c r="F167" s="134"/>
+      <c r="B167" s="122"/>
+      <c r="C167" s="113"/>
+      <c r="E167" s="134"/>
+      <c r="F167" s="117"/>
       <c r="G167" s="24">
         <v>16.686933907272799</v>
       </c>
@@ -8350,9 +8261,9 @@
       <c r="AA167" s="55"/>
     </row>
     <row r="168" spans="2:27">
-      <c r="B168" s="139"/>
-      <c r="C168" s="130"/>
-      <c r="E168" s="147" t="s">
+      <c r="B168" s="122"/>
+      <c r="C168" s="113"/>
+      <c r="E168" s="130" t="s">
         <v>105</v>
       </c>
       <c r="F168" s="64"/>
@@ -8388,13 +8299,13 @@
       </c>
     </row>
     <row r="169" spans="2:27">
-      <c r="B169" s="133" t="s">
+      <c r="B169" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="C169" s="130" t="s">
+      <c r="C169" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="E169" s="148"/>
+      <c r="E169" s="131"/>
       <c r="F169" s="65"/>
       <c r="G169" s="48"/>
       <c r="H169" s="48"/>
@@ -8428,9 +8339,9 @@
       </c>
     </row>
     <row r="170" spans="2:27">
-      <c r="B170" s="133"/>
-      <c r="C170" s="130"/>
-      <c r="E170" s="148"/>
+      <c r="B170" s="116"/>
+      <c r="C170" s="113"/>
+      <c r="E170" s="131"/>
       <c r="F170" s="65"/>
       <c r="G170" s="48"/>
       <c r="H170" s="48"/>
@@ -8464,9 +8375,9 @@
       </c>
     </row>
     <row r="171" spans="2:27">
-      <c r="B171" s="133"/>
-      <c r="C171" s="130"/>
-      <c r="E171" s="148"/>
+      <c r="B171" s="116"/>
+      <c r="C171" s="113"/>
+      <c r="E171" s="131"/>
       <c r="F171" s="65"/>
       <c r="G171" s="48"/>
       <c r="H171" s="48"/>
@@ -8500,9 +8411,9 @@
       </c>
     </row>
     <row r="172" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B172" s="133"/>
-      <c r="C172" s="130"/>
-      <c r="E172" s="148"/>
+      <c r="B172" s="116"/>
+      <c r="C172" s="113"/>
+      <c r="E172" s="131"/>
       <c r="F172" s="65"/>
       <c r="G172" s="48"/>
       <c r="H172" s="48"/>
@@ -8536,13 +8447,13 @@
       </c>
     </row>
     <row r="173" spans="2:27">
-      <c r="B173" s="133" t="s">
+      <c r="B173" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="C173" s="130" t="s">
+      <c r="C173" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="E173" s="148"/>
+      <c r="E173" s="131"/>
       <c r="F173" s="65"/>
       <c r="G173" s="48"/>
       <c r="H173" s="48"/>
@@ -8576,9 +8487,9 @@
       </c>
     </row>
     <row r="174" spans="2:27">
-      <c r="B174" s="133"/>
-      <c r="C174" s="130"/>
-      <c r="E174" s="148"/>
+      <c r="B174" s="116"/>
+      <c r="C174" s="113"/>
+      <c r="E174" s="131"/>
       <c r="F174" s="65"/>
       <c r="G174" s="48"/>
       <c r="H174" s="48"/>
@@ -8612,9 +8523,9 @@
       </c>
     </row>
     <row r="175" spans="2:27">
-      <c r="B175" s="133"/>
-      <c r="C175" s="130"/>
-      <c r="E175" s="148"/>
+      <c r="B175" s="116"/>
+      <c r="C175" s="113"/>
+      <c r="E175" s="131"/>
       <c r="F175" s="65"/>
       <c r="G175" s="48"/>
       <c r="H175" s="48"/>
@@ -8648,9 +8559,9 @@
       </c>
     </row>
     <row r="176" spans="2:27">
-      <c r="B176" s="133"/>
-      <c r="C176" s="130"/>
-      <c r="E176" s="148"/>
+      <c r="B176" s="116"/>
+      <c r="C176" s="113"/>
+      <c r="E176" s="131"/>
       <c r="F176" s="65"/>
       <c r="G176" s="48"/>
       <c r="H176" s="48"/>
@@ -8684,11 +8595,11 @@
       </c>
     </row>
     <row r="177" spans="2:27">
-      <c r="B177" s="133" t="s">
+      <c r="B177" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="C177" s="130"/>
-      <c r="E177" s="148"/>
+      <c r="C177" s="113"/>
+      <c r="E177" s="131"/>
       <c r="F177" s="65"/>
       <c r="G177" s="48"/>
       <c r="H177" s="48"/>
@@ -8722,9 +8633,9 @@
       </c>
     </row>
     <row r="178" spans="2:27">
-      <c r="B178" s="133"/>
-      <c r="C178" s="130"/>
-      <c r="E178" s="148"/>
+      <c r="B178" s="116"/>
+      <c r="C178" s="113"/>
+      <c r="E178" s="131"/>
       <c r="F178" s="65"/>
       <c r="G178" s="48"/>
       <c r="H178" s="48"/>
@@ -8758,9 +8669,9 @@
       </c>
     </row>
     <row r="179" spans="2:27">
-      <c r="B179" s="133"/>
-      <c r="C179" s="130"/>
-      <c r="E179" s="148"/>
+      <c r="B179" s="116"/>
+      <c r="C179" s="113"/>
+      <c r="E179" s="131"/>
       <c r="F179" s="65"/>
       <c r="G179" s="48"/>
       <c r="H179" s="48"/>
@@ -8794,9 +8705,9 @@
       </c>
     </row>
     <row r="180" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B180" s="133"/>
-      <c r="C180" s="130"/>
-      <c r="E180" s="148"/>
+      <c r="B180" s="116"/>
+      <c r="C180" s="113"/>
+      <c r="E180" s="131"/>
       <c r="F180" s="65"/>
       <c r="G180" s="48"/>
       <c r="H180" s="48"/>
@@ -8830,13 +8741,13 @@
       </c>
     </row>
     <row r="181" spans="2:27">
-      <c r="B181" s="133" t="s">
+      <c r="B181" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="C181" s="130" t="s">
+      <c r="C181" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="E181" s="148"/>
+      <c r="E181" s="131"/>
       <c r="F181" s="65"/>
       <c r="G181" s="48"/>
       <c r="H181" s="48"/>
@@ -8870,9 +8781,9 @@
       </c>
     </row>
     <row r="182" spans="2:27">
-      <c r="B182" s="133"/>
-      <c r="C182" s="130"/>
-      <c r="E182" s="148"/>
+      <c r="B182" s="116"/>
+      <c r="C182" s="113"/>
+      <c r="E182" s="131"/>
       <c r="F182" s="65"/>
       <c r="G182" s="48"/>
       <c r="H182" s="48"/>
@@ -8912,7 +8823,7 @@
       <c r="C183" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E183" s="148"/>
+      <c r="E183" s="131"/>
       <c r="F183" s="65"/>
       <c r="G183" s="48"/>
       <c r="H183" s="48"/>
@@ -8946,13 +8857,13 @@
       </c>
     </row>
     <row r="184" spans="2:27">
-      <c r="B184" s="133" t="s">
+      <c r="B184" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="C184" s="130" t="s">
+      <c r="C184" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E184" s="148"/>
+      <c r="E184" s="131"/>
       <c r="F184" s="65"/>
       <c r="G184" s="48"/>
       <c r="H184" s="48"/>
@@ -8986,9 +8897,9 @@
       </c>
     </row>
     <row r="185" spans="2:27">
-      <c r="B185" s="133"/>
-      <c r="C185" s="130"/>
-      <c r="E185" s="148"/>
+      <c r="B185" s="116"/>
+      <c r="C185" s="113"/>
+      <c r="E185" s="131"/>
       <c r="F185" s="65"/>
       <c r="G185" s="48"/>
       <c r="H185" s="48"/>
@@ -9022,9 +8933,9 @@
       </c>
     </row>
     <row r="186" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B186" s="133"/>
-      <c r="C186" s="130"/>
-      <c r="E186" s="148"/>
+      <c r="B186" s="116"/>
+      <c r="C186" s="113"/>
+      <c r="E186" s="131"/>
       <c r="F186" s="65"/>
       <c r="G186" s="48"/>
       <c r="H186" s="48"/>
@@ -9058,9 +8969,9 @@
       </c>
     </row>
     <row r="187" spans="2:27">
-      <c r="B187" s="133"/>
-      <c r="C187" s="130"/>
-      <c r="E187" s="148"/>
+      <c r="B187" s="116"/>
+      <c r="C187" s="113"/>
+      <c r="E187" s="131"/>
       <c r="F187" s="65"/>
       <c r="G187" s="48"/>
       <c r="H187" s="48"/>
@@ -9094,9 +9005,9 @@
       </c>
     </row>
     <row r="188" spans="2:27">
-      <c r="B188" s="133"/>
-      <c r="C188" s="130"/>
-      <c r="E188" s="148"/>
+      <c r="B188" s="116"/>
+      <c r="C188" s="113"/>
+      <c r="E188" s="131"/>
       <c r="F188" s="65"/>
       <c r="G188" s="48"/>
       <c r="H188" s="48"/>
@@ -9130,9 +9041,9 @@
       </c>
     </row>
     <row r="189" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B189" s="133"/>
-      <c r="C189" s="130"/>
-      <c r="E189" s="149"/>
+      <c r="B189" s="116"/>
+      <c r="C189" s="113"/>
+      <c r="E189" s="132"/>
       <c r="F189" s="66"/>
       <c r="G189" s="54"/>
       <c r="H189" s="54"/>
@@ -9166,52 +9077,52 @@
       </c>
     </row>
     <row r="190" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B190" s="133" t="s">
+      <c r="B190" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="C190" s="130"/>
+      <c r="C190" s="113"/>
     </row>
     <row r="191" spans="2:27">
-      <c r="B191" s="133"/>
-      <c r="C191" s="130"/>
+      <c r="B191" s="116"/>
+      <c r="C191" s="113"/>
     </row>
     <row r="192" spans="2:27">
-      <c r="B192" s="133"/>
-      <c r="C192" s="130"/>
+      <c r="B192" s="116"/>
+      <c r="C192" s="113"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="133"/>
-      <c r="C193" s="130"/>
+      <c r="B193" s="116"/>
+      <c r="C193" s="113"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="133" t="s">
+      <c r="B194" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="C194" s="130" t="s">
+      <c r="C194" s="113" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="133"/>
-      <c r="C195" s="130"/>
+      <c r="B195" s="116"/>
+      <c r="C195" s="113"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="138" t="s">
+      <c r="B196" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C196" s="130" t="s">
+      <c r="C196" s="113" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="138"/>
-      <c r="C197" s="130"/>
+      <c r="B197" s="121"/>
+      <c r="C197" s="113"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="133" t="s">
+      <c r="B198" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="C198" s="130" t="s">
+      <c r="C198" s="113" t="s">
         <v>110</v>
       </c>
       <c r="E198" s="47" t="s">
@@ -9219,107 +9130,107 @@
       </c>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="133"/>
-      <c r="C199" s="130"/>
+      <c r="B199" s="116"/>
+      <c r="C199" s="113"/>
       <c r="E199" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="133"/>
-      <c r="C200" s="130"/>
+      <c r="B200" s="116"/>
+      <c r="C200" s="113"/>
     </row>
     <row r="201" spans="2:5" ht="16.05" customHeight="1">
-      <c r="B201" s="133"/>
-      <c r="C201" s="130"/>
+      <c r="B201" s="116"/>
+      <c r="C201" s="113"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="133"/>
-      <c r="C202" s="130"/>
+      <c r="B202" s="116"/>
+      <c r="C202" s="113"/>
     </row>
     <row r="203" spans="2:5" ht="16.05" customHeight="1">
-      <c r="B203" s="133"/>
-      <c r="C203" s="130"/>
+      <c r="B203" s="116"/>
+      <c r="C203" s="113"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="133"/>
-      <c r="C204" s="130"/>
+      <c r="B204" s="116"/>
+      <c r="C204" s="113"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="133" t="s">
+      <c r="B205" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="C205" s="130" t="s">
+      <c r="C205" s="113" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="133"/>
-      <c r="C206" s="130"/>
+      <c r="B206" s="116"/>
+      <c r="C206" s="113"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="133"/>
-      <c r="C207" s="130"/>
+      <c r="B207" s="116"/>
+      <c r="C207" s="113"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="133" t="s">
+      <c r="B208" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="C208" s="130" t="s">
+      <c r="C208" s="113" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="133"/>
-      <c r="C209" s="130"/>
+      <c r="B209" s="116"/>
+      <c r="C209" s="113"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="133" t="s">
+      <c r="B210" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C210" s="130" t="s">
+      <c r="C210" s="113" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="133"/>
-      <c r="C211" s="130"/>
+      <c r="B211" s="116"/>
+      <c r="C211" s="113"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="133"/>
-      <c r="C212" s="130"/>
+      <c r="B212" s="116"/>
+      <c r="C212" s="113"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="133" t="s">
+      <c r="B213" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="C213" s="130"/>
+      <c r="C213" s="113"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="133"/>
-      <c r="C214" s="130"/>
+      <c r="B214" s="116"/>
+      <c r="C214" s="113"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="133" t="s">
+      <c r="B215" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="C215" s="130"/>
+      <c r="C215" s="113"/>
     </row>
     <row r="216" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B216" s="133"/>
-      <c r="C216" s="130"/>
+      <c r="B216" s="116"/>
+      <c r="C216" s="113"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="133" t="s">
+      <c r="B217" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="C217" s="130" t="s">
+      <c r="C217" s="113" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="218" spans="2:3" ht="16.2" thickBot="1">
-      <c r="B218" s="133"/>
-      <c r="C218" s="130"/>
+      <c r="B218" s="116"/>
+      <c r="C218" s="113"/>
     </row>
     <row r="219" spans="2:3" ht="16.2" thickBot="1">
       <c r="B219" s="18" t="s">
@@ -9330,334 +9241,334 @@
       </c>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="132" t="s">
+      <c r="B220" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="C220" s="129" t="s">
+      <c r="C220" s="112" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="133"/>
-      <c r="C221" s="130"/>
+      <c r="B221" s="116"/>
+      <c r="C221" s="113"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="133"/>
-      <c r="C222" s="130"/>
+      <c r="B222" s="116"/>
+      <c r="C222" s="113"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="133"/>
-      <c r="C223" s="130"/>
+      <c r="B223" s="116"/>
+      <c r="C223" s="113"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="133"/>
-      <c r="C224" s="130"/>
+      <c r="B224" s="116"/>
+      <c r="C224" s="113"/>
     </row>
     <row r="225" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B225" s="133"/>
-      <c r="C225" s="130"/>
+      <c r="B225" s="116"/>
+      <c r="C225" s="113"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="133"/>
-      <c r="C226" s="130"/>
+      <c r="B226" s="116"/>
+      <c r="C226" s="113"/>
     </row>
     <row r="227" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B227" s="133" t="s">
+      <c r="B227" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="C227" s="130"/>
+      <c r="C227" s="113"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="136"/>
-      <c r="C228" s="137"/>
+      <c r="B228" s="119"/>
+      <c r="C228" s="120"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="133" t="s">
+      <c r="B229" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="C229" s="130" t="s">
+      <c r="C229" s="113" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="133"/>
-      <c r="C230" s="130"/>
+      <c r="B230" s="116"/>
+      <c r="C230" s="113"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="133" t="s">
+      <c r="B231" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="C231" s="130"/>
+      <c r="C231" s="113"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="133"/>
-      <c r="C232" s="130"/>
+      <c r="B232" s="116"/>
+      <c r="C232" s="113"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="133"/>
-      <c r="C233" s="130"/>
+      <c r="B233" s="116"/>
+      <c r="C233" s="113"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="133"/>
-      <c r="C234" s="130"/>
+      <c r="B234" s="116"/>
+      <c r="C234" s="113"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="133"/>
-      <c r="C235" s="130"/>
+      <c r="B235" s="116"/>
+      <c r="C235" s="113"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="133"/>
-      <c r="C236" s="130"/>
+      <c r="B236" s="116"/>
+      <c r="C236" s="113"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="133"/>
-      <c r="C237" s="130"/>
+      <c r="B237" s="116"/>
+      <c r="C237" s="113"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="133"/>
-      <c r="C238" s="130"/>
+      <c r="B238" s="116"/>
+      <c r="C238" s="113"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="133"/>
-      <c r="C239" s="130"/>
+      <c r="B239" s="116"/>
+      <c r="C239" s="113"/>
     </row>
     <row r="240" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B240" s="133" t="s">
+      <c r="B240" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="C240" s="130" t="s">
+      <c r="C240" s="113" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="133"/>
-      <c r="C241" s="130"/>
+      <c r="B241" s="116"/>
+      <c r="C241" s="113"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="133" t="s">
+      <c r="B242" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="C242" s="130" t="s">
+      <c r="C242" s="113" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="133"/>
-      <c r="C243" s="130"/>
+      <c r="B243" s="116"/>
+      <c r="C243" s="113"/>
     </row>
     <row r="244" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B244" s="133" t="s">
+      <c r="B244" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="C244" s="130" t="s">
+      <c r="C244" s="113" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="133"/>
-      <c r="C245" s="130"/>
+      <c r="B245" s="116"/>
+      <c r="C245" s="113"/>
     </row>
     <row r="246" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B246" s="133"/>
-      <c r="C246" s="130"/>
+      <c r="B246" s="116"/>
+      <c r="C246" s="113"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="133"/>
-      <c r="C247" s="130"/>
+      <c r="B247" s="116"/>
+      <c r="C247" s="113"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="133" t="s">
+      <c r="B248" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="C248" s="130" t="s">
+      <c r="C248" s="113" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="133"/>
-      <c r="C249" s="130"/>
+      <c r="B249" s="116"/>
+      <c r="C249" s="113"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="133" t="s">
+      <c r="B250" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="C250" s="130"/>
+      <c r="C250" s="113"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="133"/>
-      <c r="C251" s="130"/>
+      <c r="B251" s="116"/>
+      <c r="C251" s="113"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="133"/>
-      <c r="C252" s="130"/>
+      <c r="B252" s="116"/>
+      <c r="C252" s="113"/>
     </row>
     <row r="253" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B253" s="133"/>
-      <c r="C253" s="130"/>
+      <c r="B253" s="116"/>
+      <c r="C253" s="113"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="133"/>
-      <c r="C254" s="130"/>
+      <c r="B254" s="116"/>
+      <c r="C254" s="113"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="133"/>
-      <c r="C255" s="130"/>
+      <c r="B255" s="116"/>
+      <c r="C255" s="113"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="133"/>
-      <c r="C256" s="130"/>
+      <c r="B256" s="116"/>
+      <c r="C256" s="113"/>
     </row>
     <row r="257" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B257" s="133" t="s">
+      <c r="B257" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="C257" s="130"/>
+      <c r="C257" s="113"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="133"/>
-      <c r="C258" s="130"/>
+      <c r="B258" s="116"/>
+      <c r="C258" s="113"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="133"/>
-      <c r="C259" s="130"/>
+      <c r="B259" s="116"/>
+      <c r="C259" s="113"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="133"/>
-      <c r="C260" s="130"/>
+      <c r="B260" s="116"/>
+      <c r="C260" s="113"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="133" t="s">
+      <c r="B261" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="C261" s="130"/>
+      <c r="C261" s="113"/>
     </row>
     <row r="262" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B262" s="133"/>
-      <c r="C262" s="130"/>
+      <c r="B262" s="116"/>
+      <c r="C262" s="113"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="133" t="s">
+      <c r="B263" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C263" s="130" t="s">
+      <c r="C263" s="113" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="133"/>
-      <c r="C264" s="130"/>
+      <c r="B264" s="116"/>
+      <c r="C264" s="113"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="133"/>
-      <c r="C265" s="130"/>
+      <c r="B265" s="116"/>
+      <c r="C265" s="113"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="133" t="s">
+      <c r="B266" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="C266" s="130" t="s">
+      <c r="C266" s="113" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="133"/>
-      <c r="C267" s="130"/>
+      <c r="B267" s="116"/>
+      <c r="C267" s="113"/>
     </row>
     <row r="268" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B268" s="133"/>
-      <c r="C268" s="130"/>
+      <c r="B268" s="116"/>
+      <c r="C268" s="113"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="133"/>
-      <c r="C269" s="130"/>
+      <c r="B269" s="116"/>
+      <c r="C269" s="113"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="133" t="s">
+      <c r="B270" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="C270" s="130" t="s">
+      <c r="C270" s="113" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="18" customHeight="1">
-      <c r="B271" s="133"/>
-      <c r="C271" s="130"/>
+      <c r="B271" s="116"/>
+      <c r="C271" s="113"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="133" t="s">
+      <c r="B272" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="C272" s="130" t="s">
+      <c r="C272" s="113" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="133"/>
-      <c r="C273" s="130"/>
+      <c r="B273" s="116"/>
+      <c r="C273" s="113"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="133"/>
-      <c r="C274" s="130"/>
+      <c r="B274" s="116"/>
+      <c r="C274" s="113"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="133" t="s">
+      <c r="B275" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="C275" s="130" t="s">
+      <c r="C275" s="113" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="276" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B276" s="133"/>
-      <c r="C276" s="130"/>
+      <c r="B276" s="116"/>
+      <c r="C276" s="113"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="133"/>
-      <c r="C277" s="130"/>
+      <c r="B277" s="116"/>
+      <c r="C277" s="113"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="133" t="s">
+      <c r="B278" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="C278" s="130" t="s">
+      <c r="C278" s="113" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="133"/>
-      <c r="C279" s="130"/>
+      <c r="B279" s="116"/>
+      <c r="C279" s="113"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="133" t="s">
+      <c r="B280" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="C280" s="130" t="s">
+      <c r="C280" s="113" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="133"/>
-      <c r="C281" s="130"/>
+      <c r="B281" s="116"/>
+      <c r="C281" s="113"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="133"/>
-      <c r="C282" s="130"/>
+      <c r="B282" s="116"/>
+      <c r="C282" s="113"/>
     </row>
     <row r="283" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B283" s="133"/>
-      <c r="C283" s="130"/>
+      <c r="B283" s="116"/>
+      <c r="C283" s="113"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="133" t="s">
+      <c r="B284" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="C284" s="130" t="s">
+      <c r="C284" s="113" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="285" spans="2:3" ht="16.2" thickBot="1">
-      <c r="B285" s="133"/>
-      <c r="C285" s="130"/>
+      <c r="B285" s="116"/>
+      <c r="C285" s="113"/>
     </row>
     <row r="286" spans="2:3" ht="16.2" thickBot="1">
       <c r="B286" s="18" t="s">
@@ -9668,30 +9579,30 @@
       </c>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="132" t="s">
+      <c r="B287" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="C287" s="129" t="s">
+      <c r="C287" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="133"/>
-      <c r="C288" s="130"/>
+      <c r="B288" s="116"/>
+      <c r="C288" s="113"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="133"/>
-      <c r="C289" s="130" t="s">
+      <c r="B289" s="116"/>
+      <c r="C289" s="113" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="133"/>
-      <c r="C290" s="130"/>
+      <c r="B290" s="116"/>
+      <c r="C290" s="113"/>
     </row>
     <row r="291" spans="2:3" ht="16.2" thickBot="1">
-      <c r="B291" s="134"/>
-      <c r="C291" s="131"/>
+      <c r="B291" s="117"/>
+      <c r="C291" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="158">
@@ -9860,10 +9771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF64D2DB-3FF9-0A4F-837E-81FE8C182B15}">
-  <dimension ref="B2:AE108"/>
+  <dimension ref="B2:AD105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9881,35 +9792,35 @@
     <col min="12" max="12" width="17.796875" customWidth="1"/>
     <col min="13" max="13" width="16.19921875" customWidth="1"/>
     <col min="14" max="14" width="16.796875" customWidth="1"/>
-    <col min="15" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="18" width="18.796875" customWidth="1"/>
-    <col min="19" max="19" width="17.19921875" customWidth="1"/>
-    <col min="20" max="20" width="17.796875" customWidth="1"/>
-    <col min="21" max="21" width="20.5" customWidth="1"/>
-    <col min="22" max="22" width="18.5" customWidth="1"/>
-    <col min="23" max="23" width="17.5" customWidth="1"/>
-    <col min="24" max="24" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="25.59765625" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="17" max="17" width="18.796875" customWidth="1"/>
+    <col min="18" max="18" width="17.19921875" customWidth="1"/>
+    <col min="19" max="19" width="17.796875" customWidth="1"/>
+    <col min="20" max="20" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="18.5" customWidth="1"/>
+    <col min="22" max="22" width="17.5" customWidth="1"/>
+    <col min="23" max="23" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" ht="16.2" thickBot="1"/>
-    <row r="3" spans="2:31" ht="16.2" thickBot="1">
-      <c r="B3" s="161" t="s">
+    <row r="2" spans="2:30" ht="16.2" thickBot="1"/>
+    <row r="3" spans="2:30" ht="16.2" thickBot="1">
+      <c r="B3" s="141" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="163"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
       <c r="Q3" s="82"/>
       <c r="R3" s="82"/>
       <c r="S3" s="82"/>
@@ -9917,16 +9828,15 @@
       <c r="U3" s="82"/>
       <c r="V3" s="82"/>
       <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
+      <c r="X3" s="27"/>
       <c r="Y3" s="27"/>
       <c r="Z3" s="27"/>
       <c r="AA3" s="27"/>
       <c r="AB3" s="27"/>
       <c r="AC3" s="27"/>
       <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-    </row>
-    <row r="4" spans="2:31" ht="16.2" thickBot="1">
+    </row>
+    <row r="4" spans="2:30" ht="16.2" thickBot="1">
       <c r="B4" s="67" t="s">
         <v>268</v>
       </c>
@@ -9967,18 +9877,16 @@
         <v>165</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="P4" s="109" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q4" s="83" t="s">
-        <v>289</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="P4" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q4" s="83"/>
       <c r="R4" s="83"/>
       <c r="S4" s="83"/>
       <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
+      <c r="U4" s="27"/>
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
       <c r="X4" s="27"/>
@@ -9988,13 +9896,12 @@
       <c r="AB4" s="27"/>
       <c r="AC4" s="27"/>
       <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-    </row>
-    <row r="5" spans="2:31">
-      <c r="B5" s="164" t="s">
+    </row>
+    <row r="5" spans="2:30">
+      <c r="B5" s="144" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="86" t="s">
         <v>166</v>
       </c>
       <c r="D5" s="71"/>
@@ -10017,7 +9924,7 @@
       <c r="R5" s="83"/>
       <c r="S5" s="83"/>
       <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
+      <c r="U5" s="27"/>
       <c r="V5" s="27"/>
       <c r="W5" s="27"/>
       <c r="X5" s="27"/>
@@ -10027,11 +9934,10 @@
       <c r="AB5" s="27"/>
       <c r="AC5" s="27"/>
       <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-    </row>
-    <row r="6" spans="2:31">
-      <c r="B6" s="165"/>
-      <c r="C6" s="98" t="s">
+    </row>
+    <row r="6" spans="2:30">
+      <c r="B6" s="145"/>
+      <c r="C6" s="87" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="71"/>
@@ -10054,7 +9960,7 @@
       <c r="R6" s="83"/>
       <c r="S6" s="83"/>
       <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
+      <c r="U6" s="27"/>
       <c r="V6" s="27"/>
       <c r="W6" s="27"/>
       <c r="X6" s="27"/>
@@ -10064,11 +9970,10 @@
       <c r="AB6" s="27"/>
       <c r="AC6" s="27"/>
       <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-    </row>
-    <row r="7" spans="2:31">
-      <c r="B7" s="165"/>
-      <c r="C7" s="98" t="s">
+    </row>
+    <row r="7" spans="2:30">
+      <c r="B7" s="145"/>
+      <c r="C7" s="87" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="71"/>
@@ -10091,7 +9996,7 @@
       <c r="R7" s="83"/>
       <c r="S7" s="83"/>
       <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
       <c r="X7" s="27"/>
@@ -10101,11 +10006,10 @@
       <c r="AB7" s="27"/>
       <c r="AC7" s="27"/>
       <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-    </row>
-    <row r="8" spans="2:31">
-      <c r="B8" s="165"/>
-      <c r="C8" s="98" t="s">
+    </row>
+    <row r="8" spans="2:30">
+      <c r="B8" s="145"/>
+      <c r="C8" s="87" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="71"/>
@@ -10128,7 +10032,7 @@
       <c r="R8" s="83"/>
       <c r="S8" s="83"/>
       <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="27"/>
       <c r="V8" s="27"/>
       <c r="W8" s="27"/>
       <c r="X8" s="27"/>
@@ -10138,11 +10042,10 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
       <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-    </row>
-    <row r="9" spans="2:31">
-      <c r="B9" s="165"/>
-      <c r="C9" s="98" t="s">
+    </row>
+    <row r="9" spans="2:30">
+      <c r="B9" s="145"/>
+      <c r="C9" s="87" t="s">
         <v>170</v>
       </c>
       <c r="D9" s="71"/>
@@ -10165,7 +10068,7 @@
       <c r="R9" s="83"/>
       <c r="S9" s="83"/>
       <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="27"/>
       <c r="V9" s="27"/>
       <c r="W9" s="27"/>
       <c r="X9" s="27"/>
@@ -10175,11 +10078,10 @@
       <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
       <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-    </row>
-    <row r="10" spans="2:31">
-      <c r="B10" s="165"/>
-      <c r="C10" s="98" t="s">
+    </row>
+    <row r="10" spans="2:30">
+      <c r="B10" s="145"/>
+      <c r="C10" s="87" t="s">
         <v>171</v>
       </c>
       <c r="D10" s="71"/>
@@ -10202,7 +10104,7 @@
       <c r="R10" s="83"/>
       <c r="S10" s="83"/>
       <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="27"/>
       <c r="V10" s="27"/>
       <c r="W10" s="27"/>
       <c r="X10" s="27"/>
@@ -10212,11 +10114,10 @@
       <c r="AB10" s="27"/>
       <c r="AC10" s="27"/>
       <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-    </row>
-    <row r="11" spans="2:31">
-      <c r="B11" s="165"/>
-      <c r="C11" s="98" t="s">
+    </row>
+    <row r="11" spans="2:30">
+      <c r="B11" s="145"/>
+      <c r="C11" s="87" t="s">
         <v>172</v>
       </c>
       <c r="D11" s="71"/>
@@ -10239,7 +10140,7 @@
       <c r="R11" s="83"/>
       <c r="S11" s="83"/>
       <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="27"/>
       <c r="V11" s="27"/>
       <c r="W11" s="27"/>
       <c r="X11" s="27"/>
@@ -10249,11 +10150,10 @@
       <c r="AB11" s="27"/>
       <c r="AC11" s="27"/>
       <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-    </row>
-    <row r="12" spans="2:31">
-      <c r="B12" s="165"/>
-      <c r="C12" s="98" t="s">
+    </row>
+    <row r="12" spans="2:30">
+      <c r="B12" s="145"/>
+      <c r="C12" s="87" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="71"/>
@@ -10276,7 +10176,7 @@
       <c r="R12" s="83"/>
       <c r="S12" s="83"/>
       <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
+      <c r="U12" s="27"/>
       <c r="V12" s="27"/>
       <c r="W12" s="27"/>
       <c r="X12" s="27"/>
@@ -10286,11 +10186,10 @@
       <c r="AB12" s="27"/>
       <c r="AC12" s="27"/>
       <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-    </row>
-    <row r="13" spans="2:31">
-      <c r="B13" s="165"/>
-      <c r="C13" s="98" t="s">
+    </row>
+    <row r="13" spans="2:30">
+      <c r="B13" s="145"/>
+      <c r="C13" s="87" t="s">
         <v>174</v>
       </c>
       <c r="D13" s="71"/>
@@ -10313,7 +10212,7 @@
       <c r="R13" s="83"/>
       <c r="S13" s="83"/>
       <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="27"/>
       <c r="V13" s="27"/>
       <c r="W13" s="27"/>
       <c r="X13" s="27"/>
@@ -10323,11 +10222,10 @@
       <c r="AB13" s="27"/>
       <c r="AC13" s="27"/>
       <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-    </row>
-    <row r="14" spans="2:31">
-      <c r="B14" s="165"/>
-      <c r="C14" s="98" t="s">
+    </row>
+    <row r="14" spans="2:30">
+      <c r="B14" s="145"/>
+      <c r="C14" s="87" t="s">
         <v>175</v>
       </c>
       <c r="D14" s="71"/>
@@ -10350,7 +10248,7 @@
       <c r="R14" s="83"/>
       <c r="S14" s="83"/>
       <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="27"/>
       <c r="V14" s="27"/>
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
@@ -10360,11 +10258,10 @@
       <c r="AB14" s="27"/>
       <c r="AC14" s="27"/>
       <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-    </row>
-    <row r="15" spans="2:31" ht="16.2" thickBot="1">
-      <c r="B15" s="165"/>
-      <c r="C15" s="103" t="s">
+    </row>
+    <row r="15" spans="2:30" ht="16.2" thickBot="1">
+      <c r="B15" s="145"/>
+      <c r="C15" s="89" t="s">
         <v>176</v>
       </c>
       <c r="D15" s="75"/>
@@ -10387,7 +10284,7 @@
       <c r="R15" s="83"/>
       <c r="S15" s="83"/>
       <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="27"/>
       <c r="V15" s="27"/>
       <c r="W15" s="27"/>
       <c r="X15" s="27"/>
@@ -10397,16 +10294,15 @@
       <c r="AB15" s="27"/>
       <c r="AC15" s="27"/>
       <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-    </row>
-    <row r="16" spans="2:31" ht="16.05" customHeight="1">
-      <c r="B16" s="164" t="s">
+    </row>
+    <row r="16" spans="2:30" ht="16.05" customHeight="1">
+      <c r="B16" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="71"/>
+      <c r="D16" s="147"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="71"/>
@@ -10418,13 +10314,13 @@
       <c r="M16" s="71"/>
       <c r="N16" s="71"/>
       <c r="O16" s="81" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="83"/>
       <c r="R16" s="83"/>
       <c r="S16" s="83"/>
       <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="27"/>
@@ -10434,14 +10330,13 @@
       <c r="AB16" s="27"/>
       <c r="AC16" s="27"/>
       <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-    </row>
-    <row r="17" spans="2:31">
-      <c r="B17" s="165"/>
-      <c r="C17" s="105" t="s">
+    </row>
+    <row r="17" spans="2:30">
+      <c r="B17" s="145"/>
+      <c r="C17" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="D17" s="71"/>
+      <c r="D17" s="147"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="71"/>
@@ -10453,13 +10348,13 @@
       <c r="M17" s="71"/>
       <c r="N17" s="71"/>
       <c r="O17" s="81" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="83"/>
       <c r="R17" s="83"/>
       <c r="S17" s="83"/>
       <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
+      <c r="U17" s="27"/>
       <c r="V17" s="27"/>
       <c r="W17" s="27"/>
       <c r="X17" s="27"/>
@@ -10469,14 +10364,13 @@
       <c r="AB17" s="27"/>
       <c r="AC17" s="27"/>
       <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-    </row>
-    <row r="18" spans="2:31">
-      <c r="B18" s="165"/>
-      <c r="C18" s="105" t="s">
+    </row>
+    <row r="18" spans="2:30">
+      <c r="B18" s="145"/>
+      <c r="C18" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="71"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="71"/>
@@ -10488,13 +10382,13 @@
       <c r="M18" s="71"/>
       <c r="N18" s="71"/>
       <c r="O18" s="81" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="83"/>
       <c r="R18" s="83"/>
       <c r="S18" s="83"/>
       <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
+      <c r="U18" s="27"/>
       <c r="V18" s="27"/>
       <c r="W18" s="27"/>
       <c r="X18" s="27"/>
@@ -10504,14 +10398,13 @@
       <c r="AB18" s="27"/>
       <c r="AC18" s="27"/>
       <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-    </row>
-    <row r="19" spans="2:31">
-      <c r="B19" s="165"/>
-      <c r="C19" s="105" t="s">
+    </row>
+    <row r="19" spans="2:30">
+      <c r="B19" s="145"/>
+      <c r="C19" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="77"/>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
@@ -10522,14 +10415,14 @@
       <c r="L19" s="77"/>
       <c r="M19" s="77"/>
       <c r="N19" s="77"/>
-      <c r="O19" s="87" t="s">
-        <v>282</v>
+      <c r="O19" s="81" t="s">
+        <v>283</v>
       </c>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
       <c r="S19" s="83"/>
       <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
+      <c r="U19" s="27"/>
       <c r="V19" s="27"/>
       <c r="W19" s="27"/>
       <c r="X19" s="27"/>
@@ -10539,32 +10432,31 @@
       <c r="AB19" s="27"/>
       <c r="AC19" s="27"/>
       <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-    </row>
-    <row r="20" spans="2:31" ht="16.2" thickBot="1">
-      <c r="B20" s="165"/>
-      <c r="C20" s="106" t="s">
+    </row>
+    <row r="20" spans="2:30" ht="16.2" thickBot="1">
+      <c r="B20" s="145"/>
+      <c r="C20" s="92" t="s">
         <v>278</v>
       </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="88" t="s">
-        <v>283</v>
+      <c r="D20" s="149"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="81" t="s">
+        <v>284</v>
       </c>
       <c r="Q20" s="83"/>
       <c r="R20" s="83"/>
       <c r="S20" s="83"/>
       <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
+      <c r="U20" s="27"/>
       <c r="V20" s="27"/>
       <c r="W20" s="27"/>
       <c r="X20" s="27"/>
@@ -10574,13 +10466,12 @@
       <c r="AB20" s="27"/>
       <c r="AC20" s="27"/>
       <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-    </row>
-    <row r="21" spans="2:31">
-      <c r="B21" s="164" t="s">
+    </row>
+    <row r="21" spans="2:30">
+      <c r="B21" s="144" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="87" t="s">
         <v>188</v>
       </c>
       <c r="D21" s="78">
@@ -10617,7 +10508,7 @@
       <c r="R21" s="83"/>
       <c r="S21" s="83"/>
       <c r="T21" s="83"/>
-      <c r="U21" s="83"/>
+      <c r="U21" s="27"/>
       <c r="V21" s="27"/>
       <c r="W21" s="27"/>
       <c r="X21" s="27"/>
@@ -10627,11 +10518,10 @@
       <c r="AB21" s="27"/>
       <c r="AC21" s="27"/>
       <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-    </row>
-    <row r="22" spans="2:31">
-      <c r="B22" s="165"/>
-      <c r="C22" s="98" t="s">
+    </row>
+    <row r="22" spans="2:30">
+      <c r="B22" s="145"/>
+      <c r="C22" s="87" t="s">
         <v>189</v>
       </c>
       <c r="D22" s="70">
@@ -10660,7 +10550,7 @@
       <c r="R22" s="83"/>
       <c r="S22" s="83"/>
       <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
+      <c r="U22" s="27"/>
       <c r="V22" s="27"/>
       <c r="W22" s="27"/>
       <c r="X22" s="27"/>
@@ -10670,11 +10560,10 @@
       <c r="AB22" s="27"/>
       <c r="AC22" s="27"/>
       <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-    </row>
-    <row r="23" spans="2:31">
-      <c r="B23" s="165"/>
-      <c r="C23" s="98" t="s">
+    </row>
+    <row r="23" spans="2:30">
+      <c r="B23" s="145"/>
+      <c r="C23" s="87" t="s">
         <v>190</v>
       </c>
       <c r="D23" s="70">
@@ -10709,7 +10598,7 @@
       <c r="R23" s="83"/>
       <c r="S23" s="83"/>
       <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
+      <c r="U23" s="27"/>
       <c r="V23" s="27"/>
       <c r="W23" s="27"/>
       <c r="X23" s="27"/>
@@ -10719,11 +10608,10 @@
       <c r="AB23" s="27"/>
       <c r="AC23" s="27"/>
       <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-    </row>
-    <row r="24" spans="2:31">
-      <c r="B24" s="165"/>
-      <c r="C24" s="98" t="s">
+    </row>
+    <row r="24" spans="2:30">
+      <c r="B24" s="145"/>
+      <c r="C24" s="87" t="s">
         <v>191</v>
       </c>
       <c r="D24" s="70">
@@ -10750,7 +10638,7 @@
       <c r="R24" s="83"/>
       <c r="S24" s="83"/>
       <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
+      <c r="U24" s="27"/>
       <c r="V24" s="27"/>
       <c r="W24" s="27"/>
       <c r="X24" s="27"/>
@@ -10760,11 +10648,10 @@
       <c r="AB24" s="27"/>
       <c r="AC24" s="27"/>
       <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-    </row>
-    <row r="25" spans="2:31">
-      <c r="B25" s="165"/>
-      <c r="C25" s="98" t="s">
+    </row>
+    <row r="25" spans="2:30">
+      <c r="B25" s="145"/>
+      <c r="C25" s="87" t="s">
         <v>192</v>
       </c>
       <c r="D25" s="70">
@@ -10801,7 +10688,7 @@
       <c r="R25" s="83"/>
       <c r="S25" s="83"/>
       <c r="T25" s="83"/>
-      <c r="U25" s="83"/>
+      <c r="U25" s="27"/>
       <c r="V25" s="27"/>
       <c r="W25" s="27"/>
       <c r="X25" s="27"/>
@@ -10811,11 +10698,10 @@
       <c r="AB25" s="27"/>
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-    </row>
-    <row r="26" spans="2:31">
-      <c r="B26" s="165"/>
-      <c r="C26" s="98" t="s">
+    </row>
+    <row r="26" spans="2:30">
+      <c r="B26" s="145"/>
+      <c r="C26" s="87" t="s">
         <v>193</v>
       </c>
       <c r="D26" s="70">
@@ -10852,7 +10738,7 @@
       <c r="R26" s="83"/>
       <c r="S26" s="83"/>
       <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
+      <c r="U26" s="27"/>
       <c r="V26" s="27"/>
       <c r="W26" s="27"/>
       <c r="X26" s="27"/>
@@ -10862,11 +10748,10 @@
       <c r="AB26" s="27"/>
       <c r="AC26" s="27"/>
       <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-    </row>
-    <row r="27" spans="2:31">
-      <c r="B27" s="165"/>
-      <c r="C27" s="98" t="s">
+    </row>
+    <row r="27" spans="2:30">
+      <c r="B27" s="145"/>
+      <c r="C27" s="87" t="s">
         <v>194</v>
       </c>
       <c r="D27" s="70">
@@ -10903,7 +10788,7 @@
       <c r="R27" s="83"/>
       <c r="S27" s="83"/>
       <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
+      <c r="U27" s="27"/>
       <c r="V27" s="27"/>
       <c r="W27" s="27"/>
       <c r="X27" s="27"/>
@@ -10913,11 +10798,10 @@
       <c r="AB27" s="27"/>
       <c r="AC27" s="27"/>
       <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-    </row>
-    <row r="28" spans="2:31" ht="16.2" thickBot="1">
-      <c r="B28" s="166"/>
-      <c r="C28" s="99" t="s">
+    </row>
+    <row r="28" spans="2:30" ht="16.2" thickBot="1">
+      <c r="B28" s="146"/>
+      <c r="C28" s="88" t="s">
         <v>197</v>
       </c>
       <c r="D28" s="74">
@@ -10946,7 +10830,7 @@
       <c r="R28" s="83"/>
       <c r="S28" s="83"/>
       <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
+      <c r="U28" s="27"/>
       <c r="V28" s="27"/>
       <c r="W28" s="27"/>
       <c r="X28" s="27"/>
@@ -10956,15 +10840,14 @@
       <c r="AB28" s="27"/>
       <c r="AC28" s="27"/>
       <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-    </row>
-    <row r="29" spans="2:31" ht="15.45" customHeight="1">
-      <c r="B29" s="159" t="s">
+    </row>
+    <row r="29" spans="2:30" ht="15.45" customHeight="1">
+      <c r="B29" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="108"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
       <c r="H29" s="71"/>
@@ -10974,12 +10857,12 @@
       <c r="L29" s="71"/>
       <c r="M29" s="71"/>
       <c r="N29" s="71"/>
-      <c r="P29" s="111"/>
+      <c r="P29" s="97"/>
       <c r="Q29" s="83"/>
       <c r="R29" s="83"/>
       <c r="S29" s="83"/>
       <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
+      <c r="U29" s="27"/>
       <c r="V29" s="27"/>
       <c r="W29" s="27"/>
       <c r="X29" s="27"/>
@@ -10989,13 +10872,12 @@
       <c r="AB29" s="27"/>
       <c r="AC29" s="27"/>
       <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-    </row>
-    <row r="30" spans="2:31" ht="15.45" customHeight="1">
-      <c r="B30" s="160"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="108"/>
+    </row>
+    <row r="30" spans="2:30" ht="15.45" customHeight="1">
+      <c r="B30" s="140"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
       <c r="H30" s="71"/>
@@ -11005,12 +10887,12 @@
       <c r="L30" s="71"/>
       <c r="M30" s="71"/>
       <c r="N30" s="71"/>
-      <c r="P30" s="111"/>
+      <c r="P30" s="97"/>
       <c r="Q30" s="83"/>
       <c r="R30" s="83"/>
       <c r="S30" s="83"/>
       <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
+      <c r="U30" s="27"/>
       <c r="V30" s="27"/>
       <c r="W30" s="27"/>
       <c r="X30" s="27"/>
@@ -11020,13 +10902,12 @@
       <c r="AB30" s="27"/>
       <c r="AC30" s="27"/>
       <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-    </row>
-    <row r="31" spans="2:31" ht="15.45" customHeight="1">
-      <c r="B31" s="160"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="108"/>
+    </row>
+    <row r="31" spans="2:30" ht="15.45" customHeight="1">
+      <c r="B31" s="140"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
       <c r="H31" s="71"/>
@@ -11036,12 +10917,12 @@
       <c r="L31" s="71"/>
       <c r="M31" s="71"/>
       <c r="N31" s="71"/>
-      <c r="P31" s="111"/>
+      <c r="P31" s="97"/>
       <c r="Q31" s="83"/>
       <c r="R31" s="83"/>
       <c r="S31" s="83"/>
       <c r="T31" s="83"/>
-      <c r="U31" s="83"/>
+      <c r="U31" s="27"/>
       <c r="V31" s="27"/>
       <c r="W31" s="27"/>
       <c r="X31" s="27"/>
@@ -11051,13 +10932,12 @@
       <c r="AB31" s="27"/>
       <c r="AC31" s="27"/>
       <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-    </row>
-    <row r="32" spans="2:31" ht="15.45" customHeight="1">
-      <c r="B32" s="160"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="108"/>
+    </row>
+    <row r="32" spans="2:30" ht="15.45" customHeight="1">
+      <c r="B32" s="140"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="94"/>
       <c r="F32" s="71"/>
       <c r="G32" s="71"/>
       <c r="H32" s="71"/>
@@ -11067,12 +10947,12 @@
       <c r="L32" s="71"/>
       <c r="M32" s="71"/>
       <c r="N32" s="71"/>
-      <c r="P32" s="111"/>
+      <c r="P32" s="97"/>
       <c r="Q32" s="83"/>
       <c r="R32" s="83"/>
       <c r="S32" s="83"/>
       <c r="T32" s="83"/>
-      <c r="U32" s="83"/>
+      <c r="U32" s="27"/>
       <c r="V32" s="27"/>
       <c r="W32" s="27"/>
       <c r="X32" s="27"/>
@@ -11082,13 +10962,12 @@
       <c r="AB32" s="27"/>
       <c r="AC32" s="27"/>
       <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-    </row>
-    <row r="33" spans="2:31" ht="15.45" customHeight="1" thickBot="1">
-      <c r="B33" s="160"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="108"/>
+    </row>
+    <row r="33" spans="2:30" ht="15.45" customHeight="1">
+      <c r="B33" s="140"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="94"/>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
       <c r="H33" s="71"/>
@@ -11098,12 +10977,12 @@
       <c r="L33" s="71"/>
       <c r="M33" s="71"/>
       <c r="N33" s="71"/>
-      <c r="P33" s="111"/>
+      <c r="P33" s="97"/>
       <c r="Q33" s="83"/>
       <c r="R33" s="83"/>
       <c r="S33" s="83"/>
       <c r="T33" s="83"/>
-      <c r="U33" s="83"/>
+      <c r="U33" s="27"/>
       <c r="V33" s="27"/>
       <c r="W33" s="27"/>
       <c r="X33" s="27"/>
@@ -11113,33 +10992,28 @@
       <c r="AB33" s="27"/>
       <c r="AC33" s="27"/>
       <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-    </row>
-    <row r="34" spans="2:31">
-      <c r="B34" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="Q34" s="112" t="s">
-        <v>284</v>
-      </c>
+    </row>
+    <row r="34" spans="2:30" ht="16.05" customHeight="1">
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
       <c r="R34" s="83"/>
       <c r="S34" s="83"/>
       <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
+      <c r="U34" s="27"/>
       <c r="V34" s="27"/>
       <c r="W34" s="27"/>
       <c r="X34" s="27"/>
@@ -11149,31 +11023,28 @@
       <c r="AB34" s="27"/>
       <c r="AC34" s="27"/>
       <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-    </row>
-    <row r="35" spans="2:31">
-      <c r="B35" s="157"/>
-      <c r="C35" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="Q35" s="113" t="s">
-        <v>286</v>
-      </c>
+    </row>
+    <row r="35" spans="2:30">
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
       <c r="R35" s="83"/>
       <c r="S35" s="83"/>
       <c r="T35" s="83"/>
-      <c r="U35" s="83"/>
+      <c r="U35" s="27"/>
       <c r="V35" s="27"/>
       <c r="W35" s="27"/>
       <c r="X35" s="27"/>
@@ -11183,31 +11054,28 @@
       <c r="AB35" s="27"/>
       <c r="AC35" s="27"/>
       <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-    </row>
-    <row r="36" spans="2:31" ht="16.2" thickBot="1">
-      <c r="B36" s="158"/>
-      <c r="C36" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="96"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="Q36" s="114" t="s">
-        <v>285</v>
-      </c>
+    </row>
+    <row r="36" spans="2:30">
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="83"/>
       <c r="R36" s="83"/>
       <c r="S36" s="83"/>
       <c r="T36" s="83"/>
-      <c r="U36" s="83"/>
+      <c r="U36" s="27"/>
       <c r="V36" s="27"/>
       <c r="W36" s="27"/>
       <c r="X36" s="27"/>
@@ -11217,9 +11085,8 @@
       <c r="AB36" s="27"/>
       <c r="AC36" s="27"/>
       <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-    </row>
-    <row r="37" spans="2:31" ht="16.05" customHeight="1">
+    </row>
+    <row r="37" spans="2:30">
       <c r="B37" s="84"/>
       <c r="C37" s="84"/>
       <c r="D37" s="83"/>
@@ -11239,7 +11106,7 @@
       <c r="R37" s="83"/>
       <c r="S37" s="83"/>
       <c r="T37" s="83"/>
-      <c r="U37" s="83"/>
+      <c r="U37" s="27"/>
       <c r="V37" s="27"/>
       <c r="W37" s="27"/>
       <c r="X37" s="27"/>
@@ -11249,9 +11116,8 @@
       <c r="AB37" s="27"/>
       <c r="AC37" s="27"/>
       <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-    </row>
-    <row r="38" spans="2:31">
+    </row>
+    <row r="38" spans="2:30">
       <c r="B38" s="84"/>
       <c r="C38" s="84"/>
       <c r="D38" s="83"/>
@@ -11271,7 +11137,7 @@
       <c r="R38" s="83"/>
       <c r="S38" s="83"/>
       <c r="T38" s="83"/>
-      <c r="U38" s="83"/>
+      <c r="U38" s="27"/>
       <c r="V38" s="27"/>
       <c r="W38" s="27"/>
       <c r="X38" s="27"/>
@@ -11281,29 +11147,28 @@
       <c r="AB38" s="27"/>
       <c r="AC38" s="27"/>
       <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-    </row>
-    <row r="39" spans="2:31">
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
+    </row>
+    <row r="39" spans="2:30" ht="16.05" customHeight="1">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
       <c r="Q39" s="83"/>
       <c r="R39" s="83"/>
       <c r="S39" s="83"/>
       <c r="T39" s="83"/>
-      <c r="U39" s="83"/>
+      <c r="U39" s="27"/>
       <c r="V39" s="27"/>
       <c r="W39" s="27"/>
       <c r="X39" s="27"/>
@@ -11313,29 +11178,13 @@
       <c r="AB39" s="27"/>
       <c r="AC39" s="27"/>
       <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-    </row>
-    <row r="40" spans="2:31">
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
+    </row>
+    <row r="40" spans="2:30">
       <c r="Q40" s="83"/>
       <c r="R40" s="83"/>
       <c r="S40" s="83"/>
       <c r="T40" s="83"/>
-      <c r="U40" s="83"/>
+      <c r="U40" s="27"/>
       <c r="V40" s="27"/>
       <c r="W40" s="27"/>
       <c r="X40" s="27"/>
@@ -11345,29 +11194,13 @@
       <c r="AB40" s="27"/>
       <c r="AC40" s="27"/>
       <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-    </row>
-    <row r="41" spans="2:31">
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
+    </row>
+    <row r="41" spans="2:30">
       <c r="Q41" s="83"/>
       <c r="R41" s="83"/>
       <c r="S41" s="83"/>
       <c r="T41" s="83"/>
-      <c r="U41" s="83"/>
+      <c r="U41" s="27"/>
       <c r="V41" s="27"/>
       <c r="W41" s="27"/>
       <c r="X41" s="27"/>
@@ -11377,29 +11210,28 @@
       <c r="AB41" s="27"/>
       <c r="AC41" s="27"/>
       <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-    </row>
-    <row r="42" spans="2:31" ht="16.05" customHeight="1">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
+    </row>
+    <row r="42" spans="2:30">
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="83"/>
       <c r="Q42" s="83"/>
       <c r="R42" s="83"/>
       <c r="S42" s="83"/>
       <c r="T42" s="83"/>
-      <c r="U42" s="83"/>
+      <c r="U42" s="27"/>
       <c r="V42" s="27"/>
       <c r="W42" s="27"/>
       <c r="X42" s="27"/>
@@ -11409,14 +11241,28 @@
       <c r="AB42" s="27"/>
       <c r="AC42" s="27"/>
       <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-    </row>
-    <row r="43" spans="2:31">
+    </row>
+    <row r="43" spans="2:30">
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
       <c r="Q43" s="83"/>
       <c r="R43" s="83"/>
       <c r="S43" s="83"/>
       <c r="T43" s="83"/>
-      <c r="U43" s="83"/>
+      <c r="U43" s="27"/>
       <c r="V43" s="27"/>
       <c r="W43" s="27"/>
       <c r="X43" s="27"/>
@@ -11426,14 +11272,28 @@
       <c r="AB43" s="27"/>
       <c r="AC43" s="27"/>
       <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-    </row>
-    <row r="44" spans="2:31">
+    </row>
+    <row r="44" spans="2:30">
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="83"/>
       <c r="Q44" s="83"/>
       <c r="R44" s="83"/>
       <c r="S44" s="83"/>
       <c r="T44" s="83"/>
-      <c r="U44" s="83"/>
+      <c r="U44" s="27"/>
       <c r="V44" s="27"/>
       <c r="W44" s="27"/>
       <c r="X44" s="27"/>
@@ -11443,9 +11303,8 @@
       <c r="AB44" s="27"/>
       <c r="AC44" s="27"/>
       <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
-    </row>
-    <row r="45" spans="2:31">
+    </row>
+    <row r="45" spans="2:30">
       <c r="B45" s="84"/>
       <c r="C45" s="84"/>
       <c r="D45" s="83"/>
@@ -11465,7 +11324,7 @@
       <c r="R45" s="83"/>
       <c r="S45" s="83"/>
       <c r="T45" s="83"/>
-      <c r="U45" s="83"/>
+      <c r="U45" s="27"/>
       <c r="V45" s="27"/>
       <c r="W45" s="27"/>
       <c r="X45" s="27"/>
@@ -11475,9 +11334,8 @@
       <c r="AB45" s="27"/>
       <c r="AC45" s="27"/>
       <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
-    </row>
-    <row r="46" spans="2:31">
+    </row>
+    <row r="46" spans="2:30">
       <c r="B46" s="84"/>
       <c r="C46" s="84"/>
       <c r="D46" s="83"/>
@@ -11497,7 +11355,7 @@
       <c r="R46" s="83"/>
       <c r="S46" s="83"/>
       <c r="T46" s="83"/>
-      <c r="U46" s="83"/>
+      <c r="U46" s="27"/>
       <c r="V46" s="27"/>
       <c r="W46" s="27"/>
       <c r="X46" s="27"/>
@@ -11507,9 +11365,8 @@
       <c r="AB46" s="27"/>
       <c r="AC46" s="27"/>
       <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-    </row>
-    <row r="47" spans="2:31">
+    </row>
+    <row r="47" spans="2:30">
       <c r="B47" s="84"/>
       <c r="C47" s="84"/>
       <c r="D47" s="83"/>
@@ -11529,7 +11386,7 @@
       <c r="R47" s="83"/>
       <c r="S47" s="83"/>
       <c r="T47" s="83"/>
-      <c r="U47" s="83"/>
+      <c r="U47" s="27"/>
       <c r="V47" s="27"/>
       <c r="W47" s="27"/>
       <c r="X47" s="27"/>
@@ -11539,9 +11396,8 @@
       <c r="AB47" s="27"/>
       <c r="AC47" s="27"/>
       <c r="AD47" s="27"/>
-      <c r="AE47" s="27"/>
-    </row>
-    <row r="48" spans="2:31">
+    </row>
+    <row r="48" spans="2:30">
       <c r="B48" s="84"/>
       <c r="C48" s="84"/>
       <c r="D48" s="83"/>
@@ -11561,7 +11417,7 @@
       <c r="R48" s="83"/>
       <c r="S48" s="83"/>
       <c r="T48" s="83"/>
-      <c r="U48" s="83"/>
+      <c r="U48" s="27"/>
       <c r="V48" s="27"/>
       <c r="W48" s="27"/>
       <c r="X48" s="27"/>
@@ -11571,9 +11427,8 @@
       <c r="AB48" s="27"/>
       <c r="AC48" s="27"/>
       <c r="AD48" s="27"/>
-      <c r="AE48" s="27"/>
-    </row>
-    <row r="49" spans="2:31">
+    </row>
+    <row r="49" spans="2:30">
       <c r="B49" s="84"/>
       <c r="C49" s="84"/>
       <c r="D49" s="83"/>
@@ -11593,7 +11448,7 @@
       <c r="R49" s="83"/>
       <c r="S49" s="83"/>
       <c r="T49" s="83"/>
-      <c r="U49" s="83"/>
+      <c r="U49" s="27"/>
       <c r="V49" s="27"/>
       <c r="W49" s="27"/>
       <c r="X49" s="27"/>
@@ -11603,9 +11458,8 @@
       <c r="AB49" s="27"/>
       <c r="AC49" s="27"/>
       <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-    </row>
-    <row r="50" spans="2:31">
+    </row>
+    <row r="50" spans="2:30">
       <c r="B50" s="84"/>
       <c r="C50" s="84"/>
       <c r="D50" s="83"/>
@@ -11625,7 +11479,7 @@
       <c r="R50" s="83"/>
       <c r="S50" s="83"/>
       <c r="T50" s="83"/>
-      <c r="U50" s="83"/>
+      <c r="U50" s="27"/>
       <c r="V50" s="27"/>
       <c r="W50" s="27"/>
       <c r="X50" s="27"/>
@@ -11635,9 +11489,8 @@
       <c r="AB50" s="27"/>
       <c r="AC50" s="27"/>
       <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-    </row>
-    <row r="51" spans="2:31">
+    </row>
+    <row r="51" spans="2:30">
       <c r="B51" s="84"/>
       <c r="C51" s="84"/>
       <c r="D51" s="83"/>
@@ -11657,7 +11510,7 @@
       <c r="R51" s="83"/>
       <c r="S51" s="83"/>
       <c r="T51" s="83"/>
-      <c r="U51" s="83"/>
+      <c r="U51" s="27"/>
       <c r="V51" s="27"/>
       <c r="W51" s="27"/>
       <c r="X51" s="27"/>
@@ -11667,9 +11520,8 @@
       <c r="AB51" s="27"/>
       <c r="AC51" s="27"/>
       <c r="AD51" s="27"/>
-      <c r="AE51" s="27"/>
-    </row>
-    <row r="52" spans="2:31">
+    </row>
+    <row r="52" spans="2:30">
       <c r="B52" s="84"/>
       <c r="C52" s="84"/>
       <c r="D52" s="83"/>
@@ -11689,7 +11541,7 @@
       <c r="R52" s="83"/>
       <c r="S52" s="83"/>
       <c r="T52" s="83"/>
-      <c r="U52" s="83"/>
+      <c r="U52" s="27"/>
       <c r="V52" s="27"/>
       <c r="W52" s="27"/>
       <c r="X52" s="27"/>
@@ -11699,9 +11551,8 @@
       <c r="AB52" s="27"/>
       <c r="AC52" s="27"/>
       <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
-    </row>
-    <row r="53" spans="2:31">
+    </row>
+    <row r="53" spans="2:30">
       <c r="B53" s="84"/>
       <c r="C53" s="84"/>
       <c r="D53" s="83"/>
@@ -11721,7 +11572,7 @@
       <c r="R53" s="83"/>
       <c r="S53" s="83"/>
       <c r="T53" s="83"/>
-      <c r="U53" s="83"/>
+      <c r="U53" s="27"/>
       <c r="V53" s="27"/>
       <c r="W53" s="27"/>
       <c r="X53" s="27"/>
@@ -11731,9 +11582,8 @@
       <c r="AB53" s="27"/>
       <c r="AC53" s="27"/>
       <c r="AD53" s="27"/>
-      <c r="AE53" s="27"/>
-    </row>
-    <row r="54" spans="2:31">
+    </row>
+    <row r="54" spans="2:30">
       <c r="B54" s="84"/>
       <c r="C54" s="84"/>
       <c r="D54" s="83"/>
@@ -11753,7 +11603,7 @@
       <c r="R54" s="83"/>
       <c r="S54" s="83"/>
       <c r="T54" s="83"/>
-      <c r="U54" s="83"/>
+      <c r="U54" s="27"/>
       <c r="V54" s="27"/>
       <c r="W54" s="27"/>
       <c r="X54" s="27"/>
@@ -11763,9 +11613,8 @@
       <c r="AB54" s="27"/>
       <c r="AC54" s="27"/>
       <c r="AD54" s="27"/>
-      <c r="AE54" s="27"/>
-    </row>
-    <row r="55" spans="2:31">
+    </row>
+    <row r="55" spans="2:30">
       <c r="B55" s="84"/>
       <c r="C55" s="84"/>
       <c r="D55" s="83"/>
@@ -11785,7 +11634,7 @@
       <c r="R55" s="83"/>
       <c r="S55" s="83"/>
       <c r="T55" s="83"/>
-      <c r="U55" s="83"/>
+      <c r="U55" s="27"/>
       <c r="V55" s="27"/>
       <c r="W55" s="27"/>
       <c r="X55" s="27"/>
@@ -11795,9 +11644,8 @@
       <c r="AB55" s="27"/>
       <c r="AC55" s="27"/>
       <c r="AD55" s="27"/>
-      <c r="AE55" s="27"/>
-    </row>
-    <row r="56" spans="2:31">
+    </row>
+    <row r="56" spans="2:30">
       <c r="B56" s="84"/>
       <c r="C56" s="84"/>
       <c r="D56" s="83"/>
@@ -11817,7 +11665,7 @@
       <c r="R56" s="83"/>
       <c r="S56" s="83"/>
       <c r="T56" s="83"/>
-      <c r="U56" s="83"/>
+      <c r="U56" s="27"/>
       <c r="V56" s="27"/>
       <c r="W56" s="27"/>
       <c r="X56" s="27"/>
@@ -11827,9 +11675,8 @@
       <c r="AB56" s="27"/>
       <c r="AC56" s="27"/>
       <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
-    </row>
-    <row r="57" spans="2:31">
+    </row>
+    <row r="57" spans="2:30">
       <c r="B57" s="84"/>
       <c r="C57" s="84"/>
       <c r="D57" s="83"/>
@@ -11849,7 +11696,7 @@
       <c r="R57" s="83"/>
       <c r="S57" s="83"/>
       <c r="T57" s="83"/>
-      <c r="U57" s="83"/>
+      <c r="U57" s="27"/>
       <c r="V57" s="27"/>
       <c r="W57" s="27"/>
       <c r="X57" s="27"/>
@@ -11859,9 +11706,8 @@
       <c r="AB57" s="27"/>
       <c r="AC57" s="27"/>
       <c r="AD57" s="27"/>
-      <c r="AE57" s="27"/>
-    </row>
-    <row r="58" spans="2:31">
+    </row>
+    <row r="58" spans="2:30">
       <c r="B58" s="84"/>
       <c r="C58" s="84"/>
       <c r="D58" s="83"/>
@@ -11881,7 +11727,7 @@
       <c r="R58" s="83"/>
       <c r="S58" s="83"/>
       <c r="T58" s="83"/>
-      <c r="U58" s="83"/>
+      <c r="U58" s="27"/>
       <c r="V58" s="27"/>
       <c r="W58" s="27"/>
       <c r="X58" s="27"/>
@@ -11891,9 +11737,8 @@
       <c r="AB58" s="27"/>
       <c r="AC58" s="27"/>
       <c r="AD58" s="27"/>
-      <c r="AE58" s="27"/>
-    </row>
-    <row r="59" spans="2:31">
+    </row>
+    <row r="59" spans="2:30">
       <c r="B59" s="84"/>
       <c r="C59" s="84"/>
       <c r="D59" s="83"/>
@@ -11913,7 +11758,7 @@
       <c r="R59" s="83"/>
       <c r="S59" s="83"/>
       <c r="T59" s="83"/>
-      <c r="U59" s="83"/>
+      <c r="U59" s="27"/>
       <c r="V59" s="27"/>
       <c r="W59" s="27"/>
       <c r="X59" s="27"/>
@@ -11923,9 +11768,8 @@
       <c r="AB59" s="27"/>
       <c r="AC59" s="27"/>
       <c r="AD59" s="27"/>
-      <c r="AE59" s="27"/>
-    </row>
-    <row r="60" spans="2:31">
+    </row>
+    <row r="60" spans="2:30">
       <c r="B60" s="84"/>
       <c r="C60" s="84"/>
       <c r="D60" s="83"/>
@@ -11945,7 +11789,7 @@
       <c r="R60" s="83"/>
       <c r="S60" s="83"/>
       <c r="T60" s="83"/>
-      <c r="U60" s="83"/>
+      <c r="U60" s="27"/>
       <c r="V60" s="27"/>
       <c r="W60" s="27"/>
       <c r="X60" s="27"/>
@@ -11955,29 +11799,11 @@
       <c r="AB60" s="27"/>
       <c r="AC60" s="27"/>
       <c r="AD60" s="27"/>
-      <c r="AE60" s="27"/>
-    </row>
-    <row r="61" spans="2:31">
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
+    </row>
+    <row r="61" spans="2:30">
       <c r="S61" s="83"/>
       <c r="T61" s="83"/>
-      <c r="U61" s="83"/>
+      <c r="U61" s="27"/>
       <c r="V61" s="27"/>
       <c r="W61" s="27"/>
       <c r="X61" s="27"/>
@@ -11987,29 +11813,11 @@
       <c r="AB61" s="27"/>
       <c r="AC61" s="27"/>
       <c r="AD61" s="27"/>
-      <c r="AE61" s="27"/>
-    </row>
-    <row r="62" spans="2:31">
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="83"/>
-      <c r="L62" s="83"/>
-      <c r="M62" s="83"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="83"/>
-      <c r="R62" s="83"/>
+    </row>
+    <row r="62" spans="2:30">
       <c r="S62" s="83"/>
       <c r="T62" s="83"/>
-      <c r="U62" s="83"/>
+      <c r="U62" s="27"/>
       <c r="V62" s="27"/>
       <c r="W62" s="27"/>
       <c r="X62" s="27"/>
@@ -12019,29 +11827,11 @@
       <c r="AB62" s="27"/>
       <c r="AC62" s="27"/>
       <c r="AD62" s="27"/>
-      <c r="AE62" s="27"/>
-    </row>
-    <row r="63" spans="2:31">
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="83"/>
-      <c r="K63" s="83"/>
-      <c r="L63" s="83"/>
-      <c r="M63" s="83"/>
-      <c r="N63" s="83"/>
-      <c r="O63" s="83"/>
-      <c r="P63" s="83"/>
-      <c r="Q63" s="83"/>
-      <c r="R63" s="83"/>
+    </row>
+    <row r="63" spans="2:30">
       <c r="S63" s="83"/>
       <c r="T63" s="83"/>
-      <c r="U63" s="83"/>
+      <c r="U63" s="27"/>
       <c r="V63" s="27"/>
       <c r="W63" s="27"/>
       <c r="X63" s="27"/>
@@ -12051,11 +11841,11 @@
       <c r="AB63" s="27"/>
       <c r="AC63" s="27"/>
       <c r="AD63" s="27"/>
-      <c r="AE63" s="27"/>
-    </row>
-    <row r="64" spans="2:31">
+    </row>
+    <row r="64" spans="2:30">
+      <c r="S64" s="83"/>
       <c r="T64" s="83"/>
-      <c r="U64" s="83"/>
+      <c r="U64" s="27"/>
       <c r="V64" s="27"/>
       <c r="W64" s="27"/>
       <c r="X64" s="27"/>
@@ -12065,11 +11855,11 @@
       <c r="AB64" s="27"/>
       <c r="AC64" s="27"/>
       <c r="AD64" s="27"/>
-      <c r="AE64" s="27"/>
-    </row>
-    <row r="65" spans="20:31">
+    </row>
+    <row r="65" spans="19:30">
+      <c r="S65" s="83"/>
       <c r="T65" s="83"/>
-      <c r="U65" s="83"/>
+      <c r="U65" s="27"/>
       <c r="V65" s="27"/>
       <c r="W65" s="27"/>
       <c r="X65" s="27"/>
@@ -12079,11 +11869,11 @@
       <c r="AB65" s="27"/>
       <c r="AC65" s="27"/>
       <c r="AD65" s="27"/>
-      <c r="AE65" s="27"/>
-    </row>
-    <row r="66" spans="20:31">
+    </row>
+    <row r="66" spans="19:30">
+      <c r="S66" s="83"/>
       <c r="T66" s="83"/>
-      <c r="U66" s="83"/>
+      <c r="U66" s="27"/>
       <c r="V66" s="27"/>
       <c r="W66" s="27"/>
       <c r="X66" s="27"/>
@@ -12093,11 +11883,11 @@
       <c r="AB66" s="27"/>
       <c r="AC66" s="27"/>
       <c r="AD66" s="27"/>
-      <c r="AE66" s="27"/>
-    </row>
-    <row r="67" spans="20:31">
+    </row>
+    <row r="67" spans="19:30">
+      <c r="S67" s="83"/>
       <c r="T67" s="83"/>
-      <c r="U67" s="83"/>
+      <c r="U67" s="27"/>
       <c r="V67" s="27"/>
       <c r="W67" s="27"/>
       <c r="X67" s="27"/>
@@ -12107,11 +11897,11 @@
       <c r="AB67" s="27"/>
       <c r="AC67" s="27"/>
       <c r="AD67" s="27"/>
-      <c r="AE67" s="27"/>
-    </row>
-    <row r="68" spans="20:31">
+    </row>
+    <row r="68" spans="19:30">
+      <c r="S68" s="83"/>
       <c r="T68" s="83"/>
-      <c r="U68" s="83"/>
+      <c r="U68" s="27"/>
       <c r="V68" s="27"/>
       <c r="W68" s="27"/>
       <c r="X68" s="27"/>
@@ -12121,11 +11911,11 @@
       <c r="AB68" s="27"/>
       <c r="AC68" s="27"/>
       <c r="AD68" s="27"/>
-      <c r="AE68" s="27"/>
-    </row>
-    <row r="69" spans="20:31">
+    </row>
+    <row r="69" spans="19:30">
+      <c r="S69" s="83"/>
       <c r="T69" s="83"/>
-      <c r="U69" s="83"/>
+      <c r="U69" s="27"/>
       <c r="V69" s="27"/>
       <c r="W69" s="27"/>
       <c r="X69" s="27"/>
@@ -12135,11 +11925,11 @@
       <c r="AB69" s="27"/>
       <c r="AC69" s="27"/>
       <c r="AD69" s="27"/>
-      <c r="AE69" s="27"/>
-    </row>
-    <row r="70" spans="20:31">
+    </row>
+    <row r="70" spans="19:30">
+      <c r="S70" s="83"/>
       <c r="T70" s="83"/>
-      <c r="U70" s="83"/>
+      <c r="U70" s="27"/>
       <c r="V70" s="27"/>
       <c r="W70" s="27"/>
       <c r="X70" s="27"/>
@@ -12149,11 +11939,11 @@
       <c r="AB70" s="27"/>
       <c r="AC70" s="27"/>
       <c r="AD70" s="27"/>
-      <c r="AE70" s="27"/>
-    </row>
-    <row r="71" spans="20:31">
+    </row>
+    <row r="71" spans="19:30">
+      <c r="S71" s="83"/>
       <c r="T71" s="83"/>
-      <c r="U71" s="83"/>
+      <c r="U71" s="27"/>
       <c r="V71" s="27"/>
       <c r="W71" s="27"/>
       <c r="X71" s="27"/>
@@ -12163,11 +11953,11 @@
       <c r="AB71" s="27"/>
       <c r="AC71" s="27"/>
       <c r="AD71" s="27"/>
-      <c r="AE71" s="27"/>
-    </row>
-    <row r="72" spans="20:31">
+    </row>
+    <row r="72" spans="19:30">
+      <c r="S72" s="83"/>
       <c r="T72" s="83"/>
-      <c r="U72" s="83"/>
+      <c r="U72" s="27"/>
       <c r="V72" s="27"/>
       <c r="W72" s="27"/>
       <c r="X72" s="27"/>
@@ -12177,11 +11967,11 @@
       <c r="AB72" s="27"/>
       <c r="AC72" s="27"/>
       <c r="AD72" s="27"/>
-      <c r="AE72" s="27"/>
-    </row>
-    <row r="73" spans="20:31">
+    </row>
+    <row r="73" spans="19:30">
+      <c r="S73" s="83"/>
       <c r="T73" s="83"/>
-      <c r="U73" s="83"/>
+      <c r="U73" s="27"/>
       <c r="V73" s="27"/>
       <c r="W73" s="27"/>
       <c r="X73" s="27"/>
@@ -12191,11 +11981,11 @@
       <c r="AB73" s="27"/>
       <c r="AC73" s="27"/>
       <c r="AD73" s="27"/>
-      <c r="AE73" s="27"/>
-    </row>
-    <row r="74" spans="20:31">
+    </row>
+    <row r="74" spans="19:30">
+      <c r="S74" s="83"/>
       <c r="T74" s="83"/>
-      <c r="U74" s="83"/>
+      <c r="U74" s="27"/>
       <c r="V74" s="27"/>
       <c r="W74" s="27"/>
       <c r="X74" s="27"/>
@@ -12205,11 +11995,11 @@
       <c r="AB74" s="27"/>
       <c r="AC74" s="27"/>
       <c r="AD74" s="27"/>
-      <c r="AE74" s="27"/>
-    </row>
-    <row r="75" spans="20:31">
+    </row>
+    <row r="75" spans="19:30">
+      <c r="S75" s="83"/>
       <c r="T75" s="83"/>
-      <c r="U75" s="83"/>
+      <c r="U75" s="27"/>
       <c r="V75" s="27"/>
       <c r="W75" s="27"/>
       <c r="X75" s="27"/>
@@ -12219,11 +12009,11 @@
       <c r="AB75" s="27"/>
       <c r="AC75" s="27"/>
       <c r="AD75" s="27"/>
-      <c r="AE75" s="27"/>
-    </row>
-    <row r="76" spans="20:31">
+    </row>
+    <row r="76" spans="19:30">
+      <c r="S76" s="83"/>
       <c r="T76" s="83"/>
-      <c r="U76" s="83"/>
+      <c r="U76" s="27"/>
       <c r="V76" s="27"/>
       <c r="W76" s="27"/>
       <c r="X76" s="27"/>
@@ -12233,11 +12023,11 @@
       <c r="AB76" s="27"/>
       <c r="AC76" s="27"/>
       <c r="AD76" s="27"/>
-      <c r="AE76" s="27"/>
-    </row>
-    <row r="77" spans="20:31">
+    </row>
+    <row r="77" spans="19:30">
+      <c r="S77" s="83"/>
       <c r="T77" s="83"/>
-      <c r="U77" s="83"/>
+      <c r="U77" s="27"/>
       <c r="V77" s="27"/>
       <c r="W77" s="27"/>
       <c r="X77" s="27"/>
@@ -12247,11 +12037,11 @@
       <c r="AB77" s="27"/>
       <c r="AC77" s="27"/>
       <c r="AD77" s="27"/>
-      <c r="AE77" s="27"/>
-    </row>
-    <row r="78" spans="20:31">
+    </row>
+    <row r="78" spans="19:30">
+      <c r="S78" s="83"/>
       <c r="T78" s="83"/>
-      <c r="U78" s="83"/>
+      <c r="U78" s="27"/>
       <c r="V78" s="27"/>
       <c r="W78" s="27"/>
       <c r="X78" s="27"/>
@@ -12261,11 +12051,11 @@
       <c r="AB78" s="27"/>
       <c r="AC78" s="27"/>
       <c r="AD78" s="27"/>
-      <c r="AE78" s="27"/>
-    </row>
-    <row r="79" spans="20:31">
+    </row>
+    <row r="79" spans="19:30">
+      <c r="S79" s="83"/>
       <c r="T79" s="83"/>
-      <c r="U79" s="83"/>
+      <c r="U79" s="27"/>
       <c r="V79" s="27"/>
       <c r="W79" s="27"/>
       <c r="X79" s="27"/>
@@ -12275,11 +12065,11 @@
       <c r="AB79" s="27"/>
       <c r="AC79" s="27"/>
       <c r="AD79" s="27"/>
-      <c r="AE79" s="27"/>
-    </row>
-    <row r="80" spans="20:31">
+    </row>
+    <row r="80" spans="19:30">
+      <c r="S80" s="83"/>
       <c r="T80" s="83"/>
-      <c r="U80" s="83"/>
+      <c r="U80" s="27"/>
       <c r="V80" s="27"/>
       <c r="W80" s="27"/>
       <c r="X80" s="27"/>
@@ -12289,11 +12079,11 @@
       <c r="AB80" s="27"/>
       <c r="AC80" s="27"/>
       <c r="AD80" s="27"/>
-      <c r="AE80" s="27"/>
-    </row>
-    <row r="81" spans="20:31">
+    </row>
+    <row r="81" spans="19:30">
+      <c r="S81" s="83"/>
       <c r="T81" s="83"/>
-      <c r="U81" s="83"/>
+      <c r="U81" s="27"/>
       <c r="V81" s="27"/>
       <c r="W81" s="27"/>
       <c r="X81" s="27"/>
@@ -12303,11 +12093,11 @@
       <c r="AB81" s="27"/>
       <c r="AC81" s="27"/>
       <c r="AD81" s="27"/>
-      <c r="AE81" s="27"/>
-    </row>
-    <row r="82" spans="20:31">
+    </row>
+    <row r="82" spans="19:30">
+      <c r="S82" s="83"/>
       <c r="T82" s="83"/>
-      <c r="U82" s="83"/>
+      <c r="U82" s="27"/>
       <c r="V82" s="27"/>
       <c r="W82" s="27"/>
       <c r="X82" s="27"/>
@@ -12317,11 +12107,11 @@
       <c r="AB82" s="27"/>
       <c r="AC82" s="27"/>
       <c r="AD82" s="27"/>
-      <c r="AE82" s="27"/>
-    </row>
-    <row r="83" spans="20:31">
+    </row>
+    <row r="83" spans="19:30">
+      <c r="S83" s="83"/>
       <c r="T83" s="83"/>
-      <c r="U83" s="83"/>
+      <c r="U83" s="27"/>
       <c r="V83" s="27"/>
       <c r="W83" s="27"/>
       <c r="X83" s="27"/>
@@ -12331,11 +12121,11 @@
       <c r="AB83" s="27"/>
       <c r="AC83" s="27"/>
       <c r="AD83" s="27"/>
-      <c r="AE83" s="27"/>
-    </row>
-    <row r="84" spans="20:31">
+    </row>
+    <row r="84" spans="19:30">
+      <c r="S84" s="83"/>
       <c r="T84" s="83"/>
-      <c r="U84" s="83"/>
+      <c r="U84" s="27"/>
       <c r="V84" s="27"/>
       <c r="W84" s="27"/>
       <c r="X84" s="27"/>
@@ -12345,11 +12135,11 @@
       <c r="AB84" s="27"/>
       <c r="AC84" s="27"/>
       <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
-    </row>
-    <row r="85" spans="20:31">
+    </row>
+    <row r="85" spans="19:30">
+      <c r="S85" s="83"/>
       <c r="T85" s="83"/>
-      <c r="U85" s="83"/>
+      <c r="U85" s="27"/>
       <c r="V85" s="27"/>
       <c r="W85" s="27"/>
       <c r="X85" s="27"/>
@@ -12359,11 +12149,11 @@
       <c r="AB85" s="27"/>
       <c r="AC85" s="27"/>
       <c r="AD85" s="27"/>
-      <c r="AE85" s="27"/>
-    </row>
-    <row r="86" spans="20:31">
+    </row>
+    <row r="86" spans="19:30">
+      <c r="S86" s="83"/>
       <c r="T86" s="83"/>
-      <c r="U86" s="83"/>
+      <c r="U86" s="27"/>
       <c r="V86" s="27"/>
       <c r="W86" s="27"/>
       <c r="X86" s="27"/>
@@ -12373,11 +12163,11 @@
       <c r="AB86" s="27"/>
       <c r="AC86" s="27"/>
       <c r="AD86" s="27"/>
-      <c r="AE86" s="27"/>
-    </row>
-    <row r="87" spans="20:31">
+    </row>
+    <row r="87" spans="19:30">
+      <c r="S87" s="83"/>
       <c r="T87" s="83"/>
-      <c r="U87" s="83"/>
+      <c r="U87" s="27"/>
       <c r="V87" s="27"/>
       <c r="W87" s="27"/>
       <c r="X87" s="27"/>
@@ -12387,11 +12177,11 @@
       <c r="AB87" s="27"/>
       <c r="AC87" s="27"/>
       <c r="AD87" s="27"/>
-      <c r="AE87" s="27"/>
-    </row>
-    <row r="88" spans="20:31">
+    </row>
+    <row r="88" spans="19:30">
+      <c r="S88" s="83"/>
       <c r="T88" s="83"/>
-      <c r="U88" s="83"/>
+      <c r="U88" s="27"/>
       <c r="V88" s="27"/>
       <c r="W88" s="27"/>
       <c r="X88" s="27"/>
@@ -12401,11 +12191,11 @@
       <c r="AB88" s="27"/>
       <c r="AC88" s="27"/>
       <c r="AD88" s="27"/>
-      <c r="AE88" s="27"/>
-    </row>
-    <row r="89" spans="20:31">
+    </row>
+    <row r="89" spans="19:30">
+      <c r="S89" s="83"/>
       <c r="T89" s="83"/>
-      <c r="U89" s="83"/>
+      <c r="U89" s="27"/>
       <c r="V89" s="27"/>
       <c r="W89" s="27"/>
       <c r="X89" s="27"/>
@@ -12415,11 +12205,11 @@
       <c r="AB89" s="27"/>
       <c r="AC89" s="27"/>
       <c r="AD89" s="27"/>
-      <c r="AE89" s="27"/>
-    </row>
-    <row r="90" spans="20:31">
+    </row>
+    <row r="90" spans="19:30">
+      <c r="S90" s="83"/>
       <c r="T90" s="83"/>
-      <c r="U90" s="83"/>
+      <c r="U90" s="27"/>
       <c r="V90" s="27"/>
       <c r="W90" s="27"/>
       <c r="X90" s="27"/>
@@ -12429,11 +12219,11 @@
       <c r="AB90" s="27"/>
       <c r="AC90" s="27"/>
       <c r="AD90" s="27"/>
-      <c r="AE90" s="27"/>
-    </row>
-    <row r="91" spans="20:31">
+    </row>
+    <row r="91" spans="19:30">
+      <c r="S91" s="83"/>
       <c r="T91" s="83"/>
-      <c r="U91" s="83"/>
+      <c r="U91" s="27"/>
       <c r="V91" s="27"/>
       <c r="W91" s="27"/>
       <c r="X91" s="27"/>
@@ -12443,11 +12233,11 @@
       <c r="AB91" s="27"/>
       <c r="AC91" s="27"/>
       <c r="AD91" s="27"/>
-      <c r="AE91" s="27"/>
-    </row>
-    <row r="92" spans="20:31">
-      <c r="T92" s="83"/>
-      <c r="U92" s="83"/>
+    </row>
+    <row r="92" spans="19:30">
+      <c r="S92" s="27"/>
+      <c r="T92" s="27"/>
+      <c r="U92" s="27"/>
       <c r="V92" s="27"/>
       <c r="W92" s="27"/>
       <c r="X92" s="27"/>
@@ -12457,11 +12247,11 @@
       <c r="AB92" s="27"/>
       <c r="AC92" s="27"/>
       <c r="AD92" s="27"/>
-      <c r="AE92" s="27"/>
-    </row>
-    <row r="93" spans="20:31">
-      <c r="T93" s="83"/>
-      <c r="U93" s="83"/>
+    </row>
+    <row r="93" spans="19:30">
+      <c r="S93" s="27"/>
+      <c r="T93" s="27"/>
+      <c r="U93" s="27"/>
       <c r="V93" s="27"/>
       <c r="W93" s="27"/>
       <c r="X93" s="27"/>
@@ -12471,11 +12261,11 @@
       <c r="AB93" s="27"/>
       <c r="AC93" s="27"/>
       <c r="AD93" s="27"/>
-      <c r="AE93" s="27"/>
-    </row>
-    <row r="94" spans="20:31">
-      <c r="T94" s="83"/>
-      <c r="U94" s="83"/>
+    </row>
+    <row r="94" spans="19:30">
+      <c r="S94" s="27"/>
+      <c r="T94" s="27"/>
+      <c r="U94" s="27"/>
       <c r="V94" s="27"/>
       <c r="W94" s="27"/>
       <c r="X94" s="27"/>
@@ -12485,9 +12275,9 @@
       <c r="AB94" s="27"/>
       <c r="AC94" s="27"/>
       <c r="AD94" s="27"/>
-      <c r="AE94" s="27"/>
-    </row>
-    <row r="95" spans="20:31">
+    </row>
+    <row r="95" spans="19:30">
+      <c r="S95" s="27"/>
       <c r="T95" s="27"/>
       <c r="U95" s="27"/>
       <c r="V95" s="27"/>
@@ -12499,9 +12289,9 @@
       <c r="AB95" s="27"/>
       <c r="AC95" s="27"/>
       <c r="AD95" s="27"/>
-      <c r="AE95" s="27"/>
-    </row>
-    <row r="96" spans="20:31">
+    </row>
+    <row r="96" spans="19:30">
+      <c r="S96" s="27"/>
       <c r="T96" s="27"/>
       <c r="U96" s="27"/>
       <c r="V96" s="27"/>
@@ -12513,9 +12303,9 @@
       <c r="AB96" s="27"/>
       <c r="AC96" s="27"/>
       <c r="AD96" s="27"/>
-      <c r="AE96" s="27"/>
-    </row>
-    <row r="97" spans="20:31">
+    </row>
+    <row r="97" spans="19:30">
+      <c r="S97" s="27"/>
       <c r="T97" s="27"/>
       <c r="U97" s="27"/>
       <c r="V97" s="27"/>
@@ -12527,9 +12317,9 @@
       <c r="AB97" s="27"/>
       <c r="AC97" s="27"/>
       <c r="AD97" s="27"/>
-      <c r="AE97" s="27"/>
-    </row>
-    <row r="98" spans="20:31">
+    </row>
+    <row r="98" spans="19:30">
+      <c r="S98" s="27"/>
       <c r="T98" s="27"/>
       <c r="U98" s="27"/>
       <c r="V98" s="27"/>
@@ -12541,9 +12331,9 @@
       <c r="AB98" s="27"/>
       <c r="AC98" s="27"/>
       <c r="AD98" s="27"/>
-      <c r="AE98" s="27"/>
-    </row>
-    <row r="99" spans="20:31">
+    </row>
+    <row r="99" spans="19:30">
+      <c r="S99" s="27"/>
       <c r="T99" s="27"/>
       <c r="U99" s="27"/>
       <c r="V99" s="27"/>
@@ -12555,9 +12345,9 @@
       <c r="AB99" s="27"/>
       <c r="AC99" s="27"/>
       <c r="AD99" s="27"/>
-      <c r="AE99" s="27"/>
-    </row>
-    <row r="100" spans="20:31">
+    </row>
+    <row r="100" spans="19:30">
+      <c r="S100" s="27"/>
       <c r="T100" s="27"/>
       <c r="U100" s="27"/>
       <c r="V100" s="27"/>
@@ -12569,9 +12359,9 @@
       <c r="AB100" s="27"/>
       <c r="AC100" s="27"/>
       <c r="AD100" s="27"/>
-      <c r="AE100" s="27"/>
-    </row>
-    <row r="101" spans="20:31">
+    </row>
+    <row r="101" spans="19:30">
+      <c r="S101" s="27"/>
       <c r="T101" s="27"/>
       <c r="U101" s="27"/>
       <c r="V101" s="27"/>
@@ -12583,9 +12373,9 @@
       <c r="AB101" s="27"/>
       <c r="AC101" s="27"/>
       <c r="AD101" s="27"/>
-      <c r="AE101" s="27"/>
-    </row>
-    <row r="102" spans="20:31">
+    </row>
+    <row r="102" spans="19:30">
+      <c r="S102" s="27"/>
       <c r="T102" s="27"/>
       <c r="U102" s="27"/>
       <c r="V102" s="27"/>
@@ -12597,9 +12387,9 @@
       <c r="AB102" s="27"/>
       <c r="AC102" s="27"/>
       <c r="AD102" s="27"/>
-      <c r="AE102" s="27"/>
-    </row>
-    <row r="103" spans="20:31">
+    </row>
+    <row r="103" spans="19:30">
+      <c r="S103" s="27"/>
       <c r="T103" s="27"/>
       <c r="U103" s="27"/>
       <c r="V103" s="27"/>
@@ -12611,9 +12401,9 @@
       <c r="AB103" s="27"/>
       <c r="AC103" s="27"/>
       <c r="AD103" s="27"/>
-      <c r="AE103" s="27"/>
-    </row>
-    <row r="104" spans="20:31">
+    </row>
+    <row r="104" spans="19:30">
+      <c r="S104" s="27"/>
       <c r="T104" s="27"/>
       <c r="U104" s="27"/>
       <c r="V104" s="27"/>
@@ -12625,9 +12415,9 @@
       <c r="AB104" s="27"/>
       <c r="AC104" s="27"/>
       <c r="AD104" s="27"/>
-      <c r="AE104" s="27"/>
-    </row>
-    <row r="105" spans="20:31">
+    </row>
+    <row r="105" spans="19:30">
+      <c r="S105" s="27"/>
       <c r="T105" s="27"/>
       <c r="U105" s="27"/>
       <c r="V105" s="27"/>
@@ -12639,53 +12429,9 @@
       <c r="AB105" s="27"/>
       <c r="AC105" s="27"/>
       <c r="AD105" s="27"/>
-      <c r="AE105" s="27"/>
-    </row>
-    <row r="106" spans="20:31">
-      <c r="T106" s="27"/>
-      <c r="U106" s="27"/>
-      <c r="V106" s="27"/>
-      <c r="W106" s="27"/>
-      <c r="X106" s="27"/>
-      <c r="Y106" s="27"/>
-      <c r="Z106" s="27"/>
-      <c r="AA106" s="27"/>
-      <c r="AB106" s="27"/>
-      <c r="AC106" s="27"/>
-      <c r="AD106" s="27"/>
-      <c r="AE106" s="27"/>
-    </row>
-    <row r="107" spans="20:31">
-      <c r="T107" s="27"/>
-      <c r="U107" s="27"/>
-      <c r="V107" s="27"/>
-      <c r="W107" s="27"/>
-      <c r="X107" s="27"/>
-      <c r="Y107" s="27"/>
-      <c r="Z107" s="27"/>
-      <c r="AA107" s="27"/>
-      <c r="AB107" s="27"/>
-      <c r="AC107" s="27"/>
-      <c r="AD107" s="27"/>
-      <c r="AE107" s="27"/>
-    </row>
-    <row r="108" spans="20:31">
-      <c r="T108" s="27"/>
-      <c r="U108" s="27"/>
-      <c r="V108" s="27"/>
-      <c r="W108" s="27"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="27"/>
-      <c r="AA108" s="27"/>
-      <c r="AB108" s="27"/>
-      <c r="AC108" s="27"/>
-      <c r="AD108" s="27"/>
-      <c r="AE108" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B34:B36"/>
+  <mergeCells count="5">
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="B5:B15"/>

--- a/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
+++ b/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Documents\GitHub\nmcuration\in-progress\Koerner_2005_Polymer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisondavis/Documents/GitHub/nmcuration/in-progress/Koerner_2005_Polymer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2230ECF3-76C3-42E0-8012-F5677A3AC92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2D90C9-BB3A-AB4E-83FA-ED2F2EC3F21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
+    <workbookView xWindow="9060" yWindow="460" windowWidth="25860" windowHeight="17540" activeTab="1" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Curation" sheetId="1" r:id="rId1"/>
     <sheet name="Tidy Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="286">
   <si>
     <t>Notes:</t>
   </si>
@@ -897,25 +899,25 @@
     <t>S16</t>
   </si>
   <si>
-    <t>Stress-Elongation Filename</t>
-  </si>
-  <si>
     <t>Melting Enthalpy</t>
   </si>
   <si>
-    <t>S13_Stress-Elongation</t>
-  </si>
-  <si>
-    <t>S14_Stress-Elongation</t>
-  </si>
-  <si>
-    <t>S15_Stress-Elongation</t>
-  </si>
-  <si>
-    <t>S16_Stress-Elongation</t>
-  </si>
-  <si>
-    <t>S12_Stress-Elongation.xlsx</t>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>S12_Stress_Elongation.xlsx</t>
+  </si>
+  <si>
+    <t>S13_Stress_Elongation.xlsx</t>
+  </si>
+  <si>
+    <t>S14_Stress_Elongation.xlsx</t>
+  </si>
+  <si>
+    <t>S15_Stress_Elongation.xlsx</t>
+  </si>
+  <si>
+    <t>S16_Stress_Elongation.xlsx</t>
   </si>
 </sst>
 </file>
@@ -974,7 +976,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,20 +1025,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="52">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1433,26 +1423,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1592,26 +1562,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1620,74 +1577,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1695,12 +1584,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1788,56 +1673,55 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1845,6 +1729,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1871,123 +1809,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2304,40 +2189,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC62A206-C6D3-E244-8E79-A3860C793E10}">
   <dimension ref="B1:AA291"/>
   <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="D125" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150:H157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="65" customWidth="1"/>
-    <col min="3" max="3" width="121.796875" customWidth="1"/>
-    <col min="5" max="5" width="29.69921875" customWidth="1"/>
-    <col min="6" max="6" width="25.296875" customWidth="1"/>
+    <col min="3" max="3" width="121.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="29.796875" customWidth="1"/>
-    <col min="9" max="9" width="28.19921875" customWidth="1"/>
-    <col min="10" max="10" width="27.19921875" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" customWidth="1"/>
     <col min="11" max="11" width="28.5" customWidth="1"/>
     <col min="12" max="12" width="27.5" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="28.296875" customWidth="1"/>
-    <col min="15" max="15" width="29.796875" customWidth="1"/>
-    <col min="16" max="16" width="27.796875" customWidth="1"/>
-    <col min="17" max="17" width="27.19921875" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1"/>
+    <col min="15" max="15" width="29.83203125" customWidth="1"/>
+    <col min="16" max="16" width="27.83203125" customWidth="1"/>
+    <col min="17" max="17" width="27.1640625" customWidth="1"/>
     <col min="18" max="18" width="28.5" customWidth="1"/>
     <col min="19" max="19" width="27.5" customWidth="1"/>
-    <col min="20" max="20" width="29.796875" customWidth="1"/>
+    <col min="20" max="20" width="29.83203125" customWidth="1"/>
     <col min="21" max="21" width="28" customWidth="1"/>
-    <col min="22" max="22" width="26.796875" customWidth="1"/>
-    <col min="23" max="23" width="28.19921875" customWidth="1"/>
-    <col min="24" max="24" width="25.69921875" customWidth="1"/>
-    <col min="25" max="25" width="24.69921875" customWidth="1"/>
+    <col min="22" max="22" width="26.83203125" customWidth="1"/>
+    <col min="23" max="23" width="28.1640625" customWidth="1"/>
+    <col min="24" max="24" width="25.6640625" customWidth="1"/>
+    <col min="25" max="25" width="24.6640625" customWidth="1"/>
     <col min="26" max="26" width="21" customWidth="1"/>
-    <col min="27" max="27" width="26.19921875" customWidth="1"/>
+    <col min="27" max="27" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="16.2" thickBot="1"/>
+    <row r="1" spans="2:26" ht="17" thickBot="1"/>
     <row r="2" spans="2:26">
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -2354,7 +2239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="16.2" thickBot="1">
+    <row r="4" spans="2:26" ht="17" thickBot="1">
       <c r="B4" s="13" t="s">
         <v>47</v>
       </c>
@@ -2362,8 +2247,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="16.2" thickBot="1"/>
-    <row r="6" spans="2:26" ht="16.2" thickBot="1">
+    <row r="5" spans="2:26" ht="17" thickBot="1"/>
+    <row r="6" spans="2:26" ht="17" thickBot="1">
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="16.2" thickBot="1">
+    <row r="7" spans="2:26" ht="17" thickBot="1">
       <c r="B7" s="20" t="s">
         <v>60</v>
       </c>
@@ -2379,8 +2264,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B8" s="115" t="s">
+    <row r="8" spans="2:26" ht="17" thickBot="1">
+      <c r="B8" s="86" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2393,19 +2278,19 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B9" s="116"/>
+    <row r="9" spans="2:26" ht="17" thickBot="1">
+      <c r="B9" s="81"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="111"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="103"/>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="116"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2418,41 +2303,41 @@
       <c r="G10" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="110" t="s">
+      <c r="J10" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="111"/>
-      <c r="L10" s="110" t="s">
+      <c r="K10" s="103"/>
+      <c r="L10" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="111"/>
-      <c r="N10" s="110" t="s">
+      <c r="M10" s="103"/>
+      <c r="N10" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="110" t="s">
+      <c r="O10" s="103"/>
+      <c r="P10" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="110" t="s">
+      <c r="Q10" s="103"/>
+      <c r="R10" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="S10" s="111"/>
-      <c r="U10" s="106" t="s">
+      <c r="S10" s="103"/>
+      <c r="U10" s="109" t="s">
         <v>253</v>
       </c>
-      <c r="V10" s="107"/>
-      <c r="W10" s="106" t="s">
+      <c r="V10" s="110"/>
+      <c r="W10" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="109" t="s">
+      <c r="X10" s="111"/>
+      <c r="Y10" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="Z10" s="108"/>
-    </row>
-    <row r="11" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B11" s="116"/>
+      <c r="Z10" s="111"/>
+    </row>
+    <row r="11" spans="2:26" ht="17" thickBot="1">
+      <c r="B11" s="81"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2509,7 +2394,7 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="B12" s="116"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2572,7 +2457,7 @@
       </c>
     </row>
     <row r="13" spans="2:26">
-      <c r="B13" s="116"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2634,11 +2519,11 @@
         <v>15.594099</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B14" s="125" t="s">
+    <row r="14" spans="2:26" ht="16" customHeight="1">
+      <c r="B14" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="88" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2699,9 +2584,9 @@
         <v>17.235134599999999</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
+    <row r="15" spans="2:26" ht="16" customHeight="1">
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
       <c r="E15" s="12" t="s">
         <v>170</v>
       </c>
@@ -2761,8 +2646,8 @@
       </c>
     </row>
     <row r="16" spans="2:26">
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
       <c r="E16" s="12" t="s">
         <v>171</v>
       </c>
@@ -2822,8 +2707,8 @@
       </c>
     </row>
     <row r="17" spans="2:26">
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
       <c r="E17" s="12" t="s">
         <v>172</v>
       </c>
@@ -2883,10 +2768,10 @@
       </c>
     </row>
     <row r="18" spans="2:26">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="89" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -2948,8 +2833,8 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="B19" s="124"/>
-      <c r="C19" s="113"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="89"/>
       <c r="E19" s="12" t="s">
         <v>174</v>
       </c>
@@ -3008,9 +2893,9 @@
         <v>27.234399400000001</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B20" s="124"/>
-      <c r="C20" s="113"/>
+    <row r="20" spans="2:26" ht="17" thickBot="1">
+      <c r="B20" s="90"/>
+      <c r="C20" s="89"/>
       <c r="E20" s="12" t="s">
         <v>175</v>
       </c>
@@ -3069,7 +2954,7 @@
         <v>28.277905100000002</v>
       </c>
     </row>
-    <row r="21" spans="2:26" ht="16.2" thickBot="1">
+    <row r="21" spans="2:26" ht="17" thickBot="1">
       <c r="B21" s="20" t="s">
         <v>62</v>
       </c>
@@ -3135,10 +3020,10 @@
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="88" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="12">
@@ -3190,9 +3075,9 @@
         <v>29.915945600000001</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
+    <row r="23" spans="2:26" ht="17" thickBot="1">
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
       <c r="J23" s="12">
         <v>1.35455762059425</v>
       </c>
@@ -3242,15 +3127,15 @@
         <v>30.0627073</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="E24" s="98" t="s">
+    <row r="24" spans="2:26" ht="16" customHeight="1" thickBot="1">
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="E24" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85"/>
       <c r="J24" s="12">
         <v>1.39607392036569</v>
       </c>
@@ -3300,9 +3185,9 @@
         <v>31.4021325</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B25" s="125"/>
-      <c r="C25" s="126"/>
+    <row r="25" spans="2:26" ht="17" thickBot="1">
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
       <c r="E25" s="41" t="s">
         <v>163</v>
       </c>
@@ -3365,10 +3250,10 @@
       </c>
     </row>
     <row r="26" spans="2:26">
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="89" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="32" t="s">
@@ -3433,8 +3318,8 @@
       </c>
     </row>
     <row r="27" spans="2:26">
-      <c r="B27" s="116"/>
-      <c r="C27" s="113"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="89"/>
       <c r="E27" s="12" t="s">
         <v>189</v>
       </c>
@@ -3497,10 +3382,10 @@
       </c>
     </row>
     <row r="28" spans="2:26">
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="91" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -3565,8 +3450,8 @@
       </c>
     </row>
     <row r="29" spans="2:26">
-      <c r="B29" s="125"/>
-      <c r="C29" s="128"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="92"/>
       <c r="E29" s="12" t="s">
         <v>191</v>
       </c>
@@ -3629,8 +3514,8 @@
       </c>
     </row>
     <row r="30" spans="2:26">
-      <c r="B30" s="125"/>
-      <c r="C30" s="128"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="92"/>
       <c r="E30" s="12" t="s">
         <v>192</v>
       </c>
@@ -3693,8 +3578,8 @@
       </c>
     </row>
     <row r="31" spans="2:26">
-      <c r="B31" s="125"/>
-      <c r="C31" s="129"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="93"/>
       <c r="E31" s="12" t="s">
         <v>193</v>
       </c>
@@ -3756,11 +3641,11 @@
         <v>42.536554299999999</v>
       </c>
     </row>
-    <row r="32" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B32" s="116" t="s">
+    <row r="32" spans="2:26" ht="17" thickBot="1">
+      <c r="B32" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="113" t="s">
+      <c r="C32" s="89" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3824,9 +3709,9 @@
         <v>44.019746099999999</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="113"/>
+    <row r="33" spans="2:26" ht="17" thickBot="1">
+      <c r="B33" s="81"/>
+      <c r="C33" s="89"/>
       <c r="J33" s="12">
         <v>1.76972061830867</v>
       </c>
@@ -3876,15 +3761,15 @@
         <v>43.709449900000003</v>
       </c>
     </row>
-    <row r="34" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="113"/>
-      <c r="E34" s="98" t="s">
+    <row r="34" spans="2:26" ht="17" thickBot="1">
+      <c r="B34" s="81"/>
+      <c r="C34" s="89"/>
+      <c r="E34" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="100"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="85"/>
       <c r="J34" s="12">
         <v>1.81123691808011</v>
       </c>
@@ -3916,11 +3801,11 @@
         <v>2.7804914799999998</v>
       </c>
     </row>
-    <row r="35" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B35" s="125" t="s">
+    <row r="35" spans="2:26" ht="17" thickBot="1">
+      <c r="B35" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="126" t="s">
+      <c r="C35" s="88" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="41" t="s">
@@ -3967,8 +3852,8 @@
       </c>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="125"/>
-      <c r="C36" s="126"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
       <c r="E36" s="32" t="s">
         <v>197</v>
       </c>
@@ -4013,8 +3898,8 @@
       </c>
     </row>
     <row r="37" spans="2:26">
-      <c r="B37" s="125"/>
-      <c r="C37" s="126"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
       <c r="E37" s="12" t="s">
         <v>198</v>
       </c>
@@ -4058,11 +3943,11 @@
         <v>2.8744146100000001</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B38" s="116" t="s">
+    <row r="38" spans="2:26" ht="16" customHeight="1">
+      <c r="B38" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="113" t="s">
+      <c r="C38" s="89" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -4109,8 +3994,8 @@
       </c>
     </row>
     <row r="39" spans="2:26">
-      <c r="B39" s="116"/>
-      <c r="C39" s="113"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="89"/>
       <c r="E39" s="12" t="s">
         <v>200</v>
       </c>
@@ -4155,8 +4040,8 @@
       </c>
     </row>
     <row r="40" spans="2:26">
-      <c r="B40" s="116"/>
-      <c r="C40" s="113"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="89"/>
       <c r="E40" s="12" t="s">
         <v>201</v>
       </c>
@@ -4205,8 +4090,8 @@
       <c r="X40" s="27"/>
     </row>
     <row r="41" spans="2:26">
-      <c r="B41" s="116"/>
-      <c r="C41" s="113"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="89"/>
       <c r="E41" s="12" t="s">
         <v>202</v>
       </c>
@@ -4254,9 +4139,9 @@
       <c r="W41" s="27"/>
       <c r="X41" s="27"/>
     </row>
-    <row r="42" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B42" s="116"/>
-      <c r="C42" s="113"/>
+    <row r="42" spans="2:26" ht="17" thickBot="1">
+      <c r="B42" s="81"/>
+      <c r="C42" s="89"/>
       <c r="E42" s="13" t="s">
         <v>203</v>
       </c>
@@ -4304,9 +4189,9 @@
       <c r="W42" s="27"/>
       <c r="X42" s="27"/>
     </row>
-    <row r="43" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B43" s="116"/>
-      <c r="C43" s="113"/>
+    <row r="43" spans="2:26" ht="17" thickBot="1">
+      <c r="B43" s="81"/>
+      <c r="C43" s="89"/>
       <c r="E43" s="41" t="s">
         <v>163</v>
       </c>
@@ -4355,10 +4240,10 @@
       <c r="X43" s="27"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="B44" s="125" t="s">
+      <c r="B44" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="126" t="s">
+      <c r="C44" s="88" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="36" t="s">
@@ -4408,9 +4293,9 @@
       <c r="W44" s="27"/>
       <c r="X44" s="27"/>
     </row>
-    <row r="45" spans="2:26" ht="16.05" customHeight="1">
-      <c r="B45" s="125"/>
-      <c r="C45" s="126"/>
+    <row r="45" spans="2:26" ht="16" customHeight="1">
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
       <c r="E45" s="38" t="s">
         <v>205</v>
       </c>
@@ -4459,8 +4344,8 @@
       <c r="X45" s="27"/>
     </row>
     <row r="46" spans="2:26">
-      <c r="B46" s="125"/>
-      <c r="C46" s="126"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
       <c r="E46" s="38" t="s">
         <v>206</v>
       </c>
@@ -4508,9 +4393,9 @@
       <c r="W46" s="27"/>
       <c r="X46" s="27"/>
     </row>
-    <row r="47" spans="2:26" ht="16.2" thickBot="1">
-      <c r="B47" s="125"/>
-      <c r="C47" s="126"/>
+    <row r="47" spans="2:26" ht="17" thickBot="1">
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
       <c r="E47" s="38" t="s">
         <v>207</v>
       </c>
@@ -4559,8 +4444,8 @@
       <c r="X47" s="27"/>
     </row>
     <row r="48" spans="2:26">
-      <c r="B48" s="125"/>
-      <c r="C48" s="126"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="88"/>
       <c r="E48" s="38" t="s">
         <v>208</v>
       </c>
@@ -4579,8 +4464,8 @@
       <c r="X48" s="27"/>
     </row>
     <row r="49" spans="2:24">
-      <c r="B49" s="125"/>
-      <c r="C49" s="126"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
       <c r="E49" s="38" t="s">
         <v>209</v>
       </c>
@@ -4598,9 +4483,9 @@
       <c r="W49" s="27"/>
       <c r="X49" s="27"/>
     </row>
-    <row r="50" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B50" s="125"/>
-      <c r="C50" s="126"/>
+    <row r="50" spans="2:24" ht="17" thickBot="1">
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
       <c r="E50" s="39" t="s">
         <v>210</v>
       </c>
@@ -4618,35 +4503,35 @@
       <c r="W50" s="27"/>
       <c r="X50" s="27"/>
     </row>
-    <row r="51" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B51" s="125"/>
-      <c r="C51" s="126"/>
+    <row r="51" spans="2:24" ht="17" thickBot="1">
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
       <c r="U51" s="27"/>
       <c r="V51" s="27"/>
       <c r="W51" s="27"/>
       <c r="X51" s="27"/>
     </row>
-    <row r="52" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B52" s="116" t="s">
+    <row r="52" spans="2:24" ht="17" thickBot="1">
+      <c r="B52" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="113" t="s">
+      <c r="C52" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="98" t="s">
+      <c r="E52" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="100"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="85"/>
       <c r="U52" s="27"/>
       <c r="V52" s="27"/>
       <c r="W52" s="27"/>
       <c r="X52" s="27"/>
     </row>
-    <row r="53" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
+    <row r="53" spans="2:24" ht="17" thickBot="1">
+      <c r="B53" s="81"/>
+      <c r="C53" s="89"/>
       <c r="E53" s="41" t="s">
         <v>163</v>
       </c>
@@ -4665,8 +4550,8 @@
       <c r="X53" s="27"/>
     </row>
     <row r="54" spans="2:24">
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="89"/>
       <c r="E54" s="32" t="s">
         <v>213</v>
       </c>
@@ -4685,8 +4570,8 @@
       <c r="X54" s="27"/>
     </row>
     <row r="55" spans="2:24">
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="89"/>
       <c r="E55" s="12" t="s">
         <v>214</v>
       </c>
@@ -4705,8 +4590,8 @@
       <c r="X55" s="27"/>
     </row>
     <row r="56" spans="2:24">
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="89"/>
       <c r="E56" s="12" t="s">
         <v>215</v>
       </c>
@@ -4725,8 +4610,8 @@
       <c r="X56" s="27"/>
     </row>
     <row r="57" spans="2:24">
-      <c r="B57" s="116"/>
-      <c r="C57" s="113"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="89"/>
       <c r="E57" s="12" t="s">
         <v>216</v>
       </c>
@@ -4745,8 +4630,8 @@
       <c r="X57" s="27"/>
     </row>
     <row r="58" spans="2:24">
-      <c r="B58" s="116"/>
-      <c r="C58" s="113"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="89"/>
       <c r="E58" s="12" t="s">
         <v>217</v>
       </c>
@@ -4764,11 +4649,11 @@
       <c r="W58" s="27"/>
       <c r="X58" s="27"/>
     </row>
-    <row r="59" spans="2:24" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B59" s="125" t="s">
+    <row r="59" spans="2:24" ht="16" customHeight="1" thickBot="1">
+      <c r="B59" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="126" t="s">
+      <c r="C59" s="88" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="34" t="s">
@@ -4788,9 +4673,9 @@
       <c r="W59" s="27"/>
       <c r="X59" s="27"/>
     </row>
-    <row r="60" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B60" s="125"/>
-      <c r="C60" s="126"/>
+    <row r="60" spans="2:24" ht="17" thickBot="1">
+      <c r="B60" s="87"/>
+      <c r="C60" s="88"/>
       <c r="E60" s="41" t="s">
         <v>163</v>
       </c>
@@ -4809,8 +4694,8 @@
       <c r="X60" s="27"/>
     </row>
     <row r="61" spans="2:24">
-      <c r="B61" s="125"/>
-      <c r="C61" s="126"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
       <c r="E61" s="44" t="s">
         <v>219</v>
       </c>
@@ -4829,8 +4714,8 @@
       <c r="X61" s="27"/>
     </row>
     <row r="62" spans="2:24">
-      <c r="B62" s="125"/>
-      <c r="C62" s="126"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
       <c r="E62" s="38" t="s">
         <v>220</v>
       </c>
@@ -4849,8 +4734,8 @@
       <c r="X62" s="27"/>
     </row>
     <row r="63" spans="2:24">
-      <c r="B63" s="125"/>
-      <c r="C63" s="126"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="88"/>
       <c r="E63" s="38" t="s">
         <v>221</v>
       </c>
@@ -4868,7 +4753,7 @@
       <c r="W63" s="27"/>
       <c r="X63" s="27"/>
     </row>
-    <row r="64" spans="2:24">
+    <row r="64" spans="2:24" ht="17">
       <c r="B64" s="7" t="s">
         <v>36</v>
       </c>
@@ -4893,10 +4778,10 @@
       <c r="X64" s="27"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="116" t="s">
+      <c r="B65" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="113" t="s">
+      <c r="C65" s="89" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="38" t="s">
@@ -4912,9 +4797,9 @@
         <v>2.2318772748788098</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B66" s="116"/>
-      <c r="C66" s="113"/>
+    <row r="66" spans="2:8" ht="17" thickBot="1">
+      <c r="B66" s="81"/>
+      <c r="C66" s="89"/>
       <c r="E66" s="39" t="s">
         <v>224</v>
       </c>
@@ -4928,7 +4813,7 @@
         <v>2.2206346809865001</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="16.2" thickBot="1">
+    <row r="67" spans="2:8" ht="17" thickBot="1">
       <c r="B67" s="9" t="s">
         <v>26</v>
       </c>
@@ -4940,23 +4825,23 @@
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
     </row>
-    <row r="68" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B68" s="116" t="s">
+    <row r="68" spans="2:8" ht="17" thickBot="1">
+      <c r="B68" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="113" t="s">
+      <c r="C68" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="98" t="s">
+      <c r="E68" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="100"/>
-    </row>
-    <row r="69" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B69" s="116"/>
-      <c r="C69" s="113"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="85"/>
+    </row>
+    <row r="69" spans="2:8" ht="17" thickBot="1">
+      <c r="B69" s="81"/>
+      <c r="C69" s="89"/>
       <c r="E69" s="41" t="s">
         <v>163</v>
       </c>
@@ -4971,8 +4856,8 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="116"/>
-      <c r="C70" s="113"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="89"/>
       <c r="E70" s="32" t="s">
         <v>228</v>
       </c>
@@ -4987,8 +4872,8 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="116"/>
-      <c r="C71" s="113"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="89"/>
       <c r="E71" s="12" t="s">
         <v>229</v>
       </c>
@@ -5003,8 +4888,8 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="116"/>
-      <c r="C72" s="113"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="89"/>
       <c r="E72" s="12" t="s">
         <v>230</v>
       </c>
@@ -5019,7 +4904,7 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="116" t="s">
+      <c r="B73" s="81" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -5038,8 +4923,8 @@
         <v>31.190476190476101</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B74" s="116"/>
+    <row r="74" spans="2:8" ht="17" thickBot="1">
+      <c r="B74" s="81"/>
       <c r="C74" s="11" t="s">
         <v>42</v>
       </c>
@@ -5056,9 +4941,9 @@
         <v>28.214285714285701</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B75" s="116"/>
-      <c r="C75" s="113" t="s">
+    <row r="75" spans="2:8" ht="17" thickBot="1">
+      <c r="B75" s="81"/>
+      <c r="C75" s="89" t="s">
         <v>44</v>
       </c>
       <c r="E75" s="41" t="s">
@@ -5075,8 +4960,8 @@
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="116"/>
-      <c r="C76" s="113"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="89"/>
       <c r="E76" s="44" t="s">
         <v>233</v>
       </c>
@@ -5091,8 +4976,8 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="116"/>
-      <c r="C77" s="113"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="89"/>
       <c r="E77" s="38" t="s">
         <v>234</v>
       </c>
@@ -5107,10 +4992,10 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="116" t="s">
+      <c r="B78" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="113" t="s">
+      <c r="C78" s="89" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="38" t="s">
@@ -5126,9 +5011,9 @@
         <v>13.194259746472101</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B79" s="116"/>
-      <c r="C79" s="113"/>
+    <row r="79" spans="2:8" ht="17" thickBot="1">
+      <c r="B79" s="81"/>
+      <c r="C79" s="89"/>
       <c r="E79" s="39" t="s">
         <v>236</v>
       </c>
@@ -5143,32 +5028,32 @@
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="116"/>
-      <c r="C80" s="113"/>
-    </row>
-    <row r="81" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B81" s="116"/>
-      <c r="C81" s="113"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="89"/>
+    </row>
+    <row r="81" spans="2:8" ht="17" thickBot="1">
+      <c r="B81" s="81"/>
+      <c r="C81" s="89"/>
       <c r="E81" s="27"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
       <c r="H81" s="26"/>
     </row>
-    <row r="82" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B82" s="116"/>
-      <c r="C82" s="113"/>
-      <c r="E82" s="98" t="s">
+    <row r="82" spans="2:8" ht="17" thickBot="1">
+      <c r="B82" s="81"/>
+      <c r="C82" s="89"/>
+      <c r="E82" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="F82" s="99"/>
-      <c r="G82" s="99"/>
-      <c r="H82" s="100"/>
-    </row>
-    <row r="83" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B83" s="116" t="s">
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="85"/>
+    </row>
+    <row r="83" spans="2:8" ht="17" thickBot="1">
+      <c r="B83" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="113" t="s">
+      <c r="C83" s="89" t="s">
         <v>49</v>
       </c>
       <c r="E83" s="16" t="s">
@@ -5184,19 +5069,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B84" s="116"/>
-      <c r="C84" s="113"/>
-      <c r="E84" s="101" t="s">
+    <row r="84" spans="2:8" ht="17" thickBot="1">
+      <c r="B84" s="81"/>
+      <c r="C84" s="89"/>
+      <c r="E84" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="102"/>
-      <c r="G84" s="102"/>
-      <c r="H84" s="103"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="106"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="116"/>
-      <c r="C85" s="113"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="89"/>
       <c r="E85" s="32" t="s">
         <v>240</v>
       </c>
@@ -5211,10 +5096,10 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="116" t="s">
+      <c r="B86" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="113" t="s">
+      <c r="C86" s="89" t="s">
         <v>52</v>
       </c>
       <c r="E86" s="12" t="s">
@@ -5231,8 +5116,8 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="116"/>
-      <c r="C87" s="113"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="89"/>
       <c r="E87" s="12" t="s">
         <v>242</v>
       </c>
@@ -5247,8 +5132,8 @@
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="116"/>
-      <c r="C88" s="113"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="89"/>
       <c r="E88" s="12" t="s">
         <v>244</v>
       </c>
@@ -5262,11 +5147,11 @@
         <v>15.2380952380952</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B89" s="116" t="s">
+    <row r="89" spans="2:8" ht="17" thickBot="1">
+      <c r="B89" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="113" t="s">
+      <c r="C89" s="89" t="s">
         <v>53</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -5282,19 +5167,19 @@
         <v>14.2312925170068</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B90" s="116"/>
-      <c r="C90" s="113"/>
-      <c r="E90" s="101" t="s">
+    <row r="90" spans="2:8" ht="17" thickBot="1">
+      <c r="B90" s="81"/>
+      <c r="C90" s="89"/>
+      <c r="E90" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="F90" s="104"/>
-      <c r="G90" s="104"/>
-      <c r="H90" s="105"/>
+      <c r="F90" s="107"/>
+      <c r="G90" s="107"/>
+      <c r="H90" s="108"/>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="116"/>
-      <c r="C91" s="113"/>
+      <c r="B91" s="81"/>
+      <c r="C91" s="89"/>
       <c r="E91" s="44" t="s">
         <v>245</v>
       </c>
@@ -5309,10 +5194,10 @@
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="116" t="s">
+      <c r="B92" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="113" t="s">
+      <c r="C92" s="89" t="s">
         <v>55</v>
       </c>
       <c r="E92" s="38" t="s">
@@ -5329,8 +5214,8 @@
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="116"/>
-      <c r="C93" s="113"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="89"/>
       <c r="E93" s="38" t="s">
         <v>247</v>
       </c>
@@ -5345,8 +5230,8 @@
       </c>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="116"/>
-      <c r="C94" s="113"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="89"/>
       <c r="E94" s="38" t="s">
         <v>248</v>
       </c>
@@ -5360,8 +5245,8 @@
         <v>4.8435374149659802</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B95" s="116" t="s">
+    <row r="95" spans="2:8" ht="17" thickBot="1">
+      <c r="B95" s="81" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -5381,16 +5266,16 @@
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="116"/>
-      <c r="C96" s="113" t="s">
+      <c r="B96" s="81"/>
+      <c r="C96" s="89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B97" s="117"/>
-      <c r="C97" s="114"/>
-    </row>
-    <row r="98" spans="2:27" ht="16.2" thickBot="1">
+    <row r="97" spans="2:27" ht="17" thickBot="1">
+      <c r="B97" s="82"/>
+      <c r="C97" s="95"/>
+    </row>
+    <row r="98" spans="2:27" ht="17" thickBot="1">
       <c r="B98" s="18" t="s">
         <v>59</v>
       </c>
@@ -5399,53 +5284,53 @@
       </c>
     </row>
     <row r="99" spans="2:27">
-      <c r="B99" s="115" t="s">
+      <c r="B99" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="112" t="s">
+      <c r="C99" s="94" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B100" s="116"/>
-      <c r="C100" s="113"/>
-    </row>
-    <row r="101" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B101" s="116" t="s">
+    <row r="100" spans="2:27" ht="17" thickBot="1">
+      <c r="B100" s="81"/>
+      <c r="C100" s="89"/>
+    </row>
+    <row r="101" spans="2:27" ht="17" thickBot="1">
+      <c r="B101" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C101" s="113" t="s">
+      <c r="C101" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="E101" s="98" t="s">
+      <c r="E101" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="F101" s="99"/>
-      <c r="G101" s="99"/>
-      <c r="H101" s="99"/>
-      <c r="I101" s="99"/>
-      <c r="J101" s="99"/>
-      <c r="K101" s="99"/>
-      <c r="L101" s="99"/>
-      <c r="M101" s="99"/>
-      <c r="N101" s="99"/>
-      <c r="O101" s="99"/>
-      <c r="P101" s="99"/>
-      <c r="Q101" s="99"/>
-      <c r="R101" s="99"/>
-      <c r="S101" s="99"/>
-      <c r="T101" s="99"/>
-      <c r="U101" s="99"/>
-      <c r="V101" s="99"/>
-      <c r="W101" s="99"/>
-      <c r="X101" s="99"/>
-      <c r="Y101" s="99"/>
-      <c r="Z101" s="99"/>
-      <c r="AA101" s="100"/>
-    </row>
-    <row r="102" spans="2:27" ht="16.95" customHeight="1" thickBot="1">
-      <c r="B102" s="116"/>
-      <c r="C102" s="113"/>
+      <c r="F101" s="84"/>
+      <c r="G101" s="84"/>
+      <c r="H101" s="84"/>
+      <c r="I101" s="84"/>
+      <c r="J101" s="84"/>
+      <c r="K101" s="84"/>
+      <c r="L101" s="84"/>
+      <c r="M101" s="84"/>
+      <c r="N101" s="84"/>
+      <c r="O101" s="84"/>
+      <c r="P101" s="84"/>
+      <c r="Q101" s="84"/>
+      <c r="R101" s="84"/>
+      <c r="S101" s="84"/>
+      <c r="T101" s="84"/>
+      <c r="U101" s="84"/>
+      <c r="V101" s="84"/>
+      <c r="W101" s="84"/>
+      <c r="X101" s="84"/>
+      <c r="Y101" s="84"/>
+      <c r="Z101" s="84"/>
+      <c r="AA101" s="85"/>
+    </row>
+    <row r="102" spans="2:27" ht="17" customHeight="1" thickBot="1">
+      <c r="B102" s="81"/>
+      <c r="C102" s="89"/>
       <c r="E102" s="41" t="s">
         <v>268</v>
       </c>
@@ -5516,14 +5401,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="2:27" ht="16.05" customHeight="1">
+    <row r="103" spans="2:27" ht="16" customHeight="1">
       <c r="B103" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E103" s="130" t="s">
+      <c r="E103" s="72" t="s">
         <v>162</v>
       </c>
       <c r="F103" s="63" t="s">
@@ -5556,13 +5441,13 @@
       <c r="AA103" s="52"/>
     </row>
     <row r="104" spans="2:27">
-      <c r="B104" s="116" t="s">
+      <c r="B104" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="113" t="s">
+      <c r="C104" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="E104" s="131"/>
+      <c r="E104" s="73"/>
       <c r="F104" s="60" t="s">
         <v>167</v>
       </c>
@@ -5593,9 +5478,9 @@
       <c r="AA104" s="53"/>
     </row>
     <row r="105" spans="2:27">
-      <c r="B105" s="116"/>
-      <c r="C105" s="113"/>
-      <c r="E105" s="131"/>
+      <c r="B105" s="81"/>
+      <c r="C105" s="89"/>
+      <c r="E105" s="73"/>
       <c r="F105" s="60" t="s">
         <v>168</v>
       </c>
@@ -5626,9 +5511,9 @@
       <c r="AA105" s="53"/>
     </row>
     <row r="106" spans="2:27">
-      <c r="B106" s="116"/>
-      <c r="C106" s="113"/>
-      <c r="E106" s="131"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="89"/>
+      <c r="E106" s="73"/>
       <c r="F106" s="60" t="s">
         <v>169</v>
       </c>
@@ -5659,13 +5544,13 @@
       <c r="AA106" s="53"/>
     </row>
     <row r="107" spans="2:27">
-      <c r="B107" s="116" t="s">
+      <c r="B107" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C107" s="113" t="s">
+      <c r="C107" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="E107" s="131"/>
+      <c r="E107" s="73"/>
       <c r="F107" s="60" t="s">
         <v>170</v>
       </c>
@@ -5696,9 +5581,9 @@
       <c r="AA107" s="53"/>
     </row>
     <row r="108" spans="2:27">
-      <c r="B108" s="116"/>
-      <c r="C108" s="113"/>
-      <c r="E108" s="131"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="89"/>
+      <c r="E108" s="73"/>
       <c r="F108" s="60" t="s">
         <v>171</v>
       </c>
@@ -5729,9 +5614,9 @@
       <c r="AA108" s="53"/>
     </row>
     <row r="109" spans="2:27">
-      <c r="B109" s="116"/>
-      <c r="C109" s="113"/>
-      <c r="E109" s="131"/>
+      <c r="B109" s="81"/>
+      <c r="C109" s="89"/>
+      <c r="E109" s="73"/>
       <c r="F109" s="60" t="s">
         <v>172</v>
       </c>
@@ -5762,9 +5647,9 @@
       <c r="AA109" s="53"/>
     </row>
     <row r="110" spans="2:27">
-      <c r="B110" s="116"/>
-      <c r="C110" s="113"/>
-      <c r="E110" s="131"/>
+      <c r="B110" s="81"/>
+      <c r="C110" s="89"/>
+      <c r="E110" s="73"/>
       <c r="F110" s="60" t="s">
         <v>173</v>
       </c>
@@ -5795,9 +5680,9 @@
       <c r="AA110" s="53"/>
     </row>
     <row r="111" spans="2:27">
-      <c r="B111" s="116"/>
-      <c r="C111" s="113"/>
-      <c r="E111" s="131"/>
+      <c r="B111" s="81"/>
+      <c r="C111" s="89"/>
+      <c r="E111" s="73"/>
       <c r="F111" s="60" t="s">
         <v>174</v>
       </c>
@@ -5828,9 +5713,9 @@
       <c r="AA111" s="53"/>
     </row>
     <row r="112" spans="2:27">
-      <c r="B112" s="116"/>
-      <c r="C112" s="113"/>
-      <c r="E112" s="131"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="89"/>
+      <c r="E112" s="73"/>
       <c r="F112" s="60" t="s">
         <v>175</v>
       </c>
@@ -5860,10 +5745,10 @@
       <c r="Z112" s="48"/>
       <c r="AA112" s="53"/>
     </row>
-    <row r="113" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B113" s="116"/>
-      <c r="C113" s="113"/>
-      <c r="E113" s="132"/>
+    <row r="113" spans="2:27" ht="17" thickBot="1">
+      <c r="B113" s="81"/>
+      <c r="C113" s="89"/>
+      <c r="E113" s="74"/>
       <c r="F113" s="61" t="s">
         <v>176</v>
       </c>
@@ -5893,15 +5778,15 @@
       <c r="Z113" s="54"/>
       <c r="AA113" s="55"/>
     </row>
-    <row r="114" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B114" s="116" t="s">
+    <row r="114" spans="2:27" ht="16" customHeight="1">
+      <c r="B114" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="113"/>
-      <c r="E114" s="133" t="s">
+      <c r="C114" s="89"/>
+      <c r="E114" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="F114" s="135" t="s">
+      <c r="F114" s="77" t="s">
         <v>262</v>
       </c>
       <c r="G114" s="50"/>
@@ -5945,10 +5830,10 @@
       <c r="AA114" s="62"/>
     </row>
     <row r="115" spans="2:27">
-      <c r="B115" s="116"/>
-      <c r="C115" s="113"/>
-      <c r="E115" s="131"/>
-      <c r="F115" s="136"/>
+      <c r="B115" s="81"/>
+      <c r="C115" s="89"/>
+      <c r="E115" s="73"/>
+      <c r="F115" s="78"/>
       <c r="G115" s="48"/>
       <c r="H115" s="48"/>
       <c r="I115" s="48"/>
@@ -5990,12 +5875,12 @@
       <c r="AA115" s="53"/>
     </row>
     <row r="116" spans="2:27">
-      <c r="B116" s="116" t="s">
+      <c r="B116" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="113"/>
-      <c r="E116" s="131"/>
-      <c r="F116" s="136"/>
+      <c r="C116" s="89"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="78"/>
       <c r="G116" s="48"/>
       <c r="H116" s="48"/>
       <c r="I116" s="48"/>
@@ -6037,10 +5922,10 @@
       <c r="AA116" s="53"/>
     </row>
     <row r="117" spans="2:27">
-      <c r="B117" s="116"/>
-      <c r="C117" s="113"/>
-      <c r="E117" s="131"/>
-      <c r="F117" s="136"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="89"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="78"/>
       <c r="G117" s="48"/>
       <c r="H117" s="48"/>
       <c r="I117" s="48"/>
@@ -6082,10 +5967,10 @@
       <c r="AA117" s="53"/>
     </row>
     <row r="118" spans="2:27">
-      <c r="B118" s="116"/>
-      <c r="C118" s="113"/>
-      <c r="E118" s="131"/>
-      <c r="F118" s="136"/>
+      <c r="B118" s="81"/>
+      <c r="C118" s="89"/>
+      <c r="E118" s="73"/>
+      <c r="F118" s="78"/>
       <c r="G118" s="48"/>
       <c r="H118" s="48"/>
       <c r="I118" s="48"/>
@@ -6127,10 +6012,10 @@
       <c r="AA118" s="53"/>
     </row>
     <row r="119" spans="2:27">
-      <c r="B119" s="116"/>
-      <c r="C119" s="113"/>
-      <c r="E119" s="131"/>
-      <c r="F119" s="136"/>
+      <c r="B119" s="81"/>
+      <c r="C119" s="89"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="78"/>
       <c r="G119" s="48"/>
       <c r="H119" s="48"/>
       <c r="I119" s="48"/>
@@ -6172,14 +6057,14 @@
       <c r="AA119" s="53"/>
     </row>
     <row r="120" spans="2:27">
-      <c r="B120" s="124" t="s">
+      <c r="B120" s="90" t="s">
         <v>26</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E120" s="131"/>
-      <c r="F120" s="136"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="78"/>
       <c r="G120" s="48"/>
       <c r="H120" s="48"/>
       <c r="I120" s="48"/>
@@ -6220,13 +6105,13 @@
       <c r="Z120" s="48"/>
       <c r="AA120" s="53"/>
     </row>
-    <row r="121" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B121" s="124"/>
-      <c r="C121" s="113" t="s">
+    <row r="121" spans="2:27" ht="16" customHeight="1">
+      <c r="B121" s="90"/>
+      <c r="C121" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="E121" s="131"/>
-      <c r="F121" s="136"/>
+      <c r="E121" s="73"/>
+      <c r="F121" s="78"/>
       <c r="G121" s="48"/>
       <c r="H121" s="48"/>
       <c r="I121" s="48"/>
@@ -6267,11 +6152,11 @@
       <c r="Z121" s="48"/>
       <c r="AA121" s="53"/>
     </row>
-    <row r="122" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B122" s="124"/>
-      <c r="C122" s="113"/>
-      <c r="E122" s="131"/>
-      <c r="F122" s="136"/>
+    <row r="122" spans="2:27" ht="16" customHeight="1">
+      <c r="B122" s="90"/>
+      <c r="C122" s="89"/>
+      <c r="E122" s="73"/>
+      <c r="F122" s="78"/>
       <c r="G122" s="48"/>
       <c r="H122" s="48"/>
       <c r="I122" s="48"/>
@@ -6312,13 +6197,13 @@
       <c r="Z122" s="48"/>
       <c r="AA122" s="53"/>
     </row>
-    <row r="123" spans="2:27" ht="16.95" customHeight="1">
-      <c r="B123" s="124"/>
+    <row r="123" spans="2:27" ht="17" customHeight="1">
+      <c r="B123" s="90"/>
       <c r="C123" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E123" s="131"/>
-      <c r="F123" s="136"/>
+      <c r="E123" s="73"/>
+      <c r="F123" s="78"/>
       <c r="G123" s="48"/>
       <c r="H123" s="48"/>
       <c r="I123" s="48"/>
@@ -6359,15 +6244,15 @@
       <c r="Z123" s="48"/>
       <c r="AA123" s="53"/>
     </row>
-    <row r="124" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B124" s="116" t="s">
+    <row r="124" spans="2:27" ht="16" customHeight="1">
+      <c r="B124" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="113" t="s">
+      <c r="C124" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="E124" s="131"/>
-      <c r="F124" s="136"/>
+      <c r="E124" s="73"/>
+      <c r="F124" s="78"/>
       <c r="G124" s="48"/>
       <c r="H124" s="48"/>
       <c r="I124" s="48"/>
@@ -6409,10 +6294,10 @@
       <c r="AA124" s="53"/>
     </row>
     <row r="125" spans="2:27">
-      <c r="B125" s="116"/>
-      <c r="C125" s="113"/>
-      <c r="E125" s="131"/>
-      <c r="F125" s="136"/>
+      <c r="B125" s="81"/>
+      <c r="C125" s="89"/>
+      <c r="E125" s="73"/>
+      <c r="F125" s="78"/>
       <c r="G125" s="48"/>
       <c r="H125" s="48"/>
       <c r="I125" s="48"/>
@@ -6454,12 +6339,12 @@
       <c r="AA125" s="53"/>
     </row>
     <row r="126" spans="2:27">
-      <c r="B126" s="116"/>
-      <c r="C126" s="113" t="s">
+      <c r="B126" s="81"/>
+      <c r="C126" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="131"/>
-      <c r="F126" s="136"/>
+      <c r="E126" s="73"/>
+      <c r="F126" s="78"/>
       <c r="G126" s="48"/>
       <c r="H126" s="48"/>
       <c r="I126" s="48"/>
@@ -6501,10 +6386,10 @@
       <c r="AA126" s="53"/>
     </row>
     <row r="127" spans="2:27">
-      <c r="B127" s="116"/>
-      <c r="C127" s="113"/>
-      <c r="E127" s="131"/>
-      <c r="F127" s="136"/>
+      <c r="B127" s="81"/>
+      <c r="C127" s="89"/>
+      <c r="E127" s="73"/>
+      <c r="F127" s="78"/>
       <c r="G127" s="48"/>
       <c r="H127" s="48"/>
       <c r="I127" s="48"/>
@@ -6546,10 +6431,10 @@
       <c r="AA127" s="53"/>
     </row>
     <row r="128" spans="2:27">
-      <c r="B128" s="116"/>
-      <c r="C128" s="113"/>
-      <c r="E128" s="131"/>
-      <c r="F128" s="136"/>
+      <c r="B128" s="81"/>
+      <c r="C128" s="89"/>
+      <c r="E128" s="73"/>
+      <c r="F128" s="78"/>
       <c r="G128" s="48"/>
       <c r="H128" s="48"/>
       <c r="I128" s="48"/>
@@ -6590,15 +6475,15 @@
       <c r="Z128" s="48"/>
       <c r="AA128" s="53"/>
     </row>
-    <row r="129" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B129" s="116" t="s">
+    <row r="129" spans="2:27" ht="16" customHeight="1">
+      <c r="B129" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C129" s="113" t="s">
+      <c r="C129" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="E129" s="131"/>
-      <c r="F129" s="136"/>
+      <c r="E129" s="73"/>
+      <c r="F129" s="78"/>
       <c r="G129" s="48"/>
       <c r="H129" s="48"/>
       <c r="I129" s="48"/>
@@ -6640,10 +6525,10 @@
       <c r="AA129" s="53"/>
     </row>
     <row r="130" spans="2:27">
-      <c r="B130" s="116"/>
-      <c r="C130" s="113"/>
-      <c r="E130" s="131"/>
-      <c r="F130" s="136"/>
+      <c r="B130" s="81"/>
+      <c r="C130" s="89"/>
+      <c r="E130" s="73"/>
+      <c r="F130" s="78"/>
       <c r="G130" s="48"/>
       <c r="H130" s="48"/>
       <c r="I130" s="48"/>
@@ -6685,12 +6570,12 @@
       <c r="AA130" s="53"/>
     </row>
     <row r="131" spans="2:27">
-      <c r="B131" s="116" t="s">
+      <c r="B131" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="113"/>
-      <c r="E131" s="131"/>
-      <c r="F131" s="136"/>
+      <c r="C131" s="89"/>
+      <c r="E131" s="73"/>
+      <c r="F131" s="78"/>
       <c r="G131" s="48"/>
       <c r="H131" s="48"/>
       <c r="I131" s="48"/>
@@ -6732,10 +6617,10 @@
       <c r="AA131" s="53"/>
     </row>
     <row r="132" spans="2:27">
-      <c r="B132" s="116"/>
-      <c r="C132" s="113"/>
-      <c r="E132" s="131"/>
-      <c r="F132" s="136"/>
+      <c r="B132" s="81"/>
+      <c r="C132" s="89"/>
+      <c r="E132" s="73"/>
+      <c r="F132" s="78"/>
       <c r="G132" s="48"/>
       <c r="H132" s="48"/>
       <c r="I132" s="48"/>
@@ -6777,14 +6662,14 @@
       <c r="AA132" s="53"/>
     </row>
     <row r="133" spans="2:27">
-      <c r="B133" s="116" t="s">
+      <c r="B133" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C133" s="113" t="s">
+      <c r="C133" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E133" s="131"/>
-      <c r="F133" s="136"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="78"/>
       <c r="G133" s="48"/>
       <c r="H133" s="48"/>
       <c r="I133" s="48"/>
@@ -6826,10 +6711,10 @@
       <c r="AA133" s="53"/>
     </row>
     <row r="134" spans="2:27">
-      <c r="B134" s="116"/>
-      <c r="C134" s="113"/>
-      <c r="E134" s="131"/>
-      <c r="F134" s="136"/>
+      <c r="B134" s="81"/>
+      <c r="C134" s="89"/>
+      <c r="E134" s="73"/>
+      <c r="F134" s="78"/>
       <c r="G134" s="48"/>
       <c r="H134" s="48"/>
       <c r="I134" s="48"/>
@@ -6871,10 +6756,10 @@
       <c r="AA134" s="53"/>
     </row>
     <row r="135" spans="2:27">
-      <c r="B135" s="116"/>
-      <c r="C135" s="113"/>
-      <c r="E135" s="131"/>
-      <c r="F135" s="136"/>
+      <c r="B135" s="81"/>
+      <c r="C135" s="89"/>
+      <c r="E135" s="73"/>
+      <c r="F135" s="78"/>
       <c r="G135" s="48"/>
       <c r="H135" s="48"/>
       <c r="I135" s="48"/>
@@ -6916,14 +6801,14 @@
       <c r="AA135" s="53"/>
     </row>
     <row r="136" spans="2:27">
-      <c r="B136" s="116" t="s">
+      <c r="B136" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C136" s="120" t="s">
+      <c r="C136" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="E136" s="131"/>
-      <c r="F136" s="136"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="78"/>
       <c r="G136" s="48"/>
       <c r="H136" s="48"/>
       <c r="I136" s="48"/>
@@ -6964,11 +6849,11 @@
       <c r="Z136" s="48"/>
       <c r="AA136" s="53"/>
     </row>
-    <row r="137" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B137" s="116"/>
-      <c r="C137" s="123"/>
-      <c r="E137" s="131"/>
-      <c r="F137" s="136"/>
+    <row r="137" spans="2:27" ht="16" customHeight="1">
+      <c r="B137" s="81"/>
+      <c r="C137" s="98"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="78"/>
       <c r="G137" s="48"/>
       <c r="H137" s="48"/>
       <c r="I137" s="48"/>
@@ -7010,10 +6895,10 @@
       <c r="AA137" s="53"/>
     </row>
     <row r="138" spans="2:27">
-      <c r="B138" s="116"/>
-      <c r="C138" s="123"/>
-      <c r="E138" s="131"/>
-      <c r="F138" s="136"/>
+      <c r="B138" s="81"/>
+      <c r="C138" s="98"/>
+      <c r="E138" s="73"/>
+      <c r="F138" s="78"/>
       <c r="G138" s="48"/>
       <c r="H138" s="48"/>
       <c r="I138" s="48"/>
@@ -7055,10 +6940,10 @@
       <c r="AA138" s="53"/>
     </row>
     <row r="139" spans="2:27">
-      <c r="B139" s="116"/>
-      <c r="C139" s="123"/>
-      <c r="E139" s="131"/>
-      <c r="F139" s="136"/>
+      <c r="B139" s="81"/>
+      <c r="C139" s="98"/>
+      <c r="E139" s="73"/>
+      <c r="F139" s="78"/>
       <c r="G139" s="48"/>
       <c r="H139" s="48"/>
       <c r="I139" s="48"/>
@@ -7100,10 +6985,10 @@
       <c r="AA139" s="53"/>
     </row>
     <row r="140" spans="2:27">
-      <c r="B140" s="116"/>
-      <c r="C140" s="112"/>
-      <c r="E140" s="131"/>
-      <c r="F140" s="136"/>
+      <c r="B140" s="81"/>
+      <c r="C140" s="94"/>
+      <c r="E140" s="73"/>
+      <c r="F140" s="78"/>
       <c r="G140" s="48"/>
       <c r="H140" s="48"/>
       <c r="I140" s="48"/>
@@ -7145,14 +7030,14 @@
       <c r="AA140" s="53"/>
     </row>
     <row r="141" spans="2:27">
-      <c r="B141" s="116" t="s">
+      <c r="B141" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C141" s="113" t="s">
+      <c r="C141" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="E141" s="131"/>
-      <c r="F141" s="136"/>
+      <c r="E141" s="73"/>
+      <c r="F141" s="78"/>
       <c r="G141" s="48"/>
       <c r="H141" s="48"/>
       <c r="I141" s="48"/>
@@ -7193,11 +7078,11 @@
       <c r="Z141" s="48"/>
       <c r="AA141" s="53"/>
     </row>
-    <row r="142" spans="2:27" ht="16.95" customHeight="1">
-      <c r="B142" s="116"/>
-      <c r="C142" s="113"/>
-      <c r="E142" s="131"/>
-      <c r="F142" s="136"/>
+    <row r="142" spans="2:27" ht="17" customHeight="1">
+      <c r="B142" s="81"/>
+      <c r="C142" s="89"/>
+      <c r="E142" s="73"/>
+      <c r="F142" s="78"/>
       <c r="G142" s="48"/>
       <c r="H142" s="48"/>
       <c r="I142" s="48"/>
@@ -7239,10 +7124,10 @@
       <c r="AA142" s="53"/>
     </row>
     <row r="143" spans="2:27">
-      <c r="B143" s="116"/>
-      <c r="C143" s="113"/>
-      <c r="E143" s="131"/>
-      <c r="F143" s="136"/>
+      <c r="B143" s="81"/>
+      <c r="C143" s="89"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="78"/>
       <c r="G143" s="48"/>
       <c r="H143" s="48"/>
       <c r="I143" s="48"/>
@@ -7284,10 +7169,10 @@
       <c r="AA143" s="53"/>
     </row>
     <row r="144" spans="2:27">
-      <c r="B144" s="116"/>
-      <c r="C144" s="113"/>
-      <c r="E144" s="131"/>
-      <c r="F144" s="136"/>
+      <c r="B144" s="81"/>
+      <c r="C144" s="89"/>
+      <c r="E144" s="73"/>
+      <c r="F144" s="78"/>
       <c r="G144" s="48"/>
       <c r="H144" s="48"/>
       <c r="I144" s="48"/>
@@ -7328,11 +7213,11 @@
       <c r="Z144" s="48"/>
       <c r="AA144" s="53"/>
     </row>
-    <row r="145" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B145" s="116"/>
-      <c r="C145" s="113"/>
-      <c r="E145" s="131"/>
-      <c r="F145" s="136"/>
+    <row r="145" spans="2:27" ht="16" customHeight="1">
+      <c r="B145" s="81"/>
+      <c r="C145" s="89"/>
+      <c r="E145" s="73"/>
+      <c r="F145" s="78"/>
       <c r="G145" s="48"/>
       <c r="H145" s="48"/>
       <c r="I145" s="48"/>
@@ -7374,12 +7259,12 @@
       <c r="AA145" s="53"/>
     </row>
     <row r="146" spans="2:27">
-      <c r="B146" s="116" t="s">
+      <c r="B146" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C146" s="113"/>
-      <c r="E146" s="131"/>
-      <c r="F146" s="136"/>
+      <c r="C146" s="89"/>
+      <c r="E146" s="73"/>
+      <c r="F146" s="78"/>
       <c r="G146" s="48"/>
       <c r="H146" s="48"/>
       <c r="I146" s="48"/>
@@ -7421,10 +7306,10 @@
       <c r="AA146" s="53"/>
     </row>
     <row r="147" spans="2:27">
-      <c r="B147" s="116"/>
-      <c r="C147" s="113"/>
-      <c r="E147" s="131"/>
-      <c r="F147" s="136"/>
+      <c r="B147" s="81"/>
+      <c r="C147" s="89"/>
+      <c r="E147" s="73"/>
+      <c r="F147" s="78"/>
       <c r="G147" s="48"/>
       <c r="H147" s="48"/>
       <c r="I147" s="48"/>
@@ -7466,10 +7351,10 @@
       <c r="AA147" s="53"/>
     </row>
     <row r="148" spans="2:27">
-      <c r="B148" s="116"/>
-      <c r="C148" s="113"/>
-      <c r="E148" s="131"/>
-      <c r="F148" s="136"/>
+      <c r="B148" s="81"/>
+      <c r="C148" s="89"/>
+      <c r="E148" s="73"/>
+      <c r="F148" s="78"/>
       <c r="G148" s="48"/>
       <c r="H148" s="48"/>
       <c r="I148" s="48"/>
@@ -7510,11 +7395,11 @@
       <c r="Z148" s="48"/>
       <c r="AA148" s="53"/>
     </row>
-    <row r="149" spans="2:27" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B149" s="116"/>
-      <c r="C149" s="113"/>
-      <c r="E149" s="134"/>
-      <c r="F149" s="137"/>
+    <row r="149" spans="2:27" ht="16" customHeight="1" thickBot="1">
+      <c r="B149" s="81"/>
+      <c r="C149" s="89"/>
+      <c r="E149" s="76"/>
+      <c r="F149" s="79"/>
       <c r="G149" s="56"/>
       <c r="H149" s="56"/>
       <c r="I149" s="56"/>
@@ -7556,9 +7441,9 @@
       <c r="AA149" s="57"/>
     </row>
     <row r="150" spans="2:27">
-      <c r="B150" s="116"/>
-      <c r="C150" s="113"/>
-      <c r="E150" s="130" t="s">
+      <c r="B150" s="81"/>
+      <c r="C150" s="89"/>
+      <c r="E150" s="72" t="s">
         <v>260</v>
       </c>
       <c r="F150" s="63" t="s">
@@ -7606,9 +7491,9 @@
       <c r="AA150" s="52"/>
     </row>
     <row r="151" spans="2:27">
-      <c r="B151" s="116"/>
-      <c r="C151" s="113"/>
-      <c r="E151" s="131"/>
+      <c r="B151" s="81"/>
+      <c r="C151" s="89"/>
+      <c r="E151" s="73"/>
       <c r="F151" s="60" t="s">
         <v>189</v>
       </c>
@@ -7647,9 +7532,9 @@
       <c r="AA151" s="53"/>
     </row>
     <row r="152" spans="2:27">
-      <c r="B152" s="116"/>
-      <c r="C152" s="113"/>
-      <c r="E152" s="131"/>
+      <c r="B152" s="81"/>
+      <c r="C152" s="89"/>
+      <c r="E152" s="73"/>
       <c r="F152" s="60" t="s">
         <v>190</v>
       </c>
@@ -7693,9 +7578,9 @@
       <c r="AA152" s="53"/>
     </row>
     <row r="153" spans="2:27">
-      <c r="B153" s="116"/>
-      <c r="C153" s="113"/>
-      <c r="E153" s="131"/>
+      <c r="B153" s="81"/>
+      <c r="C153" s="89"/>
+      <c r="E153" s="73"/>
       <c r="F153" s="60" t="s">
         <v>191</v>
       </c>
@@ -7731,13 +7616,13 @@
       <c r="AA153" s="53"/>
     </row>
     <row r="154" spans="2:27">
-      <c r="B154" s="116" t="s">
+      <c r="B154" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="113" t="s">
+      <c r="C154" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="E154" s="131"/>
+      <c r="E154" s="73"/>
       <c r="F154" s="60" t="s">
         <v>192</v>
       </c>
@@ -7783,9 +7668,9 @@
       <c r="AA154" s="53"/>
     </row>
     <row r="155" spans="2:27">
-      <c r="B155" s="116"/>
-      <c r="C155" s="113"/>
-      <c r="E155" s="131"/>
+      <c r="B155" s="81"/>
+      <c r="C155" s="89"/>
+      <c r="E155" s="73"/>
       <c r="F155" s="60" t="s">
         <v>193</v>
       </c>
@@ -7831,9 +7716,9 @@
       <c r="AA155" s="53"/>
     </row>
     <row r="156" spans="2:27">
-      <c r="B156" s="116"/>
-      <c r="C156" s="113"/>
-      <c r="E156" s="131"/>
+      <c r="B156" s="81"/>
+      <c r="C156" s="89"/>
+      <c r="E156" s="73"/>
       <c r="F156" s="60" t="s">
         <v>194</v>
       </c>
@@ -7878,14 +7763,14 @@
       <c r="Z156" s="48"/>
       <c r="AA156" s="53"/>
     </row>
-    <row r="157" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B157" s="122" t="s">
+    <row r="157" spans="2:27" ht="17" thickBot="1">
+      <c r="B157" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="C157" s="113" t="s">
+      <c r="C157" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="E157" s="132"/>
+      <c r="E157" s="74"/>
       <c r="F157" s="61" t="s">
         <v>197</v>
       </c>
@@ -7923,12 +7808,12 @@
       <c r="AA157" s="55"/>
     </row>
     <row r="158" spans="2:27">
-      <c r="B158" s="122"/>
-      <c r="C158" s="113"/>
-      <c r="E158" s="133" t="s">
+      <c r="B158" s="96"/>
+      <c r="C158" s="89"/>
+      <c r="E158" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="F158" s="138" t="s">
+      <c r="F158" s="80" t="s">
         <v>272</v>
       </c>
       <c r="G158" s="37">
@@ -7960,10 +7845,10 @@
       <c r="AA158" s="52"/>
     </row>
     <row r="159" spans="2:27">
-      <c r="B159" s="122"/>
-      <c r="C159" s="113"/>
-      <c r="E159" s="131"/>
-      <c r="F159" s="116"/>
+      <c r="B159" s="96"/>
+      <c r="C159" s="89"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="81"/>
       <c r="G159" s="1">
         <v>1.01435445973261</v>
       </c>
@@ -7993,10 +7878,10 @@
       <c r="AA159" s="53"/>
     </row>
     <row r="160" spans="2:27">
-      <c r="B160" s="122"/>
-      <c r="C160" s="113"/>
-      <c r="E160" s="131"/>
-      <c r="F160" s="116"/>
+      <c r="B160" s="96"/>
+      <c r="C160" s="89"/>
+      <c r="E160" s="73"/>
+      <c r="F160" s="81"/>
       <c r="G160" s="1">
         <v>2.0570279393808799</v>
       </c>
@@ -8025,13 +7910,13 @@
       <c r="Z160" s="48"/>
       <c r="AA160" s="53"/>
     </row>
-    <row r="161" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B161" s="122" t="s">
+    <row r="161" spans="2:27" ht="16" customHeight="1">
+      <c r="B161" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="C161" s="113"/>
-      <c r="E161" s="131"/>
-      <c r="F161" s="116"/>
+      <c r="C161" s="89"/>
+      <c r="E161" s="73"/>
+      <c r="F161" s="81"/>
       <c r="G161" s="1">
         <v>5.0235478806907299</v>
       </c>
@@ -8060,11 +7945,11 @@
       <c r="Z161" s="48"/>
       <c r="AA161" s="53"/>
     </row>
-    <row r="162" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B162" s="122"/>
-      <c r="C162" s="113"/>
-      <c r="E162" s="131"/>
-      <c r="F162" s="117"/>
+    <row r="162" spans="2:27" ht="17" thickBot="1">
+      <c r="B162" s="96"/>
+      <c r="C162" s="89"/>
+      <c r="E162" s="73"/>
+      <c r="F162" s="82"/>
       <c r="G162" s="24">
         <v>16.7844573726926</v>
       </c>
@@ -8094,10 +7979,10 @@
       <c r="AA162" s="55"/>
     </row>
     <row r="163" spans="2:27">
-      <c r="B163" s="122"/>
-      <c r="C163" s="113"/>
-      <c r="E163" s="131"/>
-      <c r="F163" s="138" t="s">
+      <c r="B163" s="96"/>
+      <c r="C163" s="89"/>
+      <c r="E163" s="73"/>
+      <c r="F163" s="80" t="s">
         <v>273</v>
       </c>
       <c r="G163" s="37">
@@ -8129,10 +8014,10 @@
       <c r="AA163" s="52"/>
     </row>
     <row r="164" spans="2:27">
-      <c r="B164" s="122"/>
-      <c r="C164" s="113"/>
-      <c r="E164" s="131"/>
-      <c r="F164" s="116"/>
+      <c r="B164" s="96"/>
+      <c r="C164" s="89"/>
+      <c r="E164" s="73"/>
+      <c r="F164" s="81"/>
       <c r="G164" s="1">
         <v>1.0000384334524699</v>
       </c>
@@ -8162,10 +8047,10 @@
       <c r="AA164" s="53"/>
     </row>
     <row r="165" spans="2:27">
-      <c r="B165" s="122"/>
-      <c r="C165" s="113"/>
-      <c r="E165" s="131"/>
-      <c r="F165" s="116"/>
+      <c r="B165" s="96"/>
+      <c r="C165" s="89"/>
+      <c r="E165" s="73"/>
+      <c r="F165" s="81"/>
       <c r="G165" s="1">
         <v>1.9953111187978001</v>
       </c>
@@ -8195,10 +8080,10 @@
       <c r="AA165" s="53"/>
     </row>
     <row r="166" spans="2:27">
-      <c r="B166" s="122"/>
-      <c r="C166" s="113"/>
-      <c r="E166" s="131"/>
-      <c r="F166" s="116"/>
+      <c r="B166" s="96"/>
+      <c r="C166" s="89"/>
+      <c r="E166" s="73"/>
+      <c r="F166" s="81"/>
       <c r="G166" s="1">
         <v>4.9786694338752397</v>
       </c>
@@ -8227,11 +8112,11 @@
       <c r="Z166" s="48"/>
       <c r="AA166" s="53"/>
     </row>
-    <row r="167" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B167" s="122"/>
-      <c r="C167" s="113"/>
-      <c r="E167" s="134"/>
-      <c r="F167" s="117"/>
+    <row r="167" spans="2:27" ht="17" thickBot="1">
+      <c r="B167" s="96"/>
+      <c r="C167" s="89"/>
+      <c r="E167" s="76"/>
+      <c r="F167" s="82"/>
       <c r="G167" s="24">
         <v>16.686933907272799</v>
       </c>
@@ -8261,9 +8146,9 @@
       <c r="AA167" s="55"/>
     </row>
     <row r="168" spans="2:27">
-      <c r="B168" s="122"/>
-      <c r="C168" s="113"/>
-      <c r="E168" s="130" t="s">
+      <c r="B168" s="96"/>
+      <c r="C168" s="89"/>
+      <c r="E168" s="72" t="s">
         <v>105</v>
       </c>
       <c r="F168" s="64"/>
@@ -8299,13 +8184,13 @@
       </c>
     </row>
     <row r="169" spans="2:27">
-      <c r="B169" s="116" t="s">
+      <c r="B169" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="C169" s="113" t="s">
+      <c r="C169" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="E169" s="131"/>
+      <c r="E169" s="73"/>
       <c r="F169" s="65"/>
       <c r="G169" s="48"/>
       <c r="H169" s="48"/>
@@ -8339,9 +8224,9 @@
       </c>
     </row>
     <row r="170" spans="2:27">
-      <c r="B170" s="116"/>
-      <c r="C170" s="113"/>
-      <c r="E170" s="131"/>
+      <c r="B170" s="81"/>
+      <c r="C170" s="89"/>
+      <c r="E170" s="73"/>
       <c r="F170" s="65"/>
       <c r="G170" s="48"/>
       <c r="H170" s="48"/>
@@ -8375,9 +8260,9 @@
       </c>
     </row>
     <row r="171" spans="2:27">
-      <c r="B171" s="116"/>
-      <c r="C171" s="113"/>
-      <c r="E171" s="131"/>
+      <c r="B171" s="81"/>
+      <c r="C171" s="89"/>
+      <c r="E171" s="73"/>
       <c r="F171" s="65"/>
       <c r="G171" s="48"/>
       <c r="H171" s="48"/>
@@ -8410,10 +8295,10 @@
         <v>19.922371500000001</v>
       </c>
     </row>
-    <row r="172" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B172" s="116"/>
-      <c r="C172" s="113"/>
-      <c r="E172" s="131"/>
+    <row r="172" spans="2:27" ht="16" customHeight="1">
+      <c r="B172" s="81"/>
+      <c r="C172" s="89"/>
+      <c r="E172" s="73"/>
       <c r="F172" s="65"/>
       <c r="G172" s="48"/>
       <c r="H172" s="48"/>
@@ -8447,13 +8332,13 @@
       </c>
     </row>
     <row r="173" spans="2:27">
-      <c r="B173" s="116" t="s">
+      <c r="B173" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C173" s="113" t="s">
+      <c r="C173" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="E173" s="131"/>
+      <c r="E173" s="73"/>
       <c r="F173" s="65"/>
       <c r="G173" s="48"/>
       <c r="H173" s="48"/>
@@ -8487,9 +8372,9 @@
       </c>
     </row>
     <row r="174" spans="2:27">
-      <c r="B174" s="116"/>
-      <c r="C174" s="113"/>
-      <c r="E174" s="131"/>
+      <c r="B174" s="81"/>
+      <c r="C174" s="89"/>
+      <c r="E174" s="73"/>
       <c r="F174" s="65"/>
       <c r="G174" s="48"/>
       <c r="H174" s="48"/>
@@ -8523,9 +8408,9 @@
       </c>
     </row>
     <row r="175" spans="2:27">
-      <c r="B175" s="116"/>
-      <c r="C175" s="113"/>
-      <c r="E175" s="131"/>
+      <c r="B175" s="81"/>
+      <c r="C175" s="89"/>
+      <c r="E175" s="73"/>
       <c r="F175" s="65"/>
       <c r="G175" s="48"/>
       <c r="H175" s="48"/>
@@ -8559,9 +8444,9 @@
       </c>
     </row>
     <row r="176" spans="2:27">
-      <c r="B176" s="116"/>
-      <c r="C176" s="113"/>
-      <c r="E176" s="131"/>
+      <c r="B176" s="81"/>
+      <c r="C176" s="89"/>
+      <c r="E176" s="73"/>
       <c r="F176" s="65"/>
       <c r="G176" s="48"/>
       <c r="H176" s="48"/>
@@ -8595,11 +8480,11 @@
       </c>
     </row>
     <row r="177" spans="2:27">
-      <c r="B177" s="116" t="s">
+      <c r="B177" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C177" s="113"/>
-      <c r="E177" s="131"/>
+      <c r="C177" s="89"/>
+      <c r="E177" s="73"/>
       <c r="F177" s="65"/>
       <c r="G177" s="48"/>
       <c r="H177" s="48"/>
@@ -8633,9 +8518,9 @@
       </c>
     </row>
     <row r="178" spans="2:27">
-      <c r="B178" s="116"/>
-      <c r="C178" s="113"/>
-      <c r="E178" s="131"/>
+      <c r="B178" s="81"/>
+      <c r="C178" s="89"/>
+      <c r="E178" s="73"/>
       <c r="F178" s="65"/>
       <c r="G178" s="48"/>
       <c r="H178" s="48"/>
@@ -8669,9 +8554,9 @@
       </c>
     </row>
     <row r="179" spans="2:27">
-      <c r="B179" s="116"/>
-      <c r="C179" s="113"/>
-      <c r="E179" s="131"/>
+      <c r="B179" s="81"/>
+      <c r="C179" s="89"/>
+      <c r="E179" s="73"/>
       <c r="F179" s="65"/>
       <c r="G179" s="48"/>
       <c r="H179" s="48"/>
@@ -8704,10 +8589,10 @@
         <v>30.0627073</v>
       </c>
     </row>
-    <row r="180" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B180" s="116"/>
-      <c r="C180" s="113"/>
-      <c r="E180" s="131"/>
+    <row r="180" spans="2:27" ht="16" customHeight="1">
+      <c r="B180" s="81"/>
+      <c r="C180" s="89"/>
+      <c r="E180" s="73"/>
       <c r="F180" s="65"/>
       <c r="G180" s="48"/>
       <c r="H180" s="48"/>
@@ -8741,13 +8626,13 @@
       </c>
     </row>
     <row r="181" spans="2:27">
-      <c r="B181" s="116" t="s">
+      <c r="B181" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="C181" s="113" t="s">
+      <c r="C181" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="E181" s="131"/>
+      <c r="E181" s="73"/>
       <c r="F181" s="65"/>
       <c r="G181" s="48"/>
       <c r="H181" s="48"/>
@@ -8781,9 +8666,9 @@
       </c>
     </row>
     <row r="182" spans="2:27">
-      <c r="B182" s="116"/>
-      <c r="C182" s="113"/>
-      <c r="E182" s="131"/>
+      <c r="B182" s="81"/>
+      <c r="C182" s="89"/>
+      <c r="E182" s="73"/>
       <c r="F182" s="65"/>
       <c r="G182" s="48"/>
       <c r="H182" s="48"/>
@@ -8823,7 +8708,7 @@
       <c r="C183" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E183" s="131"/>
+      <c r="E183" s="73"/>
       <c r="F183" s="65"/>
       <c r="G183" s="48"/>
       <c r="H183" s="48"/>
@@ -8857,13 +8742,13 @@
       </c>
     </row>
     <row r="184" spans="2:27">
-      <c r="B184" s="116" t="s">
+      <c r="B184" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="C184" s="113" t="s">
+      <c r="C184" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="E184" s="131"/>
+      <c r="E184" s="73"/>
       <c r="F184" s="65"/>
       <c r="G184" s="48"/>
       <c r="H184" s="48"/>
@@ -8897,9 +8782,9 @@
       </c>
     </row>
     <row r="185" spans="2:27">
-      <c r="B185" s="116"/>
-      <c r="C185" s="113"/>
-      <c r="E185" s="131"/>
+      <c r="B185" s="81"/>
+      <c r="C185" s="89"/>
+      <c r="E185" s="73"/>
       <c r="F185" s="65"/>
       <c r="G185" s="48"/>
       <c r="H185" s="48"/>
@@ -8932,10 +8817,10 @@
         <v>40.4672141</v>
       </c>
     </row>
-    <row r="186" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B186" s="116"/>
-      <c r="C186" s="113"/>
-      <c r="E186" s="131"/>
+    <row r="186" spans="2:27" ht="16" customHeight="1">
+      <c r="B186" s="81"/>
+      <c r="C186" s="89"/>
+      <c r="E186" s="73"/>
       <c r="F186" s="65"/>
       <c r="G186" s="48"/>
       <c r="H186" s="48"/>
@@ -8969,9 +8854,9 @@
       </c>
     </row>
     <row r="187" spans="2:27">
-      <c r="B187" s="116"/>
-      <c r="C187" s="113"/>
-      <c r="E187" s="131"/>
+      <c r="B187" s="81"/>
+      <c r="C187" s="89"/>
+      <c r="E187" s="73"/>
       <c r="F187" s="65"/>
       <c r="G187" s="48"/>
       <c r="H187" s="48"/>
@@ -9005,9 +8890,9 @@
       </c>
     </row>
     <row r="188" spans="2:27">
-      <c r="B188" s="116"/>
-      <c r="C188" s="113"/>
-      <c r="E188" s="131"/>
+      <c r="B188" s="81"/>
+      <c r="C188" s="89"/>
+      <c r="E188" s="73"/>
       <c r="F188" s="65"/>
       <c r="G188" s="48"/>
       <c r="H188" s="48"/>
@@ -9040,10 +8925,10 @@
         <v>44.019746099999999</v>
       </c>
     </row>
-    <row r="189" spans="2:27" ht="16.2" thickBot="1">
-      <c r="B189" s="116"/>
-      <c r="C189" s="113"/>
-      <c r="E189" s="132"/>
+    <row r="189" spans="2:27" ht="17" thickBot="1">
+      <c r="B189" s="81"/>
+      <c r="C189" s="89"/>
+      <c r="E189" s="74"/>
       <c r="F189" s="66"/>
       <c r="G189" s="54"/>
       <c r="H189" s="54"/>
@@ -9076,53 +8961,53 @@
         <v>43.709449900000003</v>
       </c>
     </row>
-    <row r="190" spans="2:27" ht="16.05" customHeight="1">
-      <c r="B190" s="116" t="s">
+    <row r="190" spans="2:27" ht="16" customHeight="1">
+      <c r="B190" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="C190" s="113"/>
+      <c r="C190" s="89"/>
     </row>
     <row r="191" spans="2:27">
-      <c r="B191" s="116"/>
-      <c r="C191" s="113"/>
+      <c r="B191" s="81"/>
+      <c r="C191" s="89"/>
     </row>
     <row r="192" spans="2:27">
-      <c r="B192" s="116"/>
-      <c r="C192" s="113"/>
+      <c r="B192" s="81"/>
+      <c r="C192" s="89"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="116"/>
-      <c r="C193" s="113"/>
+      <c r="B193" s="81"/>
+      <c r="C193" s="89"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="116" t="s">
+      <c r="B194" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="C194" s="113" t="s">
+      <c r="C194" s="89" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="116"/>
-      <c r="C195" s="113"/>
+      <c r="B195" s="81"/>
+      <c r="C195" s="89"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="121" t="s">
+      <c r="B196" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C196" s="113" t="s">
+      <c r="C196" s="89" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="121"/>
-      <c r="C197" s="113"/>
+      <c r="B197" s="100"/>
+      <c r="C197" s="89"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="116" t="s">
+      <c r="B198" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="C198" s="113" t="s">
+      <c r="C198" s="89" t="s">
         <v>110</v>
       </c>
       <c r="E198" s="47" t="s">
@@ -9130,109 +9015,109 @@
       </c>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="116"/>
-      <c r="C199" s="113"/>
+      <c r="B199" s="81"/>
+      <c r="C199" s="89"/>
       <c r="E199" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="116"/>
-      <c r="C200" s="113"/>
-    </row>
-    <row r="201" spans="2:5" ht="16.05" customHeight="1">
-      <c r="B201" s="116"/>
-      <c r="C201" s="113"/>
+      <c r="B200" s="81"/>
+      <c r="C200" s="89"/>
+    </row>
+    <row r="201" spans="2:5" ht="16" customHeight="1">
+      <c r="B201" s="81"/>
+      <c r="C201" s="89"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="116"/>
-      <c r="C202" s="113"/>
-    </row>
-    <row r="203" spans="2:5" ht="16.05" customHeight="1">
-      <c r="B203" s="116"/>
-      <c r="C203" s="113"/>
+      <c r="B202" s="81"/>
+      <c r="C202" s="89"/>
+    </row>
+    <row r="203" spans="2:5" ht="16" customHeight="1">
+      <c r="B203" s="81"/>
+      <c r="C203" s="89"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="116"/>
-      <c r="C204" s="113"/>
+      <c r="B204" s="81"/>
+      <c r="C204" s="89"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="116" t="s">
+      <c r="B205" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="C205" s="113" t="s">
+      <c r="C205" s="89" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="116"/>
-      <c r="C206" s="113"/>
+      <c r="B206" s="81"/>
+      <c r="C206" s="89"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="116"/>
-      <c r="C207" s="113"/>
+      <c r="B207" s="81"/>
+      <c r="C207" s="89"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="116" t="s">
+      <c r="B208" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C208" s="113" t="s">
+      <c r="C208" s="89" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="116"/>
-      <c r="C209" s="113"/>
+      <c r="B209" s="81"/>
+      <c r="C209" s="89"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="116" t="s">
+      <c r="B210" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="C210" s="113" t="s">
+      <c r="C210" s="89" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="116"/>
-      <c r="C211" s="113"/>
+      <c r="B211" s="81"/>
+      <c r="C211" s="89"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="116"/>
-      <c r="C212" s="113"/>
+      <c r="B212" s="81"/>
+      <c r="C212" s="89"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="116" t="s">
+      <c r="B213" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C213" s="113"/>
+      <c r="C213" s="89"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="116"/>
-      <c r="C214" s="113"/>
+      <c r="B214" s="81"/>
+      <c r="C214" s="89"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="116" t="s">
+      <c r="B215" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="C215" s="113"/>
-    </row>
-    <row r="216" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B216" s="116"/>
-      <c r="C216" s="113"/>
+      <c r="C215" s="89"/>
+    </row>
+    <row r="216" spans="2:3" ht="16" customHeight="1">
+      <c r="B216" s="81"/>
+      <c r="C216" s="89"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="116" t="s">
+      <c r="B217" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="C217" s="113" t="s">
+      <c r="C217" s="89" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="16.2" thickBot="1">
-      <c r="B218" s="116"/>
-      <c r="C218" s="113"/>
-    </row>
-    <row r="219" spans="2:3" ht="16.2" thickBot="1">
+    <row r="218" spans="2:3" ht="17" thickBot="1">
+      <c r="B218" s="81"/>
+      <c r="C218" s="89"/>
+    </row>
+    <row r="219" spans="2:3" ht="17" thickBot="1">
       <c r="B219" s="18" t="s">
         <v>123</v>
       </c>
@@ -9241,336 +9126,336 @@
       </c>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="115" t="s">
+      <c r="B220" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="C220" s="112" t="s">
+      <c r="C220" s="94" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="116"/>
-      <c r="C221" s="113"/>
+      <c r="B221" s="81"/>
+      <c r="C221" s="89"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="116"/>
-      <c r="C222" s="113"/>
+      <c r="B222" s="81"/>
+      <c r="C222" s="89"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="116"/>
-      <c r="C223" s="113"/>
+      <c r="B223" s="81"/>
+      <c r="C223" s="89"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="116"/>
-      <c r="C224" s="113"/>
-    </row>
-    <row r="225" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B225" s="116"/>
-      <c r="C225" s="113"/>
+      <c r="B224" s="81"/>
+      <c r="C224" s="89"/>
+    </row>
+    <row r="225" spans="2:3" ht="16" customHeight="1">
+      <c r="B225" s="81"/>
+      <c r="C225" s="89"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="116"/>
-      <c r="C226" s="113"/>
-    </row>
-    <row r="227" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B227" s="116" t="s">
+      <c r="B226" s="81"/>
+      <c r="C226" s="89"/>
+    </row>
+    <row r="227" spans="2:3" ht="16" customHeight="1">
+      <c r="B227" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C227" s="113"/>
+      <c r="C227" s="89"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="119"/>
-      <c r="C228" s="120"/>
+      <c r="B228" s="99"/>
+      <c r="C228" s="97"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="116" t="s">
+      <c r="B229" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C229" s="113" t="s">
+      <c r="C229" s="89" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="116"/>
-      <c r="C230" s="113"/>
+      <c r="B230" s="81"/>
+      <c r="C230" s="89"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="116" t="s">
+      <c r="B231" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="C231" s="113"/>
+      <c r="C231" s="89"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="116"/>
-      <c r="C232" s="113"/>
+      <c r="B232" s="81"/>
+      <c r="C232" s="89"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="116"/>
-      <c r="C233" s="113"/>
+      <c r="B233" s="81"/>
+      <c r="C233" s="89"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="116"/>
-      <c r="C234" s="113"/>
+      <c r="B234" s="81"/>
+      <c r="C234" s="89"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="116"/>
-      <c r="C235" s="113"/>
+      <c r="B235" s="81"/>
+      <c r="C235" s="89"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="116"/>
-      <c r="C236" s="113"/>
+      <c r="B236" s="81"/>
+      <c r="C236" s="89"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="116"/>
-      <c r="C237" s="113"/>
+      <c r="B237" s="81"/>
+      <c r="C237" s="89"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="116"/>
-      <c r="C238" s="113"/>
+      <c r="B238" s="81"/>
+      <c r="C238" s="89"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="116"/>
-      <c r="C239" s="113"/>
-    </row>
-    <row r="240" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B240" s="116" t="s">
+      <c r="B239" s="81"/>
+      <c r="C239" s="89"/>
+    </row>
+    <row r="240" spans="2:3" ht="16" customHeight="1">
+      <c r="B240" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C240" s="113" t="s">
+      <c r="C240" s="89" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="116"/>
-      <c r="C241" s="113"/>
+      <c r="B241" s="81"/>
+      <c r="C241" s="89"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="116" t="s">
+      <c r="B242" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="C242" s="113" t="s">
+      <c r="C242" s="89" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="116"/>
-      <c r="C243" s="113"/>
-    </row>
-    <row r="244" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B244" s="116" t="s">
+      <c r="B243" s="81"/>
+      <c r="C243" s="89"/>
+    </row>
+    <row r="244" spans="2:3" ht="16" customHeight="1">
+      <c r="B244" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="C244" s="113" t="s">
+      <c r="C244" s="89" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="116"/>
-      <c r="C245" s="113"/>
-    </row>
-    <row r="246" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B246" s="116"/>
-      <c r="C246" s="113"/>
+      <c r="B245" s="81"/>
+      <c r="C245" s="89"/>
+    </row>
+    <row r="246" spans="2:3" ht="16" customHeight="1">
+      <c r="B246" s="81"/>
+      <c r="C246" s="89"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="116"/>
-      <c r="C247" s="113"/>
+      <c r="B247" s="81"/>
+      <c r="C247" s="89"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="116" t="s">
+      <c r="B248" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="C248" s="113" t="s">
+      <c r="C248" s="89" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="116"/>
-      <c r="C249" s="113"/>
+      <c r="B249" s="81"/>
+      <c r="C249" s="89"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="116" t="s">
+      <c r="B250" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="C250" s="113"/>
+      <c r="C250" s="89"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="116"/>
-      <c r="C251" s="113"/>
+      <c r="B251" s="81"/>
+      <c r="C251" s="89"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="116"/>
-      <c r="C252" s="113"/>
-    </row>
-    <row r="253" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B253" s="116"/>
-      <c r="C253" s="113"/>
+      <c r="B252" s="81"/>
+      <c r="C252" s="89"/>
+    </row>
+    <row r="253" spans="2:3" ht="16" customHeight="1">
+      <c r="B253" s="81"/>
+      <c r="C253" s="89"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="116"/>
-      <c r="C254" s="113"/>
+      <c r="B254" s="81"/>
+      <c r="C254" s="89"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="116"/>
-      <c r="C255" s="113"/>
+      <c r="B255" s="81"/>
+      <c r="C255" s="89"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="116"/>
-      <c r="C256" s="113"/>
-    </row>
-    <row r="257" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B257" s="116" t="s">
+      <c r="B256" s="81"/>
+      <c r="C256" s="89"/>
+    </row>
+    <row r="257" spans="2:3" ht="16" customHeight="1">
+      <c r="B257" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="C257" s="113"/>
+      <c r="C257" s="89"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="116"/>
-      <c r="C258" s="113"/>
+      <c r="B258" s="81"/>
+      <c r="C258" s="89"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="116"/>
-      <c r="C259" s="113"/>
+      <c r="B259" s="81"/>
+      <c r="C259" s="89"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="116"/>
-      <c r="C260" s="113"/>
+      <c r="B260" s="81"/>
+      <c r="C260" s="89"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="116" t="s">
+      <c r="B261" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="C261" s="113"/>
-    </row>
-    <row r="262" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B262" s="116"/>
-      <c r="C262" s="113"/>
+      <c r="C261" s="89"/>
+    </row>
+    <row r="262" spans="2:3" ht="16" customHeight="1">
+      <c r="B262" s="81"/>
+      <c r="C262" s="89"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="116" t="s">
+      <c r="B263" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C263" s="113" t="s">
+      <c r="C263" s="89" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="116"/>
-      <c r="C264" s="113"/>
+      <c r="B264" s="81"/>
+      <c r="C264" s="89"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="116"/>
-      <c r="C265" s="113"/>
+      <c r="B265" s="81"/>
+      <c r="C265" s="89"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="116" t="s">
+      <c r="B266" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="C266" s="113" t="s">
+      <c r="C266" s="89" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="116"/>
-      <c r="C267" s="113"/>
-    </row>
-    <row r="268" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B268" s="116"/>
-      <c r="C268" s="113"/>
+      <c r="B267" s="81"/>
+      <c r="C267" s="89"/>
+    </row>
+    <row r="268" spans="2:3" ht="16" customHeight="1">
+      <c r="B268" s="81"/>
+      <c r="C268" s="89"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="116"/>
-      <c r="C269" s="113"/>
+      <c r="B269" s="81"/>
+      <c r="C269" s="89"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="116" t="s">
+      <c r="B270" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="C270" s="113" t="s">
+      <c r="C270" s="89" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="18" customHeight="1">
-      <c r="B271" s="116"/>
-      <c r="C271" s="113"/>
+      <c r="B271" s="81"/>
+      <c r="C271" s="89"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="116" t="s">
+      <c r="B272" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="C272" s="113" t="s">
+      <c r="C272" s="89" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="116"/>
-      <c r="C273" s="113"/>
+      <c r="B273" s="81"/>
+      <c r="C273" s="89"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="116"/>
-      <c r="C274" s="113"/>
+      <c r="B274" s="81"/>
+      <c r="C274" s="89"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="116" t="s">
+      <c r="B275" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="C275" s="113" t="s">
+      <c r="C275" s="89" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="276" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B276" s="116"/>
-      <c r="C276" s="113"/>
+    <row r="276" spans="2:3" ht="16" customHeight="1">
+      <c r="B276" s="81"/>
+      <c r="C276" s="89"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="116"/>
-      <c r="C277" s="113"/>
+      <c r="B277" s="81"/>
+      <c r="C277" s="89"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="116" t="s">
+      <c r="B278" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="C278" s="113" t="s">
+      <c r="C278" s="89" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="116"/>
-      <c r="C279" s="113"/>
+      <c r="B279" s="81"/>
+      <c r="C279" s="89"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="116" t="s">
+      <c r="B280" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="C280" s="113" t="s">
+      <c r="C280" s="89" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="116"/>
-      <c r="C281" s="113"/>
+      <c r="B281" s="81"/>
+      <c r="C281" s="89"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="116"/>
-      <c r="C282" s="113"/>
-    </row>
-    <row r="283" spans="2:3" ht="16.05" customHeight="1">
-      <c r="B283" s="116"/>
-      <c r="C283" s="113"/>
+      <c r="B282" s="81"/>
+      <c r="C282" s="89"/>
+    </row>
+    <row r="283" spans="2:3" ht="16" customHeight="1">
+      <c r="B283" s="81"/>
+      <c r="C283" s="89"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="116" t="s">
+      <c r="B284" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="C284" s="113" t="s">
+      <c r="C284" s="89" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="285" spans="2:3" ht="16.2" thickBot="1">
-      <c r="B285" s="116"/>
-      <c r="C285" s="113"/>
-    </row>
-    <row r="286" spans="2:3" ht="16.2" thickBot="1">
+    <row r="285" spans="2:3" ht="17" thickBot="1">
+      <c r="B285" s="81"/>
+      <c r="C285" s="89"/>
+    </row>
+    <row r="286" spans="2:3" ht="17" thickBot="1">
       <c r="B286" s="18" t="s">
         <v>158</v>
       </c>
@@ -9579,152 +9464,48 @@
       </c>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="115" t="s">
+      <c r="B287" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="C287" s="112" t="s">
+      <c r="C287" s="94" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="116"/>
-      <c r="C288" s="113"/>
+      <c r="B288" s="81"/>
+      <c r="C288" s="89"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="116"/>
-      <c r="C289" s="113" t="s">
+      <c r="B289" s="81"/>
+      <c r="C289" s="89" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="116"/>
-      <c r="C290" s="113"/>
-    </row>
-    <row r="291" spans="2:3" ht="16.2" thickBot="1">
-      <c r="B291" s="117"/>
-      <c r="C291" s="114"/>
+      <c r="B290" s="81"/>
+      <c r="C290" s="89"/>
+    </row>
+    <row r="291" spans="2:3" ht="17" thickBot="1">
+      <c r="B291" s="82"/>
+      <c r="C291" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="E168:E189"/>
-    <mergeCell ref="E103:E113"/>
-    <mergeCell ref="E150:E157"/>
-    <mergeCell ref="E114:E149"/>
-    <mergeCell ref="F114:F149"/>
-    <mergeCell ref="F158:F162"/>
-    <mergeCell ref="F163:F167"/>
-    <mergeCell ref="E158:E167"/>
-    <mergeCell ref="E101:AA101"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="C107:C119"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="C173:C180"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="B161:B168"/>
-    <mergeCell ref="C157:C168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B146:B153"/>
-    <mergeCell ref="C141:C153"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="B141:B145"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C220:C228"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C184:C193"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B204"/>
-    <mergeCell ref="C198:C204"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="B184:B189"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="B244:B247"/>
-    <mergeCell ref="C244:C247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="B231:B239"/>
-    <mergeCell ref="C229:C239"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E34:H34"/>
     <mergeCell ref="C287:C288"/>
     <mergeCell ref="C289:C291"/>
     <mergeCell ref="B287:B291"/>
@@ -9749,21 +9530,125 @@
     <mergeCell ref="B270:B271"/>
     <mergeCell ref="B250:B256"/>
     <mergeCell ref="B257:B260"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="B244:B247"/>
+    <mergeCell ref="C244:C247"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B231:B239"/>
+    <mergeCell ref="C229:C239"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C220:C228"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C184:C193"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="B198:B204"/>
+    <mergeCell ref="C198:C204"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="B146:B153"/>
+    <mergeCell ref="C141:C153"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="B141:B145"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="C173:C180"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="B161:B168"/>
+    <mergeCell ref="C157:C168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="C107:C119"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="E168:E189"/>
+    <mergeCell ref="E103:E113"/>
+    <mergeCell ref="E150:E157"/>
+    <mergeCell ref="E114:E149"/>
+    <mergeCell ref="F114:F149"/>
+    <mergeCell ref="F158:F162"/>
+    <mergeCell ref="F163:F167"/>
+    <mergeCell ref="E158:E167"/>
+    <mergeCell ref="E101:AA101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9773,61 +9658,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF64D2DB-3FF9-0A4F-837E-81FE8C182B15}">
   <dimension ref="B2:AD105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="17.19921875" customWidth="1"/>
-    <col min="12" max="12" width="17.796875" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" customWidth="1"/>
-    <col min="14" max="14" width="16.796875" customWidth="1"/>
-    <col min="15" max="15" width="25.59765625" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.5" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="18.796875" customWidth="1"/>
-    <col min="18" max="18" width="17.19921875" customWidth="1"/>
-    <col min="19" max="19" width="17.796875" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" customWidth="1"/>
     <col min="20" max="20" width="20.5" customWidth="1"/>
     <col min="21" max="21" width="18.5" customWidth="1"/>
     <col min="22" max="22" width="17.5" customWidth="1"/>
     <col min="23" max="23" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="16.2" thickBot="1"/>
-    <row r="3" spans="2:30" ht="16.2" thickBot="1">
-      <c r="B3" s="141" t="s">
+    <row r="2" spans="2:30" ht="17" thickBot="1"/>
+    <row r="3" spans="2:30" ht="17" thickBot="1">
+      <c r="B3" s="127" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="143"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
       <c r="X3" s="27"/>
       <c r="Y3" s="27"/>
       <c r="Z3" s="27"/>
@@ -9836,56 +9721,50 @@
       <c r="AC3" s="27"/>
       <c r="AD3" s="27"/>
     </row>
-    <row r="4" spans="2:30" ht="16.2" thickBot="1">
-      <c r="B4" s="67" t="s">
+    <row r="4" spans="2:30" ht="17" thickBot="1">
+      <c r="B4" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="68" t="s">
+      <c r="D4" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="F4" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="132" t="s">
         <v>227</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="H4" s="132" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="I4" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="132" t="s">
         <v>237</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="K4" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="M4" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="N4" s="68" t="s">
+      <c r="L4" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="M4" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="N4" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
       <c r="U4" s="27"/>
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
@@ -9898,32 +9777,31 @@
       <c r="AD4" s="27"/>
     </row>
     <row r="5" spans="2:30">
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="70">
+      <c r="D5" s="118">
         <v>8.4251099999999995E-3</v>
       </c>
-      <c r="N5" s="72">
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="120">
         <v>2.6004100000000001E-5</v>
       </c>
-      <c r="O5" s="73"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="135"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
       <c r="W5" s="27"/>
@@ -9936,30 +9814,29 @@
       <c r="AD5" s="27"/>
     </row>
     <row r="6" spans="2:30">
-      <c r="B6" s="145"/>
-      <c r="C6" s="87" t="s">
+      <c r="B6" s="146"/>
+      <c r="C6" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="70">
+      <c r="D6" s="114">
         <v>1.0352422999999999E-2</v>
       </c>
-      <c r="N6" s="72">
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="116">
         <v>6.3014800000000005E-5</v>
       </c>
-      <c r="O6" s="73"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="130"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
       <c r="U6" s="27"/>
       <c r="V6" s="27"/>
       <c r="W6" s="27"/>
@@ -9972,30 +9849,29 @@
       <c r="AD6" s="27"/>
     </row>
     <row r="7" spans="2:30">
-      <c r="B7" s="145"/>
-      <c r="C7" s="87" t="s">
+      <c r="B7" s="146"/>
+      <c r="C7" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="70">
+      <c r="D7" s="114">
         <v>1.0352422999999999E-2</v>
       </c>
-      <c r="N7" s="70">
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="114">
         <v>3.870292E-3</v>
       </c>
-      <c r="O7" s="73"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="130"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
@@ -10008,30 +9884,29 @@
       <c r="AD7" s="27"/>
     </row>
     <row r="8" spans="2:30">
-      <c r="B8" s="145"/>
-      <c r="C8" s="87" t="s">
+      <c r="B8" s="146"/>
+      <c r="C8" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="70">
+      <c r="D8" s="114">
         <v>2.2687224999999998E-2</v>
       </c>
-      <c r="N8" s="70">
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="114">
         <v>0.101942797</v>
       </c>
-      <c r="O8" s="73"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="130"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
       <c r="W8" s="27"/>
@@ -10044,30 +9919,29 @@
       <c r="AD8" s="27"/>
     </row>
     <row r="9" spans="2:30">
-      <c r="B9" s="145"/>
-      <c r="C9" s="87" t="s">
+      <c r="B9" s="146"/>
+      <c r="C9" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="70">
+      <c r="D9" s="114">
         <v>4.5429514999999997E-2</v>
       </c>
-      <c r="N9" s="70">
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="114">
         <v>0.53335884099999997</v>
       </c>
-      <c r="O9" s="73"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="130"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
       <c r="U9" s="27"/>
       <c r="V9" s="27"/>
       <c r="W9" s="27"/>
@@ -10080,30 +9954,29 @@
       <c r="AD9" s="27"/>
     </row>
     <row r="10" spans="2:30">
-      <c r="B10" s="145"/>
-      <c r="C10" s="87" t="s">
+      <c r="B10" s="146"/>
+      <c r="C10" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="70">
+      <c r="D10" s="114">
         <v>6.6244493000000002E-2</v>
       </c>
-      <c r="N10" s="70">
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="114">
         <v>1.108072674</v>
       </c>
-      <c r="O10" s="73"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="130"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
       <c r="U10" s="27"/>
       <c r="V10" s="27"/>
       <c r="W10" s="27"/>
@@ -10116,30 +9989,29 @@
       <c r="AD10" s="27"/>
     </row>
     <row r="11" spans="2:30">
-      <c r="B11" s="145"/>
-      <c r="C11" s="87" t="s">
+      <c r="B11" s="146"/>
+      <c r="C11" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="70">
+      <c r="D11" s="114">
         <v>8.7059470999999999E-2</v>
       </c>
-      <c r="N11" s="70">
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="114">
         <v>3.9454839270000002</v>
       </c>
-      <c r="O11" s="73"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="130"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
       <c r="W11" s="27"/>
@@ -10152,30 +10024,29 @@
       <c r="AD11" s="27"/>
     </row>
     <row r="12" spans="2:30">
-      <c r="B12" s="145"/>
-      <c r="C12" s="87" t="s">
+      <c r="B12" s="146"/>
+      <c r="C12" s="139" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="70">
+      <c r="D12" s="114">
         <v>0.105947137</v>
       </c>
-      <c r="N12" s="70">
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="114">
         <v>4.7826184859999996</v>
       </c>
-      <c r="O12" s="73"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="130"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27"/>
       <c r="W12" s="27"/>
@@ -10188,30 +10059,29 @@
       <c r="AD12" s="27"/>
     </row>
     <row r="13" spans="2:30">
-      <c r="B13" s="145"/>
-      <c r="C13" s="87" t="s">
+      <c r="B13" s="146"/>
+      <c r="C13" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="70">
+      <c r="D13" s="114">
         <v>0.125220264</v>
       </c>
-      <c r="N13" s="70">
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="114">
         <v>8.8526890290000004</v>
       </c>
-      <c r="O13" s="73"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="130"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
       <c r="W13" s="27"/>
@@ -10224,30 +10094,29 @@
       <c r="AD13" s="27"/>
     </row>
     <row r="14" spans="2:30">
-      <c r="B14" s="145"/>
-      <c r="C14" s="87" t="s">
+      <c r="B14" s="146"/>
+      <c r="C14" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="70">
+      <c r="D14" s="114">
         <v>0.14295154199999999</v>
       </c>
-      <c r="N14" s="70">
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="114">
         <v>16.386442550000002</v>
       </c>
-      <c r="O14" s="73"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="130"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
       <c r="W14" s="27"/>
@@ -10259,31 +10128,30 @@
       <c r="AC14" s="27"/>
       <c r="AD14" s="27"/>
     </row>
-    <row r="15" spans="2:30" ht="16.2" thickBot="1">
-      <c r="B15" s="145"/>
-      <c r="C15" s="89" t="s">
+    <row r="15" spans="2:30" ht="17" thickBot="1">
+      <c r="B15" s="147"/>
+      <c r="C15" s="140" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="74">
+      <c r="D15" s="117">
         <v>0.159911894</v>
       </c>
-      <c r="N15" s="74">
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="117">
         <v>20.642544579999999</v>
       </c>
-      <c r="O15" s="76"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="136"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
       <c r="U15" s="27"/>
       <c r="V15" s="27"/>
       <c r="W15" s="27"/>
@@ -10295,31 +10163,32 @@
       <c r="AC15" s="27"/>
       <c r="AD15" s="27"/>
     </row>
-    <row r="16" spans="2:30" ht="16.05" customHeight="1">
-      <c r="B16" s="144" t="s">
+    <row r="16" spans="2:30" ht="16" customHeight="1">
+      <c r="B16" s="148" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="141" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
+      <c r="D16" s="123">
+        <v>0</v>
+      </c>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
@@ -10331,29 +10200,30 @@
       <c r="AC16" s="27"/>
       <c r="AD16" s="27"/>
     </row>
-    <row r="17" spans="2:30">
-      <c r="B17" s="145"/>
-      <c r="C17" s="91" t="s">
+    <row r="17" spans="2:30" ht="17">
+      <c r="B17" s="146"/>
+      <c r="C17" s="142" t="s">
         <v>275</v>
       </c>
-      <c r="D17" s="147"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
+      <c r="D17" s="124">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="131" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27"/>
       <c r="W17" s="27"/>
@@ -10365,29 +10235,30 @@
       <c r="AC17" s="27"/>
       <c r="AD17" s="27"/>
     </row>
-    <row r="18" spans="2:30">
-      <c r="B18" s="145"/>
-      <c r="C18" s="91" t="s">
+    <row r="18" spans="2:30" ht="17">
+      <c r="B18" s="146"/>
+      <c r="C18" s="142" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="81" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
+      <c r="D18" s="124">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="131" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
       <c r="U18" s="27"/>
       <c r="V18" s="27"/>
       <c r="W18" s="27"/>
@@ -10399,29 +10270,30 @@
       <c r="AC18" s="27"/>
       <c r="AD18" s="27"/>
     </row>
-    <row r="19" spans="2:30">
-      <c r="B19" s="145"/>
-      <c r="C19" s="91" t="s">
+    <row r="19" spans="2:30" ht="17">
+      <c r="B19" s="146"/>
+      <c r="C19" s="142" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="148"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="81" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
+      <c r="D19" s="124">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="131" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
       <c r="U19" s="27"/>
       <c r="V19" s="27"/>
       <c r="W19" s="27"/>
@@ -10433,29 +10305,30 @@
       <c r="AC19" s="27"/>
       <c r="AD19" s="27"/>
     </row>
-    <row r="20" spans="2:30" ht="16.2" thickBot="1">
-      <c r="B20" s="145"/>
-      <c r="C20" s="92" t="s">
+    <row r="20" spans="2:30" ht="18" thickBot="1">
+      <c r="B20" s="149"/>
+      <c r="C20" s="143" t="s">
         <v>278</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
+      <c r="D20" s="125">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="137" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
       <c r="U20" s="27"/>
       <c r="V20" s="27"/>
       <c r="W20" s="27"/>
@@ -10468,46 +10341,43 @@
       <c r="AD20" s="27"/>
     </row>
     <row r="21" spans="2:30">
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="145" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="78">
-        <v>0</v>
-      </c>
-      <c r="E21" s="78">
-        <v>0.140073262</v>
-      </c>
-      <c r="F21" s="78">
+      <c r="D21" s="126">
+        <v>0.1400732622863767</v>
+      </c>
+      <c r="E21" s="118">
         <v>14.03061224</v>
       </c>
-      <c r="G21" s="78">
+      <c r="F21" s="118">
         <v>2.1289593930000001</v>
       </c>
-      <c r="H21" s="78">
+      <c r="G21" s="118">
         <v>1.199602649</v>
       </c>
-      <c r="I21" s="78">
+      <c r="H21" s="118">
         <v>3.2589531680000001</v>
       </c>
-      <c r="J21" s="78">
+      <c r="I21" s="118">
         <v>2.3471358969999998</v>
       </c>
-      <c r="K21" s="78">
+      <c r="J21" s="118">
         <v>31.455026459999999</v>
       </c>
-      <c r="L21" s="78">
+      <c r="K21" s="118">
         <v>13.807471899999999</v>
       </c>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="80"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="83"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="135"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
       <c r="U21" s="27"/>
       <c r="V21" s="27"/>
       <c r="W21" s="27"/>
@@ -10520,36 +10390,33 @@
       <c r="AD21" s="27"/>
     </row>
     <row r="22" spans="2:30">
-      <c r="B22" s="145"/>
-      <c r="C22" s="87" t="s">
+      <c r="B22" s="146"/>
+      <c r="C22" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="70">
-        <v>0.28199807500000001</v>
-      </c>
-      <c r="E22" s="70">
-        <v>0.296569468</v>
-      </c>
-      <c r="F22" s="70">
+      <c r="D22" s="124">
+        <v>0.29656946818034569</v>
+      </c>
+      <c r="E22" s="114">
         <v>14.017273579999999</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="70">
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="114">
         <v>3.548209366</v>
       </c>
-      <c r="J22" s="70">
+      <c r="I22" s="114">
         <v>2.5574350790000002</v>
       </c>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="73"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="130"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
       <c r="U22" s="27"/>
       <c r="V22" s="27"/>
       <c r="W22" s="27"/>
@@ -10562,42 +10429,39 @@
       <c r="AD22" s="27"/>
     </row>
     <row r="23" spans="2:30">
-      <c r="B23" s="145"/>
-      <c r="C23" s="87" t="s">
+      <c r="B23" s="146"/>
+      <c r="C23" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="70">
-        <v>1</v>
-      </c>
-      <c r="E23" s="70">
-        <v>0.75470732100000004</v>
-      </c>
-      <c r="F23" s="70">
+      <c r="D23" s="124">
+        <v>0.75470732097812443</v>
+      </c>
+      <c r="E23" s="114">
         <v>16.038081900000002</v>
       </c>
-      <c r="G23" s="70">
+      <c r="F23" s="114">
         <v>2.2755246919999998</v>
       </c>
-      <c r="H23" s="70">
+      <c r="G23" s="114">
         <v>1.1980132450000001</v>
       </c>
-      <c r="I23" s="70">
+      <c r="H23" s="114">
         <v>3.699724518</v>
       </c>
-      <c r="J23" s="70">
+      <c r="I23" s="114">
         <v>2.532393866</v>
       </c>
-      <c r="K23" s="70">
+      <c r="J23" s="114">
         <v>22.195767199999999</v>
       </c>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="73"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="130"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
       <c r="U23" s="27"/>
       <c r="V23" s="27"/>
       <c r="W23" s="27"/>
@@ -10610,34 +10474,31 @@
       <c r="AD23" s="27"/>
     </row>
     <row r="24" spans="2:30">
-      <c r="B24" s="145"/>
-      <c r="C24" s="87" t="s">
+      <c r="B24" s="146"/>
+      <c r="C24" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="70">
-        <v>2</v>
-      </c>
-      <c r="E24" s="70">
-        <v>1.3588184590000001</v>
-      </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="70">
+      <c r="D24" s="124">
+        <v>1.3588184594004051</v>
+      </c>
+      <c r="E24" s="115"/>
+      <c r="F24" s="114">
         <v>2.4751077779999999</v>
       </c>
-      <c r="H24" s="70">
+      <c r="G24" s="114">
         <v>1.1908609269999999</v>
       </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="73"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="130"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
       <c r="W24" s="27"/>
@@ -10650,44 +10511,41 @@
       <c r="AD24" s="27"/>
     </row>
     <row r="25" spans="2:30">
-      <c r="B25" s="145"/>
-      <c r="C25" s="87" t="s">
+      <c r="B25" s="146"/>
+      <c r="C25" s="139" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="70">
-        <v>5</v>
-      </c>
-      <c r="E25" s="70">
-        <v>3.2458354150000002</v>
-      </c>
-      <c r="F25" s="70">
+      <c r="D25" s="124">
+        <v>3.2458354148869368</v>
+      </c>
+      <c r="E25" s="114">
         <v>42.770441509999998</v>
       </c>
-      <c r="G25" s="70">
+      <c r="F25" s="114">
         <v>3.2198092260000002</v>
       </c>
-      <c r="H25" s="70">
+      <c r="G25" s="114">
         <v>1.122119205</v>
       </c>
-      <c r="I25" s="70">
+      <c r="H25" s="114">
         <v>4.8774104679999999</v>
       </c>
-      <c r="J25" s="70">
+      <c r="I25" s="114">
         <v>2.3801830509999999</v>
       </c>
-      <c r="K25" s="70">
+      <c r="J25" s="114">
         <v>21.005291010000001</v>
       </c>
-      <c r="L25" s="70">
+      <c r="K25" s="114">
         <v>10.98839512</v>
       </c>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="73"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="130"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
       <c r="W25" s="27"/>
@@ -10700,44 +10558,41 @@
       <c r="AD25" s="27"/>
     </row>
     <row r="26" spans="2:30">
-      <c r="B26" s="145"/>
-      <c r="C26" s="87" t="s">
+      <c r="B26" s="146"/>
+      <c r="C26" s="139" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="70">
-        <v>10</v>
-      </c>
-      <c r="E26" s="70">
-        <v>6.3347647809999996</v>
-      </c>
-      <c r="F26" s="70">
+      <c r="D26" s="124">
+        <v>6.3347647811958625</v>
+      </c>
+      <c r="E26" s="114">
         <v>64.709217019999997</v>
       </c>
-      <c r="G26" s="70">
+      <c r="F26" s="114">
         <v>3.7138136670000002</v>
       </c>
-      <c r="H26" s="70">
+      <c r="G26" s="114">
         <v>1.0827814570000001</v>
       </c>
-      <c r="I26" s="70">
+      <c r="H26" s="114">
         <v>5.6143250690000004</v>
       </c>
-      <c r="J26" s="70">
+      <c r="I26" s="114">
         <v>2.231877275</v>
       </c>
-      <c r="K26" s="70">
+      <c r="J26" s="114">
         <v>31.190476189999998</v>
       </c>
-      <c r="L26" s="70">
+      <c r="K26" s="114">
         <v>13.194259750000001</v>
       </c>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="73"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="130"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
       <c r="W26" s="27"/>
@@ -10750,44 +10605,41 @@
       <c r="AD26" s="27"/>
     </row>
     <row r="27" spans="2:30">
-      <c r="B27" s="145"/>
-      <c r="C27" s="87" t="s">
+      <c r="B27" s="146"/>
+      <c r="C27" s="139" t="s">
         <v>194</v>
       </c>
-      <c r="D27" s="70">
-        <v>16.69099757</v>
-      </c>
-      <c r="E27" s="70">
-        <v>10.487439</v>
-      </c>
-      <c r="F27" s="70">
+      <c r="D27" s="124">
+        <v>10.487439002787971</v>
+      </c>
+      <c r="E27" s="114">
         <v>96.793717490000006</v>
       </c>
-      <c r="G27" s="70">
+      <c r="F27" s="114">
         <v>5.3097684379999999</v>
       </c>
-      <c r="H27" s="70">
+      <c r="G27" s="114">
         <v>1.078807947</v>
       </c>
-      <c r="I27" s="70">
+      <c r="H27" s="114">
         <v>6.8953168040000001</v>
       </c>
-      <c r="J27" s="70">
+      <c r="I27" s="114">
         <v>2.2206346809999999</v>
       </c>
-      <c r="K27" s="70">
+      <c r="J27" s="114">
         <v>28.214285709999999</v>
       </c>
-      <c r="L27" s="70">
+      <c r="K27" s="114">
         <v>12.886314280000001</v>
       </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="73"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="130"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
       <c r="W27" s="27"/>
@@ -10799,37 +10651,34 @@
       <c r="AC27" s="27"/>
       <c r="AD27" s="27"/>
     </row>
-    <row r="28" spans="2:30" ht="16.2" thickBot="1">
-      <c r="B28" s="146"/>
-      <c r="C28" s="88" t="s">
+    <row r="28" spans="2:30" ht="17" thickBot="1">
+      <c r="B28" s="147"/>
+      <c r="C28" s="140" t="s">
         <v>197</v>
       </c>
-      <c r="D28" s="74">
-        <v>19.951338199999999</v>
-      </c>
-      <c r="E28" s="74">
-        <v>12.533108439999999</v>
-      </c>
-      <c r="F28" s="74">
+      <c r="D28" s="138">
+        <v>12.533108444889534</v>
+      </c>
+      <c r="E28" s="117">
         <v>164.36741359999999</v>
       </c>
-      <c r="G28" s="74">
+      <c r="F28" s="117">
         <v>5.3251929679999996</v>
       </c>
-      <c r="H28" s="74">
+      <c r="G28" s="117">
         <v>1.0760264900000001</v>
       </c>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="76"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="136"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
       <c r="W28" s="27"/>
@@ -10841,27 +10690,30 @@
       <c r="AC28" s="27"/>
       <c r="AD28" s="27"/>
     </row>
-    <row r="29" spans="2:30" ht="15.45" customHeight="1">
-      <c r="B29" s="139" t="s">
+    <row r="29" spans="2:30" ht="15.5" customHeight="1">
+      <c r="B29" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="40">
+        <v>-0.76278823217598801</v>
+      </c>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="40">
+        <v>5.3605442180000002</v>
+      </c>
+      <c r="N29" s="62"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
       <c r="W29" s="27"/>
@@ -10873,25 +10725,28 @@
       <c r="AC29" s="27"/>
       <c r="AD29" s="27"/>
     </row>
-    <row r="30" spans="2:30" ht="15.45" customHeight="1">
-      <c r="B30" s="140"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
+    <row r="30" spans="2:30" ht="15.5" customHeight="1">
+      <c r="B30" s="146"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="1">
+        <v>-3.9049385988164403E-2</v>
+      </c>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="1">
+        <v>8</v>
+      </c>
+      <c r="N30" s="53"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
       <c r="W30" s="27"/>
@@ -10903,25 +10758,28 @@
       <c r="AC30" s="27"/>
       <c r="AD30" s="27"/>
     </row>
-    <row r="31" spans="2:30" ht="15.45" customHeight="1">
-      <c r="B31" s="140"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="83"/>
+    <row r="31" spans="2:30" ht="15.5" customHeight="1">
+      <c r="B31" s="146"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="1">
+        <v>0.67917660570721405</v>
+      </c>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="1">
+        <v>8.5170068029999992</v>
+      </c>
+      <c r="N31" s="53"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
       <c r="W31" s="27"/>
@@ -10933,25 +10791,28 @@
       <c r="AC31" s="27"/>
       <c r="AD31" s="27"/>
     </row>
-    <row r="32" spans="2:30" ht="15.45" customHeight="1">
-      <c r="B32" s="140"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="83"/>
+    <row r="32" spans="2:30" ht="15.5" customHeight="1">
+      <c r="B32" s="146"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="1">
+        <v>2.72260800424064</v>
+      </c>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="1">
+        <v>15.23809524</v>
+      </c>
+      <c r="N32" s="53"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
       <c r="W32" s="27"/>
@@ -10963,25 +10824,28 @@
       <c r="AC32" s="27"/>
       <c r="AD32" s="27"/>
     </row>
-    <row r="33" spans="2:30" ht="15.45" customHeight="1">
-      <c r="B33" s="140"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="83"/>
+    <row r="33" spans="2:30" ht="15.5" customHeight="1" thickBot="1">
+      <c r="B33" s="147"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="24">
+        <v>10.823889036133901</v>
+      </c>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="24">
+        <v>14.23129252</v>
+      </c>
+      <c r="N33" s="55"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
       <c r="W33" s="27"/>
@@ -10993,26 +10857,26 @@
       <c r="AC33" s="27"/>
       <c r="AD33" s="27"/>
     </row>
-    <row r="34" spans="2:30" ht="16.05" customHeight="1">
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
+    <row r="34" spans="2:30" ht="16" customHeight="1">
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69"/>
       <c r="U34" s="27"/>
       <c r="V34" s="27"/>
       <c r="W34" s="27"/>
@@ -11025,25 +10889,25 @@
       <c r="AD34" s="27"/>
     </row>
     <row r="35" spans="2:30">
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
       <c r="U35" s="27"/>
       <c r="V35" s="27"/>
       <c r="W35" s="27"/>
@@ -11056,25 +10920,25 @@
       <c r="AD35" s="27"/>
     </row>
     <row r="36" spans="2:30">
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="83"/>
-      <c r="T36" s="83"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
       <c r="U36" s="27"/>
       <c r="V36" s="27"/>
       <c r="W36" s="27"/>
@@ -11087,25 +10951,25 @@
       <c r="AD36" s="27"/>
     </row>
     <row r="37" spans="2:30">
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="83"/>
-      <c r="T37" s="83"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
       <c r="U37" s="27"/>
       <c r="V37" s="27"/>
       <c r="W37" s="27"/>
@@ -11118,25 +10982,25 @@
       <c r="AD37" s="27"/>
     </row>
     <row r="38" spans="2:30">
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="83"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
       <c r="U38" s="27"/>
       <c r="V38" s="27"/>
       <c r="W38" s="27"/>
@@ -11148,7 +11012,7 @@
       <c r="AC38" s="27"/>
       <c r="AD38" s="27"/>
     </row>
-    <row r="39" spans="2:30" ht="16.05" customHeight="1">
+    <row r="39" spans="2:30" ht="16" customHeight="1">
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -11159,15 +11023,14 @@
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="83"/>
-      <c r="T39" s="83"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
       <c r="U39" s="27"/>
       <c r="V39" s="27"/>
       <c r="W39" s="27"/>
@@ -11180,10 +11043,10 @@
       <c r="AD39" s="27"/>
     </row>
     <row r="40" spans="2:30">
-      <c r="Q40" s="83"/>
-      <c r="R40" s="83"/>
-      <c r="S40" s="83"/>
-      <c r="T40" s="83"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
       <c r="U40" s="27"/>
       <c r="V40" s="27"/>
       <c r="W40" s="27"/>
@@ -11196,10 +11059,10 @@
       <c r="AD40" s="27"/>
     </row>
     <row r="41" spans="2:30">
-      <c r="Q41" s="83"/>
-      <c r="R41" s="83"/>
-      <c r="S41" s="83"/>
-      <c r="T41" s="83"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
       <c r="U41" s="27"/>
       <c r="V41" s="27"/>
       <c r="W41" s="27"/>
@@ -11212,25 +11075,24 @@
       <c r="AD41" s="27"/>
     </row>
     <row r="42" spans="2:30">
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="83"/>
-      <c r="S42" s="83"/>
-      <c r="T42" s="83"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
       <c r="U42" s="27"/>
       <c r="V42" s="27"/>
       <c r="W42" s="27"/>
@@ -11243,25 +11105,24 @@
       <c r="AD42" s="27"/>
     </row>
     <row r="43" spans="2:30">
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="83"/>
-      <c r="S43" s="83"/>
-      <c r="T43" s="83"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="69"/>
+      <c r="R43" s="69"/>
+      <c r="S43" s="69"/>
+      <c r="T43" s="69"/>
       <c r="U43" s="27"/>
       <c r="V43" s="27"/>
       <c r="W43" s="27"/>
@@ -11274,25 +11135,24 @@
       <c r="AD43" s="27"/>
     </row>
     <row r="44" spans="2:30">
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="83"/>
-      <c r="S44" s="83"/>
-      <c r="T44" s="83"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
       <c r="U44" s="27"/>
       <c r="V44" s="27"/>
       <c r="W44" s="27"/>
@@ -11305,25 +11165,24 @@
       <c r="AD44" s="27"/>
     </row>
     <row r="45" spans="2:30">
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="83"/>
-      <c r="S45" s="83"/>
-      <c r="T45" s="83"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="69"/>
+      <c r="T45" s="69"/>
       <c r="U45" s="27"/>
       <c r="V45" s="27"/>
       <c r="W45" s="27"/>
@@ -11336,25 +11195,24 @@
       <c r="AD45" s="27"/>
     </row>
     <row r="46" spans="2:30">
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="83"/>
-      <c r="R46" s="83"/>
-      <c r="S46" s="83"/>
-      <c r="T46" s="83"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="69"/>
       <c r="U46" s="27"/>
       <c r="V46" s="27"/>
       <c r="W46" s="27"/>
@@ -11367,25 +11225,24 @@
       <c r="AD46" s="27"/>
     </row>
     <row r="47" spans="2:30">
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
-      <c r="S47" s="83"/>
-      <c r="T47" s="83"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="69"/>
       <c r="U47" s="27"/>
       <c r="V47" s="27"/>
       <c r="W47" s="27"/>
@@ -11398,25 +11255,24 @@
       <c r="AD47" s="27"/>
     </row>
     <row r="48" spans="2:30">
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="83"/>
-      <c r="R48" s="83"/>
-      <c r="S48" s="83"/>
-      <c r="T48" s="83"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69"/>
+      <c r="T48" s="69"/>
       <c r="U48" s="27"/>
       <c r="V48" s="27"/>
       <c r="W48" s="27"/>
@@ -11429,25 +11285,24 @@
       <c r="AD48" s="27"/>
     </row>
     <row r="49" spans="2:30">
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
-      <c r="S49" s="83"/>
-      <c r="T49" s="83"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="69"/>
+      <c r="T49" s="69"/>
       <c r="U49" s="27"/>
       <c r="V49" s="27"/>
       <c r="W49" s="27"/>
@@ -11460,25 +11315,24 @@
       <c r="AD49" s="27"/>
     </row>
     <row r="50" spans="2:30">
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
-      <c r="S50" s="83"/>
-      <c r="T50" s="83"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="69"/>
+      <c r="T50" s="69"/>
       <c r="U50" s="27"/>
       <c r="V50" s="27"/>
       <c r="W50" s="27"/>
@@ -11491,25 +11345,24 @@
       <c r="AD50" s="27"/>
     </row>
     <row r="51" spans="2:30">
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
-      <c r="Q51" s="83"/>
-      <c r="R51" s="83"/>
-      <c r="S51" s="83"/>
-      <c r="T51" s="83"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
       <c r="U51" s="27"/>
       <c r="V51" s="27"/>
       <c r="W51" s="27"/>
@@ -11522,25 +11375,24 @@
       <c r="AD51" s="27"/>
     </row>
     <row r="52" spans="2:30">
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="83"/>
-      <c r="R52" s="83"/>
-      <c r="S52" s="83"/>
-      <c r="T52" s="83"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
       <c r="U52" s="27"/>
       <c r="V52" s="27"/>
       <c r="W52" s="27"/>
@@ -11553,25 +11405,24 @@
       <c r="AD52" s="27"/>
     </row>
     <row r="53" spans="2:30">
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="83"/>
-      <c r="T53" s="83"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="69"/>
       <c r="U53" s="27"/>
       <c r="V53" s="27"/>
       <c r="W53" s="27"/>
@@ -11584,25 +11435,24 @@
       <c r="AD53" s="27"/>
     </row>
     <row r="54" spans="2:30">
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
-      <c r="Q54" s="83"/>
-      <c r="R54" s="83"/>
-      <c r="S54" s="83"/>
-      <c r="T54" s="83"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="69"/>
+      <c r="S54" s="69"/>
+      <c r="T54" s="69"/>
       <c r="U54" s="27"/>
       <c r="V54" s="27"/>
       <c r="W54" s="27"/>
@@ -11615,25 +11465,24 @@
       <c r="AD54" s="27"/>
     </row>
     <row r="55" spans="2:30">
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
-      <c r="T55" s="83"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="69"/>
+      <c r="Q55" s="69"/>
+      <c r="R55" s="69"/>
+      <c r="S55" s="69"/>
+      <c r="T55" s="69"/>
       <c r="U55" s="27"/>
       <c r="V55" s="27"/>
       <c r="W55" s="27"/>
@@ -11646,25 +11495,24 @@
       <c r="AD55" s="27"/>
     </row>
     <row r="56" spans="2:30">
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="83"/>
-      <c r="T56" s="83"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="69"/>
+      <c r="R56" s="69"/>
+      <c r="S56" s="69"/>
+      <c r="T56" s="69"/>
       <c r="U56" s="27"/>
       <c r="V56" s="27"/>
       <c r="W56" s="27"/>
@@ -11677,25 +11525,24 @@
       <c r="AD56" s="27"/>
     </row>
     <row r="57" spans="2:30">
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83"/>
-      <c r="Q57" s="83"/>
-      <c r="R57" s="83"/>
-      <c r="S57" s="83"/>
-      <c r="T57" s="83"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="69"/>
       <c r="U57" s="27"/>
       <c r="V57" s="27"/>
       <c r="W57" s="27"/>
@@ -11708,25 +11555,24 @@
       <c r="AD57" s="27"/>
     </row>
     <row r="58" spans="2:30">
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
-      <c r="Q58" s="83"/>
-      <c r="R58" s="83"/>
-      <c r="S58" s="83"/>
-      <c r="T58" s="83"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="69"/>
+      <c r="R58" s="69"/>
+      <c r="S58" s="69"/>
+      <c r="T58" s="69"/>
       <c r="U58" s="27"/>
       <c r="V58" s="27"/>
       <c r="W58" s="27"/>
@@ -11739,25 +11585,24 @@
       <c r="AD58" s="27"/>
     </row>
     <row r="59" spans="2:30">
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
-      <c r="Q59" s="83"/>
-      <c r="R59" s="83"/>
-      <c r="S59" s="83"/>
-      <c r="T59" s="83"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="69"/>
+      <c r="S59" s="69"/>
+      <c r="T59" s="69"/>
       <c r="U59" s="27"/>
       <c r="V59" s="27"/>
       <c r="W59" s="27"/>
@@ -11770,25 +11615,24 @@
       <c r="AD59" s="27"/>
     </row>
     <row r="60" spans="2:30">
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="83"/>
-      <c r="O60" s="83"/>
-      <c r="P60" s="83"/>
-      <c r="Q60" s="83"/>
-      <c r="R60" s="83"/>
-      <c r="S60" s="83"/>
-      <c r="T60" s="83"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="69"/>
+      <c r="S60" s="69"/>
+      <c r="T60" s="69"/>
       <c r="U60" s="27"/>
       <c r="V60" s="27"/>
       <c r="W60" s="27"/>
@@ -11801,8 +11645,8 @@
       <c r="AD60" s="27"/>
     </row>
     <row r="61" spans="2:30">
-      <c r="S61" s="83"/>
-      <c r="T61" s="83"/>
+      <c r="S61" s="69"/>
+      <c r="T61" s="69"/>
       <c r="U61" s="27"/>
       <c r="V61" s="27"/>
       <c r="W61" s="27"/>
@@ -11815,8 +11659,8 @@
       <c r="AD61" s="27"/>
     </row>
     <row r="62" spans="2:30">
-      <c r="S62" s="83"/>
-      <c r="T62" s="83"/>
+      <c r="S62" s="69"/>
+      <c r="T62" s="69"/>
       <c r="U62" s="27"/>
       <c r="V62" s="27"/>
       <c r="W62" s="27"/>
@@ -11829,8 +11673,8 @@
       <c r="AD62" s="27"/>
     </row>
     <row r="63" spans="2:30">
-      <c r="S63" s="83"/>
-      <c r="T63" s="83"/>
+      <c r="S63" s="69"/>
+      <c r="T63" s="69"/>
       <c r="U63" s="27"/>
       <c r="V63" s="27"/>
       <c r="W63" s="27"/>
@@ -11843,8 +11687,8 @@
       <c r="AD63" s="27"/>
     </row>
     <row r="64" spans="2:30">
-      <c r="S64" s="83"/>
-      <c r="T64" s="83"/>
+      <c r="S64" s="69"/>
+      <c r="T64" s="69"/>
       <c r="U64" s="27"/>
       <c r="V64" s="27"/>
       <c r="W64" s="27"/>
@@ -11857,8 +11701,8 @@
       <c r="AD64" s="27"/>
     </row>
     <row r="65" spans="19:30">
-      <c r="S65" s="83"/>
-      <c r="T65" s="83"/>
+      <c r="S65" s="69"/>
+      <c r="T65" s="69"/>
       <c r="U65" s="27"/>
       <c r="V65" s="27"/>
       <c r="W65" s="27"/>
@@ -11871,8 +11715,8 @@
       <c r="AD65" s="27"/>
     </row>
     <row r="66" spans="19:30">
-      <c r="S66" s="83"/>
-      <c r="T66" s="83"/>
+      <c r="S66" s="69"/>
+      <c r="T66" s="69"/>
       <c r="U66" s="27"/>
       <c r="V66" s="27"/>
       <c r="W66" s="27"/>
@@ -11885,8 +11729,8 @@
       <c r="AD66" s="27"/>
     </row>
     <row r="67" spans="19:30">
-      <c r="S67" s="83"/>
-      <c r="T67" s="83"/>
+      <c r="S67" s="69"/>
+      <c r="T67" s="69"/>
       <c r="U67" s="27"/>
       <c r="V67" s="27"/>
       <c r="W67" s="27"/>
@@ -11899,8 +11743,8 @@
       <c r="AD67" s="27"/>
     </row>
     <row r="68" spans="19:30">
-      <c r="S68" s="83"/>
-      <c r="T68" s="83"/>
+      <c r="S68" s="69"/>
+      <c r="T68" s="69"/>
       <c r="U68" s="27"/>
       <c r="V68" s="27"/>
       <c r="W68" s="27"/>
@@ -11913,8 +11757,8 @@
       <c r="AD68" s="27"/>
     </row>
     <row r="69" spans="19:30">
-      <c r="S69" s="83"/>
-      <c r="T69" s="83"/>
+      <c r="S69" s="69"/>
+      <c r="T69" s="69"/>
       <c r="U69" s="27"/>
       <c r="V69" s="27"/>
       <c r="W69" s="27"/>
@@ -11927,8 +11771,8 @@
       <c r="AD69" s="27"/>
     </row>
     <row r="70" spans="19:30">
-      <c r="S70" s="83"/>
-      <c r="T70" s="83"/>
+      <c r="S70" s="69"/>
+      <c r="T70" s="69"/>
       <c r="U70" s="27"/>
       <c r="V70" s="27"/>
       <c r="W70" s="27"/>
@@ -11941,8 +11785,8 @@
       <c r="AD70" s="27"/>
     </row>
     <row r="71" spans="19:30">
-      <c r="S71" s="83"/>
-      <c r="T71" s="83"/>
+      <c r="S71" s="69"/>
+      <c r="T71" s="69"/>
       <c r="U71" s="27"/>
       <c r="V71" s="27"/>
       <c r="W71" s="27"/>
@@ -11955,8 +11799,8 @@
       <c r="AD71" s="27"/>
     </row>
     <row r="72" spans="19:30">
-      <c r="S72" s="83"/>
-      <c r="T72" s="83"/>
+      <c r="S72" s="69"/>
+      <c r="T72" s="69"/>
       <c r="U72" s="27"/>
       <c r="V72" s="27"/>
       <c r="W72" s="27"/>
@@ -11969,8 +11813,8 @@
       <c r="AD72" s="27"/>
     </row>
     <row r="73" spans="19:30">
-      <c r="S73" s="83"/>
-      <c r="T73" s="83"/>
+      <c r="S73" s="69"/>
+      <c r="T73" s="69"/>
       <c r="U73" s="27"/>
       <c r="V73" s="27"/>
       <c r="W73" s="27"/>
@@ -11983,8 +11827,8 @@
       <c r="AD73" s="27"/>
     </row>
     <row r="74" spans="19:30">
-      <c r="S74" s="83"/>
-      <c r="T74" s="83"/>
+      <c r="S74" s="69"/>
+      <c r="T74" s="69"/>
       <c r="U74" s="27"/>
       <c r="V74" s="27"/>
       <c r="W74" s="27"/>
@@ -11997,8 +11841,8 @@
       <c r="AD74" s="27"/>
     </row>
     <row r="75" spans="19:30">
-      <c r="S75" s="83"/>
-      <c r="T75" s="83"/>
+      <c r="S75" s="69"/>
+      <c r="T75" s="69"/>
       <c r="U75" s="27"/>
       <c r="V75" s="27"/>
       <c r="W75" s="27"/>
@@ -12011,8 +11855,8 @@
       <c r="AD75" s="27"/>
     </row>
     <row r="76" spans="19:30">
-      <c r="S76" s="83"/>
-      <c r="T76" s="83"/>
+      <c r="S76" s="69"/>
+      <c r="T76" s="69"/>
       <c r="U76" s="27"/>
       <c r="V76" s="27"/>
       <c r="W76" s="27"/>
@@ -12025,8 +11869,8 @@
       <c r="AD76" s="27"/>
     </row>
     <row r="77" spans="19:30">
-      <c r="S77" s="83"/>
-      <c r="T77" s="83"/>
+      <c r="S77" s="69"/>
+      <c r="T77" s="69"/>
       <c r="U77" s="27"/>
       <c r="V77" s="27"/>
       <c r="W77" s="27"/>
@@ -12039,8 +11883,8 @@
       <c r="AD77" s="27"/>
     </row>
     <row r="78" spans="19:30">
-      <c r="S78" s="83"/>
-      <c r="T78" s="83"/>
+      <c r="S78" s="69"/>
+      <c r="T78" s="69"/>
       <c r="U78" s="27"/>
       <c r="V78" s="27"/>
       <c r="W78" s="27"/>
@@ -12053,8 +11897,8 @@
       <c r="AD78" s="27"/>
     </row>
     <row r="79" spans="19:30">
-      <c r="S79" s="83"/>
-      <c r="T79" s="83"/>
+      <c r="S79" s="69"/>
+      <c r="T79" s="69"/>
       <c r="U79" s="27"/>
       <c r="V79" s="27"/>
       <c r="W79" s="27"/>
@@ -12067,8 +11911,8 @@
       <c r="AD79" s="27"/>
     </row>
     <row r="80" spans="19:30">
-      <c r="S80" s="83"/>
-      <c r="T80" s="83"/>
+      <c r="S80" s="69"/>
+      <c r="T80" s="69"/>
       <c r="U80" s="27"/>
       <c r="V80" s="27"/>
       <c r="W80" s="27"/>
@@ -12081,8 +11925,8 @@
       <c r="AD80" s="27"/>
     </row>
     <row r="81" spans="19:30">
-      <c r="S81" s="83"/>
-      <c r="T81" s="83"/>
+      <c r="S81" s="69"/>
+      <c r="T81" s="69"/>
       <c r="U81" s="27"/>
       <c r="V81" s="27"/>
       <c r="W81" s="27"/>
@@ -12095,8 +11939,8 @@
       <c r="AD81" s="27"/>
     </row>
     <row r="82" spans="19:30">
-      <c r="S82" s="83"/>
-      <c r="T82" s="83"/>
+      <c r="S82" s="69"/>
+      <c r="T82" s="69"/>
       <c r="U82" s="27"/>
       <c r="V82" s="27"/>
       <c r="W82" s="27"/>
@@ -12109,8 +11953,8 @@
       <c r="AD82" s="27"/>
     </row>
     <row r="83" spans="19:30">
-      <c r="S83" s="83"/>
-      <c r="T83" s="83"/>
+      <c r="S83" s="69"/>
+      <c r="T83" s="69"/>
       <c r="U83" s="27"/>
       <c r="V83" s="27"/>
       <c r="W83" s="27"/>
@@ -12123,8 +11967,8 @@
       <c r="AD83" s="27"/>
     </row>
     <row r="84" spans="19:30">
-      <c r="S84" s="83"/>
-      <c r="T84" s="83"/>
+      <c r="S84" s="69"/>
+      <c r="T84" s="69"/>
       <c r="U84" s="27"/>
       <c r="V84" s="27"/>
       <c r="W84" s="27"/>
@@ -12137,8 +11981,8 @@
       <c r="AD84" s="27"/>
     </row>
     <row r="85" spans="19:30">
-      <c r="S85" s="83"/>
-      <c r="T85" s="83"/>
+      <c r="S85" s="69"/>
+      <c r="T85" s="69"/>
       <c r="U85" s="27"/>
       <c r="V85" s="27"/>
       <c r="W85" s="27"/>
@@ -12151,8 +11995,8 @@
       <c r="AD85" s="27"/>
     </row>
     <row r="86" spans="19:30">
-      <c r="S86" s="83"/>
-      <c r="T86" s="83"/>
+      <c r="S86" s="69"/>
+      <c r="T86" s="69"/>
       <c r="U86" s="27"/>
       <c r="V86" s="27"/>
       <c r="W86" s="27"/>
@@ -12165,8 +12009,8 @@
       <c r="AD86" s="27"/>
     </row>
     <row r="87" spans="19:30">
-      <c r="S87" s="83"/>
-      <c r="T87" s="83"/>
+      <c r="S87" s="69"/>
+      <c r="T87" s="69"/>
       <c r="U87" s="27"/>
       <c r="V87" s="27"/>
       <c r="W87" s="27"/>
@@ -12179,8 +12023,8 @@
       <c r="AD87" s="27"/>
     </row>
     <row r="88" spans="19:30">
-      <c r="S88" s="83"/>
-      <c r="T88" s="83"/>
+      <c r="S88" s="69"/>
+      <c r="T88" s="69"/>
       <c r="U88" s="27"/>
       <c r="V88" s="27"/>
       <c r="W88" s="27"/>
@@ -12193,8 +12037,8 @@
       <c r="AD88" s="27"/>
     </row>
     <row r="89" spans="19:30">
-      <c r="S89" s="83"/>
-      <c r="T89" s="83"/>
+      <c r="S89" s="69"/>
+      <c r="T89" s="69"/>
       <c r="U89" s="27"/>
       <c r="V89" s="27"/>
       <c r="W89" s="27"/>
@@ -12207,8 +12051,8 @@
       <c r="AD89" s="27"/>
     </row>
     <row r="90" spans="19:30">
-      <c r="S90" s="83"/>
-      <c r="T90" s="83"/>
+      <c r="S90" s="69"/>
+      <c r="T90" s="69"/>
       <c r="U90" s="27"/>
       <c r="V90" s="27"/>
       <c r="W90" s="27"/>
@@ -12221,8 +12065,8 @@
       <c r="AD90" s="27"/>
     </row>
     <row r="91" spans="19:30">
-      <c r="S91" s="83"/>
-      <c r="T91" s="83"/>
+      <c r="S91" s="69"/>
+      <c r="T91" s="69"/>
       <c r="U91" s="27"/>
       <c r="V91" s="27"/>
       <c r="W91" s="27"/>
@@ -12433,10 +12277,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B3:O3"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
+++ b/in-progress/Koerner_2005_Polymer/Koerner_2005_Polymer_Tidy_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisondavis/Documents/GitHub/nmcuration/in-progress/Koerner_2005_Polymer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C77976-73C2-E848-9757-E7EA80941A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42084AA8-4DDF-8745-A358-ABC0B65DEBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7980" yWindow="460" windowWidth="20780" windowHeight="17540" xr2:uid="{AA27EEF6-2707-3642-A9D6-F1434A24BCB7}"/>
   </bookViews>
@@ -860,7 +860,7 @@
   <dimension ref="A1:AD105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1427,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="30">
-        <v>0.1400732622863767</v>
+        <v>0</v>
       </c>
       <c r="C18" s="22">
         <v>14.03061224</v>
@@ -1759,7 +1759,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>-3.9049385988164403E-2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
